--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9E6B4-AAF3-4B60-AEBC-51D9196C4E47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C6360-DD66-4009-B4F1-8B83419CB2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0" shapeId="0" xr:uid="{11A756B3-BB54-492E-805E-52B33EEA5A4B}">
+    <comment ref="B61" authorId="0" shapeId="0" xr:uid="{11A756B3-BB54-492E-805E-52B33EEA5A4B}">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{FF0A9032-1C5D-4E15-937D-1FFDE086FD7F}">
+    <comment ref="B66" authorId="0" shapeId="0" xr:uid="{FF0A9032-1C5D-4E15-937D-1FFDE086FD7F}">
       <text>
         <r>
           <rPr>
@@ -176,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{B9FF77F7-157E-496B-B639-4D7F9B5E6BC9}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{B9FF77F7-157E-496B-B639-4D7F9B5E6BC9}">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B170" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B181" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B180" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1445">
   <si>
     <t>#</t>
   </si>
@@ -4127,9 +4127,6 @@
   </si>
   <si>
     <t>Array, Backtracking</t>
-  </si>
-  <si>
-    <t>Heap, Sliding Window, Dequeue</t>
   </si>
   <si>
     <t>Hash T, String</t>
@@ -9693,6 +9690,628 @@
   </si>
   <si>
     <t>DFS, Recursion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">public TreeNode InvertTree(TreeNode root) 
+{
+	if(root == null)
+		return null;
+	Stack&lt;TreeNode&gt; stack =  new Stack&lt;TreeNode&gt;();
+	stack.Push(root);
+	while(stack.Any())
+	{
+		TreeNode temp = stack.Pop();
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreeNode tempLeft = temp.left;
+		temp.left = temp.right;
+		temp.right = tempLeft;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		if(temp.left != null)
+			stack.Push(temp.left);
+		if(temp.right != null)
+			stack.Push(temp.right);
+	}
+	return root;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Concatenation of Consecutive Binary Numbers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int ConcatenatedBinary(int n) {
+	int MOD = 1000000000 + 7;
+	Console.WriteLine(MOD);
+	int length = 0; // bit length of addends
+	long result = 0; // long accumulator
+	for (int i = 1; i &lt;= n; i++) 
+	{
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// when meets power of 2, increase the bit length
+		if ((i &amp; (i - 1)) == 0) 
+		{
+			length++;
+		}
+		result = ((result &lt;&lt; length) | i) % MOD;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	}
+	return (int) result;
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stack&lt;string&gt; stack = new Stack&lt;string&gt;();
+int l = 0, r = 0;
+while (r &lt; s.Length)
+{
+	if(s[r] == ' ' || s[r] == '+' || s[r] == '-' || s[r] == '*' || s[r] == '/')
+	{
+		if(s[r] != ' ') 
+			stack.Push(s.Substring(r, 1));
+		r ++;
+		l = r;
+	}
+	else
+	{
+		while (r &lt; s.Length &amp;&amp; char.IsDigit(s[r]))
+			r++;
+		if (l != r)
+		{
+			string cValStr = s.Substring(l, r - l);
+                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if previous char is / or *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+			if (stack.Any() &amp;&amp; (stack.Peek() == "*" || stack.Peek() == "/"))
+			{
+				string op = stack.Pop(); //remove operator    
+				int poppeedVal = int.Parse(stack.Pop());
+				int cVal = int.Parse(cValStr);
+				poppeedVal = (op == "/") ? (poppeedVal / cVal) : (poppeedVal * cVal);
+				stack.Push(poppeedVal.ToString());
+			}
+			else
+			{
+				stack.Push(cValStr);
+			}
+			l = r;
+		}
+	}
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//here stack only conttains numbers with '+' '-' operators
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack&lt;string&gt; reverseStack = new Stack&lt;string&gt;();
+while (stack.Any())
+	reverseStack.Push(stack.Pop());</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int result = 0;
+while (reverseStack.Any())
+{
+	if (reverseStack.Peek() == "+" || reverseStack.Peek() == "-")
+	{
+		string op = reverseStack.Pop(); //remove operator
+		int val = int.Parse(reverseStack.Pop());
+		result = (op == "+") ? (result + val) : (result - val);
+	}
+	else
+	{
+		result = int.Parse(reverseStack.Pop());
+	}
+}
+return result;</t>
+    </r>
+  </si>
+  <si>
+    <t>IList&lt;string&gt; result = new List&lt;string&gt;();
+int startRangeIndex = 0;
+for (int r = 0; r &lt; nums.Length; r++)
+{
+	if (r + 1 &lt; nums.Length &amp;&amp; Math.Abs(nums[r + 1] - nums[r]) &gt; 1)
+	{
+		if (r - startRangeIndex == 0)
+			result.Add(nums[r] + "");
+		else
+		{
+			result.Add(nums[startRangeIndex] + "-&gt;" + nums[r]);
+		}
+		startRangeIndex = r + 1;
+	}
+}
+if (startRangeIndex &lt; nums.Length)
+{
+	if ((nums.Length - 1) - startRangeIndex == 0)
+		result.Add(nums[nums.Length - 1] + "");
+	else
+	{
+		result.Add(nums[startRangeIndex] + "-&gt;" + nums[nums.Length - 1]);
+	}
+}
+return result;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//store product before num[i] -- from left side
+int[] prodBefore = new int[nums.Length];
+//store product after num[i] -- from right side
+int[] prodAfter = new int[nums.Length];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prodBefore[0] = 1;
+prodAfter[prodAfter.Length - 1] = 1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//calculate product before num[i] -- from left side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int prevVal = nums[0];
+for(int i = 1; i &lt; prodBefore.Length; i++){
+	prodBefore[i] = prevVal;
+	prevVal = prevVal * nums[i];
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//calculate product before num[i] -- from right side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+prevVal = nums[prodAfter.Length - 1];
+for(int i = prodAfter.Length - 2; i &gt;= 0; i --){
+	prodAfter[i] = prevVal;
+	prevVal = prevVal * nums[i];
+}
+for(int i = 0; i &lt; nums.Length; i++)
+	nums[i] = prodBefore[i] * prodAfter[i];            
+return nums;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//O(N), Space O(N)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//list will maintain, Descending order value indicies
+//Always add on the last side...
+//if queue is empty, as it direct
+//if the last value is small than current, keep on removing from last till list is empty or we find a bigger one
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+if (nums == null || nums.Length == 0)
+{
+	return new int[0];
+}
+var deque = new LinkedList&lt;int&gt;();
+for (int i = 0; i &lt; winSize; i++)
+{
+	var current = nums[i];
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if queue is empty, as it direct
+	if (deque.Count == 0)
+	{
+		deque.AddLast(i);
+	}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	else
+	{
+		//if the last value is small than current, keep on removing from last till list is empty 
+		//or we find a bigger one
+		while (deque.Count &gt; 0 &amp;&amp; nums[deque.Last.Value] &lt; current)
+		{
+			deque.RemoveLast();
+		}
+		deque.AddLast(i);
+	}
+}
+IList&lt;int&gt; max = new List&lt;int&gt;();
+max.Add(nums[deque.First.Value]);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//if Max goes out of window, remove it from first/left
+if (deque.First.Value == 0)
+{
+	deque.RemoveFirst();
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for (int i = 1; i &lt; nums.Length - winSize + 1; i++)
+{
+	int winRightBoundaryIdx = i + winSize - 1;
+	var current = nums[winRightBoundaryIdx];
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if the last value is bigger than current, as it direct on the right/last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	if (deque.Count == 0)
+	{
+		deque.AddLast(winRightBoundaryIdx);
+	}
+	else
+	{
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if the last value is small than current, keep on removing from last till list is empty 
+		//or we find a bigger one 
+		//and add it on the right/last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		while (deque.Count &gt; 0 &amp;&amp; nums[deque.Last.Value] &lt; current)
+		{
+			deque.RemoveLast();
+		}
+		deque.AddLast(winRightBoundaryIdx);
+	}
+	max.Add(nums[deque.First.Value]);
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if Max goes out of window, remove it from first/left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	if (deque.First.Value == i)
+	{
+		deque.RemoveFirst();
+	}
+}
+return max.ToArray();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for(int r = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>matrix.Length - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; r &gt;= 0; r --)
+{
+	int lo = 0, hi = matrix[r].Length - 1;
+	if(matrix[r][lo] &lt;= target &amp;&amp; target &lt;= matrix[r][hi])
+	{
+		while(lo &lt;= hi)
+		{
+			int m = lo + (hi - lo )/2;
+			if(matrix[r][m] == target)
+				return true;
+			else if(matrix[r][m] &gt; target)
+			{
+				hi = m - 1;
+				</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//if the left value is less than target, its of no use to go left
+				</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">if(matrix[r][hi] &lt; target) 
+					break;
+				else if(matrix[r][hi] == target)
+					return true;
+			}
+			else
+			{
+				lo = m + 1;
+				</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if the right value is greater than target, its of no use to go right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+				if(matrix[r][lo] &gt; target)
+					break;
+				else if(matrix[r][lo] == target)
+					return true;
+			}
+		}
+	}
+}
+return false;</t>
+    </r>
+  </si>
+  <si>
+    <t>Dictionary&lt;char, int&gt; dict = new Dictionary&lt;char, int&gt;();
+foreach (char c in s)
+{
+	if(!dict.ContainsKey(c))
+		dict.Add(c, 0);
+	dict[c] ++;
+}
+foreach (char c in t)
+{
+	if(!dict.ContainsKey(c))
+		return false;
+	dict[c] --;
+	if(dict[c] == 0)
+		dict.Remove(c);
+}
+return (dict.Count &gt; 0) ? false : true;</t>
   </si>
 </sst>
 </file>
@@ -10385,7 +11004,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
+  <dxfs count="149">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -10639,6 +11258,46 @@
         <patternFill patternType="solid">
           <fgColor theme="5"/>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11547,8 +12206,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="143"/>
-      <tableStyleElement type="headerRow" dxfId="142"/>
+      <tableStyleElement type="wholeTable" dxfId="148"/>
+      <tableStyleElement type="headerRow" dxfId="147"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -21070,7 +21729,7 @@
         <v>1000</v>
       </c>
       <c r="C270" s="78" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D270" s="13">
         <v>1642</v>
@@ -25804,10 +26463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I371"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -25834,7 +26493,7 @@
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="I2" s="55" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
@@ -25844,7 +26503,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="I3" s="55" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -25854,7 +26513,7 @@
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
       <c r="I4" s="55" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1">
@@ -25864,7 +26523,7 @@
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="I5" s="55" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
@@ -25874,14 +26533,14 @@
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
       <c r="I6" s="55" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
       <c r="I7" s="55" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
@@ -25891,7 +26550,7 @@
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="I8" s="55" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
@@ -25917,7 +26576,7 @@
         <v>1008</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
@@ -25940,10 +26599,10 @@
         <v>1012</v>
       </c>
       <c r="G10" s="84" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
@@ -25966,10 +26625,10 @@
         <v>1012</v>
       </c>
       <c r="G11" s="84" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
@@ -25983,7 +26642,7 @@
         <v>1220</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>7</v>
@@ -25992,10 +26651,10 @@
         <v>1012</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I12" s="55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
@@ -26015,10 +26674,10 @@
         <v>1227</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
@@ -26034,7 +26693,7 @@
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
       <c r="I14" s="55" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
@@ -26057,10 +26716,10 @@
         <v>1225</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="I15" s="55" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
@@ -26083,10 +26742,10 @@
         <v>1227</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I16" s="55" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
@@ -26109,10 +26768,10 @@
         <v>1227</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I17" s="55" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
@@ -26135,10 +26794,10 @@
         <v>1227</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I18" s="55" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
@@ -26161,10 +26820,10 @@
         <v>1227</v>
       </c>
       <c r="G19" s="84" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
@@ -26178,7 +26837,7 @@
         <v>1232</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>7</v>
@@ -26187,10 +26846,10 @@
         <v>1227</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I20" s="55" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
@@ -26213,7 +26872,7 @@
         <v>1227</v>
       </c>
       <c r="G21" s="84" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
@@ -26227,7 +26886,7 @@
         <v>1234</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>5</v>
@@ -26236,7 +26895,7 @@
         <v>1012</v>
       </c>
       <c r="G22" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
@@ -26259,7 +26918,7 @@
         <v>1012</v>
       </c>
       <c r="G23" s="84" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
@@ -26282,7 +26941,7 @@
         <v>1227</v>
       </c>
       <c r="G24" s="84" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
@@ -26305,7 +26964,7 @@
         <v>1227</v>
       </c>
       <c r="G25" s="84" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
@@ -26325,7 +26984,7 @@
         <v>1225</v>
       </c>
       <c r="G26" s="84" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
@@ -26336,16 +26995,16 @@
         <v>354</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E27" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G27" s="84" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
@@ -26356,16 +27015,16 @@
         <v>1033</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E28" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F28" s="34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G28" s="84" t="s">
         <v>1306</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
@@ -26385,7 +27044,7 @@
         <v>1227</v>
       </c>
       <c r="G29" s="84" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
@@ -26402,10 +27061,10 @@
         <v>5</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G30" s="87" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
@@ -26416,7 +27075,7 @@
         <v>226</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="E31" s="34" t="s">
         <v>3</v>
@@ -26425,7 +27084,7 @@
         <v>1225</v>
       </c>
       <c r="G31" s="84" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
@@ -26436,16 +27095,16 @@
         <v>264</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="E32" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
@@ -26465,7 +27124,7 @@
         <v>1012</v>
       </c>
       <c r="G33" s="84" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
@@ -26476,16 +27135,16 @@
         <v>337</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G34" s="84" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
@@ -26496,7 +27155,7 @@
         <v>248</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>7</v>
@@ -26505,7 +27164,7 @@
         <v>1225</v>
       </c>
       <c r="G35" s="84" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
@@ -26516,7 +27175,7 @@
         <v>1056</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E36" s="34" t="s">
         <v>3</v>
@@ -26525,7 +27184,7 @@
         <v>1012</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
@@ -26545,7 +27204,7 @@
         <v>1227</v>
       </c>
       <c r="G37" s="84" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
@@ -26562,10 +27221,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G38" s="84" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
@@ -26576,16 +27235,16 @@
         <v>483</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E39" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G39" s="84" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
@@ -26605,7 +27264,7 @@
         <v>1225</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
@@ -26616,7 +27275,7 @@
         <v>824</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>5</v>
@@ -26637,10 +27296,10 @@
         <v>5</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G42" s="84" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
@@ -26660,7 +27319,7 @@
         <v>1227</v>
       </c>
       <c r="G43" s="84" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
@@ -26677,10 +27336,10 @@
         <v>7</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G44" s="84" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
@@ -26700,7 +27359,7 @@
         <v>1227</v>
       </c>
       <c r="G45" s="84" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
@@ -26711,16 +27370,16 @@
         <v>233</v>
       </c>
       <c r="D46" s="32" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E46" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G46" s="84" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
@@ -26757,7 +27416,7 @@
         <v>1012</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
@@ -26777,7 +27436,7 @@
         <v>1225</v>
       </c>
       <c r="G49" s="84" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
@@ -26795,7 +27454,7 @@
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="84" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
@@ -26812,10 +27471,10 @@
         <v>7</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G51" s="84" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
@@ -26835,7 +27494,7 @@
         <v>1227</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
@@ -26846,7 +27505,7 @@
         <v>351</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>7</v>
@@ -26855,7 +27514,7 @@
         <v>1227</v>
       </c>
       <c r="G53" s="84" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
@@ -26866,16 +27525,16 @@
         <v>320</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G54" s="84" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
@@ -26895,7 +27554,7 @@
         <v>1012</v>
       </c>
       <c r="G55" s="87" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
@@ -26912,63 +27571,78 @@
         <v>7</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="A57" s="100"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
+      <c r="A57" s="96">
+        <v>85</v>
+      </c>
+      <c r="B57" s="62" t="s">
+        <v>787</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E57" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G57" s="84" t="s">
+        <v>1360</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58" s="96">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>787</v>
+        <v>435</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>1360</v>
+        <v>1251</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G58" s="84" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="A59" s="96">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>435</v>
+        <v>722</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>1251</v>
+        <v>128</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F59" s="34" t="s">
-        <v>1306</v>
+        <v>1225</v>
       </c>
       <c r="G59" s="84" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
       <c r="A60" s="96">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>722</v>
+        <v>840</v>
       </c>
       <c r="D60" s="32" t="s">
         <v>128</v>
@@ -26977,7 +27651,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="34" t="s">
-        <v>1225</v>
+        <v>1305</v>
       </c>
       <c r="G60" s="84" t="s">
         <v>1366</v>
@@ -26985,123 +27659,123 @@
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="A61" s="96">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>840</v>
+        <v>292</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>128</v>
+        <v>1364</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="34" t="s">
-        <v>1306</v>
+        <v>1331</v>
       </c>
       <c r="G61" s="84" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="A62" s="96">
-        <v>128</v>
+      <c r="A62" s="98">
+        <v>122</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>1365</v>
-      </c>
-      <c r="E62" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1">
+      <c r="A63" s="96">
+        <v>125</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="32" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="34" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1">
+      <c r="A64" s="32">
+        <v>680</v>
+      </c>
+      <c r="B64" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G64" s="84" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="97">
+        <v>1216</v>
+      </c>
+      <c r="B65" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="32" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
+      <c r="A66" s="96">
+        <v>134</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E66" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G62" s="84" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="15" customHeight="1">
-      <c r="A63" s="98">
-        <v>122</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="96">
-        <v>125</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="34" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="32">
-        <v>680</v>
-      </c>
-      <c r="B65" s="108" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G65" s="84" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="97">
-        <v>1216</v>
-      </c>
-      <c r="B66" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="32" t="s">
-        <v>1370</v>
-      </c>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
+      <c r="F66" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G66" s="84" t="s">
+        <v>1372</v>
+      </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="96">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>322</v>
+        <v>1066</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F67" s="34" t="s">
-        <v>1227</v>
+        <v>1331</v>
       </c>
       <c r="G67" s="84" t="s">
         <v>1373</v>
@@ -27109,30 +27783,30 @@
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="96">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>1066</v>
+        <v>139</v>
       </c>
       <c r="D68" s="32" t="s">
-        <v>1342</v>
+        <v>128</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F68" s="34" t="s">
-        <v>1332</v>
+        <v>1227</v>
       </c>
       <c r="G68" s="84" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1">
-      <c r="A69" s="96">
-        <v>151</v>
+      <c r="A69" s="30">
+        <v>153</v>
       </c>
       <c r="B69" s="62" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="D69" s="32" t="s">
         <v>128</v>
@@ -27141,207 +27815,207 @@
         <v>7</v>
       </c>
       <c r="F69" s="34" t="s">
-        <v>1227</v>
+        <v>1331</v>
       </c>
       <c r="G69" s="84" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="30">
-        <v>153</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>414</v>
+      <c r="A70" s="32">
+        <v>154</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>507</v>
       </c>
       <c r="D70" s="32" t="s">
         <v>128</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G70" s="84" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1">
-      <c r="A71" s="32">
-        <v>154</v>
-      </c>
-      <c r="B71" s="59" t="s">
-        <v>507</v>
+      <c r="A71" s="30">
+        <v>157</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>243</v>
       </c>
       <c r="D71" s="32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G71" s="84" t="s">
-        <v>1379</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="30">
-        <v>157</v>
+      <c r="A72" s="104">
+        <v>158</v>
       </c>
       <c r="B72" s="62" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E72" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G72" s="84" t="s">
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1">
+      <c r="A73" s="30">
+        <v>159</v>
+      </c>
+      <c r="B73" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="D73" s="32" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="104">
-        <v>158</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>239</v>
-      </c>
-      <c r="D73" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
+      <c r="E73" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G73" s="84" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
       <c r="A74" s="30">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>1390</v>
+        <v>140</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="34" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G74" s="84" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G74" s="94" t="s">
         <v>1391</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="30">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B75" s="62" t="s">
-        <v>315</v>
+        <v>564</v>
       </c>
       <c r="D75" s="32" t="s">
-        <v>140</v>
+        <v>1394</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F75" s="34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G75" s="94" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G75" s="84" t="s">
         <v>1392</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="30">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B76" s="62" t="s">
-        <v>564</v>
+        <v>768</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>1395</v>
+        <v>140</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F76" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G76" s="84" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="A77" s="105">
-        <v>165</v>
+      <c r="A77" s="96">
+        <v>167</v>
       </c>
       <c r="B77" s="62" t="s">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="D77" s="32" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G77" s="84" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="A78" s="105">
+        <v>168</v>
+      </c>
+      <c r="B78" s="62" t="s">
+        <v>463</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="A79" s="96">
+        <v>189</v>
+      </c>
+      <c r="B79" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G79" s="84" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="A80" s="30">
+        <v>208</v>
+      </c>
+      <c r="B80" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="D80" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>1332</v>
-      </c>
-      <c r="G77" s="84" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" customHeight="1">
-      <c r="A78" s="106">
-        <v>167</v>
-      </c>
-      <c r="B78" s="62" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D78" s="32" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G78" s="84" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="15" customHeight="1">
-      <c r="A79" s="105">
-        <v>168</v>
-      </c>
-      <c r="B79" s="62" t="s">
-        <v>463</v>
-      </c>
-      <c r="D79" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-    </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
-      <c r="A80" s="106">
-        <v>189</v>
-      </c>
-      <c r="B80" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="D80" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="E80" s="34" t="s">
         <v>7</v>
@@ -27350,228 +28024,263 @@
         <v>1225</v>
       </c>
       <c r="G80" s="84" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1">
-      <c r="A81" s="105">
-        <v>208</v>
+      <c r="A81" s="30">
+        <v>209</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>140</v>
+        <v>1402</v>
       </c>
       <c r="E81" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="34" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="G81" s="84" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1">
-      <c r="A82" s="105">
-        <v>209</v>
+      <c r="A82" s="30">
+        <v>215</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="D82" s="32" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="34" t="s">
-        <v>1227</v>
+        <v>1331</v>
       </c>
       <c r="G82" s="84" t="s">
-        <v>1402</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1">
-      <c r="A83" s="107">
-        <v>215</v>
+      <c r="A83" s="30">
+        <v>216</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>199</v>
+        <v>721</v>
       </c>
       <c r="D83" s="32" t="s">
-        <v>1411</v>
+        <v>128</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="34" t="s">
-        <v>1332</v>
+        <v>1227</v>
       </c>
       <c r="G83" s="84" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
-      <c r="A84" s="107">
-        <v>216</v>
+      <c r="A84" s="96">
+        <v>217</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>721</v>
+        <v>1061</v>
       </c>
       <c r="D84" s="32" t="s">
         <v>128</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="G84" s="84" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
-      <c r="A85" s="98">
-        <v>217</v>
+      <c r="A85" s="107">
+        <v>218</v>
       </c>
       <c r="B85" s="62" t="s">
-        <v>1061</v>
+        <v>357</v>
       </c>
       <c r="D85" s="32" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" customHeight="1">
+      <c r="A86" s="30">
+        <v>214</v>
+      </c>
+      <c r="B86" s="62" t="s">
+        <v>480</v>
+      </c>
+      <c r="D86" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G85" s="84" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" customHeight="1">
-      <c r="A86" s="107">
-        <v>218</v>
-      </c>
-      <c r="B86" s="62" t="s">
-        <v>357</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>1250</v>
       </c>
       <c r="E86" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F86" s="34"/>
+      <c r="F86" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G86" s="84" t="s">
+        <v>1414</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1">
-      <c r="A87" s="107">
-        <v>214</v>
+      <c r="A87" s="30">
+        <v>227</v>
       </c>
       <c r="B87" s="62" t="s">
-        <v>480</v>
+        <v>293</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>128</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G87" s="84" t="s">
-        <v>1415</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1">
-      <c r="A88" s="107">
-        <v>227</v>
-      </c>
-      <c r="B88" s="62" t="s">
-        <v>293</v>
+      <c r="A88" s="32">
+        <v>228</v>
+      </c>
+      <c r="B88" s="59" t="s">
+        <v>549</v>
       </c>
       <c r="D88" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
+      <c r="E88" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G88" s="84" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
-      <c r="A89" s="97">
-        <v>228</v>
-      </c>
-      <c r="B89" s="59" t="s">
-        <v>549</v>
+      <c r="A89" s="96">
+        <v>238</v>
+      </c>
+      <c r="B89" s="62" t="s">
+        <v>306</v>
       </c>
       <c r="D89" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G89" s="84" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15" customHeight="1">
+      <c r="A90" s="96">
+        <v>239</v>
+      </c>
+      <c r="B90" s="62" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E90" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G90" s="84" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1">
+      <c r="A91" s="96">
+        <v>240</v>
+      </c>
+      <c r="B91" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91" s="32" t="s">
         <v>1252</v>
       </c>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1">
-      <c r="A90" s="98">
-        <v>238</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
-      <c r="A91" s="98">
-        <v>239</v>
-      </c>
-      <c r="B91" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="D91" s="32" t="s">
+      <c r="E91" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G91" s="84" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1">
+      <c r="A92" s="30">
+        <v>242</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1">
-      <c r="A92" s="96">
-        <v>240</v>
-      </c>
-      <c r="B92" s="62" t="s">
-        <v>459</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
+      <c r="E92" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G92" s="84" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="30">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B93" s="62" t="s">
-        <v>172</v>
+        <v>783</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>128</v>
+        <v>1253</v>
       </c>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="30">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B94" s="62" t="s">
-        <v>783</v>
+        <v>838</v>
       </c>
       <c r="D94" s="32" t="s">
         <v>1254</v>
@@ -27580,11 +28289,11 @@
       <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="30">
-        <v>243</v>
-      </c>
-      <c r="B95" s="62" t="s">
-        <v>838</v>
+      <c r="A95" s="32">
+        <v>266</v>
+      </c>
+      <c r="B95" s="59" t="s">
+        <v>391</v>
       </c>
       <c r="D95" s="32" t="s">
         <v>1255</v>
@@ -27593,244 +28302,243 @@
       <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1">
-      <c r="A96" s="32">
-        <v>266</v>
-      </c>
-      <c r="B96" s="59" t="s">
-        <v>391</v>
+      <c r="A96" s="96">
+        <v>268</v>
+      </c>
+      <c r="B96" s="62" t="s">
+        <v>470</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>1256</v>
+        <v>128</v>
       </c>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1">
-      <c r="A97" s="96">
-        <v>268</v>
+      <c r="A97" s="30">
+        <v>271</v>
       </c>
       <c r="B97" s="62" t="s">
-        <v>470</v>
+        <v>728</v>
       </c>
       <c r="D97" s="32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="30">
-        <v>271</v>
-      </c>
-      <c r="B98" s="62" t="s">
-        <v>728</v>
+      <c r="A98" s="32">
+        <v>277</v>
+      </c>
+      <c r="B98" s="59" t="s">
+        <v>215</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1">
-      <c r="A99" s="32">
-        <v>277</v>
-      </c>
-      <c r="B99" s="59" t="s">
-        <v>215</v>
+      <c r="A99" s="30">
+        <v>278</v>
+      </c>
+      <c r="B99" s="62" t="s">
+        <v>190</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1">
-      <c r="A100" s="30">
-        <v>278</v>
-      </c>
-      <c r="B100" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>125</v>
+      <c r="A100" s="104">
+        <v>279</v>
+      </c>
+      <c r="B100" s="93" t="s">
+        <v>776</v>
       </c>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1">
-      <c r="A101" s="104">
-        <v>279</v>
-      </c>
-      <c r="B101" s="93" t="s">
-        <v>776</v>
+      <c r="A101" s="30">
+        <v>280</v>
+      </c>
+      <c r="B101" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="32" t="s">
+        <v>184</v>
       </c>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1">
       <c r="A102" s="30">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B102" s="62" t="s">
-        <v>380</v>
+        <v>149</v>
       </c>
       <c r="D102" s="32" t="s">
-        <v>184</v>
+        <v>1267</v>
       </c>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1">
-      <c r="A103" s="30">
-        <v>283</v>
+      <c r="A103" s="96">
+        <v>290</v>
       </c>
       <c r="B103" s="62" t="s">
-        <v>149</v>
+        <v>1068</v>
       </c>
       <c r="D103" s="32" t="s">
-        <v>1268</v>
+        <v>184</v>
       </c>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1">
-      <c r="A104" s="96">
-        <v>290</v>
+      <c r="A104" s="30">
+        <v>296</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>184</v>
+        <v>715</v>
       </c>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1">
       <c r="A105" s="30">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B105" s="62" t="s">
-        <v>715</v>
+        <v>210</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1">
       <c r="A106" s="30">
-        <v>295</v>
+        <v>833</v>
       </c>
       <c r="B106" s="62" t="s">
-        <v>210</v>
+        <v>747</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>123</v>
+        <v>1265</v>
       </c>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1">
       <c r="A107" s="30">
-        <v>833</v>
+        <v>311</v>
       </c>
       <c r="B107" s="62" t="s">
-        <v>747</v>
+        <v>370</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1266</v>
+        <v>184</v>
       </c>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
-    </row>
-    <row r="108" spans="1:7" s="82" customFormat="1" ht="15" customHeight="1">
+      <c r="G107" s="84" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15" customHeight="1">
       <c r="A108" s="30">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B108" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="C108" s="55"/>
+        <v>122</v>
+      </c>
       <c r="D108" s="32" t="s">
-        <v>184</v>
+        <v>1266</v>
       </c>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
-      <c r="G108" s="84" t="s">
-        <v>1284</v>
-      </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1">
-      <c r="A109" s="30">
-        <v>316</v>
-      </c>
-      <c r="B109" s="62" t="s">
-        <v>122</v>
-      </c>
+      <c r="A109" s="106">
+        <v>325</v>
+      </c>
+      <c r="B109" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="82"/>
       <c r="D109" s="32" t="s">
-        <v>1267</v>
+        <v>245</v>
       </c>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="A110" s="106">
-        <v>325</v>
-      </c>
-      <c r="B110" s="85" t="s">
-        <v>183</v>
-      </c>
-      <c r="C110" s="82"/>
+      <c r="A110" s="96">
+        <v>327</v>
+      </c>
+      <c r="B110" s="62" t="s">
+        <v>1163</v>
+      </c>
       <c r="D110" s="32" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1">
-      <c r="A111" s="96">
-        <v>327</v>
+      <c r="A111" s="30">
+        <v>312</v>
       </c>
       <c r="B111" s="62" t="s">
-        <v>1163</v>
+        <v>795</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1">
-      <c r="A112" s="30">
-        <v>312</v>
+      <c r="A112" s="96">
+        <v>336</v>
       </c>
       <c r="B112" s="62" t="s">
-        <v>795</v>
+        <v>254</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1">
       <c r="A113" s="96">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B113" s="62" t="s">
-        <v>254</v>
+        <v>382</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>128</v>
+        <v>1268</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1">
       <c r="A114" s="96">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B114" s="62" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
       <c r="D114" s="32" t="s">
         <v>1269</v>
@@ -27839,167 +28547,167 @@
       <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:8" ht="15" customHeight="1">
-      <c r="A115" s="96">
-        <v>334</v>
+      <c r="A115" s="30">
+        <v>347</v>
       </c>
       <c r="B115" s="62" t="s">
-        <v>444</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>1270</v>
+        <v>335</v>
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:8" ht="15" customHeight="1">
       <c r="A116" s="30">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B116" s="62" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:8" ht="15" customHeight="1">
       <c r="A117" s="30">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B117" s="62" t="s">
-        <v>209</v>
+        <v>423</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>422</v>
       </c>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:8" ht="15" customHeight="1">
       <c r="A118" s="30">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B118" s="62" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="D118" s="32" t="s">
-        <v>422</v>
+        <v>1272</v>
       </c>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:8" ht="15" customHeight="1">
       <c r="A119" s="30">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B119" s="62" t="s">
-        <v>492</v>
+        <v>601</v>
       </c>
       <c r="D119" s="32" t="s">
-        <v>1273</v>
+        <v>422</v>
       </c>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:8" ht="15" customHeight="1">
       <c r="A120" s="30">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B120" s="62" t="s">
-        <v>601</v>
+        <v>839</v>
       </c>
       <c r="D120" s="32" t="s">
-        <v>422</v>
+        <v>1276</v>
       </c>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
+      <c r="G120" s="32" t="s">
+        <v>1277</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1">
       <c r="A121" s="30">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B121" s="62" t="s">
-        <v>839</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>1277</v>
+        <v>421</v>
       </c>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
-      <c r="G121" s="32" t="s">
-        <v>1278</v>
-      </c>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1">
-      <c r="A122" s="30">
-        <v>358</v>
-      </c>
       <c r="B122" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
+        <v>1275</v>
+      </c>
+      <c r="D122" s="32" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E122" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G122" s="84" t="s">
+        <v>1322</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1">
+      <c r="A123" s="96">
+        <v>367</v>
+      </c>
       <c r="B123" s="62" t="s">
-        <v>1276</v>
+        <v>487</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>1283</v>
-      </c>
-      <c r="E123" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="34" t="s">
-        <v>1227</v>
-      </c>
-      <c r="G123" s="84" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1">
-      <c r="A124" s="96">
-        <v>367</v>
+        <v>161</v>
+      </c>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+    </row>
+    <row r="124" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A124" s="32">
+        <v>373</v>
       </c>
       <c r="B124" s="62" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>161</v>
+        <v>525</v>
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
-    </row>
-    <row r="125" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A125" s="32">
-        <v>373</v>
+      <c r="G124" s="16"/>
+      <c r="H124" s="34"/>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1">
+      <c r="A125" s="96">
+        <v>378</v>
       </c>
       <c r="B125" s="62" t="s">
-        <v>524</v>
+        <v>185</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>525</v>
+        <v>186</v>
       </c>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="15" customHeight="1">
-      <c r="A126" s="96">
-        <v>378</v>
+      <c r="A126" s="32">
+        <v>380</v>
       </c>
       <c r="B126" s="62" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1">
-      <c r="A127" s="32">
-        <v>380</v>
+      <c r="A127" s="96">
+        <v>381</v>
       </c>
       <c r="B127" s="62" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
       <c r="D127" s="32" t="s">
         <v>214</v>
@@ -28008,109 +28716,109 @@
       <c r="F127" s="34"/>
     </row>
     <row r="128" spans="1:8" ht="15" customHeight="1">
-      <c r="A128" s="96">
-        <v>381</v>
+      <c r="A128" s="32">
+        <v>383</v>
       </c>
       <c r="B128" s="62" t="s">
-        <v>303</v>
+        <v>1065</v>
       </c>
       <c r="D128" s="32" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
-      <c r="A129" s="32">
-        <v>383</v>
+      <c r="A129" s="96">
+        <v>384</v>
       </c>
       <c r="B129" s="62" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>140</v>
+        <v>266</v>
       </c>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1">
-      <c r="A130" s="96">
-        <v>384</v>
+      <c r="A130" s="32">
+        <v>387</v>
       </c>
       <c r="B130" s="62" t="s">
-        <v>266</v>
+        <v>307</v>
+      </c>
+      <c r="D130" s="32" t="s">
+        <v>157</v>
       </c>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1">
-      <c r="A131" s="32">
-        <v>387</v>
+      <c r="A131" s="96">
+        <v>388</v>
       </c>
       <c r="B131" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>157</v>
+        <v>506</v>
       </c>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1">
-      <c r="A132" s="96">
-        <v>388</v>
+      <c r="A132" s="32">
+        <v>389</v>
       </c>
       <c r="B132" s="62" t="s">
-        <v>506</v>
+        <v>822</v>
+      </c>
+      <c r="D132" s="32" t="s">
+        <v>520</v>
       </c>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
-      <c r="A133" s="32">
-        <v>389</v>
+      <c r="A133" s="96">
+        <v>392</v>
       </c>
       <c r="B133" s="62" t="s">
-        <v>822</v>
+        <v>180</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>520</v>
+        <v>1419</v>
       </c>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1">
-      <c r="A134" s="96">
-        <v>392</v>
+      <c r="A134" s="32">
+        <v>393</v>
       </c>
       <c r="B134" s="62" t="s">
-        <v>180</v>
+        <v>774</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>1420</v>
+        <v>232</v>
       </c>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
-      <c r="A135" s="32">
-        <v>393</v>
+      <c r="A135" s="96">
+        <v>394</v>
       </c>
       <c r="B135" s="62" t="s">
-        <v>774</v>
+        <v>409</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>232</v>
+        <v>1420</v>
       </c>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1">
-      <c r="A136" s="96">
-        <v>394</v>
+      <c r="A136" s="32">
+        <v>395</v>
       </c>
       <c r="B136" s="62" t="s">
-        <v>409</v>
+        <v>168</v>
       </c>
       <c r="D136" s="32" t="s">
         <v>1421</v>
@@ -28119,197 +28827,197 @@
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1">
-      <c r="A137" s="32">
-        <v>395</v>
+      <c r="A137" s="96">
+        <v>402</v>
       </c>
       <c r="B137" s="62" t="s">
-        <v>168</v>
+        <v>542</v>
       </c>
       <c r="D137" s="32" t="s">
-        <v>1422</v>
+        <v>537</v>
       </c>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1">
-      <c r="A138" s="96">
-        <v>402</v>
+      <c r="A138" s="32">
+        <v>405</v>
       </c>
       <c r="B138" s="62" t="s">
-        <v>542</v>
+        <v>501</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>537</v>
+        <v>232</v>
       </c>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1">
-      <c r="A139" s="32">
-        <v>405</v>
+      <c r="A139" s="96">
+        <v>406</v>
       </c>
       <c r="B139" s="62" t="s">
-        <v>501</v>
+        <v>677</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
-      <c r="A140" s="96">
-        <v>406</v>
+      <c r="A140" s="32">
+        <v>407</v>
       </c>
       <c r="B140" s="62" t="s">
-        <v>677</v>
+        <v>750</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>323</v>
+        <v>1278</v>
       </c>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
-      <c r="A141" s="32">
-        <v>407</v>
+      <c r="A141" s="96">
+        <v>408</v>
       </c>
       <c r="B141" s="62" t="s">
-        <v>750</v>
+        <v>309</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>1279</v>
+        <v>140</v>
       </c>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1">
-      <c r="A142" s="96">
-        <v>408</v>
+      <c r="A142" s="32">
+        <v>409</v>
       </c>
       <c r="B142" s="62" t="s">
-        <v>309</v>
+        <v>833</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1">
-      <c r="A143" s="32">
-        <v>409</v>
+      <c r="A143" s="96">
+        <v>410</v>
       </c>
       <c r="B143" s="62" t="s">
-        <v>833</v>
+        <v>489</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1">
-      <c r="A144" s="96">
-        <v>410</v>
+      <c r="A144" s="32">
+        <v>412</v>
       </c>
       <c r="B144" s="62" t="s">
-        <v>489</v>
-      </c>
-      <c r="D144" s="32" t="s">
-        <v>347</v>
+        <v>1045</v>
       </c>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1">
-      <c r="A145" s="32">
-        <v>412</v>
+      <c r="A145" s="96">
+        <v>413</v>
       </c>
       <c r="B145" s="62" t="s">
-        <v>1045</v>
+        <v>1050</v>
+      </c>
+      <c r="D145" s="32" t="s">
+        <v>1424</v>
       </c>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:6" ht="15" customHeight="1">
-      <c r="A146" s="96">
-        <v>413</v>
+      <c r="A146" s="32">
+        <v>414</v>
       </c>
       <c r="B146" s="62" t="s">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>1425</v>
+        <v>128</v>
       </c>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1">
-      <c r="A147" s="32">
-        <v>414</v>
+      <c r="A147" s="96">
+        <v>415</v>
       </c>
       <c r="B147" s="62" t="s">
-        <v>500</v>
+        <v>358</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
     </row>
     <row r="148" spans="1:6" ht="15" customHeight="1">
-      <c r="A148" s="96">
-        <v>415</v>
+      <c r="A148" s="32">
+        <v>417</v>
       </c>
       <c r="B148" s="62" t="s">
-        <v>358</v>
+        <v>816</v>
       </c>
       <c r="D148" s="32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1">
-      <c r="A149" s="32">
-        <v>417</v>
+      <c r="A149" s="96">
+        <v>419</v>
       </c>
       <c r="B149" s="62" t="s">
-        <v>816</v>
-      </c>
-      <c r="D149" s="32" t="s">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
     </row>
     <row r="150" spans="1:6" ht="15" customHeight="1">
-      <c r="A150" s="96">
-        <v>419</v>
+      <c r="A150" s="32">
+        <v>420</v>
       </c>
       <c r="B150" s="62" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1">
-      <c r="A151" s="32">
-        <v>420</v>
+      <c r="A151" s="96">
+        <v>421</v>
       </c>
       <c r="B151" s="62" t="s">
-        <v>490</v>
+        <v>1086</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>1425</v>
       </c>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:6" ht="15" customHeight="1">
-      <c r="A152" s="96">
-        <v>421</v>
+      <c r="A152" s="32">
+        <v>424</v>
       </c>
       <c r="B152" s="62" t="s">
-        <v>1086</v>
+        <v>664</v>
       </c>
       <c r="D152" s="32" t="s">
         <v>1426</v>
@@ -28318,11 +29026,11 @@
       <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
-      <c r="A153" s="32">
-        <v>424</v>
+      <c r="A153" s="96">
+        <v>426</v>
       </c>
       <c r="B153" s="62" t="s">
-        <v>664</v>
+        <v>415</v>
       </c>
       <c r="D153" s="32" t="s">
         <v>1427</v>
@@ -28331,73 +29039,73 @@
       <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:6" ht="15" customHeight="1">
-      <c r="A154" s="96">
-        <v>426</v>
+      <c r="A154" s="32">
+        <v>433</v>
       </c>
       <c r="B154" s="62" t="s">
-        <v>415</v>
-      </c>
-      <c r="D154" s="32" t="s">
-        <v>1428</v>
+        <v>1021</v>
       </c>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
-      <c r="A155" s="32">
-        <v>433</v>
+      <c r="A155" s="96">
+        <v>435</v>
       </c>
       <c r="B155" s="62" t="s">
-        <v>1021</v>
+        <v>374</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:6" ht="15" customHeight="1">
-      <c r="A156" s="96">
-        <v>435</v>
+      <c r="A156" s="32">
+        <v>438</v>
       </c>
       <c r="B156" s="62" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="D156" s="32" t="s">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="E156" s="34"/>
       <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
-      <c r="A157" s="32">
-        <v>438</v>
+      <c r="A157" s="96">
+        <v>442</v>
       </c>
       <c r="B157" s="62" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="D157" s="32" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
-      <c r="A158" s="96">
-        <v>442</v>
+      <c r="A158" s="32">
+        <v>443</v>
       </c>
       <c r="B158" s="62" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="D158" s="32" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
-      <c r="A159" s="32">
-        <v>443</v>
+      <c r="A159" s="96">
+        <v>446</v>
       </c>
       <c r="B159" s="62" t="s">
-        <v>397</v>
+        <v>968</v>
       </c>
       <c r="D159" s="32" t="s">
         <v>140</v>
@@ -28406,956 +29114,948 @@
       <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
-      <c r="A160" s="96">
-        <v>446</v>
+      <c r="A160" s="32">
+        <v>448</v>
       </c>
       <c r="B160" s="62" t="s">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="D160" s="32" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1">
-      <c r="A161" s="32">
-        <v>448</v>
-      </c>
-      <c r="B161" s="62" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D161" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="A161" s="96"/>
+      <c r="B161" s="62"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1">
-      <c r="A162" s="96"/>
       <c r="B162" s="62"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1">
+      <c r="A163" s="96"/>
       <c r="B163" s="62"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1">
-      <c r="A164" s="96"/>
       <c r="B164" s="62"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1">
+      <c r="A165" s="96"/>
       <c r="B165" s="62"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1">
-      <c r="A166" s="96"/>
       <c r="B166" s="62"/>
       <c r="E166" s="34"/>
       <c r="F166" s="34"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1">
+      <c r="A167" s="96"/>
       <c r="B167" s="62"/>
+      <c r="C167" s="22"/>
       <c r="E167" s="34"/>
       <c r="F167" s="34"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1">
-      <c r="A168" s="96"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="22"/>
+      <c r="A168" s="32">
+        <v>1658</v>
+      </c>
+      <c r="B168" s="62" t="s">
+        <v>1004</v>
+      </c>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1">
-      <c r="A169" s="32">
-        <v>1658</v>
+      <c r="A169" s="96">
+        <v>1673</v>
       </c>
       <c r="B169" s="62" t="s">
-        <v>1004</v>
+        <v>1376</v>
+      </c>
+      <c r="C169" s="55" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D169" s="32" t="s">
+        <v>1381</v>
       </c>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
+      <c r="G169" s="84" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1">
-      <c r="A170" s="96">
-        <v>1673</v>
+      <c r="A170" s="32">
+        <v>1657</v>
       </c>
       <c r="B170" s="62" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C170" s="55" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>1382</v>
+        <v>1341</v>
       </c>
       <c r="E170" s="34"/>
       <c r="F170" s="34"/>
       <c r="G170" s="84" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1">
-      <c r="A171" s="32">
-        <v>1657</v>
-      </c>
-      <c r="B171" s="62" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D171" s="32" t="s">
-        <v>1342</v>
-      </c>
+      <c r="A171" s="96"/>
+      <c r="B171" s="62"/>
       <c r="E171" s="34"/>
       <c r="F171" s="34"/>
-      <c r="G171" s="84" t="s">
-        <v>1386</v>
-      </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1">
-      <c r="A172" s="96"/>
       <c r="B172" s="62"/>
       <c r="E172" s="34"/>
       <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1">
-      <c r="B173" s="62"/>
+      <c r="A173" s="96">
+        <v>1329</v>
+      </c>
+      <c r="B173" s="62" t="s">
+        <v>699</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>121</v>
+      </c>
       <c r="E173" s="34"/>
       <c r="F173" s="34"/>
+      <c r="G173" s="84" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1">
-      <c r="A174" s="96">
-        <v>1329</v>
-      </c>
-      <c r="B174" s="62" t="s">
-        <v>699</v>
-      </c>
-      <c r="D174" s="32" t="s">
-        <v>121</v>
-      </c>
+      <c r="B174" s="62"/>
       <c r="E174" s="34"/>
       <c r="F174" s="34"/>
-      <c r="G174" s="84" t="s">
-        <v>1398</v>
-      </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1">
+      <c r="A175" s="96"/>
       <c r="B175" s="62"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1">
-      <c r="A176" s="96"/>
       <c r="B176" s="62"/>
       <c r="E176" s="34"/>
       <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1">
+      <c r="A177" s="96"/>
       <c r="B177" s="62"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1">
-      <c r="A178" s="96"/>
       <c r="B178" s="62"/>
       <c r="E178" s="34"/>
       <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1">
-      <c r="B179" s="62"/>
+      <c r="A179" s="96">
+        <v>857</v>
+      </c>
+      <c r="B179" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="C179" s="32"/>
+      <c r="D179" s="32" t="s">
+        <v>1408</v>
+      </c>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
+      <c r="G179" s="84" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1">
-      <c r="A180" s="96">
-        <v>857</v>
+      <c r="A180" s="32">
+        <v>1383</v>
       </c>
       <c r="B180" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="C180" s="32"/>
+        <v>1406</v>
+      </c>
       <c r="D180" s="32" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E180" s="34"/>
       <c r="F180" s="34"/>
       <c r="G180" s="84" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1">
-      <c r="A181" s="32">
-        <v>1383</v>
-      </c>
-      <c r="B181" s="62" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D181" s="32" t="s">
-        <v>1408</v>
-      </c>
+      <c r="A181" s="96"/>
+      <c r="B181" s="62"/>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
-      <c r="G181" s="84" t="s">
-        <v>1417</v>
-      </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1">
-      <c r="A182" s="96"/>
       <c r="B182" s="62"/>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="A183" s="96"/>
       <c r="B183" s="62"/>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1">
-      <c r="A184" s="96"/>
-      <c r="B184" s="62"/>
+      <c r="A184" s="32">
+        <v>1631</v>
+      </c>
+      <c r="B184" s="62" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C184" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D184" s="32" t="s">
+        <v>1417</v>
+      </c>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
+      <c r="G184" s="84" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1">
-      <c r="A185" s="32">
-        <v>1631</v>
-      </c>
-      <c r="B185" s="62" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C185" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D185" s="32" t="s">
-        <v>1418</v>
-      </c>
+      <c r="A185" s="96"/>
+      <c r="B185" s="62"/>
       <c r="E185" s="34"/>
       <c r="F185" s="34"/>
-      <c r="G185" s="84" t="s">
-        <v>1419</v>
-      </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1">
-      <c r="A186" s="96"/>
       <c r="B186" s="62"/>
       <c r="E186" s="34"/>
       <c r="F186" s="34"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
+      <c r="A187" s="96"/>
       <c r="B187" s="62"/>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1">
-      <c r="A188" s="96"/>
       <c r="B188" s="62"/>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1">
+      <c r="A189" s="96"/>
       <c r="B189" s="62"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1">
-      <c r="A190" s="96"/>
       <c r="B190" s="62"/>
       <c r="E190" s="34"/>
       <c r="F190" s="34"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1">
+      <c r="A191" s="96"/>
       <c r="B191" s="62"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1">
-      <c r="A192" s="96"/>
       <c r="B192" s="62"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
     </row>
     <row r="193" spans="1:6" ht="15" customHeight="1">
+      <c r="A193" s="96"/>
       <c r="B193" s="62"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
     </row>
     <row r="194" spans="1:6" ht="15" customHeight="1">
-      <c r="A194" s="96"/>
       <c r="B194" s="62"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
     </row>
     <row r="195" spans="1:6" ht="15" customHeight="1">
+      <c r="A195" s="96"/>
       <c r="B195" s="62"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
     </row>
     <row r="196" spans="1:6" ht="15" customHeight="1">
-      <c r="A196" s="96"/>
       <c r="B196" s="62"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
     </row>
     <row r="197" spans="1:6" ht="15" customHeight="1">
+      <c r="A197" s="96"/>
       <c r="B197" s="62"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
     </row>
     <row r="198" spans="1:6" ht="15" customHeight="1">
-      <c r="A198" s="96"/>
       <c r="B198" s="62"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
     </row>
     <row r="199" spans="1:6" ht="15" customHeight="1">
+      <c r="A199" s="96"/>
       <c r="B199" s="62"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
     </row>
     <row r="200" spans="1:6" ht="15" customHeight="1">
-      <c r="A200" s="96"/>
       <c r="B200" s="62"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
     </row>
     <row r="201" spans="1:6" ht="15" customHeight="1">
+      <c r="A201" s="96"/>
       <c r="B201" s="62"/>
       <c r="E201" s="34"/>
       <c r="F201" s="34"/>
     </row>
     <row r="202" spans="1:6" ht="15" customHeight="1">
-      <c r="A202" s="96"/>
       <c r="B202" s="62"/>
       <c r="E202" s="34"/>
       <c r="F202" s="34"/>
     </row>
     <row r="203" spans="1:6" ht="15" customHeight="1">
+      <c r="A203" s="96"/>
       <c r="B203" s="62"/>
       <c r="E203" s="34"/>
       <c r="F203" s="34"/>
     </row>
     <row r="204" spans="1:6" ht="15" customHeight="1">
-      <c r="A204" s="96"/>
       <c r="B204" s="62"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
     </row>
     <row r="205" spans="1:6" ht="15" customHeight="1">
+      <c r="A205" s="96"/>
       <c r="B205" s="62"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:6" ht="15" customHeight="1">
-      <c r="A206" s="96"/>
       <c r="B206" s="62"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
     <row r="207" spans="1:6" ht="15" customHeight="1">
+      <c r="A207" s="96"/>
       <c r="B207" s="62"/>
       <c r="E207" s="34"/>
       <c r="F207" s="34"/>
     </row>
     <row r="208" spans="1:6" ht="15" customHeight="1">
-      <c r="A208" s="96"/>
       <c r="B208" s="62"/>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
     </row>
     <row r="209" spans="1:6" ht="15" customHeight="1">
+      <c r="A209" s="96"/>
       <c r="B209" s="62"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
     </row>
     <row r="210" spans="1:6" ht="15" customHeight="1">
-      <c r="A210" s="96"/>
       <c r="B210" s="62"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:6" ht="15" customHeight="1">
+      <c r="A211" s="96"/>
       <c r="B211" s="62"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
     </row>
     <row r="212" spans="1:6" ht="15" customHeight="1">
-      <c r="A212" s="96"/>
       <c r="B212" s="62"/>
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
     </row>
     <row r="213" spans="1:6" ht="15" customHeight="1">
+      <c r="A213" s="96"/>
       <c r="B213" s="62"/>
       <c r="E213" s="34"/>
       <c r="F213" s="34"/>
     </row>
     <row r="214" spans="1:6" ht="15" customHeight="1">
-      <c r="A214" s="96"/>
       <c r="B214" s="62"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
     </row>
     <row r="215" spans="1:6" ht="15" customHeight="1">
+      <c r="A215" s="96"/>
       <c r="B215" s="62"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
     </row>
     <row r="216" spans="1:6" ht="15" customHeight="1">
-      <c r="A216" s="96"/>
       <c r="B216" s="62"/>
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
     </row>
     <row r="217" spans="1:6" ht="15" customHeight="1">
+      <c r="A217" s="96"/>
       <c r="B217" s="62"/>
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
     </row>
     <row r="218" spans="1:6" ht="15" customHeight="1">
-      <c r="A218" s="96"/>
       <c r="B218" s="62"/>
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
     </row>
     <row r="219" spans="1:6" ht="15" customHeight="1">
+      <c r="A219" s="96"/>
       <c r="B219" s="62"/>
       <c r="E219" s="34"/>
       <c r="F219" s="34"/>
     </row>
     <row r="220" spans="1:6" ht="15" customHeight="1">
-      <c r="A220" s="96"/>
       <c r="B220" s="62"/>
       <c r="E220" s="34"/>
       <c r="F220" s="34"/>
     </row>
     <row r="221" spans="1:6" ht="15" customHeight="1">
+      <c r="A221" s="96"/>
       <c r="B221" s="62"/>
       <c r="E221" s="34"/>
       <c r="F221" s="34"/>
     </row>
     <row r="222" spans="1:6" ht="15" customHeight="1">
-      <c r="A222" s="96"/>
       <c r="B222" s="62"/>
       <c r="E222" s="34"/>
       <c r="F222" s="34"/>
     </row>
     <row r="223" spans="1:6" ht="15" customHeight="1">
+      <c r="A223" s="96"/>
       <c r="B223" s="62"/>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
     </row>
     <row r="224" spans="1:6" ht="15" customHeight="1">
-      <c r="A224" s="96"/>
       <c r="B224" s="62"/>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1">
+      <c r="A225" s="96"/>
       <c r="B225" s="62"/>
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
     </row>
     <row r="226" spans="1:6" ht="15" customHeight="1">
-      <c r="A226" s="96"/>
       <c r="B226" s="62"/>
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1">
+      <c r="A227" s="96"/>
       <c r="B227" s="62"/>
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
     </row>
     <row r="228" spans="1:6" ht="15" customHeight="1">
-      <c r="A228" s="96"/>
       <c r="B228" s="62"/>
       <c r="E228" s="34"/>
       <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1">
+      <c r="A229" s="96"/>
       <c r="B229" s="62"/>
       <c r="E229" s="34"/>
       <c r="F229" s="34"/>
     </row>
     <row r="230" spans="1:6" ht="15" customHeight="1">
-      <c r="A230" s="96"/>
       <c r="B230" s="62"/>
       <c r="E230" s="34"/>
       <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1">
+      <c r="A231" s="96"/>
       <c r="B231" s="62"/>
       <c r="E231" s="34"/>
       <c r="F231" s="34"/>
     </row>
     <row r="232" spans="1:6" ht="15" customHeight="1">
-      <c r="A232" s="96"/>
       <c r="B232" s="62"/>
       <c r="E232" s="34"/>
       <c r="F232" s="34"/>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1">
+      <c r="A233" s="96"/>
       <c r="B233" s="62"/>
       <c r="E233" s="34"/>
       <c r="F233" s="34"/>
     </row>
     <row r="234" spans="1:6" ht="15" customHeight="1">
-      <c r="A234" s="96"/>
       <c r="B234" s="62"/>
       <c r="E234" s="34"/>
       <c r="F234" s="34"/>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1">
+      <c r="A235" s="96"/>
       <c r="B235" s="62"/>
       <c r="E235" s="34"/>
       <c r="F235" s="34"/>
     </row>
     <row r="236" spans="1:6" ht="15" customHeight="1">
-      <c r="A236" s="96"/>
       <c r="B236" s="62"/>
       <c r="E236" s="34"/>
       <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1">
+      <c r="A237" s="96"/>
       <c r="B237" s="62"/>
       <c r="E237" s="34"/>
       <c r="F237" s="34"/>
     </row>
     <row r="238" spans="1:6" ht="15" customHeight="1">
-      <c r="A238" s="96"/>
       <c r="B238" s="62"/>
       <c r="E238" s="34"/>
       <c r="F238" s="34"/>
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1">
+      <c r="A239" s="96"/>
       <c r="B239" s="62"/>
       <c r="E239" s="34"/>
       <c r="F239" s="34"/>
     </row>
     <row r="240" spans="1:6" ht="15" customHeight="1">
-      <c r="A240" s="96"/>
       <c r="B240" s="62"/>
       <c r="E240" s="34"/>
       <c r="F240" s="34"/>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1">
+      <c r="A241" s="96"/>
       <c r="B241" s="62"/>
       <c r="E241" s="34"/>
       <c r="F241" s="34"/>
     </row>
     <row r="242" spans="1:6" ht="15" customHeight="1">
-      <c r="A242" s="96"/>
       <c r="B242" s="62"/>
       <c r="E242" s="34"/>
       <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1">
+      <c r="A243" s="96"/>
       <c r="B243" s="62"/>
       <c r="E243" s="34"/>
       <c r="F243" s="34"/>
     </row>
     <row r="244" spans="1:6" ht="15" customHeight="1">
-      <c r="A244" s="96"/>
       <c r="B244" s="62"/>
       <c r="E244" s="34"/>
       <c r="F244" s="34"/>
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1">
+      <c r="A245" s="96"/>
       <c r="B245" s="62"/>
       <c r="E245" s="34"/>
       <c r="F245" s="34"/>
     </row>
     <row r="246" spans="1:6" ht="15" customHeight="1">
-      <c r="A246" s="96"/>
       <c r="B246" s="62"/>
       <c r="E246" s="34"/>
       <c r="F246" s="34"/>
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1">
+      <c r="A247" s="96"/>
       <c r="B247" s="62"/>
       <c r="E247" s="34"/>
       <c r="F247" s="34"/>
     </row>
     <row r="248" spans="1:6" ht="15" customHeight="1">
-      <c r="A248" s="96"/>
       <c r="B248" s="62"/>
       <c r="E248" s="34"/>
       <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1">
+      <c r="A249" s="96"/>
       <c r="B249" s="62"/>
       <c r="E249" s="34"/>
       <c r="F249" s="34"/>
     </row>
     <row r="250" spans="1:6" ht="15" customHeight="1">
-      <c r="A250" s="96"/>
       <c r="B250" s="62"/>
       <c r="E250" s="34"/>
       <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1">
+      <c r="A251" s="96"/>
       <c r="B251" s="62"/>
       <c r="E251" s="34"/>
       <c r="F251" s="34"/>
     </row>
     <row r="252" spans="1:6" ht="15" customHeight="1">
-      <c r="A252" s="96"/>
       <c r="B252" s="62"/>
       <c r="E252" s="34"/>
       <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1">
+      <c r="A253" s="96"/>
       <c r="B253" s="62"/>
       <c r="E253" s="34"/>
       <c r="F253" s="34"/>
     </row>
     <row r="254" spans="1:6" ht="15" customHeight="1">
-      <c r="A254" s="96"/>
       <c r="B254" s="62"/>
       <c r="E254" s="34"/>
       <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1">
+      <c r="A255" s="96"/>
       <c r="B255" s="62"/>
       <c r="E255" s="34"/>
       <c r="F255" s="34"/>
     </row>
     <row r="256" spans="1:6" ht="15" customHeight="1">
-      <c r="A256" s="96"/>
       <c r="B256" s="62"/>
       <c r="E256" s="34"/>
       <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
+      <c r="A257" s="96"/>
       <c r="B257" s="62"/>
       <c r="E257" s="34"/>
       <c r="F257" s="34"/>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1">
-      <c r="A258" s="96"/>
       <c r="B258" s="62"/>
       <c r="E258" s="34"/>
       <c r="F258" s="34"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1">
+      <c r="A259" s="96"/>
       <c r="B259" s="62"/>
       <c r="E259" s="34"/>
       <c r="F259" s="34"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1">
-      <c r="A260" s="96"/>
       <c r="B260" s="62"/>
       <c r="E260" s="34"/>
       <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1">
+      <c r="A261" s="96"/>
       <c r="B261" s="62"/>
       <c r="E261" s="34"/>
       <c r="F261" s="34"/>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1">
-      <c r="A262" s="96"/>
       <c r="B262" s="62"/>
       <c r="E262" s="34"/>
       <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1">
+      <c r="A263" s="96"/>
       <c r="B263" s="62"/>
       <c r="E263" s="34"/>
       <c r="F263" s="34"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1">
-      <c r="A264" s="96"/>
       <c r="B264" s="62"/>
       <c r="E264" s="34"/>
       <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1">
+      <c r="A265" s="96"/>
       <c r="B265" s="62"/>
       <c r="E265" s="34"/>
       <c r="F265" s="34"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1">
-      <c r="A266" s="96"/>
       <c r="B266" s="62"/>
       <c r="E266" s="34"/>
       <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1">
+      <c r="A267" s="96"/>
       <c r="B267" s="62"/>
       <c r="E267" s="34"/>
       <c r="F267" s="34"/>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1">
-      <c r="A268" s="96"/>
       <c r="B268" s="62"/>
       <c r="E268" s="34"/>
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1">
+      <c r="A269" s="96"/>
       <c r="B269" s="62"/>
       <c r="E269" s="34"/>
       <c r="F269" s="34"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1">
-      <c r="A270" s="96"/>
       <c r="B270" s="62"/>
       <c r="E270" s="34"/>
       <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
+      <c r="A271" s="96"/>
       <c r="B271" s="62"/>
       <c r="E271" s="34"/>
       <c r="F271" s="34"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1">
-      <c r="A272" s="96"/>
       <c r="B272" s="62"/>
       <c r="E272" s="34"/>
       <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1">
+      <c r="A273" s="96"/>
       <c r="B273" s="62"/>
       <c r="E273" s="34"/>
       <c r="F273" s="34"/>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1">
-      <c r="A274" s="96"/>
       <c r="B274" s="62"/>
       <c r="E274" s="34"/>
       <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
+      <c r="A275" s="96"/>
       <c r="B275" s="62"/>
       <c r="E275" s="34"/>
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1">
-      <c r="A276" s="96"/>
       <c r="B276" s="62"/>
       <c r="E276" s="34"/>
       <c r="F276" s="34"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
+      <c r="A277" s="96"/>
       <c r="B277" s="62"/>
       <c r="E277" s="34"/>
       <c r="F277" s="34"/>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1">
-      <c r="A278" s="96"/>
       <c r="B278" s="62"/>
       <c r="E278" s="34"/>
       <c r="F278" s="34"/>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
+      <c r="A279" s="96"/>
       <c r="B279" s="62"/>
       <c r="E279" s="34"/>
       <c r="F279" s="34"/>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1">
-      <c r="A280" s="96"/>
       <c r="B280" s="62"/>
       <c r="E280" s="34"/>
       <c r="F280" s="34"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
+      <c r="A281" s="96"/>
       <c r="B281" s="62"/>
       <c r="E281" s="34"/>
       <c r="F281" s="34"/>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1">
-      <c r="A282" s="96"/>
       <c r="B282" s="62"/>
       <c r="E282" s="34"/>
       <c r="F282" s="34"/>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
+      <c r="A283" s="96"/>
       <c r="B283" s="62"/>
       <c r="E283" s="34"/>
       <c r="F283" s="34"/>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1">
-      <c r="A284" s="96"/>
       <c r="B284" s="62"/>
       <c r="E284" s="34"/>
       <c r="F284" s="34"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
+      <c r="A285" s="96"/>
       <c r="B285" s="62"/>
       <c r="E285" s="34"/>
       <c r="F285" s="34"/>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1">
-      <c r="A286" s="96"/>
       <c r="B286" s="62"/>
       <c r="E286" s="34"/>
       <c r="F286" s="34"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
+      <c r="A287" s="96"/>
       <c r="B287" s="62"/>
       <c r="E287" s="34"/>
       <c r="F287" s="34"/>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1">
-      <c r="A288" s="96"/>
       <c r="B288" s="62"/>
       <c r="E288" s="34"/>
       <c r="F288" s="34"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
+      <c r="A289" s="96"/>
       <c r="B289" s="62"/>
       <c r="E289" s="34"/>
       <c r="F289" s="34"/>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1">
-      <c r="A290" s="96"/>
       <c r="B290" s="62"/>
       <c r="E290" s="34"/>
       <c r="F290" s="34"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
+      <c r="A291" s="96"/>
       <c r="B291" s="62"/>
       <c r="E291" s="34"/>
       <c r="F291" s="34"/>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1">
-      <c r="A292" s="96"/>
       <c r="B292" s="62"/>
       <c r="E292" s="34"/>
       <c r="F292" s="34"/>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1">
+      <c r="A293" s="96"/>
       <c r="B293" s="62"/>
       <c r="E293" s="34"/>
       <c r="F293" s="34"/>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1">
-      <c r="A294" s="96"/>
       <c r="B294" s="62"/>
       <c r="E294" s="34"/>
       <c r="F294" s="34"/>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1">
+      <c r="A295" s="96"/>
       <c r="B295" s="62"/>
       <c r="E295" s="34"/>
       <c r="F295" s="34"/>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1">
-      <c r="A296" s="96"/>
       <c r="B296" s="62"/>
       <c r="E296" s="34"/>
       <c r="F296" s="34"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1">
+      <c r="A297" s="96"/>
       <c r="B297" s="62"/>
       <c r="E297" s="34"/>
       <c r="F297" s="34"/>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1">
-      <c r="A298" s="96"/>
       <c r="B298" s="62"/>
       <c r="E298" s="34"/>
       <c r="F298" s="34"/>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1">
+      <c r="A299" s="96"/>
       <c r="B299" s="62"/>
       <c r="E299" s="34"/>
       <c r="F299" s="34"/>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1">
-      <c r="A300" s="96"/>
       <c r="B300" s="62"/>
       <c r="E300" s="34"/>
       <c r="F300" s="34"/>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1">
+      <c r="A301" s="96"/>
       <c r="B301" s="62"/>
       <c r="E301" s="34"/>
       <c r="F301" s="34"/>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1">
-      <c r="A302" s="96"/>
       <c r="B302" s="62"/>
       <c r="E302" s="34"/>
       <c r="F302" s="34"/>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1">
+      <c r="A303" s="96"/>
       <c r="B303" s="62"/>
       <c r="E303" s="34"/>
       <c r="F303" s="34"/>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1">
-      <c r="A304" s="96"/>
       <c r="B304" s="62"/>
       <c r="E304" s="34"/>
       <c r="F304" s="34"/>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1">
+      <c r="A305" s="96"/>
       <c r="B305" s="62"/>
       <c r="E305" s="34"/>
       <c r="F305" s="34"/>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1">
-      <c r="A306" s="96"/>
       <c r="B306" s="62"/>
       <c r="E306" s="34"/>
       <c r="F306" s="34"/>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1">
+      <c r="A307" s="96"/>
       <c r="B307" s="62"/>
       <c r="E307" s="34"/>
       <c r="F307" s="34"/>
     </row>
     <row r="308" spans="1:6" ht="15" customHeight="1">
-      <c r="A308" s="96"/>
       <c r="B308" s="62"/>
       <c r="E308" s="34"/>
       <c r="F308" s="34"/>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1">
+      <c r="A309" s="96"/>
       <c r="B309" s="62"/>
       <c r="E309" s="34"/>
       <c r="F309" s="34"/>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1">
-      <c r="A310" s="96"/>
       <c r="B310" s="62"/>
       <c r="E310" s="34"/>
       <c r="F310" s="34"/>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1">
+      <c r="A311" s="96"/>
       <c r="B311" s="62"/>
       <c r="E311" s="34"/>
       <c r="F311" s="34"/>
     </row>
     <row r="312" spans="1:6" ht="15" customHeight="1">
-      <c r="A312" s="96"/>
       <c r="B312" s="62"/>
       <c r="E312" s="34"/>
       <c r="F312" s="34"/>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1">
+      <c r="A313" s="96"/>
       <c r="B313" s="62"/>
       <c r="E313" s="34"/>
       <c r="F313" s="34"/>
     </row>
     <row r="314" spans="1:6" ht="15" customHeight="1">
-      <c r="A314" s="96"/>
       <c r="B314" s="62"/>
       <c r="E314" s="34"/>
       <c r="F314" s="34"/>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1">
+      <c r="A315" s="96"/>
       <c r="B315" s="62"/>
       <c r="E315" s="34"/>
       <c r="F315" s="34"/>
     </row>
     <row r="316" spans="1:6" ht="15" customHeight="1">
-      <c r="A316" s="96"/>
       <c r="B316" s="62"/>
       <c r="E316" s="34"/>
       <c r="F316" s="34"/>
@@ -29571,7 +30271,6 @@
       <c r="F358" s="34"/>
     </row>
     <row r="359" spans="2:6" ht="15" customHeight="1">
-      <c r="B359" s="62"/>
       <c r="E359" s="34"/>
       <c r="F359" s="34"/>
     </row>
@@ -29619,96 +30318,92 @@
       <c r="E370" s="34"/>
       <c r="F370" s="34"/>
     </row>
-    <row r="371" spans="5:6" ht="15" customHeight="1">
-      <c r="E371" s="34"/>
-      <c r="F371" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E8 E10:E371">
-    <cfRule type="containsText" dxfId="141" priority="30" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E2:E8 E10:E370">
+    <cfRule type="containsText" dxfId="146" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E371">
-    <cfRule type="containsText" dxfId="140" priority="31" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="E2:E8 E10:E370">
+    <cfRule type="containsText" dxfId="145" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E371">
-    <cfRule type="containsText" dxfId="139" priority="32" operator="containsText" text="Easy">
+  <conditionalFormatting sqref="E2:E8 E10:E370">
+    <cfRule type="containsText" dxfId="144" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F371">
-    <cfRule type="notContainsBlanks" dxfId="138" priority="25">
+  <conditionalFormatting sqref="F2:F8 F10:F370">
+    <cfRule type="notContainsBlanks" dxfId="143" priority="25">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F371">
-    <cfRule type="containsText" dxfId="137" priority="26" operator="containsText" text="Revisit Later">
+  <conditionalFormatting sqref="F2:F8 F10:F370">
+    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F371">
-    <cfRule type="containsText" dxfId="136" priority="27" operator="containsText" text="Practice Later">
+  <conditionalFormatting sqref="F2:F8 F10:F370">
+    <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F371">
-    <cfRule type="containsText" dxfId="135" priority="28" operator="containsText" text="Good To Go">
+  <conditionalFormatting sqref="F2:F8 F10:F370">
+    <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F371">
-    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="Needs Review">
+  <conditionalFormatting sqref="F2:F8 F10:F370">
+    <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="containsText" dxfId="133" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(G125))))</formula>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="containsText" dxfId="138" priority="14" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(G124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="containsText" dxfId="132" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(G125))))</formula>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="containsText" dxfId="137" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(G124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G125">
-    <cfRule type="containsText" dxfId="131" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(G125))))</formula>
+  <conditionalFormatting sqref="G124">
+    <cfRule type="containsText" dxfId="136" priority="16" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(G124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="notContainsBlanks" dxfId="130" priority="9">
-      <formula>LEN(TRIM(H125))&gt;0</formula>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="notContainsBlanks" dxfId="135" priority="9">
+      <formula>LEN(TRIM(H124))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="129" priority="10" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H125))))</formula>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="134" priority="10" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="128" priority="11" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H125))))</formula>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="133" priority="11" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="127" priority="12" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H125))))</formula>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="132" priority="12" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H124))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H125">
-    <cfRule type="containsText" dxfId="126" priority="13" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H125))))</formula>
+  <conditionalFormatting sqref="H124">
+    <cfRule type="containsText" dxfId="131" priority="13" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H124))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H125 F10:F371" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H124 F10:F370" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G125 E10:E371" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G124 E10:E370" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29758,129 +30453,129 @@
     <hyperlink ref="B53" r:id="rId43" tooltip="Search a 2D Matrix" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId44" tooltip="Set Matrix Zeroes" display="https://leetcode.com/problems/set-matrix-zeroes" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
     <hyperlink ref="B51" r:id="rId45" tooltip="Simplify Path" display="https://leetcode.com/problems/simplify-path" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B58" r:id="rId46" tooltip="Maximal Rectangle" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B57" r:id="rId46" tooltip="Maximal Rectangle" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
     <hyperlink ref="B56" r:id="rId47" tooltip="Search in Rotated Sorted Array II" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B59" r:id="rId48" tooltip="Subsets II" display="https://leetcode.com/problems/subsets-ii" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B60" r:id="rId49" tooltip="Pascal's Triangle" display="https://leetcode.com/problems/pascals-triangle" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B61" r:id="rId50" tooltip="Pascal's Triangle II" display="https://leetcode.com/problems/pascals-triangle-ii" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B62" r:id="rId51" tooltip="Longest Consecutive Sequence" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B63" r:id="rId52" tooltip="Best Time to Buy and Sell Stock II" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B64" r:id="rId53" tooltip="Valid Palindrome" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B67" r:id="rId54" tooltip="Gas Station" display="https://leetcode.com/problems/gas-station" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B68" r:id="rId55" tooltip="Candy" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B69" r:id="rId56" tooltip="Reverse Words in a String" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B70" r:id="rId57" tooltip="Find Minimum in Rotated Sorted Array" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B71" r:id="rId58" tooltip="Find Minimum in Rotated Sorted Array II" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B73" r:id="rId59" tooltip="Read N Characters Given Read4 II - Call multiple times" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B72" r:id="rId60" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B74" r:id="rId61" tooltip="Longest Substring with At Most Two Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B75" r:id="rId62" tooltip="Find Peak Element" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B76" r:id="rId63" tooltip="Missing Ranges" display="https://leetcode.com/problems/missing-ranges" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B77" r:id="rId64" tooltip="Compare Version Numbers" display="https://leetcode.com/problems/compare-version-numbers" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B78" r:id="rId65" tooltip="Two Sum II - Input array is sorted" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B79" r:id="rId66" tooltip="Excel Sheet Column Title" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="B80" r:id="rId67" tooltip="Rotate Array" display="https://leetcode.com/problems/rotate-array" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="B81" r:id="rId68" tooltip="Implement Trie (Prefix Tree)" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="B82" r:id="rId69" tooltip="Minimum Size Subarray Sum" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="B83" r:id="rId70" tooltip="Kth Largest Element in an Array" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="B84" r:id="rId71" tooltip="Combination Sum III" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="B86" r:id="rId72" tooltip="The Skyline Problem" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="B85" r:id="rId73" tooltip="Contains Duplicate" display="https://leetcode.com/problems/contains-duplicate" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="B87" r:id="rId74" tooltip="Shortest Palindrome" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="B88" r:id="rId75" tooltip="Basic Calculator II" display="https://leetcode.com/problems/basic-calculator-ii" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="B89" r:id="rId76" tooltip="Summary Ranges" display="https://leetcode.com/problems/summary-ranges" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B90" r:id="rId77" tooltip="Product of Array Except Self" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="B91" r:id="rId78" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="B92" r:id="rId79" tooltip="Search a 2D Matrix II" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="B93" r:id="rId80" tooltip="Valid Anagram" display="https://leetcode.com/problems/valid-anagram" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="B94" r:id="rId81" tooltip="Strobogrammatic Number III" display="https://leetcode.com/problems/strobogrammatic-number-iii" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
-    <hyperlink ref="B95" r:id="rId82" tooltip="Shortest Word Distance" display="https://leetcode.com/problems/shortest-word-distance" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="B96" r:id="rId83" tooltip="Palindrome Permutation" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="B97" r:id="rId84" tooltip="Missing Number" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="B98" r:id="rId85" tooltip="Encode and Decode Strings" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="B102" r:id="rId86" tooltip="Wiggle Sort" display="https://leetcode.com/problems/wiggle-sort" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="B101" r:id="rId87" tooltip="Perfect Squares" display="https://leetcode.com/problems/perfect-squares" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B100" r:id="rId88" tooltip="First Bad Version" display="https://leetcode.com/problems/first-bad-version" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="B99" r:id="rId89" tooltip="Find the Celebrity" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="B103" r:id="rId90" tooltip="Move Zeroes" display="https://leetcode.com/problems/move-zeroes" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B104" r:id="rId91" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="B105" r:id="rId92" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B106" r:id="rId93" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="B107" r:id="rId94" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B108" r:id="rId95" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="B109" r:id="rId96" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B110" r:id="rId97" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="B111" r:id="rId98" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B112" r:id="rId99" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="B113" r:id="rId100" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B114" r:id="rId101" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="B115" r:id="rId102" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B116" r:id="rId103" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="B117" r:id="rId104" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B118" r:id="rId105" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="B119" r:id="rId106" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B120" r:id="rId107" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="B121" r:id="rId108" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B122" r:id="rId109" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="B123" r:id="rId110" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B169" r:id="rId111" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B58" r:id="rId48" tooltip="Subsets II" display="https://leetcode.com/problems/subsets-ii" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B59" r:id="rId49" tooltip="Pascal's Triangle" display="https://leetcode.com/problems/pascals-triangle" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" tooltip="Pascal's Triangle II" display="https://leetcode.com/problems/pascals-triangle-ii" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" tooltip="Longest Consecutive Sequence" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" tooltip="Best Time to Buy and Sell Stock II" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" tooltip="Valid Palindrome" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B66" r:id="rId54" tooltip="Gas Station" display="https://leetcode.com/problems/gas-station" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B67" r:id="rId55" tooltip="Candy" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B68" r:id="rId56" tooltip="Reverse Words in a String" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B69" r:id="rId57" tooltip="Find Minimum in Rotated Sorted Array" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B70" r:id="rId58" tooltip="Find Minimum in Rotated Sorted Array II" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B72" r:id="rId59" tooltip="Read N Characters Given Read4 II - Call multiple times" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B71" r:id="rId60" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B73" r:id="rId61" tooltip="Longest Substring with At Most Two Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B74" r:id="rId62" tooltip="Find Peak Element" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B75" r:id="rId63" tooltip="Missing Ranges" display="https://leetcode.com/problems/missing-ranges" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B76" r:id="rId64" tooltip="Compare Version Numbers" display="https://leetcode.com/problems/compare-version-numbers" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B77" r:id="rId65" tooltip="Two Sum II - Input array is sorted" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B78" r:id="rId66" tooltip="Excel Sheet Column Title" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B79" r:id="rId67" tooltip="Rotate Array" display="https://leetcode.com/problems/rotate-array" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B80" r:id="rId68" tooltip="Implement Trie (Prefix Tree)" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B81" r:id="rId69" tooltip="Minimum Size Subarray Sum" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="B82" r:id="rId70" tooltip="Kth Largest Element in an Array" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId71" tooltip="Combination Sum III" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B85" r:id="rId72" tooltip="The Skyline Problem" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="B84" r:id="rId73" tooltip="Contains Duplicate" display="https://leetcode.com/problems/contains-duplicate" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId74" tooltip="Shortest Palindrome" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId75" tooltip="Basic Calculator II" display="https://leetcode.com/problems/basic-calculator-ii" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="B88" r:id="rId76" tooltip="Summary Ranges" display="https://leetcode.com/problems/summary-ranges" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B89" r:id="rId77" tooltip="Product of Array Except Self" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="B90" r:id="rId78" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B91" r:id="rId79" tooltip="Search a 2D Matrix II" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="B92" r:id="rId80" tooltip="Valid Anagram" display="https://leetcode.com/problems/valid-anagram" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B93" r:id="rId81" tooltip="Strobogrammatic Number III" display="https://leetcode.com/problems/strobogrammatic-number-iii" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="B94" r:id="rId82" tooltip="Shortest Word Distance" display="https://leetcode.com/problems/shortest-word-distance" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B95" r:id="rId83" tooltip="Palindrome Permutation" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="B96" r:id="rId84" tooltip="Missing Number" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B97" r:id="rId85" tooltip="Encode and Decode Strings" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId86" tooltip="Wiggle Sort" display="https://leetcode.com/problems/wiggle-sort" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B100" r:id="rId87" tooltip="Perfect Squares" display="https://leetcode.com/problems/perfect-squares" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="B99" r:id="rId88" tooltip="First Bad Version" display="https://leetcode.com/problems/first-bad-version" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B98" r:id="rId89" tooltip="Find the Celebrity" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="B102" r:id="rId90" tooltip="Move Zeroes" display="https://leetcode.com/problems/move-zeroes" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B103" r:id="rId91" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B104" r:id="rId92" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B105" r:id="rId93" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B106" r:id="rId94" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B107" r:id="rId95" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B108" r:id="rId96" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B109" r:id="rId97" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="B110" r:id="rId98" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B111" r:id="rId99" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="B112" r:id="rId100" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B113" r:id="rId101" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="B114" r:id="rId102" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B115" r:id="rId103" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="B116" r:id="rId104" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B117" r:id="rId105" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="B118" r:id="rId106" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B119" r:id="rId107" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="B120" r:id="rId108" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B121" r:id="rId109" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="B122" r:id="rId110" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B168" r:id="rId111" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G22" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="B65" r:id="rId113" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="D65" r:id="rId114" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="B66" r:id="rId115" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
-    <hyperlink ref="B170" r:id="rId116" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B171" r:id="rId117" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B174" r:id="rId118" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
-    <hyperlink ref="B124" r:id="rId119" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
-    <hyperlink ref="B126" r:id="rId120" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
-    <hyperlink ref="B125" r:id="rId121" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
-    <hyperlink ref="B127" r:id="rId122" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B181" r:id="rId123" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
-    <hyperlink ref="B180" r:id="rId124" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B185" r:id="rId125" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
-    <hyperlink ref="B128" r:id="rId126" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
-    <hyperlink ref="B130" r:id="rId127" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="B131" r:id="rId128" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
-    <hyperlink ref="B132" r:id="rId129" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
-    <hyperlink ref="B133" r:id="rId130" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
-    <hyperlink ref="B129" r:id="rId131" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
-    <hyperlink ref="B135" r:id="rId132" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
-    <hyperlink ref="B136" r:id="rId133" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
-    <hyperlink ref="B134" r:id="rId134" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="B137" r:id="rId135" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="B142" r:id="rId136" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
-    <hyperlink ref="D142" r:id="rId137" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
-    <hyperlink ref="B144" r:id="rId138" tooltip="Split Array Largest Sum" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0900-000075000000}"/>
-    <hyperlink ref="B139" r:id="rId139" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
-    <hyperlink ref="D139" r:id="rId140" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
-    <hyperlink ref="B140" r:id="rId141" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
-    <hyperlink ref="D140" r:id="rId142" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
-    <hyperlink ref="B141" r:id="rId143" tooltip="Trapping Rain Water II" display="https://leetcode.com/problems/trapping-rain-water-ii" xr:uid="{00000000-0004-0000-0A00-000047010000}"/>
-    <hyperlink ref="B143" r:id="rId144" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
-    <hyperlink ref="B138" r:id="rId145" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
-    <hyperlink ref="B148" r:id="rId146" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
-    <hyperlink ref="D148" r:id="rId147" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
-    <hyperlink ref="B150" r:id="rId148" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
-    <hyperlink ref="B151" r:id="rId149" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
-    <hyperlink ref="B147" r:id="rId150" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
-    <hyperlink ref="D147" r:id="rId151" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
-    <hyperlink ref="B145" r:id="rId152" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
-    <hyperlink ref="B146" r:id="rId153" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
-    <hyperlink ref="B149" r:id="rId154" tooltip="Pacific Atlantic Water Flow" display="https://leetcode.com/problems/pacific-atlantic-water-flow" xr:uid="{00000000-0004-0000-0B00-000025000000}"/>
-    <hyperlink ref="B154" r:id="rId155" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
-    <hyperlink ref="B153" r:id="rId156" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
-    <hyperlink ref="B152" r:id="rId157" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
-    <hyperlink ref="B157" r:id="rId158" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
-    <hyperlink ref="D157" r:id="rId159" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-000019000000}"/>
-    <hyperlink ref="B156" r:id="rId160" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
-    <hyperlink ref="D156" r:id="rId161" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
-    <hyperlink ref="B155" r:id="rId162" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B159" r:id="rId163" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
-    <hyperlink ref="D159" r:id="rId164" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
-    <hyperlink ref="B158" r:id="rId165" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
-    <hyperlink ref="D158" r:id="rId166" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
-    <hyperlink ref="B161" r:id="rId167" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B160" r:id="rId168" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
+    <hyperlink ref="B64" r:id="rId113" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
+    <hyperlink ref="D64" r:id="rId114" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
+    <hyperlink ref="B65" r:id="rId115" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
+    <hyperlink ref="B169" r:id="rId116" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B170" r:id="rId117" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B173" r:id="rId118" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B123" r:id="rId119" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
+    <hyperlink ref="B125" r:id="rId120" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
+    <hyperlink ref="B124" r:id="rId121" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
+    <hyperlink ref="B126" r:id="rId122" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
+    <hyperlink ref="B180" r:id="rId123" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B179" r:id="rId124" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B184" r:id="rId125" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B127" r:id="rId126" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
+    <hyperlink ref="B129" r:id="rId127" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
+    <hyperlink ref="B130" r:id="rId128" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
+    <hyperlink ref="B131" r:id="rId129" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
+    <hyperlink ref="B132" r:id="rId130" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
+    <hyperlink ref="B128" r:id="rId131" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
+    <hyperlink ref="B134" r:id="rId132" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
+    <hyperlink ref="B135" r:id="rId133" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
+    <hyperlink ref="B133" r:id="rId134" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="B136" r:id="rId135" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="B141" r:id="rId136" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
+    <hyperlink ref="D141" r:id="rId137" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
+    <hyperlink ref="B143" r:id="rId138" tooltip="Split Array Largest Sum" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0900-000075000000}"/>
+    <hyperlink ref="B138" r:id="rId139" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
+    <hyperlink ref="D138" r:id="rId140" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
+    <hyperlink ref="B139" r:id="rId141" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
+    <hyperlink ref="D139" r:id="rId142" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
+    <hyperlink ref="B140" r:id="rId143" tooltip="Trapping Rain Water II" display="https://leetcode.com/problems/trapping-rain-water-ii" xr:uid="{00000000-0004-0000-0A00-000047010000}"/>
+    <hyperlink ref="B142" r:id="rId144" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
+    <hyperlink ref="B137" r:id="rId145" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
+    <hyperlink ref="B147" r:id="rId146" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
+    <hyperlink ref="D147" r:id="rId147" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
+    <hyperlink ref="B149" r:id="rId148" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
+    <hyperlink ref="B150" r:id="rId149" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
+    <hyperlink ref="B146" r:id="rId150" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
+    <hyperlink ref="D146" r:id="rId151" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
+    <hyperlink ref="B144" r:id="rId152" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
+    <hyperlink ref="B145" r:id="rId153" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
+    <hyperlink ref="B148" r:id="rId154" tooltip="Pacific Atlantic Water Flow" display="https://leetcode.com/problems/pacific-atlantic-water-flow" xr:uid="{00000000-0004-0000-0B00-000025000000}"/>
+    <hyperlink ref="B153" r:id="rId155" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
+    <hyperlink ref="B152" r:id="rId156" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
+    <hyperlink ref="B151" r:id="rId157" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
+    <hyperlink ref="B156" r:id="rId158" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="D156" r:id="rId159" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-000019000000}"/>
+    <hyperlink ref="B155" r:id="rId160" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
+    <hyperlink ref="D155" r:id="rId161" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
+    <hyperlink ref="B154" r:id="rId162" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="B158" r:id="rId163" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
+    <hyperlink ref="D158" r:id="rId164" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
+    <hyperlink ref="B157" r:id="rId165" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
+    <hyperlink ref="D157" r:id="rId166" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
+    <hyperlink ref="B160" r:id="rId167" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B159" r:id="rId168" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId169"/>
@@ -30326,7 +31021,7 @@
         <v>521</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -30733,82 +31428,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="125" priority="14" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="130" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="124" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="129" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="123" priority="16" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="128" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="notContainsBlanks" dxfId="122" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="127" priority="9">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="121" priority="10" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="120" priority="11" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="119" priority="12" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="containsText" dxfId="118" priority="13" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="123" priority="13" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E104">
-    <cfRule type="containsText" dxfId="117" priority="6" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="122" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E104">
-    <cfRule type="containsText" dxfId="116" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E104">
-    <cfRule type="containsText" dxfId="115" priority="8" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="120" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F104">
-    <cfRule type="notContainsBlanks" dxfId="114" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="119" priority="1">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F104">
-    <cfRule type="containsText" dxfId="113" priority="2" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F104">
-    <cfRule type="containsText" dxfId="112" priority="3" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="117" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F104">
-    <cfRule type="containsText" dxfId="111" priority="4" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F104">
-    <cfRule type="containsText" dxfId="110" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30860,20 +31555,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.26953125" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="55" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="111" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="55"/>
+    <col min="2" max="2" width="48.81640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="55" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="111" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="55"/>
+    <col min="6" max="6" width="12.90625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="46.90625" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="55">
         <v>653</v>
       </c>
@@ -30884,7 +31582,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="A3" s="55">
         <v>333</v>
       </c>
@@ -30896,87 +31594,87 @@
       </c>
       <c r="D3" s="112"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="B5" s="55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="B6" s="55" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="B7" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="B8" s="55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="B9" s="55" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="B10" s="55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="B11" s="55" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="B12" s="55" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="B13" s="55" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="B14" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="B15" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="B16" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="B17" s="55" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="B18" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="B19" s="55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="58" t="s">
         <v>0</v>
       </c>
@@ -30999,7 +31697,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="61">
         <v>98</v>
       </c>
@@ -31012,7 +31710,7 @@
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="14">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="61">
         <v>99</v>
       </c>
@@ -31025,7 +31723,7 @@
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="14">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="61">
         <v>100</v>
       </c>
@@ -31038,7 +31736,7 @@
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="14">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="61">
         <v>94</v>
       </c>
@@ -31051,7 +31749,7 @@
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="14">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="61">
         <v>101</v>
       </c>
@@ -31059,12 +31757,12 @@
         <v>377</v>
       </c>
       <c r="D25" s="124" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="14">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="61">
         <v>102</v>
       </c>
@@ -31077,7 +31775,7 @@
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="14">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="61">
         <v>103</v>
       </c>
@@ -31090,7 +31788,7 @@
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="14">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="61">
         <v>104</v>
       </c>
@@ -31103,7 +31801,7 @@
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="14">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="61">
         <v>105</v>
       </c>
@@ -31116,7 +31814,7 @@
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
     </row>
-    <row r="30" spans="1:7" ht="14">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="61">
         <v>106</v>
       </c>
@@ -31129,7 +31827,7 @@
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
     </row>
-    <row r="31" spans="1:7" ht="14">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="61">
         <v>107</v>
       </c>
@@ -31142,7 +31840,7 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
     </row>
-    <row r="32" spans="1:7" ht="14">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="61">
         <v>108</v>
       </c>
@@ -31155,7 +31853,7 @@
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
     </row>
-    <row r="33" spans="1:6" ht="14">
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="61">
         <v>109</v>
       </c>
@@ -31168,7 +31866,7 @@
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
     </row>
-    <row r="34" spans="1:6" ht="14">
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="61">
         <v>110</v>
       </c>
@@ -31181,7 +31879,7 @@
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="55">
         <v>111</v>
       </c>
@@ -31194,7 +31892,7 @@
       <c r="E35" s="34"/>
       <c r="F35" s="34"/>
     </row>
-    <row r="36" spans="1:6" ht="14">
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="61">
         <v>112</v>
       </c>
@@ -31207,7 +31905,7 @@
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
     </row>
-    <row r="37" spans="1:6" ht="14">
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="61">
         <v>113</v>
       </c>
@@ -31220,7 +31918,7 @@
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
     </row>
-    <row r="38" spans="1:6" ht="14">
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="61">
         <v>114</v>
       </c>
@@ -31233,7 +31931,7 @@
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:6" ht="14">
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="61">
         <v>116</v>
       </c>
@@ -31246,7 +31944,7 @@
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
     </row>
-    <row r="40" spans="1:6" ht="14">
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="61">
         <v>117</v>
       </c>
@@ -31259,7 +31957,7 @@
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
     </row>
-    <row r="41" spans="1:6" ht="14">
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="61">
         <v>129</v>
       </c>
@@ -31272,7 +31970,7 @@
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
     </row>
-    <row r="42" spans="1:6" ht="14">
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="61">
         <v>130</v>
       </c>
@@ -31280,12 +31978,12 @@
         <v>710</v>
       </c>
       <c r="D42" s="124" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
     </row>
-    <row r="43" spans="1:6" ht="14">
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="61">
         <v>124</v>
       </c>
@@ -31293,12 +31991,12 @@
         <v>262</v>
       </c>
       <c r="D43" s="124" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
     </row>
-    <row r="44" spans="1:6" ht="14">
+    <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="61">
         <v>144</v>
       </c>
@@ -31311,7 +32009,7 @@
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
     </row>
-    <row r="45" spans="1:6" ht="14">
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="61">
         <v>145</v>
       </c>
@@ -31324,7 +32022,7 @@
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
     </row>
-    <row r="46" spans="1:6" ht="14">
+    <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="61">
         <v>199</v>
       </c>
@@ -31332,12 +32030,12 @@
         <v>407</v>
       </c>
       <c r="D46" s="124" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="63">
         <v>221</v>
       </c>
@@ -31350,7 +32048,7 @@
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="63">
         <v>224</v>
       </c>
@@ -31363,8 +32061,8 @@
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="107">
+    <row r="49" spans="1:7" ht="15" customHeight="1">
+      <c r="A49" s="63">
         <v>226</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -31373,10 +32071,17 @@
       <c r="D49" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="E49" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G49" s="84" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="63">
         <v>229</v>
       </c>
@@ -31389,7 +32094,7 @@
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="63">
         <v>222</v>
       </c>
@@ -31402,7 +32107,7 @@
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="61">
         <v>235</v>
       </c>
@@ -31415,7 +32120,7 @@
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="61">
         <v>236</v>
       </c>
@@ -31428,7 +32133,7 @@
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="63">
         <v>249</v>
       </c>
@@ -31441,7 +32146,7 @@
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55" s="63">
         <v>250</v>
       </c>
@@ -31454,7 +32159,7 @@
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7" ht="15" customHeight="1">
       <c r="A56" s="63">
         <v>257</v>
       </c>
@@ -31467,7 +32172,7 @@
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="A57" s="63">
         <v>269</v>
       </c>
@@ -31480,7 +32185,7 @@
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58" s="63">
         <v>267</v>
       </c>
@@ -31493,7 +32198,7 @@
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="A59" s="55">
         <v>270</v>
       </c>
@@ -31506,7 +32211,7 @@
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
     </row>
-    <row r="60" spans="1:6" ht="14">
+    <row r="60" spans="1:7" ht="15" customHeight="1">
       <c r="A60" s="61">
         <v>261</v>
       </c>
@@ -31514,12 +32219,12 @@
         <v>1052</v>
       </c>
       <c r="D60" s="124" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="A61" s="55">
         <v>272</v>
       </c>
@@ -31532,7 +32237,7 @@
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="A62" s="63">
         <v>285</v>
       </c>
@@ -31545,7 +32250,7 @@
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:7" ht="15" customHeight="1">
       <c r="A63" s="63">
         <v>297</v>
       </c>
@@ -31558,7 +32263,7 @@
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="115">
         <v>310</v>
       </c>
@@ -31571,7 +32276,7 @@
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" ht="15" customHeight="1">
       <c r="A65" s="116">
         <v>317</v>
       </c>
@@ -31579,12 +32284,12 @@
         <v>276</v>
       </c>
       <c r="D65" s="114" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="14">
+    <row r="66" spans="1:6" ht="15" customHeight="1">
       <c r="A66" s="117">
         <v>329</v>
       </c>
@@ -31592,12 +32297,12 @@
         <v>439</v>
       </c>
       <c r="D66" s="124" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:6" ht="14">
+    <row r="67" spans="1:6" ht="15" customHeight="1">
       <c r="A67" s="117">
         <v>323</v>
       </c>
@@ -31605,12 +32310,12 @@
         <v>405</v>
       </c>
       <c r="D67" s="124" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="1:6" ht="14">
+    <row r="68" spans="1:6" ht="15" customHeight="1">
       <c r="A68" s="117">
         <v>332</v>
       </c>
@@ -31623,7 +32328,7 @@
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="1:6" ht="14">
+    <row r="69" spans="1:6" ht="15" customHeight="1">
       <c r="A69" s="61">
         <v>366</v>
       </c>
@@ -31636,7 +32341,7 @@
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" ht="15" customHeight="1">
       <c r="A70" s="82">
         <v>399</v>
       </c>
@@ -31644,12 +32349,12 @@
         <v>288</v>
       </c>
       <c r="D70" s="114" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="15" customHeight="1">
       <c r="A71" s="61">
         <v>404</v>
       </c>
@@ -31662,7 +32367,7 @@
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="15" customHeight="1">
       <c r="A72" s="60">
         <v>428</v>
       </c>
@@ -31675,7 +32380,7 @@
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="15" customHeight="1">
       <c r="A73" s="60">
         <v>437</v>
       </c>
@@ -31688,7 +32393,7 @@
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="16">
+    <row r="74" spans="1:6" ht="15" customHeight="1">
       <c r="A74" s="81">
         <v>444</v>
       </c>
@@ -31696,12 +32401,12 @@
         <v>765</v>
       </c>
       <c r="D74" s="126" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" ht="15" customHeight="1">
       <c r="A75" s="60">
         <v>449</v>
       </c>
@@ -31714,7 +32419,7 @@
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" ht="15" customHeight="1">
       <c r="A76" s="61">
         <v>450</v>
       </c>
@@ -31727,51 +32432,51 @@
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6" ht="16">
+    <row r="77" spans="1:6" ht="15" customHeight="1">
       <c r="A77" s="81"/>
       <c r="B77" s="62"/>
       <c r="D77" s="126"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6" ht="16">
+    <row r="78" spans="1:6" ht="15" customHeight="1">
       <c r="A78" s="81"/>
       <c r="B78" s="62"/>
       <c r="C78" s="78"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6" ht="16">
+    <row r="79" spans="1:6" ht="15" customHeight="1">
       <c r="A79" s="81"/>
       <c r="B79" s="62"/>
       <c r="C79" s="78"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" ht="16">
+    <row r="80" spans="1:6" ht="15" customHeight="1">
       <c r="A80" s="81"/>
       <c r="B80" s="62"/>
       <c r="C80" s="78"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6" ht="16">
+    <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="81"/>
       <c r="B81" s="62"/>
       <c r="C81" s="78"/>
       <c r="E81" s="34"/>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6" ht="16">
+    <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="81"/>
       <c r="B82" s="62"/>
       <c r="C82" s="78"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" ht="16">
+    <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="118" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B83" s="62" t="s">
         <v>957</v>
@@ -31779,399 +32484,399 @@
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="B84" s="62"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="B85" s="62"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="B86" s="62"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="B87" s="62"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="B88" s="62"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="B89" s="62"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="B90" s="62"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="B91" s="62"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="B92" s="62"/>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="B93" s="62"/>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="B94" s="62"/>
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="B95" s="62"/>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="B96" s="62"/>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" ht="15" customHeight="1">
       <c r="B97" s="62"/>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" ht="15" customHeight="1">
       <c r="B98" s="62"/>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" ht="15" customHeight="1">
       <c r="B99" s="62"/>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" ht="15" customHeight="1">
       <c r="B100" s="62"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" ht="15" customHeight="1">
       <c r="B101" s="62"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="2:6">
+    <row r="102" spans="2:6" ht="15" customHeight="1">
       <c r="B102" s="62"/>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="2:6">
+    <row r="103" spans="2:6" ht="15" customHeight="1">
       <c r="B103" s="62"/>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="2:6">
+    <row r="104" spans="2:6" ht="15" customHeight="1">
       <c r="B104" s="62"/>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="2:6">
+    <row r="105" spans="2:6" ht="15" customHeight="1">
       <c r="B105" s="62"/>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" ht="15" customHeight="1">
       <c r="B106" s="62"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="2:6">
+    <row r="107" spans="2:6" ht="15" customHeight="1">
       <c r="B107" s="62"/>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="2:6">
+    <row r="108" spans="2:6" ht="15" customHeight="1">
       <c r="B108" s="62"/>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="2:6">
+    <row r="109" spans="2:6" ht="15" customHeight="1">
       <c r="B109" s="62"/>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="2:6">
+    <row r="110" spans="2:6" ht="15" customHeight="1">
       <c r="B110" s="62"/>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="2:6">
+    <row r="111" spans="2:6" ht="15" customHeight="1">
       <c r="B111" s="62"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="2:6">
+    <row r="112" spans="2:6" ht="15" customHeight="1">
       <c r="B112" s="62"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="2:6" ht="15" customHeight="1">
       <c r="B113" s="62"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="2:6" ht="15" customHeight="1">
       <c r="B114" s="62"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="2:6" ht="15" customHeight="1">
       <c r="B115" s="62"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="2:6" ht="15" customHeight="1">
       <c r="B116" s="62"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="2:6" ht="15" customHeight="1">
       <c r="B117" s="62"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="2:6" ht="15" customHeight="1">
       <c r="B118" s="62"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="2:6" ht="15" customHeight="1">
       <c r="B119" s="62"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="2:6" ht="15" customHeight="1">
       <c r="B120" s="62"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="2:6" ht="15" customHeight="1">
       <c r="B121" s="62"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="2:6" ht="15" customHeight="1">
       <c r="B122" s="62"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="2:6" ht="15" customHeight="1">
       <c r="B123" s="62"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="2:6" ht="15" customHeight="1">
       <c r="B124" s="62"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="2:6" ht="15" customHeight="1">
       <c r="B125" s="62"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="2:6" ht="15" customHeight="1">
       <c r="B126" s="62"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="2:6" ht="15" customHeight="1">
       <c r="B127" s="62"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="2:6" ht="15" customHeight="1">
       <c r="B128" s="62"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
     </row>
-    <row r="129" spans="2:6">
+    <row r="129" spans="2:6" ht="15" customHeight="1">
       <c r="B129" s="62"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
     </row>
-    <row r="130" spans="2:6">
+    <row r="130" spans="2:6" ht="15" customHeight="1">
       <c r="B130" s="62"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
     </row>
-    <row r="131" spans="2:6">
+    <row r="131" spans="2:6" ht="15" customHeight="1">
       <c r="B131" s="62"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
     </row>
-    <row r="132" spans="2:6">
+    <row r="132" spans="2:6" ht="15" customHeight="1">
       <c r="B132" s="62"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
     </row>
-    <row r="133" spans="2:6">
+    <row r="133" spans="2:6" ht="15" customHeight="1">
       <c r="B133" s="62"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
     </row>
-    <row r="134" spans="2:6">
+    <row r="134" spans="2:6" ht="15" customHeight="1">
       <c r="B134" s="62"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
-    <row r="135" spans="2:6">
+    <row r="135" spans="2:6" ht="15" customHeight="1">
       <c r="B135" s="62"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
-    <row r="136" spans="2:6">
+    <row r="136" spans="2:6" ht="15" customHeight="1">
       <c r="B136" s="62"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
     </row>
-    <row r="137" spans="2:6">
+    <row r="137" spans="2:6" ht="15" customHeight="1">
       <c r="B137" s="62"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
-    <row r="138" spans="2:6">
+    <row r="138" spans="2:6" ht="15" customHeight="1">
       <c r="B138" s="62"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
-    <row r="139" spans="2:6">
+    <row r="139" spans="2:6" ht="15" customHeight="1">
       <c r="B139" s="62"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
-    <row r="140" spans="2:6">
+    <row r="140" spans="2:6" ht="15" customHeight="1">
       <c r="B140" s="62"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
-    <row r="141" spans="2:6">
+    <row r="141" spans="2:6" ht="15" customHeight="1">
       <c r="B141" s="62"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
-    <row r="142" spans="2:6">
+    <row r="142" spans="2:6" ht="15" customHeight="1">
       <c r="B142" s="62"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
-    <row r="143" spans="2:6">
+    <row r="143" spans="2:6" ht="15" customHeight="1">
       <c r="B143" s="62"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
-    <row r="144" spans="2:6">
+    <row r="144" spans="2:6" ht="15" customHeight="1">
       <c r="B144" s="62"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:6" ht="15" customHeight="1">
       <c r="B145" s="62"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
-    <row r="146" spans="2:6">
+    <row r="146" spans="2:6" ht="15" customHeight="1">
       <c r="B146" s="62"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
     </row>
-    <row r="147" spans="2:6">
+    <row r="147" spans="2:6" ht="15" customHeight="1">
       <c r="B147" s="62"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:6" ht="15" customHeight="1">
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:6" ht="15" customHeight="1">
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
     </row>
-    <row r="150" spans="2:6">
+    <row r="150" spans="2:6" ht="15" customHeight="1">
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
     </row>
-    <row r="151" spans="2:6">
+    <row r="151" spans="2:6" ht="15" customHeight="1">
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:6" ht="15" customHeight="1">
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="109" priority="9" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="114" priority="9" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="108" priority="10" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="113" priority="10" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="107" priority="11" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="112" priority="11" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E152">
-    <cfRule type="containsText" dxfId="106" priority="6" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="111" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E152">
-    <cfRule type="containsText" dxfId="105" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E152">
-    <cfRule type="containsText" dxfId="104" priority="8" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F152">
-    <cfRule type="notContainsBlanks" dxfId="103" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="108" priority="1">
       <formula>LEN(TRIM(F21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F152">
-    <cfRule type="containsText" dxfId="102" priority="2" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="107" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F152">
-    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F152">
-    <cfRule type="containsText" dxfId="100" priority="4" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="105" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F152">
-    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="104" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32382,7 +33087,7 @@
         <v>1227</v>
       </c>
       <c r="G13" s="84" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
@@ -32399,10 +33104,10 @@
         <v>7</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
@@ -32422,7 +33127,7 @@
         <v>1227</v>
       </c>
       <c r="G15" s="84" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -32439,10 +33144,10 @@
         <v>7</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
@@ -32459,10 +33164,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G17" s="84" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
@@ -32480,10 +33185,10 @@
         <v>5</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G18" s="84" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
@@ -33182,42 +33887,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E10:E126">
-    <cfRule type="containsText" dxfId="98" priority="6" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="103" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E126">
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E126">
-    <cfRule type="containsText" dxfId="96" priority="8" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="101" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F126">
-    <cfRule type="notContainsBlanks" dxfId="95" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="100" priority="1">
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F126">
-    <cfRule type="containsText" dxfId="94" priority="2" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="99" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F126">
-    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F126">
-    <cfRule type="containsText" dxfId="92" priority="4" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="97" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F126">
-    <cfRule type="containsText" dxfId="91" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33262,7 +33967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -33374,7 +34079,7 @@
         <v>1224</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>3</v>
@@ -33417,7 +34122,7 @@
         <v>258</v>
       </c>
       <c r="G15" s="84" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
@@ -33431,7 +34136,7 @@
         <v>1224</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G16" s="32"/>
     </row>
@@ -33470,16 +34175,16 @@
         <v>279</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G19" s="84" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1">
@@ -33490,16 +34195,16 @@
         <v>152</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
@@ -33510,7 +34215,7 @@
         <v>144</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -33581,7 +34286,7 @@
         <v>740</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
@@ -33601,10 +34306,10 @@
         <v>3</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G30" s="84" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
@@ -33615,7 +34320,7 @@
         <v>766</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
@@ -34001,282 +34706,282 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="90" priority="54" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="95" priority="54" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="94" priority="55" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="88" priority="56" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="93" priority="56" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="notContainsBlanks" dxfId="87" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="92" priority="49">
       <formula>LEN(TRIM(F13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="86" priority="50" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="91" priority="50" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="90" priority="51" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="84" priority="52" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="89" priority="52" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="83" priority="53" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="88" priority="53" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="containsText" dxfId="82" priority="46" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="87" priority="46" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="86" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="containsText" dxfId="80" priority="48" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="85" priority="48" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="notContainsBlanks" dxfId="79" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="84" priority="41">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="78" priority="42" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="83" priority="42" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="82" priority="43" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="76" priority="44" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="81" priority="44" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="containsText" dxfId="75" priority="45" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="80" priority="45" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="79" priority="38" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="78" priority="39" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="containsText" dxfId="72" priority="40" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="77" priority="40" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="notContainsBlanks" dxfId="71" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="33">
       <formula>LEN(TRIM(F14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="70" priority="34" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="75" priority="34" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="74" priority="35" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="68" priority="36" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="73" priority="36" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="67" priority="37" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="72" priority="37" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F14))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="71" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="70" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="64" priority="32" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="69" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="notContainsBlanks" dxfId="63" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="25">
       <formula>LEN(TRIM(F18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="62" priority="26" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="67" priority="26" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="60" priority="28" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="65" priority="28" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="59" priority="29" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="64" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="58" priority="22" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="63" priority="22" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="61" priority="24" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="17">
       <formula>LEN(TRIM(F19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="54" priority="18" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="59" priority="18" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="52" priority="20" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="51" priority="21" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
-    <cfRule type="containsText" dxfId="50" priority="14" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="55" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
-    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="54" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
-    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="53" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
-    <cfRule type="notContainsBlanks" dxfId="47" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="9">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="51" priority="10" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
-    <cfRule type="containsText" dxfId="45" priority="11" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="50" priority="11" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
-    <cfRule type="containsText" dxfId="44" priority="12" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="49" priority="12" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
-    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="48" priority="13" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21 E30 E32 E34">
-    <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="47" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21 E30 E32 E34">
-    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="46" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21 E30 E32 E34">
-    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="45" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F30 F32 F34">
-    <cfRule type="notContainsBlanks" dxfId="39" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="1">
       <formula>LEN(TRIM(F21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F30 F32 F34">
-    <cfRule type="containsText" dxfId="38" priority="2" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F30 F32 F34">
-    <cfRule type="containsText" dxfId="37" priority="3" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="42" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F30 F32 F34">
-    <cfRule type="containsText" dxfId="36" priority="4" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="41" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 F30 F32 F34">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="40" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34313,8 +35018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A4:G97"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D48" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -34363,25 +35068,25 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>1244</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="58" t="s">
         <v>1246</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="88" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -34892,7 +35597,7 @@
       </c>
       <c r="C49" s="55"/>
       <c r="D49" s="32" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>5</v>
@@ -34901,7 +35606,7 @@
         <v>1012</v>
       </c>
       <c r="G49" s="65" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
@@ -34922,7 +35627,7 @@
         <v>1012</v>
       </c>
       <c r="G50" s="65" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
@@ -34990,7 +35695,7 @@
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="32" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>7</v>
@@ -34999,7 +35704,7 @@
         <v>1225</v>
       </c>
       <c r="G55" s="84" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
@@ -35060,7 +35765,7 @@
         <v>770</v>
       </c>
       <c r="D60" s="122" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
@@ -35093,7 +35798,7 @@
         <v>813</v>
       </c>
       <c r="D63" s="123" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
@@ -35115,7 +35820,7 @@
         <v>763</v>
       </c>
       <c r="D65" s="123" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1">
@@ -35239,106 +35944,91 @@
       <c r="B97" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E11:E54 E56:E59">
-    <cfRule type="containsText" dxfId="31" priority="14" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E54 E56:E59">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E54 E56:E59">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F54 F56:F59">
-    <cfRule type="notContainsBlanks" dxfId="28" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="9">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F54 F56:F59">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F54 F56:F59">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F54 F56:F59">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F54 F56:F59">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="31" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="1">
       <formula>LEN(TRIM(F55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Revisit Later">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Practice Later">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Good To Go">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Needs Review">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E10:E59" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E11:E59" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F10:F59" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F11:F59" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35412,10 +36102,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -35426,7 +36116,30 @@
     <col min="5" max="16384" width="8.7265625" style="33"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="2" spans="2:8">
+      <c r="B2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H2" s="88" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" s="25">
         <v>146</v>
       </c>
@@ -35437,7 +36150,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:8">
       <c r="B4" s="38">
         <v>155</v>
       </c>
@@ -35448,27 +36161,27 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:8">
       <c r="C5" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:8">
       <c r="C6" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:8">
       <c r="C7" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:8">
       <c r="C8" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:8">
       <c r="B9" s="38">
         <v>207</v>
       </c>
@@ -35479,7 +36192,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="29">
+    <row r="10" spans="2:8" ht="29">
       <c r="B10" s="38">
         <v>211</v>
       </c>
@@ -35490,7 +36203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:8">
       <c r="B11" s="25">
         <v>232</v>
       </c>
@@ -35501,7 +36214,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:8">
       <c r="B12" s="33">
         <v>288</v>
       </c>
@@ -35512,7 +36225,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:8">
       <c r="B13" s="38">
         <v>284</v>
       </c>
@@ -35520,7 +36233,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:8">
       <c r="B14" s="41">
         <v>348</v>
       </c>
@@ -35531,7 +36244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:8">
       <c r="B15" s="40">
         <v>346</v>
       </c>
@@ -35539,10 +36252,10 @@
         <v>267</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="40">
         <v>341</v>
       </c>
@@ -35569,7 +36282,7 @@
         <v>755</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -35619,82 +36332,108 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:D72"/>
+  <dimension ref="A3:G206"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="55"/>
     <col min="2" max="2" width="44.81640625" style="55" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="32"/>
     <col min="4" max="4" width="25.7265625" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="33"/>
+    <col min="5" max="5" width="8.7265625" style="33"/>
+    <col min="6" max="6" width="12.26953125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="52" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="33"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="B3" s="55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="B4" s="55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="B5" s="55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="B6" s="55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="B7" s="55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="B8" s="55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="B9" s="55" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="B10" s="55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="B11" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="B12" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="B13" s="55" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="B14" s="55" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D15" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="61">
         <v>233</v>
       </c>
@@ -35707,8 +36446,10 @@
       <c r="D16" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="61">
         <v>7</v>
       </c>
@@ -35718,8 +36459,10 @@
       <c r="D17" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18" s="61">
         <v>9</v>
       </c>
@@ -35729,8 +36472,10 @@
       <c r="D18" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19" s="61">
         <v>8</v>
       </c>
@@ -35740,8 +36485,10 @@
       <c r="D19" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="61">
         <v>12</v>
       </c>
@@ -35751,8 +36498,10 @@
       <c r="D20" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21" s="61">
         <v>13</v>
       </c>
@@ -35762,8 +36511,10 @@
       <c r="D21" s="27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22" s="61">
         <v>29</v>
       </c>
@@ -35773,8 +36524,10 @@
       <c r="D22" s="27" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" s="55">
         <v>36</v>
       </c>
@@ -35784,8 +36537,10 @@
       <c r="D23" s="32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24" s="63">
         <v>37</v>
       </c>
@@ -35795,8 +36550,10 @@
       <c r="D24" s="36" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25" s="55">
         <v>43</v>
       </c>
@@ -35806,8 +36563,10 @@
       <c r="D25" s="32" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26" s="55">
         <v>50</v>
       </c>
@@ -35817,8 +36576,10 @@
       <c r="D26" s="32" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27" s="63">
         <v>60</v>
       </c>
@@ -35828,8 +36589,10 @@
       <c r="D27" s="36" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28" s="63">
         <v>69</v>
       </c>
@@ -35839,8 +36602,10 @@
       <c r="D28" s="36" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29" s="63">
         <v>67</v>
       </c>
@@ -35850,8 +36615,10 @@
       <c r="D29" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
       <c r="A30" s="63">
         <v>65</v>
       </c>
@@ -35861,8 +36628,10 @@
       <c r="D30" s="36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1">
       <c r="A31" s="61">
         <v>136</v>
       </c>
@@ -35872,8 +36641,10 @@
       <c r="D31" s="27" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
       <c r="A32" s="61">
         <v>137</v>
       </c>
@@ -35883,8 +36654,10 @@
       <c r="D32" s="32" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1">
       <c r="A33" s="61">
         <v>149</v>
       </c>
@@ -35894,8 +36667,10 @@
       <c r="D33" s="27" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
       <c r="A34" s="61">
         <v>150</v>
       </c>
@@ -35905,8 +36680,10 @@
       <c r="D34" s="32" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1">
       <c r="A35" s="63">
         <v>166</v>
       </c>
@@ -35916,8 +36693,10 @@
       <c r="D35" s="36" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
       <c r="A36" s="63">
         <v>169</v>
       </c>
@@ -35927,8 +36706,10 @@
       <c r="D36" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1">
       <c r="A37" s="55">
         <v>172</v>
       </c>
@@ -35938,8 +36719,10 @@
       <c r="D37" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1">
       <c r="A38" s="63">
         <v>174</v>
       </c>
@@ -35947,8 +36730,10 @@
         <v>944</v>
       </c>
       <c r="C38" s="46"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1">
       <c r="A39" s="63">
         <v>175</v>
       </c>
@@ -35956,8 +36741,10 @@
         <v>841</v>
       </c>
       <c r="C39" s="46"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1">
       <c r="A40" s="63">
         <v>176</v>
       </c>
@@ -35965,8 +36752,10 @@
         <v>302</v>
       </c>
       <c r="C40" s="46"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1">
       <c r="A41" s="61">
         <v>178</v>
       </c>
@@ -35974,8 +36763,10 @@
         <v>488</v>
       </c>
       <c r="C41" s="29"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1">
       <c r="A42" s="63">
         <v>179</v>
       </c>
@@ -35983,8 +36774,10 @@
         <v>257</v>
       </c>
       <c r="C42" s="46"/>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1">
       <c r="A43" s="61">
         <v>180</v>
       </c>
@@ -35992,8 +36785,10 @@
         <v>1069</v>
       </c>
       <c r="C43" s="46"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
       <c r="A44" s="63">
         <v>171</v>
       </c>
@@ -36004,8 +36799,10 @@
       <c r="D44" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1">
       <c r="A45" s="61">
         <v>187</v>
       </c>
@@ -36015,40 +36812,50 @@
       <c r="D45" s="27" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1">
       <c r="A46" s="61">
         <v>181</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1">
       <c r="A47" s="61">
         <v>183</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1">
       <c r="A48" s="61">
         <v>184</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" customHeight="1">
       <c r="A49" s="61">
         <v>185</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1">
       <c r="A50" s="55">
         <v>191</v>
       </c>
@@ -36058,8 +36865,10 @@
       <c r="D50" s="32" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" customHeight="1">
       <c r="A51" s="61">
         <v>196</v>
       </c>
@@ -36067,8 +36876,10 @@
         <v>1063</v>
       </c>
       <c r="D51" s="29"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1">
       <c r="A52" s="63">
         <v>203</v>
       </c>
@@ -36078,8 +36889,10 @@
       <c r="D52" s="36" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1">
       <c r="A53" s="63">
         <v>204</v>
       </c>
@@ -36089,8 +36902,10 @@
       <c r="D53" s="32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1">
       <c r="A54" s="55">
         <v>223</v>
       </c>
@@ -36100,8 +36915,10 @@
       <c r="D54" s="32" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1">
       <c r="A55" s="55">
         <v>260</v>
       </c>
@@ -36111,8 +36928,10 @@
       <c r="D55" s="22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1">
       <c r="A56" s="63">
         <v>258</v>
       </c>
@@ -36122,8 +36941,10 @@
       <c r="D56" s="22" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" customHeight="1">
       <c r="A57" s="61">
         <v>264</v>
       </c>
@@ -36133,8 +36954,10 @@
       <c r="D57" s="27" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" customHeight="1">
       <c r="A58" s="63">
         <v>282</v>
       </c>
@@ -36145,8 +36968,10 @@
       <c r="D58" s="32" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" customHeight="1">
       <c r="A59" s="63">
         <v>286</v>
       </c>
@@ -36156,8 +36981,10 @@
       <c r="D59" s="36" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="63">
         <v>292</v>
       </c>
@@ -36167,8 +36994,10 @@
       <c r="D60" s="36" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" customHeight="1">
       <c r="A61" s="115">
         <v>307</v>
       </c>
@@ -36178,8 +37007,10 @@
       <c r="D61" s="22" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" customHeight="1">
       <c r="A62" s="115">
         <v>308</v>
       </c>
@@ -36189,8 +37020,10 @@
       <c r="D62" s="22" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" customHeight="1">
       <c r="A63" s="115">
         <v>319</v>
       </c>
@@ -36200,8 +37033,10 @@
       <c r="D63" s="22" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" customHeight="1">
       <c r="A64" s="117">
         <v>335</v>
       </c>
@@ -36211,8 +37046,10 @@
       <c r="D64" s="22" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="16">
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
       <c r="A65" s="80">
         <v>365</v>
       </c>
@@ -36222,8 +37059,10 @@
       <c r="D65" s="22" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="16">
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="120">
         <v>371</v>
       </c>
@@ -36233,8 +37072,10 @@
       <c r="D66" s="22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="16">
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="120">
         <v>397</v>
       </c>
@@ -36242,10 +37083,12 @@
         <v>828</v>
       </c>
       <c r="D67" s="110" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>1423</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="82">
         <v>398</v>
       </c>
@@ -36255,8 +37098,10 @@
       <c r="D68" s="22" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1">
       <c r="A69" s="60">
         <v>400</v>
       </c>
@@ -36266,17 +37111,624 @@
       <c r="D69" s="22" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="59"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1">
+      <c r="A70" s="55">
+        <v>1680</v>
+      </c>
+      <c r="B70" s="59" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D70" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G70" s="84" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="B71" s="59"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="B72" s="59"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1">
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1">
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1">
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1">
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="5:6" ht="15" customHeight="1">
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="5:6" ht="15" customHeight="1">
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="5:6" ht="15" customHeight="1">
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="5:6" ht="15" customHeight="1">
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+    </row>
+    <row r="85" spans="5:6" ht="15" customHeight="1">
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="5:6" ht="15" customHeight="1">
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+    </row>
+    <row r="87" spans="5:6" ht="15" customHeight="1">
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+    </row>
+    <row r="88" spans="5:6" ht="15" customHeight="1">
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+    </row>
+    <row r="89" spans="5:6" ht="15" customHeight="1">
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+    </row>
+    <row r="90" spans="5:6" ht="15" customHeight="1">
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+    </row>
+    <row r="91" spans="5:6" ht="15" customHeight="1">
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+    </row>
+    <row r="92" spans="5:6" ht="15" customHeight="1">
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+    </row>
+    <row r="93" spans="5:6" ht="15" customHeight="1">
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+    </row>
+    <row r="94" spans="5:6" ht="15" customHeight="1">
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+    </row>
+    <row r="95" spans="5:6" ht="15" customHeight="1">
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+    </row>
+    <row r="96" spans="5:6" ht="15" customHeight="1">
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+    </row>
+    <row r="97" spans="5:6" ht="15" customHeight="1">
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+    </row>
+    <row r="98" spans="5:6" ht="15" customHeight="1">
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="5:6" ht="15" customHeight="1">
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+    </row>
+    <row r="100" spans="5:6" ht="15" customHeight="1">
+      <c r="E100" s="34"/>
+      <c r="F100" s="34"/>
+    </row>
+    <row r="101" spans="5:6" ht="15" customHeight="1">
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+    </row>
+    <row r="102" spans="5:6" ht="15" customHeight="1">
+      <c r="E102" s="34"/>
+      <c r="F102" s="34"/>
+    </row>
+    <row r="103" spans="5:6" ht="15" customHeight="1">
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+    </row>
+    <row r="104" spans="5:6" ht="15" customHeight="1">
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+    </row>
+    <row r="105" spans="5:6" ht="15" customHeight="1">
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+    </row>
+    <row r="106" spans="5:6" ht="15" customHeight="1">
+      <c r="E106" s="34"/>
+      <c r="F106" s="34"/>
+    </row>
+    <row r="107" spans="5:6" ht="15" customHeight="1">
+      <c r="E107" s="34"/>
+      <c r="F107" s="34"/>
+    </row>
+    <row r="108" spans="5:6" ht="15" customHeight="1">
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="5:6" ht="15" customHeight="1">
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+    </row>
+    <row r="110" spans="5:6" ht="15" customHeight="1">
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+    </row>
+    <row r="111" spans="5:6" ht="15" customHeight="1">
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+    </row>
+    <row r="112" spans="5:6" ht="15" customHeight="1">
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+    </row>
+    <row r="113" spans="5:6" ht="15" customHeight="1">
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+    </row>
+    <row r="114" spans="5:6" ht="15" customHeight="1">
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+    </row>
+    <row r="115" spans="5:6" ht="15" customHeight="1">
+      <c r="E115" s="34"/>
+      <c r="F115" s="34"/>
+    </row>
+    <row r="116" spans="5:6" ht="15" customHeight="1">
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+    </row>
+    <row r="117" spans="5:6" ht="15" customHeight="1">
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+    </row>
+    <row r="118" spans="5:6" ht="15" customHeight="1">
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+    </row>
+    <row r="119" spans="5:6" ht="15" customHeight="1">
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+    </row>
+    <row r="120" spans="5:6" ht="15" customHeight="1">
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+    </row>
+    <row r="121" spans="5:6" ht="15" customHeight="1">
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+    </row>
+    <row r="122" spans="5:6" ht="15" customHeight="1">
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+    </row>
+    <row r="123" spans="5:6" ht="15" customHeight="1">
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+    </row>
+    <row r="124" spans="5:6" ht="15" customHeight="1">
+      <c r="E124" s="34"/>
+      <c r="F124" s="34"/>
+    </row>
+    <row r="125" spans="5:6" ht="15" customHeight="1">
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+    </row>
+    <row r="126" spans="5:6" ht="15" customHeight="1">
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+    </row>
+    <row r="127" spans="5:6" ht="15" customHeight="1">
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+    </row>
+    <row r="128" spans="5:6" ht="15" customHeight="1">
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+    </row>
+    <row r="129" spans="5:6" ht="15" customHeight="1">
+      <c r="E129" s="34"/>
+      <c r="F129" s="34"/>
+    </row>
+    <row r="130" spans="5:6" ht="15" customHeight="1">
+      <c r="E130" s="34"/>
+      <c r="F130" s="34"/>
+    </row>
+    <row r="131" spans="5:6" ht="15" customHeight="1">
+      <c r="E131" s="34"/>
+      <c r="F131" s="34"/>
+    </row>
+    <row r="132" spans="5:6" ht="15" customHeight="1">
+      <c r="E132" s="34"/>
+      <c r="F132" s="34"/>
+    </row>
+    <row r="133" spans="5:6" ht="15" customHeight="1">
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+    </row>
+    <row r="134" spans="5:6" ht="15" customHeight="1">
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+    </row>
+    <row r="135" spans="5:6" ht="15" customHeight="1">
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+    </row>
+    <row r="136" spans="5:6" ht="15" customHeight="1">
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+    </row>
+    <row r="137" spans="5:6" ht="15" customHeight="1">
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+    </row>
+    <row r="138" spans="5:6" ht="15" customHeight="1">
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+    </row>
+    <row r="139" spans="5:6" ht="15" customHeight="1">
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+    </row>
+    <row r="140" spans="5:6" ht="15" customHeight="1">
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+    </row>
+    <row r="141" spans="5:6" ht="15" customHeight="1">
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+    </row>
+    <row r="142" spans="5:6" ht="15" customHeight="1">
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+    </row>
+    <row r="143" spans="5:6" ht="15" customHeight="1">
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+    </row>
+    <row r="144" spans="5:6" ht="15" customHeight="1">
+      <c r="E144" s="34"/>
+      <c r="F144" s="34"/>
+    </row>
+    <row r="145" spans="5:6" ht="15" customHeight="1">
+      <c r="E145" s="34"/>
+      <c r="F145" s="34"/>
+    </row>
+    <row r="146" spans="5:6" ht="15" customHeight="1">
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+    </row>
+    <row r="147" spans="5:6" ht="15" customHeight="1">
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+    </row>
+    <row r="148" spans="5:6" ht="15" customHeight="1">
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+    </row>
+    <row r="149" spans="5:6" ht="15" customHeight="1">
+      <c r="E149" s="34"/>
+      <c r="F149" s="34"/>
+    </row>
+    <row r="150" spans="5:6" ht="15" customHeight="1">
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+    </row>
+    <row r="151" spans="5:6" ht="15" customHeight="1">
+      <c r="E151" s="34"/>
+      <c r="F151" s="34"/>
+    </row>
+    <row r="152" spans="5:6" ht="15" customHeight="1">
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+    </row>
+    <row r="153" spans="5:6" ht="15" customHeight="1">
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+    </row>
+    <row r="154" spans="5:6" ht="15" customHeight="1">
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+    </row>
+    <row r="155" spans="5:6" ht="15" customHeight="1">
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+    </row>
+    <row r="156" spans="5:6" ht="15" customHeight="1">
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+    </row>
+    <row r="157" spans="5:6" ht="15" customHeight="1">
+      <c r="E157" s="34"/>
+      <c r="F157" s="34"/>
+    </row>
+    <row r="158" spans="5:6" ht="15" customHeight="1">
+      <c r="E158" s="34"/>
+      <c r="F158" s="34"/>
+    </row>
+    <row r="159" spans="5:6" ht="15" customHeight="1">
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+    </row>
+    <row r="160" spans="5:6" ht="15" customHeight="1">
+      <c r="E160" s="34"/>
+      <c r="F160" s="34"/>
+    </row>
+    <row r="161" spans="5:6" ht="15" customHeight="1">
+      <c r="E161" s="34"/>
+      <c r="F161" s="34"/>
+    </row>
+    <row r="162" spans="5:6" ht="15" customHeight="1">
+      <c r="E162" s="34"/>
+      <c r="F162" s="34"/>
+    </row>
+    <row r="163" spans="5:6" ht="15" customHeight="1">
+      <c r="E163" s="34"/>
+      <c r="F163" s="34"/>
+    </row>
+    <row r="164" spans="5:6" ht="15" customHeight="1">
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+    </row>
+    <row r="165" spans="5:6" ht="15" customHeight="1">
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+    </row>
+    <row r="166" spans="5:6" ht="15" customHeight="1">
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+    </row>
+    <row r="167" spans="5:6" ht="15" customHeight="1">
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+    </row>
+    <row r="168" spans="5:6" ht="15" customHeight="1">
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+    </row>
+    <row r="169" spans="5:6" ht="15" customHeight="1">
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+    </row>
+    <row r="170" spans="5:6" ht="15" customHeight="1">
+      <c r="E170" s="34"/>
+      <c r="F170" s="34"/>
+    </row>
+    <row r="171" spans="5:6" ht="15" customHeight="1">
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+    </row>
+    <row r="172" spans="5:6" ht="15" customHeight="1">
+      <c r="E172" s="34"/>
+      <c r="F172" s="34"/>
+    </row>
+    <row r="173" spans="5:6" ht="15" customHeight="1">
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+    </row>
+    <row r="174" spans="5:6" ht="15" customHeight="1">
+      <c r="E174" s="34"/>
+      <c r="F174" s="34"/>
+    </row>
+    <row r="175" spans="5:6" ht="15" customHeight="1">
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+    </row>
+    <row r="176" spans="5:6" ht="15" customHeight="1">
+      <c r="E176" s="34"/>
+      <c r="F176" s="34"/>
+    </row>
+    <row r="177" spans="5:6" ht="15" customHeight="1">
+      <c r="E177" s="34"/>
+      <c r="F177" s="34"/>
+    </row>
+    <row r="178" spans="5:6" ht="15" customHeight="1">
+      <c r="E178" s="34"/>
+      <c r="F178" s="34"/>
+    </row>
+    <row r="179" spans="5:6" ht="15" customHeight="1">
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+    </row>
+    <row r="180" spans="5:6" ht="15" customHeight="1">
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+    </row>
+    <row r="181" spans="5:6" ht="15" customHeight="1">
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+    </row>
+    <row r="182" spans="5:6" ht="15" customHeight="1">
+      <c r="E182" s="34"/>
+      <c r="F182" s="34"/>
+    </row>
+    <row r="183" spans="5:6" ht="15" customHeight="1">
+      <c r="E183" s="34"/>
+      <c r="F183" s="34"/>
+    </row>
+    <row r="184" spans="5:6" ht="15" customHeight="1">
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+    </row>
+    <row r="185" spans="5:6" ht="15" customHeight="1">
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+    </row>
+    <row r="186" spans="5:6" ht="15" customHeight="1">
+      <c r="E186" s="34"/>
+      <c r="F186" s="34"/>
+    </row>
+    <row r="187" spans="5:6" ht="15" customHeight="1">
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+    </row>
+    <row r="188" spans="5:6" ht="15" customHeight="1">
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+    </row>
+    <row r="189" spans="5:6" ht="15" customHeight="1">
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+    </row>
+    <row r="190" spans="5:6" ht="15" customHeight="1">
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+    </row>
+    <row r="191" spans="5:6" ht="15" customHeight="1">
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+    </row>
+    <row r="192" spans="5:6" ht="15" customHeight="1">
+      <c r="E192" s="34"/>
+      <c r="F192" s="34"/>
+    </row>
+    <row r="193" spans="5:6" ht="15" customHeight="1">
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+    </row>
+    <row r="194" spans="5:6" ht="15" customHeight="1">
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+    </row>
+    <row r="195" spans="5:6" ht="15" customHeight="1">
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+    </row>
+    <row r="196" spans="5:6" ht="15" customHeight="1">
+      <c r="E196" s="34"/>
+      <c r="F196" s="34"/>
+    </row>
+    <row r="197" spans="5:6" ht="15" customHeight="1">
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+    </row>
+    <row r="198" spans="5:6" ht="15" customHeight="1">
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+    </row>
+    <row r="199" spans="5:6" ht="15" customHeight="1">
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+    </row>
+    <row r="200" spans="5:6" ht="15" customHeight="1">
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
+    </row>
+    <row r="201" spans="5:6" ht="15" customHeight="1">
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+    </row>
+    <row r="202" spans="5:6" ht="15" customHeight="1">
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+    </row>
+    <row r="203" spans="5:6" ht="15" customHeight="1">
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+    </row>
+    <row r="204" spans="5:6" ht="15" customHeight="1">
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
+    </row>
+    <row r="205" spans="5:6" ht="15" customHeight="1">
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
+    </row>
+    <row r="206" spans="5:6" ht="15" customHeight="1">
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E16:E206">
+    <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E206">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E206">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F206">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(F16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F206">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F206">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F206">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F206">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="F16:F206" xr:uid="{0CC864E3-19E6-4751-8AAC-40DDA093638C}">
+      <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="E16:E206" xr:uid="{84E2A8D9-E304-42B2-AEC6-02BC3A95419A}">
+      <formula1>"Easy,Medium,Hard"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" tooltip="Number of Digit One" display="https://leetcode.com/problems/number-of-digit-one" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
     <hyperlink ref="B17" r:id="rId2" tooltip="Reverse Integer" display="https://leetcode.com/problems/reverse-integer" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
@@ -36333,6 +37785,7 @@
     <hyperlink ref="B68" r:id="rId53" tooltip="Random Pick Index" display="https://leetcode.com/problems/random-pick-index" xr:uid="{00000000-0004-0000-0900-000041000000}"/>
     <hyperlink ref="D68" r:id="rId54" tooltip="Reservoir Sampling" display="https://leetcode.com/tag/reservoir-sampling" xr:uid="{00000000-0004-0000-0900-000042000000}"/>
     <hyperlink ref="B67" r:id="rId55" tooltip="Integer Replacement" display="https://leetcode.com/problems/integer-replacement" xr:uid="{00000000-0004-0000-0A00-000043010000}"/>
+    <hyperlink ref="B70" r:id="rId56" xr:uid="{34E2A3EF-8A5C-41D5-B89F-35D2C9816DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66C6360-DD66-4009-B4F1-8B83419CB2EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63486925-F42C-4D61-B570-E8BF4AC61876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B183" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
       <text>
         <r>
           <rPr>
@@ -224,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B180" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="1445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="1459">
   <si>
     <t>#</t>
   </si>
@@ -9562,85 +9562,6 @@
     <t>Binary Search, DFS, Union Find, Graph</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">//A variation of Dijkstra Algorithm - Single Source Shortest Path - Greedy Method 
-//Clean &amp; Concise - O(MNlogMN)
-int[][] dirs = new int[4][] {
-			new int[] { 0, 1 },
-			new int[] { 0, -1 },
-			new int[] { 1, 0 },
-			new int[] { -1, 0 }
-};
-int r = heights.Length;
-int c = heights[0].Length;
-bool[,] visited = new bool[r,c];
-var pq = new SortedSet&lt;(int H, int X, int Y)&gt;();
-pq.Add((0, 0, 0));
-while (pq.Count &gt; 0)
-{
-	var cur = pq.Min;
-	if (cur.X == r - 1 &amp;&amp; cur.Y == c - 1)
-		</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">return cur.H;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-	visited[cur.X, cur.Y] = true;
-	pq.Remove(cur);
-	for (int d = 0; d &lt; dirs.Length; d++)
-	{
-		int nx = cur.X + dirs[d][0];
-		int ny = cur.Y + dirs[d][1];
-		if(nx &lt; 0 || nx == r || ny &lt; 0 || ny == c || visited[nx,ny]) 
-			continue;
-		</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//Maximum absolute difference between 2 cells
-		int nh = Math.Max(cur.H, Math.Abs(heights[cur.X][cur.Y] - heights[nx][ny]));</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-		pq.Add((nh,nx,ny));
-	}
-}
-return 0;</t>
-    </r>
-  </si>
-  <si>
     <t>Binary Search, Dynamic Programming, Greedy</t>
   </si>
   <si>
@@ -9690,56 +9611,6 @@
   </si>
   <si>
     <t>DFS, Recursion</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">public TreeNode InvertTree(TreeNode root) 
-{
-	if(root == null)
-		return null;
-	Stack&lt;TreeNode&gt; stack =  new Stack&lt;TreeNode&gt;();
-	stack.Push(root);
-	while(stack.Any())
-	{
-		TreeNode temp = stack.Pop();
-		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TreeNode tempLeft = temp.left;
-		temp.left = temp.right;
-		temp.right = tempLeft;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-		if(temp.left != null)
-			stack.Push(temp.left);
-		if(temp.right != null)
-			stack.Push(temp.right);
-	}
-	return root;
-}</t>
-    </r>
   </si>
   <si>
     <t>Concatenation of Consecutive Binary Numbers</t>
@@ -10313,12 +10184,740 @@
 }
 return (dict.Count &gt; 0) ? false : true;</t>
   </si>
+  <si>
+    <t>Smallest String With A Given Numeric Value</t>
+  </si>
+  <si>
+    <t>//if we directly insert into stringBuilder, it will cause timeout on big 'k'
+//So we are using array, to store the count
+StringBuilder sb = new StringBuilder();
+int[] arr = new int[26];
+for(int i = 1; i &lt;= n ; i++ )
+{
+	int v = k - (n - i);
+	if(v &gt; 26)
+		v = 26;
+	k =  k - v; 
+	char c = (char)(96 + v);
+	arr[c - 'a'] ++;
+}
+for(int i = 0; i &lt; 26 ; i++ )
+{
+	sb.Append(new string((char) (97 + i), arr[i]));
+}
+return sb.ToString();</t>
+  </si>
+  <si>
+    <t>Number Of Corner Rectangles</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O(M^2 * N) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int m = grid.Length, n = grid[0].Length, res = 0;
+for (int r = 0; r &lt; m; r ++) 
+{
+	for (int r1 = r + 1; r1 &lt; m; r1 ++) 
+	{
+		//stores number of 1 in both 2 lines (r, and r1)
+		int countOne = 0;
+		for (int c = 0; c &lt; n; c++) 
+		{
+			/*if(grid[r][c] == 1 &amp;&amp; grid[r1][c] == 1)
+			{
+				</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//finding '4 corners' with '1' and increment result - it will make runtime O(m^2 * N ^2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+				for (int c1 = c + 1; c1 &lt; n; c1 ++) 
+				{
+					res += grid[r][c1] &amp; grid[r1][c1];
+				}
+			}
+			*/
+			if(grid[r][c] == 1 &amp;&amp; grid[r1][c] == 1)
+				countOne ++;
+		}	
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Number of pair of '1' in 2 lines (r, and r1)
+		res += (countOne * (countOne - 1)) /2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	}
+}
+return res;</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimize Deviation in Array</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//A variation of Dijkstra Algorithm - Single Source Shortest Path - Greedy Method 
+//Clean &amp; Concise - O(MNlogMN)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int[][] dirs = new int[4][] {
+			new int[] { 0, 1 },
+			new int[] { 0, -1 },
+			new int[] { 1, 0 },
+			new int[] { -1, 0 }
+};
+int r = heights.Length;
+int c = heights[0].Length;
+bool[,] visited = new bool[r,c];
+var pq = new SortedSet&lt;(int H, int X, int Y)&gt;();
+pq.Add((0, 0, 0));
+while (pq.Count &gt; 0)
+{
+	var cur = pq.Min;
+	if (cur.X == r - 1 &amp;&amp; cur.Y == c - 1)
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">return cur.H;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	visited[cur.X, cur.Y] = true;
+	pq.Remove(cur);
+	for (int d = 0; d &lt; dirs.Length; d++)
+	{
+		int nx = cur.X + dirs[d][0];
+		int ny = cur.Y + dirs[d][1];
+		if(nx &lt; 0 || nx == r || ny &lt; 0 || ny == c || visited[nx,ny]) 
+			continue;
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Maximum absolute difference between 2 cells
+		int nh = Math.Max(cur.H, Math.Abs(heights[cur.X][cur.Y] - heights[nx][ny]));</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		pq.Add((nh,nx,ny));
+	}
+}
+return 0;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> /*
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Intuition 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: we can divide even numbers multiple times - till we get an odd number, but we can only double odd numbers once. After that, it will become an even number.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intuition 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Even numbers never increase.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: we can double all odd numbers first, so we can get forget of the second operation. Now, we only need to decrease the largest number - while it's even, which results a very simple solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Double odd numbers and put all numbers into a max heap. Track the smallest number. Track the minimum difference between the top of the heap and the smallest number. While the top of the heap is even, remove it, divide, and put back to the heap.
+*/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        
+SortedSet&lt;Pair&gt; MaxQ = new SortedSet&lt;Pair&gt;(new AscendingSorter());
+int min = int.MaxValue, v = 0, result = int.MaxValue;
+for (int i = 0; i &lt; nums.Length; i++)
+{
+	if (nums[i] % 2 == 1) //odd
+		v = nums[i] * 2;
+	else
+		v = nums[i];
+	MaxQ.Add(new Pair(v, i));
+	min = Math.Min(min, v);
+}
+while (MaxQ.Max.Value % 2 == 0)
+{
+	Pair maxPair = MaxQ.Max;
+	result = Math.Min(result, maxPair.Value - min);
+	MaxQ.Remove(maxPair);
+	//dividing even further, till it becomes odd
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>maxPair.Value = maxPair.Value / 2;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	//updating new Minimum
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min = Math.Min(min, maxPair.Value);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	MaxQ.Add(new Pair(maxPair.Value, maxPair.Index));
+}
+result = Math.Min(result, MaxQ.Max.Value - min);
+return result;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public TreeNode InvertTree(TreeNode root) 
+{
+	if(root == null)
+		return null;
+	Stack&lt;TreeNode&gt; stack =  new Stack&lt;TreeNode&gt;();
+	stack.Push(root);
+	while(stack.Any())
+	{
+		TreeNode temp = stack.Pop();
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TreeNode tempLeft = temp.left;
+		temp.left = temp.right;
+		temp.right = tempLeft;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		if(temp.left != null)
+			stack.Push(temp.left);
+		if(temp.right != null)
+			stack.Push(temp.right);
+	}
+	return root;
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Pair
+{
+	public int Distance;
+	public TreeNode Node;
+	public Pair(TreeNode node, int distance)
+	{
+		Distance = distance;
+		Node = node;
+	}
+}
+class DupValueWithTreeLevel : IComparable&lt;DupValueWithTreeLevel&gt;
+{
+	public int Value;
+	public int Level;
+	public DupValueWithTreeLevel(int val, int level)
+	{
+		Level = level;
+		Value = val;
+	}
+	public int CompareTo(DupValueWithTreeLevel o)
+	{
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (Value == o.Value &amp;&amp; Level == o.Level) //both level and value same, "allow duplicate"
+			return 1;
+		else if (Value != o.Value &amp;&amp; Level == o.Level) //same level, value must be in ascending order
+			return Value.CompareTo(o.Value);
+		else
+			return Level.CompareTo(o.Level); //ascending order level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	}
+}
+public IList&lt;IList&lt;int&gt;&gt; VerticalTraversal(TreeNode root) 
+{
+	IList&lt;IList&lt;int&gt;&gt; result = new List&lt;IList&lt;int&gt;&gt;();
+	if(root ==null)
+		return result;
+	SortedDictionary&lt;int, Dictionary&lt;int, SortedSet&lt;DupValueWithTreeLevel&gt;&gt;&gt; dict = new SortedDictionary&lt;int, Dictionary&lt;int, SortedSet&lt;DupValueWithTreeLevel&gt;&gt;&gt;();
+	Queue&lt;Pair&gt; queue =  new Queue&lt;Pair&gt;();
+	queue.Enqueue(new Pair(root, 0));
+	int level = 0;
+	int childCount = 0;
+	while(queue.Any())
+	{
+		level ++;
+		childCount = queue.Count;
+		while(childCount &gt; 0)
+		{
+			Pair temp = queue.Dequeue();
+			if(!dict.ContainsKey(temp.Distance))
+			{
+				var d = new Dictionary&lt;int, SortedSet&lt;DupValueWithTreeLevel&gt;&gt;();
+				dict.Add(temp.Distance, d);
+			}
+			if(! dict[temp.Distance].ContainsKey(level - 1))
+				dict[temp.Distance].Add(level - 1, new SortedSet&lt;DupValueWithTreeLevel&gt;());
+			//add the 'val' at 'temp.distance'&amp;'level - 1'
+			dict[temp.Distance][level - 1].Add(new DupValueWithTreeLevel(temp.Node.val, level - 1));
+			if(temp.Node.left != null)
+				queue.Enqueue(new Pair(temp.Node.left, temp.Distance - 1));
+			if(temp.Node.right != null)
+				queue.Enqueue(new Pair(temp.Node.right, temp.Distance + 1));
+			childCount -- ;
+		}       
+	}
+	var lst = new List&lt;int&gt;();
+	foreach(int distance in dict.Keys)
+	{
+		foreach(int lvl in dict[distance].Keys) //each level
+		{
+			foreach(DupValueWithTreeLevel j in dict[distance][lvl])
+				lst.Add(j.Value);
+		}
+		result.Add(new List&lt;int&gt;(lst.ToArray()));
+		lst.Clear();
+	}
+	return result;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum Number of Balls in a Box</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;int, int&gt; box = new Dictionary&lt;int, int&gt;();
+        int result = 0;
+        for(int i = lowLimit; i &lt;= highLimit; i++)
+        {
+            int boxNumber = 0;
+            int j = i;
+            while(j &gt; 0)
+            {
+                boxNumber += (j % 10);
+                j = j / 10; 
+            }
+            if(!box.ContainsKey(boxNumber))
+                box.Add(boxNumber, 0);
+            box[boxNumber] ++;
+            result = Math.Max(result, box[boxNumber]);
+        }
+        return result;</t>
+  </si>
+  <si>
+    <t>Restore the Array From Adjacent Pairs</t>
+  </si>
+  <si>
+    <t>Dictionary&lt;int, IList&lt;int&gt;&gt; adjacentEdges = new Dictionary&lt;int, IList&lt;int&gt;&gt;();
+//build a adjacency list from all pairs, 
+for (int i = 0; i &lt; adjacentPairs.Length; i++)
+{
+	int x = adjacentPairs[i][0];
+	int y = adjacentPairs[i][1];
+	if(!adjacentEdges.ContainsKey(x))
+		adjacentEdges.Add(x, new List&lt;int&gt;());
+	adjacentEdges[x].Add(y);
+	if(!adjacentEdges.ContainsKey(y))
+		adjacentEdges.Add(y, new List&lt;int&gt;());
+	adjacentEdges[y].Add(x);
+}
+IList&lt;int&gt; result = new List&lt;int&gt;();
+//find the first key which have only 1 edge..
+int start = 0;
+foreach (int key in adjacentEdges.Keys)
+{
+	if(adjacentEdges[key].Count == 1)
+	{
+		result.Add(key);
+		result.Add(adjacentEdges[key][0]);
+		start = adjacentEdges[key][0];
+		adjacentEdges.Remove(key);
+		break;
+	}
+}
+//traverse whole adjacency matrix, using start key..
+while (adjacentEdges.Count &gt; 0 &amp;&amp; adjacentEdges.ContainsKey(start))
+{
+	foreach (int v in adjacentEdges[start])
+	{
+		if (adjacentEdges[start].Count &gt; 1 &amp;&amp; adjacentEdges.ContainsKey(v))
+		{
+			result.Add(v);
+			adjacentEdges.Remove(start);
+			start = v;
+			break;
+		}
+		else if(adjacentEdges[start].Count == 1)
+			adjacentEdges.Remove(start);
+	}
+}
+return result.ToArray();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">int count = 0;
+while(n &gt; 0)
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if ((n &amp; 1) == 1) //bitwise &amp; on last digit with 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		count++;
+                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//pushing bit right side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	n = n &gt;&gt; 1;
+}
+return count;</t>
+    </r>
+  </si>
+  <si>
+    <t>Squirrel Simulation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int MinDistance(int height, int width, int[] tree, int[] squirrel, int[][] nuts) {
+	/*
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you can say that we'll achieve the maximum profit by picking up a nut which is farther from the tree but closer to the squirrel, as the first nut. This is because, the only travel distance which we can save is from the tree to the nut, but to achieve this saving, we need to go from the squirrel's start position to the nut's position. 
+	Why is the saving d is the difference between distance(tree,nut) and distance(squirrel,nut)? So the difference is actually how farther nut is from tree compared to how farther it is from squirrel. So is the algorithm to pick the nut which is farther from tree but closer to squirrel?
+	You can think it like this, we actually swap from one path to the tree to squirrel to that nut. Hence, it means sum =&gt; sum - dis(nut, tree) + dis(squirrel, nut)
+=&gt; sum - (dis(nut, tree) - dis(squirrel, nut)), therefore, we want to maximum that value inside.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	*/
+	int totalDistnace = 0, maxDistance = int.MinValue;
+	for(int i = 0; i &lt;nuts.Length; i++ )
+	{
+		//sum  of tree-nut distance 
+		totalDistnace += Distance(nuts[i], tree) * 2;
+		//we need a Nut which is farthest from tree but closest to squirrel
+		maxDistance = Math.Max(maxDistance, Distance(nuts[i], tree) - Distance(nuts[i], squirrel));
+	}
+	return totalDistnace - maxDistance;
+}
+public int Distance(int[] a, int[] b) 
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*Manhattan distance - generally works only if the points are arranged in the form of a grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the problem which we are working on gives more priority to the distance between the points only along with the grids, but not the geometric distance.*/
+	return Math.Abs(a[0] - b[0]) + Math.Abs(a[1] - b[1]);
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10574,15 +11173,24 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -10727,7 +11335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -10962,9 +11570,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10974,7 +11579,6 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10993,12 +11597,11 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13152,8 +13755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14741,15 +15344,6 @@
       <c r="E122" s="16"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
-        <v>987</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>562</v>
-      </c>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
     </row>
@@ -15712,147 +16306,146 @@
     <hyperlink ref="C124" r:id="rId126" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000BA000000}"/>
     <hyperlink ref="B125" r:id="rId127" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0900-0000BB000000}"/>
     <hyperlink ref="B21" r:id="rId128" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0900-0000BC000000}"/>
-    <hyperlink ref="B123" r:id="rId129" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
-    <hyperlink ref="B128" r:id="rId130" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
-    <hyperlink ref="B129" r:id="rId131" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
-    <hyperlink ref="C129" r:id="rId132" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
-    <hyperlink ref="B115" r:id="rId133" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
-    <hyperlink ref="B37" r:id="rId134" tooltip="Can Place Flowers" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
-    <hyperlink ref="B80" r:id="rId135" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
-    <hyperlink ref="B93" r:id="rId136" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
-    <hyperlink ref="B61" r:id="rId137" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
-    <hyperlink ref="B132" r:id="rId138" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
-    <hyperlink ref="C132" r:id="rId139" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
-    <hyperlink ref="B69" r:id="rId140" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
-    <hyperlink ref="B133" r:id="rId141" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
-    <hyperlink ref="C133" r:id="rId142" tooltip="Trie" display="https://leetcode.com/tag/trie" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
-    <hyperlink ref="B14" r:id="rId143" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
-    <hyperlink ref="C14" r:id="rId144" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
-    <hyperlink ref="B136" r:id="rId145" tooltip="Previous Permutation With One Swap" display="https://leetcode.com/problems/previous-permutation-with-one-swap" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
-    <hyperlink ref="B155" r:id="rId146" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
-    <hyperlink ref="B70" r:id="rId147" tooltip="Closest Leaf in a Binary Tree" display="https://leetcode.com/problems/closest-leaf-in-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
-    <hyperlink ref="C70" r:id="rId148" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
-    <hyperlink ref="B142" r:id="rId149" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
-    <hyperlink ref="C142" r:id="rId150" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
-    <hyperlink ref="B146" r:id="rId151" tooltip="Lowest Common Ancestor of Deepest Leaves" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
-    <hyperlink ref="B147" r:id="rId152" tooltip="Reported Posts II" display="https://leetcode.com/problems/reported-posts-ii" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
-    <hyperlink ref="B137" r:id="rId153" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
-    <hyperlink ref="B172" r:id="rId154" tooltip="Validate Binary Tree Nodes" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
-    <hyperlink ref="C172" r:id="rId155" tooltip="Graph" display="https://leetcode.com/tag/graph" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
-    <hyperlink ref="B150" r:id="rId156" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
-    <hyperlink ref="C150" r:id="rId157" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
-    <hyperlink ref="B97" r:id="rId158" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
-    <hyperlink ref="C97" r:id="rId159" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
-    <hyperlink ref="B116" r:id="rId160" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
-    <hyperlink ref="B139" r:id="rId161" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
-    <hyperlink ref="C139" r:id="rId162" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
-    <hyperlink ref="B153" r:id="rId163" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
-    <hyperlink ref="C153" r:id="rId164" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
-    <hyperlink ref="B141" r:id="rId165" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0900-0000E4000000}"/>
-    <hyperlink ref="C141" r:id="rId166" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E5000000}"/>
-    <hyperlink ref="B156" r:id="rId167" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
-    <hyperlink ref="B38" r:id="rId168" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
-    <hyperlink ref="B39" r:id="rId169" tooltip="Add Bold Tag in String" display="https://leetcode.com/problems/add-bold-tag-in-string" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
-    <hyperlink ref="C39" r:id="rId170" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
-    <hyperlink ref="B159" r:id="rId171" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
-    <hyperlink ref="B135" r:id="rId172" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
-    <hyperlink ref="C135" r:id="rId173" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
-    <hyperlink ref="B157" r:id="rId174" tooltip="Web Crawler Multithreaded" display="https://leetcode.com/problems/web-crawler-multithreaded" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
-    <hyperlink ref="B177" r:id="rId175" tooltip="Leftmost Column with at Least a One" display="https://leetcode.com/problems/leftmost-column-with-at-least-a-one" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
-    <hyperlink ref="C177" r:id="rId176" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
-    <hyperlink ref="B134" r:id="rId177" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
-    <hyperlink ref="C134" r:id="rId178" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
-    <hyperlink ref="B149" r:id="rId179" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
-    <hyperlink ref="C149" r:id="rId180" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
-    <hyperlink ref="B51" r:id="rId181" tooltip="Implement Magic Dictionary" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
-    <hyperlink ref="B121" r:id="rId182" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
-    <hyperlink ref="C121" r:id="rId183" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
-    <hyperlink ref="B164" r:id="rId184" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
-    <hyperlink ref="C164" r:id="rId185" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
-    <hyperlink ref="B78" r:id="rId186" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
-    <hyperlink ref="B130" r:id="rId187" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
-    <hyperlink ref="B131" r:id="rId188" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
-    <hyperlink ref="B114" r:id="rId189" tooltip="Maximum Width Ramp" display="https://leetcode.com/problems/maximum-width-ramp" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
-    <hyperlink ref="C114" r:id="rId190" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
-    <hyperlink ref="B152" r:id="rId191" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
-    <hyperlink ref="B158" r:id="rId192" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
-    <hyperlink ref="B167" r:id="rId193" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
-    <hyperlink ref="B120" r:id="rId194" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000001010000}"/>
-    <hyperlink ref="B87" r:id="rId195" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0900-000002010000}"/>
-    <hyperlink ref="B126" r:id="rId196" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000003010000}"/>
-    <hyperlink ref="B77" r:id="rId197" tooltip="Split BST" display="https://leetcode.com/problems/split-bst" xr:uid="{00000000-0004-0000-0900-000004010000}"/>
-    <hyperlink ref="B90" r:id="rId198" tooltip="Exam Room" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0900-000005010000}"/>
-    <hyperlink ref="C90" r:id="rId199" tooltip="Ordered Map" display="https://leetcode.com/tag/ordered-map" xr:uid="{00000000-0004-0000-0900-000006010000}"/>
-    <hyperlink ref="B138" r:id="rId200" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0900-000007010000}"/>
-    <hyperlink ref="B33" r:id="rId201" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0900-000008010000}"/>
-    <hyperlink ref="C33" r:id="rId202" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000009010000}"/>
-    <hyperlink ref="B59" r:id="rId203" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0900-00000A010000}"/>
-    <hyperlink ref="B173" r:id="rId204" tooltip="Find a Corresponding Node of a Binary Tree in a Clone of That Tree" display="https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree" xr:uid="{00000000-0004-0000-0900-00000B010000}"/>
-    <hyperlink ref="B72" r:id="rId205" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0900-00000C010000}"/>
-    <hyperlink ref="B145" r:id="rId206" tooltip="Maximum Nesting Depth of Two Valid Parentheses Strings" display="https://leetcode.com/problems/maximum-nesting-depth-of-two-valid-parentheses-strings" xr:uid="{00000000-0004-0000-0900-00000D010000}"/>
-    <hyperlink ref="B165" r:id="rId207" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0900-00000E010000}"/>
-    <hyperlink ref="C165" r:id="rId208" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00000F010000}"/>
-    <hyperlink ref="B49" r:id="rId209" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000010010000}"/>
-    <hyperlink ref="C49" r:id="rId210" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000011010000}"/>
-    <hyperlink ref="B171" r:id="rId211" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0900-000012010000}"/>
-    <hyperlink ref="B140" r:id="rId212" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0900-000013010000}"/>
-    <hyperlink ref="C140" r:id="rId213" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000014010000}"/>
-    <hyperlink ref="B76" r:id="rId214" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0900-000015010000}"/>
-    <hyperlink ref="C76" r:id="rId215" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000016010000}"/>
-    <hyperlink ref="B64" r:id="rId216" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0900-000018010000}"/>
-    <hyperlink ref="B168" r:id="rId217" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0900-000019010000}"/>
-    <hyperlink ref="C168" r:id="rId218" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00001A010000}"/>
-    <hyperlink ref="B160" r:id="rId219" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0900-00001B010000}"/>
-    <hyperlink ref="C160" r:id="rId220" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00001C010000}"/>
-    <hyperlink ref="B127" r:id="rId221" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0900-00001D010000}"/>
-    <hyperlink ref="B179" r:id="rId222" tooltip="Find the Kth Smallest Sum of a Matrix With Sorted Rows" display="https://leetcode.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows" xr:uid="{00000000-0004-0000-0900-00001E010000}"/>
-    <hyperlink ref="C179" r:id="rId223" tooltip="Heap" display="https://leetcode.com/tag/heap" xr:uid="{00000000-0004-0000-0900-00001F010000}"/>
-    <hyperlink ref="B180" r:id="rId224" tooltip="Make Two Arrays Equal by Reversing Sub-arrays" display="https://leetcode.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{00000000-0004-0000-0900-000021010000}"/>
-    <hyperlink ref="C180" r:id="rId225" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000022010000}"/>
-    <hyperlink ref="B154" r:id="rId226" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0900-000023010000}"/>
-    <hyperlink ref="C154" r:id="rId227" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000024010000}"/>
-    <hyperlink ref="B176" r:id="rId228" tooltip="Diagonal Traverse II" display="https://leetcode.com/problems/diagonal-traverse-ii" xr:uid="{00000000-0004-0000-0900-000025010000}"/>
-    <hyperlink ref="B85" r:id="rId229" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0900-000026010000}"/>
-    <hyperlink ref="C85" r:id="rId230" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000027010000}"/>
-    <hyperlink ref="B102" r:id="rId231" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0900-000028010000}"/>
-    <hyperlink ref="C102" r:id="rId232" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000029010000}"/>
-    <hyperlink ref="B151" r:id="rId233" tooltip="Check If a Number Is Majority Element in a Sorted Array" display="https://leetcode.com/problems/check-if-a-number-is-majority-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-00002A010000}"/>
-    <hyperlink ref="B148" r:id="rId234" tooltip="N-th Tribonacci Number" display="https://leetcode.com/problems/n-th-tribonacci-number" xr:uid="{00000000-0004-0000-0900-00002B010000}"/>
-    <hyperlink ref="C148" r:id="rId235" tooltip="Recursion" display="https://leetcode.com/tag/recursion" xr:uid="{00000000-0004-0000-0900-00002C010000}"/>
-    <hyperlink ref="B178" r:id="rId236" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0900-00002D010000}"/>
-    <hyperlink ref="B163" r:id="rId237" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0900-00002E010000}"/>
-    <hyperlink ref="B95" r:id="rId238" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
-    <hyperlink ref="B162" r:id="rId239" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0900-000032010000}"/>
-    <hyperlink ref="B166" r:id="rId240" tooltip="Element Appearing More Than 25% In Sorted Array" display="https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array" xr:uid="{00000000-0004-0000-0900-000033010000}"/>
-    <hyperlink ref="C166" r:id="rId241" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000034010000}"/>
-    <hyperlink ref="B170" r:id="rId242" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0900-000035010000}"/>
-    <hyperlink ref="C170" r:id="rId243" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000036010000}"/>
-    <hyperlink ref="B175" r:id="rId244" tooltip="Number of Ways to Paint N × 3 Grid" display="https://leetcode.com/problems/number-of-ways-to-paint-n-3-grid" xr:uid="{00000000-0004-0000-0900-000037010000}"/>
-    <hyperlink ref="C175" r:id="rId245" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000038010000}"/>
-    <hyperlink ref="B92" r:id="rId246" tooltip="Buddy Strings" display="https://leetcode.com/problems/buddy-strings" xr:uid="{00000000-0004-0000-0900-000039010000}"/>
-    <hyperlink ref="C92" r:id="rId247" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00003A010000}"/>
-    <hyperlink ref="B104" r:id="rId248" tooltip="Complete Binary Tree Inserter" display="https://leetcode.com/problems/complete-binary-tree-inserter" xr:uid="{00000000-0004-0000-0900-00003B010000}"/>
-    <hyperlink ref="C104" r:id="rId249" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00003C010000}"/>
-    <hyperlink ref="B144" r:id="rId250" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0900-00003D010000}"/>
-    <hyperlink ref="B181" r:id="rId251" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
-    <hyperlink ref="B82" r:id="rId252" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0900-00003F010000}"/>
-    <hyperlink ref="C82" r:id="rId253" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000040010000}"/>
-    <hyperlink ref="B161" r:id="rId254" tooltip="Greatest Sum Divisible by Three" display="https://leetcode.com/problems/greatest-sum-divisible-by-three" xr:uid="{00000000-0004-0000-0900-000041010000}"/>
-    <hyperlink ref="C161" r:id="rId255" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000042010000}"/>
-    <hyperlink ref="B118" r:id="rId256" tooltip="Subarray Sums Divisible by K" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0900-000043010000}"/>
-    <hyperlink ref="B182" r:id="rId257" tooltip="Shuffle String" display="https://leetcode.com/problems/shuffle-string" xr:uid="{00000000-0004-0000-0900-000044010000}"/>
-    <hyperlink ref="C182" r:id="rId258" tooltip="Sort" display="https://leetcode.com/tag/sort" xr:uid="{00000000-0004-0000-0900-000045010000}"/>
-    <hyperlink ref="B174" r:id="rId259" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000046010000}"/>
-    <hyperlink ref="C174" r:id="rId260" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-000047010000}"/>
-    <hyperlink ref="B91" r:id="rId261" tooltip="Mirror Reflection" display="https://leetcode.com/problems/mirror-reflection" xr:uid="{00000000-0004-0000-0900-000048010000}"/>
-    <hyperlink ref="C91" r:id="rId262" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000049010000}"/>
-    <hyperlink ref="B183" r:id="rId263" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0900-00004A010000}"/>
-    <hyperlink ref="B184" r:id="rId264" tooltip="Dot Product of Two Sparse Vectors" display="https://leetcode.com/problems/dot-product-of-two-sparse-vectors" xr:uid="{00000000-0004-0000-0900-00004B010000}"/>
-    <hyperlink ref="B105" r:id="rId265" tooltip="Number of Music Playlists" display="https://leetcode.com/problems/number-of-music-playlists" xr:uid="{00000000-0004-0000-0900-00004C010000}"/>
-    <hyperlink ref="C105" r:id="rId266" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00004D010000}"/>
-    <hyperlink ref="B143" r:id="rId267" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0900-00004E010000}"/>
-    <hyperlink ref="B185" r:id="rId268" tooltip="Lowest Common Ancestor of a Binary Tree III" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii" xr:uid="{00000000-0004-0000-0900-000050010000}"/>
-    <hyperlink ref="C185" r:id="rId269" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000051010000}"/>
+    <hyperlink ref="B128" r:id="rId129" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
+    <hyperlink ref="B129" r:id="rId130" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
+    <hyperlink ref="C129" r:id="rId131" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
+    <hyperlink ref="B115" r:id="rId132" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
+    <hyperlink ref="B37" r:id="rId133" tooltip="Can Place Flowers" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
+    <hyperlink ref="B80" r:id="rId134" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
+    <hyperlink ref="B93" r:id="rId135" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
+    <hyperlink ref="B61" r:id="rId136" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
+    <hyperlink ref="B132" r:id="rId137" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
+    <hyperlink ref="C132" r:id="rId138" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
+    <hyperlink ref="B69" r:id="rId139" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
+    <hyperlink ref="B133" r:id="rId140" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
+    <hyperlink ref="C133" r:id="rId141" tooltip="Trie" display="https://leetcode.com/tag/trie" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
+    <hyperlink ref="B14" r:id="rId142" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
+    <hyperlink ref="C14" r:id="rId143" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
+    <hyperlink ref="B136" r:id="rId144" tooltip="Previous Permutation With One Swap" display="https://leetcode.com/problems/previous-permutation-with-one-swap" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
+    <hyperlink ref="B155" r:id="rId145" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
+    <hyperlink ref="B70" r:id="rId146" tooltip="Closest Leaf in a Binary Tree" display="https://leetcode.com/problems/closest-leaf-in-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
+    <hyperlink ref="C70" r:id="rId147" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
+    <hyperlink ref="B142" r:id="rId148" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
+    <hyperlink ref="C142" r:id="rId149" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
+    <hyperlink ref="B146" r:id="rId150" tooltip="Lowest Common Ancestor of Deepest Leaves" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
+    <hyperlink ref="B147" r:id="rId151" tooltip="Reported Posts II" display="https://leetcode.com/problems/reported-posts-ii" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
+    <hyperlink ref="B137" r:id="rId152" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
+    <hyperlink ref="B172" r:id="rId153" tooltip="Validate Binary Tree Nodes" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
+    <hyperlink ref="C172" r:id="rId154" tooltip="Graph" display="https://leetcode.com/tag/graph" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
+    <hyperlink ref="B150" r:id="rId155" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
+    <hyperlink ref="C150" r:id="rId156" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
+    <hyperlink ref="B97" r:id="rId157" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
+    <hyperlink ref="C97" r:id="rId158" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
+    <hyperlink ref="B116" r:id="rId159" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
+    <hyperlink ref="B139" r:id="rId160" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
+    <hyperlink ref="C139" r:id="rId161" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
+    <hyperlink ref="B153" r:id="rId162" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
+    <hyperlink ref="C153" r:id="rId163" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
+    <hyperlink ref="B141" r:id="rId164" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0900-0000E4000000}"/>
+    <hyperlink ref="C141" r:id="rId165" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E5000000}"/>
+    <hyperlink ref="B156" r:id="rId166" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
+    <hyperlink ref="B38" r:id="rId167" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
+    <hyperlink ref="B39" r:id="rId168" tooltip="Add Bold Tag in String" display="https://leetcode.com/problems/add-bold-tag-in-string" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
+    <hyperlink ref="C39" r:id="rId169" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
+    <hyperlink ref="B159" r:id="rId170" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
+    <hyperlink ref="B135" r:id="rId171" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
+    <hyperlink ref="C135" r:id="rId172" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
+    <hyperlink ref="B157" r:id="rId173" tooltip="Web Crawler Multithreaded" display="https://leetcode.com/problems/web-crawler-multithreaded" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
+    <hyperlink ref="B177" r:id="rId174" tooltip="Leftmost Column with at Least a One" display="https://leetcode.com/problems/leftmost-column-with-at-least-a-one" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
+    <hyperlink ref="C177" r:id="rId175" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
+    <hyperlink ref="B134" r:id="rId176" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
+    <hyperlink ref="C134" r:id="rId177" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
+    <hyperlink ref="B149" r:id="rId178" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
+    <hyperlink ref="C149" r:id="rId179" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
+    <hyperlink ref="B51" r:id="rId180" tooltip="Implement Magic Dictionary" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
+    <hyperlink ref="B121" r:id="rId181" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
+    <hyperlink ref="C121" r:id="rId182" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
+    <hyperlink ref="B164" r:id="rId183" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
+    <hyperlink ref="C164" r:id="rId184" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
+    <hyperlink ref="B78" r:id="rId185" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
+    <hyperlink ref="B130" r:id="rId186" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
+    <hyperlink ref="B131" r:id="rId187" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
+    <hyperlink ref="B114" r:id="rId188" tooltip="Maximum Width Ramp" display="https://leetcode.com/problems/maximum-width-ramp" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
+    <hyperlink ref="C114" r:id="rId189" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
+    <hyperlink ref="B152" r:id="rId190" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
+    <hyperlink ref="B158" r:id="rId191" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
+    <hyperlink ref="B167" r:id="rId192" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
+    <hyperlink ref="B120" r:id="rId193" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000001010000}"/>
+    <hyperlink ref="B87" r:id="rId194" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0900-000002010000}"/>
+    <hyperlink ref="B126" r:id="rId195" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000003010000}"/>
+    <hyperlink ref="B77" r:id="rId196" tooltip="Split BST" display="https://leetcode.com/problems/split-bst" xr:uid="{00000000-0004-0000-0900-000004010000}"/>
+    <hyperlink ref="B90" r:id="rId197" tooltip="Exam Room" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0900-000005010000}"/>
+    <hyperlink ref="C90" r:id="rId198" tooltip="Ordered Map" display="https://leetcode.com/tag/ordered-map" xr:uid="{00000000-0004-0000-0900-000006010000}"/>
+    <hyperlink ref="B138" r:id="rId199" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0900-000007010000}"/>
+    <hyperlink ref="B33" r:id="rId200" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0900-000008010000}"/>
+    <hyperlink ref="C33" r:id="rId201" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000009010000}"/>
+    <hyperlink ref="B59" r:id="rId202" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0900-00000A010000}"/>
+    <hyperlink ref="B173" r:id="rId203" tooltip="Find a Corresponding Node of a Binary Tree in a Clone of That Tree" display="https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree" xr:uid="{00000000-0004-0000-0900-00000B010000}"/>
+    <hyperlink ref="B72" r:id="rId204" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0900-00000C010000}"/>
+    <hyperlink ref="B145" r:id="rId205" tooltip="Maximum Nesting Depth of Two Valid Parentheses Strings" display="https://leetcode.com/problems/maximum-nesting-depth-of-two-valid-parentheses-strings" xr:uid="{00000000-0004-0000-0900-00000D010000}"/>
+    <hyperlink ref="B165" r:id="rId206" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0900-00000E010000}"/>
+    <hyperlink ref="C165" r:id="rId207" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00000F010000}"/>
+    <hyperlink ref="B49" r:id="rId208" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000010010000}"/>
+    <hyperlink ref="C49" r:id="rId209" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000011010000}"/>
+    <hyperlink ref="B171" r:id="rId210" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0900-000012010000}"/>
+    <hyperlink ref="B140" r:id="rId211" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0900-000013010000}"/>
+    <hyperlink ref="C140" r:id="rId212" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000014010000}"/>
+    <hyperlink ref="B76" r:id="rId213" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0900-000015010000}"/>
+    <hyperlink ref="C76" r:id="rId214" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000016010000}"/>
+    <hyperlink ref="B64" r:id="rId215" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0900-000018010000}"/>
+    <hyperlink ref="B168" r:id="rId216" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0900-000019010000}"/>
+    <hyperlink ref="C168" r:id="rId217" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00001A010000}"/>
+    <hyperlink ref="B160" r:id="rId218" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0900-00001B010000}"/>
+    <hyperlink ref="C160" r:id="rId219" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00001C010000}"/>
+    <hyperlink ref="B127" r:id="rId220" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0900-00001D010000}"/>
+    <hyperlink ref="B179" r:id="rId221" tooltip="Find the Kth Smallest Sum of a Matrix With Sorted Rows" display="https://leetcode.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows" xr:uid="{00000000-0004-0000-0900-00001E010000}"/>
+    <hyperlink ref="C179" r:id="rId222" tooltip="Heap" display="https://leetcode.com/tag/heap" xr:uid="{00000000-0004-0000-0900-00001F010000}"/>
+    <hyperlink ref="B180" r:id="rId223" tooltip="Make Two Arrays Equal by Reversing Sub-arrays" display="https://leetcode.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{00000000-0004-0000-0900-000021010000}"/>
+    <hyperlink ref="C180" r:id="rId224" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000022010000}"/>
+    <hyperlink ref="B154" r:id="rId225" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0900-000023010000}"/>
+    <hyperlink ref="C154" r:id="rId226" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000024010000}"/>
+    <hyperlink ref="B176" r:id="rId227" tooltip="Diagonal Traverse II" display="https://leetcode.com/problems/diagonal-traverse-ii" xr:uid="{00000000-0004-0000-0900-000025010000}"/>
+    <hyperlink ref="B85" r:id="rId228" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0900-000026010000}"/>
+    <hyperlink ref="C85" r:id="rId229" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000027010000}"/>
+    <hyperlink ref="B102" r:id="rId230" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0900-000028010000}"/>
+    <hyperlink ref="C102" r:id="rId231" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000029010000}"/>
+    <hyperlink ref="B151" r:id="rId232" tooltip="Check If a Number Is Majority Element in a Sorted Array" display="https://leetcode.com/problems/check-if-a-number-is-majority-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-00002A010000}"/>
+    <hyperlink ref="B148" r:id="rId233" tooltip="N-th Tribonacci Number" display="https://leetcode.com/problems/n-th-tribonacci-number" xr:uid="{00000000-0004-0000-0900-00002B010000}"/>
+    <hyperlink ref="C148" r:id="rId234" tooltip="Recursion" display="https://leetcode.com/tag/recursion" xr:uid="{00000000-0004-0000-0900-00002C010000}"/>
+    <hyperlink ref="B178" r:id="rId235" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0900-00002D010000}"/>
+    <hyperlink ref="B163" r:id="rId236" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0900-00002E010000}"/>
+    <hyperlink ref="B95" r:id="rId237" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
+    <hyperlink ref="B162" r:id="rId238" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0900-000032010000}"/>
+    <hyperlink ref="B166" r:id="rId239" tooltip="Element Appearing More Than 25% In Sorted Array" display="https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array" xr:uid="{00000000-0004-0000-0900-000033010000}"/>
+    <hyperlink ref="C166" r:id="rId240" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000034010000}"/>
+    <hyperlink ref="B170" r:id="rId241" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0900-000035010000}"/>
+    <hyperlink ref="C170" r:id="rId242" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000036010000}"/>
+    <hyperlink ref="B175" r:id="rId243" tooltip="Number of Ways to Paint N × 3 Grid" display="https://leetcode.com/problems/number-of-ways-to-paint-n-3-grid" xr:uid="{00000000-0004-0000-0900-000037010000}"/>
+    <hyperlink ref="C175" r:id="rId244" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000038010000}"/>
+    <hyperlink ref="B92" r:id="rId245" tooltip="Buddy Strings" display="https://leetcode.com/problems/buddy-strings" xr:uid="{00000000-0004-0000-0900-000039010000}"/>
+    <hyperlink ref="C92" r:id="rId246" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00003A010000}"/>
+    <hyperlink ref="B104" r:id="rId247" tooltip="Complete Binary Tree Inserter" display="https://leetcode.com/problems/complete-binary-tree-inserter" xr:uid="{00000000-0004-0000-0900-00003B010000}"/>
+    <hyperlink ref="C104" r:id="rId248" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00003C010000}"/>
+    <hyperlink ref="B144" r:id="rId249" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0900-00003D010000}"/>
+    <hyperlink ref="B181" r:id="rId250" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
+    <hyperlink ref="B82" r:id="rId251" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0900-00003F010000}"/>
+    <hyperlink ref="C82" r:id="rId252" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000040010000}"/>
+    <hyperlink ref="B161" r:id="rId253" tooltip="Greatest Sum Divisible by Three" display="https://leetcode.com/problems/greatest-sum-divisible-by-three" xr:uid="{00000000-0004-0000-0900-000041010000}"/>
+    <hyperlink ref="C161" r:id="rId254" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000042010000}"/>
+    <hyperlink ref="B118" r:id="rId255" tooltip="Subarray Sums Divisible by K" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0900-000043010000}"/>
+    <hyperlink ref="B182" r:id="rId256" tooltip="Shuffle String" display="https://leetcode.com/problems/shuffle-string" xr:uid="{00000000-0004-0000-0900-000044010000}"/>
+    <hyperlink ref="C182" r:id="rId257" tooltip="Sort" display="https://leetcode.com/tag/sort" xr:uid="{00000000-0004-0000-0900-000045010000}"/>
+    <hyperlink ref="B174" r:id="rId258" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000046010000}"/>
+    <hyperlink ref="C174" r:id="rId259" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-000047010000}"/>
+    <hyperlink ref="B91" r:id="rId260" tooltip="Mirror Reflection" display="https://leetcode.com/problems/mirror-reflection" xr:uid="{00000000-0004-0000-0900-000048010000}"/>
+    <hyperlink ref="C91" r:id="rId261" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000049010000}"/>
+    <hyperlink ref="B183" r:id="rId262" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0900-00004A010000}"/>
+    <hyperlink ref="B184" r:id="rId263" tooltip="Dot Product of Two Sparse Vectors" display="https://leetcode.com/problems/dot-product-of-two-sparse-vectors" xr:uid="{00000000-0004-0000-0900-00004B010000}"/>
+    <hyperlink ref="B105" r:id="rId264" tooltip="Number of Music Playlists" display="https://leetcode.com/problems/number-of-music-playlists" xr:uid="{00000000-0004-0000-0900-00004C010000}"/>
+    <hyperlink ref="C105" r:id="rId265" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00004D010000}"/>
+    <hyperlink ref="B143" r:id="rId266" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0900-00004E010000}"/>
+    <hyperlink ref="B185" r:id="rId267" tooltip="Lowest Common Ancestor of a Binary Tree III" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii" xr:uid="{00000000-0004-0000-0900-000050010000}"/>
+    <hyperlink ref="C185" r:id="rId268" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000051010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26463,10 +27056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -28159,7 +28752,7 @@
         <v>1331</v>
       </c>
       <c r="G87" s="84" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1">
@@ -28179,7 +28772,7 @@
         <v>1331</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
@@ -28199,7 +28792,7 @@
         <v>1227</v>
       </c>
       <c r="G89" s="84" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1">
@@ -28219,7 +28812,7 @@
         <v>1227</v>
       </c>
       <c r="G90" s="84" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
@@ -28239,7 +28832,7 @@
         <v>1305</v>
       </c>
       <c r="G91" s="84" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1">
@@ -28259,11 +28852,11 @@
         <v>1225</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
-      <c r="A93" s="30">
+      <c r="A93" s="105">
         <v>248</v>
       </c>
       <c r="B93" s="62" t="s">
@@ -28276,7 +28869,7 @@
       <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
-      <c r="A94" s="30">
+      <c r="A94" s="105">
         <v>243</v>
       </c>
       <c r="B94" s="62" t="s">
@@ -28289,7 +28882,7 @@
       <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="32">
+      <c r="A95" s="125">
         <v>266</v>
       </c>
       <c r="B95" s="59" t="s">
@@ -28302,7 +28895,7 @@
       <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1">
-      <c r="A96" s="96">
+      <c r="A96" s="106">
         <v>268</v>
       </c>
       <c r="B96" s="62" t="s">
@@ -28315,7 +28908,7 @@
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1">
-      <c r="A97" s="30">
+      <c r="A97" s="105">
         <v>271</v>
       </c>
       <c r="B97" s="62" t="s">
@@ -28328,7 +28921,7 @@
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="32">
+      <c r="A98" s="125">
         <v>277</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -28341,7 +28934,7 @@
       <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1">
-      <c r="A99" s="30">
+      <c r="A99" s="105">
         <v>278</v>
       </c>
       <c r="B99" s="62" t="s">
@@ -28354,7 +28947,7 @@
       <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1">
-      <c r="A100" s="104">
+      <c r="A100" s="105">
         <v>279</v>
       </c>
       <c r="B100" s="93" t="s">
@@ -28364,7 +28957,7 @@
       <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1">
-      <c r="A101" s="30">
+      <c r="A101" s="105">
         <v>280</v>
       </c>
       <c r="B101" s="62" t="s">
@@ -28377,7 +28970,7 @@
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1">
-      <c r="A102" s="30">
+      <c r="A102" s="105">
         <v>283</v>
       </c>
       <c r="B102" s="62" t="s">
@@ -28390,7 +28983,7 @@
       <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1">
-      <c r="A103" s="96">
+      <c r="A103" s="106">
         <v>290</v>
       </c>
       <c r="B103" s="62" t="s">
@@ -28782,7 +29375,7 @@
         <v>180</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
@@ -28808,7 +29401,7 @@
         <v>409</v>
       </c>
       <c r="D135" s="32" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
@@ -28821,7 +29414,7 @@
         <v>168</v>
       </c>
       <c r="D136" s="32" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
@@ -28935,7 +29528,7 @@
         <v>1050</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
@@ -29007,7 +29600,7 @@
         <v>1086</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
@@ -29020,7 +29613,7 @@
         <v>664</v>
       </c>
       <c r="D152" s="32" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
@@ -29033,7 +29626,7 @@
         <v>415</v>
       </c>
       <c r="D153" s="32" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
@@ -29127,7 +29720,6 @@
       <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1">
-      <c r="A161" s="96"/>
       <c r="B161" s="62"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
@@ -29138,7 +29730,6 @@
       <c r="F162" s="34"/>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1">
-      <c r="A163" s="96"/>
       <c r="B163" s="62"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
@@ -29149,7 +29740,6 @@
       <c r="F164" s="34"/>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1">
-      <c r="A165" s="96"/>
       <c r="B165" s="62"/>
       <c r="E165" s="34"/>
       <c r="F165" s="34"/>
@@ -29160,59 +29750,44 @@
       <c r="F166" s="34"/>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1">
-      <c r="A167" s="96"/>
       <c r="B167" s="62"/>
-      <c r="C167" s="22"/>
       <c r="E167" s="34"/>
       <c r="F167" s="34"/>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1">
-      <c r="A168" s="32">
-        <v>1658</v>
-      </c>
-      <c r="B168" s="62" t="s">
-        <v>1004</v>
-      </c>
+      <c r="B168" s="62"/>
       <c r="E168" s="34"/>
       <c r="F168" s="34"/>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1">
-      <c r="A169" s="96">
-        <v>1673</v>
-      </c>
-      <c r="B169" s="62" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C169" s="55" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D169" s="32" t="s">
-        <v>1381</v>
-      </c>
+      <c r="B169" s="62"/>
       <c r="E169" s="34"/>
       <c r="F169" s="34"/>
-      <c r="G169" s="84" t="s">
-        <v>1380</v>
-      </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1">
       <c r="A170" s="32">
-        <v>1657</v>
+        <v>750</v>
       </c>
       <c r="B170" s="62" t="s">
-        <v>1386</v>
+        <v>1445</v>
+      </c>
+      <c r="C170" s="55" t="s">
+        <v>1228</v>
       </c>
       <c r="D170" s="32" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
+        <v>128</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>1331</v>
+      </c>
       <c r="G170" s="84" t="s">
-        <v>1385</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1">
-      <c r="A171" s="96"/>
       <c r="B171" s="62"/>
       <c r="E171" s="34"/>
       <c r="F171" s="34"/>
@@ -29223,20 +29798,9 @@
       <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1">
-      <c r="A173" s="96">
-        <v>1329</v>
-      </c>
-      <c r="B173" s="62" t="s">
-        <v>699</v>
-      </c>
-      <c r="D173" s="32" t="s">
-        <v>121</v>
-      </c>
+      <c r="B173" s="62"/>
       <c r="E173" s="34"/>
       <c r="F173" s="34"/>
-      <c r="G173" s="84" t="s">
-        <v>1397</v>
-      </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1">
       <c r="B174" s="62"/>
@@ -29266,72 +29830,66 @@
       <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1">
-      <c r="A179" s="96">
-        <v>857</v>
-      </c>
-      <c r="B179" s="62" t="s">
-        <v>797</v>
-      </c>
-      <c r="C179" s="32"/>
-      <c r="D179" s="32" t="s">
-        <v>1408</v>
-      </c>
+      <c r="A179" s="96"/>
+      <c r="B179" s="62"/>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
-      <c r="G179" s="84" t="s">
-        <v>1409</v>
-      </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1">
-      <c r="A180" s="32">
-        <v>1383</v>
-      </c>
-      <c r="B180" s="62" t="s">
-        <v>1406</v>
-      </c>
-      <c r="D180" s="32" t="s">
-        <v>1407</v>
-      </c>
+      <c r="B180" s="62"/>
       <c r="E180" s="34"/>
       <c r="F180" s="34"/>
-      <c r="G180" s="84" t="s">
-        <v>1416</v>
-      </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1">
       <c r="A181" s="96"/>
       <c r="B181" s="62"/>
+      <c r="C181" s="22"/>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1">
-      <c r="B182" s="62"/>
+      <c r="A182" s="32">
+        <v>1658</v>
+      </c>
+      <c r="B182" s="62" t="s">
+        <v>1004</v>
+      </c>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1">
-      <c r="A183" s="96"/>
-      <c r="B183" s="62"/>
+      <c r="A183" s="96">
+        <v>1673</v>
+      </c>
+      <c r="B183" s="62" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C183" s="55" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D183" s="32" t="s">
+        <v>1381</v>
+      </c>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
+      <c r="G183" s="84" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1">
       <c r="A184" s="32">
-        <v>1631</v>
+        <v>1657</v>
       </c>
       <c r="B184" s="62" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C184" s="78" t="s">
-        <v>66</v>
+        <v>1386</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>1417</v>
+        <v>1341</v>
       </c>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
       <c r="G184" s="84" t="s">
-        <v>1418</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1">
@@ -29346,10 +29904,20 @@
       <c r="F186" s="34"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
-      <c r="A187" s="96"/>
-      <c r="B187" s="62"/>
+      <c r="A187" s="96">
+        <v>1329</v>
+      </c>
+      <c r="B187" s="62" t="s">
+        <v>699</v>
+      </c>
+      <c r="D187" s="32" t="s">
+        <v>121</v>
+      </c>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
+      <c r="G187" s="84" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1">
       <c r="B188" s="62"/>
@@ -29378,178 +29946,268 @@
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1">
-      <c r="A193" s="96"/>
-      <c r="B193" s="62"/>
+    <row r="193" spans="1:7" ht="15" customHeight="1">
+      <c r="A193" s="96">
+        <v>857</v>
+      </c>
+      <c r="B193" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="C193" s="32"/>
+      <c r="D193" s="32" t="s">
+        <v>1408</v>
+      </c>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1">
-      <c r="B194" s="62"/>
+      <c r="G193" s="84" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1">
+      <c r="A194" s="32">
+        <v>1383</v>
+      </c>
+      <c r="B194" s="62" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D194" s="32" t="s">
+        <v>1407</v>
+      </c>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1">
+      <c r="G194" s="84" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1">
       <c r="A195" s="96"/>
       <c r="B195" s="62"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1">
+    <row r="196" spans="1:7" ht="15" customHeight="1">
       <c r="B196" s="62"/>
       <c r="E196" s="34"/>
       <c r="F196" s="34"/>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1">
+    <row r="197" spans="1:7" ht="15" customHeight="1">
       <c r="A197" s="96"/>
       <c r="B197" s="62"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1">
-      <c r="B198" s="62"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1">
+    <row r="198" spans="1:7" ht="15" customHeight="1">
+      <c r="A198" s="32">
+        <v>1631</v>
+      </c>
+      <c r="B198" s="62" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C198" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D198" s="32" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E198" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198" s="34" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G198" s="84" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1">
       <c r="A199" s="96"/>
       <c r="B199" s="62"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1">
+    <row r="200" spans="1:7" ht="15" customHeight="1">
       <c r="B200" s="62"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1">
-      <c r="A201" s="96"/>
+    <row r="201" spans="1:7" ht="15" customHeight="1">
       <c r="B201" s="62"/>
       <c r="E201" s="34"/>
       <c r="F201" s="34"/>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1">
-      <c r="B202" s="62"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="34"/>
-    </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1">
-      <c r="A203" s="96"/>
+    <row r="202" spans="1:7" ht="15" customHeight="1">
+      <c r="A202" s="124">
+        <v>1675</v>
+      </c>
+      <c r="B202" s="62" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D202" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E202" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F202" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G202" s="84" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1">
+      <c r="A203" s="124"/>
       <c r="B203" s="62"/>
       <c r="E203" s="34"/>
       <c r="F203" s="34"/>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1">
+    <row r="204" spans="1:7" ht="15" customHeight="1">
+      <c r="A204" s="124"/>
       <c r="B204" s="62"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1">
-      <c r="A205" s="96"/>
+    <row r="205" spans="1:7" ht="15" customHeight="1">
+      <c r="A205" s="124"/>
       <c r="B205" s="62"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1">
+    <row r="206" spans="1:7" ht="15" customHeight="1">
+      <c r="A206" s="124"/>
       <c r="B206" s="62"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1">
-      <c r="A207" s="96"/>
+    <row r="207" spans="1:7" ht="15" customHeight="1">
+      <c r="A207" s="124"/>
       <c r="B207" s="62"/>
       <c r="E207" s="34"/>
       <c r="F207" s="34"/>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1">
+    <row r="208" spans="1:7" ht="15" customHeight="1">
+      <c r="A208" s="124"/>
       <c r="B208" s="62"/>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1">
-      <c r="A209" s="96"/>
+    <row r="209" spans="1:7" ht="15" customHeight="1">
+      <c r="A209" s="124"/>
       <c r="B209" s="62"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1">
+    <row r="210" spans="1:7" ht="15" customHeight="1">
+      <c r="A210" s="124"/>
       <c r="B210" s="62"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1">
-      <c r="A211" s="96"/>
+    <row r="211" spans="1:7" ht="15" customHeight="1">
+      <c r="A211" s="124"/>
       <c r="B211" s="62"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1">
-      <c r="B212" s="62"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
-    </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1">
-      <c r="A213" s="96"/>
-      <c r="B213" s="62"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-    </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1">
+    <row r="212" spans="1:7" ht="15" customHeight="1">
+      <c r="A212" s="124">
+        <v>1742</v>
+      </c>
+      <c r="B212" s="62" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E212" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G212" s="84" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1">
+      <c r="A213" s="124">
+        <v>1743</v>
+      </c>
+      <c r="B213" s="62" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D213" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E213" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F213" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G213" s="84" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1">
+      <c r="A214" s="124"/>
       <c r="B214" s="62"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1">
-      <c r="A215" s="96"/>
+    <row r="215" spans="1:7" ht="15" customHeight="1">
+      <c r="A215" s="124"/>
       <c r="B215" s="62"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1">
+    <row r="216" spans="1:7" ht="15" customHeight="1">
+      <c r="A216" s="124"/>
       <c r="B216" s="62"/>
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1">
-      <c r="A217" s="96"/>
+    <row r="217" spans="1:7" ht="15" customHeight="1">
+      <c r="A217" s="124"/>
       <c r="B217" s="62"/>
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
     </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1">
+    <row r="218" spans="1:7" ht="15" customHeight="1">
+      <c r="A218" s="124"/>
       <c r="B218" s="62"/>
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
     </row>
-    <row r="219" spans="1:6" ht="15" customHeight="1">
+    <row r="219" spans="1:7" ht="15" customHeight="1">
       <c r="A219" s="96"/>
       <c r="B219" s="62"/>
       <c r="E219" s="34"/>
       <c r="F219" s="34"/>
     </row>
-    <row r="220" spans="1:6" ht="15" customHeight="1">
+    <row r="220" spans="1:7" ht="15" customHeight="1">
       <c r="B220" s="62"/>
       <c r="E220" s="34"/>
       <c r="F220" s="34"/>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1">
+    <row r="221" spans="1:7" ht="15" customHeight="1">
       <c r="A221" s="96"/>
       <c r="B221" s="62"/>
       <c r="E221" s="34"/>
       <c r="F221" s="34"/>
     </row>
-    <row r="222" spans="1:6" ht="15" customHeight="1">
+    <row r="222" spans="1:7" ht="15" customHeight="1">
       <c r="B222" s="62"/>
       <c r="E222" s="34"/>
       <c r="F222" s="34"/>
     </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1">
+    <row r="223" spans="1:7" ht="15" customHeight="1">
       <c r="A223" s="96"/>
       <c r="B223" s="62"/>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
     </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1">
+    <row r="224" spans="1:7" ht="15" customHeight="1">
       <c r="B224" s="62"/>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
@@ -30061,6 +30719,7 @@
       <c r="F316" s="34"/>
     </row>
     <row r="317" spans="1:6" ht="15" customHeight="1">
+      <c r="A317" s="96"/>
       <c r="B317" s="62"/>
       <c r="E317" s="34"/>
       <c r="F317" s="34"/>
@@ -30071,6 +30730,7 @@
       <c r="F318" s="34"/>
     </row>
     <row r="319" spans="1:6" ht="15" customHeight="1">
+      <c r="A319" s="96"/>
       <c r="B319" s="62"/>
       <c r="E319" s="34"/>
       <c r="F319" s="34"/>
@@ -30080,82 +30740,87 @@
       <c r="E320" s="34"/>
       <c r="F320" s="34"/>
     </row>
-    <row r="321" spans="2:6" ht="15" customHeight="1">
+    <row r="321" spans="1:6" ht="15" customHeight="1">
+      <c r="A321" s="96"/>
       <c r="B321" s="62"/>
       <c r="E321" s="34"/>
       <c r="F321" s="34"/>
     </row>
-    <row r="322" spans="2:6" ht="15" customHeight="1">
+    <row r="322" spans="1:6" ht="15" customHeight="1">
       <c r="B322" s="62"/>
       <c r="E322" s="34"/>
       <c r="F322" s="34"/>
     </row>
-    <row r="323" spans="2:6" ht="15" customHeight="1">
+    <row r="323" spans="1:6" ht="15" customHeight="1">
+      <c r="A323" s="96"/>
       <c r="B323" s="62"/>
       <c r="E323" s="34"/>
       <c r="F323" s="34"/>
     </row>
-    <row r="324" spans="2:6" ht="15" customHeight="1">
+    <row r="324" spans="1:6" ht="15" customHeight="1">
       <c r="B324" s="62"/>
       <c r="E324" s="34"/>
       <c r="F324" s="34"/>
     </row>
-    <row r="325" spans="2:6" ht="15" customHeight="1">
+    <row r="325" spans="1:6" ht="15" customHeight="1">
+      <c r="A325" s="96"/>
       <c r="B325" s="62"/>
       <c r="E325" s="34"/>
       <c r="F325" s="34"/>
     </row>
-    <row r="326" spans="2:6" ht="15" customHeight="1">
+    <row r="326" spans="1:6" ht="15" customHeight="1">
       <c r="B326" s="62"/>
       <c r="E326" s="34"/>
       <c r="F326" s="34"/>
     </row>
-    <row r="327" spans="2:6" ht="15" customHeight="1">
+    <row r="327" spans="1:6" ht="15" customHeight="1">
+      <c r="A327" s="96"/>
       <c r="B327" s="62"/>
       <c r="E327" s="34"/>
       <c r="F327" s="34"/>
     </row>
-    <row r="328" spans="2:6" ht="15" customHeight="1">
+    <row r="328" spans="1:6" ht="15" customHeight="1">
       <c r="B328" s="62"/>
       <c r="E328" s="34"/>
       <c r="F328" s="34"/>
     </row>
-    <row r="329" spans="2:6" ht="15" customHeight="1">
+    <row r="329" spans="1:6" ht="15" customHeight="1">
+      <c r="A329" s="96"/>
       <c r="B329" s="62"/>
       <c r="E329" s="34"/>
       <c r="F329" s="34"/>
     </row>
-    <row r="330" spans="2:6" ht="15" customHeight="1">
+    <row r="330" spans="1:6" ht="15" customHeight="1">
       <c r="B330" s="62"/>
       <c r="E330" s="34"/>
       <c r="F330" s="34"/>
     </row>
-    <row r="331" spans="2:6" ht="15" customHeight="1">
+    <row r="331" spans="1:6" ht="15" customHeight="1">
       <c r="B331" s="62"/>
       <c r="E331" s="34"/>
       <c r="F331" s="34"/>
     </row>
-    <row r="332" spans="2:6" ht="15" customHeight="1">
+    <row r="332" spans="1:6" ht="15" customHeight="1">
       <c r="B332" s="62"/>
       <c r="E332" s="34"/>
       <c r="F332" s="34"/>
     </row>
-    <row r="333" spans="2:6" ht="15" customHeight="1">
+    <row r="333" spans="1:6" ht="15" customHeight="1">
       <c r="B333" s="62"/>
       <c r="E333" s="34"/>
       <c r="F333" s="34"/>
     </row>
-    <row r="334" spans="2:6" ht="15" customHeight="1">
+    <row r="334" spans="1:6" ht="15" customHeight="1">
       <c r="B334" s="62"/>
       <c r="E334" s="34"/>
       <c r="F334" s="34"/>
     </row>
-    <row r="335" spans="2:6" ht="15" customHeight="1">
+    <row r="335" spans="1:6" ht="15" customHeight="1">
       <c r="B335" s="62"/>
       <c r="E335" s="34"/>
       <c r="F335" s="34"/>
     </row>
-    <row r="336" spans="2:6" ht="15" customHeight="1">
+    <row r="336" spans="1:6" ht="15" customHeight="1">
       <c r="B336" s="62"/>
       <c r="E336" s="34"/>
       <c r="F336" s="34"/>
@@ -30271,90 +30936,160 @@
       <c r="F358" s="34"/>
     </row>
     <row r="359" spans="2:6" ht="15" customHeight="1">
+      <c r="B359" s="62"/>
       <c r="E359" s="34"/>
       <c r="F359" s="34"/>
     </row>
     <row r="360" spans="2:6" ht="15" customHeight="1">
+      <c r="B360" s="62"/>
       <c r="E360" s="34"/>
       <c r="F360" s="34"/>
     </row>
     <row r="361" spans="2:6" ht="15" customHeight="1">
+      <c r="B361" s="62"/>
       <c r="E361" s="34"/>
       <c r="F361" s="34"/>
     </row>
     <row r="362" spans="2:6" ht="15" customHeight="1">
+      <c r="B362" s="62"/>
       <c r="E362" s="34"/>
       <c r="F362" s="34"/>
     </row>
     <row r="363" spans="2:6" ht="15" customHeight="1">
+      <c r="B363" s="62"/>
       <c r="E363" s="34"/>
       <c r="F363" s="34"/>
     </row>
     <row r="364" spans="2:6" ht="15" customHeight="1">
+      <c r="B364" s="62"/>
       <c r="E364" s="34"/>
       <c r="F364" s="34"/>
     </row>
     <row r="365" spans="2:6" ht="15" customHeight="1">
+      <c r="B365" s="62"/>
       <c r="E365" s="34"/>
       <c r="F365" s="34"/>
     </row>
     <row r="366" spans="2:6" ht="15" customHeight="1">
+      <c r="B366" s="62"/>
       <c r="E366" s="34"/>
       <c r="F366" s="34"/>
     </row>
     <row r="367" spans="2:6" ht="15" customHeight="1">
+      <c r="B367" s="62"/>
       <c r="E367" s="34"/>
       <c r="F367" s="34"/>
     </row>
     <row r="368" spans="2:6" ht="15" customHeight="1">
+      <c r="B368" s="62"/>
       <c r="E368" s="34"/>
       <c r="F368" s="34"/>
     </row>
-    <row r="369" spans="5:6" ht="15" customHeight="1">
+    <row r="369" spans="2:6" ht="15" customHeight="1">
+      <c r="B369" s="62"/>
       <c r="E369" s="34"/>
       <c r="F369" s="34"/>
     </row>
-    <row r="370" spans="5:6" ht="15" customHeight="1">
+    <row r="370" spans="2:6" ht="15" customHeight="1">
+      <c r="B370" s="62"/>
       <c r="E370" s="34"/>
       <c r="F370" s="34"/>
     </row>
+    <row r="371" spans="2:6" ht="15" customHeight="1">
+      <c r="B371" s="62"/>
+      <c r="E371" s="34"/>
+      <c r="F371" s="34"/>
+    </row>
+    <row r="372" spans="2:6" ht="15" customHeight="1">
+      <c r="B372" s="62"/>
+      <c r="E372" s="34"/>
+      <c r="F372" s="34"/>
+    </row>
+    <row r="373" spans="2:6" ht="15" customHeight="1">
+      <c r="E373" s="34"/>
+      <c r="F373" s="34"/>
+    </row>
+    <row r="374" spans="2:6" ht="15" customHeight="1">
+      <c r="E374" s="34"/>
+      <c r="F374" s="34"/>
+    </row>
+    <row r="375" spans="2:6" ht="15" customHeight="1">
+      <c r="E375" s="34"/>
+      <c r="F375" s="34"/>
+    </row>
+    <row r="376" spans="2:6" ht="15" customHeight="1">
+      <c r="E376" s="34"/>
+      <c r="F376" s="34"/>
+    </row>
+    <row r="377" spans="2:6" ht="15" customHeight="1">
+      <c r="E377" s="34"/>
+      <c r="F377" s="34"/>
+    </row>
+    <row r="378" spans="2:6" ht="15" customHeight="1">
+      <c r="E378" s="34"/>
+      <c r="F378" s="34"/>
+    </row>
+    <row r="379" spans="2:6" ht="15" customHeight="1">
+      <c r="E379" s="34"/>
+      <c r="F379" s="34"/>
+    </row>
+    <row r="380" spans="2:6" ht="15" customHeight="1">
+      <c r="E380" s="34"/>
+      <c r="F380" s="34"/>
+    </row>
+    <row r="381" spans="2:6" ht="15" customHeight="1">
+      <c r="E381" s="34"/>
+      <c r="F381" s="34"/>
+    </row>
+    <row r="382" spans="2:6" ht="15" customHeight="1">
+      <c r="E382" s="34"/>
+      <c r="F382" s="34"/>
+    </row>
+    <row r="383" spans="2:6" ht="15" customHeight="1">
+      <c r="E383" s="34"/>
+      <c r="F383" s="34"/>
+    </row>
+    <row r="384" spans="2:6" ht="15" customHeight="1">
+      <c r="E384" s="34"/>
+      <c r="F384" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E8 E10:E370">
+  <conditionalFormatting sqref="E2:E8 E10:E384">
     <cfRule type="containsText" dxfId="146" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E370">
+  <conditionalFormatting sqref="E2:E8 E10:E384">
     <cfRule type="containsText" dxfId="145" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E370">
+  <conditionalFormatting sqref="E2:E8 E10:E384">
     <cfRule type="containsText" dxfId="144" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F370">
+  <conditionalFormatting sqref="F2:F8 F10:F384">
     <cfRule type="notContainsBlanks" dxfId="143" priority="25">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F370">
+  <conditionalFormatting sqref="F2:F8 F10:F384">
     <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F370">
+  <conditionalFormatting sqref="F2:F8 F10:F384">
     <cfRule type="containsText" dxfId="141" priority="27" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F370">
+  <conditionalFormatting sqref="F2:F8 F10:F384">
     <cfRule type="containsText" dxfId="140" priority="28" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F370">
+  <conditionalFormatting sqref="F2:F8 F10:F384">
     <cfRule type="containsText" dxfId="139" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
@@ -30400,10 +31135,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H124 F10:F370" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H124 F10:F384" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G124 E10:E370" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G124 E10:E384" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30518,21 +31253,21 @@
     <hyperlink ref="B120" r:id="rId108" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
     <hyperlink ref="B121" r:id="rId109" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
     <hyperlink ref="B122" r:id="rId110" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B168" r:id="rId111" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B182" r:id="rId111" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G22" r:id="rId112" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
     <hyperlink ref="B64" r:id="rId113" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
     <hyperlink ref="D64" r:id="rId114" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
     <hyperlink ref="B65" r:id="rId115" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
-    <hyperlink ref="B169" r:id="rId116" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B170" r:id="rId117" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B173" r:id="rId118" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B183" r:id="rId116" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B184" r:id="rId117" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B187" r:id="rId118" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
     <hyperlink ref="B123" r:id="rId119" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
     <hyperlink ref="B125" r:id="rId120" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
     <hyperlink ref="B124" r:id="rId121" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
     <hyperlink ref="B126" r:id="rId122" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B180" r:id="rId123" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
-    <hyperlink ref="B179" r:id="rId124" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B184" r:id="rId125" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B194" r:id="rId123" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B193" r:id="rId124" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B198" r:id="rId125" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
     <hyperlink ref="B127" r:id="rId126" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
     <hyperlink ref="B129" r:id="rId127" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
     <hyperlink ref="B130" r:id="rId128" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
@@ -30576,10 +31311,14 @@
     <hyperlink ref="D157" r:id="rId166" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
     <hyperlink ref="B160" r:id="rId167" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
     <hyperlink ref="B159" r:id="rId168" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
+    <hyperlink ref="B202" r:id="rId170" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
+    <hyperlink ref="B212" r:id="rId171" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
+    <hyperlink ref="B213" r:id="rId172" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId169"/>
-  <legacyDrawing r:id="rId170"/>
+  <pageSetup orientation="portrait" r:id="rId173"/>
+  <legacyDrawing r:id="rId174"/>
 </worksheet>
 </file>
 
@@ -31021,7 +31760,7 @@
         <v>521</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -31555,8 +32294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -31564,10 +32303,10 @@
     <col min="1" max="1" width="5.26953125" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.81640625" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="55" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="111" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="110" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="55"/>
     <col min="6" max="6" width="12.90625" style="55" customWidth="1"/>
-    <col min="7" max="7" width="46.90625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="60.81640625" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
@@ -31592,7 +32331,7 @@
       <c r="C3" s="55" t="s">
         <v>1220</v>
       </c>
-      <c r="D3" s="112"/>
+      <c r="D3" s="111"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="55" t="s">
@@ -31684,7 +32423,7 @@
       <c r="C20" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D20" s="113" t="s">
+      <c r="D20" s="112" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="58" t="s">
@@ -31693,7 +32432,7 @@
       <c r="F20" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="88" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -31704,7 +32443,7 @@
       <c r="B21" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D21" s="122" t="s">
         <v>167</v>
       </c>
       <c r="E21" s="34"/>
@@ -31717,7 +32456,7 @@
       <c r="B22" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="34"/>
@@ -31730,7 +32469,7 @@
       <c r="B23" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="D23" s="124" t="s">
+      <c r="D23" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="34"/>
@@ -31743,7 +32482,7 @@
       <c r="B24" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="124" t="s">
+      <c r="D24" s="122" t="s">
         <v>318</v>
       </c>
       <c r="E24" s="34"/>
@@ -31756,8 +32495,8 @@
       <c r="B25" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="D25" s="124" t="s">
-        <v>1432</v>
+      <c r="D25" s="122" t="s">
+        <v>1431</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -31769,7 +32508,7 @@
       <c r="B26" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D26" s="122" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="34"/>
@@ -31782,7 +32521,7 @@
       <c r="B27" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D27" s="122" t="s">
         <v>313</v>
       </c>
       <c r="E27" s="34"/>
@@ -31795,7 +32534,7 @@
       <c r="B28" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D28" s="122" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="34"/>
@@ -31808,7 +32547,7 @@
       <c r="B29" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D29" s="122" t="s">
         <v>272</v>
       </c>
       <c r="E29" s="34"/>
@@ -31821,7 +32560,7 @@
       <c r="B30" s="62" t="s">
         <v>1018</v>
       </c>
-      <c r="D30" s="124" t="s">
+      <c r="D30" s="122" t="s">
         <v>272</v>
       </c>
       <c r="E30" s="34"/>
@@ -31834,7 +32573,7 @@
       <c r="B31" s="62" t="s">
         <v>1047</v>
       </c>
-      <c r="D31" s="124" t="s">
+      <c r="D31" s="122" t="s">
         <v>182</v>
       </c>
       <c r="E31" s="34"/>
@@ -31847,7 +32586,7 @@
       <c r="B32" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="D32" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E32" s="34"/>
@@ -31860,7 +32599,7 @@
       <c r="B33" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="124" t="s">
+      <c r="D33" s="122" t="s">
         <v>446</v>
       </c>
       <c r="E33" s="34"/>
@@ -31873,7 +32612,7 @@
       <c r="B34" s="62" t="s">
         <v>794</v>
       </c>
-      <c r="D34" s="124" t="s">
+      <c r="D34" s="122" t="s">
         <v>167</v>
       </c>
       <c r="E34" s="34"/>
@@ -31886,7 +32625,7 @@
       <c r="B35" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="111" t="s">
+      <c r="D35" s="110" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="34"/>
@@ -31899,7 +32638,7 @@
       <c r="B36" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="D36" s="124" t="s">
+      <c r="D36" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="34"/>
@@ -31912,7 +32651,7 @@
       <c r="B37" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="124" t="s">
+      <c r="D37" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E37" s="34"/>
@@ -31925,7 +32664,7 @@
       <c r="B38" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="124" t="s">
+      <c r="D38" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="34"/>
@@ -31938,7 +32677,7 @@
       <c r="B39" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="124" t="s">
+      <c r="D39" s="122" t="s">
         <v>251</v>
       </c>
       <c r="E39" s="34"/>
@@ -31951,7 +32690,7 @@
       <c r="B40" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="34"/>
@@ -31964,7 +32703,7 @@
       <c r="B41" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="122" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="34"/>
@@ -31977,8 +32716,8 @@
       <c r="B42" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D42" s="124" t="s">
-        <v>1434</v>
+      <c r="D42" s="122" t="s">
+        <v>1433</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
@@ -31990,47 +32729,47 @@
       <c r="B43" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="124" t="s">
-        <v>1435</v>
+      <c r="D43" s="122" t="s">
+        <v>1434</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="61">
+      <c r="A44" s="63">
         <v>144</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="D44" s="124" t="s">
+      <c r="D44" s="122" t="s">
         <v>295</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1">
-      <c r="A45" s="61">
+      <c r="A45" s="63">
         <v>145</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="D45" s="124" t="s">
+      <c r="D45" s="122" t="s">
         <v>295</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1">
-      <c r="A46" s="61">
+      <c r="A46" s="63">
         <v>199</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="124" t="s">
-        <v>1432</v>
+      <c r="D46" s="122" t="s">
+        <v>1431</v>
       </c>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
@@ -32042,7 +32781,7 @@
       <c r="B47" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="125" t="s">
+      <c r="D47" s="123" t="s">
         <v>228</v>
       </c>
       <c r="E47" s="34"/>
@@ -32055,7 +32794,7 @@
       <c r="B48" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="34"/>
@@ -32068,7 +32807,7 @@
       <c r="B49" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="111" t="s">
+      <c r="D49" s="110" t="s">
         <v>151</v>
       </c>
       <c r="E49" s="34" t="s">
@@ -32078,7 +32817,7 @@
         <v>1331</v>
       </c>
       <c r="G49" s="84" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
@@ -32088,7 +32827,7 @@
       <c r="B50" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="D50" s="125" t="s">
+      <c r="D50" s="123" t="s">
         <v>228</v>
       </c>
       <c r="E50" s="34"/>
@@ -32101,33 +32840,33 @@
       <c r="B51" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="D51" s="125" t="s">
+      <c r="D51" s="123" t="s">
         <v>356</v>
       </c>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="61">
+      <c r="A52" s="63">
         <v>235</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D52" s="114" t="s">
+      <c r="D52" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
-      <c r="A53" s="61">
+      <c r="A53" s="63">
         <v>236</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="114" t="s">
+      <c r="D53" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E53" s="34"/>
@@ -32140,7 +32879,7 @@
       <c r="B54" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="114" t="s">
+      <c r="D54" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E54" s="34"/>
@@ -32153,7 +32892,7 @@
       <c r="B55" s="62" t="s">
         <v>771</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D55" s="113" t="s">
         <v>258</v>
       </c>
       <c r="E55" s="34"/>
@@ -32166,7 +32905,7 @@
       <c r="B56" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="114" t="s">
+      <c r="D56" s="113" t="s">
         <v>278</v>
       </c>
       <c r="E56" s="34"/>
@@ -32179,7 +32918,7 @@
       <c r="B57" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="113" t="s">
         <v>595</v>
       </c>
       <c r="E57" s="34"/>
@@ -32192,46 +32931,46 @@
       <c r="B58" s="62" t="s">
         <v>918</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="D58" s="123" t="s">
         <v>345</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="A59" s="55">
+      <c r="A59" s="63">
         <v>270</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="111" t="s">
+      <c r="D59" s="110" t="s">
         <v>228</v>
       </c>
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="61">
+      <c r="A60" s="63">
         <v>261</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>1052</v>
       </c>
-      <c r="D60" s="124" t="s">
-        <v>1433</v>
+      <c r="D60" s="122" t="s">
+        <v>1432</v>
       </c>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="55">
+      <c r="A61" s="63">
         <v>272</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="D61" s="111" t="s">
+      <c r="D61" s="110" t="s">
         <v>295</v>
       </c>
       <c r="E61" s="34"/>
@@ -32244,7 +32983,7 @@
       <c r="B62" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D62" s="123" t="s">
         <v>286</v>
       </c>
       <c r="E62" s="34"/>
@@ -32257,554 +32996,697 @@
       <c r="B63" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="125" t="s">
+      <c r="D63" s="123" t="s">
         <v>132</v>
       </c>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="115">
+      <c r="A64" s="63">
         <v>310</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="D64" s="114" t="s">
+      <c r="D64" s="113" t="s">
         <v>479</v>
       </c>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1">
-      <c r="A65" s="116">
+      <c r="A65" s="63">
         <v>317</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="D65" s="114" t="s">
+      <c r="D65" s="113" t="s">
         <v>1264</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:6" ht="15" customHeight="1">
-      <c r="A66" s="117">
+      <c r="A66" s="63">
         <v>329</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="D66" s="124" t="s">
-        <v>1431</v>
+      <c r="D66" s="113" t="s">
+        <v>1430</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1">
-      <c r="A67" s="117">
+      <c r="A67" s="63">
         <v>323</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D67" s="124" t="s">
-        <v>1430</v>
+      <c r="D67" s="113" t="s">
+        <v>1429</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:6" ht="15" customHeight="1">
-      <c r="A68" s="117">
+      <c r="A68" s="63">
         <v>332</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="D68" s="124" t="s">
+      <c r="D68" s="113" t="s">
         <v>404</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
     </row>
     <row r="69" spans="1:6" ht="15" customHeight="1">
-      <c r="A69" s="61">
+      <c r="A69" s="63">
         <v>366</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="D69" s="124" t="s">
+      <c r="D69" s="113" t="s">
         <v>134</v>
       </c>
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
     </row>
     <row r="70" spans="1:6" ht="15" customHeight="1">
-      <c r="A70" s="82">
+      <c r="A70" s="63">
         <v>399</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="114" t="s">
-        <v>1422</v>
+      <c r="D70" s="113" t="s">
+        <v>1421</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1">
-      <c r="A71" s="61">
+      <c r="A71" s="63">
         <v>404</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>1097</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
     </row>
     <row r="72" spans="1:6" ht="15" customHeight="1">
-      <c r="A72" s="60">
+      <c r="A72" s="63">
         <v>428</v>
       </c>
       <c r="B72" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="D72" s="114" t="s">
+      <c r="D72" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:6" ht="15" customHeight="1">
-      <c r="A73" s="60">
+      <c r="A73" s="63">
         <v>437</v>
       </c>
       <c r="B73" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="D73" s="114" t="s">
+      <c r="D73" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:6" ht="15" customHeight="1">
-      <c r="A74" s="81">
+      <c r="A74" s="63">
         <v>444</v>
       </c>
       <c r="B74" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="D74" s="126" t="s">
-        <v>1429</v>
+      <c r="D74" s="113" t="s">
+        <v>1428</v>
       </c>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1">
-      <c r="A75" s="60">
+      <c r="A75" s="63">
         <v>449</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="114" t="s">
+      <c r="D75" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
     </row>
     <row r="76" spans="1:6" ht="15" customHeight="1">
-      <c r="A76" s="61">
+      <c r="A76" s="63">
         <v>450</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>1026</v>
       </c>
-      <c r="D76" s="114" t="s">
+      <c r="D76" s="113" t="s">
         <v>151</v>
       </c>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:6" ht="15" customHeight="1">
-      <c r="A77" s="81"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="62"/>
-      <c r="D77" s="126"/>
+      <c r="D77" s="113"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
     </row>
     <row r="78" spans="1:6" ht="15" customHeight="1">
-      <c r="A78" s="81"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="62"/>
-      <c r="C78" s="78"/>
+      <c r="D78" s="113"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:6" ht="15" customHeight="1">
-      <c r="A79" s="81"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="62"/>
-      <c r="C79" s="78"/>
+      <c r="D79" s="113"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:6" ht="15" customHeight="1">
-      <c r="A80" s="81"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="62"/>
-      <c r="C80" s="78"/>
+      <c r="D80" s="113"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1">
-      <c r="A81" s="81"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="78"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1">
-      <c r="A82" s="81"/>
+    <row r="81" spans="1:7" ht="15" customHeight="1">
+      <c r="A81" s="63">
+        <v>987</v>
+      </c>
+      <c r="B81" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G81" s="84" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" customHeight="1">
+      <c r="A82" s="63"/>
       <c r="B82" s="62"/>
-      <c r="C82" s="78"/>
+      <c r="D82" s="113"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1">
-      <c r="A83" s="118" t="s">
+    <row r="83" spans="1:7" ht="15" customHeight="1">
+      <c r="A83" s="63" t="s">
         <v>1415</v>
       </c>
       <c r="B83" s="62" t="s">
         <v>957</v>
       </c>
+      <c r="D83" s="113"/>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1">
+    <row r="84" spans="1:7" ht="15" customHeight="1">
+      <c r="A84" s="63"/>
       <c r="B84" s="62"/>
+      <c r="D84" s="113"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1">
+    <row r="85" spans="1:7" ht="15" customHeight="1">
+      <c r="A85" s="63"/>
       <c r="B85" s="62"/>
+      <c r="D85" s="113"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1">
+    <row r="86" spans="1:7" ht="15" customHeight="1">
+      <c r="A86" s="63"/>
       <c r="B86" s="62"/>
+      <c r="D86" s="113"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1">
+    <row r="87" spans="1:7" ht="15" customHeight="1">
+      <c r="A87" s="63"/>
       <c r="B87" s="62"/>
+      <c r="D87" s="113"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1">
+    <row r="88" spans="1:7" ht="15" customHeight="1">
+      <c r="A88" s="63"/>
       <c r="B88" s="62"/>
+      <c r="D88" s="113"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1">
+    <row r="89" spans="1:7" ht="15" customHeight="1">
+      <c r="A89" s="63"/>
       <c r="B89" s="62"/>
+      <c r="D89" s="113"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1">
+    <row r="90" spans="1:7" ht="15" customHeight="1">
+      <c r="A90" s="63"/>
       <c r="B90" s="62"/>
+      <c r="D90" s="113"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1">
+    <row r="91" spans="1:7" ht="15" customHeight="1">
+      <c r="A91" s="63"/>
       <c r="B91" s="62"/>
+      <c r="D91" s="113"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1">
+    <row r="92" spans="1:7" ht="15" customHeight="1">
+      <c r="A92" s="63"/>
       <c r="B92" s="62"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1">
+    <row r="93" spans="1:7" ht="15" customHeight="1">
+      <c r="A93" s="63"/>
       <c r="B93" s="62"/>
+      <c r="D93" s="113"/>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1">
+    <row r="94" spans="1:7" ht="15" customHeight="1">
+      <c r="A94" s="63"/>
       <c r="B94" s="62"/>
+      <c r="D94" s="113"/>
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1">
+    <row r="95" spans="1:7" ht="15" customHeight="1">
+      <c r="A95" s="63"/>
       <c r="B95" s="62"/>
+      <c r="D95" s="113"/>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1">
+    <row r="96" spans="1:7" ht="15" customHeight="1">
+      <c r="A96" s="63"/>
       <c r="B96" s="62"/>
+      <c r="D96" s="113"/>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
-    <row r="97" spans="2:6" ht="15" customHeight="1">
+    <row r="97" spans="1:6" ht="15" customHeight="1">
+      <c r="A97" s="63"/>
       <c r="B97" s="62"/>
+      <c r="D97" s="113"/>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="2:6" ht="15" customHeight="1">
+    <row r="98" spans="1:6" ht="15" customHeight="1">
+      <c r="A98" s="63"/>
       <c r="B98" s="62"/>
+      <c r="D98" s="113"/>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="2:6" ht="15" customHeight="1">
+    <row r="99" spans="1:6" ht="15" customHeight="1">
+      <c r="A99" s="63"/>
       <c r="B99" s="62"/>
+      <c r="D99" s="113"/>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="2:6" ht="15" customHeight="1">
+    <row r="100" spans="1:6" ht="15" customHeight="1">
+      <c r="A100" s="63"/>
       <c r="B100" s="62"/>
+      <c r="D100" s="113"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="2:6" ht="15" customHeight="1">
+    <row r="101" spans="1:6" ht="15" customHeight="1">
+      <c r="A101" s="63"/>
       <c r="B101" s="62"/>
+      <c r="D101" s="113"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="2:6" ht="15" customHeight="1">
+    <row r="102" spans="1:6" ht="15" customHeight="1">
+      <c r="A102" s="63"/>
       <c r="B102" s="62"/>
+      <c r="D102" s="113"/>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="2:6" ht="15" customHeight="1">
+    <row r="103" spans="1:6" ht="15" customHeight="1">
+      <c r="A103" s="63"/>
       <c r="B103" s="62"/>
+      <c r="D103" s="113"/>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="2:6" ht="15" customHeight="1">
+    <row r="104" spans="1:6" ht="15" customHeight="1">
+      <c r="A104" s="63"/>
       <c r="B104" s="62"/>
+      <c r="D104" s="113"/>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="2:6" ht="15" customHeight="1">
+    <row r="105" spans="1:6" ht="15" customHeight="1">
+      <c r="A105" s="63"/>
       <c r="B105" s="62"/>
+      <c r="D105" s="113"/>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1">
+    <row r="106" spans="1:6" ht="15" customHeight="1">
+      <c r="A106" s="63"/>
       <c r="B106" s="62"/>
+      <c r="D106" s="113"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="2:6" ht="15" customHeight="1">
+    <row r="107" spans="1:6" ht="15" customHeight="1">
+      <c r="A107" s="63"/>
       <c r="B107" s="62"/>
+      <c r="D107" s="113"/>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="2:6" ht="15" customHeight="1">
+    <row r="108" spans="1:6" ht="15" customHeight="1">
+      <c r="A108" s="63"/>
       <c r="B108" s="62"/>
+      <c r="D108" s="113"/>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="2:6" ht="15" customHeight="1">
+    <row r="109" spans="1:6" ht="15" customHeight="1">
+      <c r="A109" s="63"/>
       <c r="B109" s="62"/>
+      <c r="D109" s="113"/>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="2:6" ht="15" customHeight="1">
+    <row r="110" spans="1:6" ht="15" customHeight="1">
+      <c r="A110" s="63"/>
       <c r="B110" s="62"/>
+      <c r="D110" s="113"/>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="2:6" ht="15" customHeight="1">
+    <row r="111" spans="1:6" ht="15" customHeight="1">
+      <c r="A111" s="63"/>
       <c r="B111" s="62"/>
+      <c r="D111" s="113"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="2:6" ht="15" customHeight="1">
+    <row r="112" spans="1:6" ht="15" customHeight="1">
+      <c r="A112" s="63"/>
       <c r="B112" s="62"/>
+      <c r="D112" s="113"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="2:6" ht="15" customHeight="1">
+    <row r="113" spans="1:6" ht="15" customHeight="1">
+      <c r="A113" s="63"/>
       <c r="B113" s="62"/>
+      <c r="D113" s="113"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="2:6" ht="15" customHeight="1">
+    <row r="114" spans="1:6" ht="15" customHeight="1">
+      <c r="A114" s="63"/>
       <c r="B114" s="62"/>
+      <c r="D114" s="113"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="2:6" ht="15" customHeight="1">
+    <row r="115" spans="1:6" ht="15" customHeight="1">
+      <c r="A115" s="63"/>
       <c r="B115" s="62"/>
+      <c r="D115" s="113"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="2:6" ht="15" customHeight="1">
+    <row r="116" spans="1:6" ht="15" customHeight="1">
+      <c r="A116" s="63"/>
       <c r="B116" s="62"/>
+      <c r="D116" s="113"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="2:6" ht="15" customHeight="1">
+    <row r="117" spans="1:6" ht="15" customHeight="1">
+      <c r="A117" s="63"/>
       <c r="B117" s="62"/>
+      <c r="D117" s="113"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="2:6" ht="15" customHeight="1">
+    <row r="118" spans="1:6" ht="15" customHeight="1">
+      <c r="A118" s="63"/>
       <c r="B118" s="62"/>
+      <c r="D118" s="113"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="2:6" ht="15" customHeight="1">
+    <row r="119" spans="1:6" ht="15" customHeight="1">
+      <c r="A119" s="63"/>
       <c r="B119" s="62"/>
+      <c r="D119" s="113"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="2:6" ht="15" customHeight="1">
+    <row r="120" spans="1:6" ht="15" customHeight="1">
+      <c r="A120" s="63"/>
       <c r="B120" s="62"/>
+      <c r="D120" s="113"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="2:6" ht="15" customHeight="1">
+    <row r="121" spans="1:6" ht="15" customHeight="1">
+      <c r="A121" s="63"/>
       <c r="B121" s="62"/>
+      <c r="D121" s="113"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="2:6" ht="15" customHeight="1">
+    <row r="122" spans="1:6" ht="15" customHeight="1">
+      <c r="A122" s="63"/>
       <c r="B122" s="62"/>
+      <c r="D122" s="113"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
-    <row r="123" spans="2:6" ht="15" customHeight="1">
+    <row r="123" spans="1:6" ht="15" customHeight="1">
+      <c r="A123" s="63"/>
       <c r="B123" s="62"/>
+      <c r="D123" s="113"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
-    <row r="124" spans="2:6" ht="15" customHeight="1">
+    <row r="124" spans="1:6" ht="15" customHeight="1">
+      <c r="A124" s="63"/>
       <c r="B124" s="62"/>
+      <c r="D124" s="113"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
-    <row r="125" spans="2:6" ht="15" customHeight="1">
+    <row r="125" spans="1:6" ht="15" customHeight="1">
+      <c r="A125" s="63"/>
       <c r="B125" s="62"/>
+      <c r="D125" s="113"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
     </row>
-    <row r="126" spans="2:6" ht="15" customHeight="1">
+    <row r="126" spans="1:6" ht="15" customHeight="1">
+      <c r="A126" s="63"/>
       <c r="B126" s="62"/>
+      <c r="D126" s="113"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
-    <row r="127" spans="2:6" ht="15" customHeight="1">
+    <row r="127" spans="1:6" ht="15" customHeight="1">
+      <c r="A127" s="63"/>
       <c r="B127" s="62"/>
+      <c r="D127" s="113"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
     </row>
-    <row r="128" spans="2:6" ht="15" customHeight="1">
+    <row r="128" spans="1:6" ht="15" customHeight="1">
+      <c r="A128" s="63"/>
       <c r="B128" s="62"/>
+      <c r="D128" s="113"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
     </row>
-    <row r="129" spans="2:6" ht="15" customHeight="1">
+    <row r="129" spans="1:6" ht="15" customHeight="1">
+      <c r="A129" s="63"/>
       <c r="B129" s="62"/>
+      <c r="D129" s="113"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
     </row>
-    <row r="130" spans="2:6" ht="15" customHeight="1">
+    <row r="130" spans="1:6" ht="15" customHeight="1">
+      <c r="A130" s="63"/>
       <c r="B130" s="62"/>
+      <c r="D130" s="113"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
     </row>
-    <row r="131" spans="2:6" ht="15" customHeight="1">
+    <row r="131" spans="1:6" ht="15" customHeight="1">
+      <c r="A131" s="63"/>
       <c r="B131" s="62"/>
+      <c r="D131" s="113"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
     </row>
-    <row r="132" spans="2:6" ht="15" customHeight="1">
+    <row r="132" spans="1:6" ht="15" customHeight="1">
+      <c r="A132" s="63"/>
       <c r="B132" s="62"/>
+      <c r="D132" s="113"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
     </row>
-    <row r="133" spans="2:6" ht="15" customHeight="1">
+    <row r="133" spans="1:6" ht="15" customHeight="1">
+      <c r="A133" s="63"/>
       <c r="B133" s="62"/>
+      <c r="D133" s="113"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
     </row>
-    <row r="134" spans="2:6" ht="15" customHeight="1">
+    <row r="134" spans="1:6" ht="15" customHeight="1">
+      <c r="A134" s="63"/>
       <c r="B134" s="62"/>
+      <c r="D134" s="113"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
-    <row r="135" spans="2:6" ht="15" customHeight="1">
+    <row r="135" spans="1:6" ht="15" customHeight="1">
+      <c r="A135" s="63"/>
       <c r="B135" s="62"/>
+      <c r="D135" s="113"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
-    <row r="136" spans="2:6" ht="15" customHeight="1">
+    <row r="136" spans="1:6" ht="15" customHeight="1">
+      <c r="A136" s="63"/>
       <c r="B136" s="62"/>
+      <c r="D136" s="113"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
     </row>
-    <row r="137" spans="2:6" ht="15" customHeight="1">
+    <row r="137" spans="1:6" ht="15" customHeight="1">
+      <c r="A137" s="63"/>
       <c r="B137" s="62"/>
+      <c r="D137" s="113"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
-    <row r="138" spans="2:6" ht="15" customHeight="1">
+    <row r="138" spans="1:6" ht="15" customHeight="1">
+      <c r="A138" s="63"/>
       <c r="B138" s="62"/>
+      <c r="D138" s="113"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
-    <row r="139" spans="2:6" ht="15" customHeight="1">
+    <row r="139" spans="1:6" ht="15" customHeight="1">
+      <c r="A139" s="63"/>
       <c r="B139" s="62"/>
+      <c r="D139" s="113"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
-    <row r="140" spans="2:6" ht="15" customHeight="1">
+    <row r="140" spans="1:6" ht="15" customHeight="1">
+      <c r="A140" s="63"/>
       <c r="B140" s="62"/>
+      <c r="D140" s="113"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
-    <row r="141" spans="2:6" ht="15" customHeight="1">
+    <row r="141" spans="1:6" ht="15" customHeight="1">
+      <c r="A141" s="63"/>
       <c r="B141" s="62"/>
+      <c r="D141" s="113"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
-    <row r="142" spans="2:6" ht="15" customHeight="1">
+    <row r="142" spans="1:6" ht="15" customHeight="1">
+      <c r="A142" s="63"/>
       <c r="B142" s="62"/>
+      <c r="D142" s="113"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
-    <row r="143" spans="2:6" ht="15" customHeight="1">
+    <row r="143" spans="1:6" ht="15" customHeight="1">
+      <c r="A143" s="63"/>
       <c r="B143" s="62"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
-    <row r="144" spans="2:6" ht="15" customHeight="1">
+    <row r="144" spans="1:6" ht="15" customHeight="1">
+      <c r="A144" s="63"/>
       <c r="B144" s="62"/>
+      <c r="D144" s="113"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="2:6" ht="15" customHeight="1">
       <c r="B145" s="62"/>
+      <c r="D145" s="113"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
     <row r="146" spans="2:6" ht="15" customHeight="1">
       <c r="B146" s="62"/>
+      <c r="D146" s="113"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
     </row>
     <row r="147" spans="2:6" ht="15" customHeight="1">
       <c r="B147" s="62"/>
+      <c r="D147" s="113"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
     </row>
     <row r="148" spans="2:6" ht="15" customHeight="1">
+      <c r="D148" s="113"/>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
     </row>
@@ -32950,9 +33832,10 @@
     <hyperlink ref="D75" r:id="rId59" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
     <hyperlink ref="B76" r:id="rId60" tooltip="Delete Node in a BST" display="https://leetcode.com/problems/delete-node-in-a-bst" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
     <hyperlink ref="B49" r:id="rId61" tooltip="Invert Binary Tree" display="https://leetcode.com/problems/invert-binary-tree" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="B81" r:id="rId62" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId62"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -33968,7 +34851,7 @@
   <dimension ref="A2:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -34238,7 +35121,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
-      <c r="D23" s="119"/>
+      <c r="D23" s="117"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
@@ -34246,7 +35129,7 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
-      <c r="D24" s="119"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
@@ -34254,7 +35137,7 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="119"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
@@ -34262,7 +35145,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="119"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
@@ -34270,7 +35153,7 @@
     <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="119"/>
+      <c r="D27" s="117"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
@@ -35194,7 +36077,7 @@
       <c r="B18" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="121" t="s">
+      <c r="D18" s="119" t="s">
         <v>301</v>
       </c>
       <c r="E18" s="34"/>
@@ -35207,7 +36090,7 @@
       <c r="B19" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="119" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="34"/>
@@ -35220,7 +36103,7 @@
       <c r="B20" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="119" t="s">
         <v>130</v>
       </c>
       <c r="E20" s="34"/>
@@ -35233,7 +36116,7 @@
       <c r="B21" s="62" t="s">
         <v>600</v>
       </c>
-      <c r="D21" s="121" t="s">
+      <c r="D21" s="119" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="34"/>
@@ -35428,7 +36311,7 @@
       <c r="B36" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="D36" s="121" t="s">
+      <c r="D36" s="119" t="s">
         <v>130</v>
       </c>
       <c r="E36" s="34"/>
@@ -35441,7 +36324,7 @@
       <c r="B37" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="121" t="s">
+      <c r="D37" s="119" t="s">
         <v>347</v>
       </c>
       <c r="E37" s="34"/>
@@ -35519,7 +36402,7 @@
       <c r="B43" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="D43" s="121" t="s">
+      <c r="D43" s="119" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="34"/>
@@ -35758,18 +36641,18 @@
       <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="116">
+      <c r="A60" s="115">
         <v>351</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="D60" s="122" t="s">
+      <c r="D60" s="120" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="116">
+      <c r="A61" s="115">
         <v>354</v>
       </c>
       <c r="B61" s="26" t="s">
@@ -35797,7 +36680,7 @@
       <c r="B63" s="26" t="s">
         <v>813</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="121" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -35813,13 +36696,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="A65" s="120">
+      <c r="A65" s="118">
         <v>375</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="121" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -36332,10 +37215,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:G206"/>
+  <dimension ref="A3:G211"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -36434,10 +37317,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="61">
+      <c r="A16" s="83">
         <v>233</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="85" t="s">
         <v>1078</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -36446,8 +37329,15 @@
       <c r="D16" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
+      <c r="E16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G16" s="84" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="61">
@@ -36998,7 +37888,7 @@
       <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="115">
+      <c r="A61" s="114">
         <v>307</v>
       </c>
       <c r="B61" s="59" t="s">
@@ -37011,7 +37901,7 @@
       <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="A62" s="115">
+      <c r="A62" s="114">
         <v>308</v>
       </c>
       <c r="B62" s="59" t="s">
@@ -37024,7 +37914,7 @@
       <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
-      <c r="A63" s="115">
+      <c r="A63" s="114">
         <v>319</v>
       </c>
       <c r="B63" s="59" t="s">
@@ -37037,7 +37927,7 @@
       <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
-      <c r="A64" s="117">
+      <c r="A64" s="116">
         <v>335</v>
       </c>
       <c r="B64" s="59" t="s">
@@ -37063,7 +37953,7 @@
       <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="120">
+      <c r="A66" s="118">
         <v>371</v>
       </c>
       <c r="B66" s="59" t="s">
@@ -37076,20 +37966,20 @@
       <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="120">
+      <c r="A67" s="118">
         <v>397</v>
       </c>
       <c r="B67" s="59" t="s">
         <v>828</v>
       </c>
-      <c r="D67" s="110" t="s">
-        <v>1423</v>
+      <c r="D67" s="22" t="s">
+        <v>1422</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
-      <c r="A68" s="82">
+      <c r="A68" s="60">
         <v>398</v>
       </c>
       <c r="B68" s="59" t="s">
@@ -37115,52 +38005,94 @@
       <c r="F69" s="34"/>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
-      <c r="A70" s="55">
-        <v>1680</v>
-      </c>
-      <c r="B70" s="59" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D70" s="32" t="s">
+      <c r="A70" s="60"/>
+      <c r="B70" s="59"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1">
+      <c r="A71" s="60">
+        <v>573</v>
+      </c>
+      <c r="B71" s="59" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E71" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F70" s="34" t="s">
-        <v>1331</v>
-      </c>
-      <c r="G70" s="84" t="s">
-        <v>1438</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" customHeight="1">
-      <c r="B71" s="59"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
+      <c r="F71" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G71" s="84" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
+      <c r="A72" s="60"/>
       <c r="B72" s="59"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
+      <c r="A73" s="60"/>
+      <c r="B73" s="59"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
+      <c r="A74" s="60">
+        <v>1663</v>
+      </c>
+      <c r="B74" s="59" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G74" s="84" t="s">
+        <v>1444</v>
+      </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
+      <c r="A75" s="60">
+        <v>1680</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D75" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="E75" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G75" s="84" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="A76" s="33"/>
+      <c r="B76" s="59"/>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
+      <c r="B77" s="59"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
     </row>
@@ -37680,52 +38612,72 @@
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
+    <row r="207" spans="5:6" ht="15" customHeight="1">
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+    </row>
+    <row r="208" spans="5:6" ht="15" customHeight="1">
+      <c r="E208" s="34"/>
+      <c r="F208" s="34"/>
+    </row>
+    <row r="209" spans="5:6" ht="15" customHeight="1">
+      <c r="E209" s="34"/>
+      <c r="F209" s="34"/>
+    </row>
+    <row r="210" spans="5:6" ht="15" customHeight="1">
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+    </row>
+    <row r="211" spans="5:6" ht="15" customHeight="1">
+      <c r="E211" s="34"/>
+      <c r="F211" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E16:E206">
+  <conditionalFormatting sqref="E16:E211">
     <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E206">
+  <conditionalFormatting sqref="E16:E211">
     <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E206">
+  <conditionalFormatting sqref="E16:E211">
     <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F206">
+  <conditionalFormatting sqref="F16:F211">
     <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(F16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F206">
+  <conditionalFormatting sqref="F16:F211">
     <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F206">
+  <conditionalFormatting sqref="F16:F211">
     <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F206">
+  <conditionalFormatting sqref="F16:F211">
     <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F206">
+  <conditionalFormatting sqref="F16:F211">
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:F206" xr:uid="{0CC864E3-19E6-4751-8AAC-40DDA093638C}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:F211" xr:uid="{0CC864E3-19E6-4751-8AAC-40DDA093638C}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E16:E206" xr:uid="{84E2A8D9-E304-42B2-AEC6-02BC3A95419A}">
+    <dataValidation type="list" allowBlank="1" sqref="E16:E211" xr:uid="{84E2A8D9-E304-42B2-AEC6-02BC3A95419A}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37785,8 +38737,11 @@
     <hyperlink ref="B68" r:id="rId53" tooltip="Random Pick Index" display="https://leetcode.com/problems/random-pick-index" xr:uid="{00000000-0004-0000-0900-000041000000}"/>
     <hyperlink ref="D68" r:id="rId54" tooltip="Reservoir Sampling" display="https://leetcode.com/tag/reservoir-sampling" xr:uid="{00000000-0004-0000-0900-000042000000}"/>
     <hyperlink ref="B67" r:id="rId55" tooltip="Integer Replacement" display="https://leetcode.com/problems/integer-replacement" xr:uid="{00000000-0004-0000-0A00-000043010000}"/>
-    <hyperlink ref="B70" r:id="rId56" xr:uid="{34E2A3EF-8A5C-41D5-B89F-35D2C9816DD7}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{34E2A3EF-8A5C-41D5-B89F-35D2C9816DD7}"/>
+    <hyperlink ref="B74" r:id="rId57" xr:uid="{F6885474-DD91-43F7-A332-7BDBC56DF8B5}"/>
+    <hyperlink ref="B71" r:id="rId58" xr:uid="{6638AE85-DDD7-4CF0-9F0C-B48D13AD4E63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId59"/>
 </worksheet>
 </file>
--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63486925-F42C-4D61-B570-E8BF4AC61876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B78247F-AC60-4D2F-816A-0105F96F2695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1469">
   <si>
     <t>#</t>
   </si>
@@ -10912,12 +10912,543 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t> Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if(root == null)
+	return root;
+root.left =  PostOrderTraversal(root.left, low, high);
+root.right =  PostOrderTraversal(root.right, low, high);
+if(root.val &lt; low || root.val &gt; high)
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if left side has survived, the it will be promoted as root
+	if(root.left != null)
+		return root.left;
+	//promote right as root        
+	return root.right;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+return root;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">static bool Helper(TreeNode node, int[] result )
+{
+	if (node == null)
+	{   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//left is univalue itself</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		return true;
+	}
+	bool isLeftSingleVal = Helper(node.left, result);
+	bool isRightSingleVal = Helper(node.right, result);
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if left side or right side is not univalue, then this node is not univalue
+	if (!isLeftSingleVal || !isRightSingleVal)
+		return false;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (node.left != null &amp;&amp; node.left.val != node.val)
+		return false;
+	if (node.right != null &amp;&amp; node.right.val != node.val)
+		return false;
+	//increment only when left, right and root are have same value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	result[0] ++;
+	return true;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Palindrome Partitioning IV</t>
+  </si>
+  <si>
+    <t>String, DP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public bool CheckPartitioning(string s) {
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//if code starts with the smallest 1st palindrome and expands it, which causes a lot of trips to the inner loop. So start with 1st palindrone as big as possible.
+	//So start with 3rd palindrone as big as possible. and keep shrinking</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	for(int i = 2; i &lt; s.Length; i ++)
+	{
+		if(isPalindrome(s, i, s.Length - 1)) //3rd palindrome check
+		{
+			for(int j = 1; j &lt; i; j++)
+			{
+				if(isPalindrome(s, j, i - 1) &amp;&amp; isPalindrome(s, 0, j - 1))
+				{
+					return true;
+				}
+			}
+		}
+	}
+	return false;
+}
+bool isPalindrome(string s, int l, int r)
+{
+	while(l &lt; r)
+	{
+		if (s[l ++] != s[r --])
+			return false;
+	}
+	return true;
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if(head == null || head.next == null)
+	return false;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ListNode fast = head.next.next;
+ListNode slow = head.next;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>while(fast != null &amp;&amp; fast.next != null)
+{
+	if(fast == slow)
+		return true;
+	slow = slow.next;
+	fast = fast.next.next;
+}
+return false;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if(head == null || head.next == null)
+	return null;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ListNode slow = head.next;
+ListNode fast = head.next.next;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+while(fast != null &amp;&amp; fast.next !=null)
+{
+	if(fast == slow)
+	{
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>//reset slow to head;
+		slow = head;
+		//start moving 1 step at a time
+		while(fast != null &amp;&amp; head != null)
+		{
+			if(fast == slow) 
+				return slow;
+			slow = slow.next;
+			fast = fast.next;
+		}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+	}
+	slow = slow.next;
+	fast = fast.next.next;
+}        
+return null;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//idea is to make a "loop" on linklist
+if(head == null || head.next == null)
+	return head;
+int total = 1;
+ListNode newHead = head;
+ListNode slow = head;
+ListNode fast = head;
+ListNode fastPrev = head;
+while(fast != null &amp;&amp; fast.next != null)
+{
+	slow = slow.next;
+	fastPrev = fast.next;
+	fast = fast.next.next;
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>total += (fast != null) ? 2 : 1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">if(fast == null) //for 2 nodes only
+	fast = fastPrev;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//make circle(loop)
+fast.next = head;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+if(k &gt;= total)
+	k = k % total;
+if(k &gt; 0)
+{
+	k = total - k;
+	//traverse K position from fast/last pointer
+	while(k &gt; 0)
+	{
+		fast = fast.next;
+		k --;
+	}
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">newHead = fast.next;
+//break loop
+fast.next = null;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>return newHead;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//idea -- split the list into 2 halves and reverse the 2nd part of list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">if(head == null || head.next == null)
+	return;
+//go to middle of list
+ListNode fast = head;
+ListNode slow = head;
+while(fast != null &amp;&amp; fast.next != null)
+{
+	slow = slow.next;
+	fast = fast.next;
+	if(fast != null)
+		fast = fast.next;
+}
+//slow is at middle of list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">// we will split the list into 2 halfs such that a[0,1...slow] and a[slow + 1,... end]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ListNode temp = slow;
+slow = slow.next;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//disconnect the 2nd half from 1st half *****
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">temp.next = null;        
+if(slow == null)
+	return;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">//reverse the 2nd half -- create a dummy head
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ListNode reverseHead = new ListNode(-1);
+while(slow != null)
+{
+	temp = reverseHead.next;
+	reverseHead.next = slow;
+	slow = slow.next;
+	reverseHead.next.next = temp;
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>//now keep on picking up item from reverse list and insert at 'insertAfter' psotion.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+reverseHead = reverseHead.next;
+ListNode insertAfter = head;
+while(reverseHead != null)
+{
+	temp = insertAfter.next;
+	insertAfter.next = reverseHead;            
+	reverseHead = reverseHead.next;
+	insertAfter.next.next = temp;
+	insertAfter = temp;
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11193,6 +11724,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -11335,7 +11879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11472,9 +12016,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -16463,7 +17004,7 @@
   <cols>
     <col min="1" max="1" width="8.7265625" style="13"/>
     <col min="2" max="2" width="26.26953125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" style="68" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="13"/>
     <col min="5" max="5" width="54" style="13" customWidth="1"/>
     <col min="6" max="6" width="46.6328125" style="50" customWidth="1"/>
@@ -16474,7 +17015,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="12" customFormat="1" ht="15" thickBot="1">
-      <c r="C1" s="77"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
@@ -16498,13 +17039,13 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="29">
-      <c r="A3" s="73">
+      <c r="A3" s="72">
         <v>452</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="78" t="s">
         <v>454</v>
       </c>
       <c r="D3" s="13">
@@ -16520,13 +17061,13 @@
       <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>454</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>984</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>888</v>
       </c>
       <c r="D4" s="13">
@@ -16542,10 +17083,10 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="73">
+      <c r="A5" s="72">
         <v>456</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>819</v>
       </c>
       <c r="C5" s="60" t="s">
@@ -16562,10 +17103,10 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>459</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>712</v>
       </c>
       <c r="C6" s="60" t="s">
@@ -16584,10 +17125,10 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="73">
+      <c r="A7" s="72">
         <v>460</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>814</v>
       </c>
       <c r="C7" s="60" t="s">
@@ -16606,10 +17147,10 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>463</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>389</v>
       </c>
       <c r="C8" s="60" t="s">
@@ -16628,13 +17169,13 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="73">
+      <c r="A9" s="72">
         <v>465</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>739</v>
       </c>
-      <c r="C9" s="80"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="13">
         <v>465</v>
       </c>
@@ -16648,10 +17189,10 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:9" ht="29">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>471</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>779</v>
       </c>
       <c r="C10" s="60" t="s">
@@ -16670,10 +17211,10 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="73">
+      <c r="A11" s="72">
         <v>480</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>538</v>
       </c>
       <c r="C11" s="60" t="s">
@@ -16692,10 +17233,10 @@
       <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>485</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="75" t="s">
         <v>781</v>
       </c>
       <c r="C12" s="60" t="s">
@@ -16714,10 +17255,10 @@
       <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="73">
+      <c r="A13" s="72">
         <v>489</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>416</v>
       </c>
       <c r="C13" s="60" t="s">
@@ -16734,10 +17275,10 @@
       <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>491</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="75" t="s">
         <v>410</v>
       </c>
       <c r="C14" s="60" t="s">
@@ -16756,13 +17297,13 @@
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="48">
-      <c r="A15" s="73">
+      <c r="A15" s="72">
         <v>493</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="73" t="s">
         <v>842</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="78" t="s">
         <v>741</v>
       </c>
       <c r="D15" s="13">
@@ -16778,10 +17319,10 @@
       <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>496</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="60" t="s">
@@ -16800,13 +17341,13 @@
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="16">
-      <c r="A17" s="73">
+      <c r="A17" s="72">
         <v>498</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>376</v>
       </c>
-      <c r="C17" s="80"/>
+      <c r="C17" s="79"/>
       <c r="D17" s="13">
         <v>498</v>
       </c>
@@ -16820,10 +17361,10 @@
       <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="29">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>501</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="75" t="s">
         <v>815</v>
       </c>
       <c r="C18" s="60" t="s">
@@ -16840,13 +17381,13 @@
       <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="32">
-      <c r="A19" s="73">
+      <c r="A19" s="72">
         <v>505</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="73" t="s">
         <v>817</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="78" t="s">
         <v>132</v>
       </c>
       <c r="D19" s="13">
@@ -16862,10 +17403,10 @@
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>509</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="75" t="s">
         <v>546</v>
       </c>
       <c r="C20" s="60" t="s">
@@ -16884,10 +17425,10 @@
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="73">
+      <c r="A21" s="72">
         <v>510</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="73" t="s">
         <v>884</v>
       </c>
       <c r="C21" s="60" t="s">
@@ -16906,13 +17447,13 @@
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="16">
-      <c r="A22" s="75">
+      <c r="A22" s="74">
         <v>518</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="75" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="81"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="13">
         <v>518</v>
       </c>
@@ -16926,13 +17467,13 @@
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="29">
-      <c r="A23" s="73">
+      <c r="A23" s="72">
         <v>524</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="73" t="s">
         <v>719</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="78" t="s">
         <v>720</v>
       </c>
       <c r="D23" s="13">
@@ -16948,10 +17489,10 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="75">
+      <c r="A24" s="74">
         <v>525</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="75" t="s">
         <v>499</v>
       </c>
       <c r="C24" s="60" t="s">
@@ -16970,13 +17511,13 @@
       <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="16">
-      <c r="A25" s="73">
+      <c r="A25" s="72">
         <v>527</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>806</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="78" t="s">
         <v>807</v>
       </c>
       <c r="D25" s="13">
@@ -16992,13 +17533,13 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="16">
-      <c r="A26" s="75">
+      <c r="A26" s="74">
         <v>528</v>
       </c>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>431</v>
       </c>
       <c r="D26" s="13">
@@ -17014,13 +17555,13 @@
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="32">
-      <c r="A27" s="73">
+      <c r="A27" s="72">
         <v>529</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="73" t="s">
         <v>560</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="78" t="s">
         <v>132</v>
       </c>
       <c r="D27" s="13">
@@ -17036,13 +17577,13 @@
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="16">
-      <c r="A28" s="75">
+      <c r="A28" s="74">
         <v>535</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="75" t="s">
         <v>791</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="77" t="s">
         <v>330</v>
       </c>
       <c r="D28" s="13">
@@ -17058,10 +17599,10 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="29">
-      <c r="A29" s="73">
+      <c r="A29" s="72">
         <v>540</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="73" t="s">
         <v>505</v>
       </c>
       <c r="C29" s="60" t="s">
@@ -17080,10 +17621,10 @@
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="75">
+      <c r="A30" s="74">
         <v>543</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>263</v>
       </c>
       <c r="C30" s="60" t="s">
@@ -17102,10 +17643,10 @@
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="29">
-      <c r="A31" s="73">
+      <c r="A31" s="72">
         <v>549</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>371</v>
       </c>
       <c r="C31" s="60" t="s">
@@ -17124,10 +17665,10 @@
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="75">
+      <c r="A32" s="74">
         <v>551</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="75" t="s">
         <v>843</v>
       </c>
       <c r="C32" s="60" t="s">
@@ -17146,10 +17687,10 @@
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="73">
+      <c r="A33" s="72">
         <v>552</v>
       </c>
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="73" t="s">
         <v>823</v>
       </c>
       <c r="C33" s="60" t="s">
@@ -17168,10 +17709,10 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="75">
+      <c r="A34" s="74">
         <v>554</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="75" t="s">
         <v>955</v>
       </c>
       <c r="C34" s="60" t="s">
@@ -17190,13 +17731,13 @@
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="32">
-      <c r="A35" s="73">
+      <c r="A35" s="72">
         <v>559</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="73" t="s">
         <v>800</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="78" t="s">
         <v>251</v>
       </c>
       <c r="D35" s="13">
@@ -17212,13 +17753,13 @@
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="16">
-      <c r="A36" s="75">
+      <c r="A36" s="74">
         <v>560</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="77" t="s">
         <v>165</v>
       </c>
       <c r="D36" s="13">
@@ -17234,10 +17775,10 @@
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="29">
-      <c r="A37" s="73">
+      <c r="A37" s="72">
         <v>562</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="73" t="s">
         <v>643</v>
       </c>
       <c r="C37" s="60" t="s">
@@ -17256,10 +17797,10 @@
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="75">
+      <c r="A38" s="74">
         <v>568</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>792</v>
       </c>
       <c r="C38" s="60" t="s">
@@ -17278,10 +17819,10 @@
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="29">
-      <c r="A39" s="73">
+      <c r="A39" s="72">
         <v>581</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
         <v>844</v>
       </c>
       <c r="C39" s="60" t="s">
@@ -17300,10 +17841,10 @@
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="75">
+      <c r="A40" s="74">
         <v>593</v>
       </c>
-      <c r="B40" s="76" t="s">
+      <c r="B40" s="75" t="s">
         <v>821</v>
       </c>
       <c r="C40" s="60" t="s">
@@ -17322,13 +17863,13 @@
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="16">
-      <c r="A41" s="73">
+      <c r="A41" s="72">
         <v>609</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="73" t="s">
         <v>609</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="78" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="13">
@@ -17344,10 +17885,10 @@
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="75">
+      <c r="A42" s="74">
         <v>617</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>401</v>
       </c>
       <c r="C42" s="60" t="s">
@@ -17366,13 +17907,13 @@
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="16">
-      <c r="A43" s="73">
+      <c r="A43" s="72">
         <v>621</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="78" t="s">
         <v>119</v>
       </c>
       <c r="D43" s="13">
@@ -17388,13 +17929,13 @@
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="16">
-      <c r="A44" s="75">
+      <c r="A44" s="74">
         <v>622</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="75" t="s">
         <v>424</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="77" t="s">
         <v>268</v>
       </c>
       <c r="D44" s="13">
@@ -17410,10 +17951,10 @@
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="73">
+      <c r="A45" s="72">
         <v>630</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="73" t="s">
         <v>790</v>
       </c>
       <c r="C45" s="60" t="s">
@@ -17432,13 +17973,13 @@
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="29">
-      <c r="A46" s="75">
+      <c r="A46" s="74">
         <v>632</v>
       </c>
-      <c r="B46" s="76" t="s">
+      <c r="B46" s="75" t="s">
         <v>745</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="77" t="s">
         <v>746</v>
       </c>
       <c r="D46" s="13">
@@ -17454,10 +17995,10 @@
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="73">
+      <c r="A47" s="72">
         <v>636</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="73" t="s">
         <v>207</v>
       </c>
       <c r="C47" s="60" t="s">
@@ -17476,13 +18017,13 @@
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" ht="32">
-      <c r="A48" s="75">
+      <c r="A48" s="74">
         <v>638</v>
       </c>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="75" t="s">
         <v>845</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="77" t="s">
         <v>311</v>
       </c>
       <c r="D48" s="13">
@@ -17498,10 +18039,10 @@
       <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="73">
+      <c r="A49" s="72">
         <v>639</v>
       </c>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="73" t="s">
         <v>809</v>
       </c>
       <c r="C49" s="60" t="s">
@@ -17520,13 +18061,13 @@
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="29">
-      <c r="A50" s="75">
+      <c r="A50" s="74">
         <v>642</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="75" t="s">
         <v>717</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="77" t="s">
         <v>340</v>
       </c>
       <c r="D50" s="13">
@@ -17542,13 +18083,13 @@
       <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="16">
-      <c r="A51" s="73">
+      <c r="A51" s="72">
         <v>647</v>
       </c>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="78" t="s">
         <v>146</v>
       </c>
       <c r="D51" s="13">
@@ -17564,10 +18105,10 @@
       <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="75">
+      <c r="A52" s="74">
         <v>652</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="75" t="s">
         <v>788</v>
       </c>
       <c r="C52" s="60" t="s">
@@ -17586,10 +18127,10 @@
       <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="73">
+      <c r="A53" s="72">
         <v>654</v>
       </c>
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="73" t="s">
         <v>960</v>
       </c>
       <c r="C53" s="60" t="s">
@@ -17608,10 +18149,10 @@
       <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="75">
+      <c r="A54" s="74">
         <v>658</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="75" t="s">
         <v>385</v>
       </c>
       <c r="C54" s="60" t="s">
@@ -17630,13 +18171,13 @@
       <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="29">
-      <c r="A55" s="73">
+      <c r="A55" s="72">
         <v>659</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="73" t="s">
         <v>748</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="78" t="s">
         <v>648</v>
       </c>
       <c r="D55" s="13">
@@ -17652,10 +18193,10 @@
       <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="29">
-      <c r="A56" s="75">
+      <c r="A56" s="74">
         <v>662</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="75" t="s">
         <v>451</v>
       </c>
       <c r="C56" s="60" t="s">
@@ -17674,10 +18215,10 @@
       <c r="H56" s="16"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="73">
+      <c r="A57" s="72">
         <v>669</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B57" s="73" t="s">
         <v>652</v>
       </c>
       <c r="C57" s="60" t="s">
@@ -17696,10 +18237,10 @@
       <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8" ht="29">
-      <c r="A58" s="75">
+      <c r="A58" s="74">
         <v>674</v>
       </c>
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="60" t="s">
@@ -17718,10 +18259,10 @@
       <c r="H58" s="16"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="73">
+      <c r="A59" s="72">
         <v>678</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="73" t="s">
         <v>349</v>
       </c>
       <c r="C59" s="60" t="s">
@@ -17740,10 +18281,10 @@
       <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="75">
+      <c r="A60" s="74">
         <v>679</v>
       </c>
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="75" t="s">
         <v>744</v>
       </c>
       <c r="C60" s="60" t="s">
@@ -17762,10 +18303,10 @@
       <c r="H60" s="16"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="73">
+      <c r="A61" s="72">
         <v>681</v>
       </c>
-      <c r="B61" s="74" t="s">
+      <c r="B61" s="73" t="s">
         <v>704</v>
       </c>
       <c r="C61" s="60" t="s">
@@ -17784,10 +18325,10 @@
       <c r="H61" s="16"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="75">
+      <c r="A62" s="74">
         <v>682</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="75" t="s">
         <v>982</v>
       </c>
       <c r="C62" s="60" t="s">
@@ -17806,13 +18347,13 @@
       <c r="H62" s="16"/>
     </row>
     <row r="63" spans="1:8" ht="16">
-      <c r="A63" s="73">
+      <c r="A63" s="72">
         <v>684</v>
       </c>
-      <c r="B63" s="74" t="s">
+      <c r="B63" s="73" t="s">
         <v>784</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="78" t="s">
         <v>785</v>
       </c>
       <c r="D63" s="13">
@@ -17828,10 +18369,10 @@
       <c r="H63" s="16"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="75">
+      <c r="A64" s="74">
         <v>686</v>
       </c>
-      <c r="B64" s="76" t="s">
+      <c r="B64" s="75" t="s">
         <v>412</v>
       </c>
       <c r="C64" s="60" t="s">
@@ -17850,10 +18391,10 @@
       <c r="H64" s="16"/>
     </row>
     <row r="65" spans="1:8" ht="29">
-      <c r="A65" s="73">
+      <c r="A65" s="72">
         <v>688</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="73" t="s">
         <v>778</v>
       </c>
       <c r="C65" s="60" t="s">
@@ -17872,13 +18413,13 @@
       <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8" ht="29">
-      <c r="A66" s="75">
+      <c r="A66" s="74">
         <v>689</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="77" t="s">
         <v>130</v>
       </c>
       <c r="D66" s="13">
@@ -17894,13 +18435,13 @@
       <c r="H66" s="16"/>
     </row>
     <row r="67" spans="1:8" ht="32">
-      <c r="A67" s="73">
+      <c r="A67" s="72">
         <v>690</v>
       </c>
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="78" t="s">
         <v>890</v>
       </c>
       <c r="D67" s="13">
@@ -17916,13 +18457,13 @@
       <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8" ht="16">
-      <c r="A68" s="75">
+      <c r="A68" s="74">
         <v>692</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="77" t="s">
         <v>387</v>
       </c>
       <c r="D68" s="13">
@@ -17938,13 +18479,13 @@
       <c r="H68" s="16"/>
     </row>
     <row r="69" spans="1:8" ht="16">
-      <c r="A69" s="73">
+      <c r="A69" s="72">
         <v>695</v>
       </c>
-      <c r="B69" s="74" t="s">
+      <c r="B69" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="78" t="s">
         <v>466</v>
       </c>
       <c r="D69" s="13">
@@ -17960,13 +18501,13 @@
       <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="29">
-      <c r="A70" s="75">
+      <c r="A70" s="74">
         <v>698</v>
       </c>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="75" t="s">
         <v>644</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="77" t="s">
         <v>645</v>
       </c>
       <c r="D70" s="13">
@@ -17982,10 +18523,10 @@
       <c r="H70" s="16"/>
     </row>
     <row r="71" spans="1:8" ht="29">
-      <c r="A71" s="73">
+      <c r="A71" s="72">
         <v>702</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="73" t="s">
         <v>849</v>
       </c>
       <c r="C71" s="60" t="s">
@@ -18004,13 +18545,13 @@
       <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8" ht="29">
-      <c r="A72" s="75">
+      <c r="A72" s="74">
         <v>703</v>
       </c>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="75" t="s">
         <v>517</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="77" t="s">
         <v>211</v>
       </c>
       <c r="D72" s="13">
@@ -18026,13 +18567,13 @@
       <c r="H72" s="16"/>
     </row>
     <row r="73" spans="1:8" ht="16">
-      <c r="A73" s="73">
+      <c r="A73" s="72">
         <v>706</v>
       </c>
-      <c r="B73" s="74" t="s">
+      <c r="B73" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="78" t="s">
         <v>573</v>
       </c>
       <c r="D73" s="13">
@@ -18048,13 +18589,13 @@
       <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8" ht="16">
-      <c r="A74" s="75">
+      <c r="A74" s="74">
         <v>715</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="75" t="s">
         <v>753</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="77" t="s">
         <v>725</v>
       </c>
       <c r="D74" s="13">
@@ -18070,13 +18611,13 @@
       <c r="H74" s="16"/>
     </row>
     <row r="75" spans="1:8" ht="32">
-      <c r="A75" s="73">
+      <c r="A75" s="72">
         <v>718</v>
       </c>
-      <c r="B75" s="74" t="s">
+      <c r="B75" s="73" t="s">
         <v>946</v>
       </c>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="78" t="s">
         <v>947</v>
       </c>
       <c r="D75" s="13">
@@ -18092,13 +18633,13 @@
       <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8" ht="16">
-      <c r="A76" s="75">
+      <c r="A76" s="74">
         <v>720</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="75" t="s">
         <v>658</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="77" t="s">
         <v>619</v>
       </c>
       <c r="D76" s="13">
@@ -18114,13 +18655,13 @@
       <c r="H76" s="16"/>
     </row>
     <row r="77" spans="1:8" ht="16">
-      <c r="A77" s="73">
+      <c r="A77" s="72">
         <v>721</v>
       </c>
-      <c r="B77" s="74" t="s">
+      <c r="B77" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="78" t="s">
         <v>332</v>
       </c>
       <c r="D77" s="13">
@@ -18136,10 +18677,10 @@
       <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="75">
+      <c r="A78" s="74">
         <v>722</v>
       </c>
-      <c r="B78" s="76" t="s">
+      <c r="B78" s="75" t="s">
         <v>432</v>
       </c>
       <c r="C78" s="60" t="s">
@@ -18158,13 +18699,13 @@
       <c r="H78" s="16"/>
     </row>
     <row r="79" spans="1:8" ht="16">
-      <c r="A79" s="73">
+      <c r="A79" s="72">
         <v>723</v>
       </c>
-      <c r="B79" s="74" t="s">
+      <c r="B79" s="73" t="s">
         <v>475</v>
       </c>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="78" t="s">
         <v>125</v>
       </c>
       <c r="D79" s="13">
@@ -18180,10 +18721,10 @@
       <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="75">
+      <c r="A80" s="74">
         <v>724</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="75" t="s">
         <v>472</v>
       </c>
       <c r="C80" s="60" t="s">
@@ -18202,13 +18743,13 @@
       <c r="H80" s="16"/>
     </row>
     <row r="81" spans="1:8" ht="16">
-      <c r="A81" s="73">
+      <c r="A81" s="72">
         <v>726</v>
       </c>
-      <c r="B81" s="74" t="s">
+      <c r="B81" s="73" t="s">
         <v>846</v>
       </c>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="78" t="s">
         <v>847</v>
       </c>
       <c r="D81" s="13">
@@ -18224,13 +18765,13 @@
       <c r="H81" s="16"/>
     </row>
     <row r="82" spans="1:8" ht="32">
-      <c r="A82" s="75">
+      <c r="A82" s="74">
         <v>727</v>
       </c>
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="75" t="s">
         <v>803</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="77" t="s">
         <v>804</v>
       </c>
       <c r="D82" s="13">
@@ -18246,10 +18787,10 @@
       <c r="H82" s="16"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="73">
+      <c r="A83" s="72">
         <v>729</v>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="73" t="s">
         <v>731</v>
       </c>
       <c r="C83" s="60" t="s">
@@ -18268,10 +18809,10 @@
       <c r="H83" s="16"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="75">
+      <c r="A84" s="74">
         <v>731</v>
       </c>
-      <c r="B84" s="76" t="s">
+      <c r="B84" s="75" t="s">
         <v>705</v>
       </c>
       <c r="C84" s="60" t="s">
@@ -18290,13 +18831,13 @@
       <c r="H84" s="16"/>
     </row>
     <row r="85" spans="1:8" ht="16">
-      <c r="A85" s="73">
+      <c r="A85" s="72">
         <v>732</v>
       </c>
-      <c r="B85" s="74" t="s">
+      <c r="B85" s="73" t="s">
         <v>724</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="78" t="s">
         <v>725</v>
       </c>
       <c r="D85" s="13">
@@ -18312,10 +18853,10 @@
       <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="75">
+      <c r="A86" s="74">
         <v>733</v>
       </c>
-      <c r="B86" s="76" t="s">
+      <c r="B86" s="75" t="s">
         <v>878</v>
       </c>
       <c r="C86" s="60" t="s">
@@ -18334,10 +18875,10 @@
       <c r="H86" s="16"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="73">
+      <c r="A87" s="72">
         <v>735</v>
       </c>
-      <c r="B87" s="74" t="s">
+      <c r="B87" s="73" t="s">
         <v>893</v>
       </c>
       <c r="C87" s="60" t="s">
@@ -18356,10 +18897,10 @@
       <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="75">
+      <c r="A88" s="74">
         <v>736</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="75" t="s">
         <v>808</v>
       </c>
       <c r="C88" s="60" t="s">
@@ -18378,13 +18919,13 @@
       <c r="H88" s="16"/>
     </row>
     <row r="89" spans="1:8" ht="16">
-      <c r="A89" s="73">
+      <c r="A89" s="72">
         <v>739</v>
       </c>
-      <c r="B89" s="74" t="s">
+      <c r="B89" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="78" t="s">
         <v>579</v>
       </c>
       <c r="D89" s="13">
@@ -18400,10 +18941,10 @@
       <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="75">
+      <c r="A90" s="74">
         <v>741</v>
       </c>
-      <c r="B90" s="76" t="s">
+      <c r="B90" s="75" t="s">
         <v>871</v>
       </c>
       <c r="C90" s="60" t="s">
@@ -18422,13 +18963,13 @@
       <c r="H90" s="16"/>
     </row>
     <row r="91" spans="1:8" ht="32">
-      <c r="A91" s="73">
+      <c r="A91" s="72">
         <v>743</v>
       </c>
-      <c r="B91" s="74" t="s">
+      <c r="B91" s="73" t="s">
         <v>879</v>
       </c>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="78" t="s">
         <v>880</v>
       </c>
       <c r="D91" s="13">
@@ -18444,10 +18985,10 @@
       <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8" ht="29">
-      <c r="A92" s="75">
+      <c r="A92" s="74">
         <v>747</v>
       </c>
-      <c r="B92" s="76" t="s">
+      <c r="B92" s="75" t="s">
         <v>848</v>
       </c>
       <c r="C92" s="60" t="s">
@@ -18466,10 +19007,10 @@
       <c r="H92" s="16"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="73">
+      <c r="A93" s="72">
         <v>752</v>
       </c>
-      <c r="B93" s="74" t="s">
+      <c r="B93" s="73" t="s">
         <v>523</v>
       </c>
       <c r="C93" s="60" t="s">
@@ -18488,13 +19029,13 @@
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8" ht="16">
-      <c r="A94" s="75">
+      <c r="A94" s="74">
         <v>753</v>
       </c>
-      <c r="B94" s="76" t="s">
+      <c r="B94" s="75" t="s">
         <v>702</v>
       </c>
-      <c r="C94" s="78" t="s">
+      <c r="C94" s="77" t="s">
         <v>703</v>
       </c>
       <c r="D94" s="13">
@@ -18510,13 +19051,13 @@
       <c r="H94" s="16"/>
     </row>
     <row r="95" spans="1:8" ht="16">
-      <c r="A95" s="73">
+      <c r="A95" s="72">
         <v>759</v>
       </c>
-      <c r="B95" s="74" t="s">
+      <c r="B95" s="73" t="s">
         <v>647</v>
       </c>
-      <c r="C95" s="79" t="s">
+      <c r="C95" s="78" t="s">
         <v>648</v>
       </c>
       <c r="D95" s="13">
@@ -18532,13 +19073,13 @@
       <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8" ht="16">
-      <c r="A96" s="75">
+      <c r="A96" s="74">
         <v>767</v>
       </c>
-      <c r="B96" s="76" t="s">
+      <c r="B96" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="C96" s="78" t="s">
+      <c r="C96" s="77" t="s">
         <v>418</v>
       </c>
       <c r="D96" s="13">
@@ -18554,10 +19095,10 @@
       <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="73">
+      <c r="A97" s="72">
         <v>769</v>
       </c>
-      <c r="B97" s="74" t="s">
+      <c r="B97" s="73" t="s">
         <v>711</v>
       </c>
       <c r="C97" s="60" t="s">
@@ -18576,10 +19117,10 @@
       <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="75">
+      <c r="A98" s="74">
         <v>771</v>
       </c>
-      <c r="B98" s="76" t="s">
+      <c r="B98" s="75" t="s">
         <v>872</v>
       </c>
       <c r="C98" s="60" t="s">
@@ -18598,13 +19139,13 @@
       <c r="H98" s="16"/>
     </row>
     <row r="99" spans="1:8" ht="16">
-      <c r="A99" s="73">
+      <c r="A99" s="72">
         <v>772</v>
       </c>
-      <c r="B99" s="74" t="s">
+      <c r="B99" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="78" t="s">
         <v>201</v>
       </c>
       <c r="D99" s="13">
@@ -18620,10 +19161,10 @@
       <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="75">
+      <c r="A100" s="74">
         <v>773</v>
       </c>
-      <c r="B100" s="76" t="s">
+      <c r="B100" s="75" t="s">
         <v>655</v>
       </c>
       <c r="C100" s="60" t="s">
@@ -18642,10 +19183,10 @@
       <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="73">
+      <c r="A101" s="72">
         <v>777</v>
       </c>
-      <c r="B101" s="74" t="s">
+      <c r="B101" s="73" t="s">
         <v>713</v>
       </c>
       <c r="C101" s="60" t="s">
@@ -18664,13 +19205,13 @@
       <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8" ht="32">
-      <c r="A102" s="75">
+      <c r="A102" s="74">
         <v>778</v>
       </c>
-      <c r="B102" s="76" t="s">
+      <c r="B102" s="75" t="s">
         <v>622</v>
       </c>
-      <c r="C102" s="78" t="s">
+      <c r="C102" s="77" t="s">
         <v>623</v>
       </c>
       <c r="D102" s="13">
@@ -18686,10 +19227,10 @@
       <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="73">
+      <c r="A103" s="72">
         <v>788</v>
       </c>
-      <c r="B103" s="74" t="s">
+      <c r="B103" s="73" t="s">
         <v>850</v>
       </c>
       <c r="C103" s="60" t="s">
@@ -18708,10 +19249,10 @@
       <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="75">
+      <c r="A104" s="74">
         <v>791</v>
       </c>
-      <c r="B104" s="76" t="s">
+      <c r="B104" s="75" t="s">
         <v>369</v>
       </c>
       <c r="C104" s="60" t="s">
@@ -18728,10 +19269,10 @@
       <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8" ht="29">
-      <c r="A105" s="73">
+      <c r="A105" s="72">
         <v>792</v>
       </c>
-      <c r="B105" s="74" t="s">
+      <c r="B105" s="73" t="s">
         <v>799</v>
       </c>
       <c r="C105" s="60" t="s">
@@ -18750,13 +19291,13 @@
       <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8" ht="16">
-      <c r="A106" s="75">
+      <c r="A106" s="74">
         <v>794</v>
       </c>
-      <c r="B106" s="76" t="s">
+      <c r="B106" s="75" t="s">
         <v>877</v>
       </c>
-      <c r="C106" s="78" t="s">
+      <c r="C106" s="77" t="s">
         <v>284</v>
       </c>
       <c r="D106" s="13">
@@ -18772,13 +19313,13 @@
       <c r="H106" s="16"/>
     </row>
     <row r="107" spans="1:8" ht="16">
-      <c r="A107" s="73">
+      <c r="A107" s="72">
         <v>802</v>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="73" t="s">
         <v>796</v>
       </c>
-      <c r="C107" s="79" t="s">
+      <c r="C107" s="78" t="s">
         <v>404</v>
       </c>
       <c r="D107" s="13">
@@ -18794,10 +19335,10 @@
       <c r="H107" s="16"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="75">
+      <c r="A108" s="74">
         <v>803</v>
       </c>
-      <c r="B108" s="76" t="s">
+      <c r="B108" s="75" t="s">
         <v>737</v>
       </c>
       <c r="C108" s="60" t="s">
@@ -18816,13 +19357,13 @@
       <c r="H108" s="16"/>
     </row>
     <row r="109" spans="1:8" ht="29">
-      <c r="A109" s="73">
+      <c r="A109" s="72">
         <v>807</v>
       </c>
-      <c r="B109" s="74" t="s">
+      <c r="B109" s="73" t="s">
         <v>729</v>
       </c>
-      <c r="C109" s="80"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="13">
         <v>809</v>
       </c>
@@ -18836,10 +19377,10 @@
       <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="75">
+      <c r="A110" s="74">
         <v>809</v>
       </c>
-      <c r="B110" s="76" t="s">
+      <c r="B110" s="75" t="s">
         <v>851</v>
       </c>
       <c r="C110" s="60" t="s">
@@ -18858,10 +19399,10 @@
       <c r="H110" s="16"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="73">
+      <c r="A111" s="72">
         <v>815</v>
       </c>
-      <c r="B111" s="74" t="s">
+      <c r="B111" s="73" t="s">
         <v>793</v>
       </c>
       <c r="C111" s="60" t="s">
@@ -18880,10 +19421,10 @@
       <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="75">
+      <c r="A112" s="74">
         <v>817</v>
       </c>
-      <c r="B112" s="76" t="s">
+      <c r="B112" s="75" t="s">
         <v>742</v>
       </c>
       <c r="C112" s="60" t="s">
@@ -18902,13 +19443,13 @@
       <c r="H112" s="16"/>
     </row>
     <row r="113" spans="1:8" ht="16">
-      <c r="A113" s="73">
+      <c r="A113" s="72">
         <v>818</v>
       </c>
-      <c r="B113" s="74" t="s">
+      <c r="B113" s="73" t="s">
         <v>733</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="78" t="s">
         <v>734</v>
       </c>
       <c r="D113" s="13">
@@ -18924,10 +19465,10 @@
       <c r="H113" s="16"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="75">
+      <c r="A114" s="74">
         <v>827</v>
       </c>
-      <c r="B114" s="76" t="s">
+      <c r="B114" s="75" t="s">
         <v>668</v>
       </c>
       <c r="C114" s="60" t="s">
@@ -18946,10 +19487,10 @@
       <c r="H114" s="16"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="73">
+      <c r="A115" s="72">
         <v>830</v>
       </c>
-      <c r="B115" s="74" t="s">
+      <c r="B115" s="73" t="s">
         <v>805</v>
       </c>
       <c r="C115" s="60" t="s">
@@ -18959,10 +19500,10 @@
       <c r="H115" s="16"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="75">
+      <c r="A116" s="74">
         <v>833</v>
       </c>
-      <c r="B116" s="76" t="s">
+      <c r="B116" s="75" t="s">
         <v>747</v>
       </c>
       <c r="C116" s="60" t="s">
@@ -18981,13 +19522,13 @@
       <c r="H116" s="16"/>
     </row>
     <row r="117" spans="1:8" ht="16">
-      <c r="A117" s="73">
+      <c r="A117" s="72">
         <v>834</v>
       </c>
-      <c r="B117" s="74" t="s">
+      <c r="B117" s="73" t="s">
         <v>852</v>
       </c>
-      <c r="C117" s="79" t="s">
+      <c r="C117" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D117" s="13">
@@ -19003,10 +19544,10 @@
       <c r="H117" s="16"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="75">
+      <c r="A118" s="74">
         <v>836</v>
       </c>
-      <c r="B118" s="76" t="s">
+      <c r="B118" s="75" t="s">
         <v>859</v>
       </c>
       <c r="C118" s="60" t="s">
@@ -19025,10 +19566,10 @@
       <c r="H118" s="16"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="73">
+      <c r="A119" s="72">
         <v>837</v>
       </c>
-      <c r="B119" s="74" t="s">
+      <c r="B119" s="73" t="s">
         <v>853</v>
       </c>
       <c r="C119" s="60" t="s">
@@ -19047,10 +19588,10 @@
       <c r="H119" s="16"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="75">
+      <c r="A120" s="74">
         <v>840</v>
       </c>
-      <c r="B120" s="76" t="s">
+      <c r="B120" s="75" t="s">
         <v>854</v>
       </c>
       <c r="C120" s="60" t="s">
@@ -19069,10 +19610,10 @@
       <c r="H120" s="16"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="73">
+      <c r="A121" s="72">
         <v>843</v>
       </c>
-      <c r="B121" s="74" t="s">
+      <c r="B121" s="73" t="s">
         <v>751</v>
       </c>
       <c r="C121" s="60" t="s">
@@ -19091,13 +19632,13 @@
       <c r="H121" s="16"/>
     </row>
     <row r="122" spans="1:8" ht="16">
-      <c r="A122" s="75">
+      <c r="A122" s="74">
         <v>844</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="75" t="s">
         <v>398</v>
       </c>
-      <c r="C122" s="78" t="s">
+      <c r="C122" s="77" t="s">
         <v>399</v>
       </c>
       <c r="D122" s="13">
@@ -19113,10 +19654,10 @@
       <c r="H122" s="16"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="73">
+      <c r="A123" s="72">
         <v>845</v>
       </c>
-      <c r="B123" s="74" t="s">
+      <c r="B123" s="73" t="s">
         <v>855</v>
       </c>
       <c r="C123" s="60" t="s">
@@ -19135,10 +19676,10 @@
       <c r="H123" s="16"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="75">
+      <c r="A124" s="74">
         <v>846</v>
       </c>
-      <c r="B124" s="76" t="s">
+      <c r="B124" s="75" t="s">
         <v>754</v>
       </c>
       <c r="C124" s="60" t="s">
@@ -19157,13 +19698,13 @@
       <c r="H124" s="16"/>
     </row>
     <row r="125" spans="1:8" ht="32">
-      <c r="A125" s="73">
+      <c r="A125" s="72">
         <v>847</v>
       </c>
-      <c r="B125" s="74" t="s">
+      <c r="B125" s="73" t="s">
         <v>856</v>
       </c>
-      <c r="C125" s="79" t="s">
+      <c r="C125" s="78" t="s">
         <v>857</v>
       </c>
       <c r="D125" s="13">
@@ -19179,10 +19720,10 @@
       <c r="H125" s="16"/>
     </row>
     <row r="126" spans="1:8" ht="29">
-      <c r="A126" s="75">
+      <c r="A126" s="74">
         <v>849</v>
       </c>
-      <c r="B126" s="76" t="s">
+      <c r="B126" s="75" t="s">
         <v>757</v>
       </c>
       <c r="C126" s="60" t="s">
@@ -19201,13 +19742,13 @@
       <c r="H126" s="16"/>
     </row>
     <row r="127" spans="1:8" ht="16">
-      <c r="A127" s="73">
+      <c r="A127" s="72">
         <v>850</v>
       </c>
-      <c r="B127" s="74" t="s">
+      <c r="B127" s="73" t="s">
         <v>760</v>
       </c>
-      <c r="C127" s="79" t="s">
+      <c r="C127" s="78" t="s">
         <v>761</v>
       </c>
       <c r="D127" s="13">
@@ -19223,10 +19764,10 @@
       <c r="H127" s="16"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="75">
+      <c r="A128" s="74">
         <v>853</v>
       </c>
-      <c r="B128" s="76" t="s">
+      <c r="B128" s="75" t="s">
         <v>762</v>
       </c>
       <c r="C128" s="60" t="s">
@@ -19245,23 +19786,23 @@
       <c r="H128" s="16"/>
     </row>
     <row r="129" spans="1:8" ht="16">
-      <c r="A129" s="73">
+      <c r="A129" s="72">
         <v>856</v>
       </c>
-      <c r="B129" s="74" t="s">
+      <c r="B129" s="73" t="s">
         <v>874</v>
       </c>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="78" t="s">
         <v>201</v>
       </c>
       <c r="G129" s="16"/>
       <c r="H129" s="16"/>
     </row>
     <row r="130" spans="1:8" ht="29">
-      <c r="A130" s="75">
+      <c r="A130" s="74">
         <v>857</v>
       </c>
-      <c r="B130" s="76" t="s">
+      <c r="B130" s="75" t="s">
         <v>797</v>
       </c>
       <c r="C130" s="60" t="s">
@@ -19280,13 +19821,13 @@
       <c r="H130" s="16"/>
     </row>
     <row r="131" spans="1:8" ht="29">
-      <c r="A131" s="73">
+      <c r="A131" s="72">
         <v>862</v>
       </c>
-      <c r="B131" s="74" t="s">
+      <c r="B131" s="73" t="s">
         <v>930</v>
       </c>
-      <c r="C131" s="79" t="s">
+      <c r="C131" s="78" t="s">
         <v>931</v>
       </c>
       <c r="D131" s="13">
@@ -19302,13 +19843,13 @@
       <c r="H131" s="16"/>
     </row>
     <row r="132" spans="1:8" ht="32">
-      <c r="A132" s="75">
+      <c r="A132" s="74">
         <v>863</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="C132" s="78" t="s">
+      <c r="C132" s="77" t="s">
         <v>251</v>
       </c>
       <c r="D132" s="13">
@@ -19324,13 +19865,13 @@
       <c r="H132" s="16"/>
     </row>
     <row r="133" spans="1:8" ht="29">
-      <c r="A133" s="73">
+      <c r="A133" s="72">
         <v>871</v>
       </c>
-      <c r="B133" s="74" t="s">
+      <c r="B133" s="73" t="s">
         <v>868</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="78" t="s">
         <v>734</v>
       </c>
       <c r="D133" s="13">
@@ -19346,13 +19887,13 @@
       <c r="H133" s="16"/>
     </row>
     <row r="134" spans="1:8" ht="16">
-      <c r="A134" s="75">
+      <c r="A134" s="74">
         <v>886</v>
       </c>
-      <c r="B134" s="76" t="s">
+      <c r="B134" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="C134" s="78" t="s">
+      <c r="C134" s="77" t="s">
         <v>404</v>
       </c>
       <c r="D134" s="13">
@@ -19368,13 +19909,13 @@
       <c r="H134" s="16"/>
     </row>
     <row r="135" spans="1:8" ht="32">
-      <c r="A135" s="73">
+      <c r="A135" s="72">
         <v>887</v>
       </c>
-      <c r="B135" s="74" t="s">
+      <c r="B135" s="73" t="s">
         <v>534</v>
       </c>
-      <c r="C135" s="79" t="s">
+      <c r="C135" s="78" t="s">
         <v>535</v>
       </c>
       <c r="D135" s="13">
@@ -19390,13 +19931,13 @@
       <c r="H135" s="16"/>
     </row>
     <row r="136" spans="1:8" ht="16">
-      <c r="A136" s="75">
+      <c r="A136" s="74">
         <v>894</v>
       </c>
-      <c r="B136" s="76" t="s">
+      <c r="B136" s="75" t="s">
         <v>858</v>
       </c>
-      <c r="C136" s="78" t="s">
+      <c r="C136" s="77" t="s">
         <v>639</v>
       </c>
       <c r="D136" s="13">
@@ -19412,13 +19953,13 @@
       <c r="H136" s="16"/>
     </row>
     <row r="137" spans="1:8" ht="16">
-      <c r="A137" s="73">
+      <c r="A137" s="72">
         <v>895</v>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B137" s="73" t="s">
         <v>886</v>
       </c>
-      <c r="C137" s="79" t="s">
+      <c r="C137" s="78" t="s">
         <v>579</v>
       </c>
       <c r="D137" s="13">
@@ -19434,10 +19975,10 @@
       <c r="H137" s="16"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="75">
+      <c r="A138" s="74">
         <v>900</v>
       </c>
-      <c r="B138" s="76" t="s">
+      <c r="B138" s="75" t="s">
         <v>860</v>
       </c>
       <c r="C138" s="60" t="s">
@@ -19456,10 +19997,10 @@
       <c r="H138" s="16"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="73">
+      <c r="A139" s="72">
         <v>901</v>
       </c>
-      <c r="B139" s="74" t="s">
+      <c r="B139" s="73" t="s">
         <v>669</v>
       </c>
       <c r="C139" s="60" t="s">
@@ -19478,10 +20019,10 @@
       <c r="H139" s="16"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="75">
+      <c r="A140" s="74">
         <v>904</v>
       </c>
-      <c r="B140" s="76" t="s">
+      <c r="B140" s="75" t="s">
         <v>861</v>
       </c>
       <c r="C140" s="60" t="s">
@@ -19500,13 +20041,13 @@
       <c r="H140" s="16"/>
     </row>
     <row r="141" spans="1:8" ht="16">
-      <c r="A141" s="73">
+      <c r="A141" s="72">
         <v>907</v>
       </c>
-      <c r="B141" s="74" t="s">
+      <c r="B141" s="73" t="s">
         <v>945</v>
       </c>
-      <c r="C141" s="79" t="s">
+      <c r="C141" s="78" t="s">
         <v>709</v>
       </c>
       <c r="D141" s="13">
@@ -19522,10 +20063,10 @@
       <c r="H141" s="16"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="75">
+      <c r="A142" s="74">
         <v>911</v>
       </c>
-      <c r="B142" s="76" t="s">
+      <c r="B142" s="75" t="s">
         <v>862</v>
       </c>
       <c r="C142" s="60" t="s">
@@ -19544,13 +20085,13 @@
       <c r="H142" s="16"/>
     </row>
     <row r="143" spans="1:8" ht="16">
-      <c r="A143" s="73">
+      <c r="A143" s="72">
         <v>913</v>
       </c>
-      <c r="B143" s="74" t="s">
+      <c r="B143" s="73" t="s">
         <v>863</v>
       </c>
-      <c r="C143" s="79" t="s">
+      <c r="C143" s="78" t="s">
         <v>864</v>
       </c>
       <c r="D143" s="13">
@@ -19566,13 +20107,13 @@
       <c r="H143" s="16"/>
     </row>
     <row r="144" spans="1:8" ht="16">
-      <c r="A144" s="75">
+      <c r="A144" s="74">
         <v>914</v>
       </c>
-      <c r="B144" s="76" t="s">
+      <c r="B144" s="75" t="s">
         <v>865</v>
       </c>
-      <c r="C144" s="78" t="s">
+      <c r="C144" s="77" t="s">
         <v>362</v>
       </c>
       <c r="D144" s="13">
@@ -19588,13 +20129,13 @@
       <c r="H144" s="16"/>
     </row>
     <row r="145" spans="1:8" ht="16">
-      <c r="A145" s="73">
+      <c r="A145" s="72">
         <v>924</v>
       </c>
-      <c r="B145" s="74" t="s">
+      <c r="B145" s="73" t="s">
         <v>885</v>
       </c>
-      <c r="C145" s="79" t="s">
+      <c r="C145" s="78" t="s">
         <v>332</v>
       </c>
       <c r="D145" s="13">
@@ -19610,13 +20151,13 @@
       <c r="H145" s="16"/>
     </row>
     <row r="146" spans="1:8" ht="16">
-      <c r="A146" s="75">
+      <c r="A146" s="74">
         <v>925</v>
       </c>
-      <c r="B146" s="76" t="s">
+      <c r="B146" s="75" t="s">
         <v>936</v>
       </c>
-      <c r="C146" s="78" t="s">
+      <c r="C146" s="77" t="s">
         <v>242</v>
       </c>
       <c r="D146" s="13">
@@ -19632,13 +20173,13 @@
       <c r="H146" s="16"/>
     </row>
     <row r="147" spans="1:8" ht="32">
-      <c r="A147" s="73">
+      <c r="A147" s="72">
         <v>934</v>
       </c>
-      <c r="B147" s="74" t="s">
+      <c r="B147" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="C147" s="79" t="s">
+      <c r="C147" s="78" t="s">
         <v>132</v>
       </c>
       <c r="D147" s="13">
@@ -19654,10 +20195,10 @@
       <c r="H147" s="16"/>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="75">
+      <c r="A148" s="74">
         <v>935</v>
       </c>
-      <c r="B148" s="76" t="s">
+      <c r="B148" s="75" t="s">
         <v>551</v>
       </c>
       <c r="C148" s="60" t="s">
@@ -19676,10 +20217,10 @@
       <c r="H148" s="16"/>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="73">
+      <c r="A149" s="72">
         <v>937</v>
       </c>
-      <c r="B149" s="74" t="s">
+      <c r="B149" s="73" t="s">
         <v>995</v>
       </c>
       <c r="C149" s="60" t="s">
@@ -19698,13 +20239,13 @@
       <c r="H149" s="16"/>
     </row>
     <row r="150" spans="1:8" ht="16">
-      <c r="A150" s="75">
+      <c r="A150" s="74">
         <v>938</v>
       </c>
-      <c r="B150" s="76" t="s">
+      <c r="B150" s="75" t="s">
         <v>541</v>
       </c>
-      <c r="C150" s="78" t="s">
+      <c r="C150" s="77" t="s">
         <v>167</v>
       </c>
       <c r="D150" s="13">
@@ -19720,10 +20261,10 @@
       <c r="H150" s="16"/>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="73">
+      <c r="A151" s="72">
         <v>939</v>
       </c>
-      <c r="B151" s="74" t="s">
+      <c r="B151" s="73" t="s">
         <v>556</v>
       </c>
       <c r="C151" s="60" t="s">
@@ -19742,10 +20283,10 @@
       <c r="H151" s="16"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="75">
+      <c r="A152" s="74">
         <v>941</v>
       </c>
-      <c r="B152" s="76" t="s">
+      <c r="B152" s="75" t="s">
         <v>870</v>
       </c>
       <c r="C152" s="60" t="s">
@@ -19764,10 +20305,10 @@
       <c r="H152" s="16"/>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="73">
+      <c r="A153" s="72">
         <v>946</v>
       </c>
-      <c r="B153" s="74" t="s">
+      <c r="B153" s="73" t="s">
         <v>903</v>
       </c>
       <c r="C153" s="60" t="s">
@@ -19786,13 +20327,13 @@
       <c r="H153" s="16"/>
     </row>
     <row r="154" spans="1:8" ht="29">
-      <c r="A154" s="75">
+      <c r="A154" s="74">
         <v>947</v>
       </c>
-      <c r="B154" s="76" t="s">
+      <c r="B154" s="75" t="s">
         <v>873</v>
       </c>
-      <c r="C154" s="78" t="s">
+      <c r="C154" s="77" t="s">
         <v>332</v>
       </c>
       <c r="D154" s="13">
@@ -19808,10 +20349,10 @@
       <c r="H154" s="16"/>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="73">
+      <c r="A155" s="72">
         <v>949</v>
       </c>
-      <c r="B155" s="74" t="s">
+      <c r="B155" s="73" t="s">
         <v>932</v>
       </c>
       <c r="C155" s="60" t="s">
@@ -19830,10 +20371,10 @@
       <c r="H155" s="16"/>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="75">
+      <c r="A156" s="74">
         <v>951</v>
       </c>
-      <c r="B156" s="76" t="s">
+      <c r="B156" s="75" t="s">
         <v>875</v>
       </c>
       <c r="C156" s="60" t="s">
@@ -19852,10 +20393,10 @@
       <c r="H156" s="16"/>
     </row>
     <row r="157" spans="1:8" ht="29">
-      <c r="A157" s="73">
+      <c r="A157" s="72">
         <v>958</v>
       </c>
-      <c r="B157" s="74" t="s">
+      <c r="B157" s="73" t="s">
         <v>545</v>
       </c>
       <c r="C157" s="60" t="s">
@@ -19874,13 +20415,13 @@
       <c r="H157" s="16"/>
     </row>
     <row r="158" spans="1:8" ht="16">
-      <c r="A158" s="75">
+      <c r="A158" s="74">
         <v>963</v>
       </c>
-      <c r="B158" s="76" t="s">
+      <c r="B158" s="75" t="s">
         <v>566</v>
       </c>
-      <c r="C158" s="78" t="s">
+      <c r="C158" s="77" t="s">
         <v>567</v>
       </c>
       <c r="D158" s="13">
@@ -19896,13 +20437,13 @@
       <c r="H158" s="16"/>
     </row>
     <row r="159" spans="1:8" ht="32">
-      <c r="A159" s="73">
+      <c r="A159" s="72">
         <v>968</v>
       </c>
-      <c r="B159" s="74" t="s">
+      <c r="B159" s="73" t="s">
         <v>881</v>
       </c>
-      <c r="C159" s="79" t="s">
+      <c r="C159" s="78" t="s">
         <v>759</v>
       </c>
       <c r="D159" s="13">
@@ -19918,13 +20459,13 @@
       <c r="H159" s="16"/>
     </row>
     <row r="160" spans="1:8" ht="16">
-      <c r="A160" s="75">
+      <c r="A160" s="74">
         <v>973</v>
       </c>
-      <c r="B160" s="76" t="s">
+      <c r="B160" s="75" t="s">
         <v>547</v>
       </c>
-      <c r="C160" s="78" t="s">
+      <c r="C160" s="77" t="s">
         <v>548</v>
       </c>
       <c r="D160" s="13">
@@ -19940,13 +20481,13 @@
       <c r="H160" s="16"/>
     </row>
     <row r="161" spans="1:8" ht="32">
-      <c r="A161" s="73">
+      <c r="A161" s="72">
         <v>975</v>
       </c>
-      <c r="B161" s="74" t="s">
+      <c r="B161" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="C161" s="79" t="s">
+      <c r="C161" s="78" t="s">
         <v>883</v>
       </c>
       <c r="D161" s="13">
@@ -19962,13 +20503,13 @@
       <c r="H161" s="16"/>
     </row>
     <row r="162" spans="1:8" ht="16">
-      <c r="A162" s="75">
+      <c r="A162" s="74">
         <v>977</v>
       </c>
-      <c r="B162" s="76" t="s">
+      <c r="B162" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="C162" s="78" t="s">
+      <c r="C162" s="77" t="s">
         <v>125</v>
       </c>
       <c r="D162" s="13">
@@ -19984,13 +20525,13 @@
       <c r="H162" s="16"/>
     </row>
     <row r="163" spans="1:8" ht="16">
-      <c r="A163" s="73">
+      <c r="A163" s="72">
         <v>979</v>
       </c>
-      <c r="B163" s="74" t="s">
+      <c r="B163" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D163" s="13">
@@ -20006,13 +20547,13 @@
       <c r="H163" s="16"/>
     </row>
     <row r="164" spans="1:8" ht="16">
-      <c r="A164" s="75">
+      <c r="A164" s="74">
         <v>980</v>
       </c>
-      <c r="B164" s="76" t="s">
+      <c r="B164" s="75" t="s">
         <v>897</v>
       </c>
-      <c r="C164" s="78" t="s">
+      <c r="C164" s="77" t="s">
         <v>898</v>
       </c>
       <c r="D164" s="13">
@@ -20028,13 +20569,13 @@
       <c r="H164" s="16"/>
     </row>
     <row r="165" spans="1:8" ht="16">
-      <c r="A165" s="73">
+      <c r="A165" s="72">
         <v>981</v>
       </c>
-      <c r="B165" s="74" t="s">
+      <c r="B165" s="73" t="s">
         <v>887</v>
       </c>
-      <c r="C165" s="79" t="s">
+      <c r="C165" s="78" t="s">
         <v>888</v>
       </c>
       <c r="D165" s="13">
@@ -20050,10 +20591,10 @@
       <c r="H165" s="16"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="75">
+      <c r="A166" s="74">
         <v>983</v>
       </c>
-      <c r="B166" s="76" t="s">
+      <c r="B166" s="75" t="s">
         <v>620</v>
       </c>
       <c r="C166" s="60" t="s">
@@ -20072,10 +20613,10 @@
       <c r="H166" s="16"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="73">
+      <c r="A167" s="72">
         <v>986</v>
       </c>
-      <c r="B167" s="74" t="s">
+      <c r="B167" s="73" t="s">
         <v>554</v>
       </c>
       <c r="C167" s="60" t="s">
@@ -20094,13 +20635,13 @@
       <c r="H167" s="16"/>
     </row>
     <row r="168" spans="1:8" ht="29">
-      <c r="A168" s="75">
+      <c r="A168" s="74">
         <v>987</v>
       </c>
-      <c r="B168" s="76" t="s">
+      <c r="B168" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="C168" s="78" t="s">
+      <c r="C168" s="77" t="s">
         <v>562</v>
       </c>
       <c r="D168" s="13">
@@ -20116,10 +20657,10 @@
       <c r="H168" s="16"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="73">
+      <c r="A169" s="72">
         <v>989</v>
       </c>
-      <c r="B169" s="74" t="s">
+      <c r="B169" s="73" t="s">
         <v>557</v>
       </c>
       <c r="C169" s="60" t="s">
@@ -20138,13 +20679,13 @@
       <c r="H169" s="16"/>
     </row>
     <row r="170" spans="1:8" ht="32">
-      <c r="A170" s="75">
+      <c r="A170" s="74">
         <v>992</v>
       </c>
-      <c r="B170" s="76" t="s">
+      <c r="B170" s="75" t="s">
         <v>558</v>
       </c>
-      <c r="C170" s="78" t="s">
+      <c r="C170" s="77" t="s">
         <v>559</v>
       </c>
       <c r="D170" s="13">
@@ -20160,13 +20701,13 @@
       <c r="H170" s="16"/>
     </row>
     <row r="171" spans="1:8" ht="29">
-      <c r="A171" s="73">
+      <c r="A171" s="72">
         <v>995</v>
       </c>
-      <c r="B171" s="74" t="s">
+      <c r="B171" s="73" t="s">
         <v>661</v>
       </c>
-      <c r="C171" s="79" t="s">
+      <c r="C171" s="78" t="s">
         <v>662</v>
       </c>
       <c r="D171" s="13">
@@ -20182,13 +20723,13 @@
       <c r="H171" s="16"/>
     </row>
     <row r="172" spans="1:8" ht="16">
-      <c r="A172" s="75">
+      <c r="A172" s="74">
         <v>1004</v>
       </c>
-      <c r="B172" s="76" t="s">
+      <c r="B172" s="75" t="s">
         <v>563</v>
       </c>
-      <c r="C172" s="78" t="s">
+      <c r="C172" s="77" t="s">
         <v>205</v>
       </c>
       <c r="D172" s="13">
@@ -20204,13 +20745,13 @@
       <c r="H172" s="16"/>
     </row>
     <row r="173" spans="1:8" ht="29">
-      <c r="A173" s="73">
+      <c r="A173" s="72">
         <v>1007</v>
       </c>
-      <c r="B173" s="74" t="s">
+      <c r="B173" s="73" t="s">
         <v>891</v>
       </c>
-      <c r="C173" s="79" t="s">
+      <c r="C173" s="78" t="s">
         <v>219</v>
       </c>
       <c r="D173" s="13">
@@ -20226,10 +20767,10 @@
       <c r="H173" s="16"/>
     </row>
     <row r="174" spans="1:8" ht="29">
-      <c r="A174" s="75">
+      <c r="A174" s="74">
         <v>1010</v>
       </c>
-      <c r="B174" s="76" t="s">
+      <c r="B174" s="75" t="s">
         <v>961</v>
       </c>
       <c r="C174" s="60" t="s">
@@ -20248,13 +20789,13 @@
       <c r="H174" s="16"/>
     </row>
     <row r="175" spans="1:8" ht="29">
-      <c r="A175" s="73">
+      <c r="A175" s="72">
         <v>1011</v>
       </c>
-      <c r="B175" s="74" t="s">
+      <c r="B175" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="C175" s="79" t="s">
+      <c r="C175" s="78" t="s">
         <v>249</v>
       </c>
       <c r="D175" s="13">
@@ -20270,10 +20811,10 @@
       <c r="H175" s="16"/>
     </row>
     <row r="176" spans="1:8" ht="29">
-      <c r="A176" s="75">
+      <c r="A176" s="74">
         <v>1021</v>
       </c>
-      <c r="B176" s="76" t="s">
+      <c r="B176" s="75" t="s">
         <v>899</v>
       </c>
       <c r="C176" s="60" t="s">
@@ -20292,13 +20833,13 @@
       <c r="H176" s="16"/>
     </row>
     <row r="177" spans="1:8" ht="29">
-      <c r="A177" s="73">
+      <c r="A177" s="72">
         <v>1026</v>
       </c>
-      <c r="B177" s="74" t="s">
+      <c r="B177" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="C177" s="79" t="s">
+      <c r="C177" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D177" s="13">
@@ -20314,10 +20855,10 @@
       <c r="H177" s="16"/>
     </row>
     <row r="178" spans="1:8" ht="29">
-      <c r="A178" s="75">
+      <c r="A178" s="74">
         <v>1027</v>
       </c>
-      <c r="B178" s="76" t="s">
+      <c r="B178" s="75" t="s">
         <v>577</v>
       </c>
       <c r="C178" s="60" t="s">
@@ -20336,10 +20877,10 @@
       <c r="H178" s="16"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="73">
+      <c r="A179" s="72">
         <v>1029</v>
       </c>
-      <c r="B179" s="74" t="s">
+      <c r="B179" s="73" t="s">
         <v>911</v>
       </c>
       <c r="C179" s="60" t="s">
@@ -20358,10 +20899,10 @@
       <c r="H179" s="16"/>
     </row>
     <row r="180" spans="1:8" ht="29">
-      <c r="A180" s="75">
+      <c r="A180" s="74">
         <v>1031</v>
       </c>
-      <c r="B180" s="76" t="s">
+      <c r="B180" s="75" t="s">
         <v>924</v>
       </c>
       <c r="C180" s="60" t="s">
@@ -20380,10 +20921,10 @@
       <c r="H180" s="16"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="73">
+      <c r="A181" s="72">
         <v>1032</v>
       </c>
-      <c r="B181" s="74" t="s">
+      <c r="B181" s="73" t="s">
         <v>581</v>
       </c>
       <c r="C181" s="60" t="s">
@@ -20402,10 +20943,10 @@
       <c r="H181" s="16"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="75">
+      <c r="A182" s="74">
         <v>1041</v>
       </c>
-      <c r="B182" s="76" t="s">
+      <c r="B182" s="75" t="s">
         <v>988</v>
       </c>
       <c r="C182" s="60" t="s">
@@ -20424,13 +20965,13 @@
       <c r="H182" s="16"/>
     </row>
     <row r="183" spans="1:8" ht="32">
-      <c r="A183" s="73">
+      <c r="A183" s="72">
         <v>1044</v>
       </c>
-      <c r="B183" s="74" t="s">
+      <c r="B183" s="73" t="s">
         <v>904</v>
       </c>
-      <c r="C183" s="79" t="s">
+      <c r="C183" s="78" t="s">
         <v>905</v>
       </c>
       <c r="D183" s="13">
@@ -20446,13 +20987,13 @@
       <c r="H183" s="16"/>
     </row>
     <row r="184" spans="1:8" ht="16">
-      <c r="A184" s="75">
+      <c r="A184" s="74">
         <v>1046</v>
       </c>
-      <c r="B184" s="76" t="s">
+      <c r="B184" s="75" t="s">
         <v>956</v>
       </c>
-      <c r="C184" s="78" t="s">
+      <c r="C184" s="77" t="s">
         <v>648</v>
       </c>
       <c r="D184" s="13">
@@ -20468,10 +21009,10 @@
       <c r="H184" s="16"/>
     </row>
     <row r="185" spans="1:8" ht="29">
-      <c r="A185" s="73">
+      <c r="A185" s="72">
         <v>1047</v>
       </c>
-      <c r="B185" s="74" t="s">
+      <c r="B185" s="73" t="s">
         <v>612</v>
       </c>
       <c r="C185" s="60" t="s">
@@ -20490,13 +21031,13 @@
       <c r="H185" s="16"/>
     </row>
     <row r="186" spans="1:8" ht="16">
-      <c r="A186" s="75">
+      <c r="A186" s="74">
         <v>1048</v>
       </c>
-      <c r="B186" s="76" t="s">
+      <c r="B186" s="75" t="s">
         <v>908</v>
       </c>
-      <c r="C186" s="78" t="s">
+      <c r="C186" s="77" t="s">
         <v>909</v>
       </c>
       <c r="D186" s="13">
@@ -20512,13 +21053,13 @@
       <c r="H186" s="16"/>
     </row>
     <row r="187" spans="1:8" ht="16">
-      <c r="A187" s="73">
+      <c r="A187" s="72">
         <v>1055</v>
       </c>
-      <c r="B187" s="74" t="s">
+      <c r="B187" s="73" t="s">
         <v>592</v>
       </c>
-      <c r="C187" s="79" t="s">
+      <c r="C187" s="78" t="s">
         <v>593</v>
       </c>
       <c r="D187" s="13">
@@ -20534,10 +21075,10 @@
       <c r="H187" s="16"/>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="75">
+      <c r="A188" s="74">
         <v>1056</v>
       </c>
-      <c r="B188" s="76" t="s">
+      <c r="B188" s="75" t="s">
         <v>895</v>
       </c>
       <c r="C188" s="60" t="s">
@@ -20556,13 +21097,13 @@
       <c r="H188" s="16"/>
     </row>
     <row r="189" spans="1:8" ht="16">
-      <c r="A189" s="73">
+      <c r="A189" s="72">
         <v>1057</v>
       </c>
-      <c r="B189" s="74" t="s">
+      <c r="B189" s="73" t="s">
         <v>642</v>
       </c>
-      <c r="C189" s="79" t="s">
+      <c r="C189" s="78" t="s">
         <v>454</v>
       </c>
       <c r="D189" s="13">
@@ -20578,10 +21119,10 @@
       <c r="H189" s="16"/>
     </row>
     <row r="190" spans="1:8" ht="29">
-      <c r="A190" s="75">
+      <c r="A190" s="74">
         <v>1060</v>
       </c>
-      <c r="B190" s="76" t="s">
+      <c r="B190" s="75" t="s">
         <v>604</v>
       </c>
       <c r="C190" s="60" t="s">
@@ -20600,10 +21141,10 @@
       <c r="H190" s="16"/>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="73">
+      <c r="A191" s="72">
         <v>1062</v>
       </c>
-      <c r="B191" s="74" t="s">
+      <c r="B191" s="73" t="s">
         <v>654</v>
       </c>
       <c r="C191" s="60" t="s">
@@ -20622,13 +21163,13 @@
       <c r="H191" s="16"/>
     </row>
     <row r="192" spans="1:8" ht="32">
-      <c r="A192" s="75">
+      <c r="A192" s="74">
         <v>1066</v>
       </c>
-      <c r="B192" s="76" t="s">
+      <c r="B192" s="75" t="s">
         <v>894</v>
       </c>
-      <c r="C192" s="78" t="s">
+      <c r="C192" s="77" t="s">
         <v>328</v>
       </c>
       <c r="D192" s="13">
@@ -20644,13 +21185,13 @@
       <c r="H192" s="16"/>
     </row>
     <row r="193" spans="1:8" ht="32">
-      <c r="A193" s="73">
+      <c r="A193" s="72">
         <v>1074</v>
       </c>
-      <c r="B193" s="74" t="s">
+      <c r="B193" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="C193" s="79" t="s">
+      <c r="C193" s="78" t="s">
         <v>907</v>
       </c>
       <c r="D193" s="13">
@@ -20666,10 +21207,10 @@
       <c r="H193" s="16"/>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="75">
+      <c r="A194" s="74">
         <v>1087</v>
       </c>
-      <c r="B194" s="76" t="s">
+      <c r="B194" s="75" t="s">
         <v>896</v>
       </c>
       <c r="C194" s="60" t="s">
@@ -20688,13 +21229,13 @@
       <c r="H194" s="16"/>
     </row>
     <row r="195" spans="1:8" ht="16">
-      <c r="A195" s="73">
+      <c r="A195" s="72">
         <v>1088</v>
       </c>
-      <c r="B195" s="74" t="s">
+      <c r="B195" s="73" t="s">
         <v>910</v>
       </c>
-      <c r="C195" s="79" t="s">
+      <c r="C195" s="78" t="s">
         <v>171</v>
       </c>
       <c r="D195" s="13">
@@ -20710,10 +21251,10 @@
       <c r="H195" s="16"/>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="75">
+      <c r="A196" s="74">
         <v>1091</v>
       </c>
-      <c r="B196" s="76" t="s">
+      <c r="B196" s="75" t="s">
         <v>606</v>
       </c>
       <c r="C196" s="60" t="s">
@@ -20732,10 +21273,10 @@
       <c r="H196" s="16"/>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="73">
+      <c r="A197" s="72">
         <v>1095</v>
       </c>
-      <c r="B197" s="74" t="s">
+      <c r="B197" s="73" t="s">
         <v>913</v>
       </c>
       <c r="C197" s="60" t="s">
@@ -20754,10 +21295,10 @@
       <c r="H197" s="16"/>
     </row>
     <row r="198" spans="1:8" ht="29">
-      <c r="A198" s="75">
+      <c r="A198" s="74">
         <v>1101</v>
       </c>
-      <c r="B198" s="76" t="s">
+      <c r="B198" s="75" t="s">
         <v>987</v>
       </c>
       <c r="C198" s="60" t="s">
@@ -20776,13 +21317,13 @@
       <c r="H198" s="16"/>
     </row>
     <row r="199" spans="1:8" ht="32">
-      <c r="A199" s="73">
+      <c r="A199" s="72">
         <v>1102</v>
       </c>
-      <c r="B199" s="74" t="s">
+      <c r="B199" s="73" t="s">
         <v>698</v>
       </c>
-      <c r="C199" s="79" t="s">
+      <c r="C199" s="78" t="s">
         <v>634</v>
       </c>
       <c r="D199" s="13">
@@ -20798,13 +21339,13 @@
       <c r="H199" s="16"/>
     </row>
     <row r="200" spans="1:8" ht="29">
-      <c r="A200" s="75">
+      <c r="A200" s="74">
         <v>1110</v>
       </c>
-      <c r="B200" s="76" t="s">
+      <c r="B200" s="75" t="s">
         <v>684</v>
       </c>
-      <c r="C200" s="78" t="s">
+      <c r="C200" s="77" t="s">
         <v>134</v>
       </c>
       <c r="D200" s="13">
@@ -20820,13 +21361,13 @@
       <c r="H200" s="16"/>
     </row>
     <row r="201" spans="1:8" ht="32">
-      <c r="A201" s="73">
+      <c r="A201" s="72">
         <v>1125</v>
       </c>
-      <c r="B201" s="74" t="s">
+      <c r="B201" s="73" t="s">
         <v>951</v>
       </c>
-      <c r="C201" s="79" t="s">
+      <c r="C201" s="78" t="s">
         <v>576</v>
       </c>
       <c r="D201" s="13">
@@ -20842,13 +21383,13 @@
       <c r="H201" s="16"/>
     </row>
     <row r="202" spans="1:8" ht="29">
-      <c r="A202" s="75">
+      <c r="A202" s="74">
         <v>1131</v>
       </c>
-      <c r="B202" s="76" t="s">
+      <c r="B202" s="75" t="s">
         <v>952</v>
       </c>
-      <c r="C202" s="78" t="s">
+      <c r="C202" s="77" t="s">
         <v>829</v>
       </c>
       <c r="D202" s="13">
@@ -20864,13 +21405,13 @@
       <c r="H202" s="16"/>
     </row>
     <row r="203" spans="1:8" ht="32">
-      <c r="A203" s="73">
+      <c r="A203" s="72">
         <v>1136</v>
       </c>
-      <c r="B203" s="74" t="s">
+      <c r="B203" s="73" t="s">
         <v>900</v>
       </c>
-      <c r="C203" s="79" t="s">
+      <c r="C203" s="78" t="s">
         <v>901</v>
       </c>
       <c r="D203" s="13">
@@ -20886,13 +21427,13 @@
       <c r="H203" s="16"/>
     </row>
     <row r="204" spans="1:8" ht="16">
-      <c r="A204" s="75">
+      <c r="A204" s="74">
         <v>1138</v>
       </c>
-      <c r="B204" s="76" t="s">
+      <c r="B204" s="75" t="s">
         <v>915</v>
       </c>
-      <c r="C204" s="78" t="s">
+      <c r="C204" s="77" t="s">
         <v>157</v>
       </c>
       <c r="D204" s="13">
@@ -20908,10 +21449,10 @@
       <c r="H204" s="16"/>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="73">
+      <c r="A205" s="72">
         <v>1140</v>
       </c>
-      <c r="B205" s="74" t="s">
+      <c r="B205" s="73" t="s">
         <v>962</v>
       </c>
       <c r="C205" s="60" t="s">
@@ -20930,10 +21471,10 @@
       <c r="H205" s="16"/>
     </row>
     <row r="206" spans="1:8" ht="29">
-      <c r="A206" s="75">
+      <c r="A206" s="74">
         <v>1143</v>
       </c>
-      <c r="B206" s="76" t="s">
+      <c r="B206" s="75" t="s">
         <v>617</v>
       </c>
       <c r="C206" s="60" t="s">
@@ -20952,13 +21493,13 @@
       <c r="H206" s="16"/>
     </row>
     <row r="207" spans="1:8" ht="16">
-      <c r="A207" s="73">
+      <c r="A207" s="72">
         <v>1145</v>
       </c>
-      <c r="B207" s="74" t="s">
+      <c r="B207" s="73" t="s">
         <v>916</v>
       </c>
-      <c r="C207" s="79" t="s">
+      <c r="C207" s="78" t="s">
         <v>134</v>
       </c>
       <c r="D207" s="13">
@@ -20974,10 +21515,10 @@
       <c r="H207" s="16"/>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="75">
+      <c r="A208" s="74">
         <v>1146</v>
       </c>
-      <c r="B208" s="76" t="s">
+      <c r="B208" s="75" t="s">
         <v>599</v>
       </c>
       <c r="C208" s="60" t="s">
@@ -20996,10 +21537,10 @@
       <c r="H208" s="16"/>
     </row>
     <row r="209" spans="1:8" ht="29">
-      <c r="A209" s="73">
+      <c r="A209" s="72">
         <v>1153</v>
       </c>
-      <c r="B209" s="74" t="s">
+      <c r="B209" s="73" t="s">
         <v>902</v>
       </c>
       <c r="C209" s="60" t="s">
@@ -21018,10 +21559,10 @@
       <c r="H209" s="16"/>
     </row>
     <row r="210" spans="1:8" ht="29">
-      <c r="A210" s="75">
+      <c r="A210" s="74">
         <v>1155</v>
       </c>
-      <c r="B210" s="76" t="s">
+      <c r="B210" s="75" t="s">
         <v>920</v>
       </c>
       <c r="C210" s="60" t="s">
@@ -21040,13 +21581,13 @@
       <c r="H210" s="16"/>
     </row>
     <row r="211" spans="1:8" ht="16">
-      <c r="A211" s="73">
+      <c r="A211" s="72">
         <v>1162</v>
       </c>
-      <c r="B211" s="74" t="s">
+      <c r="B211" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="C211" s="79" t="s">
+      <c r="C211" s="78" t="s">
         <v>479</v>
       </c>
       <c r="D211" s="13">
@@ -21062,13 +21603,13 @@
       <c r="H211" s="16"/>
     </row>
     <row r="212" spans="1:8" ht="43.5">
-      <c r="A212" s="75">
+      <c r="A212" s="74">
         <v>1170</v>
       </c>
-      <c r="B212" s="76" t="s">
+      <c r="B212" s="75" t="s">
         <v>917</v>
       </c>
-      <c r="C212" s="78" t="s">
+      <c r="C212" s="77" t="s">
         <v>608</v>
       </c>
       <c r="D212" s="13">
@@ -21084,10 +21625,10 @@
       <c r="H212" s="16"/>
     </row>
     <row r="213" spans="1:8" ht="29">
-      <c r="A213" s="73">
+      <c r="A213" s="72">
         <v>1192</v>
       </c>
-      <c r="B213" s="74" t="s">
+      <c r="B213" s="73" t="s">
         <v>957</v>
       </c>
       <c r="C213" s="60" t="s">
@@ -21106,10 +21647,10 @@
       <c r="H213" s="16"/>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="75">
+      <c r="A214" s="74">
         <v>1197</v>
       </c>
-      <c r="B214" s="76" t="s">
+      <c r="B214" s="75" t="s">
         <v>605</v>
       </c>
       <c r="C214" s="60" t="s">
@@ -21128,13 +21669,13 @@
       <c r="H214" s="16"/>
     </row>
     <row r="215" spans="1:8" ht="32">
-      <c r="A215" s="73">
+      <c r="A215" s="72">
         <v>1203</v>
       </c>
-      <c r="B215" s="74" t="s">
+      <c r="B215" s="73" t="s">
         <v>933</v>
       </c>
-      <c r="C215" s="79" t="s">
+      <c r="C215" s="78" t="s">
         <v>934</v>
       </c>
       <c r="D215" s="13">
@@ -21150,10 +21691,10 @@
       <c r="H215" s="16"/>
     </row>
     <row r="216" spans="1:8" ht="29">
-      <c r="A216" s="75">
+      <c r="A216" s="74">
         <v>1209</v>
       </c>
-      <c r="B216" s="76" t="s">
+      <c r="B216" s="75" t="s">
         <v>666</v>
       </c>
       <c r="C216" s="60" t="s">
@@ -21172,13 +21713,13 @@
       <c r="H216" s="16"/>
     </row>
     <row r="217" spans="1:8" ht="43.5">
-      <c r="A217" s="73">
+      <c r="A217" s="72">
         <v>1218</v>
       </c>
-      <c r="B217" s="74" t="s">
+      <c r="B217" s="73" t="s">
         <v>922</v>
       </c>
-      <c r="C217" s="79" t="s">
+      <c r="C217" s="78" t="s">
         <v>379</v>
       </c>
       <c r="D217" s="13">
@@ -21194,10 +21735,10 @@
       <c r="H217" s="16"/>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="75">
+      <c r="A218" s="74">
         <v>1219</v>
       </c>
-      <c r="B218" s="76" t="s">
+      <c r="B218" s="75" t="s">
         <v>923</v>
       </c>
       <c r="C218" s="60" t="s">
@@ -21216,10 +21757,10 @@
       <c r="H218" s="16"/>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="73">
+      <c r="A219" s="72">
         <v>1223</v>
       </c>
-      <c r="B219" s="74" t="s">
+      <c r="B219" s="73" t="s">
         <v>925</v>
       </c>
       <c r="C219" s="60" t="s">
@@ -21238,10 +21779,10 @@
       <c r="H219" s="16"/>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="75">
+      <c r="A220" s="74">
         <v>1229</v>
       </c>
-      <c r="B220" s="76" t="s">
+      <c r="B220" s="75" t="s">
         <v>928</v>
       </c>
       <c r="C220" s="60" t="s">
@@ -21260,13 +21801,13 @@
       <c r="H220" s="16"/>
     </row>
     <row r="221" spans="1:8" ht="16">
-      <c r="A221" s="73">
+      <c r="A221" s="72">
         <v>1231</v>
       </c>
-      <c r="B221" s="74" t="s">
+      <c r="B221" s="73" t="s">
         <v>912</v>
       </c>
-      <c r="C221" s="79" t="s">
+      <c r="C221" s="78" t="s">
         <v>650</v>
       </c>
       <c r="D221" s="13">
@@ -21282,13 +21823,13 @@
       <c r="H221" s="16"/>
     </row>
     <row r="222" spans="1:8" ht="32">
-      <c r="A222" s="75">
+      <c r="A222" s="74">
         <v>1235</v>
       </c>
-      <c r="B222" s="76" t="s">
+      <c r="B222" s="75" t="s">
         <v>979</v>
       </c>
-      <c r="C222" s="78" t="s">
+      <c r="C222" s="77" t="s">
         <v>980</v>
       </c>
       <c r="D222" s="13">
@@ -21304,13 +21845,13 @@
       <c r="H222" s="16"/>
     </row>
     <row r="223" spans="1:8" ht="32">
-      <c r="A223" s="73">
+      <c r="A223" s="72">
         <v>1236</v>
       </c>
-      <c r="B223" s="74" t="s">
+      <c r="B223" s="73" t="s">
         <v>978</v>
       </c>
-      <c r="C223" s="79" t="s">
+      <c r="C223" s="78" t="s">
         <v>132</v>
       </c>
       <c r="D223" s="13">
@@ -21326,13 +21867,13 @@
       <c r="H223" s="16"/>
     </row>
     <row r="224" spans="1:8" ht="29">
-      <c r="A224" s="75">
+      <c r="A224" s="74">
         <v>1237</v>
       </c>
-      <c r="B224" s="76" t="s">
+      <c r="B224" s="75" t="s">
         <v>926</v>
       </c>
-      <c r="C224" s="78" t="s">
+      <c r="C224" s="77" t="s">
         <v>161</v>
       </c>
       <c r="D224" s="13">
@@ -21346,13 +21887,13 @@
       <c r="H224" s="16"/>
     </row>
     <row r="225" spans="1:8" ht="32">
-      <c r="A225" s="73">
+      <c r="A225" s="72">
         <v>1240</v>
       </c>
-      <c r="B225" s="74" t="s">
+      <c r="B225" s="73" t="s">
         <v>927</v>
       </c>
-      <c r="C225" s="79" t="s">
+      <c r="C225" s="78" t="s">
         <v>328</v>
       </c>
       <c r="D225" s="13">
@@ -21366,13 +21907,13 @@
       <c r="H225" s="16"/>
     </row>
     <row r="226" spans="1:8" ht="16">
-      <c r="A226" s="75">
+      <c r="A226" s="74">
         <v>1244</v>
       </c>
-      <c r="B226" s="76" t="s">
+      <c r="B226" s="75" t="s">
         <v>966</v>
       </c>
-      <c r="C226" s="78" t="s">
+      <c r="C226" s="77" t="s">
         <v>967</v>
       </c>
       <c r="D226" s="13">
@@ -21388,10 +21929,10 @@
       <c r="H226" s="16"/>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="73">
+      <c r="A227" s="72">
         <v>1254</v>
       </c>
-      <c r="B227" s="74" t="s">
+      <c r="B227" s="73" t="s">
         <v>660</v>
       </c>
       <c r="C227" s="60" t="s">
@@ -21410,10 +21951,10 @@
       <c r="H227" s="16"/>
     </row>
     <row r="228" spans="1:8" ht="29">
-      <c r="A228" s="75">
+      <c r="A228" s="74">
         <v>1255</v>
       </c>
-      <c r="B228" s="76" t="s">
+      <c r="B228" s="75" t="s">
         <v>994</v>
       </c>
       <c r="C228" s="60" t="s">
@@ -21432,13 +21973,13 @@
       <c r="H228" s="16"/>
     </row>
     <row r="229" spans="1:8" ht="29">
-      <c r="A229" s="73">
+      <c r="A229" s="72">
         <v>1265</v>
       </c>
-      <c r="B229" s="74" t="s">
+      <c r="B229" s="73" t="s">
         <v>678</v>
       </c>
-      <c r="C229" s="80"/>
+      <c r="C229" s="79"/>
       <c r="D229" s="13">
         <v>1270</v>
       </c>
@@ -21452,13 +21993,13 @@
       <c r="H229" s="16"/>
     </row>
     <row r="230" spans="1:8" ht="29">
-      <c r="A230" s="75">
+      <c r="A230" s="74">
         <v>1270</v>
       </c>
-      <c r="B230" s="76" t="s">
+      <c r="B230" s="75" t="s">
         <v>937</v>
       </c>
-      <c r="C230" s="81"/>
+      <c r="C230" s="80"/>
       <c r="D230" s="13">
         <v>1277</v>
       </c>
@@ -21472,13 +22013,13 @@
       <c r="H230" s="16"/>
     </row>
     <row r="231" spans="1:8" ht="29">
-      <c r="A231" s="73">
+      <c r="A231" s="72">
         <v>1277</v>
       </c>
-      <c r="B231" s="74" t="s">
+      <c r="B231" s="73" t="s">
         <v>935</v>
       </c>
-      <c r="C231" s="79" t="s">
+      <c r="C231" s="78" t="s">
         <v>130</v>
       </c>
       <c r="D231" s="13">
@@ -21494,10 +22035,10 @@
       <c r="H231" s="16"/>
     </row>
     <row r="232" spans="1:8" ht="29">
-      <c r="A232" s="75">
+      <c r="A232" s="74">
         <v>1283</v>
       </c>
-      <c r="B232" s="76" t="s">
+      <c r="B232" s="75" t="s">
         <v>1002</v>
       </c>
       <c r="C232" s="60" t="s">
@@ -21516,10 +22057,10 @@
       <c r="H232" s="16"/>
     </row>
     <row r="233" spans="1:8" ht="43.5">
-      <c r="A233" s="73">
+      <c r="A233" s="72">
         <v>1284</v>
       </c>
-      <c r="B233" s="74" t="s">
+      <c r="B233" s="73" t="s">
         <v>943</v>
       </c>
       <c r="C233" s="60" t="s">
@@ -21538,13 +22079,13 @@
       <c r="H233" s="16"/>
     </row>
     <row r="234" spans="1:8" ht="43.5">
-      <c r="A234" s="75">
+      <c r="A234" s="74">
         <v>1292</v>
       </c>
-      <c r="B234" s="76" t="s">
+      <c r="B234" s="75" t="s">
         <v>938</v>
       </c>
-      <c r="C234" s="78" t="s">
+      <c r="C234" s="77" t="s">
         <v>249</v>
       </c>
       <c r="D234" s="13">
@@ -21560,10 +22101,10 @@
       <c r="H234" s="16"/>
     </row>
     <row r="235" spans="1:8" ht="29">
-      <c r="A235" s="73">
+      <c r="A235" s="72">
         <v>1293</v>
       </c>
-      <c r="B235" s="74" t="s">
+      <c r="B235" s="73" t="s">
         <v>939</v>
       </c>
       <c r="C235" s="60" t="s">
@@ -21582,13 +22123,13 @@
       <c r="H235" s="16"/>
     </row>
     <row r="236" spans="1:8" ht="29">
-      <c r="A236" s="75">
+      <c r="A236" s="74">
         <v>1296</v>
       </c>
-      <c r="B236" s="76" t="s">
+      <c r="B236" s="75" t="s">
         <v>940</v>
       </c>
-      <c r="C236" s="78" t="s">
+      <c r="C236" s="77" t="s">
         <v>219</v>
       </c>
       <c r="D236" s="13">
@@ -21604,10 +22145,10 @@
       <c r="H236" s="16"/>
     </row>
     <row r="237" spans="1:8" ht="29">
-      <c r="A237" s="73">
+      <c r="A237" s="72">
         <v>1312</v>
       </c>
-      <c r="B237" s="74" t="s">
+      <c r="B237" s="73" t="s">
         <v>977</v>
       </c>
       <c r="C237" s="60" t="s">
@@ -21626,10 +22167,10 @@
       <c r="H237" s="16"/>
     </row>
     <row r="238" spans="1:8" ht="29">
-      <c r="A238" s="75">
+      <c r="A238" s="74">
         <v>1313</v>
       </c>
-      <c r="B238" s="76" t="s">
+      <c r="B238" s="75" t="s">
         <v>914</v>
       </c>
       <c r="C238" s="60" t="s">
@@ -21648,10 +22189,10 @@
       <c r="H238" s="16"/>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="73">
+      <c r="A239" s="72">
         <v>1314</v>
       </c>
-      <c r="B239" s="74" t="s">
+      <c r="B239" s="73" t="s">
         <v>659</v>
       </c>
       <c r="C239" s="60" t="s">
@@ -21670,10 +22211,10 @@
       <c r="H239" s="16"/>
     </row>
     <row r="240" spans="1:8" ht="29">
-      <c r="A240" s="75">
+      <c r="A240" s="74">
         <v>1320</v>
       </c>
-      <c r="B240" s="76" t="s">
+      <c r="B240" s="75" t="s">
         <v>941</v>
       </c>
       <c r="C240" s="60" t="s">
@@ -21692,10 +22233,10 @@
       <c r="H240" s="16"/>
     </row>
     <row r="241" spans="1:8" ht="29">
-      <c r="A241" s="73">
+      <c r="A241" s="72">
         <v>1325</v>
       </c>
-      <c r="B241" s="74" t="s">
+      <c r="B241" s="73" t="s">
         <v>948</v>
       </c>
       <c r="C241" s="60" t="s">
@@ -21714,13 +22255,13 @@
       <c r="H241" s="16"/>
     </row>
     <row r="242" spans="1:8" ht="29">
-      <c r="A242" s="75">
+      <c r="A242" s="74">
         <v>1326</v>
       </c>
-      <c r="B242" s="76" t="s">
+      <c r="B242" s="75" t="s">
         <v>965</v>
       </c>
-      <c r="C242" s="78" t="s">
+      <c r="C242" s="77" t="s">
         <v>593</v>
       </c>
       <c r="E242" s="14"/>
@@ -21729,9 +22270,9 @@
       <c r="H242" s="16"/>
     </row>
     <row r="243" spans="1:8" ht="16">
-      <c r="A243" s="73"/>
-      <c r="B243" s="74"/>
-      <c r="C243" s="79"/>
+      <c r="A243" s="72"/>
+      <c r="B243" s="73"/>
+      <c r="C243" s="78"/>
       <c r="D243" s="13">
         <v>1342</v>
       </c>
@@ -21745,10 +22286,10 @@
       <c r="H243" s="16"/>
     </row>
     <row r="244" spans="1:8" ht="29">
-      <c r="A244" s="75">
+      <c r="A244" s="74">
         <v>1342</v>
       </c>
-      <c r="B244" s="76" t="s">
+      <c r="B244" s="75" t="s">
         <v>963</v>
       </c>
       <c r="C244" s="60" t="s">
@@ -21767,10 +22308,10 @@
       <c r="H244" s="16"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="73">
+      <c r="A245" s="72">
         <v>1345</v>
       </c>
-      <c r="B245" s="74" t="s">
+      <c r="B245" s="73" t="s">
         <v>942</v>
       </c>
       <c r="C245" s="60" t="s">
@@ -21789,13 +22330,13 @@
       <c r="H245" s="16"/>
     </row>
     <row r="246" spans="1:8" ht="16">
-      <c r="A246" s="75">
+      <c r="A246" s="74">
         <v>1352</v>
       </c>
-      <c r="B246" s="76" t="s">
+      <c r="B246" s="75" t="s">
         <v>949</v>
       </c>
-      <c r="C246" s="78" t="s">
+      <c r="C246" s="77" t="s">
         <v>950</v>
       </c>
       <c r="D246" s="13">
@@ -21811,13 +22352,13 @@
       <c r="H246" s="16"/>
     </row>
     <row r="247" spans="1:8" ht="16">
-      <c r="A247" s="73">
+      <c r="A247" s="72">
         <v>1366</v>
       </c>
-      <c r="B247" s="74" t="s">
+      <c r="B247" s="73" t="s">
         <v>953</v>
       </c>
-      <c r="C247" s="79" t="s">
+      <c r="C247" s="78" t="s">
         <v>121</v>
       </c>
       <c r="D247" s="13">
@@ -21833,10 +22374,10 @@
       <c r="H247" s="16"/>
     </row>
     <row r="248" spans="1:8" ht="29">
-      <c r="A248" s="75">
+      <c r="A248" s="74">
         <v>1368</v>
       </c>
-      <c r="B248" s="76" t="s">
+      <c r="B248" s="75" t="s">
         <v>954</v>
       </c>
       <c r="C248" s="60" t="s">
@@ -21855,10 +22396,10 @@
       <c r="H248" s="16"/>
     </row>
     <row r="249" spans="1:8" ht="29">
-      <c r="A249" s="73">
+      <c r="A249" s="72">
         <v>1376</v>
       </c>
-      <c r="B249" s="74" t="s">
+      <c r="B249" s="73" t="s">
         <v>958</v>
       </c>
       <c r="C249" s="60" t="s">
@@ -21877,10 +22418,10 @@
       <c r="H249" s="16"/>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="75">
+      <c r="A250" s="74">
         <v>1377</v>
       </c>
-      <c r="B250" s="76" t="s">
+      <c r="B250" s="75" t="s">
         <v>959</v>
       </c>
       <c r="C250" s="60" t="s">
@@ -21899,10 +22440,10 @@
       <c r="H250" s="16"/>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="73">
+      <c r="A251" s="72">
         <v>1395</v>
       </c>
-      <c r="B251" s="74" t="s">
+      <c r="B251" s="73" t="s">
         <v>975</v>
       </c>
       <c r="C251" s="60" t="s">
@@ -21921,10 +22462,10 @@
       <c r="H251" s="16"/>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="75">
+      <c r="A252" s="74">
         <v>1406</v>
       </c>
-      <c r="B252" s="76" t="s">
+      <c r="B252" s="75" t="s">
         <v>964</v>
       </c>
       <c r="C252" s="60" t="s">
@@ -21943,13 +22484,13 @@
       <c r="H252" s="16"/>
     </row>
     <row r="253" spans="1:8" ht="32">
-      <c r="A253" s="73">
+      <c r="A253" s="72">
         <v>1423</v>
       </c>
-      <c r="B253" s="74" t="s">
+      <c r="B253" s="73" t="s">
         <v>971</v>
       </c>
-      <c r="C253" s="79" t="s">
+      <c r="C253" s="78" t="s">
         <v>907</v>
       </c>
       <c r="D253" s="13">
@@ -21965,13 +22506,13 @@
       <c r="H253" s="16"/>
     </row>
     <row r="254" spans="1:8" ht="43.5">
-      <c r="A254" s="75">
+      <c r="A254" s="74">
         <v>1438</v>
       </c>
-      <c r="B254" s="76" t="s">
+      <c r="B254" s="75" t="s">
         <v>969</v>
       </c>
-      <c r="C254" s="78" t="s">
+      <c r="C254" s="77" t="s">
         <v>970</v>
       </c>
       <c r="D254" s="13">
@@ -21987,10 +22528,10 @@
       <c r="H254" s="16"/>
     </row>
     <row r="255" spans="1:8" ht="29">
-      <c r="A255" s="73">
+      <c r="A255" s="72">
         <v>1441</v>
       </c>
-      <c r="B255" s="74" t="s">
+      <c r="B255" s="73" t="s">
         <v>972</v>
       </c>
       <c r="C255" s="60" t="s">
@@ -22009,10 +22550,10 @@
       <c r="H255" s="16"/>
     </row>
     <row r="256" spans="1:8" ht="29">
-      <c r="A256" s="75">
+      <c r="A256" s="74">
         <v>1444</v>
       </c>
-      <c r="B256" s="76" t="s">
+      <c r="B256" s="75" t="s">
         <v>973</v>
       </c>
       <c r="C256" s="60" t="s">
@@ -22031,10 +22572,10 @@
       <c r="H256" s="16"/>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="73">
+      <c r="A257" s="72">
         <v>1463</v>
       </c>
-      <c r="B257" s="74" t="s">
+      <c r="B257" s="73" t="s">
         <v>974</v>
       </c>
       <c r="C257" s="60" t="s">
@@ -22053,13 +22594,13 @@
       <c r="H257" s="16"/>
     </row>
     <row r="258" spans="1:8" ht="29">
-      <c r="A258" s="75">
+      <c r="A258" s="74">
         <v>1466</v>
       </c>
-      <c r="B258" s="76" t="s">
+      <c r="B258" s="75" t="s">
         <v>981</v>
       </c>
-      <c r="C258" s="78" t="s">
+      <c r="C258" s="77" t="s">
         <v>134</v>
       </c>
       <c r="D258" s="13">
@@ -22075,10 +22616,10 @@
       <c r="H258" s="16"/>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="73">
+      <c r="A259" s="72">
         <v>1470</v>
       </c>
-      <c r="B259" s="74" t="s">
+      <c r="B259" s="73" t="s">
         <v>986</v>
       </c>
       <c r="C259" s="60" t="s">
@@ -22097,10 +22638,10 @@
       <c r="H259" s="16"/>
     </row>
     <row r="260" spans="1:8" ht="43.5">
-      <c r="A260" s="75">
+      <c r="A260" s="74">
         <v>1477</v>
       </c>
-      <c r="B260" s="76" t="s">
+      <c r="B260" s="75" t="s">
         <v>976</v>
       </c>
       <c r="C260" s="60" t="s">
@@ -22119,10 +22660,10 @@
       <c r="H260" s="16"/>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="73">
+      <c r="A261" s="72">
         <v>1483</v>
       </c>
-      <c r="B261" s="74" t="s">
+      <c r="B261" s="73" t="s">
         <v>919</v>
       </c>
       <c r="C261" s="60" t="s">
@@ -22141,13 +22682,13 @@
       <c r="H261" s="16"/>
     </row>
     <row r="262" spans="1:8" ht="16">
-      <c r="A262" s="75">
+      <c r="A262" s="74">
         <v>1499</v>
       </c>
-      <c r="B262" s="76" t="s">
+      <c r="B262" s="75" t="s">
         <v>983</v>
       </c>
-      <c r="C262" s="78" t="s">
+      <c r="C262" s="77" t="s">
         <v>970</v>
       </c>
       <c r="D262" s="13">
@@ -22163,10 +22704,10 @@
       <c r="H262" s="16"/>
     </row>
     <row r="263" spans="1:8" ht="29">
-      <c r="A263" s="73">
+      <c r="A263" s="72">
         <v>1504</v>
       </c>
-      <c r="B263" s="74" t="s">
+      <c r="B263" s="73" t="s">
         <v>985</v>
       </c>
       <c r="C263" s="60" t="s">
@@ -22185,10 +22726,10 @@
       <c r="H263" s="16"/>
     </row>
     <row r="264" spans="1:8" ht="29">
-      <c r="A264" s="75">
+      <c r="A264" s="74">
         <v>1514</v>
       </c>
-      <c r="B264" s="76" t="s">
+      <c r="B264" s="75" t="s">
         <v>921</v>
       </c>
       <c r="C264" s="60" t="s">
@@ -22207,13 +22748,13 @@
       <c r="H264" s="16"/>
     </row>
     <row r="265" spans="1:8" ht="29">
-      <c r="A265" s="73">
+      <c r="A265" s="72">
         <v>1548</v>
       </c>
-      <c r="B265" s="74" t="s">
+      <c r="B265" s="73" t="s">
         <v>990</v>
       </c>
-      <c r="C265" s="79" t="s">
+      <c r="C265" s="78" t="s">
         <v>991</v>
       </c>
       <c r="D265" s="13">
@@ -22229,10 +22770,10 @@
       <c r="H265" s="16"/>
     </row>
     <row r="266" spans="1:8" ht="29">
-      <c r="A266" s="75">
+      <c r="A266" s="74">
         <v>1553</v>
       </c>
-      <c r="B266" s="76" t="s">
+      <c r="B266" s="75" t="s">
         <v>989</v>
       </c>
       <c r="C266" s="60" t="s">
@@ -22251,10 +22792,10 @@
       <c r="H266" s="16"/>
     </row>
     <row r="267" spans="1:8" ht="29">
-      <c r="A267" s="73">
+      <c r="A267" s="72">
         <v>1592</v>
       </c>
-      <c r="B267" s="74" t="s">
+      <c r="B267" s="73" t="s">
         <v>992</v>
       </c>
       <c r="C267" s="60" t="s">
@@ -22273,13 +22814,13 @@
       <c r="H267" s="16"/>
     </row>
     <row r="268" spans="1:8" ht="29">
-      <c r="A268" s="75">
+      <c r="A268" s="74">
         <v>1610</v>
       </c>
-      <c r="B268" s="76" t="s">
+      <c r="B268" s="75" t="s">
         <v>998</v>
       </c>
-      <c r="C268" s="78" t="s">
+      <c r="C268" s="77" t="s">
         <v>999</v>
       </c>
       <c r="D268" s="13">
@@ -22295,13 +22836,13 @@
       <c r="H268" s="16"/>
     </row>
     <row r="269" spans="1:8" ht="29">
-      <c r="A269" s="73">
+      <c r="A269" s="72">
         <v>1616</v>
       </c>
-      <c r="B269" s="74" t="s">
+      <c r="B269" s="73" t="s">
         <v>996</v>
       </c>
-      <c r="C269" s="79" t="s">
+      <c r="C269" s="78" t="s">
         <v>997</v>
       </c>
       <c r="D269" s="20">
@@ -22315,13 +22856,13 @@
       <c r="H269" s="16"/>
     </row>
     <row r="270" spans="1:8" ht="32">
-      <c r="A270" s="95">
+      <c r="A270" s="94">
         <v>1631</v>
       </c>
-      <c r="B270" s="86" t="s">
+      <c r="B270" s="85" t="s">
         <v>1000</v>
       </c>
-      <c r="C270" s="78" t="s">
+      <c r="C270" s="77" t="s">
         <v>1417</v>
       </c>
       <c r="D270" s="13">
@@ -22335,13 +22876,13 @@
       <c r="H270" s="16"/>
     </row>
     <row r="271" spans="1:8" ht="29">
-      <c r="A271" s="73">
+      <c r="A271" s="72">
         <v>1642</v>
       </c>
-      <c r="B271" s="74" t="s">
+      <c r="B271" s="73" t="s">
         <v>1003</v>
       </c>
-      <c r="C271" s="79" t="s">
+      <c r="C271" s="78" t="s">
         <v>186</v>
       </c>
       <c r="D271" s="20">
@@ -22352,13 +22893,13 @@
       </c>
     </row>
     <row r="272" spans="1:8" ht="32">
-      <c r="A272" s="75">
+      <c r="A272" s="74">
         <v>1658</v>
       </c>
-      <c r="B272" s="86" t="s">
+      <c r="B272" s="85" t="s">
         <v>1004</v>
       </c>
-      <c r="C272" s="78" t="s">
+      <c r="C272" s="77" t="s">
         <v>1005</v>
       </c>
       <c r="D272" s="13">
@@ -22369,13 +22910,13 @@
       </c>
     </row>
     <row r="273" spans="1:6" ht="29">
-      <c r="A273" s="73">
+      <c r="A273" s="72">
         <v>1697</v>
       </c>
-      <c r="B273" s="74" t="s">
+      <c r="B273" s="73" t="s">
         <v>1006</v>
       </c>
-      <c r="C273" s="79" t="s">
+      <c r="C273" s="78" t="s">
         <v>1007</v>
       </c>
       <c r="E273" s="14"/>
@@ -27058,8 +27599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I384"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -27075,7 +27616,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>66</v>
       </c>
     </row>
@@ -27147,7 +27688,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -27156,7 +27697,7 @@
       <c r="C9" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="87" t="s">
         <v>117</v>
       </c>
       <c r="E9" s="58" t="s">
@@ -27165,7 +27706,7 @@
       <c r="F9" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G9" s="88" t="s">
+      <c r="G9" s="87" t="s">
         <v>1008</v>
       </c>
       <c r="I9" s="55" t="s">
@@ -27191,7 +27732,7 @@
       <c r="F10" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>1309</v>
       </c>
       <c r="I10" s="55" t="s">
@@ -27199,7 +27740,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="96">
+      <c r="A11" s="95">
         <v>1099</v>
       </c>
       <c r="B11" s="62" t="s">
@@ -27217,7 +27758,7 @@
       <c r="F11" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="83" t="s">
         <v>1314</v>
       </c>
       <c r="I11" s="55" t="s">
@@ -27225,7 +27766,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="96">
+      <c r="A12" s="95">
         <v>560</v>
       </c>
       <c r="B12" s="62" t="s">
@@ -27243,7 +27784,7 @@
       <c r="F12" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="83" t="s">
         <v>1315</v>
       </c>
       <c r="I12" s="55" t="s">
@@ -27251,7 +27792,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="96">
+      <c r="A13" s="95">
         <v>564</v>
       </c>
       <c r="B13" s="62" t="s">
@@ -27266,7 +27807,7 @@
       <c r="F13" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="83" t="s">
         <v>1281</v>
       </c>
       <c r="I13" s="55" t="s">
@@ -27274,7 +27815,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="97">
+      <c r="A14" s="96">
         <v>1708</v>
       </c>
       <c r="B14" s="57" t="s">
@@ -27334,7 +27875,7 @@
       <c r="F16" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="83" t="s">
         <v>1316</v>
       </c>
       <c r="I16" s="55" t="s">
@@ -27360,7 +27901,7 @@
       <c r="F17" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="83" t="s">
         <v>1317</v>
       </c>
       <c r="I17" s="55" t="s">
@@ -27368,7 +27909,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="96">
+      <c r="A18" s="95">
         <v>18</v>
       </c>
       <c r="B18" s="62" t="s">
@@ -27386,7 +27927,7 @@
       <c r="F18" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="83" t="s">
         <v>1318</v>
       </c>
       <c r="I18" s="55" t="s">
@@ -27412,7 +27953,7 @@
       <c r="F19" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="83" t="s">
         <v>1319</v>
       </c>
       <c r="I19" s="55" t="s">
@@ -27438,7 +27979,7 @@
       <c r="F20" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="83" t="s">
         <v>1310</v>
       </c>
       <c r="I20" s="55" t="s">
@@ -27464,7 +28005,7 @@
       <c r="F21" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="G21" s="83" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -27492,7 +28033,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="96">
+      <c r="A23" s="95">
         <v>6</v>
       </c>
       <c r="B23" s="62" t="s">
@@ -27510,12 +28051,12 @@
       <c r="F23" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G23" s="84" t="s">
+      <c r="G23" s="83" t="s">
         <v>1323</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="96">
+      <c r="A24" s="95">
         <v>3</v>
       </c>
       <c r="B24" s="62" t="s">
@@ -27533,12 +28074,12 @@
       <c r="F24" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G24" s="84" t="s">
+      <c r="G24" s="83" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="98">
+      <c r="A25" s="97">
         <v>11</v>
       </c>
       <c r="B25" s="62" t="s">
@@ -27556,12 +28097,12 @@
       <c r="F25" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G25" s="84" t="s">
+      <c r="G25" s="83" t="s">
         <v>1313</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="96">
+      <c r="A26" s="95">
         <v>14</v>
       </c>
       <c r="B26" s="62" t="s">
@@ -27576,12 +28117,12 @@
       <c r="F26" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G26" s="84" t="s">
+      <c r="G26" s="83" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="96">
+      <c r="A27" s="95">
         <v>26</v>
       </c>
       <c r="B27" s="62" t="s">
@@ -27596,12 +28137,12 @@
       <c r="F27" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G27" s="84" t="s">
+      <c r="G27" s="83" t="s">
         <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="96">
+      <c r="A28" s="95">
         <v>27</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -27616,12 +28157,12 @@
       <c r="F28" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="83" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="96">
+      <c r="A29" s="95">
         <v>28</v>
       </c>
       <c r="B29" s="62" t="s">
@@ -27636,12 +28177,12 @@
       <c r="F29" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G29" s="84" t="s">
+      <c r="G29" s="83" t="s">
         <v>1324</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="96">
+      <c r="A30" s="95">
         <v>30</v>
       </c>
       <c r="B30" s="62" t="s">
@@ -27656,12 +28197,12 @@
       <c r="F30" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G30" s="87" t="s">
+      <c r="G30" s="86" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="99">
+      <c r="A31" s="98">
         <v>20</v>
       </c>
       <c r="B31" s="62" t="s">
@@ -27676,12 +28217,12 @@
       <c r="F31" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G31" s="84" t="s">
+      <c r="G31" s="83" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="99">
+      <c r="A32" s="98">
         <v>22</v>
       </c>
       <c r="B32" s="62" t="s">
@@ -27696,12 +28237,12 @@
       <c r="F32" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G32" s="84" t="s">
+      <c r="G32" s="83" t="s">
         <v>1379</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="100">
+      <c r="A33" s="99">
         <v>31</v>
       </c>
       <c r="B33" s="59" t="s">
@@ -27716,12 +28257,12 @@
       <c r="F33" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="83" t="s">
         <v>1329</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="100">
+      <c r="A34" s="99">
         <v>33</v>
       </c>
       <c r="B34" s="59" t="s">
@@ -27736,12 +28277,12 @@
       <c r="F34" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G34" s="84" t="s">
+      <c r="G34" s="83" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="100">
+      <c r="A35" s="99">
         <v>34</v>
       </c>
       <c r="B35" s="59" t="s">
@@ -27756,12 +28297,12 @@
       <c r="F35" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G35" s="84" t="s">
+      <c r="G35" s="83" t="s">
         <v>1335</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="99">
+      <c r="A36" s="98">
         <v>35</v>
       </c>
       <c r="B36" s="62" t="s">
@@ -27776,12 +28317,12 @@
       <c r="F36" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G36" s="84" t="s">
+      <c r="G36" s="83" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="100">
+      <c r="A37" s="99">
         <v>38</v>
       </c>
       <c r="B37" s="59" t="s">
@@ -27796,12 +28337,12 @@
       <c r="F37" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G37" s="84" t="s">
+      <c r="G37" s="83" t="s">
         <v>1336</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="100">
+      <c r="A38" s="99">
         <v>39</v>
       </c>
       <c r="B38" s="59" t="s">
@@ -27816,12 +28357,12 @@
       <c r="F38" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G38" s="84" t="s">
+      <c r="G38" s="83" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="100">
+      <c r="A39" s="99">
         <v>40</v>
       </c>
       <c r="B39" s="59" t="s">
@@ -27836,12 +28377,12 @@
       <c r="F39" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G39" s="84" t="s">
+      <c r="G39" s="83" t="s">
         <v>1338</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="100">
+      <c r="A40" s="99">
         <v>48</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -27856,12 +28397,12 @@
       <c r="F40" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G40" s="84" t="s">
+      <c r="G40" s="83" t="s">
         <v>1340</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
-      <c r="A41" s="101">
+      <c r="A41" s="100">
         <v>45</v>
       </c>
       <c r="B41" s="62" t="s">
@@ -27876,7 +28417,7 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="100">
+      <c r="A42" s="99">
         <v>41</v>
       </c>
       <c r="B42" s="59" t="s">
@@ -27891,12 +28432,12 @@
       <c r="F42" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G42" s="84" t="s">
+      <c r="G42" s="83" t="s">
         <v>1342</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="100">
+      <c r="A43" s="99">
         <v>49</v>
       </c>
       <c r="B43" s="59" t="s">
@@ -27911,12 +28452,12 @@
       <c r="F43" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G43" s="84" t="s">
+      <c r="G43" s="83" t="s">
         <v>1343</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="102">
+      <c r="A44" s="101">
         <v>54</v>
       </c>
       <c r="B44" s="62" t="s">
@@ -27931,12 +28472,12 @@
       <c r="F44" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G44" s="84" t="s">
+      <c r="G44" s="83" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="101">
+      <c r="A45" s="100">
         <v>55</v>
       </c>
       <c r="B45" s="62" t="s">
@@ -27951,15 +28492,15 @@
       <c r="F45" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G45" s="84" t="s">
+      <c r="G45" s="83" t="s">
         <v>1345</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
-      <c r="A46" s="103">
+      <c r="A46" s="102">
         <v>57</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D46" s="32" t="s">
@@ -27971,12 +28512,12 @@
       <c r="F46" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G46" s="84" t="s">
+      <c r="G46" s="83" t="s">
         <v>1348</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="102">
+      <c r="A47" s="101">
         <v>58</v>
       </c>
       <c r="B47" s="62" t="s">
@@ -27993,7 +28534,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="102">
+      <c r="A48" s="101">
         <v>59</v>
       </c>
       <c r="B48" s="62" t="s">
@@ -28008,12 +28549,12 @@
       <c r="F48" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G48" s="84" t="s">
+      <c r="G48" s="83" t="s">
         <v>1351</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="102">
+      <c r="A49" s="101">
         <v>66</v>
       </c>
       <c r="B49" s="62" t="s">
@@ -28028,12 +28569,12 @@
       <c r="F49" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G49" s="84" t="s">
+      <c r="G49" s="83" t="s">
         <v>1352</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="103">
+      <c r="A50" s="102">
         <v>68</v>
       </c>
       <c r="B50" s="62" t="s">
@@ -28046,12 +28587,12 @@
         <v>5</v>
       </c>
       <c r="F50" s="34"/>
-      <c r="G50" s="84" t="s">
+      <c r="G50" s="83" t="s">
         <v>1353</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
-      <c r="A51" s="100">
+      <c r="A51" s="99">
         <v>71</v>
       </c>
       <c r="B51" s="59" t="s">
@@ -28066,12 +28607,12 @@
       <c r="F51" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G51" s="84" t="s">
+      <c r="G51" s="83" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
-      <c r="A52" s="100">
+      <c r="A52" s="99">
         <v>73</v>
       </c>
       <c r="B52" s="59" t="s">
@@ -28086,12 +28627,12 @@
       <c r="F52" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G52" s="84" t="s">
+      <c r="G52" s="83" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
-      <c r="A53" s="100">
+      <c r="A53" s="99">
         <v>74</v>
       </c>
       <c r="B53" s="59" t="s">
@@ -28106,12 +28647,12 @@
       <c r="F53" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G53" s="84" t="s">
+      <c r="G53" s="83" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="100">
+      <c r="A54" s="99">
         <v>75</v>
       </c>
       <c r="B54" s="59" t="s">
@@ -28126,12 +28667,12 @@
       <c r="F54" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G54" s="84" t="s">
+      <c r="G54" s="83" t="s">
         <v>1358</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="100">
+      <c r="A55" s="99">
         <v>76</v>
       </c>
       <c r="B55" s="59" t="s">
@@ -28146,12 +28687,12 @@
       <c r="F55" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G55" s="87" t="s">
+      <c r="G55" s="86" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
-      <c r="A56" s="99">
+      <c r="A56" s="98">
         <v>81</v>
       </c>
       <c r="B56" s="62" t="s">
@@ -28166,12 +28707,12 @@
       <c r="F56" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G56" s="84" t="s">
+      <c r="G56" s="83" t="s">
         <v>1387</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
-      <c r="A57" s="96">
+      <c r="A57" s="95">
         <v>85</v>
       </c>
       <c r="B57" s="62" t="s">
@@ -28186,12 +28727,12 @@
       <c r="F57" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G57" s="84" t="s">
+      <c r="G57" s="83" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1">
-      <c r="A58" s="96">
+      <c r="A58" s="95">
         <v>90</v>
       </c>
       <c r="B58" s="62" t="s">
@@ -28206,12 +28747,12 @@
       <c r="F58" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G58" s="84" t="s">
+      <c r="G58" s="83" t="s">
         <v>1363</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="A59" s="96">
+      <c r="A59" s="95">
         <v>118</v>
       </c>
       <c r="B59" s="62" t="s">
@@ -28226,12 +28767,12 @@
       <c r="F59" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G59" s="84" t="s">
+      <c r="G59" s="83" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="96">
+      <c r="A60" s="95">
         <v>119</v>
       </c>
       <c r="B60" s="62" t="s">
@@ -28246,12 +28787,12 @@
       <c r="F60" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G60" s="84" t="s">
+      <c r="G60" s="83" t="s">
         <v>1366</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="96">
+      <c r="A61" s="95">
         <v>128</v>
       </c>
       <c r="B61" s="62" t="s">
@@ -28266,12 +28807,12 @@
       <c r="F61" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G61" s="84" t="s">
+      <c r="G61" s="83" t="s">
         <v>1367</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
-      <c r="A62" s="98">
+      <c r="A62" s="97">
         <v>122</v>
       </c>
       <c r="B62" s="62" t="s">
@@ -28284,7 +28825,7 @@
       <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1">
-      <c r="A63" s="96">
+      <c r="A63" s="95">
         <v>125</v>
       </c>
       <c r="B63" s="62" t="s">
@@ -28304,7 +28845,7 @@
       <c r="A64" s="32">
         <v>680</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="107" t="s">
         <v>235</v>
       </c>
       <c r="D64" s="22" t="s">
@@ -28316,15 +28857,15 @@
       <c r="F64" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G64" s="84" t="s">
+      <c r="G64" s="83" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="97">
+      <c r="A65" s="96">
         <v>1216</v>
       </c>
-      <c r="B65" s="108" t="s">
+      <c r="B65" s="107" t="s">
         <v>588</v>
       </c>
       <c r="C65" s="22"/>
@@ -28335,7 +28876,7 @@
       <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="96">
+      <c r="A66" s="95">
         <v>134</v>
       </c>
       <c r="B66" s="62" t="s">
@@ -28350,12 +28891,12 @@
       <c r="F66" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G66" s="84" t="s">
+      <c r="G66" s="83" t="s">
         <v>1372</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="96">
+      <c r="A67" s="95">
         <v>135</v>
       </c>
       <c r="B67" s="62" t="s">
@@ -28370,12 +28911,12 @@
       <c r="F67" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="83" t="s">
         <v>1373</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
-      <c r="A68" s="96">
+      <c r="A68" s="95">
         <v>151</v>
       </c>
       <c r="B68" s="62" t="s">
@@ -28390,7 +28931,7 @@
       <c r="F68" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G68" s="84" t="s">
+      <c r="G68" s="83" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -28410,7 +28951,7 @@
       <c r="F69" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G69" s="84" t="s">
+      <c r="G69" s="83" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -28430,7 +28971,7 @@
       <c r="F70" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G70" s="84" t="s">
+      <c r="G70" s="83" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -28450,12 +28991,12 @@
       <c r="F71" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="G71" s="83" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="104">
+      <c r="A72" s="103">
         <v>158</v>
       </c>
       <c r="B72" s="62" t="s">
@@ -28483,7 +29024,7 @@
       <c r="F73" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G73" s="84" t="s">
+      <c r="G73" s="83" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -28503,7 +29044,7 @@
       <c r="F74" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G74" s="94" t="s">
+      <c r="G74" s="93" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -28523,7 +29064,7 @@
       <c r="F75" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G75" s="84" t="s">
+      <c r="G75" s="83" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -28543,12 +29084,12 @@
       <c r="F76" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G76" s="84" t="s">
+      <c r="G76" s="83" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="A77" s="96">
+      <c r="A77" s="95">
         <v>167</v>
       </c>
       <c r="B77" s="62" t="s">
@@ -28563,12 +29104,12 @@
       <c r="F77" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G77" s="84" t="s">
+      <c r="G77" s="83" t="s">
         <v>1395</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1">
-      <c r="A78" s="105">
+      <c r="A78" s="104">
         <v>168</v>
       </c>
       <c r="B78" s="62" t="s">
@@ -28581,7 +29122,7 @@
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1">
-      <c r="A79" s="96">
+      <c r="A79" s="95">
         <v>189</v>
       </c>
       <c r="B79" s="62" t="s">
@@ -28596,7 +29137,7 @@
       <c r="F79" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G79" s="84" t="s">
+      <c r="G79" s="83" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -28616,7 +29157,7 @@
       <c r="F80" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G80" s="84" t="s">
+      <c r="G80" s="83" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -28636,7 +29177,7 @@
       <c r="F81" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G81" s="83" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -28656,7 +29197,7 @@
       <c r="F82" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G82" s="84" t="s">
+      <c r="G82" s="83" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -28676,12 +29217,12 @@
       <c r="F83" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G83" s="84" t="s">
+      <c r="G83" s="83" t="s">
         <v>1412</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
-      <c r="A84" s="96">
+      <c r="A84" s="95">
         <v>217</v>
       </c>
       <c r="B84" s="62" t="s">
@@ -28696,12 +29237,12 @@
       <c r="F84" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G84" s="84" t="s">
+      <c r="G84" s="83" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
-      <c r="A85" s="107">
+      <c r="A85" s="106">
         <v>218</v>
       </c>
       <c r="B85" s="62" t="s">
@@ -28731,7 +29272,7 @@
       <c r="F86" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G86" s="84" t="s">
+      <c r="G86" s="83" t="s">
         <v>1414</v>
       </c>
     </row>
@@ -28751,7 +29292,7 @@
       <c r="F87" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G87" s="84" t="s">
+      <c r="G87" s="83" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -28771,12 +29312,12 @@
       <c r="F88" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G88" s="84" t="s">
+      <c r="G88" s="83" t="s">
         <v>1438</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
-      <c r="A89" s="96">
+      <c r="A89" s="95">
         <v>238</v>
       </c>
       <c r="B89" s="62" t="s">
@@ -28791,12 +29332,12 @@
       <c r="F89" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G89" s="84" t="s">
+      <c r="G89" s="83" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1">
-      <c r="A90" s="96">
+      <c r="A90" s="95">
         <v>239</v>
       </c>
       <c r="B90" s="62" t="s">
@@ -28811,12 +29352,12 @@
       <c r="F90" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G90" s="84" t="s">
+      <c r="G90" s="83" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
-      <c r="A91" s="96">
+      <c r="A91" s="95">
         <v>240</v>
       </c>
       <c r="B91" s="62" t="s">
@@ -28831,7 +29372,7 @@
       <c r="F91" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G91" s="84" t="s">
+      <c r="G91" s="83" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -28851,12 +29392,12 @@
       <c r="F92" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G92" s="84" t="s">
+      <c r="G92" s="83" t="s">
         <v>1442</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
-      <c r="A93" s="105">
+      <c r="A93" s="104">
         <v>248</v>
       </c>
       <c r="B93" s="62" t="s">
@@ -28869,7 +29410,7 @@
       <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
-      <c r="A94" s="105">
+      <c r="A94" s="104">
         <v>243</v>
       </c>
       <c r="B94" s="62" t="s">
@@ -28882,7 +29423,7 @@
       <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="125">
+      <c r="A95" s="124">
         <v>266</v>
       </c>
       <c r="B95" s="59" t="s">
@@ -28895,7 +29436,7 @@
       <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1">
-      <c r="A96" s="106">
+      <c r="A96" s="105">
         <v>268</v>
       </c>
       <c r="B96" s="62" t="s">
@@ -28908,7 +29449,7 @@
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1">
-      <c r="A97" s="105">
+      <c r="A97" s="104">
         <v>271</v>
       </c>
       <c r="B97" s="62" t="s">
@@ -28921,7 +29462,7 @@
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="125">
+      <c r="A98" s="124">
         <v>277</v>
       </c>
       <c r="B98" s="59" t="s">
@@ -28934,7 +29475,7 @@
       <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1">
-      <c r="A99" s="105">
+      <c r="A99" s="104">
         <v>278</v>
       </c>
       <c r="B99" s="62" t="s">
@@ -28947,17 +29488,17 @@
       <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1">
-      <c r="A100" s="105">
+      <c r="A100" s="104">
         <v>279</v>
       </c>
-      <c r="B100" s="93" t="s">
+      <c r="B100" s="92" t="s">
         <v>776</v>
       </c>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1">
-      <c r="A101" s="105">
+      <c r="A101" s="104">
         <v>280</v>
       </c>
       <c r="B101" s="62" t="s">
@@ -28970,7 +29511,7 @@
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1">
-      <c r="A102" s="105">
+      <c r="A102" s="104">
         <v>283</v>
       </c>
       <c r="B102" s="62" t="s">
@@ -28983,7 +29524,7 @@
       <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1">
-      <c r="A103" s="106">
+      <c r="A103" s="105">
         <v>290</v>
       </c>
       <c r="B103" s="62" t="s">
@@ -29043,7 +29584,7 @@
       </c>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
-      <c r="G107" s="84" t="s">
+      <c r="G107" s="83" t="s">
         <v>1283</v>
       </c>
     </row>
@@ -29061,13 +29602,13 @@
       <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1">
-      <c r="A109" s="106">
+      <c r="A109" s="105">
         <v>325</v>
       </c>
-      <c r="B109" s="85" t="s">
+      <c r="B109" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="C109" s="82"/>
+      <c r="C109" s="81"/>
       <c r="D109" s="32" t="s">
         <v>245</v>
       </c>
@@ -29075,7 +29616,7 @@
       <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="A110" s="96">
+      <c r="A110" s="95">
         <v>327</v>
       </c>
       <c r="B110" s="62" t="s">
@@ -29101,7 +29642,7 @@
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1">
-      <c r="A112" s="96">
+      <c r="A112" s="95">
         <v>336</v>
       </c>
       <c r="B112" s="62" t="s">
@@ -29114,7 +29655,7 @@
       <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:8" ht="15" customHeight="1">
-      <c r="A113" s="96">
+      <c r="A113" s="95">
         <v>340</v>
       </c>
       <c r="B113" s="62" t="s">
@@ -29127,7 +29668,7 @@
       <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:8" ht="15" customHeight="1">
-      <c r="A114" s="96">
+      <c r="A114" s="95">
         <v>334</v>
       </c>
       <c r="B114" s="62" t="s">
@@ -29237,12 +29778,12 @@
       <c r="F122" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G122" s="84" t="s">
+      <c r="G122" s="83" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1">
-      <c r="A123" s="96">
+      <c r="A123" s="95">
         <v>367</v>
       </c>
       <c r="B123" s="62" t="s">
@@ -29270,7 +29811,7 @@
       <c r="H124" s="34"/>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1">
-      <c r="A125" s="96">
+      <c r="A125" s="95">
         <v>378</v>
       </c>
       <c r="B125" s="62" t="s">
@@ -29296,7 +29837,7 @@
       <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1">
-      <c r="A127" s="96">
+      <c r="A127" s="95">
         <v>381</v>
       </c>
       <c r="B127" s="62" t="s">
@@ -29322,7 +29863,7 @@
       <c r="F128" s="34"/>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
-      <c r="A129" s="96">
+      <c r="A129" s="95">
         <v>384</v>
       </c>
       <c r="B129" s="62" t="s">
@@ -29345,7 +29886,7 @@
       <c r="F130" s="34"/>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1">
-      <c r="A131" s="96">
+      <c r="A131" s="95">
         <v>388</v>
       </c>
       <c r="B131" s="62" t="s">
@@ -29368,7 +29909,7 @@
       <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
-      <c r="A133" s="96">
+      <c r="A133" s="95">
         <v>392</v>
       </c>
       <c r="B133" s="62" t="s">
@@ -29394,7 +29935,7 @@
       <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
-      <c r="A135" s="96">
+      <c r="A135" s="95">
         <v>394</v>
       </c>
       <c r="B135" s="62" t="s">
@@ -29420,7 +29961,7 @@
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1">
-      <c r="A137" s="96">
+      <c r="A137" s="95">
         <v>402</v>
       </c>
       <c r="B137" s="62" t="s">
@@ -29446,7 +29987,7 @@
       <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1">
-      <c r="A139" s="96">
+      <c r="A139" s="95">
         <v>406</v>
       </c>
       <c r="B139" s="62" t="s">
@@ -29472,7 +30013,7 @@
       <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
-      <c r="A141" s="96">
+      <c r="A141" s="95">
         <v>408</v>
       </c>
       <c r="B141" s="62" t="s">
@@ -29498,7 +30039,7 @@
       <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1">
-      <c r="A143" s="96">
+      <c r="A143" s="95">
         <v>410</v>
       </c>
       <c r="B143" s="62" t="s">
@@ -29521,7 +30062,7 @@
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:6" ht="15" customHeight="1">
-      <c r="A145" s="96">
+      <c r="A145" s="95">
         <v>413</v>
       </c>
       <c r="B145" s="62" t="s">
@@ -29547,7 +30088,7 @@
       <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:6" ht="15" customHeight="1">
-      <c r="A147" s="96">
+      <c r="A147" s="95">
         <v>415</v>
       </c>
       <c r="B147" s="62" t="s">
@@ -29573,7 +30114,7 @@
       <c r="F148" s="34"/>
     </row>
     <row r="149" spans="1:6" ht="15" customHeight="1">
-      <c r="A149" s="96">
+      <c r="A149" s="95">
         <v>419</v>
       </c>
       <c r="B149" s="62" t="s">
@@ -29593,7 +30134,7 @@
       <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:6" ht="15" customHeight="1">
-      <c r="A151" s="96">
+      <c r="A151" s="95">
         <v>421</v>
       </c>
       <c r="B151" s="62" t="s">
@@ -29619,7 +30160,7 @@
       <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:6" ht="15" customHeight="1">
-      <c r="A153" s="96">
+      <c r="A153" s="95">
         <v>426</v>
       </c>
       <c r="B153" s="62" t="s">
@@ -29642,7 +30183,7 @@
       <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:6" ht="15" customHeight="1">
-      <c r="A155" s="96">
+      <c r="A155" s="95">
         <v>435</v>
       </c>
       <c r="B155" s="62" t="s">
@@ -29668,7 +30209,7 @@
       <c r="F156" s="34"/>
     </row>
     <row r="157" spans="1:6" ht="15" customHeight="1">
-      <c r="A157" s="96">
+      <c r="A157" s="95">
         <v>442</v>
       </c>
       <c r="B157" s="62" t="s">
@@ -29694,7 +30235,7 @@
       <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
-      <c r="A159" s="96">
+      <c r="A159" s="95">
         <v>446</v>
       </c>
       <c r="B159" s="62" t="s">
@@ -29783,7 +30324,7 @@
       <c r="F170" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G170" s="84" t="s">
+      <c r="G170" s="83" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -29808,7 +30349,7 @@
       <c r="F174" s="34"/>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1">
-      <c r="A175" s="96"/>
+      <c r="A175" s="95"/>
       <c r="B175" s="62"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
@@ -29819,7 +30360,7 @@
       <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1">
-      <c r="A177" s="96"/>
+      <c r="A177" s="95"/>
       <c r="B177" s="62"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
@@ -29830,7 +30371,7 @@
       <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1">
-      <c r="A179" s="96"/>
+      <c r="A179" s="95"/>
       <c r="B179" s="62"/>
       <c r="E179" s="34"/>
       <c r="F179" s="34"/>
@@ -29841,7 +30382,7 @@
       <c r="F180" s="34"/>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1">
-      <c r="A181" s="96"/>
+      <c r="A181" s="95"/>
       <c r="B181" s="62"/>
       <c r="C181" s="22"/>
       <c r="E181" s="34"/>
@@ -29858,7 +30399,7 @@
       <c r="F182" s="34"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1">
-      <c r="A183" s="96">
+      <c r="A183" s="95">
         <v>1673</v>
       </c>
       <c r="B183" s="62" t="s">
@@ -29872,7 +30413,7 @@
       </c>
       <c r="E183" s="34"/>
       <c r="F183" s="34"/>
-      <c r="G183" s="84" t="s">
+      <c r="G183" s="83" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -29888,12 +30429,12 @@
       </c>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
-      <c r="G184" s="84" t="s">
+      <c r="G184" s="83" t="s">
         <v>1385</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1">
-      <c r="A185" s="96"/>
+      <c r="A185" s="95"/>
       <c r="B185" s="62"/>
       <c r="E185" s="34"/>
       <c r="F185" s="34"/>
@@ -29904,7 +30445,7 @@
       <c r="F186" s="34"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
-      <c r="A187" s="96">
+      <c r="A187" s="95">
         <v>1329</v>
       </c>
       <c r="B187" s="62" t="s">
@@ -29915,7 +30456,7 @@
       </c>
       <c r="E187" s="34"/>
       <c r="F187" s="34"/>
-      <c r="G187" s="84" t="s">
+      <c r="G187" s="83" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -29925,7 +30466,7 @@
       <c r="F188" s="34"/>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1">
-      <c r="A189" s="96"/>
+      <c r="A189" s="95"/>
       <c r="B189" s="62"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
@@ -29936,7 +30477,7 @@
       <c r="F190" s="34"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1">
-      <c r="A191" s="96"/>
+      <c r="A191" s="95"/>
       <c r="B191" s="62"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34"/>
@@ -29947,7 +30488,7 @@
       <c r="F192" s="34"/>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1">
-      <c r="A193" s="96">
+      <c r="A193" s="95">
         <v>857</v>
       </c>
       <c r="B193" s="62" t="s">
@@ -29959,7 +30500,7 @@
       </c>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
-      <c r="G193" s="84" t="s">
+      <c r="G193" s="83" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -29975,12 +30516,12 @@
       </c>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
-      <c r="G194" s="84" t="s">
+      <c r="G194" s="83" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1">
-      <c r="A195" s="96"/>
+      <c r="A195" s="95"/>
       <c r="B195" s="62"/>
       <c r="E195" s="34"/>
       <c r="F195" s="34"/>
@@ -29991,7 +30532,7 @@
       <c r="F196" s="34"/>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1">
-      <c r="A197" s="96"/>
+      <c r="A197" s="95"/>
       <c r="B197" s="62"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
@@ -30003,7 +30544,7 @@
       <c r="B198" s="62" t="s">
         <v>1000</v>
       </c>
-      <c r="C198" s="78" t="s">
+      <c r="C198" s="77" t="s">
         <v>66</v>
       </c>
       <c r="D198" s="32" t="s">
@@ -30015,12 +30556,12 @@
       <c r="F198" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G198" s="84" t="s">
+      <c r="G198" s="83" t="s">
         <v>1448</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1">
-      <c r="A199" s="96"/>
+      <c r="A199" s="95"/>
       <c r="B199" s="62"/>
       <c r="E199" s="34"/>
       <c r="F199" s="34"/>
@@ -30036,7 +30577,7 @@
       <c r="F201" s="34"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="124">
+      <c r="A202" s="123">
         <v>1675</v>
       </c>
       <c r="B202" s="62" t="s">
@@ -30051,66 +30592,66 @@
       <c r="F202" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G202" s="84" t="s">
+      <c r="G202" s="83" t="s">
         <v>1449</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="124"/>
+      <c r="A203" s="123"/>
       <c r="B203" s="62"/>
       <c r="E203" s="34"/>
       <c r="F203" s="34"/>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="124"/>
+      <c r="A204" s="123"/>
       <c r="B204" s="62"/>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1">
-      <c r="A205" s="124"/>
+      <c r="A205" s="123"/>
       <c r="B205" s="62"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="A206" s="124"/>
+      <c r="A206" s="123"/>
       <c r="B206" s="62"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="124"/>
+      <c r="A207" s="123"/>
       <c r="B207" s="62"/>
       <c r="E207" s="34"/>
       <c r="F207" s="34"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1">
-      <c r="A208" s="124"/>
+      <c r="A208" s="123"/>
       <c r="B208" s="62"/>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1">
-      <c r="A209" s="124"/>
+      <c r="A209" s="123"/>
       <c r="B209" s="62"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1">
-      <c r="A210" s="124"/>
+      <c r="A210" s="123"/>
       <c r="B210" s="62"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
-      <c r="A211" s="124"/>
+      <c r="A211" s="123"/>
       <c r="B211" s="62"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
-      <c r="A212" s="124">
+      <c r="A212" s="123">
         <v>1742</v>
       </c>
       <c r="B212" s="62" t="s">
@@ -30125,12 +30666,12 @@
       <c r="F212" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G212" s="84" t="s">
+      <c r="G212" s="83" t="s">
         <v>1453</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1">
-      <c r="A213" s="124">
+      <c r="A213" s="123">
         <v>1743</v>
       </c>
       <c r="B213" s="62" t="s">
@@ -30145,42 +30686,42 @@
       <c r="F213" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G213" s="84" t="s">
+      <c r="G213" s="83" t="s">
         <v>1455</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1">
-      <c r="A214" s="124"/>
+      <c r="A214" s="123"/>
       <c r="B214" s="62"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1">
-      <c r="A215" s="124"/>
+      <c r="A215" s="123"/>
       <c r="B215" s="62"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216" s="124"/>
+      <c r="A216" s="123"/>
       <c r="B216" s="62"/>
       <c r="E216" s="34"/>
       <c r="F216" s="34"/>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1">
-      <c r="A217" s="124"/>
+      <c r="A217" s="123"/>
       <c r="B217" s="62"/>
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1">
-      <c r="A218" s="124"/>
+      <c r="A218" s="123"/>
       <c r="B218" s="62"/>
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1">
-      <c r="A219" s="96"/>
+      <c r="A219" s="95"/>
       <c r="B219" s="62"/>
       <c r="E219" s="34"/>
       <c r="F219" s="34"/>
@@ -30191,7 +30732,7 @@
       <c r="F220" s="34"/>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1">
-      <c r="A221" s="96"/>
+      <c r="A221" s="95"/>
       <c r="B221" s="62"/>
       <c r="E221" s="34"/>
       <c r="F221" s="34"/>
@@ -30202,7 +30743,7 @@
       <c r="F222" s="34"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1">
-      <c r="A223" s="96"/>
+      <c r="A223" s="95"/>
       <c r="B223" s="62"/>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
@@ -30213,7 +30754,7 @@
       <c r="F224" s="34"/>
     </row>
     <row r="225" spans="1:6" ht="15" customHeight="1">
-      <c r="A225" s="96"/>
+      <c r="A225" s="95"/>
       <c r="B225" s="62"/>
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
@@ -30224,7 +30765,7 @@
       <c r="F226" s="34"/>
     </row>
     <row r="227" spans="1:6" ht="15" customHeight="1">
-      <c r="A227" s="96"/>
+      <c r="A227" s="95"/>
       <c r="B227" s="62"/>
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
@@ -30235,7 +30776,7 @@
       <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:6" ht="15" customHeight="1">
-      <c r="A229" s="96"/>
+      <c r="A229" s="95"/>
       <c r="B229" s="62"/>
       <c r="E229" s="34"/>
       <c r="F229" s="34"/>
@@ -30246,7 +30787,7 @@
       <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:6" ht="15" customHeight="1">
-      <c r="A231" s="96"/>
+      <c r="A231" s="95"/>
       <c r="B231" s="62"/>
       <c r="E231" s="34"/>
       <c r="F231" s="34"/>
@@ -30257,7 +30798,7 @@
       <c r="F232" s="34"/>
     </row>
     <row r="233" spans="1:6" ht="15" customHeight="1">
-      <c r="A233" s="96"/>
+      <c r="A233" s="95"/>
       <c r="B233" s="62"/>
       <c r="E233" s="34"/>
       <c r="F233" s="34"/>
@@ -30268,7 +30809,7 @@
       <c r="F234" s="34"/>
     </row>
     <row r="235" spans="1:6" ht="15" customHeight="1">
-      <c r="A235" s="96"/>
+      <c r="A235" s="95"/>
       <c r="B235" s="62"/>
       <c r="E235" s="34"/>
       <c r="F235" s="34"/>
@@ -30279,7 +30820,7 @@
       <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:6" ht="15" customHeight="1">
-      <c r="A237" s="96"/>
+      <c r="A237" s="95"/>
       <c r="B237" s="62"/>
       <c r="E237" s="34"/>
       <c r="F237" s="34"/>
@@ -30290,7 +30831,7 @@
       <c r="F238" s="34"/>
     </row>
     <row r="239" spans="1:6" ht="15" customHeight="1">
-      <c r="A239" s="96"/>
+      <c r="A239" s="95"/>
       <c r="B239" s="62"/>
       <c r="E239" s="34"/>
       <c r="F239" s="34"/>
@@ -30301,7 +30842,7 @@
       <c r="F240" s="34"/>
     </row>
     <row r="241" spans="1:6" ht="15" customHeight="1">
-      <c r="A241" s="96"/>
+      <c r="A241" s="95"/>
       <c r="B241" s="62"/>
       <c r="E241" s="34"/>
       <c r="F241" s="34"/>
@@ -30312,7 +30853,7 @@
       <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:6" ht="15" customHeight="1">
-      <c r="A243" s="96"/>
+      <c r="A243" s="95"/>
       <c r="B243" s="62"/>
       <c r="E243" s="34"/>
       <c r="F243" s="34"/>
@@ -30323,7 +30864,7 @@
       <c r="F244" s="34"/>
     </row>
     <row r="245" spans="1:6" ht="15" customHeight="1">
-      <c r="A245" s="96"/>
+      <c r="A245" s="95"/>
       <c r="B245" s="62"/>
       <c r="E245" s="34"/>
       <c r="F245" s="34"/>
@@ -30334,7 +30875,7 @@
       <c r="F246" s="34"/>
     </row>
     <row r="247" spans="1:6" ht="15" customHeight="1">
-      <c r="A247" s="96"/>
+      <c r="A247" s="95"/>
       <c r="B247" s="62"/>
       <c r="E247" s="34"/>
       <c r="F247" s="34"/>
@@ -30345,7 +30886,7 @@
       <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:6" ht="15" customHeight="1">
-      <c r="A249" s="96"/>
+      <c r="A249" s="95"/>
       <c r="B249" s="62"/>
       <c r="E249" s="34"/>
       <c r="F249" s="34"/>
@@ -30356,7 +30897,7 @@
       <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:6" ht="15" customHeight="1">
-      <c r="A251" s="96"/>
+      <c r="A251" s="95"/>
       <c r="B251" s="62"/>
       <c r="E251" s="34"/>
       <c r="F251" s="34"/>
@@ -30367,7 +30908,7 @@
       <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:6" ht="15" customHeight="1">
-      <c r="A253" s="96"/>
+      <c r="A253" s="95"/>
       <c r="B253" s="62"/>
       <c r="E253" s="34"/>
       <c r="F253" s="34"/>
@@ -30378,7 +30919,7 @@
       <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:6" ht="15" customHeight="1">
-      <c r="A255" s="96"/>
+      <c r="A255" s="95"/>
       <c r="B255" s="62"/>
       <c r="E255" s="34"/>
       <c r="F255" s="34"/>
@@ -30389,7 +30930,7 @@
       <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
-      <c r="A257" s="96"/>
+      <c r="A257" s="95"/>
       <c r="B257" s="62"/>
       <c r="E257" s="34"/>
       <c r="F257" s="34"/>
@@ -30400,7 +30941,7 @@
       <c r="F258" s="34"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1">
-      <c r="A259" s="96"/>
+      <c r="A259" s="95"/>
       <c r="B259" s="62"/>
       <c r="E259" s="34"/>
       <c r="F259" s="34"/>
@@ -30411,7 +30952,7 @@
       <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1">
-      <c r="A261" s="96"/>
+      <c r="A261" s="95"/>
       <c r="B261" s="62"/>
       <c r="E261" s="34"/>
       <c r="F261" s="34"/>
@@ -30422,7 +30963,7 @@
       <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1">
-      <c r="A263" s="96"/>
+      <c r="A263" s="95"/>
       <c r="B263" s="62"/>
       <c r="E263" s="34"/>
       <c r="F263" s="34"/>
@@ -30433,7 +30974,7 @@
       <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1">
-      <c r="A265" s="96"/>
+      <c r="A265" s="95"/>
       <c r="B265" s="62"/>
       <c r="E265" s="34"/>
       <c r="F265" s="34"/>
@@ -30444,7 +30985,7 @@
       <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1">
-      <c r="A267" s="96"/>
+      <c r="A267" s="95"/>
       <c r="B267" s="62"/>
       <c r="E267" s="34"/>
       <c r="F267" s="34"/>
@@ -30455,7 +30996,7 @@
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1">
-      <c r="A269" s="96"/>
+      <c r="A269" s="95"/>
       <c r="B269" s="62"/>
       <c r="E269" s="34"/>
       <c r="F269" s="34"/>
@@ -30466,7 +31007,7 @@
       <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
-      <c r="A271" s="96"/>
+      <c r="A271" s="95"/>
       <c r="B271" s="62"/>
       <c r="E271" s="34"/>
       <c r="F271" s="34"/>
@@ -30477,7 +31018,7 @@
       <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1">
-      <c r="A273" s="96"/>
+      <c r="A273" s="95"/>
       <c r="B273" s="62"/>
       <c r="E273" s="34"/>
       <c r="F273" s="34"/>
@@ -30488,7 +31029,7 @@
       <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
-      <c r="A275" s="96"/>
+      <c r="A275" s="95"/>
       <c r="B275" s="62"/>
       <c r="E275" s="34"/>
       <c r="F275" s="34"/>
@@ -30499,7 +31040,7 @@
       <c r="F276" s="34"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
-      <c r="A277" s="96"/>
+      <c r="A277" s="95"/>
       <c r="B277" s="62"/>
       <c r="E277" s="34"/>
       <c r="F277" s="34"/>
@@ -30510,7 +31051,7 @@
       <c r="F278" s="34"/>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
-      <c r="A279" s="96"/>
+      <c r="A279" s="95"/>
       <c r="B279" s="62"/>
       <c r="E279" s="34"/>
       <c r="F279" s="34"/>
@@ -30521,7 +31062,7 @@
       <c r="F280" s="34"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
-      <c r="A281" s="96"/>
+      <c r="A281" s="95"/>
       <c r="B281" s="62"/>
       <c r="E281" s="34"/>
       <c r="F281" s="34"/>
@@ -30532,7 +31073,7 @@
       <c r="F282" s="34"/>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
-      <c r="A283" s="96"/>
+      <c r="A283" s="95"/>
       <c r="B283" s="62"/>
       <c r="E283" s="34"/>
       <c r="F283" s="34"/>
@@ -30543,7 +31084,7 @@
       <c r="F284" s="34"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
-      <c r="A285" s="96"/>
+      <c r="A285" s="95"/>
       <c r="B285" s="62"/>
       <c r="E285" s="34"/>
       <c r="F285" s="34"/>
@@ -30554,7 +31095,7 @@
       <c r="F286" s="34"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
-      <c r="A287" s="96"/>
+      <c r="A287" s="95"/>
       <c r="B287" s="62"/>
       <c r="E287" s="34"/>
       <c r="F287" s="34"/>
@@ -30565,7 +31106,7 @@
       <c r="F288" s="34"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
-      <c r="A289" s="96"/>
+      <c r="A289" s="95"/>
       <c r="B289" s="62"/>
       <c r="E289" s="34"/>
       <c r="F289" s="34"/>
@@ -30576,7 +31117,7 @@
       <c r="F290" s="34"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
-      <c r="A291" s="96"/>
+      <c r="A291" s="95"/>
       <c r="B291" s="62"/>
       <c r="E291" s="34"/>
       <c r="F291" s="34"/>
@@ -30587,7 +31128,7 @@
       <c r="F292" s="34"/>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1">
-      <c r="A293" s="96"/>
+      <c r="A293" s="95"/>
       <c r="B293" s="62"/>
       <c r="E293" s="34"/>
       <c r="F293" s="34"/>
@@ -30598,7 +31139,7 @@
       <c r="F294" s="34"/>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1">
-      <c r="A295" s="96"/>
+      <c r="A295" s="95"/>
       <c r="B295" s="62"/>
       <c r="E295" s="34"/>
       <c r="F295" s="34"/>
@@ -30609,7 +31150,7 @@
       <c r="F296" s="34"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1">
-      <c r="A297" s="96"/>
+      <c r="A297" s="95"/>
       <c r="B297" s="62"/>
       <c r="E297" s="34"/>
       <c r="F297" s="34"/>
@@ -30620,7 +31161,7 @@
       <c r="F298" s="34"/>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1">
-      <c r="A299" s="96"/>
+      <c r="A299" s="95"/>
       <c r="B299" s="62"/>
       <c r="E299" s="34"/>
       <c r="F299" s="34"/>
@@ -30631,7 +31172,7 @@
       <c r="F300" s="34"/>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1">
-      <c r="A301" s="96"/>
+      <c r="A301" s="95"/>
       <c r="B301" s="62"/>
       <c r="E301" s="34"/>
       <c r="F301" s="34"/>
@@ -30642,7 +31183,7 @@
       <c r="F302" s="34"/>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1">
-      <c r="A303" s="96"/>
+      <c r="A303" s="95"/>
       <c r="B303" s="62"/>
       <c r="E303" s="34"/>
       <c r="F303" s="34"/>
@@ -30653,7 +31194,7 @@
       <c r="F304" s="34"/>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1">
-      <c r="A305" s="96"/>
+      <c r="A305" s="95"/>
       <c r="B305" s="62"/>
       <c r="E305" s="34"/>
       <c r="F305" s="34"/>
@@ -30664,7 +31205,7 @@
       <c r="F306" s="34"/>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1">
-      <c r="A307" s="96"/>
+      <c r="A307" s="95"/>
       <c r="B307" s="62"/>
       <c r="E307" s="34"/>
       <c r="F307" s="34"/>
@@ -30675,7 +31216,7 @@
       <c r="F308" s="34"/>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1">
-      <c r="A309" s="96"/>
+      <c r="A309" s="95"/>
       <c r="B309" s="62"/>
       <c r="E309" s="34"/>
       <c r="F309" s="34"/>
@@ -30686,7 +31227,7 @@
       <c r="F310" s="34"/>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1">
-      <c r="A311" s="96"/>
+      <c r="A311" s="95"/>
       <c r="B311" s="62"/>
       <c r="E311" s="34"/>
       <c r="F311" s="34"/>
@@ -30697,7 +31238,7 @@
       <c r="F312" s="34"/>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1">
-      <c r="A313" s="96"/>
+      <c r="A313" s="95"/>
       <c r="B313" s="62"/>
       <c r="E313" s="34"/>
       <c r="F313" s="34"/>
@@ -30708,7 +31249,7 @@
       <c r="F314" s="34"/>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1">
-      <c r="A315" s="96"/>
+      <c r="A315" s="95"/>
       <c r="B315" s="62"/>
       <c r="E315" s="34"/>
       <c r="F315" s="34"/>
@@ -30719,7 +31260,7 @@
       <c r="F316" s="34"/>
     </row>
     <row r="317" spans="1:6" ht="15" customHeight="1">
-      <c r="A317" s="96"/>
+      <c r="A317" s="95"/>
       <c r="B317" s="62"/>
       <c r="E317" s="34"/>
       <c r="F317" s="34"/>
@@ -30730,7 +31271,7 @@
       <c r="F318" s="34"/>
     </row>
     <row r="319" spans="1:6" ht="15" customHeight="1">
-      <c r="A319" s="96"/>
+      <c r="A319" s="95"/>
       <c r="B319" s="62"/>
       <c r="E319" s="34"/>
       <c r="F319" s="34"/>
@@ -30741,7 +31282,7 @@
       <c r="F320" s="34"/>
     </row>
     <row r="321" spans="1:6" ht="15" customHeight="1">
-      <c r="A321" s="96"/>
+      <c r="A321" s="95"/>
       <c r="B321" s="62"/>
       <c r="E321" s="34"/>
       <c r="F321" s="34"/>
@@ -30752,7 +31293,7 @@
       <c r="F322" s="34"/>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1">
-      <c r="A323" s="96"/>
+      <c r="A323" s="95"/>
       <c r="B323" s="62"/>
       <c r="E323" s="34"/>
       <c r="F323" s="34"/>
@@ -30763,7 +31304,7 @@
       <c r="F324" s="34"/>
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1">
-      <c r="A325" s="96"/>
+      <c r="A325" s="95"/>
       <c r="B325" s="62"/>
       <c r="E325" s="34"/>
       <c r="F325" s="34"/>
@@ -30774,7 +31315,7 @@
       <c r="F326" s="34"/>
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
-      <c r="A327" s="96"/>
+      <c r="A327" s="95"/>
       <c r="B327" s="62"/>
       <c r="E327" s="34"/>
       <c r="F327" s="34"/>
@@ -30785,7 +31326,7 @@
       <c r="F328" s="34"/>
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1">
-      <c r="A329" s="96"/>
+      <c r="A329" s="95"/>
       <c r="B329" s="62"/>
       <c r="E329" s="34"/>
       <c r="F329" s="34"/>
@@ -31326,8 +31867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -31338,7 +31879,7 @@
     <col min="4" max="4" width="4" style="55" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="55"/>
     <col min="6" max="6" width="16.6328125" style="55" customWidth="1"/>
-    <col min="7" max="7" width="61.81640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="61.81640625" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
@@ -31370,17 +31911,17 @@
       <c r="B2" s="62" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>1237</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>1225</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="27" t="s">
         <v>1243</v>
       </c>
     </row>
@@ -31391,13 +31932,13 @@
       <c r="B3" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="68"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="61">
@@ -31406,13 +31947,13 @@
       <c r="B4" s="62" t="s">
         <v>304</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="68"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="61">
@@ -31421,17 +31962,17 @@
       <c r="B5" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>1227</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="27" t="s">
         <v>1249</v>
       </c>
     </row>
@@ -31442,13 +31983,13 @@
       <c r="B6" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="68"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7" s="61">
@@ -31463,7 +32004,7 @@
       <c r="D7" s="60"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="68"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="61">
@@ -31472,13 +32013,19 @@
       <c r="B8" s="62" t="s">
         <v>1038</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="61">
@@ -31493,7 +32040,7 @@
       <c r="D9" s="60"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="68"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10" s="61">
@@ -31508,7 +32055,7 @@
       <c r="D10" s="60"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11" s="61">
@@ -31517,13 +32064,13 @@
       <c r="B11" s="62" t="s">
         <v>700</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="68"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12" s="61">
@@ -31538,7 +32085,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="68"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13" s="61">
@@ -31547,13 +32094,13 @@
       <c r="B13" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="68"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="61">
@@ -31562,13 +32109,19 @@
       <c r="B14" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>1465</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" s="61">
@@ -31577,13 +32130,19 @@
       <c r="B15" s="62" t="s">
         <v>1030</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>1466</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16" s="61">
@@ -31596,9 +32155,15 @@
         <v>230</v>
       </c>
       <c r="D16" s="60"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="68"/>
+      <c r="E16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>1468</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="61">
@@ -31607,13 +32172,13 @@
       <c r="B17" s="62" t="s">
         <v>531</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="67" t="s">
         <v>532</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
-      <c r="G17" s="68"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="63">
@@ -31681,7 +32246,7 @@
       <c r="C22" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="71"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
@@ -31692,10 +32257,10 @@
       <c r="B23" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
@@ -31727,13 +32292,13 @@
       <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="95">
+      <c r="A26" s="94">
         <v>379</v>
       </c>
       <c r="B26" s="62" t="s">
         <v>836</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>837</v>
       </c>
       <c r="E26" s="16"/>
@@ -32287,6 +32852,7 @@
     <hyperlink ref="C29" r:id="rId30" tooltip="Linked List" display="https://leetcode.com/tag/linked-list" xr:uid="{00000000-0004-0000-0900-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -32294,8 +32860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:G152"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -32303,7 +32869,7 @@
     <col min="1" max="1" width="5.26953125" style="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.81640625" style="55" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="55" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="110" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="109" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="55"/>
     <col min="6" max="6" width="12.90625" style="55" customWidth="1"/>
     <col min="7" max="7" width="60.81640625" style="32" customWidth="1"/>
@@ -32331,7 +32897,7 @@
       <c r="C3" s="55" t="s">
         <v>1220</v>
       </c>
-      <c r="D3" s="111"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" s="55" t="s">
@@ -32423,7 +32989,7 @@
       <c r="C20" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="111" t="s">
         <v>117</v>
       </c>
       <c r="E20" s="58" t="s">
@@ -32432,7 +32998,7 @@
       <c r="F20" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G20" s="88" t="s">
+      <c r="G20" s="87" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -32443,7 +33009,7 @@
       <c r="B21" s="62" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="121" t="s">
         <v>167</v>
       </c>
       <c r="E21" s="34"/>
@@ -32456,7 +33022,7 @@
       <c r="B22" s="62" t="s">
         <v>775</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="34"/>
@@ -32469,7 +33035,7 @@
       <c r="B23" s="62" t="s">
         <v>789</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="34"/>
@@ -32482,7 +33048,7 @@
       <c r="B24" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="121" t="s">
         <v>318</v>
       </c>
       <c r="E24" s="34"/>
@@ -32495,7 +33061,7 @@
       <c r="B25" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="121" t="s">
         <v>1431</v>
       </c>
       <c r="E25" s="34"/>
@@ -32508,7 +33074,7 @@
       <c r="B26" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="121" t="s">
         <v>182</v>
       </c>
       <c r="E26" s="34"/>
@@ -32521,7 +33087,7 @@
       <c r="B27" s="62" t="s">
         <v>312</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="121" t="s">
         <v>313</v>
       </c>
       <c r="E27" s="34"/>
@@ -32534,7 +33100,7 @@
       <c r="B28" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="121" t="s">
         <v>167</v>
       </c>
       <c r="E28" s="34"/>
@@ -32547,7 +33113,7 @@
       <c r="B29" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="121" t="s">
         <v>272</v>
       </c>
       <c r="E29" s="34"/>
@@ -32560,7 +33126,7 @@
       <c r="B30" s="62" t="s">
         <v>1018</v>
       </c>
-      <c r="D30" s="122" t="s">
+      <c r="D30" s="121" t="s">
         <v>272</v>
       </c>
       <c r="E30" s="34"/>
@@ -32573,7 +33139,7 @@
       <c r="B31" s="62" t="s">
         <v>1047</v>
       </c>
-      <c r="D31" s="122" t="s">
+      <c r="D31" s="121" t="s">
         <v>182</v>
       </c>
       <c r="E31" s="34"/>
@@ -32586,7 +33152,7 @@
       <c r="B32" s="62" t="s">
         <v>469</v>
       </c>
-      <c r="D32" s="122" t="s">
+      <c r="D32" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E32" s="34"/>
@@ -32599,7 +33165,7 @@
       <c r="B33" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="121" t="s">
         <v>446</v>
       </c>
       <c r="E33" s="34"/>
@@ -32612,7 +33178,7 @@
       <c r="B34" s="62" t="s">
         <v>794</v>
       </c>
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="121" t="s">
         <v>167</v>
       </c>
       <c r="E34" s="34"/>
@@ -32625,7 +33191,7 @@
       <c r="B35" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="109" t="s">
         <v>251</v>
       </c>
       <c r="E35" s="34"/>
@@ -32638,7 +33204,7 @@
       <c r="B36" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E36" s="34"/>
@@ -32651,7 +33217,7 @@
       <c r="B37" s="62" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E37" s="34"/>
@@ -32664,7 +33230,7 @@
       <c r="B38" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E38" s="34"/>
@@ -32677,7 +33243,7 @@
       <c r="B39" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="D39" s="122" t="s">
+      <c r="D39" s="121" t="s">
         <v>251</v>
       </c>
       <c r="E39" s="34"/>
@@ -32690,7 +33256,7 @@
       <c r="B40" s="62" t="s">
         <v>468</v>
       </c>
-      <c r="D40" s="122" t="s">
+      <c r="D40" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E40" s="34"/>
@@ -32703,7 +33269,7 @@
       <c r="B41" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="D41" s="122" t="s">
+      <c r="D41" s="121" t="s">
         <v>134</v>
       </c>
       <c r="E41" s="34"/>
@@ -32716,7 +33282,7 @@
       <c r="B42" s="62" t="s">
         <v>710</v>
       </c>
-      <c r="D42" s="122" t="s">
+      <c r="D42" s="121" t="s">
         <v>1433</v>
       </c>
       <c r="E42" s="34"/>
@@ -32729,7 +33295,7 @@
       <c r="B43" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="D43" s="122" t="s">
+      <c r="D43" s="121" t="s">
         <v>1434</v>
       </c>
       <c r="E43" s="34"/>
@@ -32742,7 +33308,7 @@
       <c r="B44" s="62" t="s">
         <v>866</v>
       </c>
-      <c r="D44" s="122" t="s">
+      <c r="D44" s="121" t="s">
         <v>295</v>
       </c>
       <c r="E44" s="34"/>
@@ -32755,7 +33321,7 @@
       <c r="B45" s="62" t="s">
         <v>294</v>
       </c>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="121" t="s">
         <v>295</v>
       </c>
       <c r="E45" s="34"/>
@@ -32768,7 +33334,7 @@
       <c r="B46" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="D46" s="122" t="s">
+      <c r="D46" s="121" t="s">
         <v>1431</v>
       </c>
       <c r="E46" s="34"/>
@@ -32781,7 +33347,7 @@
       <c r="B47" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="122" t="s">
         <v>228</v>
       </c>
       <c r="E47" s="34"/>
@@ -32794,7 +33360,7 @@
       <c r="B48" s="62" t="s">
         <v>355</v>
       </c>
-      <c r="D48" s="113" t="s">
+      <c r="D48" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="34"/>
@@ -32807,7 +33373,7 @@
       <c r="B49" s="62" t="s">
         <v>533</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="109" t="s">
         <v>151</v>
       </c>
       <c r="E49" s="34" t="s">
@@ -32816,7 +33382,7 @@
       <c r="F49" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G49" s="84" t="s">
+      <c r="G49" s="83" t="s">
         <v>1450</v>
       </c>
     </row>
@@ -32827,7 +33393,7 @@
       <c r="B50" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="D50" s="123" t="s">
+      <c r="D50" s="122" t="s">
         <v>228</v>
       </c>
       <c r="E50" s="34"/>
@@ -32840,7 +33406,7 @@
       <c r="B51" s="62" t="s">
         <v>777</v>
       </c>
-      <c r="D51" s="123" t="s">
+      <c r="D51" s="122" t="s">
         <v>356</v>
       </c>
       <c r="E51" s="34"/>
@@ -32853,7 +33419,7 @@
       <c r="B52" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="34"/>
@@ -32866,7 +33432,7 @@
       <c r="B53" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E53" s="34"/>
@@ -32879,7 +33445,7 @@
       <c r="B54" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="D54" s="113" t="s">
+      <c r="D54" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E54" s="34"/>
@@ -32892,11 +33458,18 @@
       <c r="B55" s="62" t="s">
         <v>771</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="112" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+      <c r="E55" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G55" s="83" t="s">
+        <v>1461</v>
+      </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
       <c r="A56" s="63">
@@ -32905,7 +33478,7 @@
       <c r="B56" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D56" s="112" t="s">
         <v>278</v>
       </c>
       <c r="E56" s="34"/>
@@ -32918,7 +33491,7 @@
       <c r="B57" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="112" t="s">
         <v>595</v>
       </c>
       <c r="E57" s="34"/>
@@ -32931,7 +33504,7 @@
       <c r="B58" s="62" t="s">
         <v>918</v>
       </c>
-      <c r="D58" s="123" t="s">
+      <c r="D58" s="122" t="s">
         <v>345</v>
       </c>
       <c r="E58" s="34"/>
@@ -32944,7 +33517,7 @@
       <c r="B59" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="D59" s="109" t="s">
         <v>228</v>
       </c>
       <c r="E59" s="34"/>
@@ -32957,7 +33530,7 @@
       <c r="B60" s="62" t="s">
         <v>1052</v>
       </c>
-      <c r="D60" s="122" t="s">
+      <c r="D60" s="121" t="s">
         <v>1432</v>
       </c>
       <c r="E60" s="34"/>
@@ -32970,7 +33543,7 @@
       <c r="B61" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="D61" s="110" t="s">
+      <c r="D61" s="109" t="s">
         <v>295</v>
       </c>
       <c r="E61" s="34"/>
@@ -32983,7 +33556,7 @@
       <c r="B62" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="D62" s="123" t="s">
+      <c r="D62" s="122" t="s">
         <v>286</v>
       </c>
       <c r="E62" s="34"/>
@@ -32996,7 +33569,7 @@
       <c r="B63" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="122" t="s">
         <v>132</v>
       </c>
       <c r="E63" s="34"/>
@@ -33009,193 +33582,206 @@
       <c r="B64" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="D64" s="113" t="s">
+      <c r="D64" s="112" t="s">
         <v>479</v>
       </c>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+    <row r="65" spans="1:7" ht="15" customHeight="1">
       <c r="A65" s="63">
         <v>317</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="112" t="s">
         <v>1264</v>
       </c>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1">
+    <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="63">
         <v>329</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>439</v>
       </c>
-      <c r="D66" s="113" t="s">
+      <c r="D66" s="112" t="s">
         <v>1430</v>
       </c>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1">
+    <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="63">
         <v>323</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>405</v>
       </c>
-      <c r="D67" s="113" t="s">
+      <c r="D67" s="112" t="s">
         <v>1429</v>
       </c>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1">
+    <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="63">
         <v>332</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="D68" s="113" t="s">
+      <c r="D68" s="112" t="s">
         <v>404</v>
       </c>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1">
+    <row r="69" spans="1:7" ht="15" customHeight="1">
       <c r="A69" s="63">
         <v>366</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>1085</v>
       </c>
-      <c r="D69" s="113" t="s">
+      <c r="D69" s="112" t="s">
         <v>134</v>
       </c>
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1">
+    <row r="70" spans="1:7" ht="15" customHeight="1">
       <c r="A70" s="63">
         <v>399</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="113" t="s">
+      <c r="D70" s="112" t="s">
         <v>1421</v>
       </c>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1">
+    <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="A71" s="63">
         <v>404</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>1097</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D71" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1">
+    <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="A72" s="63">
         <v>428</v>
       </c>
       <c r="B72" s="62" t="s">
         <v>429</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1">
+    <row r="73" spans="1:7" ht="15" customHeight="1">
       <c r="A73" s="63">
         <v>437</v>
       </c>
       <c r="B73" s="62" t="s">
         <v>316</v>
       </c>
-      <c r="D73" s="113" t="s">
+      <c r="D73" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1">
+    <row r="74" spans="1:7" ht="15" customHeight="1">
       <c r="A74" s="63">
         <v>444</v>
       </c>
       <c r="B74" s="62" t="s">
         <v>765</v>
       </c>
-      <c r="D74" s="113" t="s">
+      <c r="D74" s="112" t="s">
         <v>1428</v>
       </c>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1">
+    <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="63">
         <v>449</v>
       </c>
       <c r="B75" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="113" t="s">
+      <c r="D75" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1">
+    <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="63">
         <v>450</v>
       </c>
       <c r="B76" s="62" t="s">
         <v>1026</v>
       </c>
-      <c r="D76" s="113" t="s">
+      <c r="D76" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1">
+    <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="63"/>
       <c r="B77" s="62"/>
-      <c r="D77" s="113"/>
+      <c r="D77" s="112"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1">
+    <row r="78" spans="1:7" ht="15" customHeight="1">
       <c r="A78" s="63"/>
       <c r="B78" s="62"/>
-      <c r="D78" s="113"/>
+      <c r="D78" s="112"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1">
-      <c r="A79" s="63"/>
-      <c r="B79" s="62"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1">
+    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="A79" s="63">
+        <v>699</v>
+      </c>
+      <c r="B79" s="62" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D79" s="112" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G79" s="83" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
       <c r="A80" s="63"/>
       <c r="B80" s="62"/>
-      <c r="D80" s="113"/>
+      <c r="D80" s="112"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
     </row>
@@ -33209,7 +33795,7 @@
       <c r="C81" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="113" t="s">
+      <c r="D81" s="112" t="s">
         <v>151</v>
       </c>
       <c r="E81" s="34" t="s">
@@ -33218,14 +33804,14 @@
       <c r="F81" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G81" s="84" t="s">
+      <c r="G81" s="83" t="s">
         <v>1451</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1">
       <c r="A82" s="63"/>
       <c r="B82" s="62"/>
-      <c r="D82" s="113"/>
+      <c r="D82" s="112"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
     </row>
@@ -33236,457 +33822,457 @@
       <c r="B83" s="62" t="s">
         <v>957</v>
       </c>
-      <c r="D83" s="113"/>
+      <c r="D83" s="112"/>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
       <c r="A84" s="63"/>
       <c r="B84" s="62"/>
-      <c r="D84" s="113"/>
+      <c r="D84" s="112"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85" s="63"/>
       <c r="B85" s="62"/>
-      <c r="D85" s="113"/>
+      <c r="D85" s="112"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1">
       <c r="A86" s="63"/>
       <c r="B86" s="62"/>
-      <c r="D86" s="113"/>
+      <c r="D86" s="112"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1">
       <c r="A87" s="63"/>
       <c r="B87" s="62"/>
-      <c r="D87" s="113"/>
+      <c r="D87" s="112"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1">
       <c r="A88" s="63"/>
       <c r="B88" s="62"/>
-      <c r="D88" s="113"/>
+      <c r="D88" s="112"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
       <c r="A89" s="63"/>
       <c r="B89" s="62"/>
-      <c r="D89" s="113"/>
+      <c r="D89" s="112"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1">
       <c r="A90" s="63"/>
       <c r="B90" s="62"/>
-      <c r="D90" s="113"/>
+      <c r="D90" s="112"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
       <c r="A91" s="63"/>
       <c r="B91" s="62"/>
-      <c r="D91" s="113"/>
+      <c r="D91" s="112"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1">
       <c r="A92" s="63"/>
       <c r="B92" s="62"/>
-      <c r="D92" s="113"/>
+      <c r="D92" s="112"/>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="63"/>
       <c r="B93" s="62"/>
-      <c r="D93" s="113"/>
+      <c r="D93" s="112"/>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="63"/>
       <c r="B94" s="62"/>
-      <c r="D94" s="113"/>
+      <c r="D94" s="112"/>
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
       <c r="A95" s="63"/>
       <c r="B95" s="62"/>
-      <c r="D95" s="113"/>
+      <c r="D95" s="112"/>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1">
       <c r="A96" s="63"/>
       <c r="B96" s="62"/>
-      <c r="D96" s="113"/>
+      <c r="D96" s="112"/>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:6" ht="15" customHeight="1">
       <c r="A97" s="63"/>
       <c r="B97" s="62"/>
-      <c r="D97" s="113"/>
+      <c r="D97" s="112"/>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1">
       <c r="A98" s="63"/>
       <c r="B98" s="62"/>
-      <c r="D98" s="113"/>
+      <c r="D98" s="112"/>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
     <row r="99" spans="1:6" ht="15" customHeight="1">
       <c r="A99" s="63"/>
       <c r="B99" s="62"/>
-      <c r="D99" s="113"/>
+      <c r="D99" s="112"/>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
     <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="A100" s="63"/>
       <c r="B100" s="62"/>
-      <c r="D100" s="113"/>
+      <c r="D100" s="112"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
     <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="A101" s="63"/>
       <c r="B101" s="62"/>
-      <c r="D101" s="113"/>
+      <c r="D101" s="112"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
     </row>
     <row r="102" spans="1:6" ht="15" customHeight="1">
       <c r="A102" s="63"/>
       <c r="B102" s="62"/>
-      <c r="D102" s="113"/>
+      <c r="D102" s="112"/>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
     </row>
     <row r="103" spans="1:6" ht="15" customHeight="1">
       <c r="A103" s="63"/>
       <c r="B103" s="62"/>
-      <c r="D103" s="113"/>
+      <c r="D103" s="112"/>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
     </row>
     <row r="104" spans="1:6" ht="15" customHeight="1">
       <c r="A104" s="63"/>
       <c r="B104" s="62"/>
-      <c r="D104" s="113"/>
+      <c r="D104" s="112"/>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" ht="15" customHeight="1">
       <c r="A105" s="63"/>
       <c r="B105" s="62"/>
-      <c r="D105" s="113"/>
+      <c r="D105" s="112"/>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1">
       <c r="A106" s="63"/>
       <c r="B106" s="62"/>
-      <c r="D106" s="113"/>
+      <c r="D106" s="112"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1">
       <c r="A107" s="63"/>
       <c r="B107" s="62"/>
-      <c r="D107" s="113"/>
+      <c r="D107" s="112"/>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1">
       <c r="A108" s="63"/>
       <c r="B108" s="62"/>
-      <c r="D108" s="113"/>
+      <c r="D108" s="112"/>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
     </row>
     <row r="109" spans="1:6" ht="15" customHeight="1">
       <c r="A109" s="63"/>
       <c r="B109" s="62"/>
-      <c r="D109" s="113"/>
+      <c r="D109" s="112"/>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1">
       <c r="A110" s="63"/>
       <c r="B110" s="62"/>
-      <c r="D110" s="113"/>
+      <c r="D110" s="112"/>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1">
       <c r="A111" s="63"/>
       <c r="B111" s="62"/>
-      <c r="D111" s="113"/>
+      <c r="D111" s="112"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:6" ht="15" customHeight="1">
       <c r="A112" s="63"/>
       <c r="B112" s="62"/>
-      <c r="D112" s="113"/>
+      <c r="D112" s="112"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:6" ht="15" customHeight="1">
       <c r="A113" s="63"/>
       <c r="B113" s="62"/>
-      <c r="D113" s="113"/>
+      <c r="D113" s="112"/>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
     </row>
     <row r="114" spans="1:6" ht="15" customHeight="1">
       <c r="A114" s="63"/>
       <c r="B114" s="62"/>
-      <c r="D114" s="113"/>
+      <c r="D114" s="112"/>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:6" ht="15" customHeight="1">
       <c r="A115" s="63"/>
       <c r="B115" s="62"/>
-      <c r="D115" s="113"/>
+      <c r="D115" s="112"/>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:6" ht="15" customHeight="1">
       <c r="A116" s="63"/>
       <c r="B116" s="62"/>
-      <c r="D116" s="113"/>
+      <c r="D116" s="112"/>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1">
       <c r="A117" s="63"/>
       <c r="B117" s="62"/>
-      <c r="D117" s="113"/>
+      <c r="D117" s="112"/>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:6" ht="15" customHeight="1">
       <c r="A118" s="63"/>
       <c r="B118" s="62"/>
-      <c r="D118" s="113"/>
+      <c r="D118" s="112"/>
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:6" ht="15" customHeight="1">
       <c r="A119" s="63"/>
       <c r="B119" s="62"/>
-      <c r="D119" s="113"/>
+      <c r="D119" s="112"/>
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1">
       <c r="A120" s="63"/>
       <c r="B120" s="62"/>
-      <c r="D120" s="113"/>
+      <c r="D120" s="112"/>
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
       <c r="A121" s="63"/>
       <c r="B121" s="62"/>
-      <c r="D121" s="113"/>
+      <c r="D121" s="112"/>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
       <c r="A122" s="63"/>
       <c r="B122" s="62"/>
-      <c r="D122" s="113"/>
+      <c r="D122" s="112"/>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1">
       <c r="A123" s="63"/>
       <c r="B123" s="62"/>
-      <c r="D123" s="113"/>
+      <c r="D123" s="112"/>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1">
       <c r="A124" s="63"/>
       <c r="B124" s="62"/>
-      <c r="D124" s="113"/>
+      <c r="D124" s="112"/>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1">
       <c r="A125" s="63"/>
       <c r="B125" s="62"/>
-      <c r="D125" s="113"/>
+      <c r="D125" s="112"/>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
       <c r="A126" s="63"/>
       <c r="B126" s="62"/>
-      <c r="D126" s="113"/>
+      <c r="D126" s="112"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
     <row r="127" spans="1:6" ht="15" customHeight="1">
       <c r="A127" s="63"/>
       <c r="B127" s="62"/>
-      <c r="D127" s="113"/>
+      <c r="D127" s="112"/>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
     </row>
     <row r="128" spans="1:6" ht="15" customHeight="1">
       <c r="A128" s="63"/>
       <c r="B128" s="62"/>
-      <c r="D128" s="113"/>
+      <c r="D128" s="112"/>
       <c r="E128" s="34"/>
       <c r="F128" s="34"/>
     </row>
     <row r="129" spans="1:6" ht="15" customHeight="1">
       <c r="A129" s="63"/>
       <c r="B129" s="62"/>
-      <c r="D129" s="113"/>
+      <c r="D129" s="112"/>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
     </row>
     <row r="130" spans="1:6" ht="15" customHeight="1">
       <c r="A130" s="63"/>
       <c r="B130" s="62"/>
-      <c r="D130" s="113"/>
+      <c r="D130" s="112"/>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
     </row>
     <row r="131" spans="1:6" ht="15" customHeight="1">
       <c r="A131" s="63"/>
       <c r="B131" s="62"/>
-      <c r="D131" s="113"/>
+      <c r="D131" s="112"/>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:6" ht="15" customHeight="1">
       <c r="A132" s="63"/>
       <c r="B132" s="62"/>
-      <c r="D132" s="113"/>
+      <c r="D132" s="112"/>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:6" ht="15" customHeight="1">
       <c r="A133" s="63"/>
       <c r="B133" s="62"/>
-      <c r="D133" s="113"/>
+      <c r="D133" s="112"/>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:6" ht="15" customHeight="1">
       <c r="A134" s="63"/>
       <c r="B134" s="62"/>
-      <c r="D134" s="113"/>
+      <c r="D134" s="112"/>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:6" ht="15" customHeight="1">
       <c r="A135" s="63"/>
       <c r="B135" s="62"/>
-      <c r="D135" s="113"/>
+      <c r="D135" s="112"/>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:6" ht="15" customHeight="1">
       <c r="A136" s="63"/>
       <c r="B136" s="62"/>
-      <c r="D136" s="113"/>
+      <c r="D136" s="112"/>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:6" ht="15" customHeight="1">
       <c r="A137" s="63"/>
       <c r="B137" s="62"/>
-      <c r="D137" s="113"/>
+      <c r="D137" s="112"/>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:6" ht="15" customHeight="1">
       <c r="A138" s="63"/>
       <c r="B138" s="62"/>
-      <c r="D138" s="113"/>
+      <c r="D138" s="112"/>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:6" ht="15" customHeight="1">
       <c r="A139" s="63"/>
       <c r="B139" s="62"/>
-      <c r="D139" s="113"/>
+      <c r="D139" s="112"/>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:6" ht="15" customHeight="1">
       <c r="A140" s="63"/>
       <c r="B140" s="62"/>
-      <c r="D140" s="113"/>
+      <c r="D140" s="112"/>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" ht="15" customHeight="1">
       <c r="A141" s="63"/>
       <c r="B141" s="62"/>
-      <c r="D141" s="113"/>
+      <c r="D141" s="112"/>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:6" ht="15" customHeight="1">
       <c r="A142" s="63"/>
       <c r="B142" s="62"/>
-      <c r="D142" s="113"/>
+      <c r="D142" s="112"/>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:6" ht="15" customHeight="1">
       <c r="A143" s="63"/>
       <c r="B143" s="62"/>
-      <c r="D143" s="113"/>
+      <c r="D143" s="112"/>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:6" ht="15" customHeight="1">
       <c r="A144" s="63"/>
       <c r="B144" s="62"/>
-      <c r="D144" s="113"/>
+      <c r="D144" s="112"/>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="2:6" ht="15" customHeight="1">
       <c r="B145" s="62"/>
-      <c r="D145" s="113"/>
+      <c r="D145" s="112"/>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
     <row r="146" spans="2:6" ht="15" customHeight="1">
       <c r="B146" s="62"/>
-      <c r="D146" s="113"/>
+      <c r="D146" s="112"/>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
     </row>
     <row r="147" spans="2:6" ht="15" customHeight="1">
       <c r="B147" s="62"/>
-      <c r="D147" s="113"/>
+      <c r="D147" s="112"/>
       <c r="E147" s="34"/>
       <c r="F147" s="34"/>
     </row>
     <row r="148" spans="2:6" ht="15" customHeight="1">
-      <c r="D148" s="113"/>
+      <c r="D148" s="112"/>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
     </row>
@@ -33833,9 +34419,10 @@
     <hyperlink ref="B76" r:id="rId60" tooltip="Delete Node in a BST" display="https://leetcode.com/problems/delete-node-in-a-bst" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
     <hyperlink ref="B49" r:id="rId61" tooltip="Invert Binary Tree" display="https://leetcode.com/problems/invert-binary-tree" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
     <hyperlink ref="B81" r:id="rId62" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
+    <hyperlink ref="B79" r:id="rId63" xr:uid="{C642CC32-7F60-403F-9700-3EE1EE91E0ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId63"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -33969,7 +34556,7 @@
       <c r="F13" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="83" t="s">
         <v>1330</v>
       </c>
     </row>
@@ -33989,7 +34576,7 @@
       <c r="F14" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G14" s="92" t="s">
+      <c r="G14" s="91" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -34009,7 +34596,7 @@
       <c r="F15" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="83" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -34029,7 +34616,7 @@
       <c r="F16" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="83" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -34049,7 +34636,7 @@
       <c r="F17" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="83" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -34070,7 +34657,7 @@
       <c r="F18" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G18" s="84" t="s">
+      <c r="G18" s="83" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -34970,7 +35557,7 @@
       <c r="F13" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="83" t="s">
         <v>116</v>
       </c>
     </row>
@@ -34995,7 +35582,7 @@
       <c r="A15" s="41">
         <v>56</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="88" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="32" t="s">
@@ -35004,7 +35591,7 @@
       <c r="D15" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="83" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -35054,7 +35641,7 @@
       <c r="A19" s="40">
         <v>252</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="89" t="s">
         <v>279</v>
       </c>
       <c r="D19" s="36" t="s">
@@ -35066,7 +35653,7 @@
       <c r="F19" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="83" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -35074,7 +35661,7 @@
       <c r="A20" s="40">
         <v>253</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="89" t="s">
         <v>152</v>
       </c>
       <c r="D20" s="36" t="s">
@@ -35086,7 +35673,7 @@
       <c r="F20" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="83" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -35121,7 +35708,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
-      <c r="D23" s="117"/>
+      <c r="D23" s="116"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="32"/>
@@ -35129,7 +35716,7 @@
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="3"/>
-      <c r="D24" s="117"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="32"/>
@@ -35137,7 +35724,7 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="3"/>
-      <c r="D25" s="117"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
       <c r="G25" s="32"/>
@@ -35145,7 +35732,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
-      <c r="D26" s="117"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="32"/>
@@ -35153,7 +35740,7 @@
     <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
-      <c r="D27" s="117"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="32"/>
@@ -35191,7 +35778,7 @@
       <c r="F30" s="34" t="s">
         <v>1305</v>
       </c>
-      <c r="G30" s="84" t="s">
+      <c r="G30" s="83" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -35901,8 +36488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A4:G97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -35913,7 +36500,7 @@
     <col min="4" max="4" width="32.81640625" style="32" customWidth="1"/>
     <col min="5" max="5" width="7.08984375" style="55" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.7265625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="42.7265625" style="32" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="55"/>
   </cols>
   <sheetData>
@@ -35951,7 +36538,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="58" t="s">
@@ -35960,7 +36547,7 @@
       <c r="C10" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="87" t="s">
         <v>117</v>
       </c>
       <c r="E10" s="58" t="s">
@@ -35969,7 +36556,7 @@
       <c r="F10" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="G10" s="58" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -36000,10 +36587,10 @@
       <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="83">
+      <c r="A13" s="82">
         <v>1335</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>1184</v>
       </c>
       <c r="C13" s="56" t="s">
@@ -36029,7 +36616,7 @@
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="91">
+      <c r="A15" s="90">
         <v>5</v>
       </c>
       <c r="B15" s="62" t="s">
@@ -36038,7 +36625,7 @@
       <c r="C15" s="56" t="s">
         <v>1231</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>146</v>
       </c>
       <c r="E15" s="34"/>
@@ -36077,7 +36664,7 @@
       <c r="B18" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="119" t="s">
+      <c r="D18" s="118" t="s">
         <v>301</v>
       </c>
       <c r="E18" s="34"/>
@@ -36090,7 +36677,7 @@
       <c r="B19" s="62" t="s">
         <v>450</v>
       </c>
-      <c r="D19" s="119" t="s">
+      <c r="D19" s="118" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="34"/>
@@ -36103,7 +36690,7 @@
       <c r="B20" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="118" t="s">
         <v>130</v>
       </c>
       <c r="E20" s="34"/>
@@ -36116,7 +36703,7 @@
       <c r="B21" s="62" t="s">
         <v>600</v>
       </c>
-      <c r="D21" s="119" t="s">
+      <c r="D21" s="118" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="34"/>
@@ -36155,7 +36742,7 @@
       <c r="B24" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="108" t="s">
         <v>637</v>
       </c>
       <c r="E24" s="34"/>
@@ -36168,7 +36755,7 @@
       <c r="B25" s="62" t="s">
         <v>818</v>
       </c>
-      <c r="D25" s="109" t="s">
+      <c r="D25" s="108" t="s">
         <v>637</v>
       </c>
       <c r="E25" s="34"/>
@@ -36181,7 +36768,7 @@
       <c r="B26" s="62" t="s">
         <v>825</v>
       </c>
-      <c r="D26" s="109" t="s">
+      <c r="D26" s="108" t="s">
         <v>146</v>
       </c>
       <c r="E26" s="34"/>
@@ -36194,7 +36781,7 @@
       <c r="B27" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="109" t="s">
+      <c r="D27" s="108" t="s">
         <v>146</v>
       </c>
       <c r="E27" s="34"/>
@@ -36207,7 +36794,7 @@
       <c r="B28" s="62" t="s">
         <v>801</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="108" t="s">
         <v>146</v>
       </c>
       <c r="E28" s="34"/>
@@ -36220,7 +36807,7 @@
       <c r="B29" s="62" t="s">
         <v>1042</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="108" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="34"/>
@@ -36233,7 +36820,7 @@
       <c r="B30" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="108" t="s">
         <v>130</v>
       </c>
       <c r="E30" s="34"/>
@@ -36246,7 +36833,7 @@
       <c r="B31" s="62" t="s">
         <v>1031</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="108" t="s">
         <v>130</v>
       </c>
       <c r="E31" s="34"/>
@@ -36259,7 +36846,7 @@
       <c r="B32" s="62" t="s">
         <v>596</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="108" t="s">
         <v>597</v>
       </c>
       <c r="E32" s="34"/>
@@ -36298,7 +36885,7 @@
       <c r="B35" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="108" t="s">
         <v>328</v>
       </c>
       <c r="E35" s="34"/>
@@ -36311,7 +36898,7 @@
       <c r="B36" s="62" t="s">
         <v>449</v>
       </c>
-      <c r="D36" s="119" t="s">
+      <c r="D36" s="118" t="s">
         <v>130</v>
       </c>
       <c r="E36" s="34"/>
@@ -36324,7 +36911,7 @@
       <c r="B37" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="119" t="s">
+      <c r="D37" s="118" t="s">
         <v>347</v>
       </c>
       <c r="E37" s="34"/>
@@ -36402,7 +36989,7 @@
       <c r="B43" s="62" t="s">
         <v>835</v>
       </c>
-      <c r="D43" s="119" t="s">
+      <c r="D43" s="118" t="s">
         <v>134</v>
       </c>
       <c r="E43" s="34"/>
@@ -36469,7 +37056,7 @@
       </c>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
-      <c r="G48" s="65"/>
+      <c r="G48" s="83"/>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="61">
@@ -36488,7 +37075,7 @@
       <c r="F49" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G49" s="65" t="s">
+      <c r="G49" s="83" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -36496,7 +37083,7 @@
       <c r="A50" s="55">
         <v>85</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="55"/>
@@ -36509,7 +37096,7 @@
       <c r="F50" s="34" t="s">
         <v>1012</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="83" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -36570,7 +37157,7 @@
       <c r="F54" s="34"/>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
-      <c r="A55" s="83">
+      <c r="A55" s="82">
         <v>161</v>
       </c>
       <c r="B55" s="62" t="s">
@@ -36586,7 +37173,7 @@
       <c r="F55" s="34" t="s">
         <v>1225</v>
       </c>
-      <c r="G55" s="84" t="s">
+      <c r="G55" s="83" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -36611,7 +37198,7 @@
       <c r="B57" s="26" t="s">
         <v>758</v>
       </c>
-      <c r="D57" s="109" t="s">
+      <c r="D57" s="108" t="s">
         <v>759</v>
       </c>
       <c r="E57" s="34"/>
@@ -36624,7 +37211,7 @@
       <c r="B58" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="108" t="s">
         <v>576</v>
       </c>
       <c r="E58" s="34"/>
@@ -36641,26 +37228,30 @@
       <c r="F59" s="34"/>
     </row>
     <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="115">
+      <c r="A60" s="114">
         <v>351</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="D60" s="120" t="s">
+      <c r="D60" s="119" t="s">
         <v>1271</v>
       </c>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
-      <c r="A61" s="115">
+      <c r="A61" s="114">
         <v>354</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>834</v>
       </c>
-      <c r="D61" s="109" t="s">
+      <c r="D61" s="108" t="s">
         <v>347</v>
       </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="A62" s="61">
@@ -36672,17 +37263,21 @@
       <c r="D62" s="22" t="s">
         <v>175</v>
       </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1">
-      <c r="A63" s="81">
+      <c r="A63" s="61">
         <v>363</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>813</v>
       </c>
-      <c r="D63" s="121" t="s">
+      <c r="D63" s="120" t="s">
         <v>1398</v>
       </c>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="61">
@@ -36691,23 +37286,27 @@
       <c r="B64" s="26" t="s">
         <v>1136</v>
       </c>
-      <c r="D64" s="109" t="s">
+      <c r="D64" s="108" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1">
-      <c r="A65" s="118">
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="61">
         <v>375</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>763</v>
       </c>
-      <c r="D65" s="121" t="s">
+      <c r="D65" s="120" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1">
-      <c r="A66" s="81">
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
+      <c r="A66" s="61">
         <v>403</v>
       </c>
       <c r="B66" s="26" t="s">
@@ -36716,9 +37315,11 @@
       <c r="D66" s="22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1">
-      <c r="A67" s="60">
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1">
+      <c r="A67" s="61">
         <v>416</v>
       </c>
       <c r="B67" s="26" t="s">
@@ -36727,9 +37328,11 @@
       <c r="D67" s="22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1">
-      <c r="A68" s="81">
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1">
+      <c r="A68" s="61">
         <v>446</v>
       </c>
       <c r="B68" s="26" t="s">
@@ -36738,131 +37341,209 @@
       <c r="D68" s="22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1">
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+    </row>
+    <row r="69" spans="1:7" ht="15" customHeight="1">
+      <c r="A69" s="61"/>
       <c r="B69" s="26"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1">
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" customHeight="1">
+      <c r="A70" s="61"/>
       <c r="B70" s="26"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1">
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" customHeight="1">
+      <c r="A71" s="61"/>
       <c r="B71" s="26"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1">
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1">
+      <c r="A72" s="61"/>
       <c r="B72" s="26"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1">
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" customHeight="1">
+      <c r="A73" s="61"/>
       <c r="B73" s="26"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1">
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1">
+      <c r="A74" s="61"/>
       <c r="B74" s="26"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1">
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1">
+      <c r="A75" s="61"/>
       <c r="B75" s="26"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1">
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="A76" s="61"/>
       <c r="B76" s="26"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1">
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1">
+      <c r="A77" s="61"/>
       <c r="B77" s="26"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1">
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+    </row>
+    <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="A78" s="61"/>
       <c r="B78" s="26"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1">
-      <c r="B79" s="26"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1">
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="A79" s="61">
+        <v>1745</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D79" s="32" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G79" s="83" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="A80" s="61"/>
       <c r="B80" s="26"/>
-    </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1">
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+    </row>
+    <row r="81" spans="2:6" ht="15" customHeight="1">
       <c r="B81" s="26"/>
-    </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1">
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="2:6" ht="15" customHeight="1">
       <c r="B82" s="26"/>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1">
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="2:6" ht="15" customHeight="1">
       <c r="B83" s="26"/>
-    </row>
-    <row r="84" spans="2:2" ht="15" customHeight="1">
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+    </row>
+    <row r="84" spans="2:6" ht="15" customHeight="1">
       <c r="B84" s="26"/>
-    </row>
-    <row r="85" spans="2:2" ht="15" customHeight="1">
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+    </row>
+    <row r="85" spans="2:6" ht="15" customHeight="1">
       <c r="B85" s="26"/>
-    </row>
-    <row r="86" spans="2:2" ht="15" customHeight="1">
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+    </row>
+    <row r="86" spans="2:6" ht="15" customHeight="1">
       <c r="B86" s="26"/>
-    </row>
-    <row r="87" spans="2:2" ht="15" customHeight="1">
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+    </row>
+    <row r="87" spans="2:6" ht="15" customHeight="1">
       <c r="B87" s="26"/>
-    </row>
-    <row r="88" spans="2:2" ht="15" customHeight="1">
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+    </row>
+    <row r="88" spans="2:6" ht="15" customHeight="1">
       <c r="B88" s="26"/>
-    </row>
-    <row r="89" spans="2:2" ht="15" customHeight="1">
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+    </row>
+    <row r="89" spans="2:6" ht="15" customHeight="1">
       <c r="B89" s="26"/>
-    </row>
-    <row r="90" spans="2:2" ht="15" customHeight="1">
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+    </row>
+    <row r="90" spans="2:6" ht="15" customHeight="1">
       <c r="B90" s="26"/>
-    </row>
-    <row r="91" spans="2:2" ht="15" customHeight="1">
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+    </row>
+    <row r="91" spans="2:6" ht="15" customHeight="1">
       <c r="B91" s="26"/>
-    </row>
-    <row r="92" spans="2:2" ht="15" customHeight="1">
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+    </row>
+    <row r="92" spans="2:6" ht="15" customHeight="1">
       <c r="B92" s="26"/>
-    </row>
-    <row r="93" spans="2:2" ht="15" customHeight="1">
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+    </row>
+    <row r="93" spans="2:6" ht="15" customHeight="1">
       <c r="B93" s="26"/>
-    </row>
-    <row r="94" spans="2:2" ht="15" customHeight="1">
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+    </row>
+    <row r="94" spans="2:6" ht="15" customHeight="1">
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="2:2" ht="15" customHeight="1">
+    <row r="95" spans="2:6" ht="15" customHeight="1">
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="2:2" ht="15" customHeight="1">
+    <row r="96" spans="2:6" ht="15" customHeight="1">
       <c r="B96" s="26"/>
     </row>
     <row r="97" spans="2:2" ht="15" customHeight="1">
       <c r="B97" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E11:E54 E56:E59">
+  <conditionalFormatting sqref="E11:E54 E56:E93">
     <cfRule type="containsText" dxfId="39" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E54 E56:E59">
+  <conditionalFormatting sqref="E11:E54 E56:E93">
     <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E54 E56:E59">
+  <conditionalFormatting sqref="E11:E54 E56:E93">
     <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F54 F56:F59">
+  <conditionalFormatting sqref="F11:F54 F56:F93">
     <cfRule type="notContainsBlanks" dxfId="36" priority="9">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F54 F56:F59">
+  <conditionalFormatting sqref="F11:F54 F56:F93">
     <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F54 F56:F59">
+  <conditionalFormatting sqref="F11:F54 F56:F93">
     <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F54 F56:F59">
+  <conditionalFormatting sqref="F11:F54 F56:F93">
     <cfRule type="containsText" dxfId="33" priority="12" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F11))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F54 F56:F59">
+  <conditionalFormatting sqref="F11:F54 F56:F93">
     <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F11))))</formula>
     </cfRule>
@@ -36908,10 +37589,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E11:E59" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E11:E93" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F11:F59" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F11:F93" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36978,8 +37659,10 @@
     <hyperlink ref="B67" r:id="rId60" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0900-000061000000}"/>
     <hyperlink ref="D67" r:id="rId61" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000062000000}"/>
     <hyperlink ref="B68" r:id="rId62" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-000059010000}"/>
+    <hyperlink ref="B79" r:id="rId63" xr:uid="{BE3FB932-0FC8-43E6-8636-B6A5F6EEFFE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -37000,7 +37683,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="58" t="s">
@@ -37009,7 +37692,7 @@
       <c r="D2" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>117</v>
       </c>
       <c r="F2" s="58" t="s">
@@ -37018,7 +37701,7 @@
       <c r="G2" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="87" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -37169,10 +37852,10 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="73">
+      <c r="B19" s="72">
         <v>362</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="73" t="s">
         <v>735</v>
       </c>
       <c r="D19" s="60" t="s">
@@ -37217,8 +37900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:D73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -37294,7 +37977,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="87" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="58" t="s">
@@ -37303,7 +37986,7 @@
       <c r="C15" s="58" t="s">
         <v>1245</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="87" t="s">
         <v>117</v>
       </c>
       <c r="E15" s="58" t="s">
@@ -37312,15 +37995,15 @@
       <c r="F15" s="58" t="s">
         <v>1247</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="87" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
-      <c r="A16" s="83">
+      <c r="A16" s="82">
         <v>233</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>1078</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -37335,7 +38018,7 @@
       <c r="F16" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="83" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -37888,7 +38571,7 @@
       <c r="F60" s="34"/>
     </row>
     <row r="61" spans="1:6" ht="15" customHeight="1">
-      <c r="A61" s="114">
+      <c r="A61" s="113">
         <v>307</v>
       </c>
       <c r="B61" s="59" t="s">
@@ -37901,7 +38584,7 @@
       <c r="F61" s="34"/>
     </row>
     <row r="62" spans="1:6" ht="15" customHeight="1">
-      <c r="A62" s="114">
+      <c r="A62" s="113">
         <v>308</v>
       </c>
       <c r="B62" s="59" t="s">
@@ -37914,7 +38597,7 @@
       <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1">
-      <c r="A63" s="114">
+      <c r="A63" s="113">
         <v>319</v>
       </c>
       <c r="B63" s="59" t="s">
@@ -37927,7 +38610,7 @@
       <c r="F63" s="34"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
-      <c r="A64" s="116">
+      <c r="A64" s="115">
         <v>335</v>
       </c>
       <c r="B64" s="59" t="s">
@@ -37940,7 +38623,7 @@
       <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="80">
+      <c r="A65" s="79">
         <v>365</v>
       </c>
       <c r="B65" s="59" t="s">
@@ -37953,7 +38636,7 @@
       <c r="F65" s="34"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="118">
+      <c r="A66" s="117">
         <v>371</v>
       </c>
       <c r="B66" s="59" t="s">
@@ -37966,7 +38649,7 @@
       <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="118">
+      <c r="A67" s="117">
         <v>397</v>
       </c>
       <c r="B67" s="59" t="s">
@@ -38027,7 +38710,7 @@
       <c r="F71" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G71" s="84" t="s">
+      <c r="G71" s="83" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -38061,7 +38744,7 @@
       <c r="F74" s="34" t="s">
         <v>1227</v>
       </c>
-      <c r="G74" s="84" t="s">
+      <c r="G74" s="83" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -38081,7 +38764,7 @@
       <c r="F75" s="34" t="s">
         <v>1331</v>
       </c>
-      <c r="G75" s="84" t="s">
+      <c r="G75" s="83" t="s">
         <v>1436</v>
       </c>
     </row>

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DAF06A-9064-4113-AEC3-8B1A68250B8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E26A77-AEC4-4541-8215-A7CE9CC61DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">GoogleFul!$D$1:$I$272</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -430,7 +429,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B96" authorId="0" shapeId="0" xr:uid="{C8338539-DBC3-4BEA-A0B8-3AC4EE8BADDF}">
+    <comment ref="B92" authorId="0" shapeId="0" xr:uid="{BF2E883C-B68B-4B19-9FAF-2BCE544345F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DFS - to collect k perents till target. BFS to print
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="0" shapeId="0" xr:uid="{C8338539-DBC3-4BEA-A0B8-3AC4EE8BADDF}">
       <text>
         <r>
           <rPr>
@@ -575,7 +599,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3581" uniqueCount="1514">
   <si>
     <t>#</t>
   </si>
@@ -14061,6 +14085,256 @@
 	}
 	return false;
 }</t>
+  </si>
+  <si>
+    <t>Kill Process</t>
+  </si>
+  <si>
+    <t>public IList&lt;int&gt; KillProcess(IList&lt;int&gt; pid, IList&lt;int&gt; ppid, int kill) {
+	Dictionary&lt;int, IList&lt;int&gt;&gt; dict = new Dictionary&lt;int, IList&lt;int&gt;&gt;();
+	for (int i = 0; i &lt; ppid.Count; i++)
+	{
+		if(ppid[i] &gt; 0)
+		{
+			if(!dict.ContainsKey(ppid[i]))
+				dict.Add(ppid[i], new List&lt;int&gt;());
+			dict[ppid[i]].Add(pid[i]);
+		}
+	} 
+	IList&lt;int&gt; result = new List&lt;int&gt;();
+	Queue&lt;int&gt; queue = new Queue&lt;int&gt;();
+	queue.Enqueue(kill);
+	while (queue.Any())
+	{
+		int k = queue.Dequeue();
+		result.Add(k);
+		if(dict.ContainsKey(k))
+		{
+			foreach(int c in dict[k])
+				queue.Enqueue(c);
+			dict.Remove(k);
+		}
+	}
+	return result;
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public IList&lt;int&gt; DistanceK(TreeNode root, TreeNode target, int K) {
+	IList&lt;int&gt; result = new List&lt;int&gt;();
+	if(root == null || target == null)
+		return result;
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//DFS to collect all parents till K disatnce </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	IList&lt;TreeNode&gt; parents = new List&lt;TreeNode&gt;();
+	PO_GetParentsTillTarget(root, target, parents, K);
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Doing BFS to collect all nodes K distance from target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	BFS(target, K, target, result);  
+	while(parents.Count &gt; 0)
+	{
+		TreeNode exclude = parents.Count &gt; 1 ? parents[1] : target;
+		BFS(parents[0], K - parents.Count, exclude, result);
+		parents.RemoveAt(0);
+	}
+	return result;
+}
+private bool PO_GetParentsTillTarget(TreeNode root, TreeNode target, IList&lt;TreeNode&gt; parents, int K)
+{
+	if(root == target)
+		return true;
+	bool found = false;
+	if(root.left !=null ) 
+		found = PO_GetParentsTillTarget(root.left, target, parents, K);
+	if(!found &amp;&amp; root.right !=null ) 
+		found = PO_GetParentsTillTarget(root.right, target, parents, K);
+	//if target found in this chain, store the parents
+	if(found &amp;&amp; parents.Count &lt; K) 
+		parents.Insert(0, root);
+	return found;
+}
+private void BFS(TreeNode root, int tillDepth, TreeNode exclude, IList&lt;int&gt; result)
+{
+	Queue&lt;TreeNode&gt; q = new Queue&lt;TreeNode&gt;();
+	q.Enqueue(root);
+	while(q.Any())
+	{
+		int count = q.Count();
+		while(count &gt; 0 )
+		{
+			TreeNode temp = q.Dequeue();
+			if(tillDepth == 0)
+				result.Add(temp.val);
+			else
+			{
+				if(temp.left != null &amp;&amp; temp.left != exclude) 
+					q.Enqueue(temp.left);
+				if(temp.right != null &amp;&amp; temp.right != exclude) 
+					q.Enqueue(temp.right);
+			}
+			count --;
+		}
+		tillDepth --;
+	}
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>public IList&lt;string&gt; LetterCasePermutation(string S) {
+	IList&lt;string&gt; result = new List&lt;string&gt;();
+	Helper(S, 0, new StringBuilder(), result);        
+	return result;
+}
+void Helper(string s, int idx, StringBuilder sb, IList&lt;string&gt; result)
+{
+	if(idx == s.Length)
+	{
+		result.Add(sb.ToString());
+		return;
+	}
+	if(char.IsLetter(s[idx]))
+	{
+		if(char.IsLower(s[idx]))
+			sb.Append(char.ToUpper(s[idx]));
+		else
+			sb.Append(char.ToLower(s[idx]));
+		Helper(s, idx + 1, sb, result);
+		sb.Remove(sb.Length - 1, 1);
+		sb.Append(s[idx]);
+		Helper(s, idx + 1, sb, result);
+		sb.Remove(sb.Length - 1, 1);
+	}
+	else
+	{
+		sb.Append(s[idx]);
+		Helper(s, idx + 1, sb, result);
+		sb.Remove(sb.Length - 1, 1);
+	}
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public bool IsBipartite(int[][] graph) {
+	IList&lt;IList&lt;int&gt;&gt; adjList = new List&lt;IList&lt;int&gt;&gt;();
+	for (int i = 0; i &lt; graph.Length; i++)
+		adjList.Add(new List&lt;int&gt;());
+	for (int i = 0; i &lt; graph.Length; i++)
+	{
+		for (int j = 0; j &lt; graph[i].Length; j++)
+		{
+			adjList[i].Add(graph[i][j]);
+		}
+	}
+	int[] visitedColor = new int[graph.Length];
+	for (int i = 0; i &lt; graph.Length; i++)
+	{
+		if (visitedColor[i] == 0)
+		{
+			visitedColor[i] = 1;
+			if (!DFS(adjList, visitedColor, i))
+				return false;
+		}
+	}
+	return true;
+}
+private bool DFS(IList&lt;IList&lt;int&gt;&gt; adjList, int[] visitedColor, int node)
+{
+	foreach (int neighbour in adjList[node])
+	{
+		if (visitedColor[neighbour] == 0)
+		{
+			visitedColor[neighbour] = visitedColor[node] == 1 ? 2 : 1;
+			bool isChildBipartite = DFS(adjList, visitedColor, neighbour);
+			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (!isChildBipartite) //BACK Edge (DFS) makes a cycle
+				return false;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		}
+		else
+		{
+			</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (visitedColor[neighbour] == visitedColor[node]) //if connecting to same color ***
+				return false;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		}
+	}
+	return true;
+}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17078,8 +17352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:C140"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -18074,15 +18348,7 @@
       <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
-        <v>785</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>155</v>
-      </c>
+      <c r="B78" s="9"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
     </row>
@@ -19485,256 +19751,255 @@
     <hyperlink ref="B5" r:id="rId11" tooltip="Validate IP Address" display="https://leetcode.com/problems/validate-ip-address" xr:uid="{00000000-0004-0000-0900-000016000000}"/>
     <hyperlink ref="C5" r:id="rId12" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000017000000}"/>
     <hyperlink ref="B44" r:id="rId13" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0900-00001B000000}"/>
-    <hyperlink ref="B78" r:id="rId14" tooltip="Is Graph Bipartite?" display="https://leetcode.com/problems/is-graph-bipartite" xr:uid="{00000000-0004-0000-0900-00001C000000}"/>
-    <hyperlink ref="B83" r:id="rId15" tooltip="Friends Of Appropriate Ages" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0900-00001D000000}"/>
-    <hyperlink ref="C83" r:id="rId16" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00001E000000}"/>
-    <hyperlink ref="B11" r:id="rId17" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0900-000023000000}"/>
-    <hyperlink ref="B54" r:id="rId18" tooltip="Stickers to Spell Word" display="https://leetcode.com/problems/stickers-to-spell-word" xr:uid="{00000000-0004-0000-0900-000028000000}"/>
-    <hyperlink ref="B64" r:id="rId19" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0900-000029000000}"/>
-    <hyperlink ref="B51" r:id="rId20" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0900-00002A000000}"/>
-    <hyperlink ref="C51" r:id="rId21" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002B000000}"/>
-    <hyperlink ref="B53" r:id="rId22" tooltip="Maximum Sum of 3 Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0900-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId23" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0900-00002F000000}"/>
-    <hyperlink ref="B80" r:id="rId24" tooltip="Custom Sort String" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0900-000030000000}"/>
-    <hyperlink ref="C80" r:id="rId25" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000031000000}"/>
-    <hyperlink ref="B29" r:id="rId26" tooltip="Binary Tree Longest Consecutive Sequence II" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence-ii" xr:uid="{00000000-0004-0000-0900-000032000000}"/>
-    <hyperlink ref="C29" r:id="rId27" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000033000000}"/>
-    <hyperlink ref="B12" r:id="rId28" tooltip="Next Greater Element I" display="https://leetcode.com/problems/next-greater-element-i" xr:uid="{00000000-0004-0000-0900-000034000000}"/>
-    <hyperlink ref="C12" r:id="rId29" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000035000000}"/>
-    <hyperlink ref="B13" r:id="rId30" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0900-000038000000}"/>
-    <hyperlink ref="B18" r:id="rId31" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0900-000039000000}"/>
-    <hyperlink ref="B45" r:id="rId32" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0900-00003A000000}"/>
-    <hyperlink ref="C45" r:id="rId33" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-00003B000000}"/>
-    <hyperlink ref="B55" r:id="rId34" tooltip="Top K Frequent Words" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0900-00003C000000}"/>
-    <hyperlink ref="B4" r:id="rId35" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0900-00003D000000}"/>
-    <hyperlink ref="C4" r:id="rId36" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-00003E000000}"/>
-    <hyperlink ref="B82" r:id="rId37" tooltip="Goat Latin" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0900-00003F000000}"/>
-    <hyperlink ref="C82" r:id="rId38" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000040000000}"/>
-    <hyperlink ref="B35" r:id="rId39" tooltip="Friend Requests I: Overall Acceptance Rate" display="https://leetcode.com/problems/friend-requests-i-overall-acceptance-rate" xr:uid="{00000000-0004-0000-0900-000043000000}"/>
-    <hyperlink ref="B62" r:id="rId40" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0900-000044000000}"/>
-    <hyperlink ref="C62" r:id="rId41" tooltip="Design" display="https://leetcode.com/tag/design" xr:uid="{00000000-0004-0000-0900-000045000000}"/>
-    <hyperlink ref="B87" r:id="rId42" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0900-000048000000}"/>
-    <hyperlink ref="B9" r:id="rId43" tooltip="The Maze" display="https://leetcode.com/problems/the-maze" xr:uid="{00000000-0004-0000-0900-000049000000}"/>
-    <hyperlink ref="B39" r:id="rId44" tooltip="Merge Two Binary Trees" display="https://leetcode.com/problems/merge-two-binary-trees" xr:uid="{00000000-0004-0000-0900-00004A000000}"/>
-    <hyperlink ref="C39" r:id="rId45" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00004B000000}"/>
-    <hyperlink ref="B27" r:id="rId46" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0900-00004C000000}"/>
-    <hyperlink ref="B10" r:id="rId47" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0900-00004E000000}"/>
-    <hyperlink ref="C10" r:id="rId48" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00004F000000}"/>
-    <hyperlink ref="B52" r:id="rId49" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0900-000050000000}"/>
-    <hyperlink ref="C52" r:id="rId50" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000051000000}"/>
-    <hyperlink ref="B8" r:id="rId51" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0900-000054000000}"/>
-    <hyperlink ref="C8" r:id="rId52" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000055000000}"/>
-    <hyperlink ref="B73" r:id="rId53" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0900-000056000000}"/>
-    <hyperlink ref="B41" r:id="rId54" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0900-000057000000}"/>
-    <hyperlink ref="B20" r:id="rId55" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0900-00005E000000}"/>
-    <hyperlink ref="B65" r:id="rId56" tooltip="Remove Comments" display="https://leetcode.com/problems/remove-comments" xr:uid="{00000000-0004-0000-0900-00005F000000}"/>
-    <hyperlink ref="C65" r:id="rId57" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000060000000}"/>
-    <hyperlink ref="B22" r:id="rId58" tooltip="Construct Binary Tree from String" display="https://leetcode.com/problems/construct-binary-tree-from-string" xr:uid="{00000000-0004-0000-0900-000063000000}"/>
-    <hyperlink ref="B34" r:id="rId59" tooltip="Subtree of Another Tree" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0900-000064000000}"/>
-    <hyperlink ref="C34" r:id="rId60" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000065000000}"/>
-    <hyperlink ref="B46" r:id="rId61" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0900-000066000000}"/>
-    <hyperlink ref="C46" r:id="rId62" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000067000000}"/>
-    <hyperlink ref="B26" r:id="rId63" tooltip="Boundary of Binary Tree" display="https://leetcode.com/problems/boundary-of-binary-tree" xr:uid="{00000000-0004-0000-0900-000068000000}"/>
-    <hyperlink ref="C26" r:id="rId64" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000069000000}"/>
-    <hyperlink ref="B3" r:id="rId65" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0900-00006A000000}"/>
-    <hyperlink ref="B57" r:id="rId66" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0900-00006B000000}"/>
-    <hyperlink ref="B67" r:id="rId67" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0900-00006C000000}"/>
-    <hyperlink ref="C67" r:id="rId68" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00006D000000}"/>
-    <hyperlink ref="B6" r:id="rId69" tooltip="Concatenated Words" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0900-00006E000000}"/>
-    <hyperlink ref="B66" r:id="rId70" tooltip="Candy Crush" display="https://leetcode.com/problems/candy-crush" xr:uid="{00000000-0004-0000-0900-00006F000000}"/>
-    <hyperlink ref="B17" r:id="rId71" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
-    <hyperlink ref="C17" r:id="rId72" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
-    <hyperlink ref="B19" r:id="rId73" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0900-000077000000}"/>
-    <hyperlink ref="C19" r:id="rId74" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-000078000000}"/>
-    <hyperlink ref="B28" r:id="rId75" tooltip="Split Array with Equal Sum" display="https://leetcode.com/problems/split-array-with-equal-sum" xr:uid="{00000000-0004-0000-0900-00007F000000}"/>
-    <hyperlink ref="C28" r:id="rId76" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000080000000}"/>
-    <hyperlink ref="B23" r:id="rId77" tooltip="Single Element in a Sorted Array" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-000081000000}"/>
-    <hyperlink ref="C23" r:id="rId78" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-000082000000}"/>
-    <hyperlink ref="B24" r:id="rId79" tooltip="01 Matrix" display="https://leetcode.com/problems/01-matrix" xr:uid="{00000000-0004-0000-0900-000084000000}"/>
-    <hyperlink ref="B43" r:id="rId80" tooltip="Average of Levels in Binary Tree" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000085000000}"/>
-    <hyperlink ref="C43" r:id="rId81" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000086000000}"/>
-    <hyperlink ref="B61" r:id="rId82" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0900-000087000000}"/>
-    <hyperlink ref="C61" r:id="rId83" tooltip="Linked List" display="https://leetcode.com/tag/linked-list" xr:uid="{00000000-0004-0000-0900-000088000000}"/>
-    <hyperlink ref="B93" r:id="rId84" tooltip="Smallest Subtree with all the Deepest Nodes" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0900-000089000000}"/>
-    <hyperlink ref="B98" r:id="rId85" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0900-00008A000000}"/>
-    <hyperlink ref="B59" r:id="rId86" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0900-00008B000000}"/>
-    <hyperlink ref="B100" r:id="rId87" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0900-00008F000000}"/>
-    <hyperlink ref="C100" r:id="rId88" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000090000000}"/>
-    <hyperlink ref="B70" r:id="rId89" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0900-000091000000}"/>
-    <hyperlink ref="C70" r:id="rId90" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000092000000}"/>
-    <hyperlink ref="B85" r:id="rId91" tooltip="Flipping an Image" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0900-000095000000}"/>
-    <hyperlink ref="C85" r:id="rId92" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000096000000}"/>
-    <hyperlink ref="B95" r:id="rId93" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0900-000097000000}"/>
-    <hyperlink ref="C95" r:id="rId94" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-000098000000}"/>
-    <hyperlink ref="B97" r:id="rId95" tooltip="Spiral Matrix III" display="https://leetcode.com/problems/spiral-matrix-iii" xr:uid="{00000000-0004-0000-0900-000099000000}"/>
-    <hyperlink ref="C97" r:id="rId96" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-00009A000000}"/>
-    <hyperlink ref="B16" r:id="rId97" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0900-00009B000000}"/>
-    <hyperlink ref="B88" r:id="rId98" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0900-00009C000000}"/>
-    <hyperlink ref="C88" r:id="rId99" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-00009D000000}"/>
-    <hyperlink ref="B99" r:id="rId100" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0900-00009E000000}"/>
-    <hyperlink ref="B7" r:id="rId101" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0900-0000A0000000}"/>
-    <hyperlink ref="C7" r:id="rId102" tooltip="Sliding Window" display="https://leetcode.com/tag/sliding-window" xr:uid="{00000000-0004-0000-0900-0000A1000000}"/>
-    <hyperlink ref="B72" r:id="rId103" tooltip="Toeplitz Matrix" display="https://leetcode.com/problems/toeplitz-matrix" xr:uid="{00000000-0004-0000-0900-0000A2000000}"/>
-    <hyperlink ref="C72" r:id="rId104" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000A3000000}"/>
-    <hyperlink ref="B109" r:id="rId105" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0900-0000A4000000}"/>
-    <hyperlink ref="B102" r:id="rId106" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0900-0000A6000000}"/>
-    <hyperlink ref="C102" r:id="rId107" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000A7000000}"/>
-    <hyperlink ref="B111" r:id="rId108" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0900-0000A8000000}"/>
-    <hyperlink ref="C111" r:id="rId109" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000A9000000}"/>
-    <hyperlink ref="B112" r:id="rId110" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000AA000000}"/>
-    <hyperlink ref="C112" r:id="rId111" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000AB000000}"/>
-    <hyperlink ref="B15" r:id="rId112" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0900-0000AC000000}"/>
-    <hyperlink ref="C15" r:id="rId113" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000AD000000}"/>
-    <hyperlink ref="B116" r:id="rId114" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0900-0000AE000000}"/>
-    <hyperlink ref="B47" r:id="rId115" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0900-0000AF000000}"/>
-    <hyperlink ref="C47" r:id="rId116" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000B0000000}"/>
-    <hyperlink ref="B118" r:id="rId117" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0900-0000B3000000}"/>
-    <hyperlink ref="B121" r:id="rId118" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0900-0000B5000000}"/>
-    <hyperlink ref="C121" r:id="rId119" tooltip="Two Pointers" display="https://leetcode.com/tag/two-pointers" xr:uid="{00000000-0004-0000-0900-0000B6000000}"/>
-    <hyperlink ref="B110" r:id="rId120" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0900-0000B7000000}"/>
-    <hyperlink ref="C110" r:id="rId121" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000B8000000}"/>
-    <hyperlink ref="B123" r:id="rId122" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0900-0000B9000000}"/>
-    <hyperlink ref="C123" r:id="rId123" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000BA000000}"/>
-    <hyperlink ref="B124" r:id="rId124" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0900-0000BB000000}"/>
-    <hyperlink ref="B21" r:id="rId125" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0900-0000BC000000}"/>
-    <hyperlink ref="B127" r:id="rId126" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
-    <hyperlink ref="B128" r:id="rId127" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
-    <hyperlink ref="C128" r:id="rId128" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
-    <hyperlink ref="B114" r:id="rId129" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
-    <hyperlink ref="B36" r:id="rId130" tooltip="Can Place Flowers" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
-    <hyperlink ref="B79" r:id="rId131" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
-    <hyperlink ref="B92" r:id="rId132" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
-    <hyperlink ref="B60" r:id="rId133" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
-    <hyperlink ref="B131" r:id="rId134" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
-    <hyperlink ref="C131" r:id="rId135" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
-    <hyperlink ref="B68" r:id="rId136" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
-    <hyperlink ref="B132" r:id="rId137" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
-    <hyperlink ref="C132" r:id="rId138" tooltip="Trie" display="https://leetcode.com/tag/trie" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
-    <hyperlink ref="B14" r:id="rId139" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
-    <hyperlink ref="C14" r:id="rId140" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
-    <hyperlink ref="B135" r:id="rId141" tooltip="Previous Permutation With One Swap" display="https://leetcode.com/problems/previous-permutation-with-one-swap" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
-    <hyperlink ref="B154" r:id="rId142" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
-    <hyperlink ref="B69" r:id="rId143" tooltip="Closest Leaf in a Binary Tree" display="https://leetcode.com/problems/closest-leaf-in-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
-    <hyperlink ref="C69" r:id="rId144" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
-    <hyperlink ref="B141" r:id="rId145" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
-    <hyperlink ref="C141" r:id="rId146" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
-    <hyperlink ref="B145" r:id="rId147" tooltip="Lowest Common Ancestor of Deepest Leaves" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
-    <hyperlink ref="B146" r:id="rId148" tooltip="Reported Posts II" display="https://leetcode.com/problems/reported-posts-ii" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
-    <hyperlink ref="B136" r:id="rId149" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
-    <hyperlink ref="B171" r:id="rId150" tooltip="Validate Binary Tree Nodes" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
-    <hyperlink ref="C171" r:id="rId151" tooltip="Graph" display="https://leetcode.com/tag/graph" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
-    <hyperlink ref="B149" r:id="rId152" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
-    <hyperlink ref="C149" r:id="rId153" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
-    <hyperlink ref="B96" r:id="rId154" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
-    <hyperlink ref="C96" r:id="rId155" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
-    <hyperlink ref="B115" r:id="rId156" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
-    <hyperlink ref="B138" r:id="rId157" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
-    <hyperlink ref="C138" r:id="rId158" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
-    <hyperlink ref="B152" r:id="rId159" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
-    <hyperlink ref="C152" r:id="rId160" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
-    <hyperlink ref="B155" r:id="rId161" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
-    <hyperlink ref="B37" r:id="rId162" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
-    <hyperlink ref="B38" r:id="rId163" tooltip="Add Bold Tag in String" display="https://leetcode.com/problems/add-bold-tag-in-string" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
-    <hyperlink ref="C38" r:id="rId164" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
-    <hyperlink ref="B158" r:id="rId165" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
-    <hyperlink ref="B134" r:id="rId166" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
-    <hyperlink ref="C134" r:id="rId167" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
-    <hyperlink ref="B156" r:id="rId168" tooltip="Web Crawler Multithreaded" display="https://leetcode.com/problems/web-crawler-multithreaded" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
-    <hyperlink ref="B176" r:id="rId169" tooltip="Leftmost Column with at Least a One" display="https://leetcode.com/problems/leftmost-column-with-at-least-a-one" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
-    <hyperlink ref="C176" r:id="rId170" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
-    <hyperlink ref="B133" r:id="rId171" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
-    <hyperlink ref="C133" r:id="rId172" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
-    <hyperlink ref="B148" r:id="rId173" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
-    <hyperlink ref="C148" r:id="rId174" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
-    <hyperlink ref="B50" r:id="rId175" tooltip="Implement Magic Dictionary" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
-    <hyperlink ref="B120" r:id="rId176" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
-    <hyperlink ref="C120" r:id="rId177" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
-    <hyperlink ref="B163" r:id="rId178" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
-    <hyperlink ref="C163" r:id="rId179" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
-    <hyperlink ref="B77" r:id="rId180" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
-    <hyperlink ref="B129" r:id="rId181" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
-    <hyperlink ref="B130" r:id="rId182" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
-    <hyperlink ref="B113" r:id="rId183" tooltip="Maximum Width Ramp" display="https://leetcode.com/problems/maximum-width-ramp" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
-    <hyperlink ref="C113" r:id="rId184" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
-    <hyperlink ref="B151" r:id="rId185" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
-    <hyperlink ref="B157" r:id="rId186" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
-    <hyperlink ref="B166" r:id="rId187" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
-    <hyperlink ref="B119" r:id="rId188" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000001010000}"/>
-    <hyperlink ref="B86" r:id="rId189" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0900-000002010000}"/>
-    <hyperlink ref="B125" r:id="rId190" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000003010000}"/>
-    <hyperlink ref="B76" r:id="rId191" tooltip="Split BST" display="https://leetcode.com/problems/split-bst" xr:uid="{00000000-0004-0000-0900-000004010000}"/>
-    <hyperlink ref="B89" r:id="rId192" tooltip="Exam Room" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0900-000005010000}"/>
-    <hyperlink ref="C89" r:id="rId193" tooltip="Ordered Map" display="https://leetcode.com/tag/ordered-map" xr:uid="{00000000-0004-0000-0900-000006010000}"/>
-    <hyperlink ref="B137" r:id="rId194" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0900-000007010000}"/>
-    <hyperlink ref="B32" r:id="rId195" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0900-000008010000}"/>
-    <hyperlink ref="C32" r:id="rId196" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000009010000}"/>
-    <hyperlink ref="B58" r:id="rId197" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0900-00000A010000}"/>
-    <hyperlink ref="B172" r:id="rId198" tooltip="Find a Corresponding Node of a Binary Tree in a Clone of That Tree" display="https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree" xr:uid="{00000000-0004-0000-0900-00000B010000}"/>
-    <hyperlink ref="B71" r:id="rId199" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0900-00000C010000}"/>
-    <hyperlink ref="B144" r:id="rId200" tooltip="Maximum Nesting Depth of Two Valid Parentheses Strings" display="https://leetcode.com/problems/maximum-nesting-depth-of-two-valid-parentheses-strings" xr:uid="{00000000-0004-0000-0900-00000D010000}"/>
-    <hyperlink ref="B164" r:id="rId201" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0900-00000E010000}"/>
-    <hyperlink ref="C164" r:id="rId202" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00000F010000}"/>
-    <hyperlink ref="B48" r:id="rId203" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000010010000}"/>
-    <hyperlink ref="C48" r:id="rId204" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000011010000}"/>
-    <hyperlink ref="B170" r:id="rId205" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0900-000012010000}"/>
-    <hyperlink ref="B139" r:id="rId206" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0900-000013010000}"/>
-    <hyperlink ref="C139" r:id="rId207" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000014010000}"/>
-    <hyperlink ref="B75" r:id="rId208" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0900-000015010000}"/>
-    <hyperlink ref="C75" r:id="rId209" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000016010000}"/>
-    <hyperlink ref="B63" r:id="rId210" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0900-000018010000}"/>
-    <hyperlink ref="B167" r:id="rId211" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0900-000019010000}"/>
-    <hyperlink ref="C167" r:id="rId212" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00001A010000}"/>
-    <hyperlink ref="B159" r:id="rId213" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0900-00001B010000}"/>
-    <hyperlink ref="C159" r:id="rId214" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00001C010000}"/>
-    <hyperlink ref="B126" r:id="rId215" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0900-00001D010000}"/>
-    <hyperlink ref="B178" r:id="rId216" tooltip="Find the Kth Smallest Sum of a Matrix With Sorted Rows" display="https://leetcode.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows" xr:uid="{00000000-0004-0000-0900-00001E010000}"/>
-    <hyperlink ref="C178" r:id="rId217" tooltip="Heap" display="https://leetcode.com/tag/heap" xr:uid="{00000000-0004-0000-0900-00001F010000}"/>
-    <hyperlink ref="B179" r:id="rId218" tooltip="Make Two Arrays Equal by Reversing Sub-arrays" display="https://leetcode.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{00000000-0004-0000-0900-000021010000}"/>
-    <hyperlink ref="C179" r:id="rId219" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000022010000}"/>
-    <hyperlink ref="B153" r:id="rId220" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0900-000023010000}"/>
-    <hyperlink ref="C153" r:id="rId221" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000024010000}"/>
-    <hyperlink ref="B175" r:id="rId222" tooltip="Diagonal Traverse II" display="https://leetcode.com/problems/diagonal-traverse-ii" xr:uid="{00000000-0004-0000-0900-000025010000}"/>
-    <hyperlink ref="B84" r:id="rId223" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0900-000026010000}"/>
-    <hyperlink ref="C84" r:id="rId224" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000027010000}"/>
-    <hyperlink ref="B101" r:id="rId225" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0900-000028010000}"/>
-    <hyperlink ref="C101" r:id="rId226" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000029010000}"/>
-    <hyperlink ref="B150" r:id="rId227" tooltip="Check If a Number Is Majority Element in a Sorted Array" display="https://leetcode.com/problems/check-if-a-number-is-majority-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-00002A010000}"/>
-    <hyperlink ref="B147" r:id="rId228" tooltip="N-th Tribonacci Number" display="https://leetcode.com/problems/n-th-tribonacci-number" xr:uid="{00000000-0004-0000-0900-00002B010000}"/>
-    <hyperlink ref="C147" r:id="rId229" tooltip="Recursion" display="https://leetcode.com/tag/recursion" xr:uid="{00000000-0004-0000-0900-00002C010000}"/>
-    <hyperlink ref="B177" r:id="rId230" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0900-00002D010000}"/>
-    <hyperlink ref="B162" r:id="rId231" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0900-00002E010000}"/>
-    <hyperlink ref="B94" r:id="rId232" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
-    <hyperlink ref="B161" r:id="rId233" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0900-000032010000}"/>
-    <hyperlink ref="B165" r:id="rId234" tooltip="Element Appearing More Than 25% In Sorted Array" display="https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array" xr:uid="{00000000-0004-0000-0900-000033010000}"/>
-    <hyperlink ref="C165" r:id="rId235" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000034010000}"/>
-    <hyperlink ref="B169" r:id="rId236" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0900-000035010000}"/>
-    <hyperlink ref="C169" r:id="rId237" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000036010000}"/>
-    <hyperlink ref="B174" r:id="rId238" tooltip="Number of Ways to Paint N × 3 Grid" display="https://leetcode.com/problems/number-of-ways-to-paint-n-3-grid" xr:uid="{00000000-0004-0000-0900-000037010000}"/>
-    <hyperlink ref="C174" r:id="rId239" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000038010000}"/>
-    <hyperlink ref="B91" r:id="rId240" tooltip="Buddy Strings" display="https://leetcode.com/problems/buddy-strings" xr:uid="{00000000-0004-0000-0900-000039010000}"/>
-    <hyperlink ref="C91" r:id="rId241" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00003A010000}"/>
-    <hyperlink ref="B103" r:id="rId242" tooltip="Complete Binary Tree Inserter" display="https://leetcode.com/problems/complete-binary-tree-inserter" xr:uid="{00000000-0004-0000-0900-00003B010000}"/>
-    <hyperlink ref="C103" r:id="rId243" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00003C010000}"/>
-    <hyperlink ref="B143" r:id="rId244" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0900-00003D010000}"/>
-    <hyperlink ref="B180" r:id="rId245" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
-    <hyperlink ref="B81" r:id="rId246" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0900-00003F010000}"/>
-    <hyperlink ref="C81" r:id="rId247" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000040010000}"/>
-    <hyperlink ref="B160" r:id="rId248" tooltip="Greatest Sum Divisible by Three" display="https://leetcode.com/problems/greatest-sum-divisible-by-three" xr:uid="{00000000-0004-0000-0900-000041010000}"/>
-    <hyperlink ref="C160" r:id="rId249" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000042010000}"/>
-    <hyperlink ref="B117" r:id="rId250" tooltip="Subarray Sums Divisible by K" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0900-000043010000}"/>
-    <hyperlink ref="B181" r:id="rId251" tooltip="Shuffle String" display="https://leetcode.com/problems/shuffle-string" xr:uid="{00000000-0004-0000-0900-000044010000}"/>
-    <hyperlink ref="C181" r:id="rId252" tooltip="Sort" display="https://leetcode.com/tag/sort" xr:uid="{00000000-0004-0000-0900-000045010000}"/>
-    <hyperlink ref="B173" r:id="rId253" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000046010000}"/>
-    <hyperlink ref="C173" r:id="rId254" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-000047010000}"/>
-    <hyperlink ref="B90" r:id="rId255" tooltip="Mirror Reflection" display="https://leetcode.com/problems/mirror-reflection" xr:uid="{00000000-0004-0000-0900-000048010000}"/>
-    <hyperlink ref="C90" r:id="rId256" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000049010000}"/>
-    <hyperlink ref="B182" r:id="rId257" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0900-00004A010000}"/>
-    <hyperlink ref="B183" r:id="rId258" tooltip="Dot Product of Two Sparse Vectors" display="https://leetcode.com/problems/dot-product-of-two-sparse-vectors" xr:uid="{00000000-0004-0000-0900-00004B010000}"/>
-    <hyperlink ref="B104" r:id="rId259" tooltip="Number of Music Playlists" display="https://leetcode.com/problems/number-of-music-playlists" xr:uid="{00000000-0004-0000-0900-00004C010000}"/>
-    <hyperlink ref="C104" r:id="rId260" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00004D010000}"/>
-    <hyperlink ref="B142" r:id="rId261" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0900-00004E010000}"/>
-    <hyperlink ref="B184" r:id="rId262" tooltip="Lowest Common Ancestor of a Binary Tree III" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii" xr:uid="{00000000-0004-0000-0900-000050010000}"/>
-    <hyperlink ref="C184" r:id="rId263" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000051010000}"/>
+    <hyperlink ref="B83" r:id="rId14" tooltip="Friends Of Appropriate Ages" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0900-00001D000000}"/>
+    <hyperlink ref="C83" r:id="rId15" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00001E000000}"/>
+    <hyperlink ref="B11" r:id="rId16" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0900-000023000000}"/>
+    <hyperlink ref="B54" r:id="rId17" tooltip="Stickers to Spell Word" display="https://leetcode.com/problems/stickers-to-spell-word" xr:uid="{00000000-0004-0000-0900-000028000000}"/>
+    <hyperlink ref="B64" r:id="rId18" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0900-000029000000}"/>
+    <hyperlink ref="B51" r:id="rId19" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0900-00002A000000}"/>
+    <hyperlink ref="C51" r:id="rId20" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002B000000}"/>
+    <hyperlink ref="B53" r:id="rId21" tooltip="Maximum Sum of 3 Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0900-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId22" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0900-00002F000000}"/>
+    <hyperlink ref="B80" r:id="rId23" tooltip="Custom Sort String" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0900-000030000000}"/>
+    <hyperlink ref="C80" r:id="rId24" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000031000000}"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="Binary Tree Longest Consecutive Sequence II" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence-ii" xr:uid="{00000000-0004-0000-0900-000032000000}"/>
+    <hyperlink ref="C29" r:id="rId26" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000033000000}"/>
+    <hyperlink ref="B12" r:id="rId27" tooltip="Next Greater Element I" display="https://leetcode.com/problems/next-greater-element-i" xr:uid="{00000000-0004-0000-0900-000034000000}"/>
+    <hyperlink ref="C12" r:id="rId28" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000035000000}"/>
+    <hyperlink ref="B13" r:id="rId29" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0900-000038000000}"/>
+    <hyperlink ref="B18" r:id="rId30" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0900-000039000000}"/>
+    <hyperlink ref="B45" r:id="rId31" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0900-00003A000000}"/>
+    <hyperlink ref="C45" r:id="rId32" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-00003B000000}"/>
+    <hyperlink ref="B55" r:id="rId33" tooltip="Top K Frequent Words" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0900-00003C000000}"/>
+    <hyperlink ref="B4" r:id="rId34" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0900-00003D000000}"/>
+    <hyperlink ref="C4" r:id="rId35" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-00003E000000}"/>
+    <hyperlink ref="B82" r:id="rId36" tooltip="Goat Latin" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0900-00003F000000}"/>
+    <hyperlink ref="C82" r:id="rId37" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000040000000}"/>
+    <hyperlink ref="B35" r:id="rId38" tooltip="Friend Requests I: Overall Acceptance Rate" display="https://leetcode.com/problems/friend-requests-i-overall-acceptance-rate" xr:uid="{00000000-0004-0000-0900-000043000000}"/>
+    <hyperlink ref="B62" r:id="rId39" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0900-000044000000}"/>
+    <hyperlink ref="C62" r:id="rId40" tooltip="Design" display="https://leetcode.com/tag/design" xr:uid="{00000000-0004-0000-0900-000045000000}"/>
+    <hyperlink ref="B87" r:id="rId41" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0900-000048000000}"/>
+    <hyperlink ref="B9" r:id="rId42" tooltip="The Maze" display="https://leetcode.com/problems/the-maze" xr:uid="{00000000-0004-0000-0900-000049000000}"/>
+    <hyperlink ref="B39" r:id="rId43" tooltip="Merge Two Binary Trees" display="https://leetcode.com/problems/merge-two-binary-trees" xr:uid="{00000000-0004-0000-0900-00004A000000}"/>
+    <hyperlink ref="C39" r:id="rId44" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00004B000000}"/>
+    <hyperlink ref="B27" r:id="rId45" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0900-00004C000000}"/>
+    <hyperlink ref="B10" r:id="rId46" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0900-00004E000000}"/>
+    <hyperlink ref="C10" r:id="rId47" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00004F000000}"/>
+    <hyperlink ref="B52" r:id="rId48" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0900-000050000000}"/>
+    <hyperlink ref="C52" r:id="rId49" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000051000000}"/>
+    <hyperlink ref="B8" r:id="rId50" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0900-000054000000}"/>
+    <hyperlink ref="C8" r:id="rId51" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000055000000}"/>
+    <hyperlink ref="B73" r:id="rId52" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0900-000056000000}"/>
+    <hyperlink ref="B41" r:id="rId53" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0900-000057000000}"/>
+    <hyperlink ref="B20" r:id="rId54" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0900-00005E000000}"/>
+    <hyperlink ref="B65" r:id="rId55" tooltip="Remove Comments" display="https://leetcode.com/problems/remove-comments" xr:uid="{00000000-0004-0000-0900-00005F000000}"/>
+    <hyperlink ref="C65" r:id="rId56" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000060000000}"/>
+    <hyperlink ref="B22" r:id="rId57" tooltip="Construct Binary Tree from String" display="https://leetcode.com/problems/construct-binary-tree-from-string" xr:uid="{00000000-0004-0000-0900-000063000000}"/>
+    <hyperlink ref="B34" r:id="rId58" tooltip="Subtree of Another Tree" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0900-000064000000}"/>
+    <hyperlink ref="C34" r:id="rId59" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000065000000}"/>
+    <hyperlink ref="B46" r:id="rId60" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0900-000066000000}"/>
+    <hyperlink ref="C46" r:id="rId61" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000067000000}"/>
+    <hyperlink ref="B26" r:id="rId62" tooltip="Boundary of Binary Tree" display="https://leetcode.com/problems/boundary-of-binary-tree" xr:uid="{00000000-0004-0000-0900-000068000000}"/>
+    <hyperlink ref="C26" r:id="rId63" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000069000000}"/>
+    <hyperlink ref="B3" r:id="rId64" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0900-00006A000000}"/>
+    <hyperlink ref="B57" r:id="rId65" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0900-00006B000000}"/>
+    <hyperlink ref="B67" r:id="rId66" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0900-00006C000000}"/>
+    <hyperlink ref="C67" r:id="rId67" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00006D000000}"/>
+    <hyperlink ref="B6" r:id="rId68" tooltip="Concatenated Words" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0900-00006E000000}"/>
+    <hyperlink ref="B66" r:id="rId69" tooltip="Candy Crush" display="https://leetcode.com/problems/candy-crush" xr:uid="{00000000-0004-0000-0900-00006F000000}"/>
+    <hyperlink ref="B17" r:id="rId70" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
+    <hyperlink ref="C17" r:id="rId71" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
+    <hyperlink ref="B19" r:id="rId72" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0900-000077000000}"/>
+    <hyperlink ref="C19" r:id="rId73" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-000078000000}"/>
+    <hyperlink ref="B28" r:id="rId74" tooltip="Split Array with Equal Sum" display="https://leetcode.com/problems/split-array-with-equal-sum" xr:uid="{00000000-0004-0000-0900-00007F000000}"/>
+    <hyperlink ref="C28" r:id="rId75" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000080000000}"/>
+    <hyperlink ref="B23" r:id="rId76" tooltip="Single Element in a Sorted Array" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-000081000000}"/>
+    <hyperlink ref="C23" r:id="rId77" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-000082000000}"/>
+    <hyperlink ref="B24" r:id="rId78" tooltip="01 Matrix" display="https://leetcode.com/problems/01-matrix" xr:uid="{00000000-0004-0000-0900-000084000000}"/>
+    <hyperlink ref="B43" r:id="rId79" tooltip="Average of Levels in Binary Tree" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000085000000}"/>
+    <hyperlink ref="C43" r:id="rId80" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000086000000}"/>
+    <hyperlink ref="B61" r:id="rId81" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0900-000087000000}"/>
+    <hyperlink ref="C61" r:id="rId82" tooltip="Linked List" display="https://leetcode.com/tag/linked-list" xr:uid="{00000000-0004-0000-0900-000088000000}"/>
+    <hyperlink ref="B93" r:id="rId83" tooltip="Smallest Subtree with all the Deepest Nodes" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0900-000089000000}"/>
+    <hyperlink ref="B98" r:id="rId84" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0900-00008A000000}"/>
+    <hyperlink ref="B59" r:id="rId85" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0900-00008B000000}"/>
+    <hyperlink ref="B100" r:id="rId86" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0900-00008F000000}"/>
+    <hyperlink ref="C100" r:id="rId87" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000090000000}"/>
+    <hyperlink ref="B70" r:id="rId88" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0900-000091000000}"/>
+    <hyperlink ref="C70" r:id="rId89" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000092000000}"/>
+    <hyperlink ref="B85" r:id="rId90" tooltip="Flipping an Image" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0900-000095000000}"/>
+    <hyperlink ref="C85" r:id="rId91" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000096000000}"/>
+    <hyperlink ref="B95" r:id="rId92" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0900-000097000000}"/>
+    <hyperlink ref="C95" r:id="rId93" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-000098000000}"/>
+    <hyperlink ref="B97" r:id="rId94" tooltip="Spiral Matrix III" display="https://leetcode.com/problems/spiral-matrix-iii" xr:uid="{00000000-0004-0000-0900-000099000000}"/>
+    <hyperlink ref="C97" r:id="rId95" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-00009A000000}"/>
+    <hyperlink ref="B16" r:id="rId96" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0900-00009B000000}"/>
+    <hyperlink ref="B88" r:id="rId97" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0900-00009C000000}"/>
+    <hyperlink ref="C88" r:id="rId98" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-00009D000000}"/>
+    <hyperlink ref="B99" r:id="rId99" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0900-00009E000000}"/>
+    <hyperlink ref="B7" r:id="rId100" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0900-0000A0000000}"/>
+    <hyperlink ref="C7" r:id="rId101" tooltip="Sliding Window" display="https://leetcode.com/tag/sliding-window" xr:uid="{00000000-0004-0000-0900-0000A1000000}"/>
+    <hyperlink ref="B72" r:id="rId102" tooltip="Toeplitz Matrix" display="https://leetcode.com/problems/toeplitz-matrix" xr:uid="{00000000-0004-0000-0900-0000A2000000}"/>
+    <hyperlink ref="C72" r:id="rId103" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000A3000000}"/>
+    <hyperlink ref="B109" r:id="rId104" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0900-0000A4000000}"/>
+    <hyperlink ref="B102" r:id="rId105" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0900-0000A6000000}"/>
+    <hyperlink ref="C102" r:id="rId106" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000A7000000}"/>
+    <hyperlink ref="B111" r:id="rId107" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0900-0000A8000000}"/>
+    <hyperlink ref="C111" r:id="rId108" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000A9000000}"/>
+    <hyperlink ref="B112" r:id="rId109" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000AA000000}"/>
+    <hyperlink ref="C112" r:id="rId110" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000AB000000}"/>
+    <hyperlink ref="B15" r:id="rId111" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0900-0000AC000000}"/>
+    <hyperlink ref="C15" r:id="rId112" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000AD000000}"/>
+    <hyperlink ref="B116" r:id="rId113" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0900-0000AE000000}"/>
+    <hyperlink ref="B47" r:id="rId114" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0900-0000AF000000}"/>
+    <hyperlink ref="C47" r:id="rId115" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000B0000000}"/>
+    <hyperlink ref="B118" r:id="rId116" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0900-0000B3000000}"/>
+    <hyperlink ref="B121" r:id="rId117" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0900-0000B5000000}"/>
+    <hyperlink ref="C121" r:id="rId118" tooltip="Two Pointers" display="https://leetcode.com/tag/two-pointers" xr:uid="{00000000-0004-0000-0900-0000B6000000}"/>
+    <hyperlink ref="B110" r:id="rId119" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0900-0000B7000000}"/>
+    <hyperlink ref="C110" r:id="rId120" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000B8000000}"/>
+    <hyperlink ref="B123" r:id="rId121" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0900-0000B9000000}"/>
+    <hyperlink ref="C123" r:id="rId122" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000BA000000}"/>
+    <hyperlink ref="B124" r:id="rId123" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0900-0000BB000000}"/>
+    <hyperlink ref="B21" r:id="rId124" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0900-0000BC000000}"/>
+    <hyperlink ref="B127" r:id="rId125" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0900-0000BE000000}"/>
+    <hyperlink ref="B128" r:id="rId126" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0900-0000BF000000}"/>
+    <hyperlink ref="C128" r:id="rId127" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000C0000000}"/>
+    <hyperlink ref="B114" r:id="rId128" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0900-0000C1000000}"/>
+    <hyperlink ref="B36" r:id="rId129" tooltip="Can Place Flowers" display="https://leetcode.com/problems/can-place-flowers" xr:uid="{00000000-0004-0000-0900-0000C2000000}"/>
+    <hyperlink ref="B79" r:id="rId130" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0900-0000C3000000}"/>
+    <hyperlink ref="B92" r:id="rId131" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0900-0000C4000000}"/>
+    <hyperlink ref="B60" r:id="rId132" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0900-0000C5000000}"/>
+    <hyperlink ref="B131" r:id="rId133" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0900-0000C8000000}"/>
+    <hyperlink ref="C131" r:id="rId134" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000C9000000}"/>
+    <hyperlink ref="B68" r:id="rId135" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0900-0000CA000000}"/>
+    <hyperlink ref="B132" r:id="rId136" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0900-0000CB000000}"/>
+    <hyperlink ref="C132" r:id="rId137" tooltip="Trie" display="https://leetcode.com/tag/trie" xr:uid="{00000000-0004-0000-0900-0000CC000000}"/>
+    <hyperlink ref="B14" r:id="rId138" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0900-0000CD000000}"/>
+    <hyperlink ref="C14" r:id="rId139" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000CE000000}"/>
+    <hyperlink ref="B135" r:id="rId140" tooltip="Previous Permutation With One Swap" display="https://leetcode.com/problems/previous-permutation-with-one-swap" xr:uid="{00000000-0004-0000-0900-0000CF000000}"/>
+    <hyperlink ref="B154" r:id="rId141" tooltip="Intersection of Three Sorted Arrays" display="https://leetcode.com/problems/intersection-of-three-sorted-arrays" xr:uid="{00000000-0004-0000-0900-0000D0000000}"/>
+    <hyperlink ref="B69" r:id="rId142" tooltip="Closest Leaf in a Binary Tree" display="https://leetcode.com/problems/closest-leaf-in-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000D1000000}"/>
+    <hyperlink ref="C69" r:id="rId143" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-0000D2000000}"/>
+    <hyperlink ref="B141" r:id="rId144" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0900-0000D4000000}"/>
+    <hyperlink ref="C141" r:id="rId145" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-0000D5000000}"/>
+    <hyperlink ref="B145" r:id="rId146" tooltip="Lowest Common Ancestor of Deepest Leaves" display="https://leetcode.com/problems/lowest-common-ancestor-of-deepest-leaves" xr:uid="{00000000-0004-0000-0900-0000D6000000}"/>
+    <hyperlink ref="B146" r:id="rId147" tooltip="Reported Posts II" display="https://leetcode.com/problems/reported-posts-ii" xr:uid="{00000000-0004-0000-0900-0000D7000000}"/>
+    <hyperlink ref="B136" r:id="rId148" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0900-0000D8000000}"/>
+    <hyperlink ref="B171" r:id="rId149" tooltip="Validate Binary Tree Nodes" display="https://leetcode.com/problems/validate-binary-tree-nodes" xr:uid="{00000000-0004-0000-0900-0000D9000000}"/>
+    <hyperlink ref="C171" r:id="rId150" tooltip="Graph" display="https://leetcode.com/tag/graph" xr:uid="{00000000-0004-0000-0900-0000DA000000}"/>
+    <hyperlink ref="B149" r:id="rId151" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0900-0000DB000000}"/>
+    <hyperlink ref="C149" r:id="rId152" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000DC000000}"/>
+    <hyperlink ref="B96" r:id="rId153" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0900-0000DD000000}"/>
+    <hyperlink ref="C96" r:id="rId154" tooltip="Hash Table" display="https://leetcode.com/tag/hash-table" xr:uid="{00000000-0004-0000-0900-0000DE000000}"/>
+    <hyperlink ref="B115" r:id="rId155" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0900-0000DF000000}"/>
+    <hyperlink ref="B138" r:id="rId156" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0900-0000E0000000}"/>
+    <hyperlink ref="C138" r:id="rId157" tooltip="Binary Search" display="https://leetcode.com/tag/binary-search" xr:uid="{00000000-0004-0000-0900-0000E1000000}"/>
+    <hyperlink ref="B152" r:id="rId158" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0900-0000E2000000}"/>
+    <hyperlink ref="C152" r:id="rId159" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-0000E3000000}"/>
+    <hyperlink ref="B155" r:id="rId160" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0900-0000E6000000}"/>
+    <hyperlink ref="B37" r:id="rId161" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0900-0000E7000000}"/>
+    <hyperlink ref="B38" r:id="rId162" tooltip="Add Bold Tag in String" display="https://leetcode.com/problems/add-bold-tag-in-string" xr:uid="{00000000-0004-0000-0900-0000E8000000}"/>
+    <hyperlink ref="C38" r:id="rId163" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-0000E9000000}"/>
+    <hyperlink ref="B158" r:id="rId164" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0900-0000EA000000}"/>
+    <hyperlink ref="B134" r:id="rId165" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0900-0000EB000000}"/>
+    <hyperlink ref="C134" r:id="rId166" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-0000EC000000}"/>
+    <hyperlink ref="B156" r:id="rId167" tooltip="Web Crawler Multithreaded" display="https://leetcode.com/problems/web-crawler-multithreaded" xr:uid="{00000000-0004-0000-0900-0000ED000000}"/>
+    <hyperlink ref="B176" r:id="rId168" tooltip="Leftmost Column with at Least a One" display="https://leetcode.com/problems/leftmost-column-with-at-least-a-one" xr:uid="{00000000-0004-0000-0900-0000EE000000}"/>
+    <hyperlink ref="C176" r:id="rId169" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000EF000000}"/>
+    <hyperlink ref="B133" r:id="rId170" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0900-0000F0000000}"/>
+    <hyperlink ref="C133" r:id="rId171" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-0000F1000000}"/>
+    <hyperlink ref="B148" r:id="rId172" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0900-0000F2000000}"/>
+    <hyperlink ref="C148" r:id="rId173" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F3000000}"/>
+    <hyperlink ref="B50" r:id="rId174" tooltip="Implement Magic Dictionary" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0900-0000F4000000}"/>
+    <hyperlink ref="B120" r:id="rId175" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0900-0000F5000000}"/>
+    <hyperlink ref="C120" r:id="rId176" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F6000000}"/>
+    <hyperlink ref="B163" r:id="rId177" tooltip="Number of Ways to Stay in the Same Place After Some Steps" display="https://leetcode.com/problems/number-of-ways-to-stay-in-the-same-place-after-some-steps" xr:uid="{00000000-0004-0000-0900-0000F7000000}"/>
+    <hyperlink ref="C163" r:id="rId178" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-0000F8000000}"/>
+    <hyperlink ref="B77" r:id="rId179" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0900-0000F9000000}"/>
+    <hyperlink ref="B129" r:id="rId180" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0900-0000FA000000}"/>
+    <hyperlink ref="B130" r:id="rId181" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0900-0000FB000000}"/>
+    <hyperlink ref="B113" r:id="rId182" tooltip="Maximum Width Ramp" display="https://leetcode.com/problems/maximum-width-ramp" xr:uid="{00000000-0004-0000-0900-0000FC000000}"/>
+    <hyperlink ref="C113" r:id="rId183" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-0000FD000000}"/>
+    <hyperlink ref="B151" r:id="rId184" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0900-0000FE000000}"/>
+    <hyperlink ref="B157" r:id="rId185" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0900-0000FF000000}"/>
+    <hyperlink ref="B166" r:id="rId186" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0900-000000010000}"/>
+    <hyperlink ref="B119" r:id="rId187" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000001010000}"/>
+    <hyperlink ref="B86" r:id="rId188" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0900-000002010000}"/>
+    <hyperlink ref="B125" r:id="rId189" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0900-000003010000}"/>
+    <hyperlink ref="B76" r:id="rId190" tooltip="Split BST" display="https://leetcode.com/problems/split-bst" xr:uid="{00000000-0004-0000-0900-000004010000}"/>
+    <hyperlink ref="B89" r:id="rId191" tooltip="Exam Room" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0900-000005010000}"/>
+    <hyperlink ref="C89" r:id="rId192" tooltip="Ordered Map" display="https://leetcode.com/tag/ordered-map" xr:uid="{00000000-0004-0000-0900-000006010000}"/>
+    <hyperlink ref="B137" r:id="rId193" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0900-000007010000}"/>
+    <hyperlink ref="B32" r:id="rId194" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0900-000008010000}"/>
+    <hyperlink ref="C32" r:id="rId195" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000009010000}"/>
+    <hyperlink ref="B58" r:id="rId196" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0900-00000A010000}"/>
+    <hyperlink ref="B172" r:id="rId197" tooltip="Find a Corresponding Node of a Binary Tree in a Clone of That Tree" display="https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree" xr:uid="{00000000-0004-0000-0900-00000B010000}"/>
+    <hyperlink ref="B71" r:id="rId198" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0900-00000C010000}"/>
+    <hyperlink ref="B144" r:id="rId199" tooltip="Maximum Nesting Depth of Two Valid Parentheses Strings" display="https://leetcode.com/problems/maximum-nesting-depth-of-two-valid-parentheses-strings" xr:uid="{00000000-0004-0000-0900-00000D010000}"/>
+    <hyperlink ref="B164" r:id="rId200" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0900-00000E010000}"/>
+    <hyperlink ref="C164" r:id="rId201" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00000F010000}"/>
+    <hyperlink ref="B48" r:id="rId202" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000010010000}"/>
+    <hyperlink ref="C48" r:id="rId203" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000011010000}"/>
+    <hyperlink ref="B170" r:id="rId204" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0900-000012010000}"/>
+    <hyperlink ref="B139" r:id="rId205" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0900-000013010000}"/>
+    <hyperlink ref="C139" r:id="rId206" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000014010000}"/>
+    <hyperlink ref="B75" r:id="rId207" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0900-000015010000}"/>
+    <hyperlink ref="C75" r:id="rId208" tooltip="Breadth-first Search" display="https://leetcode.com/tag/breadth-first-search" xr:uid="{00000000-0004-0000-0900-000016010000}"/>
+    <hyperlink ref="B63" r:id="rId209" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0900-000018010000}"/>
+    <hyperlink ref="B167" r:id="rId210" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0900-000019010000}"/>
+    <hyperlink ref="C167" r:id="rId211" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00001A010000}"/>
+    <hyperlink ref="B159" r:id="rId212" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0900-00001B010000}"/>
+    <hyperlink ref="C159" r:id="rId213" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-00001C010000}"/>
+    <hyperlink ref="B126" r:id="rId214" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0900-00001D010000}"/>
+    <hyperlink ref="B178" r:id="rId215" tooltip="Find the Kth Smallest Sum of a Matrix With Sorted Rows" display="https://leetcode.com/problems/find-the-kth-smallest-sum-of-a-matrix-with-sorted-rows" xr:uid="{00000000-0004-0000-0900-00001E010000}"/>
+    <hyperlink ref="C178" r:id="rId216" tooltip="Heap" display="https://leetcode.com/tag/heap" xr:uid="{00000000-0004-0000-0900-00001F010000}"/>
+    <hyperlink ref="B179" r:id="rId217" tooltip="Make Two Arrays Equal by Reversing Sub-arrays" display="https://leetcode.com/problems/make-two-arrays-equal-by-reversing-sub-arrays" xr:uid="{00000000-0004-0000-0900-000021010000}"/>
+    <hyperlink ref="C179" r:id="rId218" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000022010000}"/>
+    <hyperlink ref="B153" r:id="rId219" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0900-000023010000}"/>
+    <hyperlink ref="C153" r:id="rId220" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000024010000}"/>
+    <hyperlink ref="B175" r:id="rId221" tooltip="Diagonal Traverse II" display="https://leetcode.com/problems/diagonal-traverse-ii" xr:uid="{00000000-0004-0000-0900-000025010000}"/>
+    <hyperlink ref="B84" r:id="rId222" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0900-000026010000}"/>
+    <hyperlink ref="C84" r:id="rId223" tooltip="Depth-first Search" display="https://leetcode.com/tag/depth-first-search" xr:uid="{00000000-0004-0000-0900-000027010000}"/>
+    <hyperlink ref="B101" r:id="rId224" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0900-000028010000}"/>
+    <hyperlink ref="C101" r:id="rId225" tooltip="Stack" display="https://leetcode.com/tag/stack" xr:uid="{00000000-0004-0000-0900-000029010000}"/>
+    <hyperlink ref="B150" r:id="rId226" tooltip="Check If a Number Is Majority Element in a Sorted Array" display="https://leetcode.com/problems/check-if-a-number-is-majority-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0900-00002A010000}"/>
+    <hyperlink ref="B147" r:id="rId227" tooltip="N-th Tribonacci Number" display="https://leetcode.com/problems/n-th-tribonacci-number" xr:uid="{00000000-0004-0000-0900-00002B010000}"/>
+    <hyperlink ref="C147" r:id="rId228" tooltip="Recursion" display="https://leetcode.com/tag/recursion" xr:uid="{00000000-0004-0000-0900-00002C010000}"/>
+    <hyperlink ref="B177" r:id="rId229" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0900-00002D010000}"/>
+    <hyperlink ref="B162" r:id="rId230" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0900-00002E010000}"/>
+    <hyperlink ref="B94" r:id="rId231" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
+    <hyperlink ref="B161" r:id="rId232" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0900-000032010000}"/>
+    <hyperlink ref="B165" r:id="rId233" tooltip="Element Appearing More Than 25% In Sorted Array" display="https://leetcode.com/problems/element-appearing-more-than-25-in-sorted-array" xr:uid="{00000000-0004-0000-0900-000033010000}"/>
+    <hyperlink ref="C165" r:id="rId234" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000034010000}"/>
+    <hyperlink ref="B169" r:id="rId235" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0900-000035010000}"/>
+    <hyperlink ref="C169" r:id="rId236" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000036010000}"/>
+    <hyperlink ref="B174" r:id="rId237" tooltip="Number of Ways to Paint N × 3 Grid" display="https://leetcode.com/problems/number-of-ways-to-paint-n-3-grid" xr:uid="{00000000-0004-0000-0900-000037010000}"/>
+    <hyperlink ref="C174" r:id="rId238" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000038010000}"/>
+    <hyperlink ref="B91" r:id="rId239" tooltip="Buddy Strings" display="https://leetcode.com/problems/buddy-strings" xr:uid="{00000000-0004-0000-0900-000039010000}"/>
+    <hyperlink ref="C91" r:id="rId240" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00003A010000}"/>
+    <hyperlink ref="B103" r:id="rId241" tooltip="Complete Binary Tree Inserter" display="https://leetcode.com/problems/complete-binary-tree-inserter" xr:uid="{00000000-0004-0000-0900-00003B010000}"/>
+    <hyperlink ref="C103" r:id="rId242" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-00003C010000}"/>
+    <hyperlink ref="B143" r:id="rId243" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0900-00003D010000}"/>
+    <hyperlink ref="B180" r:id="rId244" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
+    <hyperlink ref="B81" r:id="rId245" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0900-00003F010000}"/>
+    <hyperlink ref="C81" r:id="rId246" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000040010000}"/>
+    <hyperlink ref="B160" r:id="rId247" tooltip="Greatest Sum Divisible by Three" display="https://leetcode.com/problems/greatest-sum-divisible-by-three" xr:uid="{00000000-0004-0000-0900-000041010000}"/>
+    <hyperlink ref="C160" r:id="rId248" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000042010000}"/>
+    <hyperlink ref="B117" r:id="rId249" tooltip="Subarray Sums Divisible by K" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0900-000043010000}"/>
+    <hyperlink ref="B181" r:id="rId250" tooltip="Shuffle String" display="https://leetcode.com/problems/shuffle-string" xr:uid="{00000000-0004-0000-0900-000044010000}"/>
+    <hyperlink ref="C181" r:id="rId251" tooltip="Sort" display="https://leetcode.com/tag/sort" xr:uid="{00000000-0004-0000-0900-000045010000}"/>
+    <hyperlink ref="B173" r:id="rId252" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0900-000046010000}"/>
+    <hyperlink ref="C173" r:id="rId253" tooltip="Binary Search Tree" display="https://leetcode.com/tag/binary-search-tree" xr:uid="{00000000-0004-0000-0900-000047010000}"/>
+    <hyperlink ref="B90" r:id="rId254" tooltip="Mirror Reflection" display="https://leetcode.com/problems/mirror-reflection" xr:uid="{00000000-0004-0000-0900-000048010000}"/>
+    <hyperlink ref="C90" r:id="rId255" tooltip="Math" display="https://leetcode.com/tag/math" xr:uid="{00000000-0004-0000-0900-000049010000}"/>
+    <hyperlink ref="B182" r:id="rId256" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0900-00004A010000}"/>
+    <hyperlink ref="B183" r:id="rId257" tooltip="Dot Product of Two Sparse Vectors" display="https://leetcode.com/problems/dot-product-of-two-sparse-vectors" xr:uid="{00000000-0004-0000-0900-00004B010000}"/>
+    <hyperlink ref="B104" r:id="rId258" tooltip="Number of Music Playlists" display="https://leetcode.com/problems/number-of-music-playlists" xr:uid="{00000000-0004-0000-0900-00004C010000}"/>
+    <hyperlink ref="C104" r:id="rId259" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-00004D010000}"/>
+    <hyperlink ref="B142" r:id="rId260" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0900-00004E010000}"/>
+    <hyperlink ref="B184" r:id="rId261" tooltip="Lowest Common Ancestor of a Binary Tree III" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree-iii" xr:uid="{00000000-0004-0000-0900-000050010000}"/>
+    <hyperlink ref="C184" r:id="rId262" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000051010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19744,8 +20009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView topLeftCell="B188" workbookViewId="0">
-      <selection activeCell="D195" sqref="D195:F195"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22577,16 +22842,7 @@
       <c r="G131" s="16"/>
       <c r="H131" s="16"/>
     </row>
-    <row r="132" spans="1:8" ht="32">
-      <c r="A132" s="72">
-        <v>863</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="C132" s="75" t="s">
-        <v>251</v>
-      </c>
+    <row r="132" spans="1:8">
       <c r="D132" s="13">
         <v>871</v>
       </c>
@@ -26097,146 +26353,145 @@
     <hyperlink ref="B129" r:id="rId390" tooltip="Score of Parentheses" display="https://leetcode.com/problems/score-of-parentheses" xr:uid="{00000000-0004-0000-0A00-0000D8010000}"/>
     <hyperlink ref="B130" r:id="rId391" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0A00-0000D9010000}"/>
     <hyperlink ref="B131" r:id="rId392" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0A00-0000DA010000}"/>
-    <hyperlink ref="B132" r:id="rId393" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000DB010000}"/>
-    <hyperlink ref="B133" r:id="rId394" tooltip="Minimum Number of Refueling Stops" display="https://leetcode.com/problems/minimum-number-of-refueling-stops" xr:uid="{00000000-0004-0000-0A00-0000DC010000}"/>
-    <hyperlink ref="B134" r:id="rId395" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0A00-0000DD010000}"/>
-    <hyperlink ref="B135" r:id="rId396" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0A00-0000DE010000}"/>
-    <hyperlink ref="B136" r:id="rId397" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000DF010000}"/>
-    <hyperlink ref="B137" r:id="rId398" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0A00-0000E0010000}"/>
-    <hyperlink ref="B138" r:id="rId399" tooltip="RLE Iterator" display="https://leetcode.com/problems/rle-iterator" xr:uid="{00000000-0004-0000-0A00-0000E1010000}"/>
-    <hyperlink ref="B139" r:id="rId400" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-0000E2010000}"/>
-    <hyperlink ref="B140" r:id="rId401" tooltip="Fruit Into Baskets" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0A00-0000E3010000}"/>
-    <hyperlink ref="B141" r:id="rId402" tooltip="Sum of Subarray Minimums" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0A00-0000E4010000}"/>
-    <hyperlink ref="B142" r:id="rId403" tooltip="Online Election" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0A00-0000E5010000}"/>
-    <hyperlink ref="B143" r:id="rId404" tooltip="Cat and Mouse" display="https://leetcode.com/problems/cat-and-mouse" xr:uid="{00000000-0004-0000-0A00-0000E6010000}"/>
-    <hyperlink ref="B144" r:id="rId405" tooltip="X of a Kind in a Deck of Cards" display="https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards" xr:uid="{00000000-0004-0000-0A00-0000E7010000}"/>
-    <hyperlink ref="B145" r:id="rId406" tooltip="Minimize Malware Spread" display="https://leetcode.com/problems/minimize-malware-spread" xr:uid="{00000000-0004-0000-0A00-0000E8010000}"/>
-    <hyperlink ref="B146" r:id="rId407" tooltip="Long Pressed Name" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0A00-0000E9010000}"/>
-    <hyperlink ref="B147" r:id="rId408" tooltip="Shortest Bridge" display="https://leetcode.com/problems/shortest-bridge" xr:uid="{00000000-0004-0000-0A00-0000EA010000}"/>
-    <hyperlink ref="B148" r:id="rId409" tooltip="Knight Dialer" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0A00-0000EB010000}"/>
-    <hyperlink ref="B149" r:id="rId410" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-0000EC010000}"/>
-    <hyperlink ref="B150" r:id="rId411" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0A00-0000ED010000}"/>
-    <hyperlink ref="B151" r:id="rId412" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0A00-0000EE010000}"/>
-    <hyperlink ref="B152" r:id="rId413" tooltip="Valid Mountain Array" display="https://leetcode.com/problems/valid-mountain-array" xr:uid="{00000000-0004-0000-0A00-0000EF010000}"/>
-    <hyperlink ref="B153" r:id="rId414" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0A00-0000F0010000}"/>
-    <hyperlink ref="B154" r:id="rId415" tooltip="Most Stones Removed with Same Row or Column" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{00000000-0004-0000-0A00-0000F1010000}"/>
-    <hyperlink ref="B155" r:id="rId416" tooltip="Largest Time for Given Digits" display="https://leetcode.com/problems/largest-time-for-given-digits" xr:uid="{00000000-0004-0000-0A00-0000F2010000}"/>
-    <hyperlink ref="B156" r:id="rId417" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000F3010000}"/>
-    <hyperlink ref="B157" r:id="rId418" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000F4010000}"/>
-    <hyperlink ref="B158" r:id="rId419" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0A00-0000F5010000}"/>
-    <hyperlink ref="B159" r:id="rId420" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0A00-0000F6010000}"/>
-    <hyperlink ref="B160" r:id="rId421" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0A00-0000F7010000}"/>
-    <hyperlink ref="B161" r:id="rId422" tooltip="Odd Even Jump" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{00000000-0004-0000-0A00-0000F8010000}"/>
-    <hyperlink ref="B162" r:id="rId423" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-0000F9010000}"/>
-    <hyperlink ref="B163" r:id="rId424" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FA010000}"/>
-    <hyperlink ref="B164" r:id="rId425" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0A00-0000FB010000}"/>
-    <hyperlink ref="B165" r:id="rId426" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0A00-0000FC010000}"/>
-    <hyperlink ref="B166" r:id="rId427" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0A00-0000FD010000}"/>
-    <hyperlink ref="B167" r:id="rId428" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0A00-0000FE010000}"/>
-    <hyperlink ref="B168" r:id="rId429" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FF010000}"/>
-    <hyperlink ref="B169" r:id="rId430" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0A00-000000020000}"/>
-    <hyperlink ref="B170" r:id="rId431" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0A00-000001020000}"/>
-    <hyperlink ref="B171" r:id="rId432" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0A00-000002020000}"/>
-    <hyperlink ref="B172" r:id="rId433" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-000003020000}"/>
-    <hyperlink ref="B173" r:id="rId434" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0A00-000004020000}"/>
-    <hyperlink ref="B174" r:id="rId435" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0A00-000005020000}"/>
-    <hyperlink ref="B175" r:id="rId436" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0A00-000006020000}"/>
-    <hyperlink ref="B176" r:id="rId437" tooltip="Remove Outermost Parentheses" display="https://leetcode.com/problems/remove-outermost-parentheses" xr:uid="{00000000-0004-0000-0A00-000007020000}"/>
-    <hyperlink ref="B177" r:id="rId438" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0A00-000008020000}"/>
-    <hyperlink ref="B178" r:id="rId439" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0A00-000009020000}"/>
-    <hyperlink ref="B179" r:id="rId440" tooltip="Two City Scheduling" display="https://leetcode.com/problems/two-city-scheduling" xr:uid="{00000000-0004-0000-0A00-00000A020000}"/>
-    <hyperlink ref="B180" r:id="rId441" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-00000B020000}"/>
-    <hyperlink ref="B181" r:id="rId442" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0A00-00000C020000}"/>
-    <hyperlink ref="B182" r:id="rId443" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-00000D020000}"/>
-    <hyperlink ref="B183" r:id="rId444" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0A00-00000E020000}"/>
-    <hyperlink ref="B184" r:id="rId445" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0A00-00000F020000}"/>
-    <hyperlink ref="B185" r:id="rId446" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0A00-000010020000}"/>
-    <hyperlink ref="B186" r:id="rId447" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0A00-000011020000}"/>
-    <hyperlink ref="B187" r:id="rId448" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0A00-000012020000}"/>
-    <hyperlink ref="B188" r:id="rId449" tooltip="Confusing Number" display="https://leetcode.com/problems/confusing-number" xr:uid="{00000000-0004-0000-0A00-000013020000}"/>
-    <hyperlink ref="B189" r:id="rId450" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0A00-000014020000}"/>
-    <hyperlink ref="B190" r:id="rId451" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0A00-000015020000}"/>
-    <hyperlink ref="B191" r:id="rId452" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0A00-000016020000}"/>
-    <hyperlink ref="B192" r:id="rId453" tooltip="Campus Bikes II" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{00000000-0004-0000-0A00-000017020000}"/>
-    <hyperlink ref="B193" r:id="rId454" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0A00-000018020000}"/>
-    <hyperlink ref="B194" r:id="rId455" tooltip="Brace Expansion" display="https://leetcode.com/problems/brace-expansion" xr:uid="{00000000-0004-0000-0A00-000019020000}"/>
-    <hyperlink ref="B195" r:id="rId456" tooltip="Confusing Number II" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{00000000-0004-0000-0A00-00001A020000}"/>
-    <hyperlink ref="B197" r:id="rId457" tooltip="Find in Mountain Array" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0A00-00001C020000}"/>
-    <hyperlink ref="B198" r:id="rId458" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-00001D020000}"/>
-    <hyperlink ref="B199" r:id="rId459" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0A00-00001E020000}"/>
-    <hyperlink ref="B200" r:id="rId460" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0A00-00001F020000}"/>
-    <hyperlink ref="B201" r:id="rId461" tooltip="Smallest Sufficient Team" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0A00-000020020000}"/>
-    <hyperlink ref="B202" r:id="rId462" tooltip="Maximum of Absolute Value Expression" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0A00-000021020000}"/>
-    <hyperlink ref="B203" r:id="rId463" tooltip="Parallel Courses" display="https://leetcode.com/problems/parallel-courses" xr:uid="{00000000-0004-0000-0A00-000022020000}"/>
-    <hyperlink ref="B204" r:id="rId464" tooltip="Alphabet Board Path" display="https://leetcode.com/problems/alphabet-board-path" xr:uid="{00000000-0004-0000-0A00-000023020000}"/>
-    <hyperlink ref="B205" r:id="rId465" tooltip="Stone Game II" display="https://leetcode.com/problems/stone-game-ii" xr:uid="{00000000-0004-0000-0A00-000024020000}"/>
-    <hyperlink ref="B206" r:id="rId466" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0A00-000025020000}"/>
-    <hyperlink ref="B207" r:id="rId467" tooltip="Binary Tree Coloring Game" display="https://leetcode.com/problems/binary-tree-coloring-game" xr:uid="{00000000-0004-0000-0A00-000026020000}"/>
-    <hyperlink ref="B208" r:id="rId468" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0A00-000027020000}"/>
-    <hyperlink ref="B209" r:id="rId469" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0A00-000028020000}"/>
-    <hyperlink ref="B210" r:id="rId470" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000029020000}"/>
-    <hyperlink ref="B211" r:id="rId471" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-00002A020000}"/>
-    <hyperlink ref="B212" r:id="rId472" tooltip="Compare Strings by Frequency of the Smallest Character" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{00000000-0004-0000-0A00-00002B020000}"/>
-    <hyperlink ref="B213" r:id="rId473" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0A00-00002C020000}"/>
-    <hyperlink ref="B214" r:id="rId474" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0A00-00002D020000}"/>
-    <hyperlink ref="B215" r:id="rId475" tooltip="Sort Items by Groups Respecting Dependencies" display="https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies" xr:uid="{00000000-0004-0000-0A00-00002E020000}"/>
-    <hyperlink ref="B216" r:id="rId476" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0A00-00002F020000}"/>
-    <hyperlink ref="B217" r:id="rId477" tooltip="Longest Arithmetic Subsequence of Given Difference" display="https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference" xr:uid="{00000000-0004-0000-0A00-000030020000}"/>
-    <hyperlink ref="B218" r:id="rId478" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0A00-000031020000}"/>
-    <hyperlink ref="B219" r:id="rId479" tooltip="Dice Roll Simulation" display="https://leetcode.com/problems/dice-roll-simulation" xr:uid="{00000000-0004-0000-0A00-000032020000}"/>
-    <hyperlink ref="B220" r:id="rId480" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0A00-000033020000}"/>
-    <hyperlink ref="B221" r:id="rId481" tooltip="Divide Chocolate" display="https://leetcode.com/problems/divide-chocolate" xr:uid="{00000000-0004-0000-0A00-000034020000}"/>
-    <hyperlink ref="B222" r:id="rId482" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-000035020000}"/>
-    <hyperlink ref="B223" r:id="rId483" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000036020000}"/>
-    <hyperlink ref="B224" r:id="rId484" tooltip="Find Positive Integer Solution for a Given Equation" display="https://leetcode.com/problems/find-positive-integer-solution-for-a-given-equation" xr:uid="{00000000-0004-0000-0A00-000037020000}"/>
-    <hyperlink ref="B225" r:id="rId485" tooltip="Tiling a Rectangle with the Fewest Squares" display="https://leetcode.com/problems/tiling-a-rectangle-with-the-fewest-squares" xr:uid="{00000000-0004-0000-0A00-000038020000}"/>
-    <hyperlink ref="B226" r:id="rId486" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-000039020000}"/>
-    <hyperlink ref="B227" r:id="rId487" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0A00-00003A020000}"/>
-    <hyperlink ref="B228" r:id="rId488" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-00003B020000}"/>
-    <hyperlink ref="B229" r:id="rId489" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0A00-00003C020000}"/>
-    <hyperlink ref="B230" r:id="rId490" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0A00-00003D020000}"/>
-    <hyperlink ref="B231" r:id="rId491" tooltip="Count Square Submatrices with All Ones" display="https://leetcode.com/problems/count-square-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00003E020000}"/>
-    <hyperlink ref="B232" r:id="rId492" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00003F020000}"/>
-    <hyperlink ref="B233" r:id="rId493" tooltip="Minimum Number of Flips to Convert Binary Matrix to Zero Matrix" display="https://leetcode.com/problems/minimum-number-of-flips-to-convert-binary-matrix-to-zero-matrix" xr:uid="{00000000-0004-0000-0A00-000040020000}"/>
-    <hyperlink ref="B234" r:id="rId494" tooltip="Maximum Side Length of a Square with Sum Less than or Equal to Threshold" display="https://leetcode.com/problems/maximum-side-length-of-a-square-with-sum-less-than-or-equal-to-threshold" xr:uid="{00000000-0004-0000-0A00-000041020000}"/>
-    <hyperlink ref="B235" r:id="rId495" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0A00-000042020000}"/>
-    <hyperlink ref="B236" r:id="rId496" tooltip="Divide Array in Sets of K Consecutive Numbers" display="https://leetcode.com/problems/divide-array-in-sets-of-k-consecutive-numbers" xr:uid="{00000000-0004-0000-0A00-000043020000}"/>
-    <hyperlink ref="B237" r:id="rId497" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000044020000}"/>
-    <hyperlink ref="B238" r:id="rId498" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0A00-000045020000}"/>
-    <hyperlink ref="B239" r:id="rId499" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0A00-000046020000}"/>
-    <hyperlink ref="B240" r:id="rId500" tooltip="Minimum Distance to Type a Word Using Two Fingers" display="https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers" xr:uid="{00000000-0004-0000-0A00-000047020000}"/>
-    <hyperlink ref="B241" r:id="rId501" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0A00-000048020000}"/>
-    <hyperlink ref="B242" r:id="rId502" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0A00-000049020000}"/>
-    <hyperlink ref="B244" r:id="rId503" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0A00-00004B020000}"/>
-    <hyperlink ref="B245" r:id="rId504" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0A00-00004C020000}"/>
-    <hyperlink ref="B246" r:id="rId505" tooltip="Product of the Last K Numbers" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{00000000-0004-0000-0A00-00004D020000}"/>
-    <hyperlink ref="B247" r:id="rId506" tooltip="Rank Teams by Votes" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{00000000-0004-0000-0A00-00004E020000}"/>
-    <hyperlink ref="B248" r:id="rId507" tooltip="Minimum Cost to Make at Least One Valid Path in a Grid" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{00000000-0004-0000-0A00-00004F020000}"/>
-    <hyperlink ref="B249" r:id="rId508" tooltip="Time Needed to Inform All Employees" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{00000000-0004-0000-0A00-000050020000}"/>
-    <hyperlink ref="B250" r:id="rId509" tooltip="Frog Position After T Seconds" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{00000000-0004-0000-0A00-000051020000}"/>
-    <hyperlink ref="B251" r:id="rId510" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000052020000}"/>
-    <hyperlink ref="B252" r:id="rId511" tooltip="Stone Game III" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{00000000-0004-0000-0A00-000053020000}"/>
-    <hyperlink ref="B253" r:id="rId512" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000054020000}"/>
-    <hyperlink ref="B254" r:id="rId513" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-000055020000}"/>
-    <hyperlink ref="B255" r:id="rId514" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000056020000}"/>
-    <hyperlink ref="B256" r:id="rId515" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000057020000}"/>
-    <hyperlink ref="B257" r:id="rId516" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000058020000}"/>
-    <hyperlink ref="B258" r:id="rId517" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-000059020000}"/>
-    <hyperlink ref="B259" r:id="rId518" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-00005A020000}"/>
-    <hyperlink ref="B260" r:id="rId519" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-00005B020000}"/>
-    <hyperlink ref="B261" r:id="rId520" tooltip="Kth Ancestor of a Tree Node" display="https://leetcode.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{00000000-0004-0000-0A00-00005C020000}"/>
-    <hyperlink ref="B262" r:id="rId521" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00005D020000}"/>
-    <hyperlink ref="B263" r:id="rId522" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00005E020000}"/>
-    <hyperlink ref="B264" r:id="rId523" tooltip="Path with Maximum Probability" display="https://leetcode.com/problems/path-with-maximum-probability" xr:uid="{00000000-0004-0000-0A00-00005F020000}"/>
-    <hyperlink ref="B265" r:id="rId524" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000060020000}"/>
-    <hyperlink ref="B266" r:id="rId525" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000061020000}"/>
-    <hyperlink ref="B267" r:id="rId526" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000062020000}"/>
-    <hyperlink ref="B268" r:id="rId527" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-000063020000}"/>
-    <hyperlink ref="B269" r:id="rId528" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-000064020000}"/>
-    <hyperlink ref="B270" r:id="rId529" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-000065020000}"/>
-    <hyperlink ref="B271" r:id="rId530" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-000066020000}"/>
-    <hyperlink ref="B272" r:id="rId531" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000067020000}"/>
-    <hyperlink ref="B273" r:id="rId532" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000068020000}"/>
+    <hyperlink ref="B133" r:id="rId393" tooltip="Minimum Number of Refueling Stops" display="https://leetcode.com/problems/minimum-number-of-refueling-stops" xr:uid="{00000000-0004-0000-0A00-0000DC010000}"/>
+    <hyperlink ref="B134" r:id="rId394" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0A00-0000DD010000}"/>
+    <hyperlink ref="B135" r:id="rId395" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0A00-0000DE010000}"/>
+    <hyperlink ref="B136" r:id="rId396" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000DF010000}"/>
+    <hyperlink ref="B137" r:id="rId397" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0A00-0000E0010000}"/>
+    <hyperlink ref="B138" r:id="rId398" tooltip="RLE Iterator" display="https://leetcode.com/problems/rle-iterator" xr:uid="{00000000-0004-0000-0A00-0000E1010000}"/>
+    <hyperlink ref="B139" r:id="rId399" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-0000E2010000}"/>
+    <hyperlink ref="B140" r:id="rId400" tooltip="Fruit Into Baskets" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0A00-0000E3010000}"/>
+    <hyperlink ref="B141" r:id="rId401" tooltip="Sum of Subarray Minimums" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0A00-0000E4010000}"/>
+    <hyperlink ref="B142" r:id="rId402" tooltip="Online Election" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0A00-0000E5010000}"/>
+    <hyperlink ref="B143" r:id="rId403" tooltip="Cat and Mouse" display="https://leetcode.com/problems/cat-and-mouse" xr:uid="{00000000-0004-0000-0A00-0000E6010000}"/>
+    <hyperlink ref="B144" r:id="rId404" tooltip="X of a Kind in a Deck of Cards" display="https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards" xr:uid="{00000000-0004-0000-0A00-0000E7010000}"/>
+    <hyperlink ref="B145" r:id="rId405" tooltip="Minimize Malware Spread" display="https://leetcode.com/problems/minimize-malware-spread" xr:uid="{00000000-0004-0000-0A00-0000E8010000}"/>
+    <hyperlink ref="B146" r:id="rId406" tooltip="Long Pressed Name" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0A00-0000E9010000}"/>
+    <hyperlink ref="B147" r:id="rId407" tooltip="Shortest Bridge" display="https://leetcode.com/problems/shortest-bridge" xr:uid="{00000000-0004-0000-0A00-0000EA010000}"/>
+    <hyperlink ref="B148" r:id="rId408" tooltip="Knight Dialer" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0A00-0000EB010000}"/>
+    <hyperlink ref="B149" r:id="rId409" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-0000EC010000}"/>
+    <hyperlink ref="B150" r:id="rId410" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0A00-0000ED010000}"/>
+    <hyperlink ref="B151" r:id="rId411" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0A00-0000EE010000}"/>
+    <hyperlink ref="B152" r:id="rId412" tooltip="Valid Mountain Array" display="https://leetcode.com/problems/valid-mountain-array" xr:uid="{00000000-0004-0000-0A00-0000EF010000}"/>
+    <hyperlink ref="B153" r:id="rId413" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0A00-0000F0010000}"/>
+    <hyperlink ref="B154" r:id="rId414" tooltip="Most Stones Removed with Same Row or Column" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{00000000-0004-0000-0A00-0000F1010000}"/>
+    <hyperlink ref="B155" r:id="rId415" tooltip="Largest Time for Given Digits" display="https://leetcode.com/problems/largest-time-for-given-digits" xr:uid="{00000000-0004-0000-0A00-0000F2010000}"/>
+    <hyperlink ref="B156" r:id="rId416" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000F3010000}"/>
+    <hyperlink ref="B157" r:id="rId417" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000F4010000}"/>
+    <hyperlink ref="B158" r:id="rId418" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0A00-0000F5010000}"/>
+    <hyperlink ref="B159" r:id="rId419" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0A00-0000F6010000}"/>
+    <hyperlink ref="B160" r:id="rId420" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0A00-0000F7010000}"/>
+    <hyperlink ref="B161" r:id="rId421" tooltip="Odd Even Jump" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{00000000-0004-0000-0A00-0000F8010000}"/>
+    <hyperlink ref="B162" r:id="rId422" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-0000F9010000}"/>
+    <hyperlink ref="B163" r:id="rId423" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FA010000}"/>
+    <hyperlink ref="B164" r:id="rId424" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0A00-0000FB010000}"/>
+    <hyperlink ref="B165" r:id="rId425" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0A00-0000FC010000}"/>
+    <hyperlink ref="B166" r:id="rId426" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0A00-0000FD010000}"/>
+    <hyperlink ref="B167" r:id="rId427" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0A00-0000FE010000}"/>
+    <hyperlink ref="B168" r:id="rId428" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FF010000}"/>
+    <hyperlink ref="B169" r:id="rId429" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0A00-000000020000}"/>
+    <hyperlink ref="B170" r:id="rId430" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0A00-000001020000}"/>
+    <hyperlink ref="B171" r:id="rId431" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0A00-000002020000}"/>
+    <hyperlink ref="B172" r:id="rId432" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-000003020000}"/>
+    <hyperlink ref="B173" r:id="rId433" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0A00-000004020000}"/>
+    <hyperlink ref="B174" r:id="rId434" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0A00-000005020000}"/>
+    <hyperlink ref="B175" r:id="rId435" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0A00-000006020000}"/>
+    <hyperlink ref="B176" r:id="rId436" tooltip="Remove Outermost Parentheses" display="https://leetcode.com/problems/remove-outermost-parentheses" xr:uid="{00000000-0004-0000-0A00-000007020000}"/>
+    <hyperlink ref="B177" r:id="rId437" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0A00-000008020000}"/>
+    <hyperlink ref="B178" r:id="rId438" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0A00-000009020000}"/>
+    <hyperlink ref="B179" r:id="rId439" tooltip="Two City Scheduling" display="https://leetcode.com/problems/two-city-scheduling" xr:uid="{00000000-0004-0000-0A00-00000A020000}"/>
+    <hyperlink ref="B180" r:id="rId440" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-00000B020000}"/>
+    <hyperlink ref="B181" r:id="rId441" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0A00-00000C020000}"/>
+    <hyperlink ref="B182" r:id="rId442" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-00000D020000}"/>
+    <hyperlink ref="B183" r:id="rId443" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0A00-00000E020000}"/>
+    <hyperlink ref="B184" r:id="rId444" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0A00-00000F020000}"/>
+    <hyperlink ref="B185" r:id="rId445" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0A00-000010020000}"/>
+    <hyperlink ref="B186" r:id="rId446" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0A00-000011020000}"/>
+    <hyperlink ref="B187" r:id="rId447" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0A00-000012020000}"/>
+    <hyperlink ref="B188" r:id="rId448" tooltip="Confusing Number" display="https://leetcode.com/problems/confusing-number" xr:uid="{00000000-0004-0000-0A00-000013020000}"/>
+    <hyperlink ref="B189" r:id="rId449" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0A00-000014020000}"/>
+    <hyperlink ref="B190" r:id="rId450" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0A00-000015020000}"/>
+    <hyperlink ref="B191" r:id="rId451" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0A00-000016020000}"/>
+    <hyperlink ref="B192" r:id="rId452" tooltip="Campus Bikes II" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{00000000-0004-0000-0A00-000017020000}"/>
+    <hyperlink ref="B193" r:id="rId453" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0A00-000018020000}"/>
+    <hyperlink ref="B194" r:id="rId454" tooltip="Brace Expansion" display="https://leetcode.com/problems/brace-expansion" xr:uid="{00000000-0004-0000-0A00-000019020000}"/>
+    <hyperlink ref="B195" r:id="rId455" tooltip="Confusing Number II" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{00000000-0004-0000-0A00-00001A020000}"/>
+    <hyperlink ref="B197" r:id="rId456" tooltip="Find in Mountain Array" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0A00-00001C020000}"/>
+    <hyperlink ref="B198" r:id="rId457" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-00001D020000}"/>
+    <hyperlink ref="B199" r:id="rId458" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0A00-00001E020000}"/>
+    <hyperlink ref="B200" r:id="rId459" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0A00-00001F020000}"/>
+    <hyperlink ref="B201" r:id="rId460" tooltip="Smallest Sufficient Team" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0A00-000020020000}"/>
+    <hyperlink ref="B202" r:id="rId461" tooltip="Maximum of Absolute Value Expression" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0A00-000021020000}"/>
+    <hyperlink ref="B203" r:id="rId462" tooltip="Parallel Courses" display="https://leetcode.com/problems/parallel-courses" xr:uid="{00000000-0004-0000-0A00-000022020000}"/>
+    <hyperlink ref="B204" r:id="rId463" tooltip="Alphabet Board Path" display="https://leetcode.com/problems/alphabet-board-path" xr:uid="{00000000-0004-0000-0A00-000023020000}"/>
+    <hyperlink ref="B205" r:id="rId464" tooltip="Stone Game II" display="https://leetcode.com/problems/stone-game-ii" xr:uid="{00000000-0004-0000-0A00-000024020000}"/>
+    <hyperlink ref="B206" r:id="rId465" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0A00-000025020000}"/>
+    <hyperlink ref="B207" r:id="rId466" tooltip="Binary Tree Coloring Game" display="https://leetcode.com/problems/binary-tree-coloring-game" xr:uid="{00000000-0004-0000-0A00-000026020000}"/>
+    <hyperlink ref="B208" r:id="rId467" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0A00-000027020000}"/>
+    <hyperlink ref="B209" r:id="rId468" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0A00-000028020000}"/>
+    <hyperlink ref="B210" r:id="rId469" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000029020000}"/>
+    <hyperlink ref="B211" r:id="rId470" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-00002A020000}"/>
+    <hyperlink ref="B212" r:id="rId471" tooltip="Compare Strings by Frequency of the Smallest Character" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{00000000-0004-0000-0A00-00002B020000}"/>
+    <hyperlink ref="B213" r:id="rId472" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0A00-00002C020000}"/>
+    <hyperlink ref="B214" r:id="rId473" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0A00-00002D020000}"/>
+    <hyperlink ref="B215" r:id="rId474" tooltip="Sort Items by Groups Respecting Dependencies" display="https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies" xr:uid="{00000000-0004-0000-0A00-00002E020000}"/>
+    <hyperlink ref="B216" r:id="rId475" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0A00-00002F020000}"/>
+    <hyperlink ref="B217" r:id="rId476" tooltip="Longest Arithmetic Subsequence of Given Difference" display="https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference" xr:uid="{00000000-0004-0000-0A00-000030020000}"/>
+    <hyperlink ref="B218" r:id="rId477" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0A00-000031020000}"/>
+    <hyperlink ref="B219" r:id="rId478" tooltip="Dice Roll Simulation" display="https://leetcode.com/problems/dice-roll-simulation" xr:uid="{00000000-0004-0000-0A00-000032020000}"/>
+    <hyperlink ref="B220" r:id="rId479" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0A00-000033020000}"/>
+    <hyperlink ref="B221" r:id="rId480" tooltip="Divide Chocolate" display="https://leetcode.com/problems/divide-chocolate" xr:uid="{00000000-0004-0000-0A00-000034020000}"/>
+    <hyperlink ref="B222" r:id="rId481" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-000035020000}"/>
+    <hyperlink ref="B223" r:id="rId482" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000036020000}"/>
+    <hyperlink ref="B224" r:id="rId483" tooltip="Find Positive Integer Solution for a Given Equation" display="https://leetcode.com/problems/find-positive-integer-solution-for-a-given-equation" xr:uid="{00000000-0004-0000-0A00-000037020000}"/>
+    <hyperlink ref="B225" r:id="rId484" tooltip="Tiling a Rectangle with the Fewest Squares" display="https://leetcode.com/problems/tiling-a-rectangle-with-the-fewest-squares" xr:uid="{00000000-0004-0000-0A00-000038020000}"/>
+    <hyperlink ref="B226" r:id="rId485" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-000039020000}"/>
+    <hyperlink ref="B227" r:id="rId486" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0A00-00003A020000}"/>
+    <hyperlink ref="B228" r:id="rId487" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-00003B020000}"/>
+    <hyperlink ref="B229" r:id="rId488" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0A00-00003C020000}"/>
+    <hyperlink ref="B230" r:id="rId489" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0A00-00003D020000}"/>
+    <hyperlink ref="B231" r:id="rId490" tooltip="Count Square Submatrices with All Ones" display="https://leetcode.com/problems/count-square-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00003E020000}"/>
+    <hyperlink ref="B232" r:id="rId491" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00003F020000}"/>
+    <hyperlink ref="B233" r:id="rId492" tooltip="Minimum Number of Flips to Convert Binary Matrix to Zero Matrix" display="https://leetcode.com/problems/minimum-number-of-flips-to-convert-binary-matrix-to-zero-matrix" xr:uid="{00000000-0004-0000-0A00-000040020000}"/>
+    <hyperlink ref="B234" r:id="rId493" tooltip="Maximum Side Length of a Square with Sum Less than or Equal to Threshold" display="https://leetcode.com/problems/maximum-side-length-of-a-square-with-sum-less-than-or-equal-to-threshold" xr:uid="{00000000-0004-0000-0A00-000041020000}"/>
+    <hyperlink ref="B235" r:id="rId494" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0A00-000042020000}"/>
+    <hyperlink ref="B236" r:id="rId495" tooltip="Divide Array in Sets of K Consecutive Numbers" display="https://leetcode.com/problems/divide-array-in-sets-of-k-consecutive-numbers" xr:uid="{00000000-0004-0000-0A00-000043020000}"/>
+    <hyperlink ref="B237" r:id="rId496" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000044020000}"/>
+    <hyperlink ref="B238" r:id="rId497" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0A00-000045020000}"/>
+    <hyperlink ref="B239" r:id="rId498" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0A00-000046020000}"/>
+    <hyperlink ref="B240" r:id="rId499" tooltip="Minimum Distance to Type a Word Using Two Fingers" display="https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers" xr:uid="{00000000-0004-0000-0A00-000047020000}"/>
+    <hyperlink ref="B241" r:id="rId500" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0A00-000048020000}"/>
+    <hyperlink ref="B242" r:id="rId501" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0A00-000049020000}"/>
+    <hyperlink ref="B244" r:id="rId502" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0A00-00004B020000}"/>
+    <hyperlink ref="B245" r:id="rId503" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0A00-00004C020000}"/>
+    <hyperlink ref="B246" r:id="rId504" tooltip="Product of the Last K Numbers" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{00000000-0004-0000-0A00-00004D020000}"/>
+    <hyperlink ref="B247" r:id="rId505" tooltip="Rank Teams by Votes" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{00000000-0004-0000-0A00-00004E020000}"/>
+    <hyperlink ref="B248" r:id="rId506" tooltip="Minimum Cost to Make at Least One Valid Path in a Grid" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{00000000-0004-0000-0A00-00004F020000}"/>
+    <hyperlink ref="B249" r:id="rId507" tooltip="Time Needed to Inform All Employees" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{00000000-0004-0000-0A00-000050020000}"/>
+    <hyperlink ref="B250" r:id="rId508" tooltip="Frog Position After T Seconds" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{00000000-0004-0000-0A00-000051020000}"/>
+    <hyperlink ref="B251" r:id="rId509" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000052020000}"/>
+    <hyperlink ref="B252" r:id="rId510" tooltip="Stone Game III" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{00000000-0004-0000-0A00-000053020000}"/>
+    <hyperlink ref="B253" r:id="rId511" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000054020000}"/>
+    <hyperlink ref="B254" r:id="rId512" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-000055020000}"/>
+    <hyperlink ref="B255" r:id="rId513" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000056020000}"/>
+    <hyperlink ref="B256" r:id="rId514" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000057020000}"/>
+    <hyperlink ref="B257" r:id="rId515" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000058020000}"/>
+    <hyperlink ref="B258" r:id="rId516" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-000059020000}"/>
+    <hyperlink ref="B259" r:id="rId517" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-00005A020000}"/>
+    <hyperlink ref="B260" r:id="rId518" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-00005B020000}"/>
+    <hyperlink ref="B261" r:id="rId519" tooltip="Kth Ancestor of a Tree Node" display="https://leetcode.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{00000000-0004-0000-0A00-00005C020000}"/>
+    <hyperlink ref="B262" r:id="rId520" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00005D020000}"/>
+    <hyperlink ref="B263" r:id="rId521" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00005E020000}"/>
+    <hyperlink ref="B264" r:id="rId522" tooltip="Path with Maximum Probability" display="https://leetcode.com/problems/path-with-maximum-probability" xr:uid="{00000000-0004-0000-0A00-00005F020000}"/>
+    <hyperlink ref="B265" r:id="rId523" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000060020000}"/>
+    <hyperlink ref="B266" r:id="rId524" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000061020000}"/>
+    <hyperlink ref="B267" r:id="rId525" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000062020000}"/>
+    <hyperlink ref="B268" r:id="rId526" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-000063020000}"/>
+    <hyperlink ref="B269" r:id="rId527" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-000064020000}"/>
+    <hyperlink ref="B270" r:id="rId528" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-000065020000}"/>
+    <hyperlink ref="B271" r:id="rId529" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-000066020000}"/>
+    <hyperlink ref="B272" r:id="rId530" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000067020000}"/>
+    <hyperlink ref="B273" r:id="rId531" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000068020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26246,8 +26501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F348"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C38"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27598,28 +27853,6 @@
       </c>
       <c r="C126" s="22" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="25">
-        <v>784</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="25">
-        <v>785</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -29971,298 +30204,296 @@
     <hyperlink ref="B67" r:id="rId40" tooltip="Maximum Product of Three Numbers" display="https://leetcode.com/problems/maximum-product-of-three-numbers" xr:uid="{00000000-0004-0000-0B00-000035000000}"/>
     <hyperlink ref="B52" r:id="rId41" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0B00-000036000000}"/>
     <hyperlink ref="B8" r:id="rId42" tooltip="LFU Cache" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0B00-000038000000}"/>
-    <hyperlink ref="B128" r:id="rId43" tooltip="Is Graph Bipartite?" display="https://leetcode.com/problems/is-graph-bipartite" xr:uid="{00000000-0004-0000-0B00-000039000000}"/>
-    <hyperlink ref="B26" r:id="rId44" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0B00-00003A000000}"/>
-    <hyperlink ref="B9" r:id="rId45" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0B00-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId46" tooltip="Solve the Equation" display="https://leetcode.com/problems/solve-the-equation" xr:uid="{00000000-0004-0000-0B00-00003D000000}"/>
-    <hyperlink ref="B142" r:id="rId47" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0B00-00003F000000}"/>
-    <hyperlink ref="B46" r:id="rId48" tooltip="Reverse Words in a String III" display="https://leetcode.com/problems/reverse-words-in-a-string-iii" xr:uid="{00000000-0004-0000-0B00-000041000000}"/>
-    <hyperlink ref="B108" r:id="rId49" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0B00-000043000000}"/>
-    <hyperlink ref="B72" r:id="rId50" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0B00-000044000000}"/>
-    <hyperlink ref="B152" r:id="rId51" tooltip="Lemonade Change" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0B00-000045000000}"/>
-    <hyperlink ref="B155" r:id="rId52" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046000000}"/>
-    <hyperlink ref="B4" r:id="rId53" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0B00-000047000000}"/>
-    <hyperlink ref="B76" r:id="rId54" tooltip="2 Keys Keyboard" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0B00-000048000000}"/>
-    <hyperlink ref="B6" r:id="rId55" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0B00-000049000000}"/>
-    <hyperlink ref="B83" r:id="rId56" tooltip="Cut Off Trees for Golf Event" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0B00-00004B000000}"/>
-    <hyperlink ref="B106" r:id="rId57" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0B00-00004C000000}"/>
-    <hyperlink ref="B122" r:id="rId58" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0B00-00004D000000}"/>
-    <hyperlink ref="B123" r:id="rId59" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0B00-00004E000000}"/>
-    <hyperlink ref="B132" r:id="rId60" tooltip="All Paths From Source to Target" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{00000000-0004-0000-0B00-00004F000000}"/>
-    <hyperlink ref="B98" r:id="rId61" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0B00-000050000000}"/>
-    <hyperlink ref="B51" r:id="rId62" tooltip="Find Cumulative Salary of an Employee" display="https://leetcode.com/problems/find-cumulative-salary-of-an-employee" xr:uid="{00000000-0004-0000-0B00-000051000000}"/>
-    <hyperlink ref="B116" r:id="rId63" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0B00-000052000000}"/>
-    <hyperlink ref="B65" r:id="rId64" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0B00-000053000000}"/>
-    <hyperlink ref="B27" r:id="rId65" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0B00-000057000000}"/>
-    <hyperlink ref="B21" r:id="rId66" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0B00-000058000000}"/>
-    <hyperlink ref="B20" r:id="rId67" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0B00-00005A000000}"/>
-    <hyperlink ref="B49" r:id="rId68" tooltip="Managers with at Least 5 Direct Reports" display="https://leetcode.com/problems/managers-with-at-least-5-direct-reports" xr:uid="{00000000-0004-0000-0B00-00005B000000}"/>
-    <hyperlink ref="B86" r:id="rId69" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
-    <hyperlink ref="B87" r:id="rId70" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0B00-00005D000000}"/>
-    <hyperlink ref="B88" r:id="rId71" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0B00-00005E000000}"/>
-    <hyperlink ref="B25" r:id="rId72" tooltip="IPO" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0B00-00005F000000}"/>
-    <hyperlink ref="B16" r:id="rId73" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0B00-000060000000}"/>
-    <hyperlink ref="B82" r:id="rId74" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0B00-000061000000}"/>
-    <hyperlink ref="B92" r:id="rId75" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0B00-000062000000}"/>
-    <hyperlink ref="B32" r:id="rId76" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0B00-000064000000}"/>
-    <hyperlink ref="B54" r:id="rId77" tooltip="Customer Placing the Largest Number of Orders" display="https://leetcode.com/problems/customer-placing-the-largest-number-of-orders" xr:uid="{00000000-0004-0000-0B00-000065000000}"/>
-    <hyperlink ref="B7" r:id="rId78" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0B00-000068000000}"/>
-    <hyperlink ref="B36" r:id="rId79" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0B00-00006C000000}"/>
-    <hyperlink ref="B44" r:id="rId80" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0B00-00006E000000}"/>
-    <hyperlink ref="B48" r:id="rId81" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0B00-000070000000}"/>
-    <hyperlink ref="B57" r:id="rId82" tooltip="Human Traffic of Stadium" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0B00-000072000000}"/>
-    <hyperlink ref="B10" r:id="rId83" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0B00-000073000000}"/>
-    <hyperlink ref="B121" r:id="rId84" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0B00-000074000000}"/>
-    <hyperlink ref="B74" r:id="rId85" tooltip="Maximum Length of Pair Chain" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0B00-000075000000}"/>
-    <hyperlink ref="B80" r:id="rId86" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000076000000}"/>
-    <hyperlink ref="B125" r:id="rId87" tooltip="Global and Local Inversions" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0B00-000077000000}"/>
-    <hyperlink ref="B160" r:id="rId88" tooltip="Boats to Save People" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0B00-000078000000}"/>
-    <hyperlink ref="B105" r:id="rId89" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0B00-00007D000000}"/>
-    <hyperlink ref="B139" r:id="rId90" tooltip="Most Profit Assigning Work" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0B00-00007F000000}"/>
-    <hyperlink ref="B102" r:id="rId91" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0B00-000080000000}"/>
-    <hyperlink ref="B33" r:id="rId92" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0B00-000081000000}"/>
-    <hyperlink ref="B91" r:id="rId93" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0B00-000082000000}"/>
-    <hyperlink ref="B148" r:id="rId94" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0B00-000083000000}"/>
-    <hyperlink ref="B15" r:id="rId95" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0B00-000084000000}"/>
-    <hyperlink ref="B17" r:id="rId96" tooltip="Predict the Winner" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0B00-000085000000}"/>
-    <hyperlink ref="B158" r:id="rId97" tooltip="Middle of the Linked List" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0B00-000086000000}"/>
-    <hyperlink ref="B100" r:id="rId98" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0B00-000087000000}"/>
-    <hyperlink ref="B18" r:id="rId99" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0B00-000088000000}"/>
-    <hyperlink ref="B136" r:id="rId100" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0B00-000089000000}"/>
-    <hyperlink ref="B151" r:id="rId101" tooltip="Score of Parentheses" display="https://leetcode.com/problems/score-of-parentheses" xr:uid="{00000000-0004-0000-0B00-00008A000000}"/>
-    <hyperlink ref="B170" r:id="rId102" tooltip="Snakes and Ladders" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0B00-00008B000000}"/>
-    <hyperlink ref="B97" r:id="rId103" tooltip="Insert into a Binary Search Tree" display="https://leetcode.com/problems/insert-into-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-00008C000000}"/>
-    <hyperlink ref="B60" r:id="rId104" tooltip="Valid Triangle Number" display="https://leetcode.com/problems/valid-triangle-number" xr:uid="{00000000-0004-0000-0B00-00008D000000}"/>
-    <hyperlink ref="B104" r:id="rId105" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0B00-00008E000000}"/>
-    <hyperlink ref="B149" r:id="rId106" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0B00-00008F000000}"/>
-    <hyperlink ref="B147" r:id="rId107" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0B00-000090000000}"/>
-    <hyperlink ref="B177" r:id="rId108" tooltip="Minimum Falling Path Sum" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0B00-000091000000}"/>
-    <hyperlink ref="B114" r:id="rId109" tooltip="Sentence Similarity II" display="https://leetcode.com/problems/sentence-similarity-ii" xr:uid="{00000000-0004-0000-0B00-000092000000}"/>
-    <hyperlink ref="B154" r:id="rId110" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0B00-000093000000}"/>
-    <hyperlink ref="B178" r:id="rId111" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0B00-000094000000}"/>
-    <hyperlink ref="B101" r:id="rId112" tooltip="Design Linked List" display="https://leetcode.com/problems/design-linked-list" xr:uid="{00000000-0004-0000-0B00-000096000000}"/>
-    <hyperlink ref="B45" r:id="rId113" tooltip="Next Greater Element III" display="https://leetcode.com/problems/next-greater-element-iii" xr:uid="{00000000-0004-0000-0B00-000097000000}"/>
-    <hyperlink ref="B85" r:id="rId114" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0B00-000098000000}"/>
-    <hyperlink ref="B140" r:id="rId115" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0B00-000099000000}"/>
-    <hyperlink ref="B175" r:id="rId116" tooltip="Sort Array By Parity II" display="https://leetcode.com/problems/sort-array-by-parity-ii" xr:uid="{00000000-0004-0000-0B00-00009A000000}"/>
-    <hyperlink ref="B135" r:id="rId117" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0B00-00009C000000}"/>
-    <hyperlink ref="B35" r:id="rId118" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0B00-00009D000000}"/>
-    <hyperlink ref="B180" r:id="rId119" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="B153" r:id="rId120" tooltip="Score After Flipping Matrix" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0B00-0000A0000000}"/>
-    <hyperlink ref="B184" r:id="rId121" tooltip="Prison Cells After N Days" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0B00-0000A1000000}"/>
-    <hyperlink ref="B119" r:id="rId122" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0B00-0000A2000000}"/>
-    <hyperlink ref="B130" r:id="rId123" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0B00-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId124" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0B00-0000A4000000}"/>
-    <hyperlink ref="B188" r:id="rId125" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0B00-0000A6000000}"/>
-    <hyperlink ref="B24" r:id="rId126" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-0000A7000000}"/>
-    <hyperlink ref="B173" r:id="rId127" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0B00-0000A9000000}"/>
-    <hyperlink ref="B29" r:id="rId128" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0B00-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId129" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0B00-0000AB000000}"/>
-    <hyperlink ref="B191" r:id="rId130" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000AC000000}"/>
-    <hyperlink ref="B192" r:id="rId131" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0B00-0000AD000000}"/>
-    <hyperlink ref="B194" r:id="rId132" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0B00-0000AE000000}"/>
-    <hyperlink ref="B197" r:id="rId133" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0B00-0000AF000000}"/>
-    <hyperlink ref="B143" r:id="rId134" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0B00-0000B0000000}"/>
-    <hyperlink ref="B199" r:id="rId135" tooltip="Rotting Oranges" display="https://leetcode.com/problems/rotting-oranges" xr:uid="{00000000-0004-0000-0B00-0000B1000000}"/>
-    <hyperlink ref="B30" r:id="rId136" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0B00-0000B2000000}"/>
-    <hyperlink ref="B47" r:id="rId137" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0B00-0000B3000000}"/>
-    <hyperlink ref="B124" r:id="rId138" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0B00-0000B4000000}"/>
-    <hyperlink ref="B190" r:id="rId139" tooltip="Longest Turbulent Subarray" display="https://leetcode.com/problems/longest-turbulent-subarray" xr:uid="{00000000-0004-0000-0B00-0000B5000000}"/>
-    <hyperlink ref="B28" r:id="rId140" tooltip="Perfect Number" display="https://leetcode.com/problems/perfect-number" xr:uid="{00000000-0004-0000-0B00-0000B6000000}"/>
-    <hyperlink ref="B196" r:id="rId141" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B7000000}"/>
-    <hyperlink ref="B198" r:id="rId142" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B8000000}"/>
-    <hyperlink ref="B204" r:id="rId143" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0B00-0000B9000000}"/>
-    <hyperlink ref="B99" r:id="rId144" tooltip="Binary Search" display="https://leetcode.com/problems/binary-search" xr:uid="{00000000-0004-0000-0B00-0000BC000000}"/>
-    <hyperlink ref="B182" r:id="rId145" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0B00-0000BD000000}"/>
-    <hyperlink ref="B205" r:id="rId146" tooltip="Maximize Sum Of Array After K Negations" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0B00-0000BE000000}"/>
-    <hyperlink ref="B201" r:id="rId147" tooltip="Find the Town Judge" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0B00-0000BF000000}"/>
-    <hyperlink ref="B103" r:id="rId148" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
-    <hyperlink ref="B207" r:id="rId149" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000C2000000}"/>
-    <hyperlink ref="B208" r:id="rId150" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0B00-0000C3000000}"/>
-    <hyperlink ref="B230" r:id="rId151" tooltip="High Five" display="https://leetcode.com/problems/high-five" xr:uid="{00000000-0004-0000-0B00-0000C4000000}"/>
-    <hyperlink ref="B211" r:id="rId152" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0B00-0000C5000000}"/>
-    <hyperlink ref="B212" r:id="rId153" tooltip="Sum of Root To Leaf Binary Numbers" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0B00-0000C6000000}"/>
-    <hyperlink ref="B234" r:id="rId154" tooltip="Find K-Length Substrings With No Repeated Characters" display="https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters" xr:uid="{00000000-0004-0000-0B00-0000C7000000}"/>
-    <hyperlink ref="B39" r:id="rId155" tooltip="Reverse String II" display="https://leetcode.com/problems/reverse-string-ii" xr:uid="{00000000-0004-0000-0B00-0000C8000000}"/>
-    <hyperlink ref="B127" r:id="rId156" tooltip="Letter Case Permutation" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0B00-0000C9000000}"/>
-    <hyperlink ref="B241" r:id="rId157" tooltip="Remove Vowels from a String" display="https://leetcode.com/problems/remove-vowels-from-a-string" xr:uid="{00000000-0004-0000-0B00-0000CA000000}"/>
-    <hyperlink ref="B242" r:id="rId158" tooltip="Maximum Average Subtree" display="https://leetcode.com/problems/maximum-average-subtree" xr:uid="{00000000-0004-0000-0B00-0000CB000000}"/>
-    <hyperlink ref="B146" r:id="rId159" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0B00-0000CC000000}"/>
-    <hyperlink ref="B209" r:id="rId160" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0B00-0000CD000000}"/>
-    <hyperlink ref="B235" r:id="rId161" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0B00-0000CE000000}"/>
-    <hyperlink ref="B245" r:id="rId162" tooltip="Connecting Cities With Minimum Cost" display="https://leetcode.com/problems/connecting-cities-with-minimum-cost" xr:uid="{00000000-0004-0000-0B00-0000CF000000}"/>
-    <hyperlink ref="B202" r:id="rId163" tooltip="Minimum Cost to Merge Stones" display="https://leetcode.com/problems/minimum-cost-to-merge-stones" xr:uid="{00000000-0004-0000-0B00-0000D0000000}"/>
-    <hyperlink ref="B249" r:id="rId164" tooltip="Analyze User Website Visit Pattern" display="https://leetcode.com/problems/analyze-user-website-visit-pattern" xr:uid="{00000000-0004-0000-0B00-0000D1000000}"/>
-    <hyperlink ref="B34" r:id="rId165" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0B00-0000D2000000}"/>
-    <hyperlink ref="B164" r:id="rId166" tooltip="Construct Binary Tree from Preorder and Postorder Traversal" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000D3000000}"/>
-    <hyperlink ref="B252" r:id="rId167" tooltip="Find Words That Can Be Formed by Characters" display="https://leetcode.com/problems/find-words-that-can-be-formed-by-characters" xr:uid="{00000000-0004-0000-0B00-0000D4000000}"/>
-    <hyperlink ref="B216" r:id="rId168" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0B00-0000D5000000}"/>
-    <hyperlink ref="B89" r:id="rId169" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0B00-0000D6000000}"/>
-    <hyperlink ref="B219" r:id="rId170" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0B00-0000D7000000}"/>
-    <hyperlink ref="B109" r:id="rId171" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0B00-0000D8000000}"/>
-    <hyperlink ref="B163" r:id="rId172" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0B00-0000DA000000}"/>
-    <hyperlink ref="B126" r:id="rId173" tooltip="K-th Symbol in Grammar" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0B00-0000DB000000}"/>
-    <hyperlink ref="B195" r:id="rId174" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0B00-0000DC000000}"/>
-    <hyperlink ref="B215" r:id="rId175" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0B00-0000DD000000}"/>
-    <hyperlink ref="B264" r:id="rId176" tooltip="Two Sum BSTs" display="https://leetcode.com/problems/two-sum-bsts" xr:uid="{00000000-0004-0000-0B00-0000DE000000}"/>
-    <hyperlink ref="B63" r:id="rId177" tooltip="Students Report By Geography" display="https://leetcode.com/problems/students-report-by-geography" xr:uid="{00000000-0004-0000-0B00-0000DF000000}"/>
-    <hyperlink ref="B218" r:id="rId178" tooltip="Partition Array for Maximum Sum" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0B00-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId179" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0B00-0000E1000000}"/>
-    <hyperlink ref="B96" r:id="rId180" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0B00-0000E2000000}"/>
-    <hyperlink ref="B137" r:id="rId181" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0B00-0000E3000000}"/>
-    <hyperlink ref="B156" r:id="rId182" tooltip="Length of Longest Fibonacci Subsequence" display="https://leetcode.com/problems/length-of-longest-fibonacci-subsequence" xr:uid="{00000000-0004-0000-0B00-0000E4000000}"/>
-    <hyperlink ref="B203" r:id="rId183" tooltip="Find Common Characters" display="https://leetcode.com/problems/find-common-characters" xr:uid="{00000000-0004-0000-0B00-0000E5000000}"/>
-    <hyperlink ref="B161" r:id="rId184" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0B00-0000E6000000}"/>
-    <hyperlink ref="B179" r:id="rId185" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0B00-0000E7000000}"/>
-    <hyperlink ref="B229" r:id="rId186" tooltip="Sales Analysis III" display="https://leetcode.com/problems/sales-analysis-iii" xr:uid="{00000000-0004-0000-0B00-0000E8000000}"/>
-    <hyperlink ref="B228" r:id="rId187" tooltip="Sales Analysis II" display="https://leetcode.com/problems/sales-analysis-ii" xr:uid="{00000000-0004-0000-0B00-0000E9000000}"/>
-    <hyperlink ref="B225" r:id="rId188" tooltip="All Paths from Source Lead to Destination" display="https://leetcode.com/problems/all-paths-from-source-lead-to-destination" xr:uid="{00000000-0004-0000-0B00-0000EA000000}"/>
-    <hyperlink ref="B117" r:id="rId189" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0B00-0000EB000000}"/>
-    <hyperlink ref="B224" r:id="rId190" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0B00-0000EC000000}"/>
-    <hyperlink ref="B231" r:id="rId191" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0B00-0000ED000000}"/>
-    <hyperlink ref="B56" r:id="rId192" tooltip="N-ary Tree Postorder Traversal" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000EE000000}"/>
-    <hyperlink ref="B171" r:id="rId193" tooltip="Sort an Array" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0B00-0000EF000000}"/>
-    <hyperlink ref="B183" r:id="rId194" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0B00-0000F0000000}"/>
-    <hyperlink ref="B113" r:id="rId195" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0B00-0000F1000000}"/>
-    <hyperlink ref="B233" r:id="rId196" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0B00-0000F2000000}"/>
-    <hyperlink ref="B239" r:id="rId197" tooltip="Print in Order" display="https://leetcode.com/problems/print-in-order" xr:uid="{00000000-0004-0000-0B00-0000F3000000}"/>
-    <hyperlink ref="B289" r:id="rId198" tooltip="Replace Elements with Greatest Element on Right Side" display="https://leetcode.com/problems/replace-elements-with-greatest-element-on-right-side" xr:uid="{00000000-0004-0000-0B00-0000F4000000}"/>
-    <hyperlink ref="B220" r:id="rId199" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0B00-0000F5000000}"/>
-    <hyperlink ref="B243" r:id="rId200" tooltip="Shortest Path with Alternating Colors" display="https://leetcode.com/problems/shortest-path-with-alternating-colors" xr:uid="{00000000-0004-0000-0B00-0000F6000000}"/>
-    <hyperlink ref="B187" r:id="rId201" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0B00-0000F7000000}"/>
-    <hyperlink ref="B295" r:id="rId202" tooltip="Sum of Nodes with Even-Valued Grandparent" display="https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent" xr:uid="{00000000-0004-0000-0B00-0000F8000000}"/>
-    <hyperlink ref="B185" r:id="rId203" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000F9000000}"/>
-    <hyperlink ref="B206" r:id="rId204" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0B00-0000FA000000}"/>
-    <hyperlink ref="B237" r:id="rId205" tooltip="Defanging an IP Address" display="https://leetcode.com/problems/defanging-an-ip-address" xr:uid="{00000000-0004-0000-0B00-0000FB000000}"/>
-    <hyperlink ref="B221" r:id="rId206" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0B00-0000FC000000}"/>
-    <hyperlink ref="B251" r:id="rId207" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0B00-0000FD000000}"/>
-    <hyperlink ref="B254" r:id="rId208" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0B00-0000FE000000}"/>
-    <hyperlink ref="B246" r:id="rId209" tooltip="Largest 1-Bordered Square" display="https://leetcode.com/problems/largest-1-bordered-square" xr:uid="{00000000-0004-0000-0B00-0000FF000000}"/>
-    <hyperlink ref="B312" r:id="rId210" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-000000010000}"/>
-    <hyperlink ref="B257" r:id="rId211" tooltip="Minimum Cost to Connect Sticks" display="https://leetcode.com/problems/minimum-cost-to-connect-sticks" xr:uid="{00000000-0004-0000-0B00-000001010000}"/>
-    <hyperlink ref="B253" r:id="rId212" tooltip="Maximum Level Sum of a Binary Tree" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-000002010000}"/>
-    <hyperlink ref="B247" r:id="rId213" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
-    <hyperlink ref="B259" r:id="rId214" tooltip="Reformat Department Table" display="https://leetcode.com/problems/reformat-department-table" xr:uid="{00000000-0004-0000-0B00-000004010000}"/>
-    <hyperlink ref="B193" r:id="rId215" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0B00-000005010000}"/>
-    <hyperlink ref="B261" r:id="rId216" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0B00-000006010000}"/>
-    <hyperlink ref="B238" r:id="rId217" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0B00-000008010000}"/>
-    <hyperlink ref="B317" r:id="rId218" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0B00-000009010000}"/>
-    <hyperlink ref="B81" r:id="rId219" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0B00-00000A010000}"/>
-    <hyperlink ref="B107" r:id="rId220" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0B00-00000B010000}"/>
-    <hyperlink ref="B271" r:id="rId221" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0B00-00000C010000}"/>
-    <hyperlink ref="B250" r:id="rId222" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0B00-00000E010000}"/>
-    <hyperlink ref="B268" r:id="rId223" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0B00-00000F010000}"/>
-    <hyperlink ref="B5" r:id="rId224" tooltip="Minimum Moves to Equal Array Elements" display="https://leetcode.com/problems/minimum-moves-to-equal-array-elements" xr:uid="{00000000-0004-0000-0B00-000010010000}"/>
-    <hyperlink ref="B260" r:id="rId225" tooltip="Design Bounded Blocking Queue" display="https://leetcode.com/problems/design-bounded-blocking-queue" xr:uid="{00000000-0004-0000-0B00-000011010000}"/>
-    <hyperlink ref="B282" r:id="rId226" tooltip="Search Suggestions System" display="https://leetcode.com/problems/search-suggestions-system" xr:uid="{00000000-0004-0000-0B00-000012010000}"/>
-    <hyperlink ref="B226" r:id="rId227" tooltip="Greatest Common Divisor of Strings" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0B00-000013010000}"/>
-    <hyperlink ref="B273" r:id="rId228" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0B00-000014010000}"/>
-    <hyperlink ref="B266" r:id="rId229" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0B00-000015010000}"/>
-    <hyperlink ref="B256" r:id="rId230" tooltip="Design File System" display="https://leetcode.com/problems/design-file-system" xr:uid="{00000000-0004-0000-0B00-000016010000}"/>
-    <hyperlink ref="B157" r:id="rId231" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0B00-000017010000}"/>
-    <hyperlink ref="B214" r:id="rId232" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0B00-000018010000}"/>
-    <hyperlink ref="B262" r:id="rId233" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0B00-000019010000}"/>
-    <hyperlink ref="B278" r:id="rId234" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0B00-00001A010000}"/>
-    <hyperlink ref="B277" r:id="rId235" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
-    <hyperlink ref="B291" r:id="rId236" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0B00-00001C010000}"/>
-    <hyperlink ref="B244" r:id="rId237" tooltip="Minimum Cost Tree From Leaf Values" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0B00-00001D010000}"/>
-    <hyperlink ref="B292" r:id="rId238" tooltip="Get Watched Videos by Your Friends" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{00000000-0004-0000-0B00-00001E010000}"/>
-    <hyperlink ref="B284" r:id="rId239" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0B00-00001F010000}"/>
-    <hyperlink ref="B297" r:id="rId240" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0B00-000020010000}"/>
-    <hyperlink ref="B276" r:id="rId241" tooltip="Count Number of Nice Subarrays" display="https://leetcode.com/problems/count-number-of-nice-subarrays" xr:uid="{00000000-0004-0000-0B00-000021010000}"/>
-    <hyperlink ref="B280" r:id="rId242" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0B00-000022010000}"/>
-    <hyperlink ref="B14" r:id="rId243" tooltip="Matchsticks to Square" display="https://leetcode.com/problems/matchsticks-to-square" xr:uid="{00000000-0004-0000-0B00-000024010000}"/>
-    <hyperlink ref="B267" r:id="rId244" tooltip="Split a String in Balanced Strings" display="https://leetcode.com/problems/split-a-string-in-balanced-strings" xr:uid="{00000000-0004-0000-0B00-000025010000}"/>
-    <hyperlink ref="B309" r:id="rId245" tooltip="Maximum Sum BST in Binary Tree" display="https://leetcode.com/problems/maximum-sum-bst-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000026010000}"/>
-    <hyperlink ref="B223" r:id="rId246" tooltip="Last Stone Weight II" display="https://leetcode.com/problems/last-stone-weight-ii" xr:uid="{00000000-0004-0000-0B00-000027010000}"/>
-    <hyperlink ref="B248" r:id="rId247" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0B00-000028010000}"/>
-    <hyperlink ref="B275" r:id="rId248" tooltip="Minimum Swaps to Make Strings Equal" display="https://leetcode.com/problems/minimum-swaps-to-make-strings-equal" xr:uid="{00000000-0004-0000-0B00-000029010000}"/>
-    <hyperlink ref="B293" r:id="rId249" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0B00-00002A010000}"/>
-    <hyperlink ref="B306" r:id="rId250" tooltip="Count Negative Numbers in a Sorted Matrix" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0B00-00002B010000}"/>
-    <hyperlink ref="B53" r:id="rId251" tooltip="Find Customer Referee" display="https://leetcode.com/problems/find-customer-referee" xr:uid="{00000000-0004-0000-0B00-00002C010000}"/>
-    <hyperlink ref="B269" r:id="rId252" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0B00-00002D010000}"/>
-    <hyperlink ref="B283" r:id="rId253" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0B00-00002E010000}"/>
-    <hyperlink ref="B303" r:id="rId254" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0B00-00002F010000}"/>
-    <hyperlink ref="B186" r:id="rId255" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0B00-000030010000}"/>
-    <hyperlink ref="B200" r:id="rId256" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0B00-000031010000}"/>
-    <hyperlink ref="B240" r:id="rId257" tooltip="Building H2O" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0B00-000032010000}"/>
-    <hyperlink ref="B172" r:id="rId258" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
-    <hyperlink ref="B307" r:id="rId259" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0B00-000034010000}"/>
-    <hyperlink ref="B281" r:id="rId260" tooltip="Count Servers that Communicate" display="https://leetcode.com/problems/count-servers-that-communicate" xr:uid="{00000000-0004-0000-0B00-000035010000}"/>
-    <hyperlink ref="B286" r:id="rId261" tooltip="Find the Start and End Number of Continuous Ranges" display="https://leetcode.com/problems/find-the-start-and-end-number-of-continuous-ranges" xr:uid="{00000000-0004-0000-0B00-000036010000}"/>
-    <hyperlink ref="B302" r:id="rId262" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0B00-000038010000}"/>
-    <hyperlink ref="B308" r:id="rId263" tooltip="How Many Numbers Are Smaller Than the Current Number" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{00000000-0004-0000-0B00-000039010000}"/>
-    <hyperlink ref="B174" r:id="rId264" tooltip="Minimum Add to Make Parentheses Valid" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid" xr:uid="{00000000-0004-0000-0B00-00003A010000}"/>
-    <hyperlink ref="B313" r:id="rId265" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0B00-00003B010000}"/>
-    <hyperlink ref="B159" r:id="rId266" tooltip="Decoded String at Index" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0B00-00003C010000}"/>
-    <hyperlink ref="B222" r:id="rId267" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0B00-00003D010000}"/>
-    <hyperlink ref="B133" r:id="rId268" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0B00-00003E010000}"/>
-    <hyperlink ref="B274" r:id="rId269" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0B00-00003F010000}"/>
-    <hyperlink ref="B310" r:id="rId270" tooltip="Bulb Switcher III" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{00000000-0004-0000-0B00-000040010000}"/>
-    <hyperlink ref="B169" r:id="rId271" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0B00-000041010000}"/>
-    <hyperlink ref="B314" r:id="rId272" tooltip="Customers Who Bought Products A and B but Not C" display="https://leetcode.com/problems/customers-who-bought-products-a-and-b-but-not-c" xr:uid="{00000000-0004-0000-0B00-000042010000}"/>
-    <hyperlink ref="B285" r:id="rId273" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0B00-000043010000}"/>
-    <hyperlink ref="B210" r:id="rId274" tooltip="Partition Array Into Three Parts With Equal Sum" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0B00-000045010000}"/>
-    <hyperlink ref="B301" r:id="rId275" tooltip="Maximum Product of Splitted Binary Tree" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046010000}"/>
-    <hyperlink ref="B305" r:id="rId276" tooltip="Minimum Number of Steps to Make Two Strings Anagram" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{00000000-0004-0000-0B00-000047010000}"/>
-    <hyperlink ref="B118" r:id="rId277" tooltip="Pyramid Transition Matrix" display="https://leetcode.com/problems/pyramid-transition-matrix" xr:uid="{00000000-0004-0000-0B00-000048010000}"/>
-    <hyperlink ref="B290" r:id="rId278" tooltip="Find N Unique Integers Sum up to Zero" display="https://leetcode.com/problems/find-n-unique-integers-sum-up-to-zero" xr:uid="{00000000-0004-0000-0B00-000049010000}"/>
-    <hyperlink ref="B258" r:id="rId279" tooltip="Remove Zero Sum Consecutive Nodes from Linked List" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list" xr:uid="{00000000-0004-0000-0B00-00004A010000}"/>
-    <hyperlink ref="B58" r:id="rId280" tooltip="Friend Requests II: Who Has the Most Friends" display="https://leetcode.com/problems/friend-requests-ii-who-has-the-most-friends" xr:uid="{00000000-0004-0000-0B00-00004B010000}"/>
-    <hyperlink ref="B318" r:id="rId281" tooltip="Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree" display="https://leetcode.com/problems/check-if-a-string-is-a-valid-sequence-from-root-to-leaves-path-in-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-00004C010000}"/>
-    <hyperlink ref="B321" r:id="rId282" tooltip="Rearrange Words in a Sentence" display="https://leetcode.com/problems/rearrange-words-in-a-sentence" xr:uid="{00000000-0004-0000-0B00-00004E010000}"/>
-    <hyperlink ref="B255" r:id="rId283" tooltip="Product Price at a Given Date" display="https://leetcode.com/problems/product-price-at-a-given-date" xr:uid="{00000000-0004-0000-0B00-00004F010000}"/>
-    <hyperlink ref="B322" r:id="rId284" tooltip="Active Users" display="https://leetcode.com/problems/active-users" xr:uid="{00000000-0004-0000-0B00-000050010000}"/>
-    <hyperlink ref="B288" r:id="rId285" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0B00-000051010000}"/>
-    <hyperlink ref="B315" r:id="rId286" tooltip="Longest Happy String" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{00000000-0004-0000-0B00-000052010000}"/>
-    <hyperlink ref="B324" r:id="rId287" tooltip="Sales by Day of the Week" display="https://leetcode.com/problems/sales-by-day-of-the-week" xr:uid="{00000000-0004-0000-0B00-000053010000}"/>
-    <hyperlink ref="B319" r:id="rId288" tooltip="Kids With the Greatest Number of Candies" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies" xr:uid="{00000000-0004-0000-0B00-000054010000}"/>
-    <hyperlink ref="B323" r:id="rId289" tooltip="Allocate Mailboxes" display="https://leetcode.com/problems/allocate-mailboxes" xr:uid="{00000000-0004-0000-0B00-000055010000}"/>
-    <hyperlink ref="B11" r:id="rId290" tooltip="Count The Repetitions" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0B00-000056010000}"/>
-    <hyperlink ref="B162" r:id="rId291" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0B00-000057010000}"/>
-    <hyperlink ref="B329" r:id="rId292" tooltip="Maximum Number of Non-Overlapping Substrings" display="https://leetcode.com/problems/maximum-number-of-non-overlapping-substrings" xr:uid="{00000000-0004-0000-0B00-000058010000}"/>
-    <hyperlink ref="B12" r:id="rId293" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0B00-000059010000}"/>
-    <hyperlink ref="B165" r:id="rId294" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0B00-00005A010000}"/>
-    <hyperlink ref="B325" r:id="rId295" tooltip="Running Sum of 1d Array" display="https://leetcode.com/problems/running-sum-of-1d-array" xr:uid="{00000000-0004-0000-0B00-00005B010000}"/>
-    <hyperlink ref="B298" r:id="rId296" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0B00-00005C010000}"/>
-    <hyperlink ref="B134" r:id="rId297" tooltip="Largest Sum of Averages" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0B00-00005D010000}"/>
-    <hyperlink ref="B168" r:id="rId298" tooltip="Increasing Order Search Tree" display="https://leetcode.com/problems/increasing-order-search-tree" xr:uid="{00000000-0004-0000-0B00-00005E010000}"/>
-    <hyperlink ref="B332" r:id="rId299" tooltip="Shortest Subarray to be Removed to Make Array Sorted" display="https://leetcode.com/problems/shortest-subarray-to-be-removed-to-make-array-sorted" xr:uid="{00000000-0004-0000-0B00-00005F010000}"/>
-    <hyperlink ref="B61" r:id="rId300" tooltip="Average Salary: Departments VS Company" display="https://leetcode.com/problems/average-salary-departments-vs-company" xr:uid="{00000000-0004-0000-0B00-000060010000}"/>
-    <hyperlink ref="B167" r:id="rId301" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0B00-000061010000}"/>
-    <hyperlink ref="B265" r:id="rId302" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0B00-000062010000}"/>
-    <hyperlink ref="B328" r:id="rId303" tooltip="Number of Good Pairs" display="https://leetcode.com/problems/number-of-good-pairs" xr:uid="{00000000-0004-0000-0B00-000063010000}"/>
-    <hyperlink ref="B299" r:id="rId304" tooltip="Break a Palindrome" display="https://leetcode.com/problems/break-a-palindrome" xr:uid="{00000000-0004-0000-0B00-000064010000}"/>
-    <hyperlink ref="B213" r:id="rId305" tooltip="Divisor Game" display="https://leetcode.com/problems/divisor-game" xr:uid="{00000000-0004-0000-0B00-000065010000}"/>
-    <hyperlink ref="B320" r:id="rId306" tooltip="Count Good Nodes in Binary Tree" display="https://leetcode.com/problems/count-good-nodes-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000066010000}"/>
-    <hyperlink ref="B334" r:id="rId307" tooltip="Design Parking System" display="https://leetcode.com/problems/design-parking-system" xr:uid="{00000000-0004-0000-0B00-000067010000}"/>
-    <hyperlink ref="B279" r:id="rId308" tooltip="Synonymous Sentences" display="https://leetcode.com/problems/synonymous-sentences" xr:uid="{00000000-0004-0000-0B00-000068010000}"/>
-    <hyperlink ref="B272" r:id="rId309" tooltip="Maximum Length of a Concatenated String with Unique Characters" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters" xr:uid="{00000000-0004-0000-0B00-000069010000}"/>
-    <hyperlink ref="B331" r:id="rId310" tooltip="Warehouse Manager" display="https://leetcode.com/problems/warehouse-manager" xr:uid="{00000000-0004-0000-0B00-00006A010000}"/>
-    <hyperlink ref="B43" r:id="rId311" tooltip="Remove Boxes" display="https://leetcode.com/problems/remove-boxes" xr:uid="{00000000-0004-0000-0B00-00006B010000}"/>
-    <hyperlink ref="B141" r:id="rId312" tooltip="Consecutive Numbers Sum" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0B00-00006C010000}"/>
-    <hyperlink ref="B304" r:id="rId313" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0B00-00006D010000}"/>
-    <hyperlink ref="B327" r:id="rId314" tooltip="Minimum Possible Integer After at Most K Adjacent Swaps On Digits" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{00000000-0004-0000-0B00-00006E010000}"/>
-    <hyperlink ref="B217" r:id="rId315" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0B00-00006F010000}"/>
-    <hyperlink ref="B300" r:id="rId316" tooltip="Rank Transform of an Array" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{00000000-0004-0000-0B00-000070010000}"/>
-    <hyperlink ref="B316" r:id="rId317" tooltip="Restore The Array" display="https://leetcode.com/problems/restore-the-array" xr:uid="{00000000-0004-0000-0B00-000071010000}"/>
-    <hyperlink ref="B326" r:id="rId318" tooltip="Least Number of Unique Integers after K Removals" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{00000000-0004-0000-0B00-000072010000}"/>
-    <hyperlink ref="B232" r:id="rId319" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
-    <hyperlink ref="B236" r:id="rId320" tooltip="New Users Daily Count" display="https://leetcode.com/problems/new-users-daily-count" xr:uid="{00000000-0004-0000-0B00-000074010000}"/>
-    <hyperlink ref="B263" r:id="rId321" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0B00-000075010000}"/>
-    <hyperlink ref="B311" r:id="rId322" tooltip="Design a Stack With Increment Operation" display="https://leetcode.com/problems/design-a-stack-with-increment-operation" xr:uid="{00000000-0004-0000-0B00-000076010000}"/>
-    <hyperlink ref="B333" r:id="rId323" tooltip="Build Binary Expression Tree From Infix Expression" display="https://leetcode.com/problems/build-binary-expression-tree-from-infix-expression" xr:uid="{00000000-0004-0000-0B00-000077010000}"/>
-    <hyperlink ref="B270" r:id="rId324" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0B00-000078010000}"/>
-    <hyperlink ref="B176" r:id="rId325" tooltip="Flip String to Monotone Increasing" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0B00-000079010000}"/>
-    <hyperlink ref="B296" r:id="rId326" tooltip="Restaurant Growth" display="https://leetcode.com/problems/restaurant-growth" xr:uid="{00000000-0004-0000-0B00-00007A010000}"/>
-    <hyperlink ref="B181" r:id="rId327" tooltip="Reveal Cards In Increasing Order" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0B00-00007B010000}"/>
-    <hyperlink ref="B336" r:id="rId328" tooltip="Design an Expression Tree With Evaluate Function" display="https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function" xr:uid="{00000000-0004-0000-0B00-00007C010000}"/>
-    <hyperlink ref="B337" r:id="rId329" tooltip="Slowest Key" display="https://leetcode.com/problems/slowest-key" xr:uid="{00000000-0004-0000-0B00-00007D010000}"/>
-    <hyperlink ref="B335" r:id="rId330" tooltip="Maximal Network Rank" display="https://leetcode.com/problems/maximal-network-rank" xr:uid="{00000000-0004-0000-0B00-00007E010000}"/>
-    <hyperlink ref="B287" r:id="rId331" tooltip="Sequential Digits" display="https://leetcode.com/problems/sequential-digits" xr:uid="{00000000-0004-0000-0B00-00007F010000}"/>
-    <hyperlink ref="B294" r:id="rId332" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0B00-000080010000}"/>
-    <hyperlink ref="B330" r:id="rId333" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0B00-000081010000}"/>
-    <hyperlink ref="B338" r:id="rId334" tooltip="Maximum Units on a Truck" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{00000000-0004-0000-0B00-000082010000}"/>
+    <hyperlink ref="B26" r:id="rId43" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0B00-00003A000000}"/>
+    <hyperlink ref="B9" r:id="rId44" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0B00-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId45" tooltip="Solve the Equation" display="https://leetcode.com/problems/solve-the-equation" xr:uid="{00000000-0004-0000-0B00-00003D000000}"/>
+    <hyperlink ref="B142" r:id="rId46" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0B00-00003F000000}"/>
+    <hyperlink ref="B46" r:id="rId47" tooltip="Reverse Words in a String III" display="https://leetcode.com/problems/reverse-words-in-a-string-iii" xr:uid="{00000000-0004-0000-0B00-000041000000}"/>
+    <hyperlink ref="B108" r:id="rId48" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0B00-000043000000}"/>
+    <hyperlink ref="B72" r:id="rId49" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0B00-000044000000}"/>
+    <hyperlink ref="B152" r:id="rId50" tooltip="Lemonade Change" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0B00-000045000000}"/>
+    <hyperlink ref="B155" r:id="rId51" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046000000}"/>
+    <hyperlink ref="B4" r:id="rId52" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0B00-000047000000}"/>
+    <hyperlink ref="B76" r:id="rId53" tooltip="2 Keys Keyboard" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0B00-000048000000}"/>
+    <hyperlink ref="B6" r:id="rId54" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0B00-000049000000}"/>
+    <hyperlink ref="B83" r:id="rId55" tooltip="Cut Off Trees for Golf Event" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0B00-00004B000000}"/>
+    <hyperlink ref="B106" r:id="rId56" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0B00-00004C000000}"/>
+    <hyperlink ref="B122" r:id="rId57" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0B00-00004D000000}"/>
+    <hyperlink ref="B123" r:id="rId58" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0B00-00004E000000}"/>
+    <hyperlink ref="B132" r:id="rId59" tooltip="All Paths From Source to Target" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{00000000-0004-0000-0B00-00004F000000}"/>
+    <hyperlink ref="B98" r:id="rId60" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0B00-000050000000}"/>
+    <hyperlink ref="B51" r:id="rId61" tooltip="Find Cumulative Salary of an Employee" display="https://leetcode.com/problems/find-cumulative-salary-of-an-employee" xr:uid="{00000000-0004-0000-0B00-000051000000}"/>
+    <hyperlink ref="B116" r:id="rId62" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0B00-000052000000}"/>
+    <hyperlink ref="B65" r:id="rId63" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0B00-000053000000}"/>
+    <hyperlink ref="B27" r:id="rId64" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0B00-000057000000}"/>
+    <hyperlink ref="B21" r:id="rId65" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0B00-000058000000}"/>
+    <hyperlink ref="B20" r:id="rId66" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0B00-00005A000000}"/>
+    <hyperlink ref="B49" r:id="rId67" tooltip="Managers with at Least 5 Direct Reports" display="https://leetcode.com/problems/managers-with-at-least-5-direct-reports" xr:uid="{00000000-0004-0000-0B00-00005B000000}"/>
+    <hyperlink ref="B86" r:id="rId68" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
+    <hyperlink ref="B87" r:id="rId69" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0B00-00005D000000}"/>
+    <hyperlink ref="B88" r:id="rId70" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0B00-00005E000000}"/>
+    <hyperlink ref="B25" r:id="rId71" tooltip="IPO" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0B00-00005F000000}"/>
+    <hyperlink ref="B16" r:id="rId72" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0B00-000060000000}"/>
+    <hyperlink ref="B82" r:id="rId73" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0B00-000061000000}"/>
+    <hyperlink ref="B92" r:id="rId74" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0B00-000062000000}"/>
+    <hyperlink ref="B32" r:id="rId75" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0B00-000064000000}"/>
+    <hyperlink ref="B54" r:id="rId76" tooltip="Customer Placing the Largest Number of Orders" display="https://leetcode.com/problems/customer-placing-the-largest-number-of-orders" xr:uid="{00000000-0004-0000-0B00-000065000000}"/>
+    <hyperlink ref="B7" r:id="rId77" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0B00-000068000000}"/>
+    <hyperlink ref="B36" r:id="rId78" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0B00-00006C000000}"/>
+    <hyperlink ref="B44" r:id="rId79" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0B00-00006E000000}"/>
+    <hyperlink ref="B48" r:id="rId80" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0B00-000070000000}"/>
+    <hyperlink ref="B57" r:id="rId81" tooltip="Human Traffic of Stadium" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0B00-000072000000}"/>
+    <hyperlink ref="B10" r:id="rId82" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0B00-000073000000}"/>
+    <hyperlink ref="B121" r:id="rId83" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0B00-000074000000}"/>
+    <hyperlink ref="B74" r:id="rId84" tooltip="Maximum Length of Pair Chain" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0B00-000075000000}"/>
+    <hyperlink ref="B80" r:id="rId85" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000076000000}"/>
+    <hyperlink ref="B125" r:id="rId86" tooltip="Global and Local Inversions" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0B00-000077000000}"/>
+    <hyperlink ref="B160" r:id="rId87" tooltip="Boats to Save People" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0B00-000078000000}"/>
+    <hyperlink ref="B105" r:id="rId88" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0B00-00007D000000}"/>
+    <hyperlink ref="B139" r:id="rId89" tooltip="Most Profit Assigning Work" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0B00-00007F000000}"/>
+    <hyperlink ref="B102" r:id="rId90" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0B00-000080000000}"/>
+    <hyperlink ref="B33" r:id="rId91" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0B00-000081000000}"/>
+    <hyperlink ref="B91" r:id="rId92" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0B00-000082000000}"/>
+    <hyperlink ref="B148" r:id="rId93" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0B00-000083000000}"/>
+    <hyperlink ref="B15" r:id="rId94" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0B00-000084000000}"/>
+    <hyperlink ref="B17" r:id="rId95" tooltip="Predict the Winner" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0B00-000085000000}"/>
+    <hyperlink ref="B158" r:id="rId96" tooltip="Middle of the Linked List" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0B00-000086000000}"/>
+    <hyperlink ref="B100" r:id="rId97" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0B00-000087000000}"/>
+    <hyperlink ref="B18" r:id="rId98" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0B00-000088000000}"/>
+    <hyperlink ref="B136" r:id="rId99" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0B00-000089000000}"/>
+    <hyperlink ref="B151" r:id="rId100" tooltip="Score of Parentheses" display="https://leetcode.com/problems/score-of-parentheses" xr:uid="{00000000-0004-0000-0B00-00008A000000}"/>
+    <hyperlink ref="B170" r:id="rId101" tooltip="Snakes and Ladders" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0B00-00008B000000}"/>
+    <hyperlink ref="B97" r:id="rId102" tooltip="Insert into a Binary Search Tree" display="https://leetcode.com/problems/insert-into-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-00008C000000}"/>
+    <hyperlink ref="B60" r:id="rId103" tooltip="Valid Triangle Number" display="https://leetcode.com/problems/valid-triangle-number" xr:uid="{00000000-0004-0000-0B00-00008D000000}"/>
+    <hyperlink ref="B104" r:id="rId104" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0B00-00008E000000}"/>
+    <hyperlink ref="B149" r:id="rId105" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0B00-00008F000000}"/>
+    <hyperlink ref="B147" r:id="rId106" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0B00-000090000000}"/>
+    <hyperlink ref="B177" r:id="rId107" tooltip="Minimum Falling Path Sum" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0B00-000091000000}"/>
+    <hyperlink ref="B114" r:id="rId108" tooltip="Sentence Similarity II" display="https://leetcode.com/problems/sentence-similarity-ii" xr:uid="{00000000-0004-0000-0B00-000092000000}"/>
+    <hyperlink ref="B154" r:id="rId109" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0B00-000093000000}"/>
+    <hyperlink ref="B178" r:id="rId110" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0B00-000094000000}"/>
+    <hyperlink ref="B101" r:id="rId111" tooltip="Design Linked List" display="https://leetcode.com/problems/design-linked-list" xr:uid="{00000000-0004-0000-0B00-000096000000}"/>
+    <hyperlink ref="B45" r:id="rId112" tooltip="Next Greater Element III" display="https://leetcode.com/problems/next-greater-element-iii" xr:uid="{00000000-0004-0000-0B00-000097000000}"/>
+    <hyperlink ref="B85" r:id="rId113" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0B00-000098000000}"/>
+    <hyperlink ref="B140" r:id="rId114" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0B00-000099000000}"/>
+    <hyperlink ref="B175" r:id="rId115" tooltip="Sort Array By Parity II" display="https://leetcode.com/problems/sort-array-by-parity-ii" xr:uid="{00000000-0004-0000-0B00-00009A000000}"/>
+    <hyperlink ref="B135" r:id="rId116" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0B00-00009C000000}"/>
+    <hyperlink ref="B35" r:id="rId117" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0B00-00009D000000}"/>
+    <hyperlink ref="B180" r:id="rId118" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
+    <hyperlink ref="B153" r:id="rId119" tooltip="Score After Flipping Matrix" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0B00-0000A0000000}"/>
+    <hyperlink ref="B184" r:id="rId120" tooltip="Prison Cells After N Days" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0B00-0000A1000000}"/>
+    <hyperlink ref="B119" r:id="rId121" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0B00-0000A2000000}"/>
+    <hyperlink ref="B130" r:id="rId122" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0B00-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId123" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0B00-0000A4000000}"/>
+    <hyperlink ref="B188" r:id="rId124" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0B00-0000A6000000}"/>
+    <hyperlink ref="B24" r:id="rId125" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-0000A7000000}"/>
+    <hyperlink ref="B173" r:id="rId126" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0B00-0000A9000000}"/>
+    <hyperlink ref="B29" r:id="rId127" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0B00-0000AA000000}"/>
+    <hyperlink ref="B189" r:id="rId128" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0B00-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId129" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId130" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0B00-0000AD000000}"/>
+    <hyperlink ref="B194" r:id="rId131" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0B00-0000AE000000}"/>
+    <hyperlink ref="B197" r:id="rId132" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0B00-0000AF000000}"/>
+    <hyperlink ref="B143" r:id="rId133" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0B00-0000B0000000}"/>
+    <hyperlink ref="B199" r:id="rId134" tooltip="Rotting Oranges" display="https://leetcode.com/problems/rotting-oranges" xr:uid="{00000000-0004-0000-0B00-0000B1000000}"/>
+    <hyperlink ref="B30" r:id="rId135" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0B00-0000B2000000}"/>
+    <hyperlink ref="B47" r:id="rId136" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0B00-0000B3000000}"/>
+    <hyperlink ref="B124" r:id="rId137" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0B00-0000B4000000}"/>
+    <hyperlink ref="B190" r:id="rId138" tooltip="Longest Turbulent Subarray" display="https://leetcode.com/problems/longest-turbulent-subarray" xr:uid="{00000000-0004-0000-0B00-0000B5000000}"/>
+    <hyperlink ref="B28" r:id="rId139" tooltip="Perfect Number" display="https://leetcode.com/problems/perfect-number" xr:uid="{00000000-0004-0000-0B00-0000B6000000}"/>
+    <hyperlink ref="B196" r:id="rId140" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B7000000}"/>
+    <hyperlink ref="B198" r:id="rId141" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId142" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0B00-0000B9000000}"/>
+    <hyperlink ref="B99" r:id="rId143" tooltip="Binary Search" display="https://leetcode.com/problems/binary-search" xr:uid="{00000000-0004-0000-0B00-0000BC000000}"/>
+    <hyperlink ref="B182" r:id="rId144" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0B00-0000BD000000}"/>
+    <hyperlink ref="B205" r:id="rId145" tooltip="Maximize Sum Of Array After K Negations" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0B00-0000BE000000}"/>
+    <hyperlink ref="B201" r:id="rId146" tooltip="Find the Town Judge" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0B00-0000BF000000}"/>
+    <hyperlink ref="B103" r:id="rId147" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
+    <hyperlink ref="B207" r:id="rId148" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000C2000000}"/>
+    <hyperlink ref="B208" r:id="rId149" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0B00-0000C3000000}"/>
+    <hyperlink ref="B230" r:id="rId150" tooltip="High Five" display="https://leetcode.com/problems/high-five" xr:uid="{00000000-0004-0000-0B00-0000C4000000}"/>
+    <hyperlink ref="B211" r:id="rId151" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0B00-0000C5000000}"/>
+    <hyperlink ref="B212" r:id="rId152" tooltip="Sum of Root To Leaf Binary Numbers" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0B00-0000C6000000}"/>
+    <hyperlink ref="B234" r:id="rId153" tooltip="Find K-Length Substrings With No Repeated Characters" display="https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters" xr:uid="{00000000-0004-0000-0B00-0000C7000000}"/>
+    <hyperlink ref="B39" r:id="rId154" tooltip="Reverse String II" display="https://leetcode.com/problems/reverse-string-ii" xr:uid="{00000000-0004-0000-0B00-0000C8000000}"/>
+    <hyperlink ref="B241" r:id="rId155" tooltip="Remove Vowels from a String" display="https://leetcode.com/problems/remove-vowels-from-a-string" xr:uid="{00000000-0004-0000-0B00-0000CA000000}"/>
+    <hyperlink ref="B242" r:id="rId156" tooltip="Maximum Average Subtree" display="https://leetcode.com/problems/maximum-average-subtree" xr:uid="{00000000-0004-0000-0B00-0000CB000000}"/>
+    <hyperlink ref="B146" r:id="rId157" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0B00-0000CC000000}"/>
+    <hyperlink ref="B209" r:id="rId158" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0B00-0000CD000000}"/>
+    <hyperlink ref="B235" r:id="rId159" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0B00-0000CE000000}"/>
+    <hyperlink ref="B245" r:id="rId160" tooltip="Connecting Cities With Minimum Cost" display="https://leetcode.com/problems/connecting-cities-with-minimum-cost" xr:uid="{00000000-0004-0000-0B00-0000CF000000}"/>
+    <hyperlink ref="B202" r:id="rId161" tooltip="Minimum Cost to Merge Stones" display="https://leetcode.com/problems/minimum-cost-to-merge-stones" xr:uid="{00000000-0004-0000-0B00-0000D0000000}"/>
+    <hyperlink ref="B249" r:id="rId162" tooltip="Analyze User Website Visit Pattern" display="https://leetcode.com/problems/analyze-user-website-visit-pattern" xr:uid="{00000000-0004-0000-0B00-0000D1000000}"/>
+    <hyperlink ref="B34" r:id="rId163" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0B00-0000D2000000}"/>
+    <hyperlink ref="B164" r:id="rId164" tooltip="Construct Binary Tree from Preorder and Postorder Traversal" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000D3000000}"/>
+    <hyperlink ref="B252" r:id="rId165" tooltip="Find Words That Can Be Formed by Characters" display="https://leetcode.com/problems/find-words-that-can-be-formed-by-characters" xr:uid="{00000000-0004-0000-0B00-0000D4000000}"/>
+    <hyperlink ref="B216" r:id="rId166" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0B00-0000D5000000}"/>
+    <hyperlink ref="B89" r:id="rId167" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0B00-0000D6000000}"/>
+    <hyperlink ref="B219" r:id="rId168" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0B00-0000D7000000}"/>
+    <hyperlink ref="B109" r:id="rId169" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0B00-0000D8000000}"/>
+    <hyperlink ref="B163" r:id="rId170" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0B00-0000DA000000}"/>
+    <hyperlink ref="B126" r:id="rId171" tooltip="K-th Symbol in Grammar" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0B00-0000DB000000}"/>
+    <hyperlink ref="B195" r:id="rId172" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0B00-0000DC000000}"/>
+    <hyperlink ref="B215" r:id="rId173" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0B00-0000DD000000}"/>
+    <hyperlink ref="B264" r:id="rId174" tooltip="Two Sum BSTs" display="https://leetcode.com/problems/two-sum-bsts" xr:uid="{00000000-0004-0000-0B00-0000DE000000}"/>
+    <hyperlink ref="B63" r:id="rId175" tooltip="Students Report By Geography" display="https://leetcode.com/problems/students-report-by-geography" xr:uid="{00000000-0004-0000-0B00-0000DF000000}"/>
+    <hyperlink ref="B218" r:id="rId176" tooltip="Partition Array for Maximum Sum" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0B00-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId177" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0B00-0000E1000000}"/>
+    <hyperlink ref="B96" r:id="rId178" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0B00-0000E2000000}"/>
+    <hyperlink ref="B137" r:id="rId179" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0B00-0000E3000000}"/>
+    <hyperlink ref="B156" r:id="rId180" tooltip="Length of Longest Fibonacci Subsequence" display="https://leetcode.com/problems/length-of-longest-fibonacci-subsequence" xr:uid="{00000000-0004-0000-0B00-0000E4000000}"/>
+    <hyperlink ref="B203" r:id="rId181" tooltip="Find Common Characters" display="https://leetcode.com/problems/find-common-characters" xr:uid="{00000000-0004-0000-0B00-0000E5000000}"/>
+    <hyperlink ref="B161" r:id="rId182" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0B00-0000E6000000}"/>
+    <hyperlink ref="B179" r:id="rId183" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0B00-0000E7000000}"/>
+    <hyperlink ref="B229" r:id="rId184" tooltip="Sales Analysis III" display="https://leetcode.com/problems/sales-analysis-iii" xr:uid="{00000000-0004-0000-0B00-0000E8000000}"/>
+    <hyperlink ref="B228" r:id="rId185" tooltip="Sales Analysis II" display="https://leetcode.com/problems/sales-analysis-ii" xr:uid="{00000000-0004-0000-0B00-0000E9000000}"/>
+    <hyperlink ref="B225" r:id="rId186" tooltip="All Paths from Source Lead to Destination" display="https://leetcode.com/problems/all-paths-from-source-lead-to-destination" xr:uid="{00000000-0004-0000-0B00-0000EA000000}"/>
+    <hyperlink ref="B117" r:id="rId187" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0B00-0000EB000000}"/>
+    <hyperlink ref="B224" r:id="rId188" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0B00-0000EC000000}"/>
+    <hyperlink ref="B231" r:id="rId189" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0B00-0000ED000000}"/>
+    <hyperlink ref="B56" r:id="rId190" tooltip="N-ary Tree Postorder Traversal" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000EE000000}"/>
+    <hyperlink ref="B171" r:id="rId191" tooltip="Sort an Array" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0B00-0000EF000000}"/>
+    <hyperlink ref="B183" r:id="rId192" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0B00-0000F0000000}"/>
+    <hyperlink ref="B113" r:id="rId193" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0B00-0000F1000000}"/>
+    <hyperlink ref="B233" r:id="rId194" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0B00-0000F2000000}"/>
+    <hyperlink ref="B239" r:id="rId195" tooltip="Print in Order" display="https://leetcode.com/problems/print-in-order" xr:uid="{00000000-0004-0000-0B00-0000F3000000}"/>
+    <hyperlink ref="B289" r:id="rId196" tooltip="Replace Elements with Greatest Element on Right Side" display="https://leetcode.com/problems/replace-elements-with-greatest-element-on-right-side" xr:uid="{00000000-0004-0000-0B00-0000F4000000}"/>
+    <hyperlink ref="B220" r:id="rId197" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0B00-0000F5000000}"/>
+    <hyperlink ref="B243" r:id="rId198" tooltip="Shortest Path with Alternating Colors" display="https://leetcode.com/problems/shortest-path-with-alternating-colors" xr:uid="{00000000-0004-0000-0B00-0000F6000000}"/>
+    <hyperlink ref="B187" r:id="rId199" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0B00-0000F7000000}"/>
+    <hyperlink ref="B295" r:id="rId200" tooltip="Sum of Nodes with Even-Valued Grandparent" display="https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent" xr:uid="{00000000-0004-0000-0B00-0000F8000000}"/>
+    <hyperlink ref="B185" r:id="rId201" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000F9000000}"/>
+    <hyperlink ref="B206" r:id="rId202" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0B00-0000FA000000}"/>
+    <hyperlink ref="B237" r:id="rId203" tooltip="Defanging an IP Address" display="https://leetcode.com/problems/defanging-an-ip-address" xr:uid="{00000000-0004-0000-0B00-0000FB000000}"/>
+    <hyperlink ref="B221" r:id="rId204" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0B00-0000FC000000}"/>
+    <hyperlink ref="B251" r:id="rId205" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0B00-0000FD000000}"/>
+    <hyperlink ref="B254" r:id="rId206" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0B00-0000FE000000}"/>
+    <hyperlink ref="B246" r:id="rId207" tooltip="Largest 1-Bordered Square" display="https://leetcode.com/problems/largest-1-bordered-square" xr:uid="{00000000-0004-0000-0B00-0000FF000000}"/>
+    <hyperlink ref="B312" r:id="rId208" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-000000010000}"/>
+    <hyperlink ref="B257" r:id="rId209" tooltip="Minimum Cost to Connect Sticks" display="https://leetcode.com/problems/minimum-cost-to-connect-sticks" xr:uid="{00000000-0004-0000-0B00-000001010000}"/>
+    <hyperlink ref="B253" r:id="rId210" tooltip="Maximum Level Sum of a Binary Tree" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-000002010000}"/>
+    <hyperlink ref="B247" r:id="rId211" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
+    <hyperlink ref="B259" r:id="rId212" tooltip="Reformat Department Table" display="https://leetcode.com/problems/reformat-department-table" xr:uid="{00000000-0004-0000-0B00-000004010000}"/>
+    <hyperlink ref="B193" r:id="rId213" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0B00-000005010000}"/>
+    <hyperlink ref="B261" r:id="rId214" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0B00-000006010000}"/>
+    <hyperlink ref="B238" r:id="rId215" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0B00-000008010000}"/>
+    <hyperlink ref="B317" r:id="rId216" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0B00-000009010000}"/>
+    <hyperlink ref="B81" r:id="rId217" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0B00-00000A010000}"/>
+    <hyperlink ref="B107" r:id="rId218" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0B00-00000B010000}"/>
+    <hyperlink ref="B271" r:id="rId219" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0B00-00000C010000}"/>
+    <hyperlink ref="B250" r:id="rId220" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0B00-00000E010000}"/>
+    <hyperlink ref="B268" r:id="rId221" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0B00-00000F010000}"/>
+    <hyperlink ref="B5" r:id="rId222" tooltip="Minimum Moves to Equal Array Elements" display="https://leetcode.com/problems/minimum-moves-to-equal-array-elements" xr:uid="{00000000-0004-0000-0B00-000010010000}"/>
+    <hyperlink ref="B260" r:id="rId223" tooltip="Design Bounded Blocking Queue" display="https://leetcode.com/problems/design-bounded-blocking-queue" xr:uid="{00000000-0004-0000-0B00-000011010000}"/>
+    <hyperlink ref="B282" r:id="rId224" tooltip="Search Suggestions System" display="https://leetcode.com/problems/search-suggestions-system" xr:uid="{00000000-0004-0000-0B00-000012010000}"/>
+    <hyperlink ref="B226" r:id="rId225" tooltip="Greatest Common Divisor of Strings" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0B00-000013010000}"/>
+    <hyperlink ref="B273" r:id="rId226" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0B00-000014010000}"/>
+    <hyperlink ref="B266" r:id="rId227" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0B00-000015010000}"/>
+    <hyperlink ref="B256" r:id="rId228" tooltip="Design File System" display="https://leetcode.com/problems/design-file-system" xr:uid="{00000000-0004-0000-0B00-000016010000}"/>
+    <hyperlink ref="B157" r:id="rId229" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0B00-000017010000}"/>
+    <hyperlink ref="B214" r:id="rId230" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0B00-000018010000}"/>
+    <hyperlink ref="B262" r:id="rId231" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0B00-000019010000}"/>
+    <hyperlink ref="B278" r:id="rId232" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0B00-00001A010000}"/>
+    <hyperlink ref="B277" r:id="rId233" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
+    <hyperlink ref="B291" r:id="rId234" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0B00-00001C010000}"/>
+    <hyperlink ref="B244" r:id="rId235" tooltip="Minimum Cost Tree From Leaf Values" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0B00-00001D010000}"/>
+    <hyperlink ref="B292" r:id="rId236" tooltip="Get Watched Videos by Your Friends" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{00000000-0004-0000-0B00-00001E010000}"/>
+    <hyperlink ref="B284" r:id="rId237" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0B00-00001F010000}"/>
+    <hyperlink ref="B297" r:id="rId238" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0B00-000020010000}"/>
+    <hyperlink ref="B276" r:id="rId239" tooltip="Count Number of Nice Subarrays" display="https://leetcode.com/problems/count-number-of-nice-subarrays" xr:uid="{00000000-0004-0000-0B00-000021010000}"/>
+    <hyperlink ref="B280" r:id="rId240" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0B00-000022010000}"/>
+    <hyperlink ref="B14" r:id="rId241" tooltip="Matchsticks to Square" display="https://leetcode.com/problems/matchsticks-to-square" xr:uid="{00000000-0004-0000-0B00-000024010000}"/>
+    <hyperlink ref="B267" r:id="rId242" tooltip="Split a String in Balanced Strings" display="https://leetcode.com/problems/split-a-string-in-balanced-strings" xr:uid="{00000000-0004-0000-0B00-000025010000}"/>
+    <hyperlink ref="B309" r:id="rId243" tooltip="Maximum Sum BST in Binary Tree" display="https://leetcode.com/problems/maximum-sum-bst-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000026010000}"/>
+    <hyperlink ref="B223" r:id="rId244" tooltip="Last Stone Weight II" display="https://leetcode.com/problems/last-stone-weight-ii" xr:uid="{00000000-0004-0000-0B00-000027010000}"/>
+    <hyperlink ref="B248" r:id="rId245" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0B00-000028010000}"/>
+    <hyperlink ref="B275" r:id="rId246" tooltip="Minimum Swaps to Make Strings Equal" display="https://leetcode.com/problems/minimum-swaps-to-make-strings-equal" xr:uid="{00000000-0004-0000-0B00-000029010000}"/>
+    <hyperlink ref="B293" r:id="rId247" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0B00-00002A010000}"/>
+    <hyperlink ref="B306" r:id="rId248" tooltip="Count Negative Numbers in a Sorted Matrix" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0B00-00002B010000}"/>
+    <hyperlink ref="B53" r:id="rId249" tooltip="Find Customer Referee" display="https://leetcode.com/problems/find-customer-referee" xr:uid="{00000000-0004-0000-0B00-00002C010000}"/>
+    <hyperlink ref="B269" r:id="rId250" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0B00-00002D010000}"/>
+    <hyperlink ref="B283" r:id="rId251" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0B00-00002E010000}"/>
+    <hyperlink ref="B303" r:id="rId252" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0B00-00002F010000}"/>
+    <hyperlink ref="B186" r:id="rId253" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0B00-000030010000}"/>
+    <hyperlink ref="B200" r:id="rId254" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0B00-000031010000}"/>
+    <hyperlink ref="B240" r:id="rId255" tooltip="Building H2O" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0B00-000032010000}"/>
+    <hyperlink ref="B172" r:id="rId256" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
+    <hyperlink ref="B307" r:id="rId257" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0B00-000034010000}"/>
+    <hyperlink ref="B281" r:id="rId258" tooltip="Count Servers that Communicate" display="https://leetcode.com/problems/count-servers-that-communicate" xr:uid="{00000000-0004-0000-0B00-000035010000}"/>
+    <hyperlink ref="B286" r:id="rId259" tooltip="Find the Start and End Number of Continuous Ranges" display="https://leetcode.com/problems/find-the-start-and-end-number-of-continuous-ranges" xr:uid="{00000000-0004-0000-0B00-000036010000}"/>
+    <hyperlink ref="B302" r:id="rId260" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0B00-000038010000}"/>
+    <hyperlink ref="B308" r:id="rId261" tooltip="How Many Numbers Are Smaller Than the Current Number" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{00000000-0004-0000-0B00-000039010000}"/>
+    <hyperlink ref="B174" r:id="rId262" tooltip="Minimum Add to Make Parentheses Valid" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid" xr:uid="{00000000-0004-0000-0B00-00003A010000}"/>
+    <hyperlink ref="B313" r:id="rId263" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0B00-00003B010000}"/>
+    <hyperlink ref="B159" r:id="rId264" tooltip="Decoded String at Index" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0B00-00003C010000}"/>
+    <hyperlink ref="B222" r:id="rId265" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0B00-00003D010000}"/>
+    <hyperlink ref="B133" r:id="rId266" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0B00-00003E010000}"/>
+    <hyperlink ref="B274" r:id="rId267" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0B00-00003F010000}"/>
+    <hyperlink ref="B310" r:id="rId268" tooltip="Bulb Switcher III" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{00000000-0004-0000-0B00-000040010000}"/>
+    <hyperlink ref="B169" r:id="rId269" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0B00-000041010000}"/>
+    <hyperlink ref="B314" r:id="rId270" tooltip="Customers Who Bought Products A and B but Not C" display="https://leetcode.com/problems/customers-who-bought-products-a-and-b-but-not-c" xr:uid="{00000000-0004-0000-0B00-000042010000}"/>
+    <hyperlink ref="B285" r:id="rId271" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0B00-000043010000}"/>
+    <hyperlink ref="B210" r:id="rId272" tooltip="Partition Array Into Three Parts With Equal Sum" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0B00-000045010000}"/>
+    <hyperlink ref="B301" r:id="rId273" tooltip="Maximum Product of Splitted Binary Tree" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046010000}"/>
+    <hyperlink ref="B305" r:id="rId274" tooltip="Minimum Number of Steps to Make Two Strings Anagram" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{00000000-0004-0000-0B00-000047010000}"/>
+    <hyperlink ref="B118" r:id="rId275" tooltip="Pyramid Transition Matrix" display="https://leetcode.com/problems/pyramid-transition-matrix" xr:uid="{00000000-0004-0000-0B00-000048010000}"/>
+    <hyperlink ref="B290" r:id="rId276" tooltip="Find N Unique Integers Sum up to Zero" display="https://leetcode.com/problems/find-n-unique-integers-sum-up-to-zero" xr:uid="{00000000-0004-0000-0B00-000049010000}"/>
+    <hyperlink ref="B258" r:id="rId277" tooltip="Remove Zero Sum Consecutive Nodes from Linked List" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list" xr:uid="{00000000-0004-0000-0B00-00004A010000}"/>
+    <hyperlink ref="B58" r:id="rId278" tooltip="Friend Requests II: Who Has the Most Friends" display="https://leetcode.com/problems/friend-requests-ii-who-has-the-most-friends" xr:uid="{00000000-0004-0000-0B00-00004B010000}"/>
+    <hyperlink ref="B318" r:id="rId279" tooltip="Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree" display="https://leetcode.com/problems/check-if-a-string-is-a-valid-sequence-from-root-to-leaves-path-in-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-00004C010000}"/>
+    <hyperlink ref="B321" r:id="rId280" tooltip="Rearrange Words in a Sentence" display="https://leetcode.com/problems/rearrange-words-in-a-sentence" xr:uid="{00000000-0004-0000-0B00-00004E010000}"/>
+    <hyperlink ref="B255" r:id="rId281" tooltip="Product Price at a Given Date" display="https://leetcode.com/problems/product-price-at-a-given-date" xr:uid="{00000000-0004-0000-0B00-00004F010000}"/>
+    <hyperlink ref="B322" r:id="rId282" tooltip="Active Users" display="https://leetcode.com/problems/active-users" xr:uid="{00000000-0004-0000-0B00-000050010000}"/>
+    <hyperlink ref="B288" r:id="rId283" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0B00-000051010000}"/>
+    <hyperlink ref="B315" r:id="rId284" tooltip="Longest Happy String" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{00000000-0004-0000-0B00-000052010000}"/>
+    <hyperlink ref="B324" r:id="rId285" tooltip="Sales by Day of the Week" display="https://leetcode.com/problems/sales-by-day-of-the-week" xr:uid="{00000000-0004-0000-0B00-000053010000}"/>
+    <hyperlink ref="B319" r:id="rId286" tooltip="Kids With the Greatest Number of Candies" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies" xr:uid="{00000000-0004-0000-0B00-000054010000}"/>
+    <hyperlink ref="B323" r:id="rId287" tooltip="Allocate Mailboxes" display="https://leetcode.com/problems/allocate-mailboxes" xr:uid="{00000000-0004-0000-0B00-000055010000}"/>
+    <hyperlink ref="B11" r:id="rId288" tooltip="Count The Repetitions" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0B00-000056010000}"/>
+    <hyperlink ref="B162" r:id="rId289" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0B00-000057010000}"/>
+    <hyperlink ref="B329" r:id="rId290" tooltip="Maximum Number of Non-Overlapping Substrings" display="https://leetcode.com/problems/maximum-number-of-non-overlapping-substrings" xr:uid="{00000000-0004-0000-0B00-000058010000}"/>
+    <hyperlink ref="B12" r:id="rId291" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0B00-000059010000}"/>
+    <hyperlink ref="B165" r:id="rId292" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0B00-00005A010000}"/>
+    <hyperlink ref="B325" r:id="rId293" tooltip="Running Sum of 1d Array" display="https://leetcode.com/problems/running-sum-of-1d-array" xr:uid="{00000000-0004-0000-0B00-00005B010000}"/>
+    <hyperlink ref="B298" r:id="rId294" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0B00-00005C010000}"/>
+    <hyperlink ref="B134" r:id="rId295" tooltip="Largest Sum of Averages" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0B00-00005D010000}"/>
+    <hyperlink ref="B168" r:id="rId296" tooltip="Increasing Order Search Tree" display="https://leetcode.com/problems/increasing-order-search-tree" xr:uid="{00000000-0004-0000-0B00-00005E010000}"/>
+    <hyperlink ref="B332" r:id="rId297" tooltip="Shortest Subarray to be Removed to Make Array Sorted" display="https://leetcode.com/problems/shortest-subarray-to-be-removed-to-make-array-sorted" xr:uid="{00000000-0004-0000-0B00-00005F010000}"/>
+    <hyperlink ref="B61" r:id="rId298" tooltip="Average Salary: Departments VS Company" display="https://leetcode.com/problems/average-salary-departments-vs-company" xr:uid="{00000000-0004-0000-0B00-000060010000}"/>
+    <hyperlink ref="B167" r:id="rId299" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0B00-000061010000}"/>
+    <hyperlink ref="B265" r:id="rId300" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0B00-000062010000}"/>
+    <hyperlink ref="B328" r:id="rId301" tooltip="Number of Good Pairs" display="https://leetcode.com/problems/number-of-good-pairs" xr:uid="{00000000-0004-0000-0B00-000063010000}"/>
+    <hyperlink ref="B299" r:id="rId302" tooltip="Break a Palindrome" display="https://leetcode.com/problems/break-a-palindrome" xr:uid="{00000000-0004-0000-0B00-000064010000}"/>
+    <hyperlink ref="B213" r:id="rId303" tooltip="Divisor Game" display="https://leetcode.com/problems/divisor-game" xr:uid="{00000000-0004-0000-0B00-000065010000}"/>
+    <hyperlink ref="B320" r:id="rId304" tooltip="Count Good Nodes in Binary Tree" display="https://leetcode.com/problems/count-good-nodes-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000066010000}"/>
+    <hyperlink ref="B334" r:id="rId305" tooltip="Design Parking System" display="https://leetcode.com/problems/design-parking-system" xr:uid="{00000000-0004-0000-0B00-000067010000}"/>
+    <hyperlink ref="B279" r:id="rId306" tooltip="Synonymous Sentences" display="https://leetcode.com/problems/synonymous-sentences" xr:uid="{00000000-0004-0000-0B00-000068010000}"/>
+    <hyperlink ref="B272" r:id="rId307" tooltip="Maximum Length of a Concatenated String with Unique Characters" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters" xr:uid="{00000000-0004-0000-0B00-000069010000}"/>
+    <hyperlink ref="B331" r:id="rId308" tooltip="Warehouse Manager" display="https://leetcode.com/problems/warehouse-manager" xr:uid="{00000000-0004-0000-0B00-00006A010000}"/>
+    <hyperlink ref="B43" r:id="rId309" tooltip="Remove Boxes" display="https://leetcode.com/problems/remove-boxes" xr:uid="{00000000-0004-0000-0B00-00006B010000}"/>
+    <hyperlink ref="B141" r:id="rId310" tooltip="Consecutive Numbers Sum" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0B00-00006C010000}"/>
+    <hyperlink ref="B304" r:id="rId311" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0B00-00006D010000}"/>
+    <hyperlink ref="B327" r:id="rId312" tooltip="Minimum Possible Integer After at Most K Adjacent Swaps On Digits" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{00000000-0004-0000-0B00-00006E010000}"/>
+    <hyperlink ref="B217" r:id="rId313" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0B00-00006F010000}"/>
+    <hyperlink ref="B300" r:id="rId314" tooltip="Rank Transform of an Array" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{00000000-0004-0000-0B00-000070010000}"/>
+    <hyperlink ref="B316" r:id="rId315" tooltip="Restore The Array" display="https://leetcode.com/problems/restore-the-array" xr:uid="{00000000-0004-0000-0B00-000071010000}"/>
+    <hyperlink ref="B326" r:id="rId316" tooltip="Least Number of Unique Integers after K Removals" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{00000000-0004-0000-0B00-000072010000}"/>
+    <hyperlink ref="B232" r:id="rId317" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
+    <hyperlink ref="B236" r:id="rId318" tooltip="New Users Daily Count" display="https://leetcode.com/problems/new-users-daily-count" xr:uid="{00000000-0004-0000-0B00-000074010000}"/>
+    <hyperlink ref="B263" r:id="rId319" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0B00-000075010000}"/>
+    <hyperlink ref="B311" r:id="rId320" tooltip="Design a Stack With Increment Operation" display="https://leetcode.com/problems/design-a-stack-with-increment-operation" xr:uid="{00000000-0004-0000-0B00-000076010000}"/>
+    <hyperlink ref="B333" r:id="rId321" tooltip="Build Binary Expression Tree From Infix Expression" display="https://leetcode.com/problems/build-binary-expression-tree-from-infix-expression" xr:uid="{00000000-0004-0000-0B00-000077010000}"/>
+    <hyperlink ref="B270" r:id="rId322" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0B00-000078010000}"/>
+    <hyperlink ref="B176" r:id="rId323" tooltip="Flip String to Monotone Increasing" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0B00-000079010000}"/>
+    <hyperlink ref="B296" r:id="rId324" tooltip="Restaurant Growth" display="https://leetcode.com/problems/restaurant-growth" xr:uid="{00000000-0004-0000-0B00-00007A010000}"/>
+    <hyperlink ref="B181" r:id="rId325" tooltip="Reveal Cards In Increasing Order" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0B00-00007B010000}"/>
+    <hyperlink ref="B336" r:id="rId326" tooltip="Design an Expression Tree With Evaluate Function" display="https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function" xr:uid="{00000000-0004-0000-0B00-00007C010000}"/>
+    <hyperlink ref="B337" r:id="rId327" tooltip="Slowest Key" display="https://leetcode.com/problems/slowest-key" xr:uid="{00000000-0004-0000-0B00-00007D010000}"/>
+    <hyperlink ref="B335" r:id="rId328" tooltip="Maximal Network Rank" display="https://leetcode.com/problems/maximal-network-rank" xr:uid="{00000000-0004-0000-0B00-00007E010000}"/>
+    <hyperlink ref="B287" r:id="rId329" tooltip="Sequential Digits" display="https://leetcode.com/problems/sequential-digits" xr:uid="{00000000-0004-0000-0B00-00007F010000}"/>
+    <hyperlink ref="B294" r:id="rId330" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0B00-000080010000}"/>
+    <hyperlink ref="B330" r:id="rId331" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0B00-000081010000}"/>
+    <hyperlink ref="B338" r:id="rId332" tooltip="Maximum Units on a Truck" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{00000000-0004-0000-0B00-000082010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30272,8 +30503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -35705,10 +35936,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:G164"/>
+  <dimension ref="A2:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -36758,12 +36989,25 @@
       <c r="F83" s="108"/>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
-      <c r="A84"/>
-      <c r="B84" s="127"/>
+      <c r="A84" s="128">
+        <v>582</v>
+      </c>
+      <c r="B84" s="127" t="s">
+        <v>1509</v>
+      </c>
       <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
+      <c r="D84" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="108" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G84" s="81" t="s">
+        <v>1510</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85"/>
@@ -36819,33 +37063,31 @@
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1">
       <c r="A89" s="128"/>
-      <c r="B89" s="127"/>
+      <c r="B89" s="131"/>
       <c r="C89" s="107"/>
-      <c r="D89" s="32"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="108"/>
       <c r="F89" s="108"/>
+      <c r="G89" s="81"/>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1">
       <c r="A90" s="128">
-        <v>987</v>
+        <v>785</v>
       </c>
       <c r="B90" s="127" t="s">
-        <v>560</v>
-      </c>
-      <c r="C90" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>151</v>
+        <v>297</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="E90" s="108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F90" s="108" t="s">
         <v>1225</v>
       </c>
       <c r="G90" s="81" t="s">
-        <v>1447</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" customHeight="1">
@@ -36858,108 +37100,137 @@
       <c r="G91" s="81"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1">
-      <c r="A92" s="128"/>
-      <c r="B92" s="131"/>
+      <c r="A92" s="128">
+        <v>863</v>
+      </c>
+      <c r="B92" s="131" t="s">
+        <v>570</v>
+      </c>
       <c r="C92" s="107"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="81"/>
+      <c r="D92" s="32" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E92" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="108" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G92" s="81" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="128"/>
       <c r="B93" s="131"/>
       <c r="C93" s="107"/>
-      <c r="D93" s="22"/>
+      <c r="D93" s="32"/>
       <c r="E93" s="108"/>
       <c r="F93" s="108"/>
-      <c r="G93" s="81"/>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="128"/>
-      <c r="B94" s="127"/>
+      <c r="B94" s="131"/>
       <c r="C94" s="107"/>
-      <c r="D94" s="22"/>
+      <c r="D94" s="32"/>
       <c r="E94" s="108"/>
       <c r="F94" s="108"/>
-      <c r="G94" s="81"/>
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1">
       <c r="A95" s="128">
-        <v>1091</v>
-      </c>
-      <c r="B95" s="127" t="s">
-        <v>605</v>
-      </c>
-      <c r="C95" s="59" t="s">
-        <v>1504</v>
+        <v>987</v>
+      </c>
+      <c r="B95" s="131" t="s">
+        <v>560</v>
+      </c>
+      <c r="C95" s="107" t="s">
+        <v>114</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>1262</v>
+        <v>151</v>
       </c>
       <c r="E95" s="108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F95" s="108" t="s">
         <v>1225</v>
       </c>
       <c r="G95" s="81" t="s">
-        <v>1505</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1">
-      <c r="A96" s="128" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B96" s="127" t="s">
-        <v>956</v>
-      </c>
+      <c r="A96" s="128"/>
+      <c r="B96" s="131"/>
       <c r="C96" s="107"/>
       <c r="D96" s="22"/>
       <c r="E96" s="108"/>
       <c r="F96" s="108"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1">
+      <c r="G96" s="81"/>
+    </row>
+    <row r="97" spans="1:7" ht="15" customHeight="1">
       <c r="A97" s="128"/>
-      <c r="B97" s="127"/>
+      <c r="B97" s="131"/>
       <c r="C97" s="107"/>
       <c r="D97" s="22"/>
       <c r="E97" s="108"/>
       <c r="F97" s="108"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1">
+      <c r="G97" s="81"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1">
       <c r="A98" s="128"/>
-      <c r="B98" s="127"/>
+      <c r="B98" s="131"/>
       <c r="C98" s="107"/>
       <c r="D98" s="22"/>
       <c r="E98" s="108"/>
       <c r="F98" s="108"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1">
+      <c r="G98" s="81"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" customHeight="1">
       <c r="A99" s="128"/>
       <c r="B99" s="127"/>
       <c r="C99" s="107"/>
       <c r="D99" s="22"/>
       <c r="E99" s="108"/>
       <c r="F99" s="108"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1">
-      <c r="A100" s="128"/>
-      <c r="B100" s="127"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="108"/>
-      <c r="F100" s="108"/>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1">
-      <c r="A101" s="128"/>
-      <c r="B101" s="127"/>
+      <c r="G99" s="81"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1">
+      <c r="A100" s="128">
+        <v>1091</v>
+      </c>
+      <c r="B100" s="127" t="s">
+        <v>605</v>
+      </c>
+      <c r="C100" s="59" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E100" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="108" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G100" s="81" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15" customHeight="1">
+      <c r="A101" s="128" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B101" s="127" t="s">
+        <v>956</v>
+      </c>
       <c r="C101" s="107"/>
       <c r="D101" s="22"/>
       <c r="E101" s="108"/>
       <c r="F101" s="108"/>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1">
+    <row r="102" spans="1:7" ht="15" customHeight="1">
       <c r="A102" s="128"/>
       <c r="B102" s="127"/>
       <c r="C102" s="107"/>
@@ -36967,7 +37238,7 @@
       <c r="E102" s="108"/>
       <c r="F102" s="108"/>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1">
+    <row r="103" spans="1:7" ht="15" customHeight="1">
       <c r="A103" s="128"/>
       <c r="B103" s="127"/>
       <c r="C103" s="107"/>
@@ -36975,7 +37246,7 @@
       <c r="E103" s="108"/>
       <c r="F103" s="108"/>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1">
+    <row r="104" spans="1:7" ht="15" customHeight="1">
       <c r="A104" s="128"/>
       <c r="B104" s="127"/>
       <c r="C104" s="107"/>
@@ -36983,7 +37254,7 @@
       <c r="E104" s="108"/>
       <c r="F104" s="108"/>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1">
+    <row r="105" spans="1:7" ht="15" customHeight="1">
       <c r="A105" s="128"/>
       <c r="B105" s="127"/>
       <c r="C105" s="107"/>
@@ -36991,7 +37262,7 @@
       <c r="E105" s="108"/>
       <c r="F105" s="108"/>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1">
+    <row r="106" spans="1:7" ht="15" customHeight="1">
       <c r="A106" s="128"/>
       <c r="B106" s="127"/>
       <c r="C106" s="107"/>
@@ -36999,7 +37270,7 @@
       <c r="E106" s="108"/>
       <c r="F106" s="108"/>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1">
+    <row r="107" spans="1:7" ht="15" customHeight="1">
       <c r="A107" s="128"/>
       <c r="B107" s="127"/>
       <c r="C107" s="107"/>
@@ -37007,7 +37278,7 @@
       <c r="E107" s="108"/>
       <c r="F107" s="108"/>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1">
+    <row r="108" spans="1:7" ht="15" customHeight="1">
       <c r="A108" s="128"/>
       <c r="B108" s="127"/>
       <c r="C108" s="107"/>
@@ -37015,7 +37286,7 @@
       <c r="E108" s="108"/>
       <c r="F108" s="108"/>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1">
+    <row r="109" spans="1:7" ht="15" customHeight="1">
       <c r="A109" s="128"/>
       <c r="B109" s="127"/>
       <c r="C109" s="107"/>
@@ -37023,7 +37294,7 @@
       <c r="E109" s="108"/>
       <c r="F109" s="108"/>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1">
+    <row r="110" spans="1:7" ht="15" customHeight="1">
       <c r="A110" s="128"/>
       <c r="B110" s="127"/>
       <c r="C110" s="107"/>
@@ -37031,7 +37302,7 @@
       <c r="E110" s="108"/>
       <c r="F110" s="108"/>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1">
+    <row r="111" spans="1:7" ht="15" customHeight="1">
       <c r="A111" s="128"/>
       <c r="B111" s="127"/>
       <c r="C111" s="107"/>
@@ -37039,7 +37310,7 @@
       <c r="E111" s="108"/>
       <c r="F111" s="108"/>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1">
+    <row r="112" spans="1:7" ht="15" customHeight="1">
       <c r="A112" s="128"/>
       <c r="B112" s="127"/>
       <c r="C112" s="107"/>
@@ -37112,44 +37383,49 @@
       <c r="F120" s="108"/>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1">
-      <c r="A121" s="62"/>
-      <c r="B121" s="61"/>
+      <c r="A121" s="128"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="107"/>
       <c r="D121" s="22"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="108"/>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1">
-      <c r="A122" s="62"/>
-      <c r="B122" s="61"/>
-      <c r="D122" s="109"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="34"/>
+      <c r="A122" s="128"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="108"/>
+      <c r="F122" s="108"/>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1">
-      <c r="A123" s="62"/>
-      <c r="B123" s="61"/>
-      <c r="D123" s="109"/>
-      <c r="E123" s="34"/>
-      <c r="F123" s="34"/>
+      <c r="A123" s="128"/>
+      <c r="B123" s="127"/>
+      <c r="C123" s="107"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="108"/>
+      <c r="F123" s="108"/>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1">
-      <c r="A124" s="62"/>
-      <c r="B124" s="61"/>
-      <c r="D124" s="109"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
+      <c r="A124" s="128"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="107"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1">
-      <c r="A125" s="62"/>
-      <c r="B125" s="61"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="34"/>
-      <c r="F125" s="34"/>
+      <c r="A125" s="128"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="108"/>
+      <c r="F125" s="108"/>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1">
       <c r="A126" s="62"/>
       <c r="B126" s="61"/>
-      <c r="D126" s="109"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
@@ -37371,118 +37647,153 @@
       <c r="F157" s="34"/>
     </row>
     <row r="158" spans="1:6" ht="15" customHeight="1">
+      <c r="A158" s="62"/>
       <c r="B158" s="61"/>
       <c r="D158" s="109"/>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:6" ht="15" customHeight="1">
+      <c r="A159" s="62"/>
       <c r="B159" s="61"/>
       <c r="D159" s="109"/>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:6" ht="15" customHeight="1">
+      <c r="A160" s="62"/>
       <c r="B160" s="61"/>
       <c r="D160" s="109"/>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
     </row>
-    <row r="161" spans="5:6" ht="15" customHeight="1">
+    <row r="161" spans="1:6" ht="15" customHeight="1">
+      <c r="A161" s="62"/>
+      <c r="B161" s="61"/>
+      <c r="D161" s="109"/>
       <c r="E161" s="34"/>
       <c r="F161" s="34"/>
     </row>
-    <row r="162" spans="5:6" ht="15" customHeight="1">
+    <row r="162" spans="1:6" ht="15" customHeight="1">
+      <c r="A162" s="62"/>
+      <c r="B162" s="61"/>
+      <c r="D162" s="109"/>
       <c r="E162" s="34"/>
       <c r="F162" s="34"/>
     </row>
-    <row r="163" spans="5:6" ht="15" customHeight="1">
+    <row r="163" spans="1:6" ht="15" customHeight="1">
+      <c r="B163" s="61"/>
+      <c r="D163" s="109"/>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
     </row>
-    <row r="164" spans="5:6" ht="15" customHeight="1">
+    <row r="164" spans="1:6" ht="15" customHeight="1">
+      <c r="B164" s="61"/>
+      <c r="D164" s="109"/>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
     </row>
+    <row r="165" spans="1:6" ht="15" customHeight="1">
+      <c r="B165" s="61"/>
+      <c r="D165" s="109"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" customHeight="1">
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" customHeight="1">
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" customHeight="1">
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" customHeight="1">
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D3 E90:E164 E21:E86 E88">
+  <conditionalFormatting sqref="D3 E95:E169 E21:E86 E88:E91">
     <cfRule type="containsText" dxfId="135" priority="25" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 E90:E164 E21:E86 E88">
+  <conditionalFormatting sqref="D3 E95:E169 E21:E86 E88:E91">
     <cfRule type="containsText" dxfId="134" priority="26" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3 E90:E164 E21:E86 E88">
+  <conditionalFormatting sqref="D3 E95:E169 E21:E86 E88:E91">
     <cfRule type="containsText" dxfId="133" priority="27" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F164 F21:F86 F88">
+  <conditionalFormatting sqref="F95:F169 F21:F86 F88:F91">
     <cfRule type="notContainsBlanks" dxfId="132" priority="17">
       <formula>LEN(TRIM(F21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F164 F21:F86 F88">
+  <conditionalFormatting sqref="F95:F169 F21:F86 F88:F91">
     <cfRule type="containsText" dxfId="131" priority="18" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F164 F21:F86 F88">
+  <conditionalFormatting sqref="F95:F169 F21:F86 F88:F91">
     <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F164 F21:F86 F88">
+  <conditionalFormatting sqref="F95:F169 F21:F86 F88:F91">
     <cfRule type="containsText" dxfId="129" priority="20" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F164 F21:F86 F88">
+  <conditionalFormatting sqref="F95:F169 F21:F86 F88:F91">
     <cfRule type="containsText" dxfId="128" priority="21" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F21))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E92:E94">
     <cfRule type="containsText" dxfId="127" priority="14" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(E89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E92:E94">
     <cfRule type="containsText" dxfId="126" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E92:E94">
     <cfRule type="containsText" dxfId="125" priority="16" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(E89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:F94">
     <cfRule type="notContainsBlanks" dxfId="124" priority="9">
-      <formula>LEN(TRIM(F89))&gt;0</formula>
+      <formula>LEN(TRIM(F92))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:F94">
     <cfRule type="containsText" dxfId="123" priority="10" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:F94">
     <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:F94">
     <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:F94">
     <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F89))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F92))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
@@ -37526,10 +37837,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="D3 E21:E164" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D3 E21:E169" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F21:F164" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F21:F169" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37595,16 +37906,19 @@
     <hyperlink ref="D75" r:id="rId59" tooltip="Tree" display="https://leetcode.com/tag/tree" xr:uid="{00000000-0004-0000-0900-000002000000}"/>
     <hyperlink ref="B77" r:id="rId60" tooltip="Delete Node in a BST" display="https://leetcode.com/problems/delete-node-in-a-bst" xr:uid="{00000000-0004-0000-0B00-000014000000}"/>
     <hyperlink ref="B49" r:id="rId61" tooltip="Invert Binary Tree" display="https://leetcode.com/problems/invert-binary-tree" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
-    <hyperlink ref="B90" r:id="rId62" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
+    <hyperlink ref="B95" r:id="rId62" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0900-0000BD000000}"/>
     <hyperlink ref="B88" r:id="rId63" display=" Trim a Binary Search Tree" xr:uid="{C642CC32-7F60-403F-9700-3EE1EE91E0ED}"/>
     <hyperlink ref="B52" r:id="rId64" tooltip="Kth Smallest Element in a BST" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
     <hyperlink ref="B86" r:id="rId65" xr:uid="{BD860201-AEAD-4E78-BF30-A315B5F41030}"/>
     <hyperlink ref="B82" r:id="rId66" tooltip="Convert BST to Greater Tree" display="https://leetcode.com/problems/convert-bst-to-greater-tree" xr:uid="{00000000-0004-0000-0900-00000C000000}"/>
-    <hyperlink ref="B95" r:id="rId67" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0A00-00001B020000}"/>
+    <hyperlink ref="B100" r:id="rId67" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0A00-00001B020000}"/>
+    <hyperlink ref="B84" r:id="rId68" xr:uid="{C705FD8B-D499-4102-90B7-620F82EDE0AC}"/>
+    <hyperlink ref="B92" r:id="rId69" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000DB010000}"/>
+    <hyperlink ref="B90" r:id="rId70" tooltip="Is Graph Bipartite?" display="https://leetcode.com/problems/is-graph-bipartite" xr:uid="{00000000-0004-0000-0B00-000039000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId68"/>
-  <legacyDrawing r:id="rId69"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId71"/>
+  <legacyDrawing r:id="rId72"/>
 </worksheet>
 </file>
 
@@ -37612,52 +37926,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="33"/>
     <col min="2" max="2" width="35.26953125" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" style="32" customWidth="1"/>
     <col min="4" max="4" width="39.6328125" style="32" customWidth="1"/>
-    <col min="5" max="6" width="8.7265625" style="33"/>
+    <col min="5" max="5" width="8.7265625" style="33"/>
+    <col min="6" max="6" width="15.81640625" style="33" customWidth="1"/>
     <col min="7" max="7" width="45.26953125" style="33" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="33"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="B3" s="54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="B4" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="B5" s="54" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="B6" s="54" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="B7" s="54" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="B8" s="54" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9" s="53" t="s">
         <v>0</v>
       </c>
@@ -37869,6 +38184,7 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="25">
@@ -37882,6 +38198,7 @@
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="25">
@@ -37895,6 +38212,7 @@
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="25">
@@ -37908,6 +38226,7 @@
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="25">
@@ -37921,6 +38240,7 @@
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="25">
@@ -37935,6 +38255,7 @@
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="25">
@@ -37949,6 +38270,7 @@
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="25">
@@ -37963,6 +38285,7 @@
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="25">
@@ -37976,6 +38299,7 @@
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="25">
@@ -37989,8 +38313,9 @@
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="25">
         <v>364</v>
       </c>
@@ -38002,538 +38327,589 @@
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="25"/>
       <c r="B31" s="61"/>
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="25"/>
       <c r="B32" s="61"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="61"/>
       <c r="E33" s="34"/>
       <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="25"/>
       <c r="B34" s="61"/>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="61"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="25">
+        <v>784</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="25"/>
       <c r="B36" s="61"/>
       <c r="E36" s="34"/>
       <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="25"/>
       <c r="B37" s="61"/>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="25"/>
       <c r="B38" s="61"/>
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="25"/>
       <c r="B39" s="61"/>
       <c r="E39" s="34"/>
       <c r="F39" s="34"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="25"/>
       <c r="B40" s="61"/>
       <c r="E40" s="34"/>
       <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="32"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="25"/>
       <c r="B41" s="61"/>
       <c r="E41" s="34"/>
       <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="25"/>
       <c r="B42" s="61"/>
       <c r="E42" s="34"/>
       <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="25"/>
       <c r="B43" s="61"/>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="25"/>
       <c r="B44" s="61"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="32"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="25"/>
       <c r="B45" s="61"/>
       <c r="E45" s="34"/>
       <c r="F45" s="34"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="32"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46" s="25"/>
       <c r="B46" s="61"/>
       <c r="E46" s="34"/>
       <c r="F46" s="34"/>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="32"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47" s="25"/>
       <c r="B47" s="61"/>
       <c r="E47" s="34"/>
       <c r="F47" s="34"/>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="32"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" s="25"/>
       <c r="B48" s="61"/>
       <c r="E48" s="34"/>
       <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="32"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="25"/>
       <c r="B49" s="61"/>
       <c r="E49" s="34"/>
       <c r="F49" s="34"/>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="32"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="25"/>
       <c r="B50" s="61"/>
       <c r="E50" s="34"/>
       <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="32"/>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="25"/>
       <c r="B51" s="61"/>
       <c r="E51" s="34"/>
       <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="25"/>
       <c r="B52" s="61"/>
       <c r="E52" s="34"/>
       <c r="F52" s="34"/>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="32"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="25"/>
       <c r="B53" s="61"/>
       <c r="E53" s="34"/>
       <c r="F53" s="34"/>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="25"/>
       <c r="B54" s="61"/>
       <c r="E54" s="34"/>
       <c r="F54" s="34"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55" s="25"/>
       <c r="B55" s="61"/>
       <c r="E55" s="34"/>
       <c r="F55" s="34"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
       <c r="A56" s="25"/>
       <c r="B56" s="61"/>
       <c r="E56" s="34"/>
       <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="32"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="A57" s="25"/>
       <c r="B57" s="61"/>
       <c r="E57" s="34"/>
       <c r="F57" s="34"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58" s="25"/>
       <c r="B58" s="61"/>
       <c r="E58" s="34"/>
       <c r="F58" s="34"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="32"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
       <c r="A59" s="25"/>
       <c r="B59" s="61"/>
       <c r="E59" s="34"/>
       <c r="F59" s="34"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="32"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1">
       <c r="A60" s="25"/>
       <c r="B60" s="61"/>
       <c r="E60" s="34"/>
       <c r="F60" s="34"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="32"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="A61" s="25"/>
       <c r="B61" s="61"/>
       <c r="E61" s="34"/>
       <c r="F61" s="34"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="32"/>
+    </row>
+    <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="A62" s="25"/>
       <c r="B62" s="61"/>
       <c r="E62" s="34"/>
       <c r="F62" s="34"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="32"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" customHeight="1">
       <c r="A63" s="25"/>
       <c r="B63" s="61"/>
       <c r="E63" s="34"/>
       <c r="F63" s="34"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="32"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="25"/>
       <c r="B64" s="61"/>
       <c r="E64" s="34"/>
       <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="32"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
       <c r="A65" s="25"/>
       <c r="B65" s="61"/>
       <c r="E65" s="34"/>
       <c r="F65" s="34"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="32"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="25"/>
       <c r="B66" s="61"/>
       <c r="E66" s="34"/>
       <c r="F66" s="34"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="32"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="25"/>
       <c r="B67" s="61"/>
       <c r="E67" s="34"/>
       <c r="F67" s="34"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="32"/>
+    </row>
+    <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="25"/>
       <c r="B68" s="61"/>
       <c r="E68" s="34"/>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7" ht="15" customHeight="1">
       <c r="A69" s="25"/>
       <c r="B69" s="61"/>
       <c r="E69" s="34"/>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:7" ht="15" customHeight="1">
       <c r="A70" s="25"/>
       <c r="B70" s="61"/>
       <c r="E70" s="34"/>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="A71" s="25"/>
       <c r="B71" s="61"/>
       <c r="E71" s="34"/>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="A72" s="25"/>
       <c r="B72" s="61"/>
       <c r="E72" s="34"/>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:7" ht="15" customHeight="1">
       <c r="A73" s="25"/>
       <c r="B73" s="61"/>
       <c r="E73" s="34"/>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7" ht="15" customHeight="1">
       <c r="A74" s="25"/>
       <c r="B74" s="61"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="25"/>
       <c r="B75" s="61"/>
       <c r="E75" s="34"/>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="25"/>
       <c r="B76" s="61"/>
       <c r="E76" s="34"/>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="25"/>
       <c r="B77" s="61"/>
       <c r="E77" s="34"/>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7" ht="15" customHeight="1">
       <c r="A78" s="25"/>
       <c r="B78" s="61"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7" ht="15" customHeight="1">
       <c r="A79" s="25"/>
       <c r="B79" s="61"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:7" ht="15" customHeight="1">
       <c r="A80" s="25"/>
       <c r="B80" s="61"/>
       <c r="E80" s="34"/>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" ht="15" customHeight="1">
       <c r="A81" s="25"/>
       <c r="B81" s="61"/>
       <c r="E81" s="34"/>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" ht="15" customHeight="1">
       <c r="A82" s="25"/>
       <c r="B82" s="61"/>
       <c r="E82" s="34"/>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" ht="15" customHeight="1">
       <c r="A83" s="25"/>
       <c r="B83" s="61"/>
       <c r="E83" s="34"/>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" ht="15" customHeight="1">
       <c r="A84" s="25"/>
       <c r="B84" s="61"/>
       <c r="E84" s="34"/>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" ht="15" customHeight="1">
       <c r="A85" s="25"/>
       <c r="B85" s="61"/>
       <c r="E85" s="34"/>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" ht="15" customHeight="1">
       <c r="A86" s="25"/>
       <c r="B86" s="61"/>
       <c r="E86" s="34"/>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" ht="15" customHeight="1">
       <c r="A87" s="25"/>
       <c r="B87" s="61"/>
       <c r="E87" s="34"/>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15" customHeight="1">
       <c r="A88" s="25"/>
       <c r="B88" s="61"/>
       <c r="E88" s="34"/>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" ht="15" customHeight="1">
       <c r="A89" s="25"/>
       <c r="B89" s="61"/>
       <c r="E89" s="34"/>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" ht="15" customHeight="1">
       <c r="A90" s="25"/>
       <c r="B90" s="61"/>
       <c r="E90" s="34"/>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" ht="15" customHeight="1">
       <c r="A91" s="25"/>
       <c r="B91" s="61"/>
       <c r="E91" s="34"/>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" ht="15" customHeight="1">
       <c r="A92" s="25"/>
       <c r="B92" s="61"/>
       <c r="E92" s="34"/>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" ht="15" customHeight="1">
       <c r="A93" s="25"/>
       <c r="B93" s="61"/>
       <c r="E93" s="34"/>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15" customHeight="1">
       <c r="A94" s="25"/>
       <c r="B94" s="61"/>
       <c r="E94" s="34"/>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="15" customHeight="1">
       <c r="A95" s="25"/>
       <c r="B95" s="61"/>
       <c r="E95" s="34"/>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="15" customHeight="1">
       <c r="A96" s="25"/>
       <c r="B96" s="61"/>
       <c r="E96" s="34"/>
       <c r="F96" s="34"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="15" customHeight="1">
       <c r="A97" s="25"/>
       <c r="B97" s="61"/>
       <c r="E97" s="34"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15" customHeight="1">
       <c r="A98" s="25"/>
       <c r="B98" s="61"/>
       <c r="E98" s="34"/>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" ht="15" customHeight="1">
       <c r="B99" s="61"/>
       <c r="E99" s="34"/>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" ht="15" customHeight="1">
       <c r="B100" s="61"/>
       <c r="E100" s="34"/>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" ht="15" customHeight="1">
       <c r="B101" s="61"/>
       <c r="E101" s="34"/>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="15" customHeight="1">
       <c r="B102" s="61"/>
       <c r="E102" s="34"/>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" ht="15" customHeight="1">
       <c r="B103" s="61"/>
       <c r="E103" s="34"/>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="15" customHeight="1">
       <c r="B104" s="61"/>
       <c r="E104" s="34"/>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" ht="15" customHeight="1">
       <c r="B105" s="61"/>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" ht="15" customHeight="1">
       <c r="B106" s="61"/>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" ht="15" customHeight="1">
       <c r="B107" s="61"/>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" ht="15" customHeight="1">
       <c r="B108" s="61"/>
       <c r="E108" s="34"/>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" ht="15" customHeight="1">
       <c r="B109" s="61"/>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" ht="15" customHeight="1">
       <c r="B110" s="61"/>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" ht="15" customHeight="1">
       <c r="B111" s="61"/>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" ht="15" customHeight="1">
       <c r="B112" s="61"/>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="5:6">
+    <row r="113" spans="5:6" ht="15" customHeight="1">
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="5:6">
+    <row r="114" spans="5:6" ht="15" customHeight="1">
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="5:6">
+    <row r="115" spans="5:6" ht="15" customHeight="1">
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="5:6">
+    <row r="116" spans="5:6" ht="15" customHeight="1">
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="5:6">
+    <row r="117" spans="5:6" ht="15" customHeight="1">
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="5:6">
+    <row r="118" spans="5:6" ht="15" customHeight="1">
       <c r="E118" s="34"/>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="5:6">
+    <row r="119" spans="5:6" ht="15" customHeight="1">
       <c r="E119" s="34"/>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="5:6">
+    <row r="120" spans="5:6" ht="15" customHeight="1">
       <c r="E120" s="34"/>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="5:6">
+    <row r="121" spans="5:6" ht="15" customHeight="1">
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="5:6">
+    <row r="122" spans="5:6" ht="15" customHeight="1">
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
-    <row r="123" spans="5:6">
+    <row r="123" spans="5:6" ht="15" customHeight="1">
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
-    <row r="124" spans="5:6">
+    <row r="124" spans="5:6" ht="15" customHeight="1">
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
-    <row r="125" spans="5:6">
+    <row r="125" spans="5:6" ht="15" customHeight="1">
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
     </row>
-    <row r="126" spans="5:6">
+    <row r="126" spans="5:6" ht="15" customHeight="1">
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
     </row>
@@ -38608,10 +38984,11 @@
     <hyperlink ref="B29" r:id="rId19" tooltip="Remove Invalid Parentheses" display="https://leetcode.com/problems/remove-invalid-parentheses" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
     <hyperlink ref="B30" r:id="rId20" tooltip="Nested List Weight Sum II" display="https://leetcode.com/problems/nested-list-weight-sum-ii" xr:uid="{00000000-0004-0000-0900-0000C6000000}"/>
     <hyperlink ref="B18" r:id="rId21" tooltip="Word Search II" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B35" r:id="rId22" tooltip="Letter Case Permutation" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0B00-0000C9000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
 

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C26A73-BB88-4F30-B873-F09C9D96961A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46313D0-6017-4E50-923D-26A50FB97D98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Amazon" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Amazon!$A$1:$F$352</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Amazon!$A$1:$F$351</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Facebook!$A$1:$F$181</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">GoogleFul!$D$1:$I$272</definedName>
   </definedNames>
@@ -297,7 +297,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="B177" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
+    <comment ref="B174" authorId="0" shapeId="0" xr:uid="{0B07F9B3-96E6-4CDB-BAE2-EC45F100717B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tricky Binary search
+**** for avarage of numbers ex. 1, 2, 3 = 3
+if we reduce avarage (3) from all numbers above (-2, -1,0), then Sum of them is 0 (-2+ -1 + 0 = 0)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B181" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
       <text>
         <r>
           <rPr>
@@ -322,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B188" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B183" authorId="0" shapeId="0" xr:uid="{801B4DBE-EB50-4478-BC81-850427BBA5EA}">
       <text>
         <r>
           <rPr>
@@ -342,11 +368,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-instead of generating all SubSets first.. We can use 1 pass on array and remove all values greater than the current one.</t>
+same as 1326. Minimum Number of Taps to Open to Water a Garden</t>
         </r>
       </text>
     </comment>
-    <comment ref="B199" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B190" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+same as 1024. Video Stitching</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B200" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -368,6 +418,30 @@
           <t xml:space="preserve">
 Must practice
 Leetcode 857</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B207" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+instead of generating all SubSets first.. We can use 1 pass on array and remove all values greater than the current one.</t>
         </r>
       </text>
     </comment>
@@ -779,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="1583">
   <si>
     <t>#</t>
   </si>
@@ -15802,12 +15876,608 @@
   <si>
     <t>All</t>
   </si>
+  <si>
+    <t>public double FindMaxAverage(int[] nums, int k) {
+	int sum = 0;
+	double maxAv = int.MinValue;
+	for(int i = 0; i &lt; k; i++)
+	   sum += nums[i];
+	maxAv = (double)sum / k;
+	Console.WriteLine(maxAv);
+	for(int i = 1; i &lt;= nums.Length - k; i++)
+	{
+		sum += nums[i + k - 1] - nums[i - 1];
+		maxAv = Math.Max(maxAv, (double)sum / k);
+		Console.WriteLine(maxAv + ":"+ (double)sum / k);
+	}
+	return maxAv;
+}</t>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//binary search ****
+	//https://www.youtube.com/watch?v=2QqVsfrpA1Q
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Defining the average range for binary search
+	// The potential minimum avg of this array is the smallerst number, vice versa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	double left = nums[0];
+	double right = nums[0];
+	for (int i = 0; i &lt; nums.Length; i++)
+	{
+		left = Math.Min(left, nums[i]);
+		right = Math.Max(right, nums[i]);
+	}
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// starting the binary search until we find average(left) that works and left + 1e-5(right) that does not work
+	while(right - left &gt; 1e-5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	{
+		double m = left + (right - left) / 2;
+		if(checkSubArray(nums, k, m))
+			left = m;
+		else
+			right = m;
+		Console.WriteLine(left +":"+ right +":" + m);
+	}
+	return left;
+}
+private bool checkSubArray(int[] nums, int k, double avg)
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//check wether there exists a subarray whose length &gt;= k and curSum - minSum &gt;= 0, that means it exists a subarray averages over avg
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	double curSum =0, prevSum =0, minSum =0;
+	for(int i = 0; i &lt; nums.Length; i++)
+	{
+		curSum += nums[i] - avg;
+		if(i &gt;= k - 1)
+		{
+			if(curSum - minSum &gt;= 0 )
+				return true;
+			prevSum += nums[i - k + 1] - avg;
+			minSum = Math.Min(minSum, prevSum);
+		}
+	}
+	return false;        
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>stack, array</t>
+  </si>
+  <si>
+    <t>public bool ValidateStackSequences(int[] pushed, int[] popped) {
+	if(pushed.Length == 0 &amp;&amp; popped.Length == 0)
+		return true;
+	if(pushed.Length == 0 || popped.Length == 0)
+		return false;
+	int pushedIndex = 0;
+	Stack&lt;int&gt; stack = new Stack&lt;int&gt;();
+	for (int i = 0; i &lt; popped.Length; i++)
+	{
+		int lastPopped = popped[i];
+		if (stack.Any() &amp;&amp; stack.Peek() == lastPopped)
+			stack.Pop();
+		else
+		{
+			while (pushedIndex &lt; pushed.Length - 1 &amp;&amp; pushed[pushedIndex] != lastPopped)
+			{
+				stack.Push(pushed[pushedIndex ++]);
+			}
+			if(pushedIndex &lt;= pushed.Length - 1)
+				stack.Push(pushed[pushedIndex++]);
+			if (stack.Pop() != lastPopped)
+				return false;
+		}
+	}
+	return true;
+}</t>
+  </si>
+  <si>
+    <t>Set Mismatch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int[] FindErrorNums(int[] nums) {
+        return FindErrorNums1(nums);
+        int n = nums.Length, sum = 0, nSum =0;
+        nSum = (n * (n + 1)) /2;
+        for(int i = 0; i &lt; n; i++) 
+            sum += nums[i];
+        int duplicate = 0;
+        for (int i = 0; i &lt; nums.Length; i++)
+        {
+            if (nums[Math.Abs(nums[i]) - 1] &lt; 0)
+            {
+                duplicate = Math.Abs(nums[i]);
+                break;
+            }
+            else
+                nums[Math.Abs(nums[i]) - 1] *= -1;
+        }        
+        return new int[]{ duplicate, duplicate + (nSum - sum)};
+    }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    private int[] FindErrorNums1(int[] nums)
+    {
+        //https://www.youtube.com/watch?v=gWhSiGETn9Y
+        int xor = 0, xor0 = 0, xor1 = 0;
+        foreach (int n in nums)
+            xor ^= n;
+        for (int i = 1; i &lt;= nums.Length; i++)
+            xor ^= i;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int rightmostbit = xor &amp; ~(xor - 1);
+        //making 2 groups</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        foreach (int n in nums) 
+        {
+            if ((n &amp; rightmostbit) != 0)
+                xor1 ^= n;
+            else
+                xor0 ^= n;
+        }
+        for (int i = 1; i &lt;= nums.Length; i++) {
+            if ((i &amp; rightmostbit) != 0)
+                xor1 ^= i;
+            else
+                xor0 ^= i;
+        }
+        for (int i = 0; i &lt; nums.Length; i++) {
+            if (nums[i] == xor0)
+                return new int[]{xor0, xor1};
+        }
+        return new int[]{xor1, xor0};
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">/* without modifying the aray */
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int slow = nums[nums[0]];
+int fast = nums[nums[nums[0]]];
+while (true) 
+{ 
+	if(slow == fast)
+	{
+		//reset slow to head;
+		slow = nums[0];
+		//start moving 1 step at a time
+		while(true)
+		{
+			Console.WriteLine(slow +":"+ fast);
+			if(fast == slow) 
+				return slow;
+			slow = nums[slow];
+			fast = nums[fast];
+		}
+	}
+	slow = nums[slow];
+	fast = nums[nums[fast]];
+}
+return -1;
+/*Modifying the array */
+for (int i = 0; i &lt; nums.Length; i++)
+{
+	if (nums[Math.Abs(nums[i]) - 1] &lt; 0)
+		return Math.Abs(nums[i]);
+	else
+		nums[Math.Abs(nums[i]) - 1] *= -1;
+}
+return -1;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int xor = 0;
+for (int i = 0; i &lt; nums.Length; i++) {
+	xor ^= nums[i];
+}
+for (int i = 0; i &lt; nums.Length; i++) {
+	xor ^= i;
+}
+return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xor ^ nums.Length;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int typicalSumOfAllNumbersTillN = (nums.Length * (nums.Length + 1)) / 2;
+int sum = 0;
+for(int i = 0; i &lt; nums.Length; i++)
+{
+	sum += nums[i];
+}
+if(sum == typicalSumOfAllNumbersTillN)
+	return 0;
+else
+	return typicalSumOfAllNumbersTillN - sum;</t>
+    </r>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Greedy,DP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// reach array indices represent the fountains' 
+// reach to the left, and whose values represent the fountains'
+// reach to the right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int[] reach = new int[n + 1];
+for (int j = 0; j &lt; ranges.Length; j++)
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int left = Math.Max(0, j - ranges[j]);
+	int right = Math.Min(n, j + ranges[j]);
+	//ignore smaller Right Ranges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	reach[left] = Math.Max(reach[left], right);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}
+int count = 1;
+int coverage = reach[0], newCoverage = reach[0];
+int i = 1;
+while (coverage &lt; n) // keep going till n, once we reach n, exit the process
+{
+	bool foundBiggerCoverage = false;
+	for (; i &lt;= coverage; i++)
+	{
+		if (reach[i] &gt; coverage) 
+		{
+			//pick the max bigger coverage
+			newCoverage = Math.Max(newCoverage, reach[i]);
+			foundBiggerCoverage = true;
+		}
+	}
+	//if new bigger ranges is not found, 
+	//then we cant reach the end of the garden, so exit
+	if (!foundBiggerCoverage)
+		return -1;
+	coverage = newCoverage;
+	count++;
+}
+return count;</t>
+    </r>
+  </si>
+  <si>
+    <t>Video Stitching</t>
+  </si>
+  <si>
+    <t>Greedy, DP</t>
+  </si>
+  <si>
+    <t>public int VideoStitching(int[][] clips, int T) {
+	if(T == 0) 
+		return 0;
+	int[] clipLength = new int[T + 1];
+	for(int j = 0; j &lt; clips.Length; j++)
+	{
+		int clipStart = Math.Max(0, clips[j][0]);
+		int clipEnd = Math.Min(T, clips[j][1]);
+		if(clipStart &gt;= clipLength.Length )
+			continue;
+		//ignore smaller clip End Ranges
+		clipLength[clipStart] = Math.Max(clipLength[clipStart], clipEnd);
+	}
+	int count = 1;
+	int movieLength = clipLength[0], newLength = clipLength[0];
+	int i = 1;
+	while (movieLength &lt; T) // keep going till T, once we reach T, exit the process
+	{
+		bool foundBiggerLength = false;
+		for (; i &lt;= movieLength; i++)
+		{
+			if (clipLength[i] &gt; movieLength) 
+			{
+				//pick the max bigger clip
+				newLength = Math.Max(newLength, clipLength[i]);
+				foundBiggerLength = true;
+			}
+		}
+		//if new bigger clip is not found, 
+		//then we cant reach the end of the whole movie, so exit
+		if (!foundBiggerLength)
+			return -1;
+		movieLength = newLength;
+		count++;
+	}
+	return count;
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dictionary&lt;char, int&gt; dict = new Dictionary&lt;char, int&gt;();
+for(int i = 0; i &lt; S.Length; i++)
+{
+	if(! dict.ContainsKey(S[i]))
+		dict.Add(S[i], 0);
+	dict[S[i]] = i;
+}
+int rangeStartIndex = 0;
+int maxRange = dict[S[0]];
+IList&lt;int&gt; result = new List&lt;int&gt;();
+for(int i = 0; i &lt; S.Length; i++)
+{
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//before exhausting maxRange, if we find new bigger maxRange, then we will update maxRange and continue.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	if(i - maxRange == 0) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//end of the range, start a new range
+	{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		result.Add(i - rangeStartIndex + 1);
+		if(i + 1 &lt; S.Length)
+		{
+			maxRange = dict[S[i + 1]];
+			rangeStartIndex = i + 1;
+		}
+	}
+	else
+	{
+		if(dict[S[i]] &gt; maxRange) 
+			maxRange = dict[S[i]];</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //update to bigger range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	}
+}                     
+return result;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="52">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16172,6 +16842,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -16332,7 +17017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16644,12 +17329,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18969,10 +19666,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:G211"/>
+  <dimension ref="A3:G213"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -19807,60 +20504,47 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="58"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
+      <c r="A72" s="147">
+        <v>645</v>
+      </c>
+      <c r="B72" s="148" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G72" s="81" t="s">
+        <v>1573</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="59">
-        <v>991</v>
-      </c>
-      <c r="B73" s="58" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G73" s="81" t="s">
-        <v>1555</v>
-      </c>
+      <c r="A73" s="147"/>
+      <c r="B73" s="58"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
-      <c r="A74" s="59">
-        <v>1663</v>
-      </c>
-      <c r="B74" s="58" t="s">
-        <v>1435</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G74" s="81" t="s">
-        <v>1436</v>
-      </c>
+      <c r="A74" s="147"/>
+      <c r="B74" s="58"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="59">
-        <v>1680</v>
+        <v>991</v>
       </c>
       <c r="B75" s="58" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D75" s="32" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D75" s="22" t="s">
         <v>277</v>
       </c>
       <c r="E75" s="34" t="s">
@@ -19870,25 +20554,57 @@
         <v>1326</v>
       </c>
       <c r="G75" s="81" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" customHeight="1">
+      <c r="A76" s="59">
+        <v>1663</v>
+      </c>
+      <c r="B76" s="58" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="34" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G76" s="81" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1">
+      <c r="A77" s="59">
+        <v>1680</v>
+      </c>
+      <c r="B77" s="58" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D77" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="34" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G77" s="81" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1">
-      <c r="A76" s="33"/>
-      <c r="B76" s="58"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1">
-      <c r="B77" s="58"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-    </row>
     <row r="78" spans="1:7" ht="15" customHeight="1">
+      <c r="A78" s="33"/>
+      <c r="B78" s="58"/>
       <c r="E78" s="34"/>
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1">
+      <c r="B79" s="58"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
@@ -20420,52 +21136,60 @@
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
     </row>
+    <row r="212" spans="5:6" ht="15" customHeight="1">
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+    </row>
+    <row r="213" spans="5:6" ht="15" customHeight="1">
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E16:E211">
+  <conditionalFormatting sqref="E16:E213">
     <cfRule type="containsText" dxfId="23" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E211">
+  <conditionalFormatting sqref="E16:E213">
     <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E211">
+  <conditionalFormatting sqref="E16:E213">
     <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F211">
+  <conditionalFormatting sqref="F16:F213">
     <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(F16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F211">
+  <conditionalFormatting sqref="F16:F213">
     <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F211">
+  <conditionalFormatting sqref="F16:F213">
     <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F211">
+  <conditionalFormatting sqref="F16:F213">
     <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F211">
+  <conditionalFormatting sqref="F16:F213">
     <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F16:F211" xr:uid="{0CC864E3-19E6-4751-8AAC-40DDA093638C}">
+    <dataValidation type="list" allowBlank="1" sqref="F16:F213" xr:uid="{0CC864E3-19E6-4751-8AAC-40DDA093638C}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E16:E211" xr:uid="{84E2A8D9-E304-42B2-AEC6-02BC3A95419A}">
+    <dataValidation type="list" allowBlank="1" sqref="E16:E213" xr:uid="{84E2A8D9-E304-42B2-AEC6-02BC3A95419A}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20525,13 +21249,14 @@
     <hyperlink ref="B68" r:id="rId53" tooltip="Random Pick Index" display="https://leetcode.com/problems/random-pick-index" xr:uid="{00000000-0004-0000-0900-000041000000}"/>
     <hyperlink ref="D68" r:id="rId54" tooltip="Reservoir Sampling" display="https://leetcode.com/tag/reservoir-sampling" xr:uid="{00000000-0004-0000-0900-000042000000}"/>
     <hyperlink ref="B67" r:id="rId55" tooltip="Integer Replacement" display="https://leetcode.com/problems/integer-replacement" xr:uid="{00000000-0004-0000-0A00-000043010000}"/>
-    <hyperlink ref="B75" r:id="rId56" xr:uid="{34E2A3EF-8A5C-41D5-B89F-35D2C9816DD7}"/>
-    <hyperlink ref="B74" r:id="rId57" xr:uid="{F6885474-DD91-43F7-A332-7BDBC56DF8B5}"/>
+    <hyperlink ref="B77" r:id="rId56" xr:uid="{34E2A3EF-8A5C-41D5-B89F-35D2C9816DD7}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{F6885474-DD91-43F7-A332-7BDBC56DF8B5}"/>
     <hyperlink ref="B71" r:id="rId58" xr:uid="{6638AE85-DDD7-4CF0-9F0C-B48D13AD4E63}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{D235F5B0-8889-4CD6-926F-B2C3F794C2A0}"/>
+    <hyperlink ref="B75" r:id="rId59" xr:uid="{D235F5B0-8889-4CD6-926F-B2C3F794C2A0}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{6BFDA962-7C16-455A-869E-2D882B7ABAF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId60"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId61"/>
 </worksheet>
 </file>
 
@@ -23187,8 +23912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I278"/>
   <sheetViews>
-    <sheetView topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F39"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242:C242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28366,28 +29091,15 @@
       <c r="C241" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D241" s="13">
-        <v>1326</v>
-      </c>
-      <c r="E241" s="14" t="s">
-        <v>962</v>
-      </c>
-      <c r="F241" s="31" t="s">
-        <v>947</v>
-      </c>
+      <c r="E241" s="14"/>
+      <c r="F241" s="31"/>
       <c r="G241" s="16"/>
       <c r="H241" s="16"/>
     </row>
-    <row r="242" spans="1:8" ht="29">
-      <c r="A242" s="72">
-        <v>1326</v>
-      </c>
-      <c r="B242" s="73" t="s">
-        <v>962</v>
-      </c>
-      <c r="C242" s="75" t="s">
-        <v>590</v>
-      </c>
+    <row r="242" spans="1:8" ht="16">
+      <c r="A242" s="72"/>
+      <c r="B242" s="73"/>
+      <c r="C242" s="75"/>
       <c r="E242" s="14"/>
       <c r="F242" s="41"/>
       <c r="G242" s="16"/>
@@ -29336,307 +30048,305 @@
     <hyperlink ref="E204" r:id="rId224" tooltip="Stone Game II" display="https://leetcode.com/problems/stone-game-ii" xr:uid="{00000000-0004-0000-0A00-000009010000}"/>
     <hyperlink ref="E243" r:id="rId225" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0A00-00000A010000}"/>
     <hyperlink ref="E251" r:id="rId226" tooltip="Stone Game III" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{00000000-0004-0000-0A00-00000B010000}"/>
-    <hyperlink ref="E241" r:id="rId227" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0A00-00000C010000}"/>
-    <hyperlink ref="E225" r:id="rId228" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-00000D010000}"/>
-    <hyperlink ref="E253" r:id="rId229" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-00000F010000}"/>
-    <hyperlink ref="E252" r:id="rId230" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000010010000}"/>
-    <hyperlink ref="E254" r:id="rId231" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000011010000}"/>
-    <hyperlink ref="E255" r:id="rId232" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000012010000}"/>
-    <hyperlink ref="E256" r:id="rId233" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000013010000}"/>
-    <hyperlink ref="E250" r:id="rId234" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000014010000}"/>
-    <hyperlink ref="E259" r:id="rId235" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000015010000}"/>
-    <hyperlink ref="E236" r:id="rId236" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000016010000}"/>
-    <hyperlink ref="E138" r:id="rId237" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-000017010000}"/>
-    <hyperlink ref="E14" r:id="rId238" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0A00-000018010000}"/>
-    <hyperlink ref="E222" r:id="rId239" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000019010000}"/>
-    <hyperlink ref="E221" r:id="rId240" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-00001A010000}"/>
-    <hyperlink ref="E171" r:id="rId241" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-00001B010000}"/>
-    <hyperlink ref="E257" r:id="rId242" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-00001C010000}"/>
-    <hyperlink ref="E61" r:id="rId243" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0A00-00001D010000}"/>
-    <hyperlink ref="E261" r:id="rId244" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00001E010000}"/>
-    <hyperlink ref="E4" r:id="rId245" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0A00-00001F010000}"/>
-    <hyperlink ref="E262" r:id="rId246" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-000020010000}"/>
-    <hyperlink ref="E258" r:id="rId247" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-000021010000}"/>
-    <hyperlink ref="E197" r:id="rId248" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-000022010000}"/>
-    <hyperlink ref="E181" r:id="rId249" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-000023010000}"/>
-    <hyperlink ref="E210" r:id="rId250" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-000024010000}"/>
-    <hyperlink ref="E265" r:id="rId251" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000026010000}"/>
-    <hyperlink ref="E264" r:id="rId252" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000027010000}"/>
-    <hyperlink ref="E266" r:id="rId253" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000028010000}"/>
-    <hyperlink ref="E227" r:id="rId254" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-000029010000}"/>
-    <hyperlink ref="E148" r:id="rId255" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-00002A010000}"/>
-    <hyperlink ref="E268" r:id="rId256" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-00002B010000}"/>
-    <hyperlink ref="E267" r:id="rId257" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-00002C010000}"/>
-    <hyperlink ref="E269" r:id="rId258" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-00002D010000}"/>
-    <hyperlink ref="E231" r:id="rId259" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00002E010000}"/>
-    <hyperlink ref="E270" r:id="rId260" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-00002F010000}"/>
-    <hyperlink ref="E271" r:id="rId261" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000030010000}"/>
-    <hyperlink ref="E272" r:id="rId262" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000031010000}"/>
-    <hyperlink ref="B3" r:id="rId263" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0A00-00005A010000}"/>
-    <hyperlink ref="B4" r:id="rId264" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0A00-00005B010000}"/>
-    <hyperlink ref="B5" r:id="rId265" tooltip="132 Pattern" display="https://leetcode.com/problems/132-pattern" xr:uid="{00000000-0004-0000-0A00-00005C010000}"/>
-    <hyperlink ref="B6" r:id="rId266" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0A00-00005D010000}"/>
-    <hyperlink ref="B7" r:id="rId267" tooltip="LFU Cache" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0A00-00005E010000}"/>
-    <hyperlink ref="B8" r:id="rId268" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0A00-00005F010000}"/>
-    <hyperlink ref="B9" r:id="rId269" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0A00-000060010000}"/>
-    <hyperlink ref="B10" r:id="rId270" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0A00-000061010000}"/>
-    <hyperlink ref="B11" r:id="rId271" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0A00-000062010000}"/>
-    <hyperlink ref="B12" r:id="rId272" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0A00-000063010000}"/>
-    <hyperlink ref="B13" r:id="rId273" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0A00-000064010000}"/>
-    <hyperlink ref="B14" r:id="rId274" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0A00-000065010000}"/>
-    <hyperlink ref="B15" r:id="rId275" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0A00-000066010000}"/>
-    <hyperlink ref="B16" r:id="rId276" tooltip="Next Greater Element I" display="https://leetcode.com/problems/next-greater-element-i" xr:uid="{00000000-0004-0000-0A00-000067010000}"/>
-    <hyperlink ref="B17" r:id="rId277" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0A00-000068010000}"/>
-    <hyperlink ref="B18" r:id="rId278" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0A00-000069010000}"/>
-    <hyperlink ref="B19" r:id="rId279" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0A00-00006A010000}"/>
-    <hyperlink ref="B20" r:id="rId280" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0A00-00006B010000}"/>
-    <hyperlink ref="B21" r:id="rId281" tooltip="Inorder Successor in BST II" display="https://leetcode.com/problems/inorder-successor-in-bst-ii" xr:uid="{00000000-0004-0000-0A00-00006C010000}"/>
-    <hyperlink ref="B22" r:id="rId282" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0A00-00006D010000}"/>
-    <hyperlink ref="B23" r:id="rId283" tooltip="Longest Word in Dictionary through Deleting" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0A00-00006E010000}"/>
-    <hyperlink ref="B24" r:id="rId284" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0A00-00006F010000}"/>
-    <hyperlink ref="B25" r:id="rId285" tooltip="Word Abbreviation" display="https://leetcode.com/problems/word-abbreviation" xr:uid="{00000000-0004-0000-0A00-000070010000}"/>
-    <hyperlink ref="B26" r:id="rId286" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0A00-000071010000}"/>
-    <hyperlink ref="B27" r:id="rId287" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0A00-000072010000}"/>
-    <hyperlink ref="B28" r:id="rId288" tooltip="Encode and Decode TinyURL" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0A00-000073010000}"/>
-    <hyperlink ref="B29" r:id="rId289" tooltip="Single Element in a Sorted Array" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-000074010000}"/>
-    <hyperlink ref="B30" r:id="rId290" tooltip="Diameter of Binary Tree" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0A00-000075010000}"/>
-    <hyperlink ref="B31" r:id="rId291" tooltip="Binary Tree Longest Consecutive Sequence II" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence-ii" xr:uid="{00000000-0004-0000-0A00-000076010000}"/>
-    <hyperlink ref="B32" r:id="rId292" tooltip="Student Attendance Record I" display="https://leetcode.com/problems/student-attendance-record-i" xr:uid="{00000000-0004-0000-0A00-000077010000}"/>
-    <hyperlink ref="B33" r:id="rId293" tooltip="Student Attendance Record II" display="https://leetcode.com/problems/student-attendance-record-ii" xr:uid="{00000000-0004-0000-0A00-000078010000}"/>
-    <hyperlink ref="B34" r:id="rId294" tooltip="Brick Wall" display="https://leetcode.com/problems/brick-wall" xr:uid="{00000000-0004-0000-0A00-000079010000}"/>
-    <hyperlink ref="B35" r:id="rId295" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0A00-00007A010000}"/>
-    <hyperlink ref="B36" r:id="rId296" tooltip="Subarray Sum Equals K" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0A00-00007B010000}"/>
-    <hyperlink ref="B37" r:id="rId297" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0A00-00007C010000}"/>
-    <hyperlink ref="B38" r:id="rId298" tooltip="Maximum Vacation Days" display="https://leetcode.com/problems/maximum-vacation-days" xr:uid="{00000000-0004-0000-0A00-00007D010000}"/>
-    <hyperlink ref="B40" r:id="rId299" tooltip="Valid Square" display="https://leetcode.com/problems/valid-square" xr:uid="{00000000-0004-0000-0A00-00007F010000}"/>
-    <hyperlink ref="B41" r:id="rId300" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0A00-000080010000}"/>
-    <hyperlink ref="B42" r:id="rId301" tooltip="Merge Two Binary Trees" display="https://leetcode.com/problems/merge-two-binary-trees" xr:uid="{00000000-0004-0000-0A00-000081010000}"/>
-    <hyperlink ref="B44" r:id="rId302" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0A00-000083010000}"/>
-    <hyperlink ref="B45" r:id="rId303" tooltip="Course Schedule III" display="https://leetcode.com/problems/course-schedule-iii" xr:uid="{00000000-0004-0000-0A00-000084010000}"/>
-    <hyperlink ref="B46" r:id="rId304" tooltip="Smallest Range Covering Elements from K Lists" display="https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists" xr:uid="{00000000-0004-0000-0A00-000085010000}"/>
-    <hyperlink ref="B47" r:id="rId305" tooltip="Exclusive Time of Functions" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0A00-000086010000}"/>
-    <hyperlink ref="B48" r:id="rId306" tooltip="Shopping Offers" display="https://leetcode.com/problems/shopping-offers" xr:uid="{00000000-0004-0000-0A00-000087010000}"/>
-    <hyperlink ref="B49" r:id="rId307" tooltip="Decode Ways II" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0A00-000088010000}"/>
-    <hyperlink ref="B50" r:id="rId308" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0A00-000089010000}"/>
-    <hyperlink ref="B51" r:id="rId309" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0A00-00008A010000}"/>
-    <hyperlink ref="B52" r:id="rId310" tooltip="Find Duplicate Subtrees" display="https://leetcode.com/problems/find-duplicate-subtrees" xr:uid="{00000000-0004-0000-0A00-00008B010000}"/>
-    <hyperlink ref="B53" r:id="rId311" tooltip="Maximum Binary Tree" display="https://leetcode.com/problems/maximum-binary-tree" xr:uid="{00000000-0004-0000-0A00-00008C010000}"/>
-    <hyperlink ref="B54" r:id="rId312" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0A00-00008D010000}"/>
-    <hyperlink ref="B55" r:id="rId313" tooltip="Split Array into Consecutive Subsequences" display="https://leetcode.com/problems/split-array-into-consecutive-subsequences" xr:uid="{00000000-0004-0000-0A00-00008E010000}"/>
-    <hyperlink ref="B56" r:id="rId314" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0A00-00008F010000}"/>
-    <hyperlink ref="B57" r:id="rId315" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0A00-000090010000}"/>
-    <hyperlink ref="B58" r:id="rId316" tooltip="Longest Continuous Increasing Subsequence" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0A00-000091010000}"/>
-    <hyperlink ref="B59" r:id="rId317" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0A00-000092010000}"/>
-    <hyperlink ref="B60" r:id="rId318" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0A00-000093010000}"/>
-    <hyperlink ref="B61" r:id="rId319" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0A00-000094010000}"/>
-    <hyperlink ref="B62" r:id="rId320" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0A00-000095010000}"/>
-    <hyperlink ref="B63" r:id="rId321" tooltip="Redundant Connection" display="https://leetcode.com/problems/redundant-connection" xr:uid="{00000000-0004-0000-0A00-000096010000}"/>
-    <hyperlink ref="B64" r:id="rId322" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0A00-000097010000}"/>
-    <hyperlink ref="B65" r:id="rId323" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0A00-000098010000}"/>
-    <hyperlink ref="B66" r:id="rId324" tooltip="Maximum Sum of 3 Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-000099010000}"/>
-    <hyperlink ref="B67" r:id="rId325" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0A00-00009A010000}"/>
-    <hyperlink ref="B68" r:id="rId326" tooltip="Top K Frequent Words" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0A00-00009B010000}"/>
-    <hyperlink ref="B69" r:id="rId327" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0A00-00009C010000}"/>
-    <hyperlink ref="B70" r:id="rId328" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0A00-00009D010000}"/>
-    <hyperlink ref="B71" r:id="rId329" tooltip="Search in a Sorted Array of Unknown Size" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0A00-00009E010000}"/>
-    <hyperlink ref="B72" r:id="rId330" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0A00-00009F010000}"/>
-    <hyperlink ref="B73" r:id="rId331" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0A00-0000A0010000}"/>
-    <hyperlink ref="B74" r:id="rId332" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0A00-0000A1010000}"/>
-    <hyperlink ref="B75" r:id="rId333" tooltip="Maximum Length of Repeated Subarray" display="https://leetcode.com/problems/maximum-length-of-repeated-subarray" xr:uid="{00000000-0004-0000-0A00-0000A2010000}"/>
-    <hyperlink ref="B76" r:id="rId334" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0A00-0000A3010000}"/>
-    <hyperlink ref="B77" r:id="rId335" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0A00-0000A4010000}"/>
-    <hyperlink ref="B78" r:id="rId336" tooltip="Remove Comments" display="https://leetcode.com/problems/remove-comments" xr:uid="{00000000-0004-0000-0A00-0000A5010000}"/>
-    <hyperlink ref="B79" r:id="rId337" tooltip="Candy Crush" display="https://leetcode.com/problems/candy-crush" xr:uid="{00000000-0004-0000-0A00-0000A6010000}"/>
-    <hyperlink ref="B80" r:id="rId338" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0A00-0000A7010000}"/>
-    <hyperlink ref="B81" r:id="rId339" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0A00-0000A8010000}"/>
-    <hyperlink ref="B82" r:id="rId340" tooltip="Minimum Window Subsequence" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{00000000-0004-0000-0A00-0000A9010000}"/>
-    <hyperlink ref="B83" r:id="rId341" tooltip="My Calendar I" display="https://leetcode.com/problems/my-calendar-i" xr:uid="{00000000-0004-0000-0A00-0000AA010000}"/>
-    <hyperlink ref="B84" r:id="rId342" tooltip="My Calendar II" display="https://leetcode.com/problems/my-calendar-ii" xr:uid="{00000000-0004-0000-0A00-0000AB010000}"/>
-    <hyperlink ref="B85" r:id="rId343" tooltip="My Calendar III" display="https://leetcode.com/problems/my-calendar-iii" xr:uid="{00000000-0004-0000-0A00-0000AC010000}"/>
-    <hyperlink ref="B86" r:id="rId344" tooltip="Flood Fill" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0A00-0000AD010000}"/>
-    <hyperlink ref="B87" r:id="rId345" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0A00-0000AE010000}"/>
-    <hyperlink ref="B88" r:id="rId346" tooltip="Parse Lisp Expression" display="https://leetcode.com/problems/parse-lisp-expression" xr:uid="{00000000-0004-0000-0A00-0000AF010000}"/>
-    <hyperlink ref="B89" r:id="rId347" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0A00-0000B0010000}"/>
-    <hyperlink ref="B90" r:id="rId348" tooltip="Cherry Pickup" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0A00-0000B1010000}"/>
-    <hyperlink ref="B91" r:id="rId349" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0A00-0000B2010000}"/>
-    <hyperlink ref="B92" r:id="rId350" tooltip="Largest Number At Least Twice of Others" display="https://leetcode.com/problems/largest-number-at-least-twice-of-others" xr:uid="{00000000-0004-0000-0A00-0000B3010000}"/>
-    <hyperlink ref="B93" r:id="rId351" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0A00-0000B4010000}"/>
-    <hyperlink ref="B94" r:id="rId352" tooltip="Cracking the Safe" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0A00-0000B5010000}"/>
-    <hyperlink ref="B95" r:id="rId353" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0A00-0000B6010000}"/>
-    <hyperlink ref="B96" r:id="rId354" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0A00-0000B7010000}"/>
-    <hyperlink ref="B97" r:id="rId355" tooltip="Max Chunks To Make Sorted" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0A00-0000B8010000}"/>
-    <hyperlink ref="B98" r:id="rId356" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0A00-0000B9010000}"/>
-    <hyperlink ref="B99" r:id="rId357" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0A00-0000BA010000}"/>
-    <hyperlink ref="B100" r:id="rId358" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0A00-0000BB010000}"/>
-    <hyperlink ref="B101" r:id="rId359" tooltip="Swap Adjacent in LR String" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0A00-0000BC010000}"/>
-    <hyperlink ref="B102" r:id="rId360" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0A00-0000BD010000}"/>
-    <hyperlink ref="B103" r:id="rId361" tooltip="Rotated Digits" display="https://leetcode.com/problems/rotated-digits" xr:uid="{00000000-0004-0000-0A00-0000BE010000}"/>
-    <hyperlink ref="B104" r:id="rId362" tooltip="Custom Sort String" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0A00-0000BF010000}"/>
-    <hyperlink ref="B105" r:id="rId363" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0A00-0000C0010000}"/>
-    <hyperlink ref="B106" r:id="rId364" tooltip="Valid Tic-Tac-Toe State" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0A00-0000C1010000}"/>
-    <hyperlink ref="B107" r:id="rId365" tooltip="Find Eventual Safe States" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0A00-0000C2010000}"/>
-    <hyperlink ref="B108" r:id="rId366" tooltip="Bricks Falling When Hit" display="https://leetcode.com/problems/bricks-falling-when-hit" xr:uid="{00000000-0004-0000-0A00-0000C3010000}"/>
-    <hyperlink ref="B109" r:id="rId367" tooltip="Max Increase to Keep City Skyline" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0A00-0000C4010000}"/>
-    <hyperlink ref="B110" r:id="rId368" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0A00-0000C5010000}"/>
-    <hyperlink ref="B111" r:id="rId369" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0A00-0000C6010000}"/>
-    <hyperlink ref="B112" r:id="rId370" tooltip="Linked List Components" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0A00-0000C7010000}"/>
-    <hyperlink ref="B113" r:id="rId371" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0A00-0000C8010000}"/>
-    <hyperlink ref="B114" r:id="rId372" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0A00-0000C9010000}"/>
-    <hyperlink ref="B115" r:id="rId373" tooltip="Positions of Large Groups" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0A00-0000CA010000}"/>
-    <hyperlink ref="B116" r:id="rId374" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0A00-0000CB010000}"/>
-    <hyperlink ref="B117" r:id="rId375" tooltip="Sum of Distances in Tree" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0A00-0000CC010000}"/>
-    <hyperlink ref="B118" r:id="rId376" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0A00-0000CD010000}"/>
-    <hyperlink ref="B119" r:id="rId377" tooltip="New 21 Game" display="https://leetcode.com/problems/new-21-game" xr:uid="{00000000-0004-0000-0A00-0000CE010000}"/>
-    <hyperlink ref="B120" r:id="rId378" tooltip="Magic Squares In Grid" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0A00-0000CF010000}"/>
-    <hyperlink ref="B121" r:id="rId379" tooltip="Guess the Word" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0A00-0000D0010000}"/>
-    <hyperlink ref="B122" r:id="rId380" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0A00-0000D1010000}"/>
-    <hyperlink ref="B123" r:id="rId381" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0A00-0000D2010000}"/>
-    <hyperlink ref="B124" r:id="rId382" tooltip="Hand of Straights" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0A00-0000D3010000}"/>
-    <hyperlink ref="B125" r:id="rId383" tooltip="Shortest Path Visiting All Nodes" display="https://leetcode.com/problems/shortest-path-visiting-all-nodes" xr:uid="{00000000-0004-0000-0A00-0000D4010000}"/>
-    <hyperlink ref="B126" r:id="rId384" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0A00-0000D5010000}"/>
-    <hyperlink ref="B127" r:id="rId385" tooltip="Rectangle Area II" display="https://leetcode.com/problems/rectangle-area-ii" xr:uid="{00000000-0004-0000-0A00-0000D6010000}"/>
-    <hyperlink ref="B128" r:id="rId386" tooltip="Car Fleet" display="https://leetcode.com/problems/car-fleet" xr:uid="{00000000-0004-0000-0A00-0000D7010000}"/>
-    <hyperlink ref="B130" r:id="rId387" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0A00-0000D9010000}"/>
-    <hyperlink ref="B131" r:id="rId388" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0A00-0000DA010000}"/>
-    <hyperlink ref="B133" r:id="rId389" tooltip="Minimum Number of Refueling Stops" display="https://leetcode.com/problems/minimum-number-of-refueling-stops" xr:uid="{00000000-0004-0000-0A00-0000DC010000}"/>
-    <hyperlink ref="B134" r:id="rId390" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0A00-0000DD010000}"/>
-    <hyperlink ref="B135" r:id="rId391" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0A00-0000DE010000}"/>
-    <hyperlink ref="B136" r:id="rId392" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000DF010000}"/>
-    <hyperlink ref="B137" r:id="rId393" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0A00-0000E0010000}"/>
-    <hyperlink ref="B138" r:id="rId394" tooltip="RLE Iterator" display="https://leetcode.com/problems/rle-iterator" xr:uid="{00000000-0004-0000-0A00-0000E1010000}"/>
-    <hyperlink ref="B139" r:id="rId395" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-0000E2010000}"/>
-    <hyperlink ref="B140" r:id="rId396" tooltip="Fruit Into Baskets" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0A00-0000E3010000}"/>
-    <hyperlink ref="B141" r:id="rId397" tooltip="Sum of Subarray Minimums" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0A00-0000E4010000}"/>
-    <hyperlink ref="B142" r:id="rId398" tooltip="Online Election" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0A00-0000E5010000}"/>
-    <hyperlink ref="B143" r:id="rId399" tooltip="Cat and Mouse" display="https://leetcode.com/problems/cat-and-mouse" xr:uid="{00000000-0004-0000-0A00-0000E6010000}"/>
-    <hyperlink ref="B144" r:id="rId400" tooltip="X of a Kind in a Deck of Cards" display="https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards" xr:uid="{00000000-0004-0000-0A00-0000E7010000}"/>
-    <hyperlink ref="B145" r:id="rId401" tooltip="Minimize Malware Spread" display="https://leetcode.com/problems/minimize-malware-spread" xr:uid="{00000000-0004-0000-0A00-0000E8010000}"/>
-    <hyperlink ref="B146" r:id="rId402" tooltip="Long Pressed Name" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0A00-0000E9010000}"/>
-    <hyperlink ref="B147" r:id="rId403" tooltip="Shortest Bridge" display="https://leetcode.com/problems/shortest-bridge" xr:uid="{00000000-0004-0000-0A00-0000EA010000}"/>
-    <hyperlink ref="B148" r:id="rId404" tooltip="Knight Dialer" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0A00-0000EB010000}"/>
-    <hyperlink ref="B149" r:id="rId405" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-0000EC010000}"/>
-    <hyperlink ref="B150" r:id="rId406" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0A00-0000ED010000}"/>
-    <hyperlink ref="B151" r:id="rId407" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0A00-0000EE010000}"/>
-    <hyperlink ref="B152" r:id="rId408" tooltip="Valid Mountain Array" display="https://leetcode.com/problems/valid-mountain-array" xr:uid="{00000000-0004-0000-0A00-0000EF010000}"/>
-    <hyperlink ref="B153" r:id="rId409" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0A00-0000F0010000}"/>
-    <hyperlink ref="B154" r:id="rId410" tooltip="Most Stones Removed with Same Row or Column" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{00000000-0004-0000-0A00-0000F1010000}"/>
-    <hyperlink ref="B155" r:id="rId411" tooltip="Largest Time for Given Digits" display="https://leetcode.com/problems/largest-time-for-given-digits" xr:uid="{00000000-0004-0000-0A00-0000F2010000}"/>
-    <hyperlink ref="B156" r:id="rId412" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000F3010000}"/>
-    <hyperlink ref="B157" r:id="rId413" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000F4010000}"/>
-    <hyperlink ref="B158" r:id="rId414" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0A00-0000F5010000}"/>
-    <hyperlink ref="B159" r:id="rId415" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0A00-0000F6010000}"/>
-    <hyperlink ref="B160" r:id="rId416" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0A00-0000F7010000}"/>
-    <hyperlink ref="B161" r:id="rId417" tooltip="Odd Even Jump" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{00000000-0004-0000-0A00-0000F8010000}"/>
-    <hyperlink ref="B162" r:id="rId418" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-0000F9010000}"/>
-    <hyperlink ref="B163" r:id="rId419" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FA010000}"/>
-    <hyperlink ref="B164" r:id="rId420" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0A00-0000FB010000}"/>
-    <hyperlink ref="B165" r:id="rId421" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0A00-0000FC010000}"/>
-    <hyperlink ref="B166" r:id="rId422" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0A00-0000FD010000}"/>
-    <hyperlink ref="B167" r:id="rId423" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0A00-0000FE010000}"/>
-    <hyperlink ref="B168" r:id="rId424" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FF010000}"/>
-    <hyperlink ref="B169" r:id="rId425" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0A00-000000020000}"/>
-    <hyperlink ref="B170" r:id="rId426" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0A00-000001020000}"/>
-    <hyperlink ref="B171" r:id="rId427" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0A00-000002020000}"/>
-    <hyperlink ref="B172" r:id="rId428" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-000003020000}"/>
-    <hyperlink ref="B173" r:id="rId429" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0A00-000004020000}"/>
-    <hyperlink ref="B174" r:id="rId430" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0A00-000005020000}"/>
-    <hyperlink ref="B175" r:id="rId431" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0A00-000006020000}"/>
-    <hyperlink ref="B176" r:id="rId432" tooltip="Remove Outermost Parentheses" display="https://leetcode.com/problems/remove-outermost-parentheses" xr:uid="{00000000-0004-0000-0A00-000007020000}"/>
-    <hyperlink ref="B177" r:id="rId433" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0A00-000008020000}"/>
-    <hyperlink ref="B178" r:id="rId434" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0A00-000009020000}"/>
-    <hyperlink ref="B179" r:id="rId435" tooltip="Two City Scheduling" display="https://leetcode.com/problems/two-city-scheduling" xr:uid="{00000000-0004-0000-0A00-00000A020000}"/>
-    <hyperlink ref="B180" r:id="rId436" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-00000B020000}"/>
-    <hyperlink ref="B181" r:id="rId437" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0A00-00000C020000}"/>
-    <hyperlink ref="B182" r:id="rId438" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-00000D020000}"/>
-    <hyperlink ref="B183" r:id="rId439" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0A00-00000E020000}"/>
-    <hyperlink ref="B184" r:id="rId440" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0A00-00000F020000}"/>
-    <hyperlink ref="B185" r:id="rId441" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0A00-000010020000}"/>
-    <hyperlink ref="B186" r:id="rId442" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0A00-000011020000}"/>
-    <hyperlink ref="B187" r:id="rId443" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0A00-000012020000}"/>
-    <hyperlink ref="B188" r:id="rId444" tooltip="Confusing Number" display="https://leetcode.com/problems/confusing-number" xr:uid="{00000000-0004-0000-0A00-000013020000}"/>
-    <hyperlink ref="B189" r:id="rId445" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0A00-000014020000}"/>
-    <hyperlink ref="B190" r:id="rId446" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0A00-000015020000}"/>
-    <hyperlink ref="B191" r:id="rId447" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0A00-000016020000}"/>
-    <hyperlink ref="B192" r:id="rId448" tooltip="Campus Bikes II" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{00000000-0004-0000-0A00-000017020000}"/>
-    <hyperlink ref="B193" r:id="rId449" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0A00-000018020000}"/>
-    <hyperlink ref="B194" r:id="rId450" tooltip="Brace Expansion" display="https://leetcode.com/problems/brace-expansion" xr:uid="{00000000-0004-0000-0A00-000019020000}"/>
-    <hyperlink ref="B195" r:id="rId451" tooltip="Confusing Number II" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{00000000-0004-0000-0A00-00001A020000}"/>
-    <hyperlink ref="B197" r:id="rId452" tooltip="Find in Mountain Array" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0A00-00001C020000}"/>
-    <hyperlink ref="B198" r:id="rId453" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-00001D020000}"/>
-    <hyperlink ref="B199" r:id="rId454" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0A00-00001E020000}"/>
-    <hyperlink ref="B200" r:id="rId455" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0A00-00001F020000}"/>
-    <hyperlink ref="B201" r:id="rId456" tooltip="Smallest Sufficient Team" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0A00-000020020000}"/>
-    <hyperlink ref="B202" r:id="rId457" tooltip="Maximum of Absolute Value Expression" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0A00-000021020000}"/>
-    <hyperlink ref="B203" r:id="rId458" tooltip="Parallel Courses" display="https://leetcode.com/problems/parallel-courses" xr:uid="{00000000-0004-0000-0A00-000022020000}"/>
-    <hyperlink ref="B204" r:id="rId459" tooltip="Alphabet Board Path" display="https://leetcode.com/problems/alphabet-board-path" xr:uid="{00000000-0004-0000-0A00-000023020000}"/>
-    <hyperlink ref="B205" r:id="rId460" tooltip="Stone Game II" display="https://leetcode.com/problems/stone-game-ii" xr:uid="{00000000-0004-0000-0A00-000024020000}"/>
-    <hyperlink ref="B206" r:id="rId461" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0A00-000025020000}"/>
-    <hyperlink ref="B207" r:id="rId462" tooltip="Binary Tree Coloring Game" display="https://leetcode.com/problems/binary-tree-coloring-game" xr:uid="{00000000-0004-0000-0A00-000026020000}"/>
-    <hyperlink ref="B208" r:id="rId463" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0A00-000027020000}"/>
-    <hyperlink ref="B209" r:id="rId464" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0A00-000028020000}"/>
-    <hyperlink ref="B210" r:id="rId465" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000029020000}"/>
-    <hyperlink ref="B211" r:id="rId466" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-00002A020000}"/>
-    <hyperlink ref="B212" r:id="rId467" tooltip="Compare Strings by Frequency of the Smallest Character" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{00000000-0004-0000-0A00-00002B020000}"/>
-    <hyperlink ref="B213" r:id="rId468" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0A00-00002C020000}"/>
-    <hyperlink ref="B214" r:id="rId469" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0A00-00002D020000}"/>
-    <hyperlink ref="B215" r:id="rId470" tooltip="Sort Items by Groups Respecting Dependencies" display="https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies" xr:uid="{00000000-0004-0000-0A00-00002E020000}"/>
-    <hyperlink ref="B216" r:id="rId471" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0A00-00002F020000}"/>
-    <hyperlink ref="B217" r:id="rId472" tooltip="Longest Arithmetic Subsequence of Given Difference" display="https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference" xr:uid="{00000000-0004-0000-0A00-000030020000}"/>
-    <hyperlink ref="B218" r:id="rId473" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0A00-000031020000}"/>
-    <hyperlink ref="B219" r:id="rId474" tooltip="Dice Roll Simulation" display="https://leetcode.com/problems/dice-roll-simulation" xr:uid="{00000000-0004-0000-0A00-000032020000}"/>
-    <hyperlink ref="B220" r:id="rId475" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0A00-000033020000}"/>
-    <hyperlink ref="B221" r:id="rId476" tooltip="Divide Chocolate" display="https://leetcode.com/problems/divide-chocolate" xr:uid="{00000000-0004-0000-0A00-000034020000}"/>
-    <hyperlink ref="B222" r:id="rId477" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-000035020000}"/>
-    <hyperlink ref="B223" r:id="rId478" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000036020000}"/>
-    <hyperlink ref="B224" r:id="rId479" tooltip="Find Positive Integer Solution for a Given Equation" display="https://leetcode.com/problems/find-positive-integer-solution-for-a-given-equation" xr:uid="{00000000-0004-0000-0A00-000037020000}"/>
-    <hyperlink ref="B225" r:id="rId480" tooltip="Tiling a Rectangle with the Fewest Squares" display="https://leetcode.com/problems/tiling-a-rectangle-with-the-fewest-squares" xr:uid="{00000000-0004-0000-0A00-000038020000}"/>
-    <hyperlink ref="B226" r:id="rId481" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-000039020000}"/>
-    <hyperlink ref="B227" r:id="rId482" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0A00-00003A020000}"/>
-    <hyperlink ref="B228" r:id="rId483" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-00003B020000}"/>
-    <hyperlink ref="B229" r:id="rId484" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0A00-00003C020000}"/>
-    <hyperlink ref="B230" r:id="rId485" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0A00-00003D020000}"/>
-    <hyperlink ref="B231" r:id="rId486" tooltip="Count Square Submatrices with All Ones" display="https://leetcode.com/problems/count-square-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00003E020000}"/>
-    <hyperlink ref="B232" r:id="rId487" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00003F020000}"/>
-    <hyperlink ref="B233" r:id="rId488" tooltip="Minimum Number of Flips to Convert Binary Matrix to Zero Matrix" display="https://leetcode.com/problems/minimum-number-of-flips-to-convert-binary-matrix-to-zero-matrix" xr:uid="{00000000-0004-0000-0A00-000040020000}"/>
-    <hyperlink ref="B234" r:id="rId489" tooltip="Maximum Side Length of a Square with Sum Less than or Equal to Threshold" display="https://leetcode.com/problems/maximum-side-length-of-a-square-with-sum-less-than-or-equal-to-threshold" xr:uid="{00000000-0004-0000-0A00-000041020000}"/>
-    <hyperlink ref="B235" r:id="rId490" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0A00-000042020000}"/>
-    <hyperlink ref="B236" r:id="rId491" tooltip="Divide Array in Sets of K Consecutive Numbers" display="https://leetcode.com/problems/divide-array-in-sets-of-k-consecutive-numbers" xr:uid="{00000000-0004-0000-0A00-000043020000}"/>
-    <hyperlink ref="B237" r:id="rId492" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000044020000}"/>
-    <hyperlink ref="B238" r:id="rId493" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0A00-000045020000}"/>
-    <hyperlink ref="B239" r:id="rId494" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0A00-000046020000}"/>
-    <hyperlink ref="B240" r:id="rId495" tooltip="Minimum Distance to Type a Word Using Two Fingers" display="https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers" xr:uid="{00000000-0004-0000-0A00-000047020000}"/>
-    <hyperlink ref="B241" r:id="rId496" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0A00-000048020000}"/>
-    <hyperlink ref="B242" r:id="rId497" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0A00-000049020000}"/>
-    <hyperlink ref="B244" r:id="rId498" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0A00-00004B020000}"/>
-    <hyperlink ref="B245" r:id="rId499" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0A00-00004C020000}"/>
-    <hyperlink ref="B246" r:id="rId500" tooltip="Product of the Last K Numbers" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{00000000-0004-0000-0A00-00004D020000}"/>
-    <hyperlink ref="B247" r:id="rId501" tooltip="Rank Teams by Votes" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{00000000-0004-0000-0A00-00004E020000}"/>
-    <hyperlink ref="B248" r:id="rId502" tooltip="Minimum Cost to Make at Least One Valid Path in a Grid" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{00000000-0004-0000-0A00-00004F020000}"/>
-    <hyperlink ref="B249" r:id="rId503" tooltip="Time Needed to Inform All Employees" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{00000000-0004-0000-0A00-000050020000}"/>
-    <hyperlink ref="B250" r:id="rId504" tooltip="Frog Position After T Seconds" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{00000000-0004-0000-0A00-000051020000}"/>
-    <hyperlink ref="B251" r:id="rId505" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000052020000}"/>
-    <hyperlink ref="B252" r:id="rId506" tooltip="Stone Game III" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{00000000-0004-0000-0A00-000053020000}"/>
-    <hyperlink ref="B253" r:id="rId507" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000054020000}"/>
-    <hyperlink ref="B254" r:id="rId508" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-000055020000}"/>
-    <hyperlink ref="B255" r:id="rId509" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000056020000}"/>
-    <hyperlink ref="B256" r:id="rId510" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000057020000}"/>
-    <hyperlink ref="B257" r:id="rId511" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000058020000}"/>
-    <hyperlink ref="B258" r:id="rId512" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-000059020000}"/>
-    <hyperlink ref="B259" r:id="rId513" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-00005A020000}"/>
-    <hyperlink ref="B260" r:id="rId514" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-00005B020000}"/>
-    <hyperlink ref="B261" r:id="rId515" tooltip="Kth Ancestor of a Tree Node" display="https://leetcode.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{00000000-0004-0000-0A00-00005C020000}"/>
-    <hyperlink ref="B262" r:id="rId516" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00005D020000}"/>
-    <hyperlink ref="B263" r:id="rId517" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00005E020000}"/>
-    <hyperlink ref="B264" r:id="rId518" tooltip="Path with Maximum Probability" display="https://leetcode.com/problems/path-with-maximum-probability" xr:uid="{00000000-0004-0000-0A00-00005F020000}"/>
-    <hyperlink ref="B265" r:id="rId519" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000060020000}"/>
-    <hyperlink ref="B266" r:id="rId520" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000061020000}"/>
-    <hyperlink ref="B267" r:id="rId521" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000062020000}"/>
-    <hyperlink ref="B268" r:id="rId522" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-000063020000}"/>
-    <hyperlink ref="B269" r:id="rId523" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-000064020000}"/>
-    <hyperlink ref="B270" r:id="rId524" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-000065020000}"/>
-    <hyperlink ref="B271" r:id="rId525" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-000066020000}"/>
-    <hyperlink ref="B272" r:id="rId526" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000067020000}"/>
-    <hyperlink ref="B273" r:id="rId527" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000068020000}"/>
+    <hyperlink ref="E225" r:id="rId227" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-00000D010000}"/>
+    <hyperlink ref="E253" r:id="rId228" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-00000F010000}"/>
+    <hyperlink ref="E252" r:id="rId229" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000010010000}"/>
+    <hyperlink ref="E254" r:id="rId230" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000011010000}"/>
+    <hyperlink ref="E255" r:id="rId231" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000012010000}"/>
+    <hyperlink ref="E256" r:id="rId232" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000013010000}"/>
+    <hyperlink ref="E250" r:id="rId233" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000014010000}"/>
+    <hyperlink ref="E259" r:id="rId234" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000015010000}"/>
+    <hyperlink ref="E236" r:id="rId235" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000016010000}"/>
+    <hyperlink ref="E138" r:id="rId236" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-000017010000}"/>
+    <hyperlink ref="E14" r:id="rId237" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0A00-000018010000}"/>
+    <hyperlink ref="E222" r:id="rId238" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000019010000}"/>
+    <hyperlink ref="E221" r:id="rId239" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-00001A010000}"/>
+    <hyperlink ref="E171" r:id="rId240" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-00001B010000}"/>
+    <hyperlink ref="E257" r:id="rId241" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-00001C010000}"/>
+    <hyperlink ref="E61" r:id="rId242" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0A00-00001D010000}"/>
+    <hyperlink ref="E261" r:id="rId243" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00001E010000}"/>
+    <hyperlink ref="E4" r:id="rId244" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0A00-00001F010000}"/>
+    <hyperlink ref="E262" r:id="rId245" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-000020010000}"/>
+    <hyperlink ref="E258" r:id="rId246" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-000021010000}"/>
+    <hyperlink ref="E197" r:id="rId247" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-000022010000}"/>
+    <hyperlink ref="E181" r:id="rId248" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-000023010000}"/>
+    <hyperlink ref="E210" r:id="rId249" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-000024010000}"/>
+    <hyperlink ref="E265" r:id="rId250" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000026010000}"/>
+    <hyperlink ref="E264" r:id="rId251" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000027010000}"/>
+    <hyperlink ref="E266" r:id="rId252" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000028010000}"/>
+    <hyperlink ref="E227" r:id="rId253" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-000029010000}"/>
+    <hyperlink ref="E148" r:id="rId254" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-00002A010000}"/>
+    <hyperlink ref="E268" r:id="rId255" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-00002B010000}"/>
+    <hyperlink ref="E267" r:id="rId256" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-00002C010000}"/>
+    <hyperlink ref="E269" r:id="rId257" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-00002D010000}"/>
+    <hyperlink ref="E231" r:id="rId258" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00002E010000}"/>
+    <hyperlink ref="E270" r:id="rId259" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-00002F010000}"/>
+    <hyperlink ref="E271" r:id="rId260" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000030010000}"/>
+    <hyperlink ref="E272" r:id="rId261" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000031010000}"/>
+    <hyperlink ref="B3" r:id="rId262" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0A00-00005A010000}"/>
+    <hyperlink ref="B4" r:id="rId263" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0A00-00005B010000}"/>
+    <hyperlink ref="B5" r:id="rId264" tooltip="132 Pattern" display="https://leetcode.com/problems/132-pattern" xr:uid="{00000000-0004-0000-0A00-00005C010000}"/>
+    <hyperlink ref="B6" r:id="rId265" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0A00-00005D010000}"/>
+    <hyperlink ref="B7" r:id="rId266" tooltip="LFU Cache" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0A00-00005E010000}"/>
+    <hyperlink ref="B8" r:id="rId267" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0A00-00005F010000}"/>
+    <hyperlink ref="B9" r:id="rId268" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0A00-000060010000}"/>
+    <hyperlink ref="B10" r:id="rId269" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0A00-000061010000}"/>
+    <hyperlink ref="B11" r:id="rId270" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0A00-000062010000}"/>
+    <hyperlink ref="B12" r:id="rId271" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0A00-000063010000}"/>
+    <hyperlink ref="B13" r:id="rId272" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0A00-000064010000}"/>
+    <hyperlink ref="B14" r:id="rId273" tooltip="Increasing Subsequences" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0A00-000065010000}"/>
+    <hyperlink ref="B15" r:id="rId274" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0A00-000066010000}"/>
+    <hyperlink ref="B16" r:id="rId275" tooltip="Next Greater Element I" display="https://leetcode.com/problems/next-greater-element-i" xr:uid="{00000000-0004-0000-0A00-000067010000}"/>
+    <hyperlink ref="B17" r:id="rId276" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0A00-000068010000}"/>
+    <hyperlink ref="B18" r:id="rId277" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0A00-000069010000}"/>
+    <hyperlink ref="B19" r:id="rId278" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0A00-00006A010000}"/>
+    <hyperlink ref="B20" r:id="rId279" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0A00-00006B010000}"/>
+    <hyperlink ref="B21" r:id="rId280" tooltip="Inorder Successor in BST II" display="https://leetcode.com/problems/inorder-successor-in-bst-ii" xr:uid="{00000000-0004-0000-0A00-00006C010000}"/>
+    <hyperlink ref="B22" r:id="rId281" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0A00-00006D010000}"/>
+    <hyperlink ref="B23" r:id="rId282" tooltip="Longest Word in Dictionary through Deleting" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0A00-00006E010000}"/>
+    <hyperlink ref="B24" r:id="rId283" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0A00-00006F010000}"/>
+    <hyperlink ref="B25" r:id="rId284" tooltip="Word Abbreviation" display="https://leetcode.com/problems/word-abbreviation" xr:uid="{00000000-0004-0000-0A00-000070010000}"/>
+    <hyperlink ref="B26" r:id="rId285" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0A00-000071010000}"/>
+    <hyperlink ref="B27" r:id="rId286" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0A00-000072010000}"/>
+    <hyperlink ref="B28" r:id="rId287" tooltip="Encode and Decode TinyURL" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0A00-000073010000}"/>
+    <hyperlink ref="B29" r:id="rId288" tooltip="Single Element in a Sorted Array" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-000074010000}"/>
+    <hyperlink ref="B30" r:id="rId289" tooltip="Diameter of Binary Tree" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0A00-000075010000}"/>
+    <hyperlink ref="B31" r:id="rId290" tooltip="Binary Tree Longest Consecutive Sequence II" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence-ii" xr:uid="{00000000-0004-0000-0A00-000076010000}"/>
+    <hyperlink ref="B32" r:id="rId291" tooltip="Student Attendance Record I" display="https://leetcode.com/problems/student-attendance-record-i" xr:uid="{00000000-0004-0000-0A00-000077010000}"/>
+    <hyperlink ref="B33" r:id="rId292" tooltip="Student Attendance Record II" display="https://leetcode.com/problems/student-attendance-record-ii" xr:uid="{00000000-0004-0000-0A00-000078010000}"/>
+    <hyperlink ref="B34" r:id="rId293" tooltip="Brick Wall" display="https://leetcode.com/problems/brick-wall" xr:uid="{00000000-0004-0000-0A00-000079010000}"/>
+    <hyperlink ref="B35" r:id="rId294" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0A00-00007A010000}"/>
+    <hyperlink ref="B36" r:id="rId295" tooltip="Subarray Sum Equals K" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0A00-00007B010000}"/>
+    <hyperlink ref="B37" r:id="rId296" tooltip="Longest Line of Consecutive One in Matrix" display="https://leetcode.com/problems/longest-line-of-consecutive-one-in-matrix" xr:uid="{00000000-0004-0000-0A00-00007C010000}"/>
+    <hyperlink ref="B38" r:id="rId297" tooltip="Maximum Vacation Days" display="https://leetcode.com/problems/maximum-vacation-days" xr:uid="{00000000-0004-0000-0A00-00007D010000}"/>
+    <hyperlink ref="B40" r:id="rId298" tooltip="Valid Square" display="https://leetcode.com/problems/valid-square" xr:uid="{00000000-0004-0000-0A00-00007F010000}"/>
+    <hyperlink ref="B41" r:id="rId299" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0A00-000080010000}"/>
+    <hyperlink ref="B42" r:id="rId300" tooltip="Merge Two Binary Trees" display="https://leetcode.com/problems/merge-two-binary-trees" xr:uid="{00000000-0004-0000-0A00-000081010000}"/>
+    <hyperlink ref="B44" r:id="rId301" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0A00-000083010000}"/>
+    <hyperlink ref="B45" r:id="rId302" tooltip="Course Schedule III" display="https://leetcode.com/problems/course-schedule-iii" xr:uid="{00000000-0004-0000-0A00-000084010000}"/>
+    <hyperlink ref="B46" r:id="rId303" tooltip="Smallest Range Covering Elements from K Lists" display="https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists" xr:uid="{00000000-0004-0000-0A00-000085010000}"/>
+    <hyperlink ref="B47" r:id="rId304" tooltip="Exclusive Time of Functions" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0A00-000086010000}"/>
+    <hyperlink ref="B48" r:id="rId305" tooltip="Shopping Offers" display="https://leetcode.com/problems/shopping-offers" xr:uid="{00000000-0004-0000-0A00-000087010000}"/>
+    <hyperlink ref="B49" r:id="rId306" tooltip="Decode Ways II" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0A00-000088010000}"/>
+    <hyperlink ref="B50" r:id="rId307" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0A00-000089010000}"/>
+    <hyperlink ref="B51" r:id="rId308" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0A00-00008A010000}"/>
+    <hyperlink ref="B52" r:id="rId309" tooltip="Find Duplicate Subtrees" display="https://leetcode.com/problems/find-duplicate-subtrees" xr:uid="{00000000-0004-0000-0A00-00008B010000}"/>
+    <hyperlink ref="B53" r:id="rId310" tooltip="Maximum Binary Tree" display="https://leetcode.com/problems/maximum-binary-tree" xr:uid="{00000000-0004-0000-0A00-00008C010000}"/>
+    <hyperlink ref="B54" r:id="rId311" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0A00-00008D010000}"/>
+    <hyperlink ref="B55" r:id="rId312" tooltip="Split Array into Consecutive Subsequences" display="https://leetcode.com/problems/split-array-into-consecutive-subsequences" xr:uid="{00000000-0004-0000-0A00-00008E010000}"/>
+    <hyperlink ref="B56" r:id="rId313" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0A00-00008F010000}"/>
+    <hyperlink ref="B57" r:id="rId314" tooltip="Trim a Binary Search Tree" display="https://leetcode.com/problems/trim-a-binary-search-tree" xr:uid="{00000000-0004-0000-0A00-000090010000}"/>
+    <hyperlink ref="B58" r:id="rId315" tooltip="Longest Continuous Increasing Subsequence" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0A00-000091010000}"/>
+    <hyperlink ref="B59" r:id="rId316" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0A00-000092010000}"/>
+    <hyperlink ref="B60" r:id="rId317" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0A00-000093010000}"/>
+    <hyperlink ref="B61" r:id="rId318" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0A00-000094010000}"/>
+    <hyperlink ref="B62" r:id="rId319" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0A00-000095010000}"/>
+    <hyperlink ref="B63" r:id="rId320" tooltip="Redundant Connection" display="https://leetcode.com/problems/redundant-connection" xr:uid="{00000000-0004-0000-0A00-000096010000}"/>
+    <hyperlink ref="B64" r:id="rId321" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0A00-000097010000}"/>
+    <hyperlink ref="B65" r:id="rId322" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0A00-000098010000}"/>
+    <hyperlink ref="B66" r:id="rId323" tooltip="Maximum Sum of 3 Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-3-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-000099010000}"/>
+    <hyperlink ref="B67" r:id="rId324" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0A00-00009A010000}"/>
+    <hyperlink ref="B68" r:id="rId325" tooltip="Top K Frequent Words" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0A00-00009B010000}"/>
+    <hyperlink ref="B69" r:id="rId326" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0A00-00009C010000}"/>
+    <hyperlink ref="B70" r:id="rId327" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0A00-00009D010000}"/>
+    <hyperlink ref="B71" r:id="rId328" tooltip="Search in a Sorted Array of Unknown Size" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0A00-00009E010000}"/>
+    <hyperlink ref="B72" r:id="rId329" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0A00-00009F010000}"/>
+    <hyperlink ref="B73" r:id="rId330" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0A00-0000A0010000}"/>
+    <hyperlink ref="B74" r:id="rId331" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0A00-0000A1010000}"/>
+    <hyperlink ref="B75" r:id="rId332" tooltip="Maximum Length of Repeated Subarray" display="https://leetcode.com/problems/maximum-length-of-repeated-subarray" xr:uid="{00000000-0004-0000-0A00-0000A2010000}"/>
+    <hyperlink ref="B76" r:id="rId333" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0A00-0000A3010000}"/>
+    <hyperlink ref="B77" r:id="rId334" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0A00-0000A4010000}"/>
+    <hyperlink ref="B78" r:id="rId335" tooltip="Remove Comments" display="https://leetcode.com/problems/remove-comments" xr:uid="{00000000-0004-0000-0A00-0000A5010000}"/>
+    <hyperlink ref="B79" r:id="rId336" tooltip="Candy Crush" display="https://leetcode.com/problems/candy-crush" xr:uid="{00000000-0004-0000-0A00-0000A6010000}"/>
+    <hyperlink ref="B80" r:id="rId337" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0A00-0000A7010000}"/>
+    <hyperlink ref="B81" r:id="rId338" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0A00-0000A8010000}"/>
+    <hyperlink ref="B82" r:id="rId339" tooltip="Minimum Window Subsequence" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{00000000-0004-0000-0A00-0000A9010000}"/>
+    <hyperlink ref="B83" r:id="rId340" tooltip="My Calendar I" display="https://leetcode.com/problems/my-calendar-i" xr:uid="{00000000-0004-0000-0A00-0000AA010000}"/>
+    <hyperlink ref="B84" r:id="rId341" tooltip="My Calendar II" display="https://leetcode.com/problems/my-calendar-ii" xr:uid="{00000000-0004-0000-0A00-0000AB010000}"/>
+    <hyperlink ref="B85" r:id="rId342" tooltip="My Calendar III" display="https://leetcode.com/problems/my-calendar-iii" xr:uid="{00000000-0004-0000-0A00-0000AC010000}"/>
+    <hyperlink ref="B86" r:id="rId343" tooltip="Flood Fill" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0A00-0000AD010000}"/>
+    <hyperlink ref="B87" r:id="rId344" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0A00-0000AE010000}"/>
+    <hyperlink ref="B88" r:id="rId345" tooltip="Parse Lisp Expression" display="https://leetcode.com/problems/parse-lisp-expression" xr:uid="{00000000-0004-0000-0A00-0000AF010000}"/>
+    <hyperlink ref="B89" r:id="rId346" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0A00-0000B0010000}"/>
+    <hyperlink ref="B90" r:id="rId347" tooltip="Cherry Pickup" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0A00-0000B1010000}"/>
+    <hyperlink ref="B91" r:id="rId348" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0A00-0000B2010000}"/>
+    <hyperlink ref="B92" r:id="rId349" tooltip="Largest Number At Least Twice of Others" display="https://leetcode.com/problems/largest-number-at-least-twice-of-others" xr:uid="{00000000-0004-0000-0A00-0000B3010000}"/>
+    <hyperlink ref="B93" r:id="rId350" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0A00-0000B4010000}"/>
+    <hyperlink ref="B94" r:id="rId351" tooltip="Cracking the Safe" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0A00-0000B5010000}"/>
+    <hyperlink ref="B95" r:id="rId352" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0A00-0000B6010000}"/>
+    <hyperlink ref="B96" r:id="rId353" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0A00-0000B7010000}"/>
+    <hyperlink ref="B97" r:id="rId354" tooltip="Max Chunks To Make Sorted" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0A00-0000B8010000}"/>
+    <hyperlink ref="B98" r:id="rId355" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0A00-0000B9010000}"/>
+    <hyperlink ref="B99" r:id="rId356" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0A00-0000BA010000}"/>
+    <hyperlink ref="B100" r:id="rId357" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0A00-0000BB010000}"/>
+    <hyperlink ref="B101" r:id="rId358" tooltip="Swap Adjacent in LR String" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0A00-0000BC010000}"/>
+    <hyperlink ref="B102" r:id="rId359" tooltip="Swim in Rising Water" display="https://leetcode.com/problems/swim-in-rising-water" xr:uid="{00000000-0004-0000-0A00-0000BD010000}"/>
+    <hyperlink ref="B103" r:id="rId360" tooltip="Rotated Digits" display="https://leetcode.com/problems/rotated-digits" xr:uid="{00000000-0004-0000-0A00-0000BE010000}"/>
+    <hyperlink ref="B104" r:id="rId361" tooltip="Custom Sort String" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0A00-0000BF010000}"/>
+    <hyperlink ref="B105" r:id="rId362" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0A00-0000C0010000}"/>
+    <hyperlink ref="B106" r:id="rId363" tooltip="Valid Tic-Tac-Toe State" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0A00-0000C1010000}"/>
+    <hyperlink ref="B107" r:id="rId364" tooltip="Find Eventual Safe States" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0A00-0000C2010000}"/>
+    <hyperlink ref="B108" r:id="rId365" tooltip="Bricks Falling When Hit" display="https://leetcode.com/problems/bricks-falling-when-hit" xr:uid="{00000000-0004-0000-0A00-0000C3010000}"/>
+    <hyperlink ref="B109" r:id="rId366" tooltip="Max Increase to Keep City Skyline" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0A00-0000C4010000}"/>
+    <hyperlink ref="B110" r:id="rId367" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0A00-0000C5010000}"/>
+    <hyperlink ref="B111" r:id="rId368" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0A00-0000C6010000}"/>
+    <hyperlink ref="B112" r:id="rId369" tooltip="Linked List Components" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0A00-0000C7010000}"/>
+    <hyperlink ref="B113" r:id="rId370" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0A00-0000C8010000}"/>
+    <hyperlink ref="B114" r:id="rId371" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0A00-0000C9010000}"/>
+    <hyperlink ref="B115" r:id="rId372" tooltip="Positions of Large Groups" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0A00-0000CA010000}"/>
+    <hyperlink ref="B116" r:id="rId373" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0A00-0000CB010000}"/>
+    <hyperlink ref="B117" r:id="rId374" tooltip="Sum of Distances in Tree" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0A00-0000CC010000}"/>
+    <hyperlink ref="B118" r:id="rId375" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0A00-0000CD010000}"/>
+    <hyperlink ref="B119" r:id="rId376" tooltip="New 21 Game" display="https://leetcode.com/problems/new-21-game" xr:uid="{00000000-0004-0000-0A00-0000CE010000}"/>
+    <hyperlink ref="B120" r:id="rId377" tooltip="Magic Squares In Grid" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0A00-0000CF010000}"/>
+    <hyperlink ref="B121" r:id="rId378" tooltip="Guess the Word" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0A00-0000D0010000}"/>
+    <hyperlink ref="B122" r:id="rId379" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0A00-0000D1010000}"/>
+    <hyperlink ref="B123" r:id="rId380" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0A00-0000D2010000}"/>
+    <hyperlink ref="B124" r:id="rId381" tooltip="Hand of Straights" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0A00-0000D3010000}"/>
+    <hyperlink ref="B125" r:id="rId382" tooltip="Shortest Path Visiting All Nodes" display="https://leetcode.com/problems/shortest-path-visiting-all-nodes" xr:uid="{00000000-0004-0000-0A00-0000D4010000}"/>
+    <hyperlink ref="B126" r:id="rId383" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0A00-0000D5010000}"/>
+    <hyperlink ref="B127" r:id="rId384" tooltip="Rectangle Area II" display="https://leetcode.com/problems/rectangle-area-ii" xr:uid="{00000000-0004-0000-0A00-0000D6010000}"/>
+    <hyperlink ref="B128" r:id="rId385" tooltip="Car Fleet" display="https://leetcode.com/problems/car-fleet" xr:uid="{00000000-0004-0000-0A00-0000D7010000}"/>
+    <hyperlink ref="B130" r:id="rId386" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0A00-0000D9010000}"/>
+    <hyperlink ref="B131" r:id="rId387" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0A00-0000DA010000}"/>
+    <hyperlink ref="B133" r:id="rId388" tooltip="Minimum Number of Refueling Stops" display="https://leetcode.com/problems/minimum-number-of-refueling-stops" xr:uid="{00000000-0004-0000-0A00-0000DC010000}"/>
+    <hyperlink ref="B134" r:id="rId389" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0A00-0000DD010000}"/>
+    <hyperlink ref="B135" r:id="rId390" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0A00-0000DE010000}"/>
+    <hyperlink ref="B136" r:id="rId391" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000DF010000}"/>
+    <hyperlink ref="B137" r:id="rId392" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0A00-0000E0010000}"/>
+    <hyperlink ref="B138" r:id="rId393" tooltip="RLE Iterator" display="https://leetcode.com/problems/rle-iterator" xr:uid="{00000000-0004-0000-0A00-0000E1010000}"/>
+    <hyperlink ref="B139" r:id="rId394" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0A00-0000E2010000}"/>
+    <hyperlink ref="B140" r:id="rId395" tooltip="Fruit Into Baskets" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0A00-0000E3010000}"/>
+    <hyperlink ref="B141" r:id="rId396" tooltip="Sum of Subarray Minimums" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0A00-0000E4010000}"/>
+    <hyperlink ref="B142" r:id="rId397" tooltip="Online Election" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0A00-0000E5010000}"/>
+    <hyperlink ref="B143" r:id="rId398" tooltip="Cat and Mouse" display="https://leetcode.com/problems/cat-and-mouse" xr:uid="{00000000-0004-0000-0A00-0000E6010000}"/>
+    <hyperlink ref="B144" r:id="rId399" tooltip="X of a Kind in a Deck of Cards" display="https://leetcode.com/problems/x-of-a-kind-in-a-deck-of-cards" xr:uid="{00000000-0004-0000-0A00-0000E7010000}"/>
+    <hyperlink ref="B145" r:id="rId400" tooltip="Minimize Malware Spread" display="https://leetcode.com/problems/minimize-malware-spread" xr:uid="{00000000-0004-0000-0A00-0000E8010000}"/>
+    <hyperlink ref="B146" r:id="rId401" tooltip="Long Pressed Name" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0A00-0000E9010000}"/>
+    <hyperlink ref="B147" r:id="rId402" tooltip="Shortest Bridge" display="https://leetcode.com/problems/shortest-bridge" xr:uid="{00000000-0004-0000-0A00-0000EA010000}"/>
+    <hyperlink ref="B148" r:id="rId403" tooltip="Knight Dialer" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0A00-0000EB010000}"/>
+    <hyperlink ref="B149" r:id="rId404" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0A00-0000EC010000}"/>
+    <hyperlink ref="B150" r:id="rId405" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0A00-0000ED010000}"/>
+    <hyperlink ref="B151" r:id="rId406" tooltip="Minimum Area Rectangle" display="https://leetcode.com/problems/minimum-area-rectangle" xr:uid="{00000000-0004-0000-0A00-0000EE010000}"/>
+    <hyperlink ref="B152" r:id="rId407" tooltip="Valid Mountain Array" display="https://leetcode.com/problems/valid-mountain-array" xr:uid="{00000000-0004-0000-0A00-0000EF010000}"/>
+    <hyperlink ref="B153" r:id="rId408" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0A00-0000F0010000}"/>
+    <hyperlink ref="B154" r:id="rId409" tooltip="Most Stones Removed with Same Row or Column" display="https://leetcode.com/problems/most-stones-removed-with-same-row-or-column" xr:uid="{00000000-0004-0000-0A00-0000F1010000}"/>
+    <hyperlink ref="B155" r:id="rId410" tooltip="Largest Time for Given Digits" display="https://leetcode.com/problems/largest-time-for-given-digits" xr:uid="{00000000-0004-0000-0A00-0000F2010000}"/>
+    <hyperlink ref="B156" r:id="rId411" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0A00-0000F3010000}"/>
+    <hyperlink ref="B157" r:id="rId412" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000F4010000}"/>
+    <hyperlink ref="B158" r:id="rId413" tooltip="Minimum Area Rectangle II" display="https://leetcode.com/problems/minimum-area-rectangle-ii" xr:uid="{00000000-0004-0000-0A00-0000F5010000}"/>
+    <hyperlink ref="B159" r:id="rId414" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0A00-0000F6010000}"/>
+    <hyperlink ref="B160" r:id="rId415" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0A00-0000F7010000}"/>
+    <hyperlink ref="B161" r:id="rId416" tooltip="Odd Even Jump" display="https://leetcode.com/problems/odd-even-jump" xr:uid="{00000000-0004-0000-0A00-0000F8010000}"/>
+    <hyperlink ref="B162" r:id="rId417" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0A00-0000F9010000}"/>
+    <hyperlink ref="B163" r:id="rId418" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FA010000}"/>
+    <hyperlink ref="B164" r:id="rId419" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0A00-0000FB010000}"/>
+    <hyperlink ref="B165" r:id="rId420" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0A00-0000FC010000}"/>
+    <hyperlink ref="B166" r:id="rId421" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0A00-0000FD010000}"/>
+    <hyperlink ref="B167" r:id="rId422" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0A00-0000FE010000}"/>
+    <hyperlink ref="B168" r:id="rId423" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0A00-0000FF010000}"/>
+    <hyperlink ref="B169" r:id="rId424" tooltip="Add to Array-Form of Integer" display="https://leetcode.com/problems/add-to-array-form-of-integer" xr:uid="{00000000-0004-0000-0A00-000000020000}"/>
+    <hyperlink ref="B170" r:id="rId425" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0A00-000001020000}"/>
+    <hyperlink ref="B171" r:id="rId426" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0A00-000002020000}"/>
+    <hyperlink ref="B172" r:id="rId427" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0A00-000003020000}"/>
+    <hyperlink ref="B173" r:id="rId428" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0A00-000004020000}"/>
+    <hyperlink ref="B174" r:id="rId429" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0A00-000005020000}"/>
+    <hyperlink ref="B175" r:id="rId430" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0A00-000006020000}"/>
+    <hyperlink ref="B176" r:id="rId431" tooltip="Remove Outermost Parentheses" display="https://leetcode.com/problems/remove-outermost-parentheses" xr:uid="{00000000-0004-0000-0A00-000007020000}"/>
+    <hyperlink ref="B177" r:id="rId432" tooltip="Maximum Difference Between Node and Ancestor" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0A00-000008020000}"/>
+    <hyperlink ref="B178" r:id="rId433" tooltip="Longest Arithmetic Subsequence" display="https://leetcode.com/problems/longest-arithmetic-subsequence" xr:uid="{00000000-0004-0000-0A00-000009020000}"/>
+    <hyperlink ref="B179" r:id="rId434" tooltip="Two City Scheduling" display="https://leetcode.com/problems/two-city-scheduling" xr:uid="{00000000-0004-0000-0A00-00000A020000}"/>
+    <hyperlink ref="B180" r:id="rId435" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0A00-00000B020000}"/>
+    <hyperlink ref="B181" r:id="rId436" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0A00-00000C020000}"/>
+    <hyperlink ref="B182" r:id="rId437" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0A00-00000D020000}"/>
+    <hyperlink ref="B183" r:id="rId438" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0A00-00000E020000}"/>
+    <hyperlink ref="B184" r:id="rId439" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0A00-00000F020000}"/>
+    <hyperlink ref="B185" r:id="rId440" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0A00-000010020000}"/>
+    <hyperlink ref="B186" r:id="rId441" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0A00-000011020000}"/>
+    <hyperlink ref="B187" r:id="rId442" tooltip="Shortest Way to Form String" display="https://leetcode.com/problems/shortest-way-to-form-string" xr:uid="{00000000-0004-0000-0A00-000012020000}"/>
+    <hyperlink ref="B188" r:id="rId443" tooltip="Confusing Number" display="https://leetcode.com/problems/confusing-number" xr:uid="{00000000-0004-0000-0A00-000013020000}"/>
+    <hyperlink ref="B189" r:id="rId444" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0A00-000014020000}"/>
+    <hyperlink ref="B190" r:id="rId445" tooltip="Missing Element in Sorted Array" display="https://leetcode.com/problems/missing-element-in-sorted-array" xr:uid="{00000000-0004-0000-0A00-000015020000}"/>
+    <hyperlink ref="B191" r:id="rId446" tooltip="Longest Repeating Substring" display="https://leetcode.com/problems/longest-repeating-substring" xr:uid="{00000000-0004-0000-0A00-000016020000}"/>
+    <hyperlink ref="B192" r:id="rId447" tooltip="Campus Bikes II" display="https://leetcode.com/problems/campus-bikes-ii" xr:uid="{00000000-0004-0000-0A00-000017020000}"/>
+    <hyperlink ref="B193" r:id="rId448" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0A00-000018020000}"/>
+    <hyperlink ref="B194" r:id="rId449" tooltip="Brace Expansion" display="https://leetcode.com/problems/brace-expansion" xr:uid="{00000000-0004-0000-0A00-000019020000}"/>
+    <hyperlink ref="B195" r:id="rId450" tooltip="Confusing Number II" display="https://leetcode.com/problems/confusing-number-ii" xr:uid="{00000000-0004-0000-0A00-00001A020000}"/>
+    <hyperlink ref="B197" r:id="rId451" tooltip="Find in Mountain Array" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0A00-00001C020000}"/>
+    <hyperlink ref="B198" r:id="rId452" tooltip="The Earliest Moment When Everyone Become Friends" display="https://leetcode.com/problems/the-earliest-moment-when-everyone-become-friends" xr:uid="{00000000-0004-0000-0A00-00001D020000}"/>
+    <hyperlink ref="B199" r:id="rId453" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0A00-00001E020000}"/>
+    <hyperlink ref="B200" r:id="rId454" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0A00-00001F020000}"/>
+    <hyperlink ref="B201" r:id="rId455" tooltip="Smallest Sufficient Team" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0A00-000020020000}"/>
+    <hyperlink ref="B202" r:id="rId456" tooltip="Maximum of Absolute Value Expression" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0A00-000021020000}"/>
+    <hyperlink ref="B203" r:id="rId457" tooltip="Parallel Courses" display="https://leetcode.com/problems/parallel-courses" xr:uid="{00000000-0004-0000-0A00-000022020000}"/>
+    <hyperlink ref="B204" r:id="rId458" tooltip="Alphabet Board Path" display="https://leetcode.com/problems/alphabet-board-path" xr:uid="{00000000-0004-0000-0A00-000023020000}"/>
+    <hyperlink ref="B205" r:id="rId459" tooltip="Stone Game II" display="https://leetcode.com/problems/stone-game-ii" xr:uid="{00000000-0004-0000-0A00-000024020000}"/>
+    <hyperlink ref="B206" r:id="rId460" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0A00-000025020000}"/>
+    <hyperlink ref="B207" r:id="rId461" tooltip="Binary Tree Coloring Game" display="https://leetcode.com/problems/binary-tree-coloring-game" xr:uid="{00000000-0004-0000-0A00-000026020000}"/>
+    <hyperlink ref="B208" r:id="rId462" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0A00-000027020000}"/>
+    <hyperlink ref="B209" r:id="rId463" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0A00-000028020000}"/>
+    <hyperlink ref="B210" r:id="rId464" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0A00-000029020000}"/>
+    <hyperlink ref="B211" r:id="rId465" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0A00-00002A020000}"/>
+    <hyperlink ref="B212" r:id="rId466" tooltip="Compare Strings by Frequency of the Smallest Character" display="https://leetcode.com/problems/compare-strings-by-frequency-of-the-smallest-character" xr:uid="{00000000-0004-0000-0A00-00002B020000}"/>
+    <hyperlink ref="B213" r:id="rId467" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0A00-00002C020000}"/>
+    <hyperlink ref="B214" r:id="rId468" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0A00-00002D020000}"/>
+    <hyperlink ref="B215" r:id="rId469" tooltip="Sort Items by Groups Respecting Dependencies" display="https://leetcode.com/problems/sort-items-by-groups-respecting-dependencies" xr:uid="{00000000-0004-0000-0A00-00002E020000}"/>
+    <hyperlink ref="B216" r:id="rId470" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0A00-00002F020000}"/>
+    <hyperlink ref="B217" r:id="rId471" tooltip="Longest Arithmetic Subsequence of Given Difference" display="https://leetcode.com/problems/longest-arithmetic-subsequence-of-given-difference" xr:uid="{00000000-0004-0000-0A00-000030020000}"/>
+    <hyperlink ref="B218" r:id="rId472" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0A00-000031020000}"/>
+    <hyperlink ref="B219" r:id="rId473" tooltip="Dice Roll Simulation" display="https://leetcode.com/problems/dice-roll-simulation" xr:uid="{00000000-0004-0000-0A00-000032020000}"/>
+    <hyperlink ref="B220" r:id="rId474" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0A00-000033020000}"/>
+    <hyperlink ref="B221" r:id="rId475" tooltip="Divide Chocolate" display="https://leetcode.com/problems/divide-chocolate" xr:uid="{00000000-0004-0000-0A00-000034020000}"/>
+    <hyperlink ref="B222" r:id="rId476" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0A00-000035020000}"/>
+    <hyperlink ref="B223" r:id="rId477" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0A00-000036020000}"/>
+    <hyperlink ref="B224" r:id="rId478" tooltip="Find Positive Integer Solution for a Given Equation" display="https://leetcode.com/problems/find-positive-integer-solution-for-a-given-equation" xr:uid="{00000000-0004-0000-0A00-000037020000}"/>
+    <hyperlink ref="B225" r:id="rId479" tooltip="Tiling a Rectangle with the Fewest Squares" display="https://leetcode.com/problems/tiling-a-rectangle-with-the-fewest-squares" xr:uid="{00000000-0004-0000-0A00-000038020000}"/>
+    <hyperlink ref="B226" r:id="rId480" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0A00-000039020000}"/>
+    <hyperlink ref="B227" r:id="rId481" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0A00-00003A020000}"/>
+    <hyperlink ref="B228" r:id="rId482" tooltip="Maximum Score Words Formed by Letters" display="https://leetcode.com/problems/maximum-score-words-formed-by-letters" xr:uid="{00000000-0004-0000-0A00-00003B020000}"/>
+    <hyperlink ref="B229" r:id="rId483" tooltip="Print Immutable Linked List in Reverse" display="https://leetcode.com/problems/print-immutable-linked-list-in-reverse" xr:uid="{00000000-0004-0000-0A00-00003C020000}"/>
+    <hyperlink ref="B230" r:id="rId484" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0A00-00003D020000}"/>
+    <hyperlink ref="B231" r:id="rId485" tooltip="Count Square Submatrices with All Ones" display="https://leetcode.com/problems/count-square-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00003E020000}"/>
+    <hyperlink ref="B232" r:id="rId486" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0A00-00003F020000}"/>
+    <hyperlink ref="B233" r:id="rId487" tooltip="Minimum Number of Flips to Convert Binary Matrix to Zero Matrix" display="https://leetcode.com/problems/minimum-number-of-flips-to-convert-binary-matrix-to-zero-matrix" xr:uid="{00000000-0004-0000-0A00-000040020000}"/>
+    <hyperlink ref="B234" r:id="rId488" tooltip="Maximum Side Length of a Square with Sum Less than or Equal to Threshold" display="https://leetcode.com/problems/maximum-side-length-of-a-square-with-sum-less-than-or-equal-to-threshold" xr:uid="{00000000-0004-0000-0A00-000041020000}"/>
+    <hyperlink ref="B235" r:id="rId489" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0A00-000042020000}"/>
+    <hyperlink ref="B236" r:id="rId490" tooltip="Divide Array in Sets of K Consecutive Numbers" display="https://leetcode.com/problems/divide-array-in-sets-of-k-consecutive-numbers" xr:uid="{00000000-0004-0000-0A00-000043020000}"/>
+    <hyperlink ref="B237" r:id="rId491" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0A00-000044020000}"/>
+    <hyperlink ref="B238" r:id="rId492" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0A00-000045020000}"/>
+    <hyperlink ref="B239" r:id="rId493" tooltip="Matrix Block Sum" display="https://leetcode.com/problems/matrix-block-sum" xr:uid="{00000000-0004-0000-0A00-000046020000}"/>
+    <hyperlink ref="B240" r:id="rId494" tooltip="Minimum Distance to Type a Word Using Two Fingers" display="https://leetcode.com/problems/minimum-distance-to-type-a-word-using-two-fingers" xr:uid="{00000000-0004-0000-0A00-000047020000}"/>
+    <hyperlink ref="B241" r:id="rId495" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0A00-000048020000}"/>
+    <hyperlink ref="B244" r:id="rId496" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0A00-00004B020000}"/>
+    <hyperlink ref="B245" r:id="rId497" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0A00-00004C020000}"/>
+    <hyperlink ref="B246" r:id="rId498" tooltip="Product of the Last K Numbers" display="https://leetcode.com/problems/product-of-the-last-k-numbers" xr:uid="{00000000-0004-0000-0A00-00004D020000}"/>
+    <hyperlink ref="B247" r:id="rId499" tooltip="Rank Teams by Votes" display="https://leetcode.com/problems/rank-teams-by-votes" xr:uid="{00000000-0004-0000-0A00-00004E020000}"/>
+    <hyperlink ref="B248" r:id="rId500" tooltip="Minimum Cost to Make at Least One Valid Path in a Grid" display="https://leetcode.com/problems/minimum-cost-to-make-at-least-one-valid-path-in-a-grid" xr:uid="{00000000-0004-0000-0A00-00004F020000}"/>
+    <hyperlink ref="B249" r:id="rId501" tooltip="Time Needed to Inform All Employees" display="https://leetcode.com/problems/time-needed-to-inform-all-employees" xr:uid="{00000000-0004-0000-0A00-000050020000}"/>
+    <hyperlink ref="B250" r:id="rId502" tooltip="Frog Position After T Seconds" display="https://leetcode.com/problems/frog-position-after-t-seconds" xr:uid="{00000000-0004-0000-0A00-000051020000}"/>
+    <hyperlink ref="B251" r:id="rId503" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0A00-000052020000}"/>
+    <hyperlink ref="B252" r:id="rId504" tooltip="Stone Game III" display="https://leetcode.com/problems/stone-game-iii" xr:uid="{00000000-0004-0000-0A00-000053020000}"/>
+    <hyperlink ref="B253" r:id="rId505" tooltip="Maximum Points You Can Obtain from Cards" display="https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards" xr:uid="{00000000-0004-0000-0A00-000054020000}"/>
+    <hyperlink ref="B254" r:id="rId506" tooltip="Longest Continuous Subarray With Absolute Diff Less Than or Equal to Limit" display="https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit" xr:uid="{00000000-0004-0000-0A00-000055020000}"/>
+    <hyperlink ref="B255" r:id="rId507" tooltip="Build an Array With Stack Operations" display="https://leetcode.com/problems/build-an-array-with-stack-operations" xr:uid="{00000000-0004-0000-0A00-000056020000}"/>
+    <hyperlink ref="B256" r:id="rId508" tooltip="Number of Ways of Cutting a Pizza" display="https://leetcode.com/problems/number-of-ways-of-cutting-a-pizza" xr:uid="{00000000-0004-0000-0A00-000057020000}"/>
+    <hyperlink ref="B257" r:id="rId509" tooltip="Cherry Pickup II" display="https://leetcode.com/problems/cherry-pickup-ii" xr:uid="{00000000-0004-0000-0A00-000058020000}"/>
+    <hyperlink ref="B258" r:id="rId510" tooltip="Reorder Routes to Make All Paths Lead to the City Zero" display="https://leetcode.com/problems/reorder-routes-to-make-all-paths-lead-to-the-city-zero" xr:uid="{00000000-0004-0000-0A00-000059020000}"/>
+    <hyperlink ref="B259" r:id="rId511" tooltip="Shuffle the Array" display="https://leetcode.com/problems/shuffle-the-array" xr:uid="{00000000-0004-0000-0A00-00005A020000}"/>
+    <hyperlink ref="B260" r:id="rId512" tooltip="Find Two Non-overlapping Sub-arrays Each With Target Sum" display="https://leetcode.com/problems/find-two-non-overlapping-sub-arrays-each-with-target-sum" xr:uid="{00000000-0004-0000-0A00-00005B020000}"/>
+    <hyperlink ref="B261" r:id="rId513" tooltip="Kth Ancestor of a Tree Node" display="https://leetcode.com/problems/kth-ancestor-of-a-tree-node" xr:uid="{00000000-0004-0000-0A00-00005C020000}"/>
+    <hyperlink ref="B262" r:id="rId514" tooltip="Max Value of Equation" display="https://leetcode.com/problems/max-value-of-equation" xr:uid="{00000000-0004-0000-0A00-00005D020000}"/>
+    <hyperlink ref="B263" r:id="rId515" tooltip="Count Submatrices With All Ones" display="https://leetcode.com/problems/count-submatrices-with-all-ones" xr:uid="{00000000-0004-0000-0A00-00005E020000}"/>
+    <hyperlink ref="B264" r:id="rId516" tooltip="Path with Maximum Probability" display="https://leetcode.com/problems/path-with-maximum-probability" xr:uid="{00000000-0004-0000-0A00-00005F020000}"/>
+    <hyperlink ref="B265" r:id="rId517" tooltip="The Most Similar Path in a Graph" display="https://leetcode.com/problems/the-most-similar-path-in-a-graph" xr:uid="{00000000-0004-0000-0A00-000060020000}"/>
+    <hyperlink ref="B266" r:id="rId518" tooltip="Minimum Number of Days to Eat N Oranges" display="https://leetcode.com/problems/minimum-number-of-days-to-eat-n-oranges" xr:uid="{00000000-0004-0000-0A00-000061020000}"/>
+    <hyperlink ref="B267" r:id="rId519" tooltip="Rearrange Spaces Between Words" display="https://leetcode.com/problems/rearrange-spaces-between-words" xr:uid="{00000000-0004-0000-0A00-000062020000}"/>
+    <hyperlink ref="B268" r:id="rId520" tooltip="Maximum Number of Visible Points" display="https://leetcode.com/problems/maximum-number-of-visible-points" xr:uid="{00000000-0004-0000-0A00-000063020000}"/>
+    <hyperlink ref="B269" r:id="rId521" tooltip="Split Two Strings to Make Palindrome" display="https://leetcode.com/problems/split-two-strings-to-make-palindrome" xr:uid="{00000000-0004-0000-0A00-000064020000}"/>
+    <hyperlink ref="B270" r:id="rId522" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{00000000-0004-0000-0A00-000065020000}"/>
+    <hyperlink ref="B271" r:id="rId523" tooltip="Furthest Building You Can Reach" display="https://leetcode.com/problems/furthest-building-you-can-reach" xr:uid="{00000000-0004-0000-0A00-000066020000}"/>
+    <hyperlink ref="B272" r:id="rId524" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0A00-000067020000}"/>
+    <hyperlink ref="B273" r:id="rId525" tooltip="Checking Existence of Edge Length Limited Paths" display="https://leetcode.com/problems/checking-existence-of-edge-length-limited-paths" xr:uid="{00000000-0004-0000-0A00-000068020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29644,10 +30354,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F348"/>
+  <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30398,17 +31108,6 @@
         <v>338</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="25">
-        <v>643</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="74" spans="1:3">
       <c r="A74" s="25">
         <v>646</v>
@@ -30906,217 +31605,217 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="25">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>1016</v>
+        <v>414</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>1017</v>
+        <v>415</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="25">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>415</v>
+        <v>869</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="25">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>183</v>
+        <v>199</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="25">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>200</v>
+        <v>652</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="25">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>652</v>
-      </c>
-      <c r="C124" s="22" t="s">
-        <v>244</v>
+        <v>1069</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="25">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="25">
-        <v>779</v>
-      </c>
-      <c r="B126" s="26" t="s">
         <v>1112</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="C125" s="22" t="s">
         <v>669</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="25">
+        <v>787</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="25">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>567</v>
+        <v>796</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="25">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>796</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>127</v>
-      </c>
+        <v>1022</v>
+      </c>
+      <c r="C130" s="29"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="25">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C131" s="29"/>
+        <v>1050</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="25">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="B132" s="26" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>1051</v>
+        <v>848</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="25">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>848</v>
+        <v>1184</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="25">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>1184</v>
+        <v>684</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="25">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>684</v>
+        <v>790</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="25">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>790</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>244</v>
+        <v>730</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="25">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>731</v>
+        <v>1026</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="25">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>1026</v>
+        <v>1071</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>139</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="25">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>1071</v>
+        <v>665</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>552</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="25">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B140" s="26" t="s">
-        <v>665</v>
+        <v>1198</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>408</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="25">
-        <v>829</v>
+        <v>836</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>1198</v>
+        <v>856</v>
       </c>
       <c r="C141" s="22" t="s">
         <v>277</v>
@@ -31124,120 +31823,120 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="25">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="C142" s="22" t="s">
-        <v>277</v>
+        <v>630</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="25">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>630</v>
+        <v>1029</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>631</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="25">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B144" s="26" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>401</v>
+        <v>748</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="25">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>748</v>
-      </c>
-      <c r="C145" s="22" t="s">
-        <v>749</v>
+        <v>395</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="25">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>396</v>
+        <v>852</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="25">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>852</v>
+        <v>754</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>552</v>
+        <v>127</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="25">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>754</v>
+        <v>527</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="25">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="C149" s="22" t="s">
-        <v>190</v>
+        <v>1032</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="25">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>1032</v>
+        <v>871</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>476</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="25">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>871</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>200</v>
+        <v>1045</v>
+      </c>
+      <c r="C151" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="25">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B152" s="26" t="s">
-        <v>1045</v>
+        <v>1084</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>321</v>
@@ -31245,338 +31944,327 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="25">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>321</v>
+        <v>927</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="25">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>927</v>
+        <v>568</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>928</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="25">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>568</v>
+        <v>1116</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>250</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="25">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>129</v>
+        <v>524</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="25">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>524</v>
+        <v>1073</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="25">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>1073</v>
+        <v>1160</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="25">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C159" s="22" t="s">
-        <v>207</v>
+        <v>1070</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="25">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B160" s="26" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>1017</v>
+        <v>599</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="25">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>183</v>
+        <v>513</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="25">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>401</v>
+        <v>532</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="25">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>532</v>
+        <v>1109</v>
+      </c>
+      <c r="C163" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="25">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C164" s="22" t="s">
-        <v>150</v>
+        <v>855</v>
+      </c>
+      <c r="C164" s="27" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="25">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>855</v>
+        <v>883</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>636</v>
+        <v>576</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="25">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>883</v>
-      </c>
-      <c r="C166" s="27" t="s">
-        <v>576</v>
+        <v>519</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="25">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>519</v>
-      </c>
-      <c r="C167" s="22" t="s">
-        <v>127</v>
+        <v>1185</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="25">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>166</v>
+        <v>666</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="25">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>666</v>
+        <v>1074</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="25">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C170" s="22" t="s">
-        <v>244</v>
-      </c>
+        <v>1122</v>
+      </c>
+      <c r="C170" s="29"/>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="25">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C171" s="29"/>
+        <v>1153</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="25">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>1153</v>
+        <v>540</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="25">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="C173" s="22" t="s">
-        <v>127</v>
+        <v>533</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="25">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>533</v>
+        <v>1081</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>534</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="25">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C175" s="27" t="s">
-        <v>120</v>
+        <v>1207</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="25">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>1207</v>
+        <v>1078</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="25">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>1078</v>
+        <v>992</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="25">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>992</v>
-      </c>
-      <c r="C178" s="22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="25">
-        <v>938</v>
-      </c>
-      <c r="B179" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="C179" s="27" t="s">
+      <c r="C178" s="27" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="25">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>900</v>
+        <v>1209</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="25">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>1209</v>
+        <v>872</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="25">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>872</v>
+        <v>541</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="25">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>541</v>
+        <v>1085</v>
       </c>
       <c r="C183" s="22" t="s">
         <v>183</v>
@@ -31584,682 +32272,682 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="25">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>1085</v>
+        <v>542</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="25">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>542</v>
-      </c>
-      <c r="C185" s="22" t="s">
-        <v>150</v>
+        <v>878</v>
+      </c>
+      <c r="C185" s="27" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="25">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>878</v>
+        <v>600</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>756</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="25">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>120</v>
+        <v>545</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="25">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>545</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="25">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>549</v>
+        <v>1087</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>124</v>
+        <v>904</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="25">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>1087</v>
+        <v>629</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>904</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="25">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>629</v>
+        <v>894</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>133</v>
+        <v>895</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="25">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="25">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>884</v>
-      </c>
-      <c r="C193" s="27" t="s">
-        <v>885</v>
+        <v>617</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="25">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>617</v>
+        <v>551</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>174</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="25">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>551</v>
-      </c>
-      <c r="C195" s="22" t="s">
-        <v>552</v>
+        <v>558</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="25">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="25">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>555</v>
+        <v>632</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>556</v>
+        <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="25">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="C198" s="27" t="s">
-        <v>181</v>
+        <v>1086</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="25">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C199" s="22" t="s">
-        <v>244</v>
+        <v>658</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="25">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="C200" s="27" t="s">
-        <v>659</v>
+        <v>1091</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="25">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>592</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="25">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C202" s="22" t="s">
-        <v>174</v>
+        <v>1117</v>
+      </c>
+      <c r="C202" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="25">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>1117</v>
+        <v>560</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="25">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>204</v>
+        <v>1090</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="25">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C205" s="22" t="s">
-        <v>321</v>
+        <v>888</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="25">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>888</v>
-      </c>
-      <c r="C206" s="27" t="s">
-        <v>218</v>
+        <v>562</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="25">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>562</v>
+        <v>958</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="25">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>958</v>
-      </c>
-      <c r="C208" s="22" t="s">
-        <v>127</v>
+        <v>889</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="25">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="C209" s="27" t="s">
-        <v>248</v>
+        <v>1163</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="25">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C210" s="22" t="s">
-        <v>127</v>
+        <v>621</v>
+      </c>
+      <c r="C210" s="27" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="25">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="C211" s="27" t="s">
-        <v>622</v>
+        <v>1097</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="25">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C212" s="22" t="s">
-        <v>150</v>
+        <v>1191</v>
+      </c>
+      <c r="C212" s="27" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="25">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>376</v>
+        <v>921</v>
+      </c>
+      <c r="C213" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="25">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>921</v>
+        <v>578</v>
       </c>
       <c r="C214" s="22" t="s">
-        <v>127</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="25">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="25">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>612</v>
+        <v>985</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>613</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="25">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>985</v>
+        <v>1115</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>277</v>
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="25">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C218" s="22" t="s">
-        <v>174</v>
+        <v>901</v>
+      </c>
+      <c r="C218" s="27" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="25">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>901</v>
+        <v>953</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>902</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="25">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>953</v>
-      </c>
-      <c r="C220" s="27" t="s">
-        <v>645</v>
+        <v>609</v>
+      </c>
+      <c r="C220" s="22" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="25">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>609</v>
-      </c>
-      <c r="C221" s="22" t="s">
-        <v>207</v>
+        <v>905</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="25">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="C222" s="27" t="s">
-        <v>906</v>
+        <v>1148</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="25">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C223" s="22" t="s">
-        <v>174</v>
+        <v>639</v>
+      </c>
+      <c r="C223" s="27" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="25">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>639</v>
+        <v>1120</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="25">
-        <v>1059</v>
+        <v>1071</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C225" s="27" t="s">
-        <v>401</v>
+        <v>1137</v>
+      </c>
+      <c r="C225" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="25">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>139</v>
+        <v>903</v>
+      </c>
+      <c r="C226" s="27" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="25">
-        <v>1074</v>
+        <v>1083</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>903</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>904</v>
-      </c>
+        <v>1119</v>
+      </c>
+      <c r="C227" s="29"/>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="25">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C228" s="29"/>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="25">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C229" s="29"/>
+        <v>1095</v>
+      </c>
+      <c r="C229" s="27" t="s">
+        <v>1096</v>
+      </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="25">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C230" s="27" t="s">
-        <v>1096</v>
+        <v>603</v>
+      </c>
+      <c r="C230" s="22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="25">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>603</v>
+        <v>1203</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>244</v>
+        <v>174</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="25">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>1203</v>
+        <v>586</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="25">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>586</v>
-      </c>
-      <c r="C233" s="22" t="s">
-        <v>321</v>
+        <v>1099</v>
+      </c>
+      <c r="C233" s="27" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="25">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>1099</v>
+        <v>695</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>1100</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="25">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="C235" s="27" t="s">
-        <v>631</v>
-      </c>
+        <v>1204</v>
+      </c>
+      <c r="C235" s="29"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="25">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C236" s="29"/>
+        <v>1127</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="25">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C237" s="22" t="s">
-        <v>139</v>
+        <v>681</v>
+      </c>
+      <c r="C237" s="27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="25">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>681</v>
-      </c>
-      <c r="C238" s="27" t="s">
-        <v>133</v>
-      </c>
+        <v>1123</v>
+      </c>
+      <c r="C238" s="29"/>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="25">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="C239" s="29"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="25">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C240" s="29"/>
+        <v>1104</v>
+      </c>
+      <c r="C240" s="22" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="25">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="25">
-        <v>1120</v>
+        <v>1129</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C242" s="22" t="s">
-        <v>150</v>
+        <v>1125</v>
+      </c>
+      <c r="C242" s="27" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="25">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>1125</v>
+        <v>1139</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>476</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="25">
-        <v>1130</v>
+        <v>1135</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>1139</v>
+        <v>1106</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>1140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="25">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C245" s="27" t="s">
-        <v>288</v>
+        <v>1128</v>
+      </c>
+      <c r="C245" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="25">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>1128</v>
+        <v>614</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>174</v>
@@ -32267,451 +32955,451 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="25">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="25">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="C248" s="22" t="s">
-        <v>127</v>
+        <v>1108</v>
+      </c>
+      <c r="C248" s="27" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="25">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C249" s="27" t="s">
-        <v>1096</v>
+        <v>899</v>
+      </c>
+      <c r="C249" s="22" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="25">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="C250" s="22" t="s">
-        <v>592</v>
+        <v>174</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="25">
-        <v>1155</v>
+        <v>1160</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="C251" s="22" t="s">
-        <v>174</v>
+        <v>1110</v>
+      </c>
+      <c r="C251" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="25">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="25">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>1130</v>
+        <v>625</v>
       </c>
       <c r="C253" s="27" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="25">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>625</v>
-      </c>
-      <c r="C254" s="27" t="s">
-        <v>476</v>
-      </c>
+        <v>1174</v>
+      </c>
+      <c r="C254" s="29"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="25">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C255" s="29"/>
+        <v>1138</v>
+      </c>
+      <c r="C255" s="27" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="25">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C256" s="27" t="s">
-        <v>570</v>
+        <v>1129</v>
+      </c>
+      <c r="C256" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="25">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>1129</v>
+        <v>1169</v>
       </c>
       <c r="C257" s="22" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="25">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C258" s="22" t="s">
-        <v>229</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="C258" s="29"/>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="25">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="C259" s="29"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="25">
-        <v>1188</v>
+        <v>1192</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C260" s="29"/>
+        <v>954</v>
+      </c>
+      <c r="C260" s="22" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="25">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>954</v>
+        <v>602</v>
       </c>
       <c r="C261" s="22" t="s">
-        <v>408</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="25">
-        <v>1197</v>
+        <v>1209</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="C262" s="22" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="25">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>663</v>
+        <v>1113</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>207</v>
+        <v>613</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="25">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C264" s="22" t="s">
-        <v>613</v>
+        <v>585</v>
+      </c>
+      <c r="C264" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="25">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="C265" s="27" t="s">
-        <v>145</v>
+        <v>920</v>
+      </c>
+      <c r="C265" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="25">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="C266" s="22" t="s">
-        <v>135</v>
+        <v>1145</v>
+      </c>
+      <c r="C266" s="27" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="25">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C267" s="27" t="s">
-        <v>654</v>
+        <v>925</v>
+      </c>
+      <c r="C267" s="22" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="25">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>925</v>
-      </c>
-      <c r="C268" s="22" t="s">
-        <v>926</v>
+        <v>604</v>
+      </c>
+      <c r="C268" s="27" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="25">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>604</v>
+        <v>976</v>
       </c>
       <c r="C269" s="27" t="s">
-        <v>605</v>
+        <v>977</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="25">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C270" s="27" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="29">
       <c r="A271" s="25">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>975</v>
+        <v>1195</v>
       </c>
       <c r="C271" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="29">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="25">
-        <v>1239</v>
+        <v>1244</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>1195</v>
+        <v>963</v>
       </c>
       <c r="C272" s="27" t="s">
-        <v>1103</v>
+        <v>964</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="25">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>963</v>
+        <v>626</v>
       </c>
       <c r="C273" s="27" t="s">
-        <v>964</v>
+        <v>250</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="25">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>626</v>
+        <v>1149</v>
       </c>
       <c r="C274" s="27" t="s">
-        <v>250</v>
+        <v>654</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="25">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C275" s="27" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="25">
-        <v>1248</v>
-      </c>
-      <c r="B276" s="26" t="s">
         <v>1143</v>
       </c>
-      <c r="C276" s="22" t="s">
+      <c r="C275" s="22" t="s">
         <v>552</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="25">
+        <v>1254</v>
+      </c>
+      <c r="B277" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C277" s="22" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="25">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>657</v>
+        <v>1194</v>
       </c>
       <c r="C278" s="22" t="s">
-        <v>408</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="25">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C279" s="22" t="s">
-        <v>135</v>
+        <v>671</v>
+      </c>
+      <c r="C279" s="27" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="25">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>671</v>
+        <v>1154</v>
       </c>
       <c r="C280" s="27" t="s">
-        <v>672</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="25">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C281" s="27" t="s">
-        <v>1155</v>
+        <v>1136</v>
+      </c>
+      <c r="C281" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="25">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C282" s="22" t="s">
-        <v>139</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="C282" s="29"/>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="25">
-        <v>1270</v>
+        <v>1275</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>934</v>
-      </c>
-      <c r="C283" s="29"/>
+        <v>648</v>
+      </c>
+      <c r="C283" s="22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="25">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>648</v>
+        <v>999</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="25">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>999</v>
-      </c>
-      <c r="C285" s="22" t="s">
-        <v>190</v>
-      </c>
+        <v>1156</v>
+      </c>
+      <c r="C285" s="29"/>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="25">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C286" s="29"/>
+        <v>1214</v>
+      </c>
+      <c r="C286" s="22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="25">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>1214</v>
+        <v>936</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="25">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>936</v>
+        <v>1124</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="25">
-        <v>1299</v>
+        <v>1304</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>1124</v>
+        <v>1168</v>
       </c>
       <c r="C289" s="22" t="s">
         <v>127</v>
@@ -32719,530 +33407,514 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="25">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C290" s="22" t="s">
-        <v>127</v>
+        <v>627</v>
+      </c>
+      <c r="C290" s="27" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="25">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>627</v>
+        <v>1141</v>
       </c>
       <c r="C291" s="27" t="s">
-        <v>628</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="25">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C292" s="27" t="s">
-        <v>1142</v>
+        <v>974</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="25">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>974</v>
+        <v>911</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="25">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="C294" s="22" t="s">
-        <v>127</v>
+        <v>1126</v>
+      </c>
+      <c r="C294" s="27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="25">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C295" s="27" t="s">
-        <v>133</v>
-      </c>
+        <v>1208</v>
+      </c>
+      <c r="C295" s="29"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="25">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C296" s="29"/>
+        <v>945</v>
+      </c>
+      <c r="C296" s="22" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="25">
-        <v>1325</v>
-      </c>
-      <c r="B297" s="26" t="s">
-        <v>945</v>
-      </c>
-      <c r="C297" s="22" t="s">
-        <v>150</v>
-      </c>
+      <c r="C297" s="27"/>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="25">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="B298" s="26" t="s">
-        <v>962</v>
-      </c>
-      <c r="C298" s="27" t="s">
-        <v>590</v>
+        <v>1190</v>
+      </c>
+      <c r="C298" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="25">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="C299" s="22" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="25">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C300" s="22" t="s">
-        <v>127</v>
+        <v>1164</v>
+      </c>
+      <c r="C300" s="27" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="25">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C301" s="27" t="s">
-        <v>756</v>
+        <v>960</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="25">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>960</v>
+        <v>677</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="25">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B303" s="26" t="s">
-        <v>677</v>
+        <v>939</v>
       </c>
       <c r="C303" s="22" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="25">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B304" s="26" t="s">
-        <v>939</v>
+        <v>1165</v>
       </c>
       <c r="C304" s="22" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="25">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C305" s="22" t="s">
-        <v>139</v>
+        <v>1150</v>
+      </c>
+      <c r="C305" s="27" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="25">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="B306" s="26" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C306" s="27" t="s">
-        <v>248</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C306" s="29"/>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="25">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="C307" s="29"/>
+        <v>1158</v>
+      </c>
+      <c r="C307" s="27" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="25">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="B308" s="26" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="C308" s="27" t="s">
-        <v>164</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="25">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C309" s="27" t="s">
-        <v>1147</v>
+        <v>1161</v>
+      </c>
+      <c r="C309" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="25">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="B310" s="26" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C310" s="22" t="s">
-        <v>127</v>
+        <v>1205</v>
+      </c>
+      <c r="C310" s="27" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="25">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C311" s="27" t="s">
-        <v>220</v>
+        <v>689</v>
+      </c>
+      <c r="C311" s="22" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="25">
-        <v>1382</v>
+        <v>1395</v>
       </c>
       <c r="B312" s="26" t="s">
-        <v>689</v>
+        <v>972</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>613</v>
+        <v>127</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="25">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="B313" s="26" t="s">
-        <v>972</v>
-      </c>
-      <c r="C313" s="22" t="s">
-        <v>127</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="C313" s="29"/>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="25">
-        <v>1398</v>
+        <v>1405</v>
       </c>
       <c r="B314" s="26" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C314" s="29"/>
+        <v>1176</v>
+      </c>
+      <c r="C314" s="27" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="25">
-        <v>1405</v>
+        <v>1416</v>
       </c>
       <c r="B315" s="26" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C315" s="27" t="s">
-        <v>590</v>
+        <v>1201</v>
+      </c>
+      <c r="C315" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="25">
-        <v>1416</v>
+        <v>1429</v>
       </c>
       <c r="B316" s="26" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C316" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>670</v>
+      </c>
+      <c r="C316" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="29">
       <c r="A317" s="25">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="C317" s="27" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="29">
+        <v>1171</v>
+      </c>
+      <c r="C317" s="22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="25">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B318" s="26" t="s">
-        <v>1171</v>
+        <v>1178</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="25">
-        <v>1431</v>
+        <v>1448</v>
       </c>
       <c r="B319" s="26" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C319" s="22" t="s">
-        <v>127</v>
+        <v>1192</v>
+      </c>
+      <c r="C319" s="27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="25">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>1192</v>
+        <v>1172</v>
       </c>
       <c r="C320" s="27" t="s">
-        <v>133</v>
+        <v>804</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="25">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="B321" s="26" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C321" s="27" t="s">
-        <v>804</v>
-      </c>
+        <v>1175</v>
+      </c>
+      <c r="C321" s="29"/>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="25">
-        <v>1454</v>
+        <v>1478</v>
       </c>
       <c r="B322" s="26" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C322" s="29"/>
+        <v>1179</v>
+      </c>
+      <c r="C322" s="27" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="25">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B323" s="26" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C323" s="27" t="s">
-        <v>376</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="C323" s="29"/>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="25">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B324" s="26" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C324" s="29"/>
+        <v>1183</v>
+      </c>
+      <c r="C324" s="22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="25">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B325" s="26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C325" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
+        <v>1202</v>
+      </c>
+      <c r="C325" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="29">
       <c r="A326" s="25">
-        <v>1481</v>
+        <v>1505</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C326" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="29">
+        <v>1199</v>
+      </c>
+      <c r="C326" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="25">
-        <v>1505</v>
+        <v>1512</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C327" s="22" t="s">
-        <v>321</v>
+        <v>1188</v>
+      </c>
+      <c r="C327" s="27" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="25">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="B328" s="26" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C328" s="27" t="s">
-        <v>1189</v>
+        <v>1182</v>
+      </c>
+      <c r="C328" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="25">
-        <v>1520</v>
+        <v>1539</v>
       </c>
       <c r="B329" s="26" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C329" s="22" t="s">
-        <v>321</v>
+        <v>691</v>
+      </c>
+      <c r="C329" s="27" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="25">
-        <v>1539</v>
+        <v>1571</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="C330" s="27" t="s">
-        <v>164</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="C330" s="29"/>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="25">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="B331" s="26" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C331" s="29"/>
+        <v>1186</v>
+      </c>
+      <c r="C331" s="27" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="25">
-        <v>1574</v>
+        <v>1597</v>
       </c>
       <c r="B332" s="26" t="s">
-        <v>1186</v>
+        <v>1206</v>
       </c>
       <c r="C332" s="27" t="s">
-        <v>248</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="25">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="B333" s="26" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C333" s="27" t="s">
-        <v>439</v>
+        <v>1193</v>
+      </c>
+      <c r="C333" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="25">
-        <v>1603</v>
+        <v>1615</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>1193</v>
+        <v>1213</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>187</v>
+        <v>592</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="25">
-        <v>1615</v>
+        <v>1628</v>
       </c>
       <c r="B335" s="26" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C335" s="22" t="s">
-        <v>592</v>
+        <v>1210</v>
+      </c>
+      <c r="C335" s="27" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="25">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C336" s="27" t="s">
-        <v>1211</v>
+        <v>1212</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="25">
-        <v>1629</v>
+        <v>1710</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C337" s="22" t="s">
-        <v>127</v>
+        <v>1215</v>
+      </c>
+      <c r="C337" s="27" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="A338" s="25">
-        <v>1710</v>
-      </c>
-      <c r="B338" s="26" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C338" s="27" t="s">
-        <v>451</v>
-      </c>
+      <c r="C338" s="27"/>
     </row>
     <row r="339" spans="1:3">
       <c r="C339" s="27"/>
@@ -33250,30 +33922,27 @@
     <row r="340" spans="1:3">
       <c r="C340" s="27"/>
     </row>
-    <row r="341" spans="1:3">
-      <c r="C341" s="27"/>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="C343" s="27"/>
+    <row r="342" spans="1:3">
+      <c r="C342" s="27"/>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="C344" s="22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="C345" s="22" t="s">
-        <v>135</v>
-      </c>
+      <c r="C345" s="27"/>
     </row>
     <row r="346" spans="1:3">
-      <c r="C346" s="27"/>
+      <c r="C346" s="28"/>
     </row>
     <row r="347" spans="1:3">
-      <c r="C347" s="28"/>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="C348" s="27"/>
+      <c r="C347" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F352" xr:uid="{00000000-0009-0000-0000-00000B000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F620">
-      <sortCondition ref="A2:A620"/>
+  <autoFilter ref="A1:F351" xr:uid="{00000000-0009-0000-0000-00000B000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F619">
+      <sortCondition ref="A2:A619"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -33283,329 +33952,325 @@
     <hyperlink ref="B42" r:id="rId4" tooltip="Boundary of Binary Tree" display="https://leetcode.com/problems/boundary-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000004000000}"/>
     <hyperlink ref="B93" r:id="rId5" tooltip="Top K Frequent Words" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0B00-000005000000}"/>
     <hyperlink ref="B62" r:id="rId6" tooltip="Merge Two Binary Trees" display="https://leetcode.com/problems/merge-two-binary-trees" xr:uid="{00000000-0004-0000-0B00-000006000000}"/>
-    <hyperlink ref="B120" r:id="rId7" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B112" r:id="rId8" tooltip="Flood Fill" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
-    <hyperlink ref="B110" r:id="rId9" tooltip="Minimum Window Subsequence" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
-    <hyperlink ref="B90" r:id="rId10" tooltip="Longest Univalue Path" display="https://leetcode.com/problems/longest-univalue-path" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
-    <hyperlink ref="B31" r:id="rId11" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
-    <hyperlink ref="B94" r:id="rId12" tooltip="Number of Distinct Islands" display="https://leetcode.com/problems/number-of-distinct-islands" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
-    <hyperlink ref="B77" r:id="rId13" tooltip="Find Duplicate Subtrees" display="https://leetcode.com/problems/find-duplicate-subtrees" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
-    <hyperlink ref="B131" r:id="rId14" tooltip="Rotate String" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
-    <hyperlink ref="B73" r:id="rId15" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
-    <hyperlink ref="B37" r:id="rId16" tooltip="Encode and Decode TinyURL" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0B00-000016000000}"/>
-    <hyperlink ref="B23" r:id="rId17" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
-    <hyperlink ref="B68" r:id="rId18" tooltip="Smallest Range Covering Elements from K Lists" display="https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists" xr:uid="{00000000-0004-0000-0B00-000018000000}"/>
-    <hyperlink ref="B138" r:id="rId19" tooltip="Most Common Word" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0B00-00001A000000}"/>
-    <hyperlink ref="B78" r:id="rId20" tooltip="Two Sum IV - Input is a BST" display="https://leetcode.com/problems/two-sum-iv-input-is-a-bst" xr:uid="{00000000-0004-0000-0B00-00001B000000}"/>
-    <hyperlink ref="B129" r:id="rId21" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0B00-00001C000000}"/>
-    <hyperlink ref="B69" r:id="rId22" tooltip="Exclusive Time of Functions" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0B00-00001D000000}"/>
-    <hyperlink ref="B59" r:id="rId23" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0B00-00001E000000}"/>
-    <hyperlink ref="B13" r:id="rId24" tooltip="Concatenated Words" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0B00-00001F000000}"/>
-    <hyperlink ref="B115" r:id="rId25" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0B00-000020000000}"/>
-    <hyperlink ref="B145" r:id="rId26" tooltip="Guess the Word" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0B00-000021000000}"/>
-    <hyperlink ref="B144" r:id="rId27" tooltip="Keys and Rooms" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0B00-000022000000}"/>
-    <hyperlink ref="B150" r:id="rId28" tooltip="K-Similar Strings" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0B00-000024000000}"/>
-    <hyperlink ref="B66" r:id="rId29" tooltip="Exchange Seats" display="https://leetcode.com/problems/exchange-seats" xr:uid="{00000000-0004-0000-0B00-000026000000}"/>
-    <hyperlink ref="B84" r:id="rId30" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0B00-000027000000}"/>
-    <hyperlink ref="B70" r:id="rId31" tooltip="Average of Levels in Binary Tree" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000028000000}"/>
-    <hyperlink ref="B55" r:id="rId32" tooltip="Design In-Memory File System" display="https://leetcode.com/problems/design-in-memory-file-system" xr:uid="{00000000-0004-0000-0B00-000029000000}"/>
-    <hyperlink ref="B19" r:id="rId33" tooltip="The Maze" display="https://leetcode.com/problems/the-maze" xr:uid="{00000000-0004-0000-0B00-00002A000000}"/>
-    <hyperlink ref="B111" r:id="rId34" tooltip="My Calendar I" display="https://leetcode.com/problems/my-calendar-i" xr:uid="{00000000-0004-0000-0B00-00002B000000}"/>
-    <hyperlink ref="B95" r:id="rId35" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0B00-00002C000000}"/>
-    <hyperlink ref="B40" r:id="rId36" tooltip="01 Matrix" display="https://leetcode.com/problems/01-matrix" xr:uid="{00000000-0004-0000-0B00-00002E000000}"/>
-    <hyperlink ref="B79" r:id="rId37" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0B00-00002F000000}"/>
-    <hyperlink ref="B41" r:id="rId38" tooltip="Diameter of Binary Tree" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000033000000}"/>
-    <hyperlink ref="B75" r:id="rId39" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0B00-000034000000}"/>
-    <hyperlink ref="B67" r:id="rId40" tooltip="Maximum Product of Three Numbers" display="https://leetcode.com/problems/maximum-product-of-three-numbers" xr:uid="{00000000-0004-0000-0B00-000035000000}"/>
-    <hyperlink ref="B8" r:id="rId41" tooltip="LFU Cache" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0B00-000038000000}"/>
-    <hyperlink ref="B26" r:id="rId42" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0B00-00003A000000}"/>
-    <hyperlink ref="B9" r:id="rId43" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0B00-00003C000000}"/>
-    <hyperlink ref="B71" r:id="rId44" tooltip="Solve the Equation" display="https://leetcode.com/problems/solve-the-equation" xr:uid="{00000000-0004-0000-0B00-00003D000000}"/>
-    <hyperlink ref="B142" r:id="rId45" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0B00-00003F000000}"/>
-    <hyperlink ref="B46" r:id="rId46" tooltip="Reverse Words in a String III" display="https://leetcode.com/problems/reverse-words-in-a-string-iii" xr:uid="{00000000-0004-0000-0B00-000041000000}"/>
-    <hyperlink ref="B108" r:id="rId47" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0B00-000043000000}"/>
-    <hyperlink ref="B72" r:id="rId48" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0B00-000044000000}"/>
-    <hyperlink ref="B152" r:id="rId49" tooltip="Lemonade Change" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0B00-000045000000}"/>
-    <hyperlink ref="B155" r:id="rId50" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046000000}"/>
-    <hyperlink ref="B4" r:id="rId51" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0B00-000047000000}"/>
-    <hyperlink ref="B76" r:id="rId52" tooltip="2 Keys Keyboard" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0B00-000048000000}"/>
-    <hyperlink ref="B6" r:id="rId53" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0B00-000049000000}"/>
-    <hyperlink ref="B83" r:id="rId54" tooltip="Cut Off Trees for Golf Event" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0B00-00004B000000}"/>
-    <hyperlink ref="B106" r:id="rId55" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0B00-00004C000000}"/>
-    <hyperlink ref="B122" r:id="rId56" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0B00-00004D000000}"/>
-    <hyperlink ref="B123" r:id="rId57" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0B00-00004E000000}"/>
-    <hyperlink ref="B132" r:id="rId58" tooltip="All Paths From Source to Target" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{00000000-0004-0000-0B00-00004F000000}"/>
-    <hyperlink ref="B98" r:id="rId59" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0B00-000050000000}"/>
-    <hyperlink ref="B51" r:id="rId60" tooltip="Find Cumulative Salary of an Employee" display="https://leetcode.com/problems/find-cumulative-salary-of-an-employee" xr:uid="{00000000-0004-0000-0B00-000051000000}"/>
-    <hyperlink ref="B116" r:id="rId61" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0B00-000052000000}"/>
-    <hyperlink ref="B65" r:id="rId62" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0B00-000053000000}"/>
-    <hyperlink ref="B27" r:id="rId63" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0B00-000057000000}"/>
-    <hyperlink ref="B21" r:id="rId64" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0B00-000058000000}"/>
-    <hyperlink ref="B20" r:id="rId65" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0B00-00005A000000}"/>
-    <hyperlink ref="B49" r:id="rId66" tooltip="Managers with at Least 5 Direct Reports" display="https://leetcode.com/problems/managers-with-at-least-5-direct-reports" xr:uid="{00000000-0004-0000-0B00-00005B000000}"/>
-    <hyperlink ref="B86" r:id="rId67" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
-    <hyperlink ref="B87" r:id="rId68" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0B00-00005D000000}"/>
-    <hyperlink ref="B88" r:id="rId69" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0B00-00005E000000}"/>
-    <hyperlink ref="B25" r:id="rId70" tooltip="IPO" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0B00-00005F000000}"/>
-    <hyperlink ref="B16" r:id="rId71" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0B00-000060000000}"/>
-    <hyperlink ref="B82" r:id="rId72" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0B00-000061000000}"/>
-    <hyperlink ref="B92" r:id="rId73" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0B00-000062000000}"/>
-    <hyperlink ref="B32" r:id="rId74" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0B00-000064000000}"/>
-    <hyperlink ref="B54" r:id="rId75" tooltip="Customer Placing the Largest Number of Orders" display="https://leetcode.com/problems/customer-placing-the-largest-number-of-orders" xr:uid="{00000000-0004-0000-0B00-000065000000}"/>
-    <hyperlink ref="B7" r:id="rId76" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0B00-000068000000}"/>
-    <hyperlink ref="B36" r:id="rId77" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0B00-00006C000000}"/>
-    <hyperlink ref="B44" r:id="rId78" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0B00-00006E000000}"/>
-    <hyperlink ref="B48" r:id="rId79" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0B00-000070000000}"/>
-    <hyperlink ref="B57" r:id="rId80" tooltip="Human Traffic of Stadium" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0B00-000072000000}"/>
-    <hyperlink ref="B10" r:id="rId81" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0B00-000073000000}"/>
-    <hyperlink ref="B121" r:id="rId82" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0B00-000074000000}"/>
-    <hyperlink ref="B74" r:id="rId83" tooltip="Maximum Length of Pair Chain" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0B00-000075000000}"/>
-    <hyperlink ref="B80" r:id="rId84" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000076000000}"/>
-    <hyperlink ref="B125" r:id="rId85" tooltip="Global and Local Inversions" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0B00-000077000000}"/>
-    <hyperlink ref="B160" r:id="rId86" tooltip="Boats to Save People" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0B00-000078000000}"/>
-    <hyperlink ref="B105" r:id="rId87" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0B00-00007D000000}"/>
-    <hyperlink ref="B139" r:id="rId88" tooltip="Most Profit Assigning Work" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0B00-00007F000000}"/>
-    <hyperlink ref="B102" r:id="rId89" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0B00-000080000000}"/>
-    <hyperlink ref="B33" r:id="rId90" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0B00-000081000000}"/>
-    <hyperlink ref="B91" r:id="rId91" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0B00-000082000000}"/>
-    <hyperlink ref="B148" r:id="rId92" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0B00-000083000000}"/>
-    <hyperlink ref="B15" r:id="rId93" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0B00-000084000000}"/>
-    <hyperlink ref="B17" r:id="rId94" tooltip="Predict the Winner" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0B00-000085000000}"/>
-    <hyperlink ref="B158" r:id="rId95" tooltip="Middle of the Linked List" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0B00-000086000000}"/>
-    <hyperlink ref="B100" r:id="rId96" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0B00-000087000000}"/>
-    <hyperlink ref="B18" r:id="rId97" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0B00-000088000000}"/>
-    <hyperlink ref="B136" r:id="rId98" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0B00-000089000000}"/>
-    <hyperlink ref="B151" r:id="rId99" tooltip="Score of Parentheses" display="https://leetcode.com/problems/score-of-parentheses" xr:uid="{00000000-0004-0000-0B00-00008A000000}"/>
-    <hyperlink ref="B170" r:id="rId100" tooltip="Snakes and Ladders" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0B00-00008B000000}"/>
-    <hyperlink ref="B60" r:id="rId101" tooltip="Valid Triangle Number" display="https://leetcode.com/problems/valid-triangle-number" xr:uid="{00000000-0004-0000-0B00-00008D000000}"/>
-    <hyperlink ref="B104" r:id="rId102" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0B00-00008E000000}"/>
-    <hyperlink ref="B149" r:id="rId103" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0B00-00008F000000}"/>
-    <hyperlink ref="B147" r:id="rId104" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0B00-000090000000}"/>
-    <hyperlink ref="B177" r:id="rId105" tooltip="Minimum Falling Path Sum" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0B00-000091000000}"/>
-    <hyperlink ref="B114" r:id="rId106" tooltip="Sentence Similarity II" display="https://leetcode.com/problems/sentence-similarity-ii" xr:uid="{00000000-0004-0000-0B00-000092000000}"/>
-    <hyperlink ref="B154" r:id="rId107" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0B00-000093000000}"/>
-    <hyperlink ref="B178" r:id="rId108" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0B00-000094000000}"/>
-    <hyperlink ref="B101" r:id="rId109" tooltip="Design Linked List" display="https://leetcode.com/problems/design-linked-list" xr:uid="{00000000-0004-0000-0B00-000096000000}"/>
-    <hyperlink ref="B45" r:id="rId110" tooltip="Next Greater Element III" display="https://leetcode.com/problems/next-greater-element-iii" xr:uid="{00000000-0004-0000-0B00-000097000000}"/>
-    <hyperlink ref="B85" r:id="rId111" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0B00-000098000000}"/>
-    <hyperlink ref="B140" r:id="rId112" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0B00-000099000000}"/>
-    <hyperlink ref="B175" r:id="rId113" tooltip="Sort Array By Parity II" display="https://leetcode.com/problems/sort-array-by-parity-ii" xr:uid="{00000000-0004-0000-0B00-00009A000000}"/>
-    <hyperlink ref="B135" r:id="rId114" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0B00-00009C000000}"/>
-    <hyperlink ref="B35" r:id="rId115" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0B00-00009D000000}"/>
-    <hyperlink ref="B180" r:id="rId116" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="B153" r:id="rId117" tooltip="Score After Flipping Matrix" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0B00-0000A0000000}"/>
-    <hyperlink ref="B184" r:id="rId118" tooltip="Prison Cells After N Days" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0B00-0000A1000000}"/>
-    <hyperlink ref="B119" r:id="rId119" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0B00-0000A2000000}"/>
-    <hyperlink ref="B130" r:id="rId120" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0B00-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId121" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0B00-0000A4000000}"/>
-    <hyperlink ref="B188" r:id="rId122" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0B00-0000A6000000}"/>
-    <hyperlink ref="B24" r:id="rId123" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-0000A7000000}"/>
-    <hyperlink ref="B173" r:id="rId124" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0B00-0000A9000000}"/>
-    <hyperlink ref="B29" r:id="rId125" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0B00-0000AA000000}"/>
-    <hyperlink ref="B189" r:id="rId126" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0B00-0000AB000000}"/>
-    <hyperlink ref="B191" r:id="rId127" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000AC000000}"/>
-    <hyperlink ref="B192" r:id="rId128" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0B00-0000AD000000}"/>
-    <hyperlink ref="B194" r:id="rId129" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0B00-0000AE000000}"/>
-    <hyperlink ref="B197" r:id="rId130" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0B00-0000AF000000}"/>
-    <hyperlink ref="B143" r:id="rId131" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0B00-0000B0000000}"/>
-    <hyperlink ref="B199" r:id="rId132" tooltip="Rotting Oranges" display="https://leetcode.com/problems/rotting-oranges" xr:uid="{00000000-0004-0000-0B00-0000B1000000}"/>
-    <hyperlink ref="B30" r:id="rId133" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0B00-0000B2000000}"/>
-    <hyperlink ref="B47" r:id="rId134" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0B00-0000B3000000}"/>
-    <hyperlink ref="B124" r:id="rId135" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0B00-0000B4000000}"/>
-    <hyperlink ref="B190" r:id="rId136" tooltip="Longest Turbulent Subarray" display="https://leetcode.com/problems/longest-turbulent-subarray" xr:uid="{00000000-0004-0000-0B00-0000B5000000}"/>
-    <hyperlink ref="B28" r:id="rId137" tooltip="Perfect Number" display="https://leetcode.com/problems/perfect-number" xr:uid="{00000000-0004-0000-0B00-0000B6000000}"/>
-    <hyperlink ref="B196" r:id="rId138" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B7000000}"/>
-    <hyperlink ref="B198" r:id="rId139" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B8000000}"/>
-    <hyperlink ref="B204" r:id="rId140" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0B00-0000B9000000}"/>
-    <hyperlink ref="B99" r:id="rId141" tooltip="Binary Search" display="https://leetcode.com/problems/binary-search" xr:uid="{00000000-0004-0000-0B00-0000BC000000}"/>
-    <hyperlink ref="B182" r:id="rId142" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0B00-0000BD000000}"/>
-    <hyperlink ref="B205" r:id="rId143" tooltip="Maximize Sum Of Array After K Negations" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0B00-0000BE000000}"/>
-    <hyperlink ref="B201" r:id="rId144" tooltip="Find the Town Judge" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0B00-0000BF000000}"/>
-    <hyperlink ref="B103" r:id="rId145" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
-    <hyperlink ref="B207" r:id="rId146" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000C2000000}"/>
-    <hyperlink ref="B208" r:id="rId147" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0B00-0000C3000000}"/>
-    <hyperlink ref="B230" r:id="rId148" tooltip="High Five" display="https://leetcode.com/problems/high-five" xr:uid="{00000000-0004-0000-0B00-0000C4000000}"/>
-    <hyperlink ref="B211" r:id="rId149" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0B00-0000C5000000}"/>
-    <hyperlink ref="B212" r:id="rId150" tooltip="Sum of Root To Leaf Binary Numbers" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0B00-0000C6000000}"/>
-    <hyperlink ref="B234" r:id="rId151" tooltip="Find K-Length Substrings With No Repeated Characters" display="https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters" xr:uid="{00000000-0004-0000-0B00-0000C7000000}"/>
-    <hyperlink ref="B39" r:id="rId152" tooltip="Reverse String II" display="https://leetcode.com/problems/reverse-string-ii" xr:uid="{00000000-0004-0000-0B00-0000C8000000}"/>
-    <hyperlink ref="B241" r:id="rId153" tooltip="Remove Vowels from a String" display="https://leetcode.com/problems/remove-vowels-from-a-string" xr:uid="{00000000-0004-0000-0B00-0000CA000000}"/>
-    <hyperlink ref="B242" r:id="rId154" tooltip="Maximum Average Subtree" display="https://leetcode.com/problems/maximum-average-subtree" xr:uid="{00000000-0004-0000-0B00-0000CB000000}"/>
-    <hyperlink ref="B146" r:id="rId155" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0B00-0000CC000000}"/>
-    <hyperlink ref="B209" r:id="rId156" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0B00-0000CD000000}"/>
-    <hyperlink ref="B235" r:id="rId157" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0B00-0000CE000000}"/>
-    <hyperlink ref="B245" r:id="rId158" tooltip="Connecting Cities With Minimum Cost" display="https://leetcode.com/problems/connecting-cities-with-minimum-cost" xr:uid="{00000000-0004-0000-0B00-0000CF000000}"/>
-    <hyperlink ref="B202" r:id="rId159" tooltip="Minimum Cost to Merge Stones" display="https://leetcode.com/problems/minimum-cost-to-merge-stones" xr:uid="{00000000-0004-0000-0B00-0000D0000000}"/>
-    <hyperlink ref="B249" r:id="rId160" tooltip="Analyze User Website Visit Pattern" display="https://leetcode.com/problems/analyze-user-website-visit-pattern" xr:uid="{00000000-0004-0000-0B00-0000D1000000}"/>
-    <hyperlink ref="B34" r:id="rId161" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0B00-0000D2000000}"/>
-    <hyperlink ref="B164" r:id="rId162" tooltip="Construct Binary Tree from Preorder and Postorder Traversal" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000D3000000}"/>
-    <hyperlink ref="B252" r:id="rId163" tooltip="Find Words That Can Be Formed by Characters" display="https://leetcode.com/problems/find-words-that-can-be-formed-by-characters" xr:uid="{00000000-0004-0000-0B00-0000D4000000}"/>
-    <hyperlink ref="B216" r:id="rId164" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0B00-0000D5000000}"/>
-    <hyperlink ref="B89" r:id="rId165" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0B00-0000D6000000}"/>
-    <hyperlink ref="B219" r:id="rId166" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0B00-0000D7000000}"/>
-    <hyperlink ref="B109" r:id="rId167" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0B00-0000D8000000}"/>
-    <hyperlink ref="B163" r:id="rId168" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0B00-0000DA000000}"/>
-    <hyperlink ref="B126" r:id="rId169" tooltip="K-th Symbol in Grammar" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0B00-0000DB000000}"/>
-    <hyperlink ref="B195" r:id="rId170" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0B00-0000DC000000}"/>
-    <hyperlink ref="B215" r:id="rId171" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0B00-0000DD000000}"/>
-    <hyperlink ref="B264" r:id="rId172" tooltip="Two Sum BSTs" display="https://leetcode.com/problems/two-sum-bsts" xr:uid="{00000000-0004-0000-0B00-0000DE000000}"/>
-    <hyperlink ref="B63" r:id="rId173" tooltip="Students Report By Geography" display="https://leetcode.com/problems/students-report-by-geography" xr:uid="{00000000-0004-0000-0B00-0000DF000000}"/>
-    <hyperlink ref="B218" r:id="rId174" tooltip="Partition Array for Maximum Sum" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0B00-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId175" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0B00-0000E1000000}"/>
-    <hyperlink ref="B96" r:id="rId176" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0B00-0000E2000000}"/>
-    <hyperlink ref="B137" r:id="rId177" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0B00-0000E3000000}"/>
-    <hyperlink ref="B156" r:id="rId178" tooltip="Length of Longest Fibonacci Subsequence" display="https://leetcode.com/problems/length-of-longest-fibonacci-subsequence" xr:uid="{00000000-0004-0000-0B00-0000E4000000}"/>
-    <hyperlink ref="B203" r:id="rId179" tooltip="Find Common Characters" display="https://leetcode.com/problems/find-common-characters" xr:uid="{00000000-0004-0000-0B00-0000E5000000}"/>
-    <hyperlink ref="B161" r:id="rId180" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0B00-0000E6000000}"/>
-    <hyperlink ref="B179" r:id="rId181" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0B00-0000E7000000}"/>
-    <hyperlink ref="B229" r:id="rId182" tooltip="Sales Analysis III" display="https://leetcode.com/problems/sales-analysis-iii" xr:uid="{00000000-0004-0000-0B00-0000E8000000}"/>
-    <hyperlink ref="B228" r:id="rId183" tooltip="Sales Analysis II" display="https://leetcode.com/problems/sales-analysis-ii" xr:uid="{00000000-0004-0000-0B00-0000E9000000}"/>
-    <hyperlink ref="B225" r:id="rId184" tooltip="All Paths from Source Lead to Destination" display="https://leetcode.com/problems/all-paths-from-source-lead-to-destination" xr:uid="{00000000-0004-0000-0B00-0000EA000000}"/>
-    <hyperlink ref="B117" r:id="rId185" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0B00-0000EB000000}"/>
-    <hyperlink ref="B224" r:id="rId186" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0B00-0000EC000000}"/>
-    <hyperlink ref="B231" r:id="rId187" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0B00-0000ED000000}"/>
-    <hyperlink ref="B56" r:id="rId188" tooltip="N-ary Tree Postorder Traversal" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000EE000000}"/>
-    <hyperlink ref="B171" r:id="rId189" tooltip="Sort an Array" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0B00-0000EF000000}"/>
-    <hyperlink ref="B183" r:id="rId190" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0B00-0000F0000000}"/>
-    <hyperlink ref="B113" r:id="rId191" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0B00-0000F1000000}"/>
-    <hyperlink ref="B233" r:id="rId192" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0B00-0000F2000000}"/>
-    <hyperlink ref="B239" r:id="rId193" tooltip="Print in Order" display="https://leetcode.com/problems/print-in-order" xr:uid="{00000000-0004-0000-0B00-0000F3000000}"/>
-    <hyperlink ref="B289" r:id="rId194" tooltip="Replace Elements with Greatest Element on Right Side" display="https://leetcode.com/problems/replace-elements-with-greatest-element-on-right-side" xr:uid="{00000000-0004-0000-0B00-0000F4000000}"/>
-    <hyperlink ref="B220" r:id="rId195" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0B00-0000F5000000}"/>
-    <hyperlink ref="B243" r:id="rId196" tooltip="Shortest Path with Alternating Colors" display="https://leetcode.com/problems/shortest-path-with-alternating-colors" xr:uid="{00000000-0004-0000-0B00-0000F6000000}"/>
-    <hyperlink ref="B187" r:id="rId197" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0B00-0000F7000000}"/>
-    <hyperlink ref="B295" r:id="rId198" tooltip="Sum of Nodes with Even-Valued Grandparent" display="https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent" xr:uid="{00000000-0004-0000-0B00-0000F8000000}"/>
-    <hyperlink ref="B185" r:id="rId199" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000F9000000}"/>
-    <hyperlink ref="B206" r:id="rId200" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0B00-0000FA000000}"/>
-    <hyperlink ref="B237" r:id="rId201" tooltip="Defanging an IP Address" display="https://leetcode.com/problems/defanging-an-ip-address" xr:uid="{00000000-0004-0000-0B00-0000FB000000}"/>
-    <hyperlink ref="B221" r:id="rId202" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0B00-0000FC000000}"/>
-    <hyperlink ref="B251" r:id="rId203" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0B00-0000FD000000}"/>
-    <hyperlink ref="B254" r:id="rId204" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0B00-0000FE000000}"/>
-    <hyperlink ref="B246" r:id="rId205" tooltip="Largest 1-Bordered Square" display="https://leetcode.com/problems/largest-1-bordered-square" xr:uid="{00000000-0004-0000-0B00-0000FF000000}"/>
-    <hyperlink ref="B312" r:id="rId206" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-000000010000}"/>
-    <hyperlink ref="B257" r:id="rId207" tooltip="Minimum Cost to Connect Sticks" display="https://leetcode.com/problems/minimum-cost-to-connect-sticks" xr:uid="{00000000-0004-0000-0B00-000001010000}"/>
-    <hyperlink ref="B253" r:id="rId208" tooltip="Maximum Level Sum of a Binary Tree" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-000002010000}"/>
-    <hyperlink ref="B247" r:id="rId209" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
-    <hyperlink ref="B259" r:id="rId210" tooltip="Reformat Department Table" display="https://leetcode.com/problems/reformat-department-table" xr:uid="{00000000-0004-0000-0B00-000004010000}"/>
-    <hyperlink ref="B193" r:id="rId211" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0B00-000005010000}"/>
-    <hyperlink ref="B261" r:id="rId212" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0B00-000006010000}"/>
-    <hyperlink ref="B238" r:id="rId213" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0B00-000008010000}"/>
-    <hyperlink ref="B317" r:id="rId214" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0B00-000009010000}"/>
-    <hyperlink ref="B81" r:id="rId215" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0B00-00000A010000}"/>
-    <hyperlink ref="B107" r:id="rId216" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0B00-00000B010000}"/>
-    <hyperlink ref="B271" r:id="rId217" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0B00-00000C010000}"/>
-    <hyperlink ref="B250" r:id="rId218" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0B00-00000E010000}"/>
-    <hyperlink ref="B268" r:id="rId219" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0B00-00000F010000}"/>
-    <hyperlink ref="B5" r:id="rId220" tooltip="Minimum Moves to Equal Array Elements" display="https://leetcode.com/problems/minimum-moves-to-equal-array-elements" xr:uid="{00000000-0004-0000-0B00-000010010000}"/>
-    <hyperlink ref="B260" r:id="rId221" tooltip="Design Bounded Blocking Queue" display="https://leetcode.com/problems/design-bounded-blocking-queue" xr:uid="{00000000-0004-0000-0B00-000011010000}"/>
-    <hyperlink ref="B282" r:id="rId222" tooltip="Search Suggestions System" display="https://leetcode.com/problems/search-suggestions-system" xr:uid="{00000000-0004-0000-0B00-000012010000}"/>
-    <hyperlink ref="B226" r:id="rId223" tooltip="Greatest Common Divisor of Strings" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0B00-000013010000}"/>
-    <hyperlink ref="B273" r:id="rId224" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0B00-000014010000}"/>
-    <hyperlink ref="B266" r:id="rId225" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0B00-000015010000}"/>
-    <hyperlink ref="B256" r:id="rId226" tooltip="Design File System" display="https://leetcode.com/problems/design-file-system" xr:uid="{00000000-0004-0000-0B00-000016010000}"/>
-    <hyperlink ref="B157" r:id="rId227" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0B00-000017010000}"/>
-    <hyperlink ref="B214" r:id="rId228" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0B00-000018010000}"/>
-    <hyperlink ref="B262" r:id="rId229" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0B00-000019010000}"/>
-    <hyperlink ref="B278" r:id="rId230" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0B00-00001A010000}"/>
-    <hyperlink ref="B291" r:id="rId231" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0B00-00001C010000}"/>
-    <hyperlink ref="B244" r:id="rId232" tooltip="Minimum Cost Tree From Leaf Values" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0B00-00001D010000}"/>
-    <hyperlink ref="B292" r:id="rId233" tooltip="Get Watched Videos by Your Friends" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{00000000-0004-0000-0B00-00001E010000}"/>
-    <hyperlink ref="B284" r:id="rId234" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0B00-00001F010000}"/>
-    <hyperlink ref="B297" r:id="rId235" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0B00-000020010000}"/>
-    <hyperlink ref="B276" r:id="rId236" tooltip="Count Number of Nice Subarrays" display="https://leetcode.com/problems/count-number-of-nice-subarrays" xr:uid="{00000000-0004-0000-0B00-000021010000}"/>
-    <hyperlink ref="B280" r:id="rId237" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0B00-000022010000}"/>
-    <hyperlink ref="B14" r:id="rId238" tooltip="Matchsticks to Square" display="https://leetcode.com/problems/matchsticks-to-square" xr:uid="{00000000-0004-0000-0B00-000024010000}"/>
-    <hyperlink ref="B267" r:id="rId239" tooltip="Split a String in Balanced Strings" display="https://leetcode.com/problems/split-a-string-in-balanced-strings" xr:uid="{00000000-0004-0000-0B00-000025010000}"/>
-    <hyperlink ref="B309" r:id="rId240" tooltip="Maximum Sum BST in Binary Tree" display="https://leetcode.com/problems/maximum-sum-bst-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000026010000}"/>
-    <hyperlink ref="B223" r:id="rId241" tooltip="Last Stone Weight II" display="https://leetcode.com/problems/last-stone-weight-ii" xr:uid="{00000000-0004-0000-0B00-000027010000}"/>
-    <hyperlink ref="B248" r:id="rId242" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0B00-000028010000}"/>
-    <hyperlink ref="B275" r:id="rId243" tooltip="Minimum Swaps to Make Strings Equal" display="https://leetcode.com/problems/minimum-swaps-to-make-strings-equal" xr:uid="{00000000-0004-0000-0B00-000029010000}"/>
-    <hyperlink ref="B293" r:id="rId244" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0B00-00002A010000}"/>
-    <hyperlink ref="B306" r:id="rId245" tooltip="Count Negative Numbers in a Sorted Matrix" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0B00-00002B010000}"/>
-    <hyperlink ref="B53" r:id="rId246" tooltip="Find Customer Referee" display="https://leetcode.com/problems/find-customer-referee" xr:uid="{00000000-0004-0000-0B00-00002C010000}"/>
-    <hyperlink ref="B269" r:id="rId247" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0B00-00002D010000}"/>
-    <hyperlink ref="B283" r:id="rId248" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0B00-00002E010000}"/>
-    <hyperlink ref="B303" r:id="rId249" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0B00-00002F010000}"/>
-    <hyperlink ref="B186" r:id="rId250" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0B00-000030010000}"/>
-    <hyperlink ref="B200" r:id="rId251" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0B00-000031010000}"/>
-    <hyperlink ref="B240" r:id="rId252" tooltip="Building H2O" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0B00-000032010000}"/>
-    <hyperlink ref="B172" r:id="rId253" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
-    <hyperlink ref="B307" r:id="rId254" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0B00-000034010000}"/>
-    <hyperlink ref="B281" r:id="rId255" tooltip="Count Servers that Communicate" display="https://leetcode.com/problems/count-servers-that-communicate" xr:uid="{00000000-0004-0000-0B00-000035010000}"/>
-    <hyperlink ref="B286" r:id="rId256" tooltip="Find the Start and End Number of Continuous Ranges" display="https://leetcode.com/problems/find-the-start-and-end-number-of-continuous-ranges" xr:uid="{00000000-0004-0000-0B00-000036010000}"/>
-    <hyperlink ref="B302" r:id="rId257" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0B00-000038010000}"/>
-    <hyperlink ref="B308" r:id="rId258" tooltip="How Many Numbers Are Smaller Than the Current Number" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{00000000-0004-0000-0B00-000039010000}"/>
-    <hyperlink ref="B174" r:id="rId259" tooltip="Minimum Add to Make Parentheses Valid" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid" xr:uid="{00000000-0004-0000-0B00-00003A010000}"/>
-    <hyperlink ref="B313" r:id="rId260" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0B00-00003B010000}"/>
-    <hyperlink ref="B159" r:id="rId261" tooltip="Decoded String at Index" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0B00-00003C010000}"/>
-    <hyperlink ref="B222" r:id="rId262" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0B00-00003D010000}"/>
-    <hyperlink ref="B133" r:id="rId263" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0B00-00003E010000}"/>
-    <hyperlink ref="B274" r:id="rId264" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0B00-00003F010000}"/>
-    <hyperlink ref="B310" r:id="rId265" tooltip="Bulb Switcher III" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{00000000-0004-0000-0B00-000040010000}"/>
-    <hyperlink ref="B169" r:id="rId266" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0B00-000041010000}"/>
-    <hyperlink ref="B314" r:id="rId267" tooltip="Customers Who Bought Products A and B but Not C" display="https://leetcode.com/problems/customers-who-bought-products-a-and-b-but-not-c" xr:uid="{00000000-0004-0000-0B00-000042010000}"/>
-    <hyperlink ref="B285" r:id="rId268" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0B00-000043010000}"/>
-    <hyperlink ref="B210" r:id="rId269" tooltip="Partition Array Into Three Parts With Equal Sum" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0B00-000045010000}"/>
-    <hyperlink ref="B301" r:id="rId270" tooltip="Maximum Product of Splitted Binary Tree" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046010000}"/>
-    <hyperlink ref="B305" r:id="rId271" tooltip="Minimum Number of Steps to Make Two Strings Anagram" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{00000000-0004-0000-0B00-000047010000}"/>
-    <hyperlink ref="B118" r:id="rId272" tooltip="Pyramid Transition Matrix" display="https://leetcode.com/problems/pyramid-transition-matrix" xr:uid="{00000000-0004-0000-0B00-000048010000}"/>
-    <hyperlink ref="B290" r:id="rId273" tooltip="Find N Unique Integers Sum up to Zero" display="https://leetcode.com/problems/find-n-unique-integers-sum-up-to-zero" xr:uid="{00000000-0004-0000-0B00-000049010000}"/>
-    <hyperlink ref="B258" r:id="rId274" tooltip="Remove Zero Sum Consecutive Nodes from Linked List" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list" xr:uid="{00000000-0004-0000-0B00-00004A010000}"/>
-    <hyperlink ref="B58" r:id="rId275" tooltip="Friend Requests II: Who Has the Most Friends" display="https://leetcode.com/problems/friend-requests-ii-who-has-the-most-friends" xr:uid="{00000000-0004-0000-0B00-00004B010000}"/>
-    <hyperlink ref="B318" r:id="rId276" tooltip="Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree" display="https://leetcode.com/problems/check-if-a-string-is-a-valid-sequence-from-root-to-leaves-path-in-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-00004C010000}"/>
-    <hyperlink ref="B321" r:id="rId277" tooltip="Rearrange Words in a Sentence" display="https://leetcode.com/problems/rearrange-words-in-a-sentence" xr:uid="{00000000-0004-0000-0B00-00004E010000}"/>
-    <hyperlink ref="B255" r:id="rId278" tooltip="Product Price at a Given Date" display="https://leetcode.com/problems/product-price-at-a-given-date" xr:uid="{00000000-0004-0000-0B00-00004F010000}"/>
-    <hyperlink ref="B322" r:id="rId279" tooltip="Active Users" display="https://leetcode.com/problems/active-users" xr:uid="{00000000-0004-0000-0B00-000050010000}"/>
-    <hyperlink ref="B288" r:id="rId280" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0B00-000051010000}"/>
-    <hyperlink ref="B315" r:id="rId281" tooltip="Longest Happy String" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{00000000-0004-0000-0B00-000052010000}"/>
-    <hyperlink ref="B324" r:id="rId282" tooltip="Sales by Day of the Week" display="https://leetcode.com/problems/sales-by-day-of-the-week" xr:uid="{00000000-0004-0000-0B00-000053010000}"/>
-    <hyperlink ref="B319" r:id="rId283" tooltip="Kids With the Greatest Number of Candies" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies" xr:uid="{00000000-0004-0000-0B00-000054010000}"/>
-    <hyperlink ref="B323" r:id="rId284" tooltip="Allocate Mailboxes" display="https://leetcode.com/problems/allocate-mailboxes" xr:uid="{00000000-0004-0000-0B00-000055010000}"/>
-    <hyperlink ref="B11" r:id="rId285" tooltip="Count The Repetitions" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0B00-000056010000}"/>
-    <hyperlink ref="B162" r:id="rId286" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0B00-000057010000}"/>
-    <hyperlink ref="B329" r:id="rId287" tooltip="Maximum Number of Non-Overlapping Substrings" display="https://leetcode.com/problems/maximum-number-of-non-overlapping-substrings" xr:uid="{00000000-0004-0000-0B00-000058010000}"/>
-    <hyperlink ref="B12" r:id="rId288" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0B00-000059010000}"/>
-    <hyperlink ref="B165" r:id="rId289" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0B00-00005A010000}"/>
-    <hyperlink ref="B325" r:id="rId290" tooltip="Running Sum of 1d Array" display="https://leetcode.com/problems/running-sum-of-1d-array" xr:uid="{00000000-0004-0000-0B00-00005B010000}"/>
-    <hyperlink ref="B298" r:id="rId291" tooltip="Minimum Number of Taps to Open to Water a Garden" display="https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden" xr:uid="{00000000-0004-0000-0B00-00005C010000}"/>
-    <hyperlink ref="B134" r:id="rId292" tooltip="Largest Sum of Averages" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0B00-00005D010000}"/>
-    <hyperlink ref="B168" r:id="rId293" tooltip="Increasing Order Search Tree" display="https://leetcode.com/problems/increasing-order-search-tree" xr:uid="{00000000-0004-0000-0B00-00005E010000}"/>
-    <hyperlink ref="B332" r:id="rId294" tooltip="Shortest Subarray to be Removed to Make Array Sorted" display="https://leetcode.com/problems/shortest-subarray-to-be-removed-to-make-array-sorted" xr:uid="{00000000-0004-0000-0B00-00005F010000}"/>
-    <hyperlink ref="B61" r:id="rId295" tooltip="Average Salary: Departments VS Company" display="https://leetcode.com/problems/average-salary-departments-vs-company" xr:uid="{00000000-0004-0000-0B00-000060010000}"/>
-    <hyperlink ref="B167" r:id="rId296" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0B00-000061010000}"/>
-    <hyperlink ref="B265" r:id="rId297" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0B00-000062010000}"/>
-    <hyperlink ref="B328" r:id="rId298" tooltip="Number of Good Pairs" display="https://leetcode.com/problems/number-of-good-pairs" xr:uid="{00000000-0004-0000-0B00-000063010000}"/>
-    <hyperlink ref="B299" r:id="rId299" tooltip="Break a Palindrome" display="https://leetcode.com/problems/break-a-palindrome" xr:uid="{00000000-0004-0000-0B00-000064010000}"/>
-    <hyperlink ref="B213" r:id="rId300" tooltip="Divisor Game" display="https://leetcode.com/problems/divisor-game" xr:uid="{00000000-0004-0000-0B00-000065010000}"/>
-    <hyperlink ref="B320" r:id="rId301" tooltip="Count Good Nodes in Binary Tree" display="https://leetcode.com/problems/count-good-nodes-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000066010000}"/>
-    <hyperlink ref="B334" r:id="rId302" tooltip="Design Parking System" display="https://leetcode.com/problems/design-parking-system" xr:uid="{00000000-0004-0000-0B00-000067010000}"/>
-    <hyperlink ref="B279" r:id="rId303" tooltip="Synonymous Sentences" display="https://leetcode.com/problems/synonymous-sentences" xr:uid="{00000000-0004-0000-0B00-000068010000}"/>
-    <hyperlink ref="B272" r:id="rId304" tooltip="Maximum Length of a Concatenated String with Unique Characters" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters" xr:uid="{00000000-0004-0000-0B00-000069010000}"/>
-    <hyperlink ref="B331" r:id="rId305" tooltip="Warehouse Manager" display="https://leetcode.com/problems/warehouse-manager" xr:uid="{00000000-0004-0000-0B00-00006A010000}"/>
-    <hyperlink ref="B43" r:id="rId306" tooltip="Remove Boxes" display="https://leetcode.com/problems/remove-boxes" xr:uid="{00000000-0004-0000-0B00-00006B010000}"/>
-    <hyperlink ref="B141" r:id="rId307" tooltip="Consecutive Numbers Sum" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0B00-00006C010000}"/>
-    <hyperlink ref="B304" r:id="rId308" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0B00-00006D010000}"/>
-    <hyperlink ref="B327" r:id="rId309" tooltip="Minimum Possible Integer After at Most K Adjacent Swaps On Digits" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{00000000-0004-0000-0B00-00006E010000}"/>
-    <hyperlink ref="B217" r:id="rId310" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0B00-00006F010000}"/>
-    <hyperlink ref="B300" r:id="rId311" tooltip="Rank Transform of an Array" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{00000000-0004-0000-0B00-000070010000}"/>
-    <hyperlink ref="B316" r:id="rId312" tooltip="Restore The Array" display="https://leetcode.com/problems/restore-the-array" xr:uid="{00000000-0004-0000-0B00-000071010000}"/>
-    <hyperlink ref="B326" r:id="rId313" tooltip="Least Number of Unique Integers after K Removals" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{00000000-0004-0000-0B00-000072010000}"/>
-    <hyperlink ref="B232" r:id="rId314" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
-    <hyperlink ref="B236" r:id="rId315" tooltip="New Users Daily Count" display="https://leetcode.com/problems/new-users-daily-count" xr:uid="{00000000-0004-0000-0B00-000074010000}"/>
-    <hyperlink ref="B263" r:id="rId316" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0B00-000075010000}"/>
-    <hyperlink ref="B311" r:id="rId317" tooltip="Design a Stack With Increment Operation" display="https://leetcode.com/problems/design-a-stack-with-increment-operation" xr:uid="{00000000-0004-0000-0B00-000076010000}"/>
-    <hyperlink ref="B333" r:id="rId318" tooltip="Build Binary Expression Tree From Infix Expression" display="https://leetcode.com/problems/build-binary-expression-tree-from-infix-expression" xr:uid="{00000000-0004-0000-0B00-000077010000}"/>
-    <hyperlink ref="B270" r:id="rId319" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0B00-000078010000}"/>
-    <hyperlink ref="B176" r:id="rId320" tooltip="Flip String to Monotone Increasing" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0B00-000079010000}"/>
-    <hyperlink ref="B296" r:id="rId321" tooltip="Restaurant Growth" display="https://leetcode.com/problems/restaurant-growth" xr:uid="{00000000-0004-0000-0B00-00007A010000}"/>
-    <hyperlink ref="B181" r:id="rId322" tooltip="Reveal Cards In Increasing Order" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0B00-00007B010000}"/>
-    <hyperlink ref="B336" r:id="rId323" tooltip="Design an Expression Tree With Evaluate Function" display="https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function" xr:uid="{00000000-0004-0000-0B00-00007C010000}"/>
-    <hyperlink ref="B337" r:id="rId324" tooltip="Slowest Key" display="https://leetcode.com/problems/slowest-key" xr:uid="{00000000-0004-0000-0B00-00007D010000}"/>
-    <hyperlink ref="B335" r:id="rId325" tooltip="Maximal Network Rank" display="https://leetcode.com/problems/maximal-network-rank" xr:uid="{00000000-0004-0000-0B00-00007E010000}"/>
-    <hyperlink ref="B287" r:id="rId326" tooltip="Sequential Digits" display="https://leetcode.com/problems/sequential-digits" xr:uid="{00000000-0004-0000-0B00-00007F010000}"/>
-    <hyperlink ref="B294" r:id="rId327" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0B00-000080010000}"/>
-    <hyperlink ref="B330" r:id="rId328" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0B00-000081010000}"/>
-    <hyperlink ref="B338" r:id="rId329" tooltip="Maximum Units on a Truck" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{00000000-0004-0000-0B00-000082010000}"/>
+    <hyperlink ref="B112" r:id="rId7" tooltip="Flood Fill" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0B00-00000A000000}"/>
+    <hyperlink ref="B110" r:id="rId8" tooltip="Minimum Window Subsequence" display="https://leetcode.com/problems/minimum-window-subsequence" xr:uid="{00000000-0004-0000-0B00-00000C000000}"/>
+    <hyperlink ref="B90" r:id="rId9" tooltip="Longest Univalue Path" display="https://leetcode.com/problems/longest-univalue-path" xr:uid="{00000000-0004-0000-0B00-00000D000000}"/>
+    <hyperlink ref="B31" r:id="rId10" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0B00-00000E000000}"/>
+    <hyperlink ref="B94" r:id="rId11" tooltip="Number of Distinct Islands" display="https://leetcode.com/problems/number-of-distinct-islands" xr:uid="{00000000-0004-0000-0B00-00000F000000}"/>
+    <hyperlink ref="B77" r:id="rId12" tooltip="Find Duplicate Subtrees" display="https://leetcode.com/problems/find-duplicate-subtrees" xr:uid="{00000000-0004-0000-0B00-000011000000}"/>
+    <hyperlink ref="B130" r:id="rId13" tooltip="Rotate String" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0B00-000012000000}"/>
+    <hyperlink ref="B37" r:id="rId14" tooltip="Encode and Decode TinyURL" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0B00-000016000000}"/>
+    <hyperlink ref="B23" r:id="rId15" tooltip="Diagonal Traverse" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0B00-000017000000}"/>
+    <hyperlink ref="B68" r:id="rId16" tooltip="Smallest Range Covering Elements from K Lists" display="https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists" xr:uid="{00000000-0004-0000-0B00-000018000000}"/>
+    <hyperlink ref="B137" r:id="rId17" tooltip="Most Common Word" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0B00-00001A000000}"/>
+    <hyperlink ref="B78" r:id="rId18" tooltip="Two Sum IV - Input is a BST" display="https://leetcode.com/problems/two-sum-iv-input-is-a-bst" xr:uid="{00000000-0004-0000-0B00-00001B000000}"/>
+    <hyperlink ref="B128" r:id="rId19" tooltip="Cheapest Flights Within K Stops" display="https://leetcode.com/problems/cheapest-flights-within-k-stops" xr:uid="{00000000-0004-0000-0B00-00001C000000}"/>
+    <hyperlink ref="B69" r:id="rId20" tooltip="Exclusive Time of Functions" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0B00-00001D000000}"/>
+    <hyperlink ref="B59" r:id="rId21" tooltip="Find Duplicate File in System" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0B00-00001E000000}"/>
+    <hyperlink ref="B13" r:id="rId22" tooltip="Concatenated Words" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0B00-00001F000000}"/>
+    <hyperlink ref="B115" r:id="rId23" tooltip="Daily Temperatures" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0B00-000020000000}"/>
+    <hyperlink ref="B144" r:id="rId24" tooltip="Guess the Word" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0B00-000021000000}"/>
+    <hyperlink ref="B143" r:id="rId25" tooltip="Keys and Rooms" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0B00-000022000000}"/>
+    <hyperlink ref="B149" r:id="rId26" tooltip="K-Similar Strings" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0B00-000024000000}"/>
+    <hyperlink ref="B66" r:id="rId27" tooltip="Exchange Seats" display="https://leetcode.com/problems/exchange-seats" xr:uid="{00000000-0004-0000-0B00-000026000000}"/>
+    <hyperlink ref="B84" r:id="rId28" tooltip="Valid Parenthesis String" display="https://leetcode.com/problems/valid-parenthesis-string" xr:uid="{00000000-0004-0000-0B00-000027000000}"/>
+    <hyperlink ref="B70" r:id="rId29" tooltip="Average of Levels in Binary Tree" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000028000000}"/>
+    <hyperlink ref="B55" r:id="rId30" tooltip="Design In-Memory File System" display="https://leetcode.com/problems/design-in-memory-file-system" xr:uid="{00000000-0004-0000-0B00-000029000000}"/>
+    <hyperlink ref="B19" r:id="rId31" tooltip="The Maze" display="https://leetcode.com/problems/the-maze" xr:uid="{00000000-0004-0000-0B00-00002A000000}"/>
+    <hyperlink ref="B111" r:id="rId32" tooltip="My Calendar I" display="https://leetcode.com/problems/my-calendar-i" xr:uid="{00000000-0004-0000-0B00-00002B000000}"/>
+    <hyperlink ref="B95" r:id="rId33" tooltip="Max Area of Island" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0B00-00002C000000}"/>
+    <hyperlink ref="B40" r:id="rId34" tooltip="01 Matrix" display="https://leetcode.com/problems/01-matrix" xr:uid="{00000000-0004-0000-0B00-00002E000000}"/>
+    <hyperlink ref="B79" r:id="rId35" tooltip="Find K Closest Elements" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0B00-00002F000000}"/>
+    <hyperlink ref="B41" r:id="rId36" tooltip="Diameter of Binary Tree" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000033000000}"/>
+    <hyperlink ref="B75" r:id="rId37" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0B00-000034000000}"/>
+    <hyperlink ref="B67" r:id="rId38" tooltip="Maximum Product of Three Numbers" display="https://leetcode.com/problems/maximum-product-of-three-numbers" xr:uid="{00000000-0004-0000-0B00-000035000000}"/>
+    <hyperlink ref="B8" r:id="rId39" tooltip="LFU Cache" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0B00-000038000000}"/>
+    <hyperlink ref="B26" r:id="rId40" tooltip="Next Greater Element II" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0B00-00003A000000}"/>
+    <hyperlink ref="B9" r:id="rId41" tooltip="Island Perimeter" display="https://leetcode.com/problems/island-perimeter" xr:uid="{00000000-0004-0000-0B00-00003C000000}"/>
+    <hyperlink ref="B71" r:id="rId42" tooltip="Solve the Equation" display="https://leetcode.com/problems/solve-the-equation" xr:uid="{00000000-0004-0000-0B00-00003D000000}"/>
+    <hyperlink ref="B141" r:id="rId43" tooltip="Rectangle Overlap" display="https://leetcode.com/problems/rectangle-overlap" xr:uid="{00000000-0004-0000-0B00-00003F000000}"/>
+    <hyperlink ref="B46" r:id="rId44" tooltip="Reverse Words in a String III" display="https://leetcode.com/problems/reverse-words-in-a-string-iii" xr:uid="{00000000-0004-0000-0B00-000041000000}"/>
+    <hyperlink ref="B108" r:id="rId45" tooltip="Find Pivot Index" display="https://leetcode.com/problems/find-pivot-index" xr:uid="{00000000-0004-0000-0B00-000043000000}"/>
+    <hyperlink ref="B72" r:id="rId46" tooltip="Design Search Autocomplete System" display="https://leetcode.com/problems/design-search-autocomplete-system" xr:uid="{00000000-0004-0000-0B00-000044000000}"/>
+    <hyperlink ref="B151" r:id="rId47" tooltip="Lemonade Change" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0B00-000045000000}"/>
+    <hyperlink ref="B154" r:id="rId48" tooltip="All Nodes Distance K in Binary Tree" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046000000}"/>
+    <hyperlink ref="B4" r:id="rId49" tooltip="Minimum Number of Arrows to Burst Balloons" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0B00-000047000000}"/>
+    <hyperlink ref="B76" r:id="rId50" tooltip="2 Keys Keyboard" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0B00-000048000000}"/>
+    <hyperlink ref="B6" r:id="rId51" tooltip="4Sum II" display="https://leetcode.com/problems/4sum-ii" xr:uid="{00000000-0004-0000-0B00-000049000000}"/>
+    <hyperlink ref="B83" r:id="rId52" tooltip="Cut Off Trees for Golf Event" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0B00-00004B000000}"/>
+    <hyperlink ref="B106" r:id="rId53" tooltip="Longest Word in Dictionary" display="https://leetcode.com/problems/longest-word-in-dictionary" xr:uid="{00000000-0004-0000-0B00-00004C000000}"/>
+    <hyperlink ref="B121" r:id="rId54" tooltip="Jewels and Stones" display="https://leetcode.com/problems/jewels-and-stones" xr:uid="{00000000-0004-0000-0B00-00004D000000}"/>
+    <hyperlink ref="B122" r:id="rId55" tooltip="Basic Calculator III" display="https://leetcode.com/problems/basic-calculator-iii" xr:uid="{00000000-0004-0000-0B00-00004E000000}"/>
+    <hyperlink ref="B131" r:id="rId56" tooltip="All Paths From Source to Target" display="https://leetcode.com/problems/all-paths-from-source-to-target" xr:uid="{00000000-0004-0000-0B00-00004F000000}"/>
+    <hyperlink ref="B98" r:id="rId57" tooltip="Kth Largest Element in a Stream" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0B00-000050000000}"/>
+    <hyperlink ref="B51" r:id="rId58" tooltip="Find Cumulative Salary of an Employee" display="https://leetcode.com/problems/find-cumulative-salary-of-an-employee" xr:uid="{00000000-0004-0000-0B00-000051000000}"/>
+    <hyperlink ref="B116" r:id="rId59" tooltip="Network Delay Time" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0B00-000052000000}"/>
+    <hyperlink ref="B65" r:id="rId60" tooltip="Design Circular Queue" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0B00-000053000000}"/>
+    <hyperlink ref="B27" r:id="rId61" tooltip="The Maze II" display="https://leetcode.com/problems/the-maze-ii" xr:uid="{00000000-0004-0000-0B00-000057000000}"/>
+    <hyperlink ref="B21" r:id="rId62" tooltip="Target Sum" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0B00-000058000000}"/>
+    <hyperlink ref="B20" r:id="rId63" tooltip="Reverse Pairs" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0B00-00005A000000}"/>
+    <hyperlink ref="B49" r:id="rId64" tooltip="Managers with at Least 5 Direct Reports" display="https://leetcode.com/problems/managers-with-at-least-5-direct-reports" xr:uid="{00000000-0004-0000-0B00-00005B000000}"/>
+    <hyperlink ref="B86" r:id="rId65" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0B00-00005C000000}"/>
+    <hyperlink ref="B87" r:id="rId66" tooltip="Next Closest Time" display="https://leetcode.com/problems/next-closest-time" xr:uid="{00000000-0004-0000-0B00-00005D000000}"/>
+    <hyperlink ref="B88" r:id="rId67" tooltip="Baseball Game" display="https://leetcode.com/problems/baseball-game" xr:uid="{00000000-0004-0000-0B00-00005E000000}"/>
+    <hyperlink ref="B25" r:id="rId68" tooltip="IPO" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0B00-00005F000000}"/>
+    <hyperlink ref="B16" r:id="rId69" tooltip="Max Consecutive Ones" display="https://leetcode.com/problems/max-consecutive-ones" xr:uid="{00000000-0004-0000-0B00-000060000000}"/>
+    <hyperlink ref="B82" r:id="rId70" tooltip="Maximum Swap" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0B00-000061000000}"/>
+    <hyperlink ref="B92" r:id="rId71" tooltip="Employee Importance" display="https://leetcode.com/problems/employee-importance" xr:uid="{00000000-0004-0000-0B00-000062000000}"/>
+    <hyperlink ref="B32" r:id="rId72" tooltip="Coin Change 2" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0B00-000064000000}"/>
+    <hyperlink ref="B54" r:id="rId73" tooltip="Customer Placing the Largest Number of Orders" display="https://leetcode.com/problems/customer-placing-the-largest-number-of-orders" xr:uid="{00000000-0004-0000-0B00-000065000000}"/>
+    <hyperlink ref="B7" r:id="rId74" tooltip="Repeated Substring Pattern" display="https://leetcode.com/problems/repeated-substring-pattern" xr:uid="{00000000-0004-0000-0B00-000068000000}"/>
+    <hyperlink ref="B36" r:id="rId75" tooltip="Minesweeper" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0B00-00006C000000}"/>
+    <hyperlink ref="B44" r:id="rId76" tooltip="Number of Provinces" display="https://leetcode.com/problems/number-of-provinces" xr:uid="{00000000-0004-0000-0B00-00006E000000}"/>
+    <hyperlink ref="B48" r:id="rId77" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0B00-000070000000}"/>
+    <hyperlink ref="B57" r:id="rId78" tooltip="Human Traffic of Stadium" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0B00-000072000000}"/>
+    <hyperlink ref="B10" r:id="rId79" tooltip="Optimal Account Balancing" display="https://leetcode.com/problems/optimal-account-balancing" xr:uid="{00000000-0004-0000-0B00-000073000000}"/>
+    <hyperlink ref="B120" r:id="rId80" tooltip="Reorganize String" display="https://leetcode.com/problems/reorganize-string" xr:uid="{00000000-0004-0000-0B00-000074000000}"/>
+    <hyperlink ref="B74" r:id="rId81" tooltip="Maximum Length of Pair Chain" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0B00-000075000000}"/>
+    <hyperlink ref="B80" r:id="rId82" tooltip="Maximum Width of Binary Tree" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0B00-000076000000}"/>
+    <hyperlink ref="B124" r:id="rId83" tooltip="Global and Local Inversions" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0B00-000077000000}"/>
+    <hyperlink ref="B159" r:id="rId84" tooltip="Boats to Save People" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0B00-000078000000}"/>
+    <hyperlink ref="B105" r:id="rId85" tooltip="Max Stack" display="https://leetcode.com/problems/max-stack" xr:uid="{00000000-0004-0000-0B00-00007D000000}"/>
+    <hyperlink ref="B138" r:id="rId86" tooltip="Most Profit Assigning Work" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0B00-00007F000000}"/>
+    <hyperlink ref="B102" r:id="rId87" tooltip="Insert into a Sorted Circular Linked List" display="https://leetcode.com/problems/insert-into-a-sorted-circular-linked-list" xr:uid="{00000000-0004-0000-0B00-000080000000}"/>
+    <hyperlink ref="B33" r:id="rId88" tooltip="Continuous Subarray Sum" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0B00-000081000000}"/>
+    <hyperlink ref="B91" r:id="rId89" tooltip="Knight Probability in Chessboard" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0B00-000082000000}"/>
+    <hyperlink ref="B147" r:id="rId90" tooltip="Maximize Distance to Closest Person" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0B00-000083000000}"/>
+    <hyperlink ref="B15" r:id="rId91" tooltip="Sliding Window Median" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0B00-000084000000}"/>
+    <hyperlink ref="B17" r:id="rId92" tooltip="Predict the Winner" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0B00-000085000000}"/>
+    <hyperlink ref="B157" r:id="rId93" tooltip="Middle of the Linked List" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0B00-000086000000}"/>
+    <hyperlink ref="B100" r:id="rId94" tooltip="Design HashMap" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0B00-000087000000}"/>
+    <hyperlink ref="B18" r:id="rId95" tooltip="Robot Room Cleaner" display="https://leetcode.com/problems/robot-room-cleaner" xr:uid="{00000000-0004-0000-0B00-000088000000}"/>
+    <hyperlink ref="B135" r:id="rId96" tooltip="Bus Routes" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0B00-000089000000}"/>
+    <hyperlink ref="B150" r:id="rId97" tooltip="Score of Parentheses" display="https://leetcode.com/problems/score-of-parentheses" xr:uid="{00000000-0004-0000-0B00-00008A000000}"/>
+    <hyperlink ref="B169" r:id="rId98" tooltip="Snakes and Ladders" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0B00-00008B000000}"/>
+    <hyperlink ref="B60" r:id="rId99" tooltip="Valid Triangle Number" display="https://leetcode.com/problems/valid-triangle-number" xr:uid="{00000000-0004-0000-0B00-00008D000000}"/>
+    <hyperlink ref="B104" r:id="rId100" tooltip="Range Module" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0B00-00008E000000}"/>
+    <hyperlink ref="B148" r:id="rId101" tooltip="Peak Index in a Mountain Array" display="https://leetcode.com/problems/peak-index-in-a-mountain-array" xr:uid="{00000000-0004-0000-0B00-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId102" tooltip="Longest Mountain in Array" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0B00-000090000000}"/>
+    <hyperlink ref="B176" r:id="rId103" tooltip="Minimum Falling Path Sum" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0B00-000091000000}"/>
+    <hyperlink ref="B114" r:id="rId104" tooltip="Sentence Similarity II" display="https://leetcode.com/problems/sentence-similarity-ii" xr:uid="{00000000-0004-0000-0B00-000092000000}"/>
+    <hyperlink ref="B153" r:id="rId105" tooltip="Shortest Subarray with Sum at Least K" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0B00-000093000000}"/>
+    <hyperlink ref="B177" r:id="rId106" tooltip="Reorder Data in Log Files" display="https://leetcode.com/problems/reorder-data-in-log-files" xr:uid="{00000000-0004-0000-0B00-000094000000}"/>
+    <hyperlink ref="B101" r:id="rId107" tooltip="Design Linked List" display="https://leetcode.com/problems/design-linked-list" xr:uid="{00000000-0004-0000-0B00-000096000000}"/>
+    <hyperlink ref="B45" r:id="rId108" tooltip="Next Greater Element III" display="https://leetcode.com/problems/next-greater-element-iii" xr:uid="{00000000-0004-0000-0B00-000097000000}"/>
+    <hyperlink ref="B85" r:id="rId109" tooltip="24 Game" display="https://leetcode.com/problems/24-game" xr:uid="{00000000-0004-0000-0B00-000098000000}"/>
+    <hyperlink ref="B139" r:id="rId110" tooltip="Making A Large Island" display="https://leetcode.com/problems/making-a-large-island" xr:uid="{00000000-0004-0000-0B00-000099000000}"/>
+    <hyperlink ref="B174" r:id="rId111" tooltip="Sort Array By Parity II" display="https://leetcode.com/problems/sort-array-by-parity-ii" xr:uid="{00000000-0004-0000-0B00-00009A000000}"/>
+    <hyperlink ref="B134" r:id="rId112" tooltip="Binary Tree Pruning" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0B00-00009C000000}"/>
+    <hyperlink ref="B35" r:id="rId113" tooltip="Random Pick with Weight" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0B00-00009D000000}"/>
+    <hyperlink ref="B152" r:id="rId114" tooltip="Score After Flipping Matrix" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0B00-0000A0000000}"/>
+    <hyperlink ref="B183" r:id="rId115" tooltip="Prison Cells After N Days" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0B00-0000A1000000}"/>
+    <hyperlink ref="B119" r:id="rId116" tooltip="Employee Free Time" display="https://leetcode.com/problems/employee-free-time" xr:uid="{00000000-0004-0000-0B00-0000A2000000}"/>
+    <hyperlink ref="B129" r:id="rId117" tooltip="Number of Matching Subsequences" display="https://leetcode.com/problems/number-of-matching-subsequences" xr:uid="{00000000-0004-0000-0B00-0000A3000000}"/>
+    <hyperlink ref="B165" r:id="rId118" tooltip="Maximum Frequency Stack" display="https://leetcode.com/problems/maximum-frequency-stack" xr:uid="{00000000-0004-0000-0B00-0000A4000000}"/>
+    <hyperlink ref="B187" r:id="rId119" tooltip="K Closest Points to Origin" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0B00-0000A6000000}"/>
+    <hyperlink ref="B24" r:id="rId120" tooltip="Find Mode in Binary Search Tree" display="https://leetcode.com/problems/find-mode-in-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-0000A7000000}"/>
+    <hyperlink ref="B172" r:id="rId121" tooltip="Maximum Sum Circular Subarray" display="https://leetcode.com/problems/maximum-sum-circular-subarray" xr:uid="{00000000-0004-0000-0B00-0000A9000000}"/>
+    <hyperlink ref="B29" r:id="rId122" tooltip="Fibonacci Number" display="https://leetcode.com/problems/fibonacci-number" xr:uid="{00000000-0004-0000-0B00-0000AA000000}"/>
+    <hyperlink ref="B188" r:id="rId123" tooltip="Squares of a Sorted Array" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0B00-0000AB000000}"/>
+    <hyperlink ref="B190" r:id="rId124" tooltip="Distribute Coins in Binary Tree" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000AC000000}"/>
+    <hyperlink ref="B191" r:id="rId125" tooltip="Unique Paths III" display="https://leetcode.com/problems/unique-paths-iii" xr:uid="{00000000-0004-0000-0B00-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId126" tooltip="Minimum Cost For Tickets" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0B00-0000AE000000}"/>
+    <hyperlink ref="B196" r:id="rId127" tooltip="Subarrays with K Different Integers" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0B00-0000AF000000}"/>
+    <hyperlink ref="B142" r:id="rId128" tooltip="Similar String Groups" display="https://leetcode.com/problems/similar-string-groups" xr:uid="{00000000-0004-0000-0B00-0000B0000000}"/>
+    <hyperlink ref="B198" r:id="rId129" tooltip="Rotting Oranges" display="https://leetcode.com/problems/rotting-oranges" xr:uid="{00000000-0004-0000-0B00-0000B1000000}"/>
+    <hyperlink ref="B30" r:id="rId130" tooltip="Find Largest Value in Each Tree Row" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0B00-0000B2000000}"/>
+    <hyperlink ref="B47" r:id="rId131" tooltip="Maximum Depth of N-ary Tree" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0B00-0000B3000000}"/>
+    <hyperlink ref="B123" r:id="rId132" tooltip="Sliding Puzzle" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0B00-0000B4000000}"/>
+    <hyperlink ref="B189" r:id="rId133" tooltip="Longest Turbulent Subarray" display="https://leetcode.com/problems/longest-turbulent-subarray" xr:uid="{00000000-0004-0000-0B00-0000B5000000}"/>
+    <hyperlink ref="B28" r:id="rId134" tooltip="Perfect Number" display="https://leetcode.com/problems/perfect-number" xr:uid="{00000000-0004-0000-0B00-0000B6000000}"/>
+    <hyperlink ref="B195" r:id="rId135" tooltip="Vertical Order Traversal of a Binary Tree" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B7000000}"/>
+    <hyperlink ref="B197" r:id="rId136" tooltip="Cousins in Binary Tree" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000B8000000}"/>
+    <hyperlink ref="B203" r:id="rId137" tooltip="Max Consecutive Ones III" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0B00-0000B9000000}"/>
+    <hyperlink ref="B99" r:id="rId138" tooltip="Binary Search" display="https://leetcode.com/problems/binary-search" xr:uid="{00000000-0004-0000-0B00-0000BC000000}"/>
+    <hyperlink ref="B181" r:id="rId139" tooltip="Flip Equivalent Binary Trees" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0B00-0000BD000000}"/>
+    <hyperlink ref="B204" r:id="rId140" tooltip="Maximize Sum Of Array After K Negations" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0B00-0000BE000000}"/>
+    <hyperlink ref="B200" r:id="rId141" tooltip="Find the Town Judge" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0B00-0000BF000000}"/>
+    <hyperlink ref="B103" r:id="rId142" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
+    <hyperlink ref="B206" r:id="rId143" tooltip="Construct Binary Search Tree from Preorder Traversal" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000C2000000}"/>
+    <hyperlink ref="B207" r:id="rId144" tooltip="Pairs of Songs With Total Durations Divisible by 60" display="https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60" xr:uid="{00000000-0004-0000-0B00-0000C3000000}"/>
+    <hyperlink ref="B229" r:id="rId145" tooltip="High Five" display="https://leetcode.com/problems/high-five" xr:uid="{00000000-0004-0000-0B00-0000C4000000}"/>
+    <hyperlink ref="B210" r:id="rId146" tooltip="Next Greater Node In Linked List" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0B00-0000C5000000}"/>
+    <hyperlink ref="B211" r:id="rId147" tooltip="Sum of Root To Leaf Binary Numbers" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0B00-0000C6000000}"/>
+    <hyperlink ref="B233" r:id="rId148" tooltip="Find K-Length Substrings With No Repeated Characters" display="https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters" xr:uid="{00000000-0004-0000-0B00-0000C7000000}"/>
+    <hyperlink ref="B39" r:id="rId149" tooltip="Reverse String II" display="https://leetcode.com/problems/reverse-string-ii" xr:uid="{00000000-0004-0000-0B00-0000C8000000}"/>
+    <hyperlink ref="B240" r:id="rId150" tooltip="Remove Vowels from a String" display="https://leetcode.com/problems/remove-vowels-from-a-string" xr:uid="{00000000-0004-0000-0B00-0000CA000000}"/>
+    <hyperlink ref="B241" r:id="rId151" tooltip="Maximum Average Subtree" display="https://leetcode.com/problems/maximum-average-subtree" xr:uid="{00000000-0004-0000-0B00-0000CB000000}"/>
+    <hyperlink ref="B145" r:id="rId152" tooltip="Backspace String Compare" display="https://leetcode.com/problems/backspace-string-compare" xr:uid="{00000000-0004-0000-0B00-0000CC000000}"/>
+    <hyperlink ref="B208" r:id="rId153" tooltip="Capacity To Ship Packages Within D Days" display="https://leetcode.com/problems/capacity-to-ship-packages-within-d-days" xr:uid="{00000000-0004-0000-0B00-0000CD000000}"/>
+    <hyperlink ref="B234" r:id="rId154" tooltip="Path With Maximum Minimum Value" display="https://leetcode.com/problems/path-with-maximum-minimum-value" xr:uid="{00000000-0004-0000-0B00-0000CE000000}"/>
+    <hyperlink ref="B244" r:id="rId155" tooltip="Connecting Cities With Minimum Cost" display="https://leetcode.com/problems/connecting-cities-with-minimum-cost" xr:uid="{00000000-0004-0000-0B00-0000CF000000}"/>
+    <hyperlink ref="B201" r:id="rId156" tooltip="Minimum Cost to Merge Stones" display="https://leetcode.com/problems/minimum-cost-to-merge-stones" xr:uid="{00000000-0004-0000-0B00-0000D0000000}"/>
+    <hyperlink ref="B248" r:id="rId157" tooltip="Analyze User Website Visit Pattern" display="https://leetcode.com/problems/analyze-user-website-visit-pattern" xr:uid="{00000000-0004-0000-0B00-0000D1000000}"/>
+    <hyperlink ref="B34" r:id="rId158" tooltip="Contiguous Array" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0B00-0000D2000000}"/>
+    <hyperlink ref="B163" r:id="rId159" tooltip="Construct Binary Tree from Preorder and Postorder Traversal" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000D3000000}"/>
+    <hyperlink ref="B251" r:id="rId160" tooltip="Find Words That Can Be Formed by Characters" display="https://leetcode.com/problems/find-words-that-can-be-formed-by-characters" xr:uid="{00000000-0004-0000-0B00-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId161" tooltip="Binary Search Tree to Greater Sum Tree" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0B00-0000D5000000}"/>
+    <hyperlink ref="B89" r:id="rId162" tooltip="Repeated String Match" display="https://leetcode.com/problems/repeated-string-match" xr:uid="{00000000-0004-0000-0B00-0000D6000000}"/>
+    <hyperlink ref="B218" r:id="rId163" tooltip="Longest Duplicate Substring" display="https://leetcode.com/problems/longest-duplicate-substring" xr:uid="{00000000-0004-0000-0B00-0000D7000000}"/>
+    <hyperlink ref="B109" r:id="rId164" tooltip="Number of Atoms" display="https://leetcode.com/problems/number-of-atoms" xr:uid="{00000000-0004-0000-0B00-0000D8000000}"/>
+    <hyperlink ref="B162" r:id="rId165" tooltip="Super Egg Drop" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0B00-0000DA000000}"/>
+    <hyperlink ref="B125" r:id="rId166" tooltip="K-th Symbol in Grammar" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0B00-0000DB000000}"/>
+    <hyperlink ref="B194" r:id="rId167" tooltip="Interval List Intersections" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0B00-0000DC000000}"/>
+    <hyperlink ref="B214" r:id="rId168" tooltip="Stream of Characters" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0B00-0000DD000000}"/>
+    <hyperlink ref="B263" r:id="rId169" tooltip="Two Sum BSTs" display="https://leetcode.com/problems/two-sum-bsts" xr:uid="{00000000-0004-0000-0B00-0000DE000000}"/>
+    <hyperlink ref="B63" r:id="rId170" tooltip="Students Report By Geography" display="https://leetcode.com/problems/students-report-by-geography" xr:uid="{00000000-0004-0000-0B00-0000DF000000}"/>
+    <hyperlink ref="B217" r:id="rId171" tooltip="Partition Array for Maximum Sum" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0B00-0000E0000000}"/>
+    <hyperlink ref="B226" r:id="rId172" tooltip="Number of Submatrices That Sum to Target" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0B00-0000E1000000}"/>
+    <hyperlink ref="B96" r:id="rId173" tooltip="Partition to K Equal Sum Subsets" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0B00-0000E2000000}"/>
+    <hyperlink ref="B136" r:id="rId174" tooltip="Race Car" display="https://leetcode.com/problems/race-car" xr:uid="{00000000-0004-0000-0B00-0000E3000000}"/>
+    <hyperlink ref="B155" r:id="rId175" tooltip="Length of Longest Fibonacci Subsequence" display="https://leetcode.com/problems/length-of-longest-fibonacci-subsequence" xr:uid="{00000000-0004-0000-0B00-0000E4000000}"/>
+    <hyperlink ref="B202" r:id="rId176" tooltip="Find Common Characters" display="https://leetcode.com/problems/find-common-characters" xr:uid="{00000000-0004-0000-0B00-0000E5000000}"/>
+    <hyperlink ref="B160" r:id="rId177" tooltip="Uncommon Words from Two Sentences" display="https://leetcode.com/problems/uncommon-words-from-two-sentences" xr:uid="{00000000-0004-0000-0B00-0000E6000000}"/>
+    <hyperlink ref="B178" r:id="rId178" tooltip="Range Sum of BST" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0B00-0000E7000000}"/>
+    <hyperlink ref="B228" r:id="rId179" tooltip="Sales Analysis III" display="https://leetcode.com/problems/sales-analysis-iii" xr:uid="{00000000-0004-0000-0B00-0000E8000000}"/>
+    <hyperlink ref="B227" r:id="rId180" tooltip="Sales Analysis II" display="https://leetcode.com/problems/sales-analysis-ii" xr:uid="{00000000-0004-0000-0B00-0000E9000000}"/>
+    <hyperlink ref="B224" r:id="rId181" tooltip="All Paths from Source Lead to Destination" display="https://leetcode.com/problems/all-paths-from-source-lead-to-destination" xr:uid="{00000000-0004-0000-0B00-0000EA000000}"/>
+    <hyperlink ref="B117" r:id="rId182" tooltip="Open the Lock" display="https://leetcode.com/problems/open-the-lock" xr:uid="{00000000-0004-0000-0B00-0000EB000000}"/>
+    <hyperlink ref="B223" r:id="rId183" tooltip="Campus Bikes" display="https://leetcode.com/problems/campus-bikes" xr:uid="{00000000-0004-0000-0B00-0000EC000000}"/>
+    <hyperlink ref="B230" r:id="rId184" tooltip="Shortest Path in Binary Matrix" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0B00-0000ED000000}"/>
+    <hyperlink ref="B56" r:id="rId185" tooltip="N-ary Tree Postorder Traversal" display="https://leetcode.com/problems/n-ary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0B00-0000EE000000}"/>
+    <hyperlink ref="B170" r:id="rId186" tooltip="Sort an Array" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0B00-0000EF000000}"/>
+    <hyperlink ref="B182" r:id="rId187" tooltip="Verifying an Alien Dictionary" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0B00-0000F0000000}"/>
+    <hyperlink ref="B113" r:id="rId188" tooltip="Asteroid Collision" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0B00-0000F1000000}"/>
+    <hyperlink ref="B232" r:id="rId189" tooltip="Car Pooling" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0B00-0000F2000000}"/>
+    <hyperlink ref="B238" r:id="rId190" tooltip="Print in Order" display="https://leetcode.com/problems/print-in-order" xr:uid="{00000000-0004-0000-0B00-0000F3000000}"/>
+    <hyperlink ref="B288" r:id="rId191" tooltip="Replace Elements with Greatest Element on Right Side" display="https://leetcode.com/problems/replace-elements-with-greatest-element-on-right-side" xr:uid="{00000000-0004-0000-0B00-0000F4000000}"/>
+    <hyperlink ref="B219" r:id="rId192" tooltip="Last Stone Weight" display="https://leetcode.com/problems/last-stone-weight" xr:uid="{00000000-0004-0000-0B00-0000F5000000}"/>
+    <hyperlink ref="B242" r:id="rId193" tooltip="Shortest Path with Alternating Colors" display="https://leetcode.com/problems/shortest-path-with-alternating-colors" xr:uid="{00000000-0004-0000-0B00-0000F6000000}"/>
+    <hyperlink ref="B186" r:id="rId194" tooltip="Pancake Sorting" display="https://leetcode.com/problems/pancake-sorting" xr:uid="{00000000-0004-0000-0B00-0000F7000000}"/>
+    <hyperlink ref="B294" r:id="rId195" tooltip="Sum of Nodes with Even-Valued Grandparent" display="https://leetcode.com/problems/sum-of-nodes-with-even-valued-grandparent" xr:uid="{00000000-0004-0000-0B00-0000F8000000}"/>
+    <hyperlink ref="B184" r:id="rId196" tooltip="Check Completeness of a Binary Tree" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-0000F9000000}"/>
+    <hyperlink ref="B205" r:id="rId197" tooltip="Minimum Domino Rotations For Equal Row" display="https://leetcode.com/problems/minimum-domino-rotations-for-equal-row" xr:uid="{00000000-0004-0000-0B00-0000FA000000}"/>
+    <hyperlink ref="B236" r:id="rId198" tooltip="Defanging an IP Address" display="https://leetcode.com/problems/defanging-an-ip-address" xr:uid="{00000000-0004-0000-0B00-0000FB000000}"/>
+    <hyperlink ref="B220" r:id="rId199" tooltip="Remove All Adjacent Duplicates In String" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string" xr:uid="{00000000-0004-0000-0B00-0000FC000000}"/>
+    <hyperlink ref="B250" r:id="rId200" tooltip="Number of Dice Rolls With Target Sum" display="https://leetcode.com/problems/number-of-dice-rolls-with-target-sum" xr:uid="{00000000-0004-0000-0B00-0000FD000000}"/>
+    <hyperlink ref="B253" r:id="rId201" tooltip="As Far from Land as Possible" display="https://leetcode.com/problems/as-far-from-land-as-possible" xr:uid="{00000000-0004-0000-0B00-0000FE000000}"/>
+    <hyperlink ref="B245" r:id="rId202" tooltip="Largest 1-Bordered Square" display="https://leetcode.com/problems/largest-1-bordered-square" xr:uid="{00000000-0004-0000-0B00-0000FF000000}"/>
+    <hyperlink ref="B311" r:id="rId203" tooltip="Balance a Binary Search Tree" display="https://leetcode.com/problems/balance-a-binary-search-tree" xr:uid="{00000000-0004-0000-0B00-000000010000}"/>
+    <hyperlink ref="B256" r:id="rId204" tooltip="Minimum Cost to Connect Sticks" display="https://leetcode.com/problems/minimum-cost-to-connect-sticks" xr:uid="{00000000-0004-0000-0B00-000001010000}"/>
+    <hyperlink ref="B252" r:id="rId205" tooltip="Maximum Level Sum of a Binary Tree" display="https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-000002010000}"/>
+    <hyperlink ref="B246" r:id="rId206" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
+    <hyperlink ref="B258" r:id="rId207" tooltip="Reformat Department Table" display="https://leetcode.com/problems/reformat-department-table" xr:uid="{00000000-0004-0000-0B00-000004010000}"/>
+    <hyperlink ref="B192" r:id="rId208" tooltip="Time Based Key-Value Store" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0B00-000005010000}"/>
+    <hyperlink ref="B260" r:id="rId209" tooltip="Critical Connections in a Network" display="https://leetcode.com/problems/critical-connections-in-a-network" xr:uid="{00000000-0004-0000-0B00-000006010000}"/>
+    <hyperlink ref="B237" r:id="rId210" tooltip="Delete Nodes And Return Forest" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0B00-000008010000}"/>
+    <hyperlink ref="B316" r:id="rId211" tooltip="First Unique Number" display="https://leetcode.com/problems/first-unique-number" xr:uid="{00000000-0004-0000-0B00-000009010000}"/>
+    <hyperlink ref="B81" r:id="rId212" tooltip="Non-decreasing Array" display="https://leetcode.com/problems/non-decreasing-array" xr:uid="{00000000-0004-0000-0B00-00000A010000}"/>
+    <hyperlink ref="B107" r:id="rId213" tooltip="Accounts Merge" display="https://leetcode.com/problems/accounts-merge" xr:uid="{00000000-0004-0000-0B00-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId214" tooltip="Web Crawler" display="https://leetcode.com/problems/web-crawler" xr:uid="{00000000-0004-0000-0B00-00000C010000}"/>
+    <hyperlink ref="B249" r:id="rId215" tooltip="String Transforms Into Another String" display="https://leetcode.com/problems/string-transforms-into-another-string" xr:uid="{00000000-0004-0000-0B00-00000E010000}"/>
+    <hyperlink ref="B267" r:id="rId216" tooltip="Meeting Scheduler" display="https://leetcode.com/problems/meeting-scheduler" xr:uid="{00000000-0004-0000-0B00-00000F010000}"/>
+    <hyperlink ref="B5" r:id="rId217" tooltip="Minimum Moves to Equal Array Elements" display="https://leetcode.com/problems/minimum-moves-to-equal-array-elements" xr:uid="{00000000-0004-0000-0B00-000010010000}"/>
+    <hyperlink ref="B259" r:id="rId218" tooltip="Design Bounded Blocking Queue" display="https://leetcode.com/problems/design-bounded-blocking-queue" xr:uid="{00000000-0004-0000-0B00-000011010000}"/>
+    <hyperlink ref="B281" r:id="rId219" tooltip="Search Suggestions System" display="https://leetcode.com/problems/search-suggestions-system" xr:uid="{00000000-0004-0000-0B00-000012010000}"/>
+    <hyperlink ref="B225" r:id="rId220" tooltip="Greatest Common Divisor of Strings" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0B00-000013010000}"/>
+    <hyperlink ref="B272" r:id="rId221" tooltip="Design A Leaderboard" display="https://leetcode.com/problems/design-a-leaderboard" xr:uid="{00000000-0004-0000-0B00-000014010000}"/>
+    <hyperlink ref="B265" r:id="rId222" tooltip="Path with Maximum Gold" display="https://leetcode.com/problems/path-with-maximum-gold" xr:uid="{00000000-0004-0000-0B00-000015010000}"/>
+    <hyperlink ref="B255" r:id="rId223" tooltip="Design File System" display="https://leetcode.com/problems/design-file-system" xr:uid="{00000000-0004-0000-0B00-000016010000}"/>
+    <hyperlink ref="B156" r:id="rId224" tooltip="Koko Eating Bananas" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0B00-000017010000}"/>
+    <hyperlink ref="B213" r:id="rId225" tooltip="Maximum Sum of Two Non-Overlapping Subarrays" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0B00-000018010000}"/>
+    <hyperlink ref="B261" r:id="rId226" tooltip="Minimum Knight Moves" display="https://leetcode.com/problems/minimum-knight-moves" xr:uid="{00000000-0004-0000-0B00-000019010000}"/>
+    <hyperlink ref="B277" r:id="rId227" tooltip="Number of Closed Islands" display="https://leetcode.com/problems/number-of-closed-islands" xr:uid="{00000000-0004-0000-0B00-00001A010000}"/>
+    <hyperlink ref="B290" r:id="rId228" tooltip="All Elements in Two Binary Search Trees" display="https://leetcode.com/problems/all-elements-in-two-binary-search-trees" xr:uid="{00000000-0004-0000-0B00-00001C010000}"/>
+    <hyperlink ref="B243" r:id="rId229" tooltip="Minimum Cost Tree From Leaf Values" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0B00-00001D010000}"/>
+    <hyperlink ref="B291" r:id="rId230" tooltip="Get Watched Videos by Your Friends" display="https://leetcode.com/problems/get-watched-videos-by-your-friends" xr:uid="{00000000-0004-0000-0B00-00001E010000}"/>
+    <hyperlink ref="B283" r:id="rId231" tooltip="Find Winner on a Tic Tac Toe Game" display="https://leetcode.com/problems/find-winner-on-a-tic-tac-toe-game" xr:uid="{00000000-0004-0000-0B00-00001F010000}"/>
+    <hyperlink ref="B296" r:id="rId232" tooltip="Delete Leaves With a Given Value" display="https://leetcode.com/problems/delete-leaves-with-a-given-value" xr:uid="{00000000-0004-0000-0B00-000020010000}"/>
+    <hyperlink ref="B275" r:id="rId233" tooltip="Count Number of Nice Subarrays" display="https://leetcode.com/problems/count-number-of-nice-subarrays" xr:uid="{00000000-0004-0000-0B00-000021010000}"/>
+    <hyperlink ref="B279" r:id="rId234" tooltip="Minimum Time Visiting All Points" display="https://leetcode.com/problems/minimum-time-visiting-all-points" xr:uid="{00000000-0004-0000-0B00-000022010000}"/>
+    <hyperlink ref="B14" r:id="rId235" tooltip="Matchsticks to Square" display="https://leetcode.com/problems/matchsticks-to-square" xr:uid="{00000000-0004-0000-0B00-000024010000}"/>
+    <hyperlink ref="B266" r:id="rId236" tooltip="Split a String in Balanced Strings" display="https://leetcode.com/problems/split-a-string-in-balanced-strings" xr:uid="{00000000-0004-0000-0B00-000025010000}"/>
+    <hyperlink ref="B308" r:id="rId237" tooltip="Maximum Sum BST in Binary Tree" display="https://leetcode.com/problems/maximum-sum-bst-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000026010000}"/>
+    <hyperlink ref="B222" r:id="rId238" tooltip="Last Stone Weight II" display="https://leetcode.com/problems/last-stone-weight-ii" xr:uid="{00000000-0004-0000-0B00-000027010000}"/>
+    <hyperlink ref="B247" r:id="rId239" tooltip="Snapshot Array" display="https://leetcode.com/problems/snapshot-array" xr:uid="{00000000-0004-0000-0B00-000028010000}"/>
+    <hyperlink ref="B274" r:id="rId240" tooltip="Minimum Swaps to Make Strings Equal" display="https://leetcode.com/problems/minimum-swaps-to-make-strings-equal" xr:uid="{00000000-0004-0000-0B00-000029010000}"/>
+    <hyperlink ref="B292" r:id="rId241" tooltip="Minimum Insertion Steps to Make a String Palindrome" display="https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome" xr:uid="{00000000-0004-0000-0B00-00002A010000}"/>
+    <hyperlink ref="B305" r:id="rId242" tooltip="Count Negative Numbers in a Sorted Matrix" display="https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0B00-00002B010000}"/>
+    <hyperlink ref="B53" r:id="rId243" tooltip="Find Customer Referee" display="https://leetcode.com/problems/find-customer-referee" xr:uid="{00000000-0004-0000-0B00-00002C010000}"/>
+    <hyperlink ref="B268" r:id="rId244" tooltip="Remove Sub-Folders from the Filesystem" display="https://leetcode.com/problems/remove-sub-folders-from-the-filesystem" xr:uid="{00000000-0004-0000-0B00-00002D010000}"/>
+    <hyperlink ref="B282" r:id="rId245" tooltip="All People Report to the Given Manager" display="https://leetcode.com/problems/all-people-report-to-the-given-manager" xr:uid="{00000000-0004-0000-0B00-00002E010000}"/>
+    <hyperlink ref="B302" r:id="rId246" tooltip="Angle Between Hands of a Clock" display="https://leetcode.com/problems/angle-between-hands-of-a-clock" xr:uid="{00000000-0004-0000-0B00-00002F010000}"/>
+    <hyperlink ref="B185" r:id="rId247" tooltip="Binary Tree Cameras" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0B00-000030010000}"/>
+    <hyperlink ref="B199" r:id="rId248" tooltip="Minimum Number of K Consecutive Bit Flips" display="https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips" xr:uid="{00000000-0004-0000-0B00-000031010000}"/>
+    <hyperlink ref="B239" r:id="rId249" tooltip="Building H2O" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0B00-000032010000}"/>
+    <hyperlink ref="B171" r:id="rId250" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
+    <hyperlink ref="B306" r:id="rId251" tooltip="Number of Days Between Two Dates" display="https://leetcode.com/problems/number-of-days-between-two-dates" xr:uid="{00000000-0004-0000-0B00-000034010000}"/>
+    <hyperlink ref="B280" r:id="rId252" tooltip="Count Servers that Communicate" display="https://leetcode.com/problems/count-servers-that-communicate" xr:uid="{00000000-0004-0000-0B00-000035010000}"/>
+    <hyperlink ref="B285" r:id="rId253" tooltip="Find the Start and End Number of Continuous Ranges" display="https://leetcode.com/problems/find-the-start-and-end-number-of-continuous-ranges" xr:uid="{00000000-0004-0000-0B00-000036010000}"/>
+    <hyperlink ref="B301" r:id="rId254" tooltip="Number of Steps to Reduce a Number to Zero" display="https://leetcode.com/problems/number-of-steps-to-reduce-a-number-to-zero" xr:uid="{00000000-0004-0000-0B00-000038010000}"/>
+    <hyperlink ref="B307" r:id="rId255" tooltip="How Many Numbers Are Smaller Than the Current Number" display="https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number" xr:uid="{00000000-0004-0000-0B00-000039010000}"/>
+    <hyperlink ref="B173" r:id="rId256" tooltip="Minimum Add to Make Parentheses Valid" display="https://leetcode.com/problems/minimum-add-to-make-parentheses-valid" xr:uid="{00000000-0004-0000-0B00-00003A010000}"/>
+    <hyperlink ref="B312" r:id="rId257" tooltip="Count Number of Teams" display="https://leetcode.com/problems/count-number-of-teams" xr:uid="{00000000-0004-0000-0B00-00003B010000}"/>
+    <hyperlink ref="B158" r:id="rId258" tooltip="Decoded String at Index" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0B00-00003C010000}"/>
+    <hyperlink ref="B221" r:id="rId259" tooltip="Longest String Chain" display="https://leetcode.com/problems/longest-string-chain" xr:uid="{00000000-0004-0000-0B00-00003D010000}"/>
+    <hyperlink ref="B132" r:id="rId260" tooltip="Expressive Words" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0B00-00003E010000}"/>
+    <hyperlink ref="B273" r:id="rId261" tooltip="Tree Diameter" display="https://leetcode.com/problems/tree-diameter" xr:uid="{00000000-0004-0000-0B00-00003F010000}"/>
+    <hyperlink ref="B309" r:id="rId262" tooltip="Bulb Switcher III" display="https://leetcode.com/problems/bulb-switcher-iii" xr:uid="{00000000-0004-0000-0B00-000040010000}"/>
+    <hyperlink ref="B168" r:id="rId263" tooltip="Online Stock Span" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0B00-000041010000}"/>
+    <hyperlink ref="B313" r:id="rId264" tooltip="Customers Who Bought Products A and B but Not C" display="https://leetcode.com/problems/customers-who-bought-products-a-and-b-but-not-c" xr:uid="{00000000-0004-0000-0B00-000042010000}"/>
+    <hyperlink ref="B284" r:id="rId265" tooltip="Find the Smallest Divisor Given a Threshold" display="https://leetcode.com/problems/find-the-smallest-divisor-given-a-threshold" xr:uid="{00000000-0004-0000-0B00-000043010000}"/>
+    <hyperlink ref="B209" r:id="rId266" tooltip="Partition Array Into Three Parts With Equal Sum" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0B00-000045010000}"/>
+    <hyperlink ref="B300" r:id="rId267" tooltip="Maximum Product of Splitted Binary Tree" display="https://leetcode.com/problems/maximum-product-of-splitted-binary-tree" xr:uid="{00000000-0004-0000-0B00-000046010000}"/>
+    <hyperlink ref="B304" r:id="rId268" tooltip="Minimum Number of Steps to Make Two Strings Anagram" display="https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram" xr:uid="{00000000-0004-0000-0B00-000047010000}"/>
+    <hyperlink ref="B118" r:id="rId269" tooltip="Pyramid Transition Matrix" display="https://leetcode.com/problems/pyramid-transition-matrix" xr:uid="{00000000-0004-0000-0B00-000048010000}"/>
+    <hyperlink ref="B289" r:id="rId270" tooltip="Find N Unique Integers Sum up to Zero" display="https://leetcode.com/problems/find-n-unique-integers-sum-up-to-zero" xr:uid="{00000000-0004-0000-0B00-000049010000}"/>
+    <hyperlink ref="B257" r:id="rId271" tooltip="Remove Zero Sum Consecutive Nodes from Linked List" display="https://leetcode.com/problems/remove-zero-sum-consecutive-nodes-from-linked-list" xr:uid="{00000000-0004-0000-0B00-00004A010000}"/>
+    <hyperlink ref="B58" r:id="rId272" tooltip="Friend Requests II: Who Has the Most Friends" display="https://leetcode.com/problems/friend-requests-ii-who-has-the-most-friends" xr:uid="{00000000-0004-0000-0B00-00004B010000}"/>
+    <hyperlink ref="B317" r:id="rId273" tooltip="Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree" display="https://leetcode.com/problems/check-if-a-string-is-a-valid-sequence-from-root-to-leaves-path-in-a-binary-tree" xr:uid="{00000000-0004-0000-0B00-00004C010000}"/>
+    <hyperlink ref="B320" r:id="rId274" tooltip="Rearrange Words in a Sentence" display="https://leetcode.com/problems/rearrange-words-in-a-sentence" xr:uid="{00000000-0004-0000-0B00-00004E010000}"/>
+    <hyperlink ref="B254" r:id="rId275" tooltip="Product Price at a Given Date" display="https://leetcode.com/problems/product-price-at-a-given-date" xr:uid="{00000000-0004-0000-0B00-00004F010000}"/>
+    <hyperlink ref="B321" r:id="rId276" tooltip="Active Users" display="https://leetcode.com/problems/active-users" xr:uid="{00000000-0004-0000-0B00-000050010000}"/>
+    <hyperlink ref="B287" r:id="rId277" tooltip="Shortest Path in a Grid with Obstacles Elimination" display="https://leetcode.com/problems/shortest-path-in-a-grid-with-obstacles-elimination" xr:uid="{00000000-0004-0000-0B00-000051010000}"/>
+    <hyperlink ref="B314" r:id="rId278" tooltip="Longest Happy String" display="https://leetcode.com/problems/longest-happy-string" xr:uid="{00000000-0004-0000-0B00-000052010000}"/>
+    <hyperlink ref="B323" r:id="rId279" tooltip="Sales by Day of the Week" display="https://leetcode.com/problems/sales-by-day-of-the-week" xr:uid="{00000000-0004-0000-0B00-000053010000}"/>
+    <hyperlink ref="B318" r:id="rId280" tooltip="Kids With the Greatest Number of Candies" display="https://leetcode.com/problems/kids-with-the-greatest-number-of-candies" xr:uid="{00000000-0004-0000-0B00-000054010000}"/>
+    <hyperlink ref="B322" r:id="rId281" tooltip="Allocate Mailboxes" display="https://leetcode.com/problems/allocate-mailboxes" xr:uid="{00000000-0004-0000-0B00-000055010000}"/>
+    <hyperlink ref="B11" r:id="rId282" tooltip="Count The Repetitions" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0B00-000056010000}"/>
+    <hyperlink ref="B161" r:id="rId283" tooltip="Possible Bipartition" display="https://leetcode.com/problems/possible-bipartition" xr:uid="{00000000-0004-0000-0B00-000057010000}"/>
+    <hyperlink ref="B328" r:id="rId284" tooltip="Maximum Number of Non-Overlapping Substrings" display="https://leetcode.com/problems/maximum-number-of-non-overlapping-substrings" xr:uid="{00000000-0004-0000-0B00-000058010000}"/>
+    <hyperlink ref="B12" r:id="rId285" tooltip="Encode String with Shortest Length" display="https://leetcode.com/problems/encode-string-with-shortest-length" xr:uid="{00000000-0004-0000-0B00-000059010000}"/>
+    <hyperlink ref="B164" r:id="rId286" tooltip="All Possible Full Binary Trees" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0B00-00005A010000}"/>
+    <hyperlink ref="B324" r:id="rId287" tooltip="Running Sum of 1d Array" display="https://leetcode.com/problems/running-sum-of-1d-array" xr:uid="{00000000-0004-0000-0B00-00005B010000}"/>
+    <hyperlink ref="B133" r:id="rId288" tooltip="Largest Sum of Averages" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0B00-00005D010000}"/>
+    <hyperlink ref="B167" r:id="rId289" tooltip="Increasing Order Search Tree" display="https://leetcode.com/problems/increasing-order-search-tree" xr:uid="{00000000-0004-0000-0B00-00005E010000}"/>
+    <hyperlink ref="B331" r:id="rId290" tooltip="Shortest Subarray to be Removed to Make Array Sorted" display="https://leetcode.com/problems/shortest-subarray-to-be-removed-to-make-array-sorted" xr:uid="{00000000-0004-0000-0B00-00005F010000}"/>
+    <hyperlink ref="B61" r:id="rId291" tooltip="Average Salary: Departments VS Company" display="https://leetcode.com/problems/average-salary-departments-vs-company" xr:uid="{00000000-0004-0000-0B00-000060010000}"/>
+    <hyperlink ref="B166" r:id="rId292" tooltip="Monotonic Array" display="https://leetcode.com/problems/monotonic-array" xr:uid="{00000000-0004-0000-0B00-000061010000}"/>
+    <hyperlink ref="B264" r:id="rId293" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0B00-000062010000}"/>
+    <hyperlink ref="B327" r:id="rId294" tooltip="Number of Good Pairs" display="https://leetcode.com/problems/number-of-good-pairs" xr:uid="{00000000-0004-0000-0B00-000063010000}"/>
+    <hyperlink ref="B298" r:id="rId295" tooltip="Break a Palindrome" display="https://leetcode.com/problems/break-a-palindrome" xr:uid="{00000000-0004-0000-0B00-000064010000}"/>
+    <hyperlink ref="B212" r:id="rId296" tooltip="Divisor Game" display="https://leetcode.com/problems/divisor-game" xr:uid="{00000000-0004-0000-0B00-000065010000}"/>
+    <hyperlink ref="B319" r:id="rId297" tooltip="Count Good Nodes in Binary Tree" display="https://leetcode.com/problems/count-good-nodes-in-binary-tree" xr:uid="{00000000-0004-0000-0B00-000066010000}"/>
+    <hyperlink ref="B333" r:id="rId298" tooltip="Design Parking System" display="https://leetcode.com/problems/design-parking-system" xr:uid="{00000000-0004-0000-0B00-000067010000}"/>
+    <hyperlink ref="B278" r:id="rId299" tooltip="Synonymous Sentences" display="https://leetcode.com/problems/synonymous-sentences" xr:uid="{00000000-0004-0000-0B00-000068010000}"/>
+    <hyperlink ref="B271" r:id="rId300" tooltip="Maximum Length of a Concatenated String with Unique Characters" display="https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters" xr:uid="{00000000-0004-0000-0B00-000069010000}"/>
+    <hyperlink ref="B330" r:id="rId301" tooltip="Warehouse Manager" display="https://leetcode.com/problems/warehouse-manager" xr:uid="{00000000-0004-0000-0B00-00006A010000}"/>
+    <hyperlink ref="B43" r:id="rId302" tooltip="Remove Boxes" display="https://leetcode.com/problems/remove-boxes" xr:uid="{00000000-0004-0000-0B00-00006B010000}"/>
+    <hyperlink ref="B140" r:id="rId303" tooltip="Consecutive Numbers Sum" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0B00-00006C010000}"/>
+    <hyperlink ref="B303" r:id="rId304" tooltip="Jump Game IV" display="https://leetcode.com/problems/jump-game-iv" xr:uid="{00000000-0004-0000-0B00-00006D010000}"/>
+    <hyperlink ref="B326" r:id="rId305" tooltip="Minimum Possible Integer After at Most K Adjacent Swaps On Digits" display="https://leetcode.com/problems/minimum-possible-integer-after-at-most-k-adjacent-swaps-on-digits" xr:uid="{00000000-0004-0000-0B00-00006E010000}"/>
+    <hyperlink ref="B216" r:id="rId306" tooltip="Robot Bounded In Circle" display="https://leetcode.com/problems/robot-bounded-in-circle" xr:uid="{00000000-0004-0000-0B00-00006F010000}"/>
+    <hyperlink ref="B299" r:id="rId307" tooltip="Rank Transform of an Array" display="https://leetcode.com/problems/rank-transform-of-an-array" xr:uid="{00000000-0004-0000-0B00-000070010000}"/>
+    <hyperlink ref="B315" r:id="rId308" tooltip="Restore The Array" display="https://leetcode.com/problems/restore-the-array" xr:uid="{00000000-0004-0000-0B00-000071010000}"/>
+    <hyperlink ref="B325" r:id="rId309" tooltip="Least Number of Unique Integers after K Removals" display="https://leetcode.com/problems/least-number-of-unique-integers-after-k-removals" xr:uid="{00000000-0004-0000-0B00-000072010000}"/>
+    <hyperlink ref="B231" r:id="rId310" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
+    <hyperlink ref="B235" r:id="rId311" tooltip="New Users Daily Count" display="https://leetcode.com/problems/new-users-daily-count" xr:uid="{00000000-0004-0000-0B00-000074010000}"/>
+    <hyperlink ref="B262" r:id="rId312" tooltip="Remove All Adjacent Duplicates in String II" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii" xr:uid="{00000000-0004-0000-0B00-000075010000}"/>
+    <hyperlink ref="B310" r:id="rId313" tooltip="Design a Stack With Increment Operation" display="https://leetcode.com/problems/design-a-stack-with-increment-operation" xr:uid="{00000000-0004-0000-0B00-000076010000}"/>
+    <hyperlink ref="B332" r:id="rId314" tooltip="Build Binary Expression Tree From Infix Expression" display="https://leetcode.com/problems/build-binary-expression-tree-from-infix-expression" xr:uid="{00000000-0004-0000-0B00-000077010000}"/>
+    <hyperlink ref="B269" r:id="rId315" tooltip="Maximum Profit in Job Scheduling" display="https://leetcode.com/problems/maximum-profit-in-job-scheduling" xr:uid="{00000000-0004-0000-0B00-000078010000}"/>
+    <hyperlink ref="B175" r:id="rId316" tooltip="Flip String to Monotone Increasing" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0B00-000079010000}"/>
+    <hyperlink ref="B295" r:id="rId317" tooltip="Restaurant Growth" display="https://leetcode.com/problems/restaurant-growth" xr:uid="{00000000-0004-0000-0B00-00007A010000}"/>
+    <hyperlink ref="B180" r:id="rId318" tooltip="Reveal Cards In Increasing Order" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0B00-00007B010000}"/>
+    <hyperlink ref="B335" r:id="rId319" tooltip="Design an Expression Tree With Evaluate Function" display="https://leetcode.com/problems/design-an-expression-tree-with-evaluate-function" xr:uid="{00000000-0004-0000-0B00-00007C010000}"/>
+    <hyperlink ref="B336" r:id="rId320" tooltip="Slowest Key" display="https://leetcode.com/problems/slowest-key" xr:uid="{00000000-0004-0000-0B00-00007D010000}"/>
+    <hyperlink ref="B334" r:id="rId321" tooltip="Maximal Network Rank" display="https://leetcode.com/problems/maximal-network-rank" xr:uid="{00000000-0004-0000-0B00-00007E010000}"/>
+    <hyperlink ref="B286" r:id="rId322" tooltip="Sequential Digits" display="https://leetcode.com/problems/sequential-digits" xr:uid="{00000000-0004-0000-0B00-00007F010000}"/>
+    <hyperlink ref="B293" r:id="rId323" tooltip="Decompress Run-Length Encoded List" display="https://leetcode.com/problems/decompress-run-length-encoded-list" xr:uid="{00000000-0004-0000-0B00-000080010000}"/>
+    <hyperlink ref="B329" r:id="rId324" tooltip="Kth Missing Positive Number" display="https://leetcode.com/problems/kth-missing-positive-number" xr:uid="{00000000-0004-0000-0B00-000081010000}"/>
+    <hyperlink ref="B337" r:id="rId325" tooltip="Maximum Units on a Truck" display="https://leetcode.com/problems/maximum-units-on-a-truck" xr:uid="{00000000-0004-0000-0B00-000082010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33613,10 +34278,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -35510,8 +36175,15 @@
       <c r="D98" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
+      <c r="E98" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G98" s="81" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1">
       <c r="A99" s="102">
@@ -36441,375 +37113,477 @@
       <c r="F172" s="34"/>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1">
-      <c r="B173" s="61"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
+      <c r="A173" s="25">
+        <v>643</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D173" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G173" s="81" t="s">
+        <v>1567</v>
+      </c>
     </row>
     <row r="174" spans="1:7" ht="15" customHeight="1">
-      <c r="A174" s="32">
-        <v>750</v>
-      </c>
-      <c r="B174" s="61" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C174" s="54" t="s">
-        <v>1224</v>
-      </c>
+      <c r="A174" s="4">
+        <v>644</v>
+      </c>
+      <c r="B174" s="143" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C174" s="22"/>
       <c r="D174" s="32" t="s">
         <v>127</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F174" s="34" t="s">
-        <v>1326</v>
+        <v>1223</v>
       </c>
       <c r="G174" s="81" t="s">
-        <v>1438</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1">
-      <c r="B175" s="61"/>
+      <c r="A175" s="4"/>
+      <c r="B175" s="143"/>
+      <c r="C175" s="22"/>
       <c r="E175" s="34"/>
       <c r="F175" s="34"/>
       <c r="G175" s="81"/>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1">
-      <c r="A176" s="54">
-        <v>856</v>
-      </c>
-      <c r="B176" s="143" t="s">
-        <v>871</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>1566</v>
-      </c>
-      <c r="D176" s="32" t="s">
-        <v>1244</v>
+      <c r="A176" s="25">
+        <v>763</v>
+      </c>
+      <c r="B176" s="26" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>1017</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F176" s="34" t="s">
         <v>1221</v>
       </c>
       <c r="G176" s="81" t="s">
-        <v>1564</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1">
-      <c r="A177" s="93">
-        <v>857</v>
-      </c>
-      <c r="B177" s="119" t="s">
-        <v>794</v>
-      </c>
-      <c r="D177" s="32" t="s">
-        <v>1402</v>
-      </c>
+      <c r="A177" s="4"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="153"/>
+      <c r="D177" s="154"/>
       <c r="E177" s="34"/>
       <c r="F177" s="34"/>
-      <c r="G177" s="81" t="s">
-        <v>1403</v>
-      </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1">
-      <c r="B178" s="61"/>
-      <c r="E178" s="34"/>
-      <c r="F178" s="34"/>
+      <c r="A178" s="32">
+        <v>750</v>
+      </c>
+      <c r="B178" s="61" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C178" s="54" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G178" s="81" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1">
-      <c r="A179" s="32">
-        <v>1249</v>
-      </c>
-      <c r="B179" s="61" t="s">
-        <v>608</v>
-      </c>
-      <c r="C179" s="27" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D179" s="32" t="s">
+      <c r="B179" s="61"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+      <c r="G179" s="81"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1">
+      <c r="A180" s="54">
+        <v>856</v>
+      </c>
+      <c r="B180" s="143" t="s">
+        <v>871</v>
+      </c>
+      <c r="C180" s="54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D180" s="32" t="s">
         <v>1244</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="E180" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="34" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G179" s="81" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1">
-      <c r="A180" s="93"/>
-      <c r="B180" s="61"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="34"/>
+      <c r="F180" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G180" s="81" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1">
-      <c r="B181" s="61"/>
+      <c r="A181" s="93">
+        <v>857</v>
+      </c>
+      <c r="B181" s="119" t="s">
+        <v>794</v>
+      </c>
+      <c r="D181" s="32" t="s">
+        <v>1402</v>
+      </c>
       <c r="E181" s="34"/>
       <c r="F181" s="34"/>
+      <c r="G181" s="81" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1">
-      <c r="A182" s="93"/>
       <c r="B182" s="61"/>
       <c r="E182" s="34"/>
       <c r="F182" s="34"/>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1">
-      <c r="B183" s="61"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
+      <c r="A183" s="32">
+        <v>1024</v>
+      </c>
+      <c r="B183" s="151" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D183" s="32" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E183" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G183" s="152" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="184" spans="1:7" ht="15" customHeight="1">
-      <c r="A184" s="93"/>
       <c r="B184" s="61"/>
       <c r="E184" s="34"/>
       <c r="F184" s="34"/>
     </row>
     <row r="185" spans="1:7" ht="15" customHeight="1">
-      <c r="B185" s="61"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
+      <c r="A185" s="25">
+        <v>946</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="C185" s="22"/>
+      <c r="D185" s="32" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E185" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G185" s="81" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="186" spans="1:7" ht="15" customHeight="1">
-      <c r="A186" s="93"/>
-      <c r="B186" s="61"/>
+      <c r="A186" s="4"/>
+      <c r="B186" s="26"/>
       <c r="C186" s="22"/>
       <c r="E186" s="34"/>
       <c r="F186" s="34"/>
     </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
       <c r="A187" s="32">
-        <v>1658</v>
+        <v>1249</v>
       </c>
       <c r="B187" s="61" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
+        <v>608</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D187" s="32" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E187" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="34" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G187" s="81" t="s">
+        <v>1550</v>
+      </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1">
-      <c r="A188" s="93">
-        <v>1673</v>
-      </c>
-      <c r="B188" s="61" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C188" s="54" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D188" s="32" t="s">
-        <v>1376</v>
-      </c>
+      <c r="A188" s="93"/>
+      <c r="B188" s="61"/>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
-      <c r="G188" s="81" t="s">
-        <v>1375</v>
-      </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1">
-      <c r="A189" s="32">
-        <v>1657</v>
-      </c>
-      <c r="B189" s="61" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D189" s="32" t="s">
-        <v>1336</v>
-      </c>
+      <c r="A189" s="54"/>
+      <c r="D189" s="54"/>
       <c r="E189" s="34"/>
       <c r="F189" s="34"/>
-      <c r="G189" s="81" t="s">
-        <v>1470</v>
-      </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1">
-      <c r="A190" s="93"/>
-      <c r="B190" s="61"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
+      <c r="A190" s="93">
+        <v>1326</v>
+      </c>
+      <c r="B190" s="151" t="s">
+        <v>962</v>
+      </c>
+      <c r="C190" s="54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D190" s="32" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E190" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" s="34" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G190" s="81" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1">
-      <c r="B191" s="61"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
+      <c r="A191" s="54"/>
+      <c r="D191" s="54"/>
+      <c r="G191" s="54"/>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1">
-      <c r="A192" s="93">
-        <v>1329</v>
-      </c>
-      <c r="B192" s="61" t="s">
-        <v>696</v>
-      </c>
-      <c r="D192" s="32" t="s">
-        <v>120</v>
-      </c>
+      <c r="B192" s="61"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
-      <c r="G192" s="81" t="s">
-        <v>1391</v>
-      </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1">
-      <c r="B193" s="61"/>
+      <c r="A193" s="93">
+        <v>1329</v>
+      </c>
+      <c r="B193" s="61" t="s">
+        <v>696</v>
+      </c>
+      <c r="D193" s="32" t="s">
+        <v>120</v>
+      </c>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
+      <c r="G193" s="81" t="s">
+        <v>1391</v>
+      </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1">
-      <c r="A194" s="93"/>
       <c r="B194" s="61"/>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1">
-      <c r="A195" s="93">
+      <c r="A195" s="93"/>
+      <c r="B195" s="61"/>
+      <c r="E195" s="34"/>
+      <c r="F195" s="34"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1">
+      <c r="A196" s="93">
         <v>1353</v>
       </c>
-      <c r="B195" s="61" t="s">
+      <c r="B196" s="61" t="s">
         <v>1157</v>
       </c>
-      <c r="D195" s="32" t="s">
+      <c r="D196" s="32" t="s">
         <v>1480</v>
       </c>
-      <c r="E195" s="34" t="s">
+      <c r="E196" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F195" s="34" t="s">
+      <c r="F196" s="34" t="s">
         <v>1326</v>
       </c>
-      <c r="G195" s="81" t="s">
+      <c r="G196" s="81" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1">
-      <c r="A196" s="93"/>
-      <c r="B196" s="61"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-    </row>
     <row r="197" spans="1:7" ht="15" customHeight="1">
+      <c r="A197" s="93"/>
       <c r="B197" s="61"/>
       <c r="E197" s="34"/>
       <c r="F197" s="34"/>
     </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1">
-      <c r="A199" s="32">
+    <row r="198" spans="1:7" ht="15" customHeight="1">
+      <c r="B198" s="61"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1">
+      <c r="A200" s="32">
         <v>1383</v>
       </c>
-      <c r="B199" s="119" t="s">
+      <c r="B200" s="119" t="s">
         <v>1400</v>
       </c>
-      <c r="D199" s="32" t="s">
+      <c r="D200" s="32" t="s">
         <v>1401</v>
       </c>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="81" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1">
-      <c r="A200" s="93"/>
-      <c r="B200" s="61"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
+      <c r="G200" s="81" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1">
+      <c r="A201" s="93"/>
       <c r="B201" s="61"/>
       <c r="E201" s="34"/>
       <c r="F201" s="34"/>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="93"/>
       <c r="B202" s="61"/>
       <c r="E202" s="34"/>
       <c r="F202" s="34"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="32">
+      <c r="A203" s="93"/>
+      <c r="B203" s="61"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1">
+      <c r="A204" s="32">
         <v>1631</v>
       </c>
-      <c r="B203" s="61" t="s">
+      <c r="B204" s="61" t="s">
         <v>997</v>
       </c>
-      <c r="C203" s="54" t="s">
+      <c r="C204" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D203" s="32" t="s">
+      <c r="D204" s="32" t="s">
         <v>1410</v>
       </c>
-      <c r="E203" s="34" t="s">
+      <c r="E204" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F203" s="34" t="s">
+      <c r="F204" s="34" t="s">
         <v>1301</v>
       </c>
-      <c r="G203" s="81" t="s">
+      <c r="G204" s="81" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="93"/>
-      <c r="B204" s="61"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-    </row>
     <row r="205" spans="1:7" ht="15" customHeight="1">
+      <c r="A205" s="93"/>
       <c r="B205" s="61"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="B206" s="61"/>
+      <c r="A206" s="32">
+        <v>1658</v>
+      </c>
+      <c r="B206" s="61" t="s">
+        <v>1001</v>
+      </c>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="116">
-        <v>1675</v>
+      <c r="A207" s="93">
+        <v>1673</v>
       </c>
       <c r="B207" s="61" t="s">
-        <v>1439</v>
+        <v>1371</v>
+      </c>
+      <c r="C207" s="54" t="s">
+        <v>1372</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E207" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F207" s="34" t="s">
-        <v>1326</v>
-      </c>
+        <v>1376</v>
+      </c>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
       <c r="G207" s="81" t="s">
-        <v>1441</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1">
-      <c r="A208" s="116"/>
-      <c r="B208" s="61"/>
+      <c r="A208" s="32">
+        <v>1657</v>
+      </c>
+      <c r="B208" s="61" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D208" s="32" t="s">
+        <v>1336</v>
+      </c>
       <c r="E208" s="34"/>
       <c r="F208" s="34"/>
+      <c r="G208" s="81" t="s">
+        <v>1470</v>
+      </c>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1">
-      <c r="A209" s="116"/>
       <c r="B209" s="61"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
+      <c r="G209" s="81"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1">
-      <c r="A210" s="116"/>
       <c r="B210" s="61"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
-      <c r="A211" s="116"/>
-      <c r="B211" s="61"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="34"/>
+      <c r="A211" s="116">
+        <v>1675</v>
+      </c>
+      <c r="B211" s="61" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E211" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F211" s="34" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G211" s="81" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
       <c r="A212" s="116"/>
@@ -36830,129 +37604,143 @@
       <c r="F214" s="34"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1">
-      <c r="A215" s="116"/>
-      <c r="B215" s="61"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="34"/>
+      <c r="A215" s="116">
+        <v>1742</v>
+      </c>
+      <c r="B215" s="61" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D215" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E215" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G215" s="81" t="s">
+        <v>1445</v>
+      </c>
     </row>
     <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216" s="116"/>
-      <c r="B216" s="61"/>
-      <c r="E216" s="34"/>
-      <c r="F216" s="34"/>
+      <c r="A216" s="116">
+        <v>1743</v>
+      </c>
+      <c r="B216" s="61" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E216" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216" s="34" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G216" s="81" t="s">
+        <v>1447</v>
+      </c>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1">
       <c r="A217" s="116">
-        <v>1742</v>
+        <v>1750</v>
       </c>
       <c r="B217" s="61" t="s">
-        <v>1444</v>
+        <v>1478</v>
       </c>
       <c r="D217" s="32" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E217" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F217" s="34" t="s">
         <v>1221</v>
       </c>
       <c r="G217" s="81" t="s">
-        <v>1445</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1">
-      <c r="A218" s="116">
-        <v>1743</v>
-      </c>
-      <c r="B218" s="61" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D218" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E218" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" s="34" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G218" s="81" t="s">
-        <v>1447</v>
-      </c>
+      <c r="A218" s="116"/>
+      <c r="B218" s="61"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1">
       <c r="A219" s="116">
-        <v>1750</v>
-      </c>
-      <c r="B219" s="61" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D219" s="32" t="s">
-        <v>139</v>
+        <v>1751</v>
+      </c>
+      <c r="B219" s="82" t="s">
+        <v>1484</v>
       </c>
       <c r="E219" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F219" s="34" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G219" s="81" t="s">
-        <v>1479</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1">
-      <c r="A220" s="116"/>
-      <c r="B220" s="61"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
+      <c r="A220" s="116">
+        <v>1752</v>
+      </c>
+      <c r="B220" s="61" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E220" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F220" s="34" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G220" s="81" t="s">
+        <v>1482</v>
+      </c>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1">
       <c r="A221" s="116">
-        <v>1751</v>
-      </c>
-      <c r="B221" s="82" t="s">
-        <v>1484</v>
+        <v>1755</v>
+      </c>
+      <c r="B221" s="61" t="s">
+        <v>1485</v>
       </c>
       <c r="E221" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F221" s="34" t="s">
-        <v>1009</v>
+        <v>1223</v>
+      </c>
+      <c r="G221" s="81" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1">
-      <c r="A222" s="116">
-        <v>1752</v>
-      </c>
-      <c r="B222" s="61" t="s">
-        <v>1481</v>
-      </c>
-      <c r="E222" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F222" s="34" t="s">
+      <c r="A222" s="93"/>
+      <c r="B222" s="61"/>
+      <c r="E222" s="34"/>
+      <c r="F222" s="34"/>
+    </row>
+    <row r="223" spans="1:7" ht="15" customHeight="1">
+      <c r="A223" s="32">
+        <v>1770</v>
+      </c>
+      <c r="B223" s="143" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D223" s="32" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E223" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" s="34" t="s">
         <v>1326</v>
       </c>
-      <c r="G222" s="81" t="s">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15" customHeight="1">
-      <c r="A223" s="116">
-        <v>1755</v>
-      </c>
-      <c r="B223" s="61" t="s">
-        <v>1485</v>
-      </c>
-      <c r="E223" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F223" s="34" t="s">
-        <v>1223</v>
-      </c>
       <c r="G223" s="81" t="s">
-        <v>1486</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1">
@@ -36961,104 +37749,89 @@
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
     </row>
-    <row r="225" spans="1:7" ht="15" customHeight="1">
-      <c r="A225" s="32">
-        <v>1770</v>
-      </c>
-      <c r="B225" s="143" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D225" s="32" t="s">
-        <v>1560</v>
-      </c>
-      <c r="E225" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F225" s="34" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G225" s="81" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="15" customHeight="1">
+    <row r="225" spans="1:6" ht="15" customHeight="1">
+      <c r="B225" s="61"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" customHeight="1">
       <c r="A226" s="93"/>
       <c r="B226" s="61"/>
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
     </row>
-    <row r="227" spans="1:7" ht="15" customHeight="1">
+    <row r="227" spans="1:6" ht="15" customHeight="1">
       <c r="B227" s="61"/>
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
     </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1">
+    <row r="228" spans="1:6" ht="15" customHeight="1">
       <c r="A228" s="93"/>
       <c r="B228" s="61"/>
       <c r="E228" s="34"/>
       <c r="F228" s="34"/>
     </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1">
+    <row r="229" spans="1:6" ht="15" customHeight="1">
       <c r="B229" s="61"/>
       <c r="E229" s="34"/>
       <c r="F229" s="34"/>
     </row>
-    <row r="230" spans="1:7" ht="15" customHeight="1">
+    <row r="230" spans="1:6" ht="15" customHeight="1">
       <c r="A230" s="93"/>
       <c r="B230" s="61"/>
       <c r="E230" s="34"/>
       <c r="F230" s="34"/>
     </row>
-    <row r="231" spans="1:7" ht="15" customHeight="1">
+    <row r="231" spans="1:6" ht="15" customHeight="1">
       <c r="B231" s="61"/>
       <c r="E231" s="34"/>
       <c r="F231" s="34"/>
     </row>
-    <row r="232" spans="1:7" ht="15" customHeight="1">
+    <row r="232" spans="1:6" ht="15" customHeight="1">
       <c r="A232" s="93"/>
       <c r="B232" s="61"/>
       <c r="E232" s="34"/>
       <c r="F232" s="34"/>
     </row>
-    <row r="233" spans="1:7" ht="15" customHeight="1">
+    <row r="233" spans="1:6" ht="15" customHeight="1">
       <c r="B233" s="61"/>
       <c r="E233" s="34"/>
       <c r="F233" s="34"/>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1">
+    <row r="234" spans="1:6" ht="15" customHeight="1">
       <c r="A234" s="93"/>
       <c r="B234" s="61"/>
       <c r="E234" s="34"/>
       <c r="F234" s="34"/>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1">
+    <row r="235" spans="1:6" ht="15" customHeight="1">
       <c r="B235" s="61"/>
       <c r="E235" s="34"/>
       <c r="F235" s="34"/>
     </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1">
+    <row r="236" spans="1:6" ht="15" customHeight="1">
       <c r="A236" s="93"/>
       <c r="B236" s="61"/>
       <c r="E236" s="34"/>
       <c r="F236" s="34"/>
     </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1">
+    <row r="237" spans="1:6" ht="15" customHeight="1">
       <c r="B237" s="61"/>
       <c r="E237" s="34"/>
       <c r="F237" s="34"/>
     </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1">
+    <row r="238" spans="1:6" ht="15" customHeight="1">
       <c r="A238" s="93"/>
       <c r="B238" s="61"/>
       <c r="E238" s="34"/>
       <c r="F238" s="34"/>
     </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1">
+    <row r="239" spans="1:6" ht="15" customHeight="1">
       <c r="B239" s="61"/>
       <c r="E239" s="34"/>
       <c r="F239" s="34"/>
     </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1">
+    <row r="240" spans="1:6" ht="15" customHeight="1">
       <c r="A240" s="93"/>
       <c r="B240" s="61"/>
       <c r="E240" s="34"/>
@@ -37576,7 +38349,6 @@
       <c r="F333" s="34"/>
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1">
-      <c r="A334" s="93"/>
       <c r="B334" s="61"/>
       <c r="E334" s="34"/>
       <c r="F334" s="34"/>
@@ -37787,12 +38559,10 @@
       <c r="F375" s="34"/>
     </row>
     <row r="376" spans="2:6" ht="15" customHeight="1">
-      <c r="B376" s="61"/>
       <c r="E376" s="34"/>
       <c r="F376" s="34"/>
     </row>
     <row r="377" spans="2:6" ht="15" customHeight="1">
-      <c r="B377" s="61"/>
       <c r="E377" s="34"/>
       <c r="F377" s="34"/>
     </row>
@@ -37836,51 +38606,43 @@
       <c r="E387" s="34"/>
       <c r="F387" s="34"/>
     </row>
-    <row r="388" spans="5:6" ht="15" customHeight="1">
-      <c r="E388" s="34"/>
-      <c r="F388" s="34"/>
-    </row>
-    <row r="389" spans="5:6" ht="15" customHeight="1">
-      <c r="E389" s="34"/>
-      <c r="F389" s="34"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E8 E199:E389 E10:E197">
+  <conditionalFormatting sqref="E2:E8 E10:E190 E200:E387 E192:E198">
     <cfRule type="containsText" dxfId="167" priority="30" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E199:E389 E10:E197">
+  <conditionalFormatting sqref="E2:E8 E10:E190 E200:E387 E192:E198">
     <cfRule type="containsText" dxfId="166" priority="31" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E199:E389 E10:E197">
+  <conditionalFormatting sqref="E2:E8 E10:E190 E200:E387 E192:E198">
     <cfRule type="containsText" dxfId="165" priority="32" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F199:F389 F10:F197">
+  <conditionalFormatting sqref="F2:F8 F10:F190 F200:F387 F192:F198">
     <cfRule type="notContainsBlanks" dxfId="164" priority="25">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F199:F389 F10:F197">
+  <conditionalFormatting sqref="F2:F8 F10:F190 F200:F387 F192:F198">
     <cfRule type="containsText" dxfId="163" priority="26" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F199:F389 F10:F197">
+  <conditionalFormatting sqref="F2:F8 F10:F190 F200:F387 F192:F198">
     <cfRule type="containsText" dxfId="162" priority="27" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F199:F389 F10:F197">
+  <conditionalFormatting sqref="F2:F8 F10:F190 F200:F387 F192:F198">
     <cfRule type="containsText" dxfId="161" priority="28" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F199:F389 F10:F197">
+  <conditionalFormatting sqref="F2:F8 F10:F190 F200:F387 F192:F198">
     <cfRule type="containsText" dxfId="160" priority="29" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
@@ -37926,10 +38688,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H126 F199:F389 F10:F197" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H126 F10:F190 F200:F387 F192:F198" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G126 E199:E389 E10:E197" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G126 E10:E190 E200:E387 E192:E198" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38043,21 +38805,21 @@
     <hyperlink ref="B122" r:id="rId107" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
     <hyperlink ref="B123" r:id="rId108" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
     <hyperlink ref="B124" r:id="rId109" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B187" r:id="rId110" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B206" r:id="rId110" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G22" r:id="rId111" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
     <hyperlink ref="B66" r:id="rId112" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
     <hyperlink ref="D66" r:id="rId113" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
     <hyperlink ref="B67" r:id="rId114" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
-    <hyperlink ref="B188" r:id="rId115" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B189" r:id="rId116" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B192" r:id="rId117" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B207" r:id="rId115" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B208" r:id="rId116" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B193" r:id="rId117" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
     <hyperlink ref="B125" r:id="rId118" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
     <hyperlink ref="B127" r:id="rId119" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
     <hyperlink ref="B126" r:id="rId120" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
     <hyperlink ref="B128" r:id="rId121" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B199" r:id="rId122" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
-    <hyperlink ref="B177" r:id="rId123" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B203" r:id="rId124" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B200" r:id="rId122" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B181" r:id="rId123" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B204" r:id="rId124" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
     <hyperlink ref="B129" r:id="rId125" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
     <hyperlink ref="B131" r:id="rId126" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
     <hyperlink ref="B132" r:id="rId127" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
@@ -38100,29 +38862,35 @@
     <hyperlink ref="D158" r:id="rId164" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
     <hyperlink ref="B161" r:id="rId165" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
     <hyperlink ref="B160" r:id="rId166" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
-    <hyperlink ref="B174" r:id="rId167" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
-    <hyperlink ref="B207" r:id="rId168" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
-    <hyperlink ref="B217" r:id="rId169" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
-    <hyperlink ref="B218" r:id="rId170" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
+    <hyperlink ref="B178" r:id="rId167" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
+    <hyperlink ref="B211" r:id="rId168" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
+    <hyperlink ref="B215" r:id="rId169" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
+    <hyperlink ref="B216" r:id="rId170" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
     <hyperlink ref="B167" r:id="rId171" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
     <hyperlink ref="B45" r:id="rId172" tooltip="Maximum Subarray" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
     <hyperlink ref="B47" r:id="rId173" tooltip="Jump Game" display="https://leetcode.com/problems/jump-game" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="B46" r:id="rId174" xr:uid="{DFB65389-C1B1-4C39-9147-A098CAA5A5B4}"/>
-    <hyperlink ref="B219" r:id="rId175" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
-    <hyperlink ref="B195" r:id="rId176" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
-    <hyperlink ref="B222" r:id="rId177" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
-    <hyperlink ref="B221" r:id="rId178" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
-    <hyperlink ref="B223" r:id="rId179" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
+    <hyperlink ref="B217" r:id="rId175" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
+    <hyperlink ref="B196" r:id="rId176" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
+    <hyperlink ref="B220" r:id="rId177" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
+    <hyperlink ref="B219" r:id="rId178" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
+    <hyperlink ref="B221" r:id="rId179" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
     <hyperlink ref="B171" r:id="rId180" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
-    <hyperlink ref="B179" r:id="rId181" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
+    <hyperlink ref="B187" r:id="rId181" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
     <hyperlink ref="B163" r:id="rId182" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
-    <hyperlink ref="B225" r:id="rId183" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
-    <hyperlink ref="B176" r:id="rId184" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
+    <hyperlink ref="B223" r:id="rId183" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
+    <hyperlink ref="B180" r:id="rId184" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
     <hyperlink ref="B165" r:id="rId185" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
+    <hyperlink ref="B173" r:id="rId186" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
+    <hyperlink ref="B174" r:id="rId187" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
+    <hyperlink ref="B185" r:id="rId188" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
+    <hyperlink ref="B183" r:id="rId190" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
+    <hyperlink ref="B176" r:id="rId191" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId186"/>
-  <legacyDrawing r:id="rId187"/>
+  <pageSetup orientation="portrait" r:id="rId192"/>
+  <legacyDrawing r:id="rId193"/>
 </worksheet>
 </file>
 
@@ -38131,7 +38899,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -41381,69 +42149,69 @@
       <c r="B33" t="s">
         <v>1538</v>
       </c>
-      <c r="E33" s="147" t="s">
+      <c r="E33" s="149" t="s">
         <v>1545</v>
       </c>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>1539</v>
       </c>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>1540</v>
       </c>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>1541</v>
       </c>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>1542</v>
       </c>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>1539</v>
       </c>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
@@ -42543,8 +43311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -42807,9 +43575,15 @@
       <c r="D22" s="35" t="s">
         <v>713</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="32"/>
+      <c r="E22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="4"/>

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1132C990-57E1-4627-8476-D44D185F36C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5408D-DC83-4FC7-9B7C-4196AAC1FCC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Google" sheetId="1" r:id="rId1"/>
@@ -696,7 +696,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B204" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
+    <comment ref="B199" authorId="0" shapeId="0" xr:uid="{F9BA9DB8-A53C-4151-9774-9F2D2A981FE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The idea is to find stamp pattern matching index and replace all characters with '?' within stamp.length range. Store index into the result List. Keep on doing till the whole target string turns into an aray of ignoring chars '?'   
+Return "Reverse the index list" as we converted the whole into a target into array of '?' characters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B206" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
       <text>
         <r>
           <rPr>
@@ -720,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B214" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B216" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -745,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B216" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
+    <comment ref="B218" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
       <text>
         <r>
           <rPr>
@@ -777,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B221" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B223" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
       <text>
         <r>
           <rPr>
@@ -801,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B242" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
+    <comment ref="B244" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
       <text>
         <r>
           <rPr>
@@ -1966,7 +1991,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3883" uniqueCount="1663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1665">
   <si>
     <t>#</t>
   </si>
@@ -21584,12 +21609,182 @@
 	return res;
 }</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public bool IncreasingTriplet(int[] nums) {
+	if (nums == null || nums.Length &lt; 3) {
+		return false;
+	}
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int minOne = int.MaxValue;
+	int minTwo = int.MaxValue;
+	foreach (int num in nums) {
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (num &lt; minOne) {
+			minOne = num;
+		}
+		else if (num &gt; minOne &amp;&amp; num &lt; minTwo) 
+		{
+			minTwo = num;
+		}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+		else if(num &gt; minTwo)
+		{
+			return true;    
+		}
+	}
+	return false;
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	//Find Longest Increasing Subsequnece
+	int[] dp = new int[nums.Length];
+	dp[0] = 1;
+	int maxLength = 1;
+	for (int i = 1; i &lt; nums.Length; i++) 
+	{ 
+		dp[i] = 1; 
+		for (int j = 0; j&lt;i; j++)
+		{   
+			if (nums[i] &gt; nums[j] &amp;&amp; dp[i] &lt;= dp[j] ) 
+			{
+				dp[i] = dp[j] + 1;  
+				maxLength = Math.Max(maxLength, dp[i]);
+			}
+		}
+	}
+	//return true if max LIS is &gt;= 3
+	return maxLength &gt;= 3;
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public  int[] MovesToStamp(string stamp, string target)
+{
+	/*
+	Here the idea is to find stamp pattern matching index and replace all characters with '?' within stamp.length range. Keep on doing till the whole target string turns into an aray of ignoring chars '?'   
+	*/
+	IList&lt;int&gt; stampIndicies = new List&lt;int&gt;();
+	//"abca", target = "aabcaca"
+	int TotalCharReplaceCount = target.Length;
+	while (TotalCharReplaceCount &gt; 0)
+	{
+		int[] stampPatternMatchInfo = GetStampPatternMatchingInfo(target, stamp);
+		int i = stampPatternMatchInfo[0];
+		int nonIgnoreCharCount = stampPatternMatchInfo[1];
+		if (i == -1) //cant we cant apply stamp on the target  
+			return new int[]{};
+		else
+		{   
+			target = target.Remove(i, stamp.Length)
+				.Insert(i, new string('?', stamp.Length));
+			stampIndicies.Add(i);
+			TotalCharReplaceCount -= nonIgnoreCharCount;
+		}
+	}
+                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//reverse indicies as we made whole target into array of '?' characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	return stampIndicies.Reverse().ToArray();
+}
+static int[] GetStampPatternMatchingInfo(string target, string stamp)
+{
+	//returns - array of "stamp" pattern match 'index' and non ignore char '?' count
+	int[] stampPatternMatchInfo = new int[2] { -1, 0};
+	for(int i = 0; i &lt;= target.Length - stamp.Length; i++)
+	{
+		bool isStampPatternMatched = true;
+		int nonIgnoreCharCount = 0; //how many non '?' to be replaced
+		for (int j = 0; j &lt; stamp.Length; j++)
+		{
+			if (target[i + j] != '?')
+			{
+				nonIgnoreCharCount ++;
+				if(target[i + j] != stamp[j])
+				{
+					nonIgnoreCharCount = 0;
+					isStampPatternMatched = false;
+					break;
+				}
+			}
+		}
+		//"stamp" pattern match must be matched in case of atleast 1 non ignoring character ('?)
+		if (isStampPatternMatched &amp;&amp; nonIgnoreCharCount &gt; 0)
+		{
+			stampPatternMatchInfo[0] = i;
+			stampPatternMatchInfo[1] = nonIgnoreCharCount;
+			break;
+		}
+	}
+	return stampPatternMatchInfo;
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="81">
+  <fonts count="82">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22161,6 +22356,15 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -27284,8 +27488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F185"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:E94"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -28598,15 +28802,6 @@
       <c r="E107" s="16"/>
     </row>
     <row r="108" spans="1:5" ht="15" customHeight="1">
-      <c r="A108">
-        <v>936</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>651</v>
-      </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
     </row>
@@ -39975,10 +40170,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
-    <sheetView topLeftCell="A149" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -42149,14 +42344,21 @@
       <c r="A119" s="92">
         <v>334</v>
       </c>
-      <c r="B119" s="61" t="s">
+      <c r="B119" s="82" t="s">
         <v>440</v>
       </c>
       <c r="D119" s="32" t="s">
         <v>1256</v>
       </c>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
+      <c r="E119" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G119" s="81" t="s">
+        <v>1663</v>
+      </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1">
       <c r="A120" s="30">
@@ -43203,123 +43405,133 @@
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1">
-      <c r="A198" s="25"/>
-      <c r="B198" s="26"/>
+      <c r="A198" s="4"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="22"/>
       <c r="E198" s="34"/>
       <c r="F198" s="34"/>
+      <c r="G198" s="81"/>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1">
-      <c r="A199" s="25">
-        <v>946</v>
-      </c>
-      <c r="B199" s="26" t="s">
-        <v>896</v>
-      </c>
-      <c r="C199" s="22"/>
+      <c r="A199">
+        <v>936</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>1217</v>
+      </c>
       <c r="D199" s="32" t="s">
-        <v>1558</v>
+        <v>1237</v>
       </c>
       <c r="E199" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F199" s="34" t="s">
-        <v>1214</v>
+        <v>1316</v>
       </c>
       <c r="G199" s="81" t="s">
-        <v>1559</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1">
-      <c r="A200" s="4"/>
-      <c r="B200" s="26"/>
+      <c r="A200"/>
+      <c r="B200" s="199"/>
       <c r="C200" s="22"/>
       <c r="E200" s="34"/>
       <c r="F200" s="34"/>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1">
-      <c r="A201" s="32">
-        <v>1249</v>
-      </c>
-      <c r="B201" s="61" t="s">
-        <v>606</v>
-      </c>
-      <c r="C201" s="27" t="s">
-        <v>1537</v>
-      </c>
+      <c r="A201" s="25">
+        <v>946</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>896</v>
+      </c>
+      <c r="C201" s="22"/>
       <c r="D201" s="32" t="s">
-        <v>1237</v>
+        <v>1558</v>
       </c>
       <c r="E201" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F201" s="34" t="s">
-        <v>1316</v>
+        <v>1214</v>
       </c>
       <c r="G201" s="81" t="s">
-        <v>1538</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="92"/>
-      <c r="B202" s="61"/>
+      <c r="A202" s="4"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="22"/>
       <c r="E202" s="34"/>
       <c r="F202" s="34"/>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
+      <c r="A203" s="32">
+        <v>1249</v>
+      </c>
+      <c r="B203" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D203" s="32" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E203" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G203" s="81" t="s">
+        <v>1538</v>
+      </c>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="92">
-        <v>1326</v>
-      </c>
-      <c r="B204" s="148" t="s">
-        <v>958</v>
-      </c>
-      <c r="C204" s="54" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D204" s="32" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E204" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F204" s="34" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G204" s="81" t="s">
-        <v>1566</v>
-      </c>
+      <c r="A204" s="92"/>
+      <c r="B204" s="61"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1">
       <c r="A205" s="54"/>
       <c r="D205" s="54"/>
-      <c r="G205" s="54"/>
+      <c r="E205" s="34"/>
+      <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="B206" s="61"/>
-      <c r="E206" s="34"/>
-      <c r="F206" s="34"/>
+      <c r="A206" s="92">
+        <v>1326</v>
+      </c>
+      <c r="B206" s="148" t="s">
+        <v>958</v>
+      </c>
+      <c r="C206" s="54" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D206" s="32" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E206" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F206" s="34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G206" s="81" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="92">
-        <v>1329</v>
-      </c>
-      <c r="B207" s="61" t="s">
-        <v>692</v>
-      </c>
-      <c r="D207" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E207" s="34"/>
-      <c r="F207" s="34"/>
-      <c r="G207" s="81" t="s">
-        <v>1380</v>
-      </c>
+      <c r="A207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="G207" s="54"/>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1">
       <c r="B208" s="61"/>
@@ -43327,30 +43539,25 @@
       <c r="F208" s="34"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1">
-      <c r="A209" s="92"/>
-      <c r="B209" s="61"/>
+      <c r="A209" s="92">
+        <v>1329</v>
+      </c>
+      <c r="B209" s="61" t="s">
+        <v>692</v>
+      </c>
+      <c r="D209" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
+      <c r="G209" s="81" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1">
-      <c r="A210" s="92">
-        <v>1353</v>
-      </c>
-      <c r="B210" s="61" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D210" s="32" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E210" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F210" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G210" s="81" t="s">
-        <v>1471</v>
-      </c>
+      <c r="B210" s="61"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
       <c r="A211" s="92"/>
@@ -43359,50 +43566,50 @@
       <c r="F211" s="34"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
-      <c r="B212" s="61"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="34"/>
+      <c r="A212" s="92">
+        <v>1353</v>
+      </c>
+      <c r="B212" s="61" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D212" s="32" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E212" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G212" s="81" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1">
+      <c r="A213" s="92"/>
+      <c r="B213" s="61"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
     </row>
     <row r="214" spans="1:7" ht="15" customHeight="1">
-      <c r="A214" s="32">
-        <v>1383</v>
-      </c>
-      <c r="B214" s="118" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D214" s="32" t="s">
-        <v>1390</v>
-      </c>
+      <c r="B214" s="61"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
-      <c r="G214" s="81" t="s">
+    </row>
+    <row r="216" spans="1:7" ht="15" customHeight="1">
+      <c r="A216" s="32">
+        <v>1383</v>
+      </c>
+      <c r="B216" s="118" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D216" s="32" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="81" t="s">
         <v>1397</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="15" customHeight="1">
-      <c r="A215" s="92"/>
-      <c r="B215" s="61"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="34"/>
-    </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216">
-        <v>1498</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="D216" s="22" t="s">
-        <v>1650</v>
-      </c>
-      <c r="E216" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F216" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G216" s="81" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15" customHeight="1">
@@ -43412,26 +43619,23 @@
       <c r="F217" s="34"/>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1">
-      <c r="A218" s="32">
-        <v>1631</v>
-      </c>
-      <c r="B218" s="61" t="s">
-        <v>993</v>
-      </c>
-      <c r="C218" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D218" s="32" t="s">
-        <v>1398</v>
+      <c r="A218">
+        <v>1498</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>1650</v>
       </c>
       <c r="E218" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F218" s="34" t="s">
-        <v>1291</v>
+        <v>1316</v>
       </c>
       <c r="G218" s="81" t="s">
-        <v>1428</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1">
@@ -43442,91 +43646,108 @@
     </row>
     <row r="220" spans="1:7" ht="15" customHeight="1">
       <c r="A220" s="32">
-        <v>1658</v>
+        <v>1631</v>
       </c>
       <c r="B220" s="61" t="s">
-        <v>997</v>
-      </c>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
+        <v>993</v>
+      </c>
+      <c r="C220" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D220" s="32" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E220" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220" s="34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G220" s="81" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="221" spans="1:7" ht="15" customHeight="1">
-      <c r="A221" s="92">
-        <v>1673</v>
-      </c>
-      <c r="B221" s="61" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C221" s="54" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D221" s="32" t="s">
-        <v>1365</v>
-      </c>
+      <c r="A221" s="92"/>
+      <c r="B221" s="61"/>
       <c r="E221" s="34"/>
       <c r="F221" s="34"/>
-      <c r="G221" s="81" t="s">
-        <v>1364</v>
-      </c>
     </row>
     <row r="222" spans="1:7" ht="15" customHeight="1">
       <c r="A222" s="32">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B222" s="61" t="s">
-        <v>1369</v>
-      </c>
-      <c r="D222" s="32" t="s">
-        <v>1326</v>
+        <v>997</v>
       </c>
       <c r="E222" s="34"/>
       <c r="F222" s="34"/>
-      <c r="G222" s="81" t="s">
-        <v>1458</v>
-      </c>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1">
-      <c r="B223" s="61"/>
+      <c r="A223" s="92">
+        <v>1673</v>
+      </c>
+      <c r="B223" s="61" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C223" s="54" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D223" s="32" t="s">
+        <v>1365</v>
+      </c>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
-      <c r="G223" s="81"/>
+      <c r="G223" s="81" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1">
-      <c r="B224" s="61"/>
+      <c r="A224" s="32">
+        <v>1657</v>
+      </c>
+      <c r="B224" s="61" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D224" s="32" t="s">
+        <v>1326</v>
+      </c>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
+      <c r="G224" s="81" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="225" spans="1:7" ht="15" customHeight="1">
-      <c r="A225" s="115">
-        <v>1675</v>
-      </c>
-      <c r="B225" s="61" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D225" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E225" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F225" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G225" s="81" t="s">
-        <v>1429</v>
-      </c>
+      <c r="B225" s="61"/>
+      <c r="E225" s="34"/>
+      <c r="F225" s="34"/>
+      <c r="G225" s="81"/>
     </row>
     <row r="226" spans="1:7" ht="15" customHeight="1">
-      <c r="A226" s="115"/>
       <c r="B226" s="61"/>
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
     </row>
     <row r="227" spans="1:7" ht="15" customHeight="1">
-      <c r="A227" s="115"/>
-      <c r="B227" s="61"/>
-      <c r="E227" s="34"/>
-      <c r="F227" s="34"/>
+      <c r="A227" s="115">
+        <v>1675</v>
+      </c>
+      <c r="B227" s="61" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D227" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E227" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G227" s="81" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="228" spans="1:7" ht="15" customHeight="1">
       <c r="A228" s="115"/>
@@ -43535,143 +43756,129 @@
       <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:7" ht="15" customHeight="1">
-      <c r="A229" s="115">
-        <v>1742</v>
-      </c>
-      <c r="B229" s="61" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D229" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E229" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F229" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G229" s="81" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A229" s="115"/>
+      <c r="B229" s="61"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
     </row>
     <row r="230" spans="1:7" ht="15" customHeight="1">
-      <c r="A230" s="115">
-        <v>1743</v>
-      </c>
-      <c r="B230" s="61" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D230" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E230" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G230" s="81" t="s">
-        <v>1435</v>
-      </c>
+      <c r="A230" s="115"/>
+      <c r="B230" s="61"/>
+      <c r="E230" s="34"/>
+      <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:7" ht="15" customHeight="1">
       <c r="A231" s="115">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="B231" s="61" t="s">
-        <v>1466</v>
+        <v>1432</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E231" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F231" s="34" t="s">
         <v>1214</v>
       </c>
       <c r="G231" s="81" t="s">
-        <v>1467</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15" customHeight="1">
-      <c r="A232" s="115"/>
-      <c r="B232" s="61"/>
-      <c r="E232" s="34"/>
-      <c r="F232" s="34"/>
+      <c r="A232" s="115">
+        <v>1743</v>
+      </c>
+      <c r="B232" s="61" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D232" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E232" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G232" s="81" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="233" spans="1:7" ht="15" customHeight="1">
       <c r="A233" s="115">
-        <v>1751</v>
-      </c>
-      <c r="B233" s="82" t="s">
-        <v>1472</v>
+        <v>1750</v>
+      </c>
+      <c r="B233" s="61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D233" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="E233" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F233" s="34" t="s">
-        <v>1005</v>
+        <v>1214</v>
+      </c>
+      <c r="G233" s="81" t="s">
+        <v>1467</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15" customHeight="1">
-      <c r="A234" s="115">
-        <v>1752</v>
-      </c>
-      <c r="B234" s="61" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E234" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F234" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G234" s="81" t="s">
-        <v>1470</v>
-      </c>
+      <c r="A234" s="115"/>
+      <c r="B234" s="61"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="34"/>
     </row>
     <row r="235" spans="1:7" ht="15" customHeight="1">
       <c r="A235" s="115">
-        <v>1755</v>
-      </c>
-      <c r="B235" s="61" t="s">
-        <v>1473</v>
+        <v>1751</v>
+      </c>
+      <c r="B235" s="82" t="s">
+        <v>1472</v>
       </c>
       <c r="E235" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F235" s="34" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="15" customHeight="1">
+      <c r="A236" s="115">
+        <v>1752</v>
+      </c>
+      <c r="B236" s="61" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E236" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F236" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G236" s="81" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="15" customHeight="1">
+      <c r="A237" s="115">
+        <v>1755</v>
+      </c>
+      <c r="B237" s="61" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E237" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F237" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G235" s="81" t="s">
+      <c r="G237" s="81" t="s">
         <v>1474</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15" customHeight="1">
-      <c r="A236" s="92"/>
-      <c r="B236" s="61"/>
-      <c r="E236" s="34"/>
-      <c r="F236" s="34"/>
-    </row>
-    <row r="237" spans="1:7" ht="15" customHeight="1">
-      <c r="A237" s="32">
-        <v>1770</v>
-      </c>
-      <c r="B237" s="142" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D237" s="32" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E237" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F237" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G237" s="81" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15" customHeight="1">
@@ -43682,13 +43889,13 @@
     </row>
     <row r="239" spans="1:7" ht="15" customHeight="1">
       <c r="A239" s="32">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="B239" s="142" t="s">
-        <v>1576</v>
+        <v>1547</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>126</v>
+        <v>1548</v>
       </c>
       <c r="E239" s="34" t="s">
         <v>7</v>
@@ -43697,7 +43904,7 @@
         <v>1316</v>
       </c>
       <c r="G239" s="81" t="s">
-        <v>1577</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15" customHeight="1">
@@ -43707,43 +43914,58 @@
       <c r="F240" s="34"/>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1">
-      <c r="B241" s="61"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
+      <c r="A241" s="32">
+        <v>1774</v>
+      </c>
+      <c r="B241" s="142" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D241" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E241" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F241" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G241" s="81" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="242" spans="1:7" ht="15" customHeight="1">
-      <c r="A242" s="92">
-        <v>5704</v>
-      </c>
-      <c r="B242" s="174" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D242" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E242" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F242" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G242" s="81" t="s">
-        <v>1612</v>
-      </c>
+      <c r="A242" s="92"/>
+      <c r="B242" s="61"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1">
-      <c r="B243" s="173"/>
+      <c r="B243" s="61"/>
       <c r="E243" s="34"/>
       <c r="F243" s="34"/>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1">
-      <c r="A244" s="92"/>
-      <c r="B244" s="61"/>
-      <c r="E244" s="34"/>
-      <c r="F244" s="34"/>
+      <c r="A244" s="92">
+        <v>5704</v>
+      </c>
+      <c r="B244" s="174" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D244" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E244" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F244" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G244" s="81" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1">
-      <c r="B245" s="61"/>
+      <c r="B245" s="173"/>
       <c r="E245" s="34"/>
       <c r="F245" s="34"/>
     </row>
@@ -44309,6 +44531,7 @@
       <c r="F347" s="34"/>
     </row>
     <row r="348" spans="1:6" ht="15" customHeight="1">
+      <c r="A348" s="92"/>
       <c r="B348" s="61"/>
       <c r="E348" s="34"/>
       <c r="F348" s="34"/>
@@ -44519,10 +44742,12 @@
       <c r="F389" s="34"/>
     </row>
     <row r="390" spans="2:6" ht="15" customHeight="1">
+      <c r="B390" s="61"/>
       <c r="E390" s="34"/>
       <c r="F390" s="34"/>
     </row>
     <row r="391" spans="2:6" ht="15" customHeight="1">
+      <c r="B391" s="61"/>
       <c r="E391" s="34"/>
       <c r="F391" s="34"/>
     </row>
@@ -44565,47 +44790,55 @@
     <row r="401" spans="5:6" ht="15" customHeight="1">
       <c r="E401" s="34"/>
       <c r="F401" s="34"/>
+    </row>
+    <row r="402" spans="5:6" ht="15" customHeight="1">
+      <c r="E402" s="34"/>
+      <c r="F402" s="34"/>
+    </row>
+    <row r="403" spans="5:6" ht="15" customHeight="1">
+      <c r="E403" s="34"/>
+      <c r="F403" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H161:H165"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E214:E401 E206:E212 E69:E88 E90:E95 E97:E159 E161:E192 E195:E204">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
     <cfRule type="containsText" dxfId="205" priority="41" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E214:E401 E206:E212 E69:E88 E90:E95 E97:E159 E161:E192 E195:E204">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
     <cfRule type="containsText" dxfId="204" priority="42" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E214:E401 E206:E212 E69:E88 E90:E95 E97:E159 E161:E192 E195:E204">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
     <cfRule type="containsText" dxfId="203" priority="43" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F214:F401 F206:F212 F69:F88 F90:F204">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
     <cfRule type="notContainsBlanks" dxfId="202" priority="36">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F214:F401 F206:F212 F69:F88 F90:F204">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
     <cfRule type="containsText" dxfId="201" priority="37" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F214:F401 F206:F212 F69:F88 F90:F204">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
     <cfRule type="containsText" dxfId="200" priority="38" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F214:F401 F206:F212 F69:F88 F90:F204">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
     <cfRule type="containsText" dxfId="199" priority="39" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F214:F401 F206:F212 F69:F88 F90:F204">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
     <cfRule type="containsText" dxfId="198" priority="40" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
@@ -44706,10 +44939,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H129 F214:F401 F206:F212 F10:F67 F69:F88 F90:F204 E194" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H129 F216:F403 F208:F214 F10:F67 F69:F88 F90:F206 E194" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G129 E214:E401 E206:E212 E10:E67 E69:E88 E90:E95 E97:E159 E161:E193 E195:E204 D193:D194" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G129 E216:E403 E208:E214 E10:E67 E69:E88 E90:E95 E97:E159 E161:E193 E195:E206 D193:D194" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -44820,20 +45053,20 @@
     <hyperlink ref="B125" r:id="rId104" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
     <hyperlink ref="B126" r:id="rId105" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
     <hyperlink ref="B127" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B220" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B222" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G23" r:id="rId108" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
     <hyperlink ref="B67" r:id="rId109" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
     <hyperlink ref="D67" r:id="rId110" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="B221" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B222" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B207" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B223" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B224" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B209" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
     <hyperlink ref="B128" r:id="rId114" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
     <hyperlink ref="B130" r:id="rId115" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
     <hyperlink ref="B129" r:id="rId116" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
     <hyperlink ref="B131" r:id="rId117" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B214" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B216" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
     <hyperlink ref="B191" r:id="rId119" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B218" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B220" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
     <hyperlink ref="B132" r:id="rId121" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
     <hyperlink ref="B134" r:id="rId122" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
     <hyperlink ref="B135" r:id="rId123" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
@@ -44874,40 +45107,40 @@
     <hyperlink ref="B164" r:id="rId158" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
     <hyperlink ref="B163" r:id="rId159" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
     <hyperlink ref="B186" r:id="rId160" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
-    <hyperlink ref="B225" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
-    <hyperlink ref="B229" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
-    <hyperlink ref="B230" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
+    <hyperlink ref="B227" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
+    <hyperlink ref="B231" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
+    <hyperlink ref="B232" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
     <hyperlink ref="B175" r:id="rId164" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
     <hyperlink ref="B46" r:id="rId165" tooltip="Maximum Subarray" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
     <hyperlink ref="B48" r:id="rId166" tooltip="Jump Game" display="https://leetcode.com/problems/jump-game" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="B47" r:id="rId167" xr:uid="{DFB65389-C1B1-4C39-9147-A098CAA5A5B4}"/>
-    <hyperlink ref="B231" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
-    <hyperlink ref="B210" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
-    <hyperlink ref="B234" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
-    <hyperlink ref="B233" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
-    <hyperlink ref="B235" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
+    <hyperlink ref="B233" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
+    <hyperlink ref="B212" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
+    <hyperlink ref="B236" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
+    <hyperlink ref="B235" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
+    <hyperlink ref="B237" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
     <hyperlink ref="B179" r:id="rId173" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
-    <hyperlink ref="B201" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
+    <hyperlink ref="B203" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
     <hyperlink ref="B166" r:id="rId175" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
-    <hyperlink ref="B237" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
+    <hyperlink ref="B239" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
     <hyperlink ref="B190" r:id="rId177" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
     <hyperlink ref="B173" r:id="rId178" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
     <hyperlink ref="B181" r:id="rId179" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
     <hyperlink ref="B182" r:id="rId180" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
-    <hyperlink ref="B199" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="B204" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
+    <hyperlink ref="B201" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
+    <hyperlink ref="B206" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
     <hyperlink ref="B195" r:id="rId183" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
     <hyperlink ref="B184" r:id="rId184" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B239" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
+    <hyperlink ref="B241" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
     <hyperlink ref="D164" r:id="rId186" tooltip="Array" display="Array - Cycle Sort" xr:uid="{EC859E2B-D057-4073-B6B6-56C581737270}"/>
     <hyperlink ref="D43" r:id="rId187" tooltip="Array" display="Array - Cycle Sort" xr:uid="{BB4333F9-0415-4B35-BDCA-391F8221A435}"/>
-    <hyperlink ref="B242" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
+    <hyperlink ref="B244" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
     <hyperlink ref="B98" r:id="rId189" xr:uid="{18634FC0-6758-4823-8652-EE3AB41D1753}"/>
     <hyperlink ref="B99" r:id="rId190" xr:uid="{E0674819-E9CA-4C82-9425-251748605BDB}"/>
     <hyperlink ref="B168" r:id="rId191" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
     <hyperlink ref="B171" r:id="rId192" tooltip="Sort Characters By Frequency" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
     <hyperlink ref="B18" r:id="rId193" xr:uid="{4E883AB7-6682-4E69-AFAA-9423B445CB67}"/>
-    <hyperlink ref="B216" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
+    <hyperlink ref="B218" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
     <hyperlink ref="B193" r:id="rId195" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
     <hyperlink ref="B197" r:id="rId196" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
     <hyperlink ref="B155" r:id="rId197" xr:uid="{0099B707-15B6-4A46-A50F-7BF0C5238231}"/>
@@ -48388,7 +48621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C5408D-DC83-4FC7-9B7C-4196AAC1FCC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932F9C0-94E2-4E36-B19D-A25ABFFB1665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B117" authorId="0" shapeId="0" xr:uid="{9CE0F0BB-C1A5-410F-A263-29BA2E749551}">
+    <comment ref="B118" authorId="0" shapeId="0" xr:uid="{9CE0F0BB-C1A5-410F-A263-29BA2E749551}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B155" authorId="0" shapeId="0" xr:uid="{861BD63E-72BF-4B60-8F90-48901E99E034}">
+    <comment ref="B156" authorId="0" shapeId="0" xr:uid="{861BD63E-72BF-4B60-8F90-48901E99E034}">
       <text>
         <r>
           <rPr>
@@ -451,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B161" authorId="0" shapeId="0" xr:uid="{617906AA-1FA7-44E4-9807-6418EF627CD2}">
+    <comment ref="B162" authorId="0" shapeId="0" xr:uid="{617906AA-1FA7-44E4-9807-6418EF627CD2}">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B164" authorId="0" shapeId="0" xr:uid="{48E077FE-07EE-439A-A1DB-C607AAB6AB9A}">
+    <comment ref="B165" authorId="0" shapeId="0" xr:uid="{48E077FE-07EE-439A-A1DB-C607AAB6AB9A}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B168" authorId="0" shapeId="0" xr:uid="{71337D61-A225-45EB-ABBC-CC0BB81DDD8F}">
+    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{71337D61-A225-45EB-ABBC-CC0BB81DDD8F}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{0DA79498-1FEB-4F02-8757-BFA154333224}">
+    <comment ref="B170" authorId="0" shapeId="0" xr:uid="{0DA79498-1FEB-4F02-8757-BFA154333224}">
       <text>
         <r>
           <rPr>
@@ -548,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B173" authorId="0" shapeId="0" xr:uid="{2F247AF0-AF98-4C13-9E14-48814449B92D}">
+    <comment ref="B174" authorId="0" shapeId="0" xr:uid="{2F247AF0-AF98-4C13-9E14-48814449B92D}">
       <text>
         <r>
           <rPr>
@@ -572,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B182" authorId="0" shapeId="0" xr:uid="{0B07F9B3-96E6-4CDB-BAE2-EC45F100717B}">
+    <comment ref="B183" authorId="0" shapeId="0" xr:uid="{0B07F9B3-96E6-4CDB-BAE2-EC45F100717B}">
       <text>
         <r>
           <rPr>
@@ -598,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B188" authorId="0" shapeId="0" xr:uid="{F351140A-479F-46FF-A19E-296731A80068}">
+    <comment ref="B189" authorId="0" shapeId="0" xr:uid="{F351140A-479F-46FF-A19E-296731A80068}">
       <text>
         <r>
           <rPr>
@@ -622,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B191" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
+    <comment ref="B192" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
       <text>
         <r>
           <rPr>
@@ -647,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B193" authorId="0" shapeId="0" xr:uid="{25B125FC-428C-4981-940C-C1CF146DEA8C}">
+    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{25B125FC-428C-4981-940C-C1CF146DEA8C}">
       <text>
         <r>
           <rPr>
@@ -672,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B195" authorId="0" shapeId="0" xr:uid="{801B4DBE-EB50-4478-BC81-850427BBA5EA}">
+    <comment ref="B196" authorId="0" shapeId="0" xr:uid="{801B4DBE-EB50-4478-BC81-850427BBA5EA}">
       <text>
         <r>
           <rPr>
@@ -696,7 +696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B199" authorId="0" shapeId="0" xr:uid="{F9BA9DB8-A53C-4151-9774-9F2D2A981FE9}">
+    <comment ref="B200" authorId="0" shapeId="0" xr:uid="{F9BA9DB8-A53C-4151-9774-9F2D2A981FE9}">
       <text>
         <r>
           <rPr>
@@ -721,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B206" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
+    <comment ref="B207" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B216" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B217" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -770,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B218" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
+    <comment ref="B219" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
       <text>
         <r>
           <rPr>
@@ -802,7 +802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B223" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B224" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
       <text>
         <r>
           <rPr>
@@ -826,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B244" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
+    <comment ref="B245" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
       <text>
         <r>
           <rPr>
@@ -21784,7 +21784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="82">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22366,8 +22366,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -22461,6 +22469,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22717,7 +22731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -23076,9 +23090,6 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -23159,12 +23170,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="82" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -24600,6 +24620,70 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor theme="7"/>
           <bgColor theme="7"/>
         </patternFill>
@@ -24838,8 +24922,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="207"/>
-      <tableStyleElement type="headerRow" dxfId="206"/>
+      <tableStyleElement type="wholeTable" dxfId="215"/>
+      <tableStyleElement type="headerRow" dxfId="214"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -24859,13 +24943,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3848100</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>195389</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>31967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24909,13 +24993,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -26057,7 +26141,7 @@
       <c r="A20" s="60">
         <v>12</v>
       </c>
-      <c r="B20" s="169" t="s">
+      <c r="B20" s="168" t="s">
         <v>762</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -40170,10 +40254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G201" sqref="G201"/>
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -41021,7 +41105,7 @@
       <c r="A43" s="96">
         <v>41</v>
       </c>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="206" t="s">
         <v>443</v>
       </c>
       <c r="D43" s="165" t="s">
@@ -42000,10 +42084,10 @@
       <c r="F96" s="34"/>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1">
-      <c r="A97" s="178">
+      <c r="A97" s="177">
         <v>243</v>
       </c>
-      <c r="B97" s="179" t="s">
+      <c r="B97" s="178" t="s">
         <v>831</v>
       </c>
       <c r="D97" s="32" t="s">
@@ -42020,10 +42104,10 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="180">
+      <c r="A98" s="179">
         <v>245</v>
       </c>
-      <c r="B98" s="182" t="s">
+      <c r="B98" s="181" t="s">
         <v>1618</v>
       </c>
       <c r="D98" s="32" t="s">
@@ -42040,10 +42124,10 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A99" s="181">
+      <c r="A99" s="180">
         <v>244</v>
       </c>
-      <c r="B99" s="183" t="s">
+      <c r="B99" s="182" t="s">
         <v>1622</v>
       </c>
       <c r="D99" s="32" t="s">
@@ -42063,7 +42147,7 @@
       <c r="A100" s="116">
         <v>266</v>
       </c>
-      <c r="B100" s="177" t="s">
+      <c r="B100" s="176" t="s">
         <v>387</v>
       </c>
       <c r="D100" s="32" t="s">
@@ -42189,339 +42273,347 @@
       <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1">
-      <c r="A108" s="102">
+      <c r="A108" s="37">
+        <v>287</v>
+      </c>
+      <c r="B108" s="207" t="s">
+        <v>499</v>
+      </c>
+      <c r="C108" s="32"/>
+      <c r="D108" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G108" s="81" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1">
+      <c r="A109" s="102">
         <v>290</v>
       </c>
-      <c r="B108" s="61" t="s">
+      <c r="B109" s="61" t="s">
         <v>1061</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D109" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="E108" s="34"/>
-      <c r="F108" s="34"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1">
-      <c r="A109" s="30">
-        <v>296</v>
-      </c>
-      <c r="B109" s="61" t="s">
-        <v>708</v>
       </c>
       <c r="E109" s="34"/>
       <c r="F109" s="34"/>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1">
       <c r="A110" s="30">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B110" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D110" s="32" t="s">
-        <v>121</v>
+        <v>708</v>
       </c>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1">
       <c r="A111" s="30">
-        <v>833</v>
+        <v>295</v>
       </c>
       <c r="B111" s="61" t="s">
-        <v>740</v>
+        <v>208</v>
       </c>
       <c r="D111" s="32" t="s">
-        <v>1252</v>
+        <v>121</v>
       </c>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1">
       <c r="A112" s="30">
-        <v>311</v>
+        <v>833</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>366</v>
+        <v>740</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>182</v>
+        <v>1252</v>
       </c>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
-      <c r="G112" s="81" t="s">
-        <v>1269</v>
-      </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1">
       <c r="A113" s="30">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>1253</v>
+        <v>182</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
+      <c r="G113" s="81" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1">
-      <c r="A114" s="102">
-        <v>325</v>
-      </c>
-      <c r="B114" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C114" s="79"/>
+      <c r="A114" s="30">
+        <v>316</v>
+      </c>
+      <c r="B114" s="61" t="s">
+        <v>120</v>
+      </c>
       <c r="D114" s="32" t="s">
-        <v>243</v>
+        <v>1253</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1">
-      <c r="A115" s="92">
-        <v>327</v>
-      </c>
-      <c r="B115" s="61" t="s">
-        <v>1153</v>
-      </c>
+      <c r="A115" s="102">
+        <v>325</v>
+      </c>
+      <c r="B115" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="79"/>
       <c r="D115" s="32" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1">
-      <c r="A116" s="30">
-        <v>312</v>
+      <c r="A116" s="92">
+        <v>327</v>
       </c>
       <c r="B116" s="61" t="s">
-        <v>788</v>
+        <v>1153</v>
       </c>
       <c r="D116" s="32" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1">
-      <c r="A117" s="189">
+      <c r="A117" s="30">
+        <v>312</v>
+      </c>
+      <c r="B117" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="D117" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+    </row>
+    <row r="118" spans="1:7" ht="15" customHeight="1">
+      <c r="A118" s="188">
         <v>336</v>
       </c>
-      <c r="B117" s="190" t="s">
+      <c r="B118" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="C117" s="191"/>
-      <c r="D117" s="192" t="s">
+      <c r="C118" s="190"/>
+      <c r="D118" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="E117" s="34" t="s">
+      <c r="E118" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F117" s="34" t="s">
+      <c r="F118" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G117" s="81" t="s">
+      <c r="G118" s="81" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" customHeight="1">
-      <c r="A118" s="92">
-        <v>340</v>
-      </c>
-      <c r="B118" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="D118" s="32" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E118" s="34"/>
-      <c r="F118" s="34"/>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1">
       <c r="A119" s="92">
+        <v>340</v>
+      </c>
+      <c r="B119" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E119" s="34"/>
+      <c r="F119" s="34"/>
+    </row>
+    <row r="120" spans="1:7" ht="15" customHeight="1">
+      <c r="A120" s="92">
         <v>334</v>
       </c>
-      <c r="B119" s="82" t="s">
+      <c r="B120" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="D119" s="32" t="s">
+      <c r="D120" s="32" t="s">
         <v>1256</v>
       </c>
-      <c r="E119" s="34" t="s">
+      <c r="E120" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F119" s="34" t="s">
+      <c r="F120" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G119" s="81" t="s">
+      <c r="G120" s="81" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" customHeight="1">
-      <c r="A120" s="30">
-        <v>347</v>
-      </c>
-      <c r="B120" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="E120" s="34"/>
-      <c r="F120" s="34"/>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1">
       <c r="A121" s="30">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B121" s="61" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="E121" s="34"/>
       <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1">
       <c r="A122" s="30">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B122" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="D122" s="32" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1">
       <c r="A123" s="30">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B123" s="61" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="D123" s="32" t="s">
-        <v>1259</v>
+        <v>418</v>
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
       <c r="A124" s="30">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B124" s="61" t="s">
-        <v>596</v>
+        <v>488</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>418</v>
+        <v>1259</v>
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1">
       <c r="A125" s="30">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B125" s="61" t="s">
-        <v>832</v>
+        <v>596</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>1263</v>
+        <v>418</v>
       </c>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
-      <c r="G125" s="32" t="s">
-        <v>1264</v>
-      </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1">
       <c r="A126" s="30">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B126" s="61" t="s">
-        <v>417</v>
+        <v>832</v>
+      </c>
+      <c r="D126" s="32" t="s">
+        <v>1263</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
+      <c r="G126" s="32" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1">
+      <c r="A127" s="30">
+        <v>358</v>
+      </c>
       <c r="B127" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="E127" s="34"/>
+      <c r="F127" s="34"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" customHeight="1">
+      <c r="B128" s="61" t="s">
         <v>1262</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D128" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="E127" s="34" t="s">
+      <c r="E128" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F127" s="34" t="s">
+      <c r="F128" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G127" s="81" t="s">
+      <c r="G128" s="81" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" customHeight="1">
-      <c r="A128" s="92">
+    <row r="129" spans="1:8" ht="15" customHeight="1">
+      <c r="A129" s="92">
         <v>367</v>
       </c>
-      <c r="B128" s="61" t="s">
+      <c r="B129" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E128" s="34"/>
-      <c r="F128" s="34"/>
-    </row>
-    <row r="129" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A129" s="32">
-        <v>373</v>
-      </c>
-      <c r="B129" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="D129" s="32" t="s">
-        <v>521</v>
       </c>
       <c r="E129" s="34"/>
       <c r="F129" s="34"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="34"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1">
-      <c r="A130" s="92">
-        <v>378</v>
+    </row>
+    <row r="130" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A130" s="32">
+        <v>373</v>
       </c>
       <c r="B130" s="61" t="s">
-        <v>183</v>
+        <v>520</v>
       </c>
       <c r="D130" s="32" t="s">
-        <v>184</v>
+        <v>521</v>
       </c>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="34"/>
     </row>
     <row r="131" spans="1:8" ht="15" customHeight="1">
-      <c r="A131" s="32">
-        <v>380</v>
+      <c r="A131" s="92">
+        <v>378</v>
       </c>
       <c r="B131" s="61" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1">
-      <c r="A132" s="92">
-        <v>381</v>
+      <c r="A132" s="32">
+        <v>380</v>
       </c>
       <c r="B132" s="61" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="D132" s="32" t="s">
         <v>212</v>
@@ -42530,478 +42622,471 @@
       <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1">
-      <c r="A133" s="32">
-        <v>383</v>
+      <c r="A133" s="92">
+        <v>381</v>
       </c>
       <c r="B133" s="61" t="s">
-        <v>1058</v>
+        <v>300</v>
       </c>
       <c r="D133" s="32" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="E133" s="34"/>
       <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1">
-      <c r="A134" s="92">
-        <v>384</v>
+      <c r="A134" s="32">
+        <v>383</v>
       </c>
       <c r="B134" s="61" t="s">
-        <v>264</v>
+        <v>1058</v>
+      </c>
+      <c r="D134" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1">
-      <c r="A135" s="32">
-        <v>387</v>
+      <c r="A135" s="92">
+        <v>384</v>
       </c>
       <c r="B135" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1">
-      <c r="A136" s="92">
-        <v>388</v>
+      <c r="A136" s="32">
+        <v>387</v>
       </c>
       <c r="B136" s="61" t="s">
-        <v>502</v>
+        <v>304</v>
+      </c>
+      <c r="D136" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1">
-      <c r="A137" s="32">
-        <v>389</v>
+      <c r="A137" s="92">
+        <v>388</v>
       </c>
       <c r="B137" s="61" t="s">
-        <v>815</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1">
-      <c r="A138" s="92">
-        <v>392</v>
+      <c r="A138" s="32">
+        <v>389</v>
       </c>
       <c r="B138" s="61" t="s">
-        <v>178</v>
+        <v>815</v>
       </c>
       <c r="D138" s="32" t="s">
-        <v>1399</v>
+        <v>516</v>
       </c>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1">
-      <c r="A139" s="32">
-        <v>393</v>
+      <c r="A139" s="92">
+        <v>392</v>
       </c>
       <c r="B139" s="61" t="s">
-        <v>767</v>
+        <v>178</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>230</v>
+        <v>1399</v>
       </c>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1">
-      <c r="A140" s="92">
-        <v>394</v>
+      <c r="A140" s="32">
+        <v>393</v>
       </c>
       <c r="B140" s="61" t="s">
-        <v>405</v>
+        <v>767</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>1400</v>
+        <v>230</v>
       </c>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1">
-      <c r="A141" s="32">
-        <v>395</v>
+      <c r="A141" s="92">
+        <v>394</v>
       </c>
       <c r="B141" s="61" t="s">
-        <v>166</v>
+        <v>405</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1">
-      <c r="A142" s="92">
-        <v>402</v>
+      <c r="A142" s="32">
+        <v>395</v>
       </c>
       <c r="B142" s="61" t="s">
-        <v>538</v>
+        <v>166</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>533</v>
+        <v>1401</v>
       </c>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1">
-      <c r="A143" s="32">
-        <v>405</v>
+      <c r="A143" s="92">
+        <v>402</v>
       </c>
       <c r="B143" s="61" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1">
-      <c r="A144" s="92">
-        <v>406</v>
+      <c r="A144" s="32">
+        <v>405</v>
       </c>
       <c r="B144" s="61" t="s">
-        <v>671</v>
+        <v>497</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1">
       <c r="A145" s="92">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B145" s="61" t="s">
-        <v>306</v>
+        <v>671</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1">
-      <c r="A146" s="32">
-        <v>409</v>
+      <c r="A146" s="92">
+        <v>408</v>
       </c>
       <c r="B146" s="61" t="s">
-        <v>826</v>
+        <v>306</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G146" s="81" t="s">
-        <v>1634</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1">
       <c r="A147" s="32">
+        <v>409</v>
+      </c>
+      <c r="B147" s="61" t="s">
+        <v>826</v>
+      </c>
+      <c r="D147" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E147" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F147" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G147" s="81" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="15" customHeight="1">
+      <c r="A148" s="32">
         <v>412</v>
       </c>
-      <c r="B147" s="61" t="s">
+      <c r="B148" s="61" t="s">
         <v>1038</v>
-      </c>
-      <c r="E147" s="34"/>
-      <c r="F147" s="34"/>
-    </row>
-    <row r="148" spans="1:7" ht="15" customHeight="1">
-      <c r="A148" s="92">
-        <v>413</v>
-      </c>
-      <c r="B148" s="61" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D148" s="32" t="s">
-        <v>1404</v>
       </c>
       <c r="E148" s="34"/>
       <c r="F148" s="34"/>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1">
-      <c r="A149" s="32">
-        <v>414</v>
+      <c r="A149" s="92">
+        <v>413</v>
       </c>
       <c r="B149" s="61" t="s">
-        <v>496</v>
+        <v>1043</v>
       </c>
       <c r="D149" s="32" t="s">
-        <v>126</v>
+        <v>1404</v>
       </c>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1">
-      <c r="A150" s="92">
-        <v>415</v>
+      <c r="A150" s="32">
+        <v>414</v>
       </c>
       <c r="B150" s="61" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1">
+      <c r="A151" s="92">
+        <v>415</v>
+      </c>
+      <c r="B151" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D151" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1">
-      <c r="A152" s="92">
-        <v>419</v>
-      </c>
-      <c r="B152" s="61" t="s">
-        <v>409</v>
-      </c>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1">
-      <c r="A153" s="32">
-        <v>420</v>
+      <c r="A153" s="92">
+        <v>419</v>
       </c>
       <c r="B153" s="61" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="92">
-        <v>421</v>
+      <c r="A154" s="32">
+        <v>420</v>
       </c>
       <c r="B154" s="61" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D154" s="32" t="s">
-        <v>1405</v>
+        <v>486</v>
       </c>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1">
-      <c r="A155" s="202">
+      <c r="A155" s="92">
+        <v>421</v>
+      </c>
+      <c r="B155" s="61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D155" s="32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E155" s="34"/>
+      <c r="F155" s="34"/>
+    </row>
+    <row r="156" spans="1:7" ht="15" customHeight="1">
+      <c r="A156" s="201">
         <v>423</v>
       </c>
-      <c r="B155" s="26" t="s">
+      <c r="B156" s="26" t="s">
         <v>1656</v>
       </c>
-      <c r="D155" s="32" t="s">
+      <c r="D156" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E155" s="34" t="s">
+      <c r="E156" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F155" s="34" t="s">
+      <c r="F156" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G155" s="81" t="s">
+      <c r="G156" s="81" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" customHeight="1">
-      <c r="A156" s="32">
+    <row r="157" spans="1:7" ht="15" customHeight="1">
+      <c r="A157" s="32">
         <v>424</v>
       </c>
-      <c r="B156" s="61" t="s">
+      <c r="B157" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="D156" s="32" t="s">
+      <c r="D157" s="32" t="s">
         <v>1406</v>
-      </c>
-      <c r="E156" s="34"/>
-      <c r="F156" s="34"/>
-    </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1">
-      <c r="A157" s="92">
-        <v>426</v>
-      </c>
-      <c r="B157" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="D157" s="32" t="s">
-        <v>1407</v>
       </c>
       <c r="E157" s="34"/>
       <c r="F157" s="34"/>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1">
-      <c r="A158" s="32">
-        <v>433</v>
+      <c r="A158" s="92">
+        <v>426</v>
       </c>
       <c r="B158" s="61" t="s">
-        <v>1014</v>
+        <v>411</v>
+      </c>
+      <c r="D158" s="32" t="s">
+        <v>1407</v>
       </c>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
-      <c r="A159" s="92">
-        <v>435</v>
+      <c r="A159" s="32">
+        <v>433</v>
       </c>
       <c r="B159" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="D159" s="32" t="s">
-        <v>320</v>
+        <v>1014</v>
       </c>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
+      <c r="A160" s="92">
+        <v>435</v>
+      </c>
+      <c r="B160" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D160" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E160" s="34"/>
       <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:8" ht="15" customHeight="1">
-      <c r="A161" s="92">
+      <c r="F161" s="34"/>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1">
+      <c r="A162" s="92">
         <v>442</v>
       </c>
-      <c r="B161" s="69" t="s">
+      <c r="B162" s="208" t="s">
         <v>481</v>
       </c>
-      <c r="D161" s="165" t="s">
+      <c r="D162" s="165" t="s">
         <v>1581</v>
       </c>
-      <c r="E161" s="34" t="s">
+      <c r="E162" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F161" s="34" t="s">
+      <c r="F162" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G161" s="81" t="s">
+      <c r="G162" s="81" t="s">
         <v>1580</v>
       </c>
-      <c r="H161" s="204" t="s">
+      <c r="H162" s="203" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1">
-      <c r="A162" s="32">
+    <row r="163" spans="1:8" ht="15" customHeight="1">
+      <c r="A163" s="32">
         <v>443</v>
       </c>
-      <c r="B162" s="61" t="s">
+      <c r="B163" s="61" t="s">
         <v>393</v>
-      </c>
-      <c r="D162" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E162" s="34"/>
-      <c r="F162" s="34"/>
-      <c r="H162" s="204"/>
-    </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1">
-      <c r="A163" s="92">
-        <v>446</v>
-      </c>
-      <c r="B163" s="61" t="s">
-        <v>961</v>
       </c>
       <c r="D163" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E163" s="34"/>
       <c r="F163" s="34"/>
-      <c r="H163" s="204"/>
+      <c r="H163" s="203"/>
     </row>
     <row r="164" spans="1:8" ht="15" customHeight="1">
-      <c r="A164" s="32">
+      <c r="A164" s="92">
+        <v>446</v>
+      </c>
+      <c r="B164" s="61" t="s">
+        <v>961</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" s="34"/>
+      <c r="F164" s="34"/>
+      <c r="H164" s="203"/>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1">
+      <c r="A165" s="32">
         <v>448</v>
       </c>
-      <c r="B164" s="69" t="s">
+      <c r="B165" s="208" t="s">
         <v>1009</v>
       </c>
-      <c r="D164" s="165" t="s">
+      <c r="D165" s="165" t="s">
         <v>1581</v>
       </c>
-      <c r="E164" s="34" t="s">
+      <c r="E165" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F164" s="34" t="s">
+      <c r="F165" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G164" s="81" t="s">
+      <c r="G165" s="81" t="s">
         <v>1579</v>
       </c>
-      <c r="H164" s="204"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1">
-      <c r="B165" s="61"/>
-      <c r="E165" s="34"/>
-      <c r="F165" s="34"/>
-      <c r="H165" s="204"/>
+      <c r="H165" s="203"/>
     </row>
     <row r="166" spans="1:8" ht="15" customHeight="1">
-      <c r="A166" s="32">
+      <c r="B166" s="61"/>
+      <c r="E166" s="34"/>
+      <c r="F166" s="34"/>
+      <c r="H166" s="203"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1">
+      <c r="A167" s="32">
         <v>524</v>
       </c>
-      <c r="B166" s="61" t="s">
+      <c r="B167" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="D166" s="32" t="s">
+      <c r="D167" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="E167" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="34" t="s">
+      <c r="F167" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G166" s="81" t="s">
+      <c r="G167" s="81" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B167" s="64"/>
-      <c r="E167" s="34"/>
-      <c r="F167" s="34"/>
-      <c r="G167" s="81"/>
-    </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1">
-      <c r="A168" s="32">
+    <row r="168" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="B168" s="64"/>
+      <c r="E168" s="34"/>
+      <c r="F168" s="34"/>
+      <c r="G168" s="81"/>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1">
+      <c r="A169" s="32">
         <v>567</v>
       </c>
-      <c r="B168" s="194" t="s">
+      <c r="B169" s="193" t="s">
         <v>202</v>
       </c>
-      <c r="C168" s="22"/>
-      <c r="D168" s="32" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G168" s="81" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="32">
-        <v>438</v>
-      </c>
-      <c r="B169" s="193" t="s">
-        <v>273</v>
-      </c>
+      <c r="C169" s="22"/>
       <c r="D169" s="32" t="s">
         <v>1637</v>
       </c>
@@ -43012,97 +43097,112 @@
         <v>1316</v>
       </c>
       <c r="G169" s="81" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A170" s="32">
+        <v>438</v>
+      </c>
+      <c r="B170" s="192" t="s">
+        <v>273</v>
+      </c>
+      <c r="D170" s="32" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G170" s="81" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1">
-      <c r="B170" s="195"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="81"/>
-    </row>
     <row r="171" spans="1:8" ht="15" customHeight="1">
-      <c r="A171" s="25">
+      <c r="B171" s="194"/>
+      <c r="E171" s="34"/>
+      <c r="F171" s="34"/>
+      <c r="G171" s="81"/>
+    </row>
+    <row r="172" spans="1:8" ht="15" customHeight="1">
+      <c r="A172" s="25">
         <v>451</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B172" s="26" t="s">
         <v>1010</v>
       </c>
-      <c r="D171" s="27" t="s">
+      <c r="D172" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="E172" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F171" s="34" t="s">
+      <c r="F172" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G171" s="81" t="s">
+      <c r="G172" s="81" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1">
-      <c r="A172" s="4"/>
-      <c r="B172" s="26"/>
-      <c r="D172" s="150"/>
-      <c r="E172" s="34"/>
-      <c r="F172" s="34"/>
-      <c r="G172" s="81"/>
-    </row>
     <row r="173" spans="1:8" ht="15" customHeight="1">
-      <c r="A173" s="32">
+      <c r="A173" s="4"/>
+      <c r="B173" s="26"/>
+      <c r="D173" s="150"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="81"/>
+    </row>
+    <row r="174" spans="1:8" ht="15" customHeight="1">
+      <c r="A174" s="32">
         <v>581</v>
       </c>
-      <c r="B173" s="61" t="s">
+      <c r="B174" s="61" t="s">
         <v>837</v>
       </c>
-      <c r="C173" s="59" t="s">
+      <c r="C174" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="D173" s="32" t="s">
+      <c r="D174" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E173" s="34" t="s">
+      <c r="E174" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F173" s="34" t="s">
+      <c r="F174" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G173" s="81" t="s">
+      <c r="G174" s="81" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1">
-      <c r="B174" s="61"/>
-      <c r="C174" s="59"/>
-      <c r="E174" s="34"/>
-      <c r="F174" s="34"/>
-      <c r="G174" s="81"/>
-    </row>
     <row r="175" spans="1:8" ht="15" customHeight="1">
-      <c r="A175" s="32">
+      <c r="B175" s="61"/>
+      <c r="C175" s="59"/>
+      <c r="E175" s="34"/>
+      <c r="F175" s="34"/>
+      <c r="G175" s="81"/>
+    </row>
+    <row r="176" spans="1:8" ht="15" customHeight="1">
+      <c r="A176" s="32">
         <v>594</v>
       </c>
-      <c r="B175" s="61" t="s">
+      <c r="B176" s="61" t="s">
         <v>1449</v>
       </c>
-      <c r="D175" s="32" t="s">
+      <c r="D176" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="E176" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F175" s="34" t="s">
+      <c r="F176" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G175" s="81" t="s">
+      <c r="G176" s="81" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1">
-      <c r="B176" s="61"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="34"/>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1">
       <c r="B177" s="61"/>
@@ -43115,645 +43215,644 @@
       <c r="F178" s="34"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1">
-      <c r="A179" s="32">
+      <c r="B179" s="61"/>
+      <c r="E179" s="34"/>
+      <c r="F179" s="34"/>
+    </row>
+    <row r="180" spans="1:7" ht="15" customHeight="1">
+      <c r="A180" s="32">
         <v>621</v>
       </c>
-      <c r="B179" s="61" t="s">
+      <c r="B180" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D179" s="27" t="s">
+      <c r="D180" s="27" t="s">
         <v>1480</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="E180" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F179" s="34" t="s">
+      <c r="F180" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G179" s="81" t="s">
+      <c r="G180" s="81" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="15" customHeight="1">
-      <c r="B180" s="61"/>
-      <c r="E180" s="34"/>
-      <c r="F180" s="34"/>
-    </row>
     <row r="181" spans="1:7" ht="15" customHeight="1">
-      <c r="A181" s="25">
+      <c r="B181" s="61"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" customHeight="1">
+      <c r="A182" s="25">
         <v>643</v>
       </c>
-      <c r="B181" s="26" t="s">
+      <c r="B182" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C182" s="22" t="s">
         <v>1225</v>
       </c>
-      <c r="D181" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E181" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F181" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G181" s="81" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="15" customHeight="1">
-      <c r="A182" s="4">
-        <v>644</v>
-      </c>
-      <c r="B182" s="142" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C182" s="22"/>
       <c r="D182" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E182" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G182" s="81" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="A183" s="4">
+        <v>644</v>
+      </c>
+      <c r="B183" s="142" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C183" s="22"/>
+      <c r="D183" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E183" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F182" s="34" t="s">
+      <c r="F183" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G182" s="81" t="s">
+      <c r="G183" s="81" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1">
-      <c r="A183" s="4"/>
-      <c r="B183" s="142"/>
-      <c r="C183" s="22"/>
-      <c r="E183" s="34"/>
-      <c r="F183" s="34"/>
-      <c r="G183" s="81"/>
-    </row>
     <row r="184" spans="1:7" ht="15" customHeight="1">
-      <c r="A184" s="25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="142"/>
+      <c r="C184" s="22"/>
+      <c r="E184" s="34"/>
+      <c r="F184" s="34"/>
+      <c r="G184" s="81"/>
+    </row>
+    <row r="185" spans="1:7" ht="15" customHeight="1">
+      <c r="A185" s="25">
         <v>763</v>
       </c>
-      <c r="B184" s="26" t="s">
+      <c r="B185" s="26" t="s">
         <v>1012</v>
       </c>
-      <c r="D184" s="27" t="s">
+      <c r="D185" s="27" t="s">
         <v>1013</v>
       </c>
-      <c r="E184" s="34" t="s">
+      <c r="E185" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F184" s="34" t="s">
+      <c r="F185" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G184" s="81" t="s">
+      <c r="G185" s="81" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" customHeight="1">
-      <c r="A185" s="4"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="150"/>
-      <c r="D185" s="151"/>
-      <c r="E185" s="34"/>
-      <c r="F185" s="34"/>
-    </row>
     <row r="186" spans="1:7" ht="15" customHeight="1">
-      <c r="A186" s="32">
+      <c r="A186" s="4"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="150"/>
+      <c r="D186" s="151"/>
+      <c r="E186" s="34"/>
+      <c r="F186" s="34"/>
+    </row>
+    <row r="187" spans="1:7" ht="15" customHeight="1">
+      <c r="A187" s="32">
         <v>750</v>
       </c>
-      <c r="B186" s="61" t="s">
+      <c r="B187" s="61" t="s">
         <v>1425</v>
       </c>
-      <c r="C186" s="54" t="s">
+      <c r="C187" s="54" t="s">
         <v>1217</v>
       </c>
-      <c r="D186" s="32" t="s">
+      <c r="D187" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E186" s="34" t="s">
+      <c r="E187" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="34" t="s">
+      <c r="F187" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G186" s="81" t="s">
+      <c r="G187" s="81" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" customHeight="1">
-      <c r="B187" s="61"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="81"/>
-    </row>
     <row r="188" spans="1:7" ht="15" customHeight="1">
-      <c r="A188" s="152">
+      <c r="B188" s="61"/>
+      <c r="E188" s="34"/>
+      <c r="F188" s="34"/>
+      <c r="G188" s="81"/>
+    </row>
+    <row r="189" spans="1:7" ht="15" customHeight="1">
+      <c r="A189" s="152">
         <v>820</v>
       </c>
-      <c r="B188" s="61" t="s">
+      <c r="B189" s="61" t="s">
         <v>1574</v>
       </c>
-      <c r="D188" s="32" t="s">
+      <c r="D189" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E188" s="34" t="s">
+      <c r="E189" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F188" s="34" t="s">
+      <c r="F189" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G188" s="81" t="s">
+      <c r="G189" s="81" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="15" customHeight="1">
-      <c r="A189" s="152"/>
-      <c r="B189" s="64"/>
-      <c r="E189" s="34"/>
-      <c r="F189" s="34"/>
-      <c r="G189" s="81"/>
-    </row>
     <row r="190" spans="1:7" ht="15" customHeight="1">
-      <c r="A190" s="54">
+      <c r="A190" s="152"/>
+      <c r="B190" s="64"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="81"/>
+    </row>
+    <row r="191" spans="1:7" ht="15" customHeight="1">
+      <c r="A191" s="54">
         <v>856</v>
       </c>
-      <c r="B190" s="142" t="s">
+      <c r="B191" s="142" t="s">
         <v>867</v>
       </c>
-      <c r="C190" s="54" t="s">
+      <c r="C191" s="54" t="s">
         <v>1554</v>
       </c>
-      <c r="D190" s="32" t="s">
+      <c r="D191" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E190" s="34" t="s">
+      <c r="E191" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F190" s="34" t="s">
+      <c r="F191" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G190" s="81" t="s">
+      <c r="G191" s="81" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1">
-      <c r="A191" s="92">
+    <row r="192" spans="1:7" ht="15" customHeight="1">
+      <c r="A192" s="92">
         <v>857</v>
       </c>
-      <c r="B191" s="118" t="s">
+      <c r="B192" s="118" t="s">
         <v>790</v>
       </c>
-      <c r="D191" s="32" t="s">
+      <c r="D192" s="32" t="s">
         <v>1391</v>
       </c>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="81" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1">
-      <c r="A192" s="200"/>
-      <c r="B192" s="201"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34"/>
-      <c r="G192" s="81"/>
+      <c r="G192" s="81" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1">
-      <c r="A193">
+      <c r="A193" s="199"/>
+      <c r="B193" s="200"/>
+      <c r="E193" s="34"/>
+      <c r="F193" s="34"/>
+      <c r="G193" s="81"/>
+    </row>
+    <row r="194" spans="1:7" ht="15" customHeight="1">
+      <c r="A194">
         <v>870</v>
       </c>
-      <c r="B193" s="9" t="s">
+      <c r="B194" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C194" s="22" t="s">
         <v>1217</v>
       </c>
-      <c r="D193" s="16" t="s">
+      <c r="D194" s="16" t="s">
         <v>1653</v>
       </c>
-      <c r="E193" s="34" t="s">
+      <c r="E194" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F193" s="34" t="s">
+      <c r="F194" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G193" s="81" t="s">
+      <c r="G194" s="81" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="15" customHeight="1">
-      <c r="A194"/>
-      <c r="B194" s="199"/>
-      <c r="C194" s="22"/>
-      <c r="D194" s="16"/>
-      <c r="E194" s="16"/>
-      <c r="F194" s="34"/>
-    </row>
     <row r="195" spans="1:7" ht="15" customHeight="1">
-      <c r="A195" s="32">
+      <c r="A195"/>
+      <c r="B195" s="198"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="34"/>
+    </row>
+    <row r="196" spans="1:7" ht="15" customHeight="1">
+      <c r="A196" s="32">
         <v>1024</v>
       </c>
-      <c r="B195" s="148" t="s">
+      <c r="B196" s="148" t="s">
         <v>1567</v>
       </c>
-      <c r="C195" s="54" t="s">
+      <c r="C196" s="54" t="s">
         <v>1554</v>
       </c>
-      <c r="D195" s="32" t="s">
+      <c r="D196" s="32" t="s">
         <v>1568</v>
       </c>
-      <c r="E195" s="34" t="s">
+      <c r="E196" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F195" s="34" t="s">
+      <c r="F196" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G195" s="149" t="s">
+      <c r="G196" s="149" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="15" customHeight="1">
-      <c r="B196" s="148"/>
-      <c r="E196" s="34"/>
-      <c r="F196" s="34"/>
-      <c r="G196" s="81"/>
-    </row>
     <row r="197" spans="1:7" ht="15" customHeight="1">
-      <c r="A197" s="25">
+      <c r="B197" s="148"/>
+      <c r="E197" s="34"/>
+      <c r="F197" s="34"/>
+      <c r="G197" s="81"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" customHeight="1">
+      <c r="A198" s="25">
         <v>916</v>
       </c>
-      <c r="B197" s="26" t="s">
+      <c r="B198" s="26" t="s">
         <v>1147</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C198" s="22" t="s">
         <v>1225</v>
       </c>
-      <c r="D197" s="32" t="s">
+      <c r="D198" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E197" s="34" t="s">
+      <c r="E198" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F197" s="34" t="s">
+      <c r="F198" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G197" s="81" t="s">
+      <c r="G198" s="81" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="15" customHeight="1">
-      <c r="A198" s="4"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="22"/>
-      <c r="E198" s="34"/>
-      <c r="F198" s="34"/>
-      <c r="G198" s="81"/>
-    </row>
     <row r="199" spans="1:7" ht="15" customHeight="1">
-      <c r="A199">
+      <c r="A199" s="4"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="22"/>
+      <c r="E199" s="34"/>
+      <c r="F199" s="34"/>
+      <c r="G199" s="81"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" customHeight="1">
+      <c r="A200">
         <v>936</v>
       </c>
-      <c r="B199" s="9" t="s">
+      <c r="B200" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C200" s="22" t="s">
         <v>1217</v>
       </c>
-      <c r="D199" s="32" t="s">
+      <c r="D200" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E199" s="34" t="s">
+      <c r="E200" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F199" s="34" t="s">
+      <c r="F200" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G199" s="81" t="s">
+      <c r="G200" s="81" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="15" customHeight="1">
-      <c r="A200"/>
-      <c r="B200" s="199"/>
-      <c r="C200" s="22"/>
-      <c r="E200" s="34"/>
-      <c r="F200" s="34"/>
-    </row>
     <row r="201" spans="1:7" ht="15" customHeight="1">
-      <c r="A201" s="25">
+      <c r="A201"/>
+      <c r="B201" s="198"/>
+      <c r="C201" s="22"/>
+      <c r="E201" s="34"/>
+      <c r="F201" s="34"/>
+    </row>
+    <row r="202" spans="1:7" ht="15" customHeight="1">
+      <c r="A202" s="25">
         <v>946</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="B202" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="C201" s="22"/>
-      <c r="D201" s="32" t="s">
+      <c r="C202" s="22"/>
+      <c r="D202" s="32" t="s">
         <v>1558</v>
       </c>
-      <c r="E201" s="34" t="s">
+      <c r="E202" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F201" s="34" t="s">
+      <c r="F202" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G201" s="81" t="s">
+      <c r="G202" s="81" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="4"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="22"/>
-      <c r="E202" s="34"/>
-      <c r="F202" s="34"/>
-    </row>
     <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="32">
+      <c r="A203" s="4"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="22"/>
+      <c r="E203" s="34"/>
+      <c r="F203" s="34"/>
+    </row>
+    <row r="204" spans="1:7" ht="15" customHeight="1">
+      <c r="A204" s="32">
         <v>1249</v>
       </c>
-      <c r="B203" s="61" t="s">
+      <c r="B204" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="C203" s="27" t="s">
+      <c r="C204" s="27" t="s">
         <v>1537</v>
       </c>
-      <c r="D203" s="32" t="s">
+      <c r="D204" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E203" s="34" t="s">
+      <c r="E204" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F203" s="34" t="s">
+      <c r="F204" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G203" s="81" t="s">
+      <c r="G204" s="81" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="92"/>
-      <c r="B204" s="61"/>
-      <c r="E204" s="34"/>
-      <c r="F204" s="34"/>
-    </row>
     <row r="205" spans="1:7" ht="15" customHeight="1">
-      <c r="A205" s="54"/>
-      <c r="D205" s="54"/>
+      <c r="A205" s="92"/>
+      <c r="B205" s="61"/>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
     </row>
     <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="A206" s="92">
+      <c r="A206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+    </row>
+    <row r="207" spans="1:7" ht="15" customHeight="1">
+      <c r="A207" s="92">
         <v>1326</v>
       </c>
-      <c r="B206" s="148" t="s">
+      <c r="B207" s="148" t="s">
         <v>958</v>
       </c>
-      <c r="C206" s="54" t="s">
+      <c r="C207" s="54" t="s">
         <v>1564</v>
       </c>
-      <c r="D206" s="32" t="s">
+      <c r="D207" s="32" t="s">
         <v>1565</v>
       </c>
-      <c r="E206" s="34" t="s">
+      <c r="E207" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F206" s="34" t="s">
+      <c r="F207" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G206" s="81" t="s">
+      <c r="G207" s="81" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="G207" s="54"/>
-    </row>
     <row r="208" spans="1:7" ht="15" customHeight="1">
-      <c r="B208" s="61"/>
-      <c r="E208" s="34"/>
-      <c r="F208" s="34"/>
+      <c r="A208" s="54"/>
+      <c r="D208" s="54"/>
+      <c r="G208" s="54"/>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1">
-      <c r="A209" s="92">
-        <v>1329</v>
-      </c>
-      <c r="B209" s="61" t="s">
-        <v>692</v>
-      </c>
-      <c r="D209" s="32" t="s">
-        <v>119</v>
-      </c>
+      <c r="B209" s="61"/>
       <c r="E209" s="34"/>
       <c r="F209" s="34"/>
-      <c r="G209" s="81" t="s">
-        <v>1380</v>
-      </c>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1">
-      <c r="B210" s="61"/>
+      <c r="A210" s="92">
+        <v>1329</v>
+      </c>
+      <c r="B210" s="61" t="s">
+        <v>692</v>
+      </c>
+      <c r="D210" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
+      <c r="G210" s="81" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
-      <c r="A211" s="92"/>
       <c r="B211" s="61"/>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
-      <c r="A212" s="92">
+      <c r="A212" s="92"/>
+      <c r="B212" s="61"/>
+      <c r="E212" s="34"/>
+      <c r="F212" s="34"/>
+    </row>
+    <row r="213" spans="1:7" ht="15" customHeight="1">
+      <c r="A213" s="92">
         <v>1353</v>
       </c>
-      <c r="B212" s="61" t="s">
+      <c r="B213" s="61" t="s">
         <v>1151</v>
       </c>
-      <c r="D212" s="32" t="s">
+      <c r="D213" s="32" t="s">
         <v>1468</v>
       </c>
-      <c r="E212" s="34" t="s">
+      <c r="E213" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F212" s="34" t="s">
+      <c r="F213" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G212" s="81" t="s">
+      <c r="G213" s="81" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="15" customHeight="1">
-      <c r="A213" s="92"/>
-      <c r="B213" s="61"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="34"/>
-    </row>
     <row r="214" spans="1:7" ht="15" customHeight="1">
+      <c r="A214" s="92"/>
       <c r="B214" s="61"/>
       <c r="E214" s="34"/>
       <c r="F214" s="34"/>
     </row>
-    <row r="216" spans="1:7" ht="15" customHeight="1">
-      <c r="A216" s="32">
+    <row r="215" spans="1:7" ht="15" customHeight="1">
+      <c r="B215" s="61"/>
+      <c r="E215" s="34"/>
+      <c r="F215" s="34"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" customHeight="1">
+      <c r="A217" s="32">
         <v>1383</v>
       </c>
-      <c r="B216" s="118" t="s">
+      <c r="B217" s="118" t="s">
         <v>1389</v>
       </c>
-      <c r="D216" s="32" t="s">
+      <c r="D217" s="32" t="s">
         <v>1390</v>
       </c>
-      <c r="E216" s="34"/>
-      <c r="F216" s="34"/>
-      <c r="G216" s="81" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1">
-      <c r="A217" s="92"/>
-      <c r="B217" s="61"/>
       <c r="E217" s="34"/>
       <c r="F217" s="34"/>
+      <c r="G217" s="81" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="218" spans="1:7" ht="15" customHeight="1">
-      <c r="A218">
+      <c r="A218" s="92"/>
+      <c r="B218" s="61"/>
+      <c r="E218" s="34"/>
+      <c r="F218" s="34"/>
+    </row>
+    <row r="219" spans="1:7" ht="15" customHeight="1">
+      <c r="A219">
         <v>1498</v>
       </c>
-      <c r="B218" s="9" t="s">
+      <c r="B219" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D218" s="22" t="s">
+      <c r="D219" s="22" t="s">
         <v>1650</v>
       </c>
-      <c r="E218" s="34" t="s">
+      <c r="E219" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F218" s="34" t="s">
+      <c r="F219" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G218" s="81" t="s">
+      <c r="G219" s="81" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="15" customHeight="1">
-      <c r="A219" s="92"/>
-      <c r="B219" s="61"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="34"/>
-    </row>
     <row r="220" spans="1:7" ht="15" customHeight="1">
-      <c r="A220" s="32">
+      <c r="A220" s="92"/>
+      <c r="B220" s="61"/>
+      <c r="E220" s="34"/>
+      <c r="F220" s="34"/>
+    </row>
+    <row r="221" spans="1:7" ht="15" customHeight="1">
+      <c r="A221" s="32">
         <v>1631</v>
       </c>
-      <c r="B220" s="61" t="s">
+      <c r="B221" s="61" t="s">
         <v>993</v>
       </c>
-      <c r="C220" s="54" t="s">
+      <c r="C221" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D220" s="32" t="s">
+      <c r="D221" s="32" t="s">
         <v>1398</v>
       </c>
-      <c r="E220" s="34" t="s">
+      <c r="E221" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F220" s="34" t="s">
+      <c r="F221" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G220" s="81" t="s">
+      <c r="G221" s="81" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="15" customHeight="1">
-      <c r="A221" s="92"/>
-      <c r="B221" s="61"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="34"/>
-    </row>
     <row r="222" spans="1:7" ht="15" customHeight="1">
-      <c r="A222" s="32">
-        <v>1658</v>
-      </c>
-      <c r="B222" s="61" t="s">
-        <v>997</v>
-      </c>
+      <c r="A222" s="92"/>
+      <c r="B222" s="61"/>
       <c r="E222" s="34"/>
       <c r="F222" s="34"/>
     </row>
     <row r="223" spans="1:7" ht="15" customHeight="1">
-      <c r="A223" s="92">
-        <v>1673</v>
+      <c r="A223" s="32">
+        <v>1658</v>
       </c>
       <c r="B223" s="61" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C223" s="54" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D223" s="32" t="s">
-        <v>1365</v>
+        <v>997</v>
       </c>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
-      <c r="G223" s="81" t="s">
-        <v>1364</v>
-      </c>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1">
-      <c r="A224" s="32">
-        <v>1657</v>
+      <c r="A224" s="92">
+        <v>1673</v>
       </c>
       <c r="B224" s="61" t="s">
-        <v>1369</v>
+        <v>1360</v>
+      </c>
+      <c r="C224" s="54" t="s">
+        <v>1361</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>1326</v>
+        <v>1365</v>
       </c>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
       <c r="G224" s="81" t="s">
-        <v>1458</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15" customHeight="1">
-      <c r="B225" s="61"/>
+      <c r="A225" s="32">
+        <v>1657</v>
+      </c>
+      <c r="B225" s="61" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D225" s="32" t="s">
+        <v>1326</v>
+      </c>
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
-      <c r="G225" s="81"/>
+      <c r="G225" s="81" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="226" spans="1:7" ht="15" customHeight="1">
       <c r="B226" s="61"/>
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
+      <c r="G226" s="81"/>
     </row>
     <row r="227" spans="1:7" ht="15" customHeight="1">
-      <c r="A227" s="115">
+      <c r="B227" s="61"/>
+      <c r="E227" s="34"/>
+      <c r="F227" s="34"/>
+    </row>
+    <row r="228" spans="1:7" ht="15" customHeight="1">
+      <c r="A228" s="115">
         <v>1675</v>
       </c>
-      <c r="B227" s="61" t="s">
+      <c r="B228" s="61" t="s">
         <v>1427</v>
       </c>
-      <c r="D227" s="32" t="s">
+      <c r="D228" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E227" s="34" t="s">
+      <c r="E228" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="34" t="s">
+      <c r="F228" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G227" s="81" t="s">
+      <c r="G228" s="81" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="15" customHeight="1">
-      <c r="A228" s="115"/>
-      <c r="B228" s="61"/>
-      <c r="E228" s="34"/>
-      <c r="F228" s="34"/>
     </row>
     <row r="229" spans="1:7" ht="15" customHeight="1">
       <c r="A229" s="115"/>
@@ -43768,775 +43867,776 @@
       <c r="F230" s="34"/>
     </row>
     <row r="231" spans="1:7" ht="15" customHeight="1">
-      <c r="A231" s="115">
-        <v>1742</v>
-      </c>
-      <c r="B231" s="61" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D231" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E231" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F231" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G231" s="81" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A231" s="115"/>
+      <c r="B231" s="61"/>
+      <c r="E231" s="34"/>
+      <c r="F231" s="34"/>
     </row>
     <row r="232" spans="1:7" ht="15" customHeight="1">
       <c r="A232" s="115">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B232" s="61" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D232" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E232" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F232" s="34" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G232" s="81" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15" customHeight="1">
       <c r="A233" s="115">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="B233" s="61" t="s">
-        <v>1466</v>
+        <v>1434</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E233" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F233" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G233" s="81" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="15" customHeight="1">
+      <c r="A234" s="115">
+        <v>1750</v>
+      </c>
+      <c r="B234" s="61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D234" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E234" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F234" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G233" s="81" t="s">
+      <c r="G234" s="81" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="15" customHeight="1">
-      <c r="A234" s="115"/>
-      <c r="B234" s="61"/>
-      <c r="E234" s="34"/>
-      <c r="F234" s="34"/>
-    </row>
     <row r="235" spans="1:7" ht="15" customHeight="1">
-      <c r="A235" s="115">
-        <v>1751</v>
-      </c>
-      <c r="B235" s="82" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E235" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" s="34" t="s">
-        <v>1005</v>
-      </c>
+      <c r="A235" s="115"/>
+      <c r="B235" s="61"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="34"/>
     </row>
     <row r="236" spans="1:7" ht="15" customHeight="1">
       <c r="A236" s="115">
-        <v>1752</v>
-      </c>
-      <c r="B236" s="61" t="s">
-        <v>1469</v>
+        <v>1751</v>
+      </c>
+      <c r="B236" s="82" t="s">
+        <v>1472</v>
       </c>
       <c r="E236" s="34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F236" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G236" s="81" t="s">
-        <v>1470</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1">
       <c r="A237" s="115">
+        <v>1752</v>
+      </c>
+      <c r="B237" s="61" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E237" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F237" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G237" s="81" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="15" customHeight="1">
+      <c r="A238" s="115">
         <v>1755</v>
       </c>
-      <c r="B237" s="61" t="s">
+      <c r="B238" s="61" t="s">
         <v>1473</v>
       </c>
-      <c r="E237" s="34" t="s">
+      <c r="E238" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F237" s="34" t="s">
+      <c r="F238" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G237" s="81" t="s">
+      <c r="G238" s="81" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="15" customHeight="1">
-      <c r="A238" s="92"/>
-      <c r="B238" s="61"/>
-      <c r="E238" s="34"/>
-      <c r="F238" s="34"/>
-    </row>
     <row r="239" spans="1:7" ht="15" customHeight="1">
-      <c r="A239" s="32">
+      <c r="A239" s="92"/>
+      <c r="B239" s="61"/>
+      <c r="E239" s="34"/>
+      <c r="F239" s="34"/>
+    </row>
+    <row r="240" spans="1:7" ht="15" customHeight="1">
+      <c r="A240" s="32">
         <v>1770</v>
       </c>
-      <c r="B239" s="142" t="s">
+      <c r="B240" s="142" t="s">
         <v>1547</v>
       </c>
-      <c r="D239" s="32" t="s">
+      <c r="D240" s="32" t="s">
         <v>1548</v>
       </c>
-      <c r="E239" s="34" t="s">
+      <c r="E240" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F239" s="34" t="s">
+      <c r="F240" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G239" s="81" t="s">
+      <c r="G240" s="81" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="15" customHeight="1">
-      <c r="A240" s="92"/>
-      <c r="B240" s="61"/>
-      <c r="E240" s="34"/>
-      <c r="F240" s="34"/>
-    </row>
     <row r="241" spans="1:7" ht="15" customHeight="1">
-      <c r="A241" s="32">
+      <c r="A241" s="92"/>
+      <c r="B241" s="61"/>
+      <c r="E241" s="34"/>
+      <c r="F241" s="34"/>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1">
+      <c r="A242" s="32">
         <v>1774</v>
       </c>
-      <c r="B241" s="142" t="s">
+      <c r="B242" s="142" t="s">
         <v>1576</v>
       </c>
-      <c r="D241" s="32" t="s">
+      <c r="D242" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E241" s="34" t="s">
+      <c r="E242" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F241" s="34" t="s">
+      <c r="F242" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G241" s="81" t="s">
+      <c r="G242" s="81" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="15" customHeight="1">
-      <c r="A242" s="92"/>
-      <c r="B242" s="61"/>
-      <c r="E242" s="34"/>
-      <c r="F242" s="34"/>
-    </row>
     <row r="243" spans="1:7" ht="15" customHeight="1">
+      <c r="A243" s="92"/>
       <c r="B243" s="61"/>
       <c r="E243" s="34"/>
       <c r="F243" s="34"/>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1">
-      <c r="A244" s="92">
+      <c r="B244" s="61"/>
+      <c r="E244" s="34"/>
+      <c r="F244" s="34"/>
+    </row>
+    <row r="245" spans="1:7" ht="15" customHeight="1">
+      <c r="A245" s="92">
         <v>5704</v>
       </c>
-      <c r="B244" s="174" t="s">
+      <c r="B245" s="173" t="s">
         <v>1611</v>
       </c>
-      <c r="D244" s="32" t="s">
+      <c r="D245" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E244" s="34" t="s">
+      <c r="E245" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F244" s="34" t="s">
+      <c r="F245" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G244" s="81" t="s">
+      <c r="G245" s="81" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="15" customHeight="1">
-      <c r="B245" s="173"/>
-      <c r="E245" s="34"/>
-      <c r="F245" s="34"/>
-    </row>
     <row r="246" spans="1:7" ht="15" customHeight="1">
-      <c r="A246" s="92"/>
-      <c r="B246" s="61"/>
+      <c r="B246" s="172"/>
       <c r="E246" s="34"/>
       <c r="F246" s="34"/>
     </row>
     <row r="247" spans="1:7" ht="15" customHeight="1">
+      <c r="A247" s="92"/>
       <c r="B247" s="61"/>
       <c r="E247" s="34"/>
       <c r="F247" s="34"/>
     </row>
     <row r="248" spans="1:7" ht="15" customHeight="1">
-      <c r="A248" s="92"/>
       <c r="B248" s="61"/>
       <c r="E248" s="34"/>
       <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:7" ht="15" customHeight="1">
+      <c r="A249" s="92"/>
       <c r="B249" s="61"/>
       <c r="E249" s="34"/>
       <c r="F249" s="34"/>
     </row>
     <row r="250" spans="1:7" ht="15" customHeight="1">
-      <c r="A250" s="92"/>
       <c r="B250" s="61"/>
       <c r="E250" s="34"/>
       <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:7" ht="15" customHeight="1">
+      <c r="A251" s="92"/>
       <c r="B251" s="61"/>
       <c r="E251" s="34"/>
       <c r="F251" s="34"/>
     </row>
     <row r="252" spans="1:7" ht="15" customHeight="1">
-      <c r="A252" s="92"/>
       <c r="B252" s="61"/>
       <c r="E252" s="34"/>
       <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:7" ht="15" customHeight="1">
+      <c r="A253" s="92"/>
       <c r="B253" s="61"/>
       <c r="E253" s="34"/>
       <c r="F253" s="34"/>
     </row>
     <row r="254" spans="1:7" ht="15" customHeight="1">
-      <c r="A254" s="92"/>
       <c r="B254" s="61"/>
       <c r="E254" s="34"/>
       <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:7" ht="15" customHeight="1">
+      <c r="A255" s="92"/>
       <c r="B255" s="61"/>
       <c r="E255" s="34"/>
       <c r="F255" s="34"/>
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1">
-      <c r="A256" s="92"/>
       <c r="B256" s="61"/>
       <c r="E256" s="34"/>
       <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
+      <c r="A257" s="92"/>
       <c r="B257" s="61"/>
       <c r="E257" s="34"/>
       <c r="F257" s="34"/>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1">
-      <c r="A258" s="92"/>
       <c r="B258" s="61"/>
       <c r="E258" s="34"/>
       <c r="F258" s="34"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1">
+      <c r="A259" s="92"/>
       <c r="B259" s="61"/>
       <c r="E259" s="34"/>
       <c r="F259" s="34"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1">
-      <c r="A260" s="92"/>
       <c r="B260" s="61"/>
       <c r="E260" s="34"/>
       <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1">
+      <c r="A261" s="92"/>
       <c r="B261" s="61"/>
       <c r="E261" s="34"/>
       <c r="F261" s="34"/>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1">
-      <c r="A262" s="92"/>
       <c r="B262" s="61"/>
       <c r="E262" s="34"/>
       <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1">
+      <c r="A263" s="92"/>
       <c r="B263" s="61"/>
       <c r="E263" s="34"/>
       <c r="F263" s="34"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1">
-      <c r="A264" s="92"/>
       <c r="B264" s="61"/>
       <c r="E264" s="34"/>
       <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1">
+      <c r="A265" s="92"/>
       <c r="B265" s="61"/>
       <c r="E265" s="34"/>
       <c r="F265" s="34"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1">
-      <c r="A266" s="92"/>
       <c r="B266" s="61"/>
       <c r="E266" s="34"/>
       <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1">
+      <c r="A267" s="92"/>
       <c r="B267" s="61"/>
       <c r="E267" s="34"/>
       <c r="F267" s="34"/>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1">
-      <c r="A268" s="92"/>
       <c r="B268" s="61"/>
       <c r="E268" s="34"/>
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1">
+      <c r="A269" s="92"/>
       <c r="B269" s="61"/>
       <c r="E269" s="34"/>
       <c r="F269" s="34"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1">
-      <c r="A270" s="92"/>
       <c r="B270" s="61"/>
       <c r="E270" s="34"/>
       <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
+      <c r="A271" s="92"/>
       <c r="B271" s="61"/>
       <c r="E271" s="34"/>
       <c r="F271" s="34"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1">
-      <c r="A272" s="92"/>
       <c r="B272" s="61"/>
       <c r="E272" s="34"/>
       <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1">
+      <c r="A273" s="92"/>
       <c r="B273" s="61"/>
       <c r="E273" s="34"/>
       <c r="F273" s="34"/>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1">
-      <c r="A274" s="92"/>
       <c r="B274" s="61"/>
       <c r="E274" s="34"/>
       <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
+      <c r="A275" s="92"/>
       <c r="B275" s="61"/>
       <c r="E275" s="34"/>
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1">
-      <c r="A276" s="92"/>
       <c r="B276" s="61"/>
       <c r="E276" s="34"/>
       <c r="F276" s="34"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
+      <c r="A277" s="92"/>
       <c r="B277" s="61"/>
       <c r="E277" s="34"/>
       <c r="F277" s="34"/>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1">
-      <c r="A278" s="92"/>
       <c r="B278" s="61"/>
       <c r="E278" s="34"/>
       <c r="F278" s="34"/>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
+      <c r="A279" s="92"/>
       <c r="B279" s="61"/>
       <c r="E279" s="34"/>
       <c r="F279" s="34"/>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1">
-      <c r="A280" s="92"/>
       <c r="B280" s="61"/>
       <c r="E280" s="34"/>
       <c r="F280" s="34"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
+      <c r="A281" s="92"/>
       <c r="B281" s="61"/>
       <c r="E281" s="34"/>
       <c r="F281" s="34"/>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1">
-      <c r="A282" s="92"/>
       <c r="B282" s="61"/>
       <c r="E282" s="34"/>
       <c r="F282" s="34"/>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
+      <c r="A283" s="92"/>
       <c r="B283" s="61"/>
       <c r="E283" s="34"/>
       <c r="F283" s="34"/>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1">
-      <c r="A284" s="92"/>
       <c r="B284" s="61"/>
       <c r="E284" s="34"/>
       <c r="F284" s="34"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
+      <c r="A285" s="92"/>
       <c r="B285" s="61"/>
       <c r="E285" s="34"/>
       <c r="F285" s="34"/>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1">
-      <c r="A286" s="92"/>
       <c r="B286" s="61"/>
       <c r="E286" s="34"/>
       <c r="F286" s="34"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
+      <c r="A287" s="92"/>
       <c r="B287" s="61"/>
       <c r="E287" s="34"/>
       <c r="F287" s="34"/>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1">
-      <c r="A288" s="92"/>
       <c r="B288" s="61"/>
       <c r="E288" s="34"/>
       <c r="F288" s="34"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
+      <c r="A289" s="92"/>
       <c r="B289" s="61"/>
       <c r="E289" s="34"/>
       <c r="F289" s="34"/>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1">
-      <c r="A290" s="92"/>
       <c r="B290" s="61"/>
       <c r="E290" s="34"/>
       <c r="F290" s="34"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
+      <c r="A291" s="92"/>
       <c r="B291" s="61"/>
       <c r="E291" s="34"/>
       <c r="F291" s="34"/>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1">
-      <c r="A292" s="92"/>
       <c r="B292" s="61"/>
       <c r="E292" s="34"/>
       <c r="F292" s="34"/>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1">
+      <c r="A293" s="92"/>
       <c r="B293" s="61"/>
       <c r="E293" s="34"/>
       <c r="F293" s="34"/>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1">
-      <c r="A294" s="92"/>
       <c r="B294" s="61"/>
       <c r="E294" s="34"/>
       <c r="F294" s="34"/>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1">
+      <c r="A295" s="92"/>
       <c r="B295" s="61"/>
       <c r="E295" s="34"/>
       <c r="F295" s="34"/>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1">
-      <c r="A296" s="92"/>
       <c r="B296" s="61"/>
       <c r="E296" s="34"/>
       <c r="F296" s="34"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1">
+      <c r="A297" s="92"/>
       <c r="B297" s="61"/>
       <c r="E297" s="34"/>
       <c r="F297" s="34"/>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1">
-      <c r="A298" s="92"/>
       <c r="B298" s="61"/>
       <c r="E298" s="34"/>
       <c r="F298" s="34"/>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1">
+      <c r="A299" s="92"/>
       <c r="B299" s="61"/>
       <c r="E299" s="34"/>
       <c r="F299" s="34"/>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1">
-      <c r="A300" s="92"/>
       <c r="B300" s="61"/>
       <c r="E300" s="34"/>
       <c r="F300" s="34"/>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1">
+      <c r="A301" s="92"/>
       <c r="B301" s="61"/>
       <c r="E301" s="34"/>
       <c r="F301" s="34"/>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1">
-      <c r="A302" s="92"/>
       <c r="B302" s="61"/>
       <c r="E302" s="34"/>
       <c r="F302" s="34"/>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1">
+      <c r="A303" s="92"/>
       <c r="B303" s="61"/>
       <c r="E303" s="34"/>
       <c r="F303" s="34"/>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1">
-      <c r="A304" s="92"/>
       <c r="B304" s="61"/>
       <c r="E304" s="34"/>
       <c r="F304" s="34"/>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1">
+      <c r="A305" s="92"/>
       <c r="B305" s="61"/>
       <c r="E305" s="34"/>
       <c r="F305" s="34"/>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1">
-      <c r="A306" s="92"/>
       <c r="B306" s="61"/>
       <c r="E306" s="34"/>
       <c r="F306" s="34"/>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1">
+      <c r="A307" s="92"/>
       <c r="B307" s="61"/>
       <c r="E307" s="34"/>
       <c r="F307" s="34"/>
     </row>
     <row r="308" spans="1:6" ht="15" customHeight="1">
-      <c r="A308" s="92"/>
       <c r="B308" s="61"/>
       <c r="E308" s="34"/>
       <c r="F308" s="34"/>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1">
+      <c r="A309" s="92"/>
       <c r="B309" s="61"/>
       <c r="E309" s="34"/>
       <c r="F309" s="34"/>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1">
-      <c r="A310" s="92"/>
       <c r="B310" s="61"/>
       <c r="E310" s="34"/>
       <c r="F310" s="34"/>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1">
+      <c r="A311" s="92"/>
       <c r="B311" s="61"/>
       <c r="E311" s="34"/>
       <c r="F311" s="34"/>
     </row>
     <row r="312" spans="1:6" ht="15" customHeight="1">
-      <c r="A312" s="92"/>
       <c r="B312" s="61"/>
       <c r="E312" s="34"/>
       <c r="F312" s="34"/>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1">
+      <c r="A313" s="92"/>
       <c r="B313" s="61"/>
       <c r="E313" s="34"/>
       <c r="F313" s="34"/>
     </row>
     <row r="314" spans="1:6" ht="15" customHeight="1">
-      <c r="A314" s="92"/>
       <c r="B314" s="61"/>
       <c r="E314" s="34"/>
       <c r="F314" s="34"/>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1">
+      <c r="A315" s="92"/>
       <c r="B315" s="61"/>
       <c r="E315" s="34"/>
       <c r="F315" s="34"/>
     </row>
     <row r="316" spans="1:6" ht="15" customHeight="1">
-      <c r="A316" s="92"/>
       <c r="B316" s="61"/>
       <c r="E316" s="34"/>
       <c r="F316" s="34"/>
     </row>
     <row r="317" spans="1:6" ht="15" customHeight="1">
+      <c r="A317" s="92"/>
       <c r="B317" s="61"/>
       <c r="E317" s="34"/>
       <c r="F317" s="34"/>
     </row>
     <row r="318" spans="1:6" ht="15" customHeight="1">
-      <c r="A318" s="92"/>
       <c r="B318" s="61"/>
       <c r="E318" s="34"/>
       <c r="F318" s="34"/>
     </row>
     <row r="319" spans="1:6" ht="15" customHeight="1">
+      <c r="A319" s="92"/>
       <c r="B319" s="61"/>
       <c r="E319" s="34"/>
       <c r="F319" s="34"/>
     </row>
     <row r="320" spans="1:6" ht="15" customHeight="1">
-      <c r="A320" s="92"/>
       <c r="B320" s="61"/>
       <c r="E320" s="34"/>
       <c r="F320" s="34"/>
     </row>
     <row r="321" spans="1:6" ht="15" customHeight="1">
+      <c r="A321" s="92"/>
       <c r="B321" s="61"/>
       <c r="E321" s="34"/>
       <c r="F321" s="34"/>
     </row>
     <row r="322" spans="1:6" ht="15" customHeight="1">
-      <c r="A322" s="92"/>
       <c r="B322" s="61"/>
       <c r="E322" s="34"/>
       <c r="F322" s="34"/>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1">
+      <c r="A323" s="92"/>
       <c r="B323" s="61"/>
       <c r="E323" s="34"/>
       <c r="F323" s="34"/>
     </row>
     <row r="324" spans="1:6" ht="15" customHeight="1">
-      <c r="A324" s="92"/>
       <c r="B324" s="61"/>
       <c r="E324" s="34"/>
       <c r="F324" s="34"/>
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1">
+      <c r="A325" s="92"/>
       <c r="B325" s="61"/>
       <c r="E325" s="34"/>
       <c r="F325" s="34"/>
     </row>
     <row r="326" spans="1:6" ht="15" customHeight="1">
-      <c r="A326" s="92"/>
       <c r="B326" s="61"/>
       <c r="E326" s="34"/>
       <c r="F326" s="34"/>
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
+      <c r="A327" s="92"/>
       <c r="B327" s="61"/>
       <c r="E327" s="34"/>
       <c r="F327" s="34"/>
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1">
-      <c r="A328" s="92"/>
       <c r="B328" s="61"/>
       <c r="E328" s="34"/>
       <c r="F328" s="34"/>
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1">
+      <c r="A329" s="92"/>
       <c r="B329" s="61"/>
       <c r="E329" s="34"/>
       <c r="F329" s="34"/>
     </row>
     <row r="330" spans="1:6" ht="15" customHeight="1">
-      <c r="A330" s="92"/>
       <c r="B330" s="61"/>
       <c r="E330" s="34"/>
       <c r="F330" s="34"/>
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1">
+      <c r="A331" s="92"/>
       <c r="B331" s="61"/>
       <c r="E331" s="34"/>
       <c r="F331" s="34"/>
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1">
-      <c r="A332" s="92"/>
       <c r="B332" s="61"/>
       <c r="E332" s="34"/>
       <c r="F332" s="34"/>
     </row>
     <row r="333" spans="1:6" ht="15" customHeight="1">
+      <c r="A333" s="92"/>
       <c r="B333" s="61"/>
       <c r="E333" s="34"/>
       <c r="F333" s="34"/>
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1">
-      <c r="A334" s="92"/>
       <c r="B334" s="61"/>
       <c r="E334" s="34"/>
       <c r="F334" s="34"/>
     </row>
     <row r="335" spans="1:6" ht="15" customHeight="1">
+      <c r="A335" s="92"/>
       <c r="B335" s="61"/>
       <c r="E335" s="34"/>
       <c r="F335" s="34"/>
     </row>
     <row r="336" spans="1:6" ht="15" customHeight="1">
-      <c r="A336" s="92"/>
       <c r="B336" s="61"/>
       <c r="E336" s="34"/>
       <c r="F336" s="34"/>
     </row>
     <row r="337" spans="1:6" ht="15" customHeight="1">
+      <c r="A337" s="92"/>
       <c r="B337" s="61"/>
       <c r="E337" s="34"/>
       <c r="F337" s="34"/>
     </row>
     <row r="338" spans="1:6" ht="15" customHeight="1">
-      <c r="A338" s="92"/>
       <c r="B338" s="61"/>
       <c r="E338" s="34"/>
       <c r="F338" s="34"/>
     </row>
     <row r="339" spans="1:6" ht="15" customHeight="1">
+      <c r="A339" s="92"/>
       <c r="B339" s="61"/>
       <c r="E339" s="34"/>
       <c r="F339" s="34"/>
     </row>
     <row r="340" spans="1:6" ht="15" customHeight="1">
-      <c r="A340" s="92"/>
       <c r="B340" s="61"/>
       <c r="E340" s="34"/>
       <c r="F340" s="34"/>
     </row>
     <row r="341" spans="1:6" ht="15" customHeight="1">
+      <c r="A341" s="92"/>
       <c r="B341" s="61"/>
       <c r="E341" s="34"/>
       <c r="F341" s="34"/>
     </row>
     <row r="342" spans="1:6" ht="15" customHeight="1">
-      <c r="A342" s="92"/>
       <c r="B342" s="61"/>
       <c r="E342" s="34"/>
       <c r="F342" s="34"/>
     </row>
     <row r="343" spans="1:6" ht="15" customHeight="1">
+      <c r="A343" s="92"/>
       <c r="B343" s="61"/>
       <c r="E343" s="34"/>
       <c r="F343" s="34"/>
     </row>
     <row r="344" spans="1:6" ht="15" customHeight="1">
-      <c r="A344" s="92"/>
       <c r="B344" s="61"/>
       <c r="E344" s="34"/>
       <c r="F344" s="34"/>
     </row>
     <row r="345" spans="1:6" ht="15" customHeight="1">
+      <c r="A345" s="92"/>
       <c r="B345" s="61"/>
       <c r="E345" s="34"/>
       <c r="F345" s="34"/>
     </row>
     <row r="346" spans="1:6" ht="15" customHeight="1">
-      <c r="A346" s="92"/>
       <c r="B346" s="61"/>
       <c r="E346" s="34"/>
       <c r="F346" s="34"/>
     </row>
     <row r="347" spans="1:6" ht="15" customHeight="1">
+      <c r="A347" s="92"/>
       <c r="B347" s="61"/>
       <c r="E347" s="34"/>
       <c r="F347" s="34"/>
     </row>
     <row r="348" spans="1:6" ht="15" customHeight="1">
-      <c r="A348" s="92"/>
       <c r="B348" s="61"/>
       <c r="E348" s="34"/>
       <c r="F348" s="34"/>
     </row>
     <row r="349" spans="1:6" ht="15" customHeight="1">
+      <c r="A349" s="92"/>
       <c r="B349" s="61"/>
       <c r="E349" s="34"/>
       <c r="F349" s="34"/>
@@ -44752,6 +44852,7 @@
       <c r="F391" s="34"/>
     </row>
     <row r="392" spans="2:6" ht="15" customHeight="1">
+      <c r="B392" s="61"/>
       <c r="E392" s="34"/>
       <c r="F392" s="34"/>
     </row>
@@ -44799,150 +44900,194 @@
       <c r="E403" s="34"/>
       <c r="F403" s="34"/>
     </row>
+    <row r="404" spans="5:6" ht="15" customHeight="1">
+      <c r="E404" s="34"/>
+      <c r="F404" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H161:H165"/>
+    <mergeCell ref="H162:H166"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
-    <cfRule type="containsText" dxfId="205" priority="41" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
+    <cfRule type="containsText" dxfId="213" priority="49" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
-    <cfRule type="containsText" dxfId="204" priority="42" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
+    <cfRule type="containsText" dxfId="212" priority="50" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E216:E403 E208:E214 E69:E88 E90:E95 E97:E159 E161:E192 E195:E206">
-    <cfRule type="containsText" dxfId="203" priority="43" operator="containsText" text="Easy">
+  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
+    <cfRule type="containsText" dxfId="211" priority="51" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
-    <cfRule type="notContainsBlanks" dxfId="202" priority="36">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
+    <cfRule type="notContainsBlanks" dxfId="210" priority="44">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
-    <cfRule type="containsText" dxfId="201" priority="37" operator="containsText" text="Revisit Later">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
+    <cfRule type="containsText" dxfId="209" priority="45" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
-    <cfRule type="containsText" dxfId="200" priority="38" operator="containsText" text="Practice Later">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
+    <cfRule type="containsText" dxfId="208" priority="46" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
-    <cfRule type="containsText" dxfId="199" priority="39" operator="containsText" text="Good To Go">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
+    <cfRule type="containsText" dxfId="207" priority="47" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F216:F403 F208:F214 F69:F88 F90:F206">
-    <cfRule type="containsText" dxfId="198" priority="40" operator="containsText" text="Needs Review">
+  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
+    <cfRule type="containsText" dxfId="206" priority="48" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G129">
-    <cfRule type="containsText" dxfId="197" priority="25" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(G129))))</formula>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="containsText" dxfId="205" priority="33" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(G130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G129">
-    <cfRule type="containsText" dxfId="196" priority="26" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(G129))))</formula>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="containsText" dxfId="204" priority="34" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(G130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G129">
-    <cfRule type="containsText" dxfId="195" priority="27" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(G129))))</formula>
+  <conditionalFormatting sqref="G130">
+    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(G130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="notContainsBlanks" dxfId="194" priority="20">
-      <formula>LEN(TRIM(H129))&gt;0</formula>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="notContainsBlanks" dxfId="202" priority="28">
+      <formula>LEN(TRIM(H130))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="193" priority="21" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H129))))</formula>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="containsText" dxfId="201" priority="29" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="192" priority="22" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H129))))</formula>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="containsText" dxfId="200" priority="30" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="191" priority="23" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H129))))</formula>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="containsText" dxfId="199" priority="31" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H129">
-    <cfRule type="containsText" dxfId="190" priority="24" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H129))))</formula>
+  <conditionalFormatting sqref="H130">
+    <cfRule type="containsText" dxfId="198" priority="32" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H130))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D193:D194">
-    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(D193))))</formula>
+  <conditionalFormatting sqref="D194:D195">
+    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(D194))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D193:D194">
-    <cfRule type="containsText" dxfId="188" priority="10" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(D193))))</formula>
+  <conditionalFormatting sqref="D194:D195">
+    <cfRule type="containsText" dxfId="196" priority="18" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(D194))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D193:D194">
-    <cfRule type="containsText" dxfId="187" priority="11" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(D193))))</formula>
+  <conditionalFormatting sqref="D194:D195">
+    <cfRule type="containsText" dxfId="195" priority="19" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(D194))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="notContainsBlanks" dxfId="194" priority="12">
+      <formula>LEN(TRIM(E195))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="containsText" dxfId="193" priority="13" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(E195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="containsText" dxfId="192" priority="14" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(E195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="containsText" dxfId="191" priority="15" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(E195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E195">
+    <cfRule type="containsText" dxfId="190" priority="16" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(E195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="notContainsBlanks" dxfId="186" priority="4">
-      <formula>LEN(TRIM(E194))&gt;0</formula>
+    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="185" priority="5" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(E194))))</formula>
+    <cfRule type="containsText" dxfId="188" priority="10" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E194))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="184" priority="6" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(E194))))</formula>
+    <cfRule type="containsText" dxfId="187" priority="11" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E194))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="183" priority="7" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(E194))))</formula>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E108))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="182" priority="8" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(E194))))</formula>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E108))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="containsText" dxfId="181" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(E193))))</formula>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="containsText" dxfId="184" priority="8" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E108))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="containsText" dxfId="180" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E193))))</formula>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="notContainsBlanks" dxfId="183" priority="1">
+      <formula>LEN(TRIM(F108))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E193">
-    <cfRule type="containsText" dxfId="179" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(E193))))</formula>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F108))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108">
+    <cfRule type="containsText" dxfId="179" priority="5" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F108))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H129 F216:F403 F208:F214 F10:F67 F69:F88 F90:F206 E194" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H130 F217:F404 F209:F215 F10:F67 F69:F88 E195 F90:F207" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G129 E216:E403 E208:E214 E10:E67 E69:E88 E90:E95 E97:E159 E161:E193 E195:E206 D193:D194" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G130 E217:E404 E209:E215 E10:E67 E69:E88 E90:E95 D194:D195 E162:E194 E196:E207 E97:E160" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -45033,122 +45178,123 @@
     <hyperlink ref="B104" r:id="rId84" tooltip="First Bad Version" display="https://leetcode.com/problems/first-bad-version" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
     <hyperlink ref="B103" r:id="rId85" tooltip="Find the Celebrity" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
     <hyperlink ref="B107" r:id="rId86" tooltip="Move Zeroes" display="https://leetcode.com/problems/move-zeroes" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B108" r:id="rId87" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="B109" r:id="rId88" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B110" r:id="rId89" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="B111" r:id="rId90" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B112" r:id="rId91" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="B113" r:id="rId92" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B114" r:id="rId93" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="B115" r:id="rId94" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B116" r:id="rId95" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="B117" r:id="rId96" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B118" r:id="rId97" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="B119" r:id="rId98" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B120" r:id="rId99" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="B121" r:id="rId100" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B122" r:id="rId101" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="B123" r:id="rId102" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B124" r:id="rId103" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="B125" r:id="rId104" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B126" r:id="rId105" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="B127" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B222" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B109" r:id="rId87" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B110" r:id="rId88" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B111" r:id="rId89" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B112" r:id="rId90" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B113" r:id="rId91" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B114" r:id="rId92" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B115" r:id="rId93" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="B116" r:id="rId94" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B117" r:id="rId95" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="B118" r:id="rId96" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B119" r:id="rId97" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="B120" r:id="rId98" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B121" r:id="rId99" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="B122" r:id="rId100" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B123" r:id="rId101" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="B124" r:id="rId102" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B125" r:id="rId103" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="B126" r:id="rId104" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B127" r:id="rId105" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="B128" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B223" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G23" r:id="rId108" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
     <hyperlink ref="B67" r:id="rId109" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
     <hyperlink ref="D67" r:id="rId110" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="B223" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B224" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B209" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
-    <hyperlink ref="B128" r:id="rId114" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
-    <hyperlink ref="B130" r:id="rId115" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
-    <hyperlink ref="B129" r:id="rId116" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
-    <hyperlink ref="B131" r:id="rId117" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B216" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
-    <hyperlink ref="B191" r:id="rId119" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B220" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
-    <hyperlink ref="B132" r:id="rId121" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
-    <hyperlink ref="B134" r:id="rId122" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="B135" r:id="rId123" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
-    <hyperlink ref="B136" r:id="rId124" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
-    <hyperlink ref="B137" r:id="rId125" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
-    <hyperlink ref="B133" r:id="rId126" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
-    <hyperlink ref="B139" r:id="rId127" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
-    <hyperlink ref="B140" r:id="rId128" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
-    <hyperlink ref="B138" r:id="rId129" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="B141" r:id="rId130" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="B145" r:id="rId131" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
-    <hyperlink ref="D145" r:id="rId132" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
-    <hyperlink ref="B143" r:id="rId133" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
-    <hyperlink ref="D143" r:id="rId134" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
-    <hyperlink ref="B144" r:id="rId135" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
-    <hyperlink ref="D144" r:id="rId136" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
-    <hyperlink ref="B146" r:id="rId137" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
-    <hyperlink ref="B142" r:id="rId138" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
-    <hyperlink ref="B150" r:id="rId139" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
-    <hyperlink ref="D150" r:id="rId140" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
-    <hyperlink ref="B152" r:id="rId141" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
-    <hyperlink ref="B153" r:id="rId142" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
-    <hyperlink ref="B149" r:id="rId143" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
-    <hyperlink ref="D149" r:id="rId144" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
-    <hyperlink ref="B147" r:id="rId145" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
-    <hyperlink ref="B148" r:id="rId146" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
-    <hyperlink ref="B157" r:id="rId147" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
-    <hyperlink ref="B156" r:id="rId148" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
-    <hyperlink ref="B154" r:id="rId149" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
-    <hyperlink ref="B169" r:id="rId150" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
-    <hyperlink ref="B159" r:id="rId151" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
-    <hyperlink ref="D159" r:id="rId152" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
-    <hyperlink ref="B158" r:id="rId153" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B162" r:id="rId154" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
-    <hyperlink ref="D162" r:id="rId155" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
-    <hyperlink ref="B161" r:id="rId156" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
-    <hyperlink ref="D161" r:id="rId157" tooltip="Array" display="Array - Cycle Sort" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
-    <hyperlink ref="B164" r:id="rId158" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B163" r:id="rId159" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
-    <hyperlink ref="B186" r:id="rId160" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
-    <hyperlink ref="B227" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
-    <hyperlink ref="B231" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
-    <hyperlink ref="B232" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
-    <hyperlink ref="B175" r:id="rId164" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
+    <hyperlink ref="B224" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B225" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B210" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B129" r:id="rId114" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
+    <hyperlink ref="B131" r:id="rId115" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
+    <hyperlink ref="B130" r:id="rId116" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
+    <hyperlink ref="B132" r:id="rId117" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
+    <hyperlink ref="B217" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B192" r:id="rId119" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B221" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B133" r:id="rId121" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
+    <hyperlink ref="B135" r:id="rId122" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
+    <hyperlink ref="B136" r:id="rId123" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
+    <hyperlink ref="B137" r:id="rId124" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
+    <hyperlink ref="B138" r:id="rId125" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
+    <hyperlink ref="B134" r:id="rId126" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
+    <hyperlink ref="B140" r:id="rId127" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
+    <hyperlink ref="B141" r:id="rId128" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
+    <hyperlink ref="B139" r:id="rId129" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="B142" r:id="rId130" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="B146" r:id="rId131" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
+    <hyperlink ref="D146" r:id="rId132" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
+    <hyperlink ref="B144" r:id="rId133" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
+    <hyperlink ref="D144" r:id="rId134" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
+    <hyperlink ref="B145" r:id="rId135" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
+    <hyperlink ref="D145" r:id="rId136" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
+    <hyperlink ref="B147" r:id="rId137" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
+    <hyperlink ref="B143" r:id="rId138" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
+    <hyperlink ref="B151" r:id="rId139" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
+    <hyperlink ref="D151" r:id="rId140" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
+    <hyperlink ref="B153" r:id="rId141" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
+    <hyperlink ref="B154" r:id="rId142" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
+    <hyperlink ref="B150" r:id="rId143" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
+    <hyperlink ref="D150" r:id="rId144" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
+    <hyperlink ref="B148" r:id="rId145" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
+    <hyperlink ref="B149" r:id="rId146" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
+    <hyperlink ref="B158" r:id="rId147" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
+    <hyperlink ref="B157" r:id="rId148" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
+    <hyperlink ref="B155" r:id="rId149" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
+    <hyperlink ref="B170" r:id="rId150" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="B160" r:id="rId151" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
+    <hyperlink ref="D160" r:id="rId152" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
+    <hyperlink ref="B159" r:id="rId153" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="B163" r:id="rId154" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
+    <hyperlink ref="D163" r:id="rId155" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
+    <hyperlink ref="B162" r:id="rId156" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
+    <hyperlink ref="D162" r:id="rId157" tooltip="Array" display="Array - Cycle Sort" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
+    <hyperlink ref="B165" r:id="rId158" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B164" r:id="rId159" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
+    <hyperlink ref="B187" r:id="rId160" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
+    <hyperlink ref="B228" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
+    <hyperlink ref="B232" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
+    <hyperlink ref="B233" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
+    <hyperlink ref="B176" r:id="rId164" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
     <hyperlink ref="B46" r:id="rId165" tooltip="Maximum Subarray" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
     <hyperlink ref="B48" r:id="rId166" tooltip="Jump Game" display="https://leetcode.com/problems/jump-game" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
     <hyperlink ref="B47" r:id="rId167" xr:uid="{DFB65389-C1B1-4C39-9147-A098CAA5A5B4}"/>
-    <hyperlink ref="B233" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
-    <hyperlink ref="B212" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
-    <hyperlink ref="B236" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
-    <hyperlink ref="B235" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
-    <hyperlink ref="B237" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
-    <hyperlink ref="B179" r:id="rId173" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
-    <hyperlink ref="B203" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
-    <hyperlink ref="B166" r:id="rId175" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
-    <hyperlink ref="B239" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
-    <hyperlink ref="B190" r:id="rId177" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
-    <hyperlink ref="B173" r:id="rId178" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
-    <hyperlink ref="B181" r:id="rId179" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
-    <hyperlink ref="B182" r:id="rId180" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
-    <hyperlink ref="B201" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="B206" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
-    <hyperlink ref="B195" r:id="rId183" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
-    <hyperlink ref="B184" r:id="rId184" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B241" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
-    <hyperlink ref="D164" r:id="rId186" tooltip="Array" display="Array - Cycle Sort" xr:uid="{EC859E2B-D057-4073-B6B6-56C581737270}"/>
+    <hyperlink ref="B234" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
+    <hyperlink ref="B213" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
+    <hyperlink ref="B237" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
+    <hyperlink ref="B236" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
+    <hyperlink ref="B238" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
+    <hyperlink ref="B180" r:id="rId173" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
+    <hyperlink ref="B204" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
+    <hyperlink ref="B167" r:id="rId175" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
+    <hyperlink ref="B240" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
+    <hyperlink ref="B191" r:id="rId177" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
+    <hyperlink ref="B174" r:id="rId178" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
+    <hyperlink ref="B182" r:id="rId179" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
+    <hyperlink ref="B183" r:id="rId180" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
+    <hyperlink ref="B202" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
+    <hyperlink ref="B207" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
+    <hyperlink ref="B196" r:id="rId183" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
+    <hyperlink ref="B185" r:id="rId184" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="B242" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
+    <hyperlink ref="D165" r:id="rId186" tooltip="Array" display="Array - Cycle Sort" xr:uid="{EC859E2B-D057-4073-B6B6-56C581737270}"/>
     <hyperlink ref="D43" r:id="rId187" tooltip="Array" display="Array - Cycle Sort" xr:uid="{BB4333F9-0415-4B35-BDCA-391F8221A435}"/>
-    <hyperlink ref="B244" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
+    <hyperlink ref="B245" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
     <hyperlink ref="B98" r:id="rId189" xr:uid="{18634FC0-6758-4823-8652-EE3AB41D1753}"/>
     <hyperlink ref="B99" r:id="rId190" xr:uid="{E0674819-E9CA-4C82-9425-251748605BDB}"/>
-    <hyperlink ref="B168" r:id="rId191" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="B171" r:id="rId192" tooltip="Sort Characters By Frequency" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B169" r:id="rId191" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="B172" r:id="rId192" tooltip="Sort Characters By Frequency" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
     <hyperlink ref="B18" r:id="rId193" xr:uid="{4E883AB7-6682-4E69-AFAA-9423B445CB67}"/>
-    <hyperlink ref="B218" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
-    <hyperlink ref="B193" r:id="rId195" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
-    <hyperlink ref="B197" r:id="rId196" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
-    <hyperlink ref="B155" r:id="rId197" xr:uid="{0099B707-15B6-4A46-A50F-7BF0C5238231}"/>
+    <hyperlink ref="B219" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
+    <hyperlink ref="B194" r:id="rId195" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
+    <hyperlink ref="B198" r:id="rId196" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
+    <hyperlink ref="B156" r:id="rId197" xr:uid="{0099B707-15B6-4A46-A50F-7BF0C5238231}"/>
+    <hyperlink ref="B108" r:id="rId198" tooltip="Find the Duplicate Number" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId198"/>
-  <drawing r:id="rId199"/>
-  <legacyDrawing r:id="rId200"/>
+  <pageSetup orientation="portrait" r:id="rId199"/>
+  <drawing r:id="rId200"/>
+  <legacyDrawing r:id="rId201"/>
 </worksheet>
 </file>
 
@@ -45156,8 +45302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -45724,7 +45870,7 @@
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="172">
+      <c r="A32" s="171">
         <v>1721</v>
       </c>
       <c r="B32" s="61" t="s">
@@ -47543,7 +47689,7 @@
       <c r="F102" s="107"/>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1">
-      <c r="A103" s="203">
+      <c r="A103" s="202">
         <v>971</v>
       </c>
       <c r="B103" s="128" t="s">
@@ -47564,7 +47710,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1">
-      <c r="A104" s="203"/>
+      <c r="A104" s="202"/>
       <c r="B104" s="128"/>
       <c r="C104" s="106"/>
       <c r="D104" s="32"/>
@@ -48529,69 +48675,69 @@
       <c r="B33" t="s">
         <v>1526</v>
       </c>
-      <c r="E33" s="205" t="s">
+      <c r="E33" s="204" t="s">
         <v>1533</v>
       </c>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
+      <c r="I33" s="205"/>
+      <c r="J33" s="205"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>1527</v>
       </c>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="206"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="206"/>
-      <c r="J34" s="206"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>1528</v>
       </c>
-      <c r="E35" s="206"/>
-      <c r="F35" s="206"/>
-      <c r="G35" s="206"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="206"/>
-      <c r="J35" s="206"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>1529</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="206"/>
-      <c r="J36" s="206"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="205"/>
+      <c r="J36" s="205"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>1530</v>
       </c>
-      <c r="E37" s="206"/>
-      <c r="F37" s="206"/>
-      <c r="G37" s="206"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="206"/>
-      <c r="J37" s="206"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="205"/>
+      <c r="J37" s="205"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>1527</v>
       </c>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="206"/>
-      <c r="J38" s="206"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
+      <c r="I38" s="205"/>
+      <c r="J38" s="205"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
@@ -48941,7 +49087,7 @@
       <c r="A25" s="25">
         <v>246</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>326</v>
       </c>
       <c r="C25" s="33"/>
@@ -48962,7 +49108,7 @@
       <c r="A26" s="25">
         <v>247</v>
       </c>
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="168" t="s">
         <v>281</v>
       </c>
       <c r="C26" s="33"/>
@@ -48983,7 +49129,7 @@
       <c r="A27" s="101">
         <v>248</v>
       </c>
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="168" t="s">
         <v>776</v>
       </c>
       <c r="C27" s="54"/>
@@ -49750,8 +49896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:G155"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -50003,26 +50149,6 @@
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
       <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="37">
-        <v>287</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>1562</v>
-      </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="4"/>
@@ -50694,42 +50820,42 @@
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
+  <conditionalFormatting sqref="E20 E23:E27 E29 E31 E33">
     <cfRule type="containsText" dxfId="95" priority="14" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
+  <conditionalFormatting sqref="E20 E23:E27 E29 E31 E33">
     <cfRule type="containsText" dxfId="94" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20 E22:E27 E29 E31 E33">
+  <conditionalFormatting sqref="E20 E23:E27 E29 E31 E33">
     <cfRule type="containsText" dxfId="93" priority="16" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
+  <conditionalFormatting sqref="F20 F23:F27 F29 F31 F33">
     <cfRule type="notContainsBlanks" dxfId="92" priority="9">
       <formula>LEN(TRIM(F20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
+  <conditionalFormatting sqref="F20 F23:F27 F29 F31 F33">
     <cfRule type="containsText" dxfId="91" priority="10" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
+  <conditionalFormatting sqref="F20 F23:F27 F29 F31 F33">
     <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
+  <conditionalFormatting sqref="F20 F23:F27 F29 F31 F33">
     <cfRule type="containsText" dxfId="89" priority="12" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F22:F27 F29 F31 F33">
+  <conditionalFormatting sqref="F20 F23:F27 F29 F31 F33">
     <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F20))))</formula>
     </cfRule>
@@ -50775,10 +50901,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F14 F18:F27 F29:F34" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F14 F29:F34 F18:F21 F23:F27" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E14 E18:E27 E29:E34" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E14 E29:E34 E18:E21 E23:E27" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -50792,14 +50918,13 @@
     <hyperlink ref="B19" r:id="rId7" tooltip="Meeting Rooms" display="https://leetcode.com/problems/meeting-rooms" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
     <hyperlink ref="B20" r:id="rId8" tooltip="Meeting Rooms II" display="https://leetcode.com/problems/meeting-rooms-ii" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
     <hyperlink ref="B21" r:id="rId9" tooltip="Integer to English Words" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
-    <hyperlink ref="B22" r:id="rId10" tooltip="Find the Duplicate Number" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
-    <hyperlink ref="B29" r:id="rId11" tooltip="Count of Smaller Numbers After Self" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
-    <hyperlink ref="B30" r:id="rId12" tooltip="Nested List Weight Sum" display="https://leetcode.com/problems/nested-list-weight-sum" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
-    <hyperlink ref="B31" r:id="rId13" tooltip="Sort Transformed Array" display="https://leetcode.com/problems/sort-transformed-array" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="B29" r:id="rId10" tooltip="Count of Smaller Numbers After Self" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="B30" r:id="rId11" tooltip="Nested List Weight Sum" display="https://leetcode.com/problems/nested-list-weight-sum" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B31" r:id="rId12" tooltip="Sort Transformed Array" display="https://leetcode.com/problems/sort-transformed-array" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -51089,7 +51214,7 @@
       <c r="A27" s="60">
         <v>121</v>
       </c>
-      <c r="B27" s="186" t="s">
+      <c r="B27" s="185" t="s">
         <v>127</v>
       </c>
       <c r="D27" s="105" t="s">
@@ -51109,7 +51234,7 @@
       <c r="A28" s="60">
         <v>122</v>
       </c>
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="185" t="s">
         <v>216</v>
       </c>
       <c r="C28" s="54"/>
@@ -51130,7 +51255,7 @@
       <c r="A29" s="25">
         <v>714</v>
       </c>
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="186" t="s">
         <v>1088</v>
       </c>
       <c r="C29" s="27"/>
@@ -51151,7 +51276,7 @@
       <c r="A30" s="54">
         <v>309</v>
       </c>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="187" t="s">
         <v>238</v>
       </c>
       <c r="C30" s="54"/>
@@ -51172,7 +51297,7 @@
       <c r="A31" s="60">
         <v>123</v>
       </c>
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="185" t="s">
         <v>1024</v>
       </c>
       <c r="D31" s="105" t="s">
@@ -51192,7 +51317,7 @@
       <c r="A32" s="60">
         <v>188</v>
       </c>
-      <c r="B32" s="186" t="s">
+      <c r="B32" s="185" t="s">
         <v>458</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -51702,10 +51827,10 @@
       <c r="F73" s="34"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
-      <c r="A74" s="170" t="s">
+      <c r="A74" s="169" t="s">
         <v>1607</v>
       </c>
-      <c r="B74" s="170"/>
+      <c r="B74" s="169"/>
       <c r="D74" s="105"/>
       <c r="E74" s="34"/>
       <c r="F74" s="34"/>
@@ -51739,16 +51864,16 @@
       <c r="F78" s="34"/>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1">
-      <c r="A79" s="170" t="s">
+      <c r="A79" s="169" t="s">
         <v>1606</v>
       </c>
-      <c r="B79" s="171"/>
+      <c r="B79" s="170"/>
       <c r="D79" s="105"/>
       <c r="E79" s="34"/>
       <c r="F79" s="34"/>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1">
-      <c r="A80" s="198" t="s">
+      <c r="A80" s="197" t="s">
         <v>1584</v>
       </c>
       <c r="B80" s="154"/>
@@ -51824,7 +51949,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A84" s="176">
+      <c r="A84" s="175">
         <v>5</v>
       </c>
       <c r="B84" s="162" t="s">
@@ -51873,7 +51998,7 @@
       <c r="A86" s="54">
         <v>730</v>
       </c>
-      <c r="B86" s="175" t="s">
+      <c r="B86" s="174" t="s">
         <v>1591</v>
       </c>
       <c r="C86" s="55" t="s">
@@ -51993,7 +52118,7 @@
       <c r="A92" s="93">
         <v>1216</v>
       </c>
-      <c r="B92" s="176" t="s">
+      <c r="B92" s="175" t="s">
         <v>584</v>
       </c>
       <c r="C92" s="22" t="s">
@@ -52077,7 +52202,7 @@
       <c r="A97" s="30">
         <v>214</v>
       </c>
-      <c r="B97" s="185" t="s">
+      <c r="B97" s="184" t="s">
         <v>476</v>
       </c>
       <c r="C97" s="54"/>
@@ -52094,7 +52219,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="184" customFormat="1" ht="15" customHeight="1">
+    <row r="98" spans="1:7" s="183" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="60">
         <v>1745</v>
       </c>
@@ -52115,7 +52240,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="184" customFormat="1" ht="15" customHeight="1">
+    <row r="99" spans="1:7" s="183" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="60"/>
       <c r="B99" s="26"/>
       <c r="C99" s="55"/>
@@ -52124,7 +52249,7 @@
       <c r="F99" s="34"/>
       <c r="G99" s="81"/>
     </row>
-    <row r="100" spans="1:7" s="184" customFormat="1" ht="15" customHeight="1">
+    <row r="100" spans="1:7" s="183" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="60"/>
       <c r="B100" s="26"/>
       <c r="C100" s="55"/>
@@ -52133,7 +52258,7 @@
       <c r="F100" s="34"/>
       <c r="G100" s="81"/>
     </row>
-    <row r="101" spans="1:7" s="184" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:7" s="183" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="60"/>
       <c r="B101" s="26"/>
       <c r="C101" s="55"/>
@@ -52142,7 +52267,7 @@
       <c r="F101" s="34"/>
       <c r="G101" s="81"/>
     </row>
-    <row r="102" spans="1:7" s="184" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:7" s="183" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -52962,7 +53087,7 @@
       <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1">
-      <c r="B27" s="196">
+      <c r="B27" s="195">
         <v>1396</v>
       </c>
       <c r="C27" s="142" t="s">
@@ -52974,7 +53099,7 @@
       <c r="G27" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="H27" s="197" t="s">
+      <c r="H27" s="196" t="s">
         <v>1646</v>
       </c>
     </row>

--- a/ConsoleApplication1/problems.xlsx
+++ b/ConsoleApplication1/problems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sudip x purkayastha\Desktop\ConsoleApplication1\DS-Algo\ConsoleApplication1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3932F9C0-94E2-4E36-B19D-A25ABFFB1665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA83043-3F12-4A5F-8B2C-C368E44B5698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="847" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{5BDEA126-5EF7-4B6C-8AC7-C9F0A21A47B1}">
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{84168A57-1F70-4F61-8FF5-1C211037B964}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Sudip X Purkayastha:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+//Step1: Only store "invalid" indicies, cancel all valid parentheses
+ //Step2: From back of string and stack's top.. find the length of valid parentheses string... is it distance between 2 indicies. Return the max length</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{5BDEA126-5EF7-4B6C-8AC7-C9F0A21A47B1}">
       <text>
         <r>
           <rPr>
@@ -127,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0" shapeId="0" xr:uid="{49FF43D5-4BDA-43B7-9935-E3C961435483}">
+    <comment ref="B48" authorId="0" shapeId="0" xr:uid="{49FF43D5-4BDA-43B7-9935-E3C961435483}">
       <text>
         <r>
           <rPr>
@@ -151,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G47" authorId="0" shapeId="0" xr:uid="{CAA8E0DD-F60E-493A-9907-A3B72FA9940C}">
+    <comment ref="G48" authorId="0" shapeId="0" xr:uid="{CAA8E0DD-F60E-493A-9907-A3B72FA9940C}">
       <text>
         <r>
           <rPr>
@@ -175,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{3E5CCFDF-93AA-4A8A-B0C7-823554946893}">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{3E5CCFDF-93AA-4A8A-B0C7-823554946893}">
       <text>
         <r>
           <rPr>
@@ -200,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0" shapeId="0" xr:uid="{6CBC7D80-C944-4619-868D-9492308776C3}">
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{6CBC7D80-C944-4619-868D-9492308776C3}">
       <text>
         <r>
           <rPr>
@@ -224,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{11A756B3-BB54-492E-805E-52B33EEA5A4B}">
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{11A756B3-BB54-492E-805E-52B33EEA5A4B}">
       <text>
         <r>
           <rPr>
@@ -249,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{2B252FBA-E854-4F41-A379-2063E49D3C97}">
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{2B252FBA-E854-4F41-A379-2063E49D3C97}">
       <text>
         <r>
           <rPr>
@@ -273,7 +298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0" shapeId="0" xr:uid="{FF0A9032-1C5D-4E15-937D-1FFDE086FD7F}">
+    <comment ref="B70" authorId="0" shapeId="0" xr:uid="{FF0A9032-1C5D-4E15-937D-1FFDE086FD7F}">
       <text>
         <r>
           <rPr>
@@ -297,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0" shapeId="0" xr:uid="{B9FF77F7-157E-496B-B639-4D7F9B5E6BC9}">
+    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{B9FF77F7-157E-496B-B639-4D7F9B5E6BC9}">
       <text>
         <r>
           <rPr>
@@ -321,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B97" authorId="0" shapeId="0" xr:uid="{47BE9B2D-B1EE-4666-8F68-F2A3BAE5E98A}">
+    <comment ref="B98" authorId="0" shapeId="0" xr:uid="{47BE9B2D-B1EE-4666-8F68-F2A3BAE5E98A}">
       <text>
         <r>
           <rPr>
@@ -345,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B99" authorId="0" shapeId="0" xr:uid="{516A70C3-4EE7-4AF6-9CFE-1449E1951759}">
+    <comment ref="B100" authorId="0" shapeId="0" xr:uid="{516A70C3-4EE7-4AF6-9CFE-1449E1951759}">
       <text>
         <r>
           <rPr>
@@ -369,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{3EE560F3-9670-41B7-AC8A-A7BB32080697}">
+    <comment ref="B103" authorId="0" shapeId="0" xr:uid="{3EE560F3-9670-41B7-AC8A-A7BB32080697}">
       <text>
         <r>
           <rPr>
@@ -393,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B118" authorId="0" shapeId="0" xr:uid="{9CE0F0BB-C1A5-410F-A263-29BA2E749551}">
+    <comment ref="B119" authorId="0" shapeId="0" xr:uid="{9CE0F0BB-C1A5-410F-A263-29BA2E749551}">
       <text>
         <r>
           <rPr>
@@ -419,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B156" authorId="0" shapeId="0" xr:uid="{861BD63E-72BF-4B60-8F90-48901E99E034}">
+    <comment ref="B157" authorId="0" shapeId="0" xr:uid="{861BD63E-72BF-4B60-8F90-48901E99E034}">
       <text>
         <r>
           <rPr>
@@ -451,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B162" authorId="0" shapeId="0" xr:uid="{617906AA-1FA7-44E4-9807-6418EF627CD2}">
+    <comment ref="B163" authorId="0" shapeId="0" xr:uid="{617906AA-1FA7-44E4-9807-6418EF627CD2}">
       <text>
         <r>
           <rPr>
@@ -475,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B165" authorId="0" shapeId="0" xr:uid="{48E077FE-07EE-439A-A1DB-C607AAB6AB9A}">
+    <comment ref="B166" authorId="0" shapeId="0" xr:uid="{48E077FE-07EE-439A-A1DB-C607AAB6AB9A}">
       <text>
         <r>
           <rPr>
@@ -499,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B169" authorId="0" shapeId="0" xr:uid="{71337D61-A225-45EB-ABBC-CC0BB81DDD8F}">
+    <comment ref="B170" authorId="0" shapeId="0" xr:uid="{71337D61-A225-45EB-ABBC-CC0BB81DDD8F}">
       <text>
         <r>
           <rPr>
@@ -523,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B170" authorId="0" shapeId="0" xr:uid="{0DA79498-1FEB-4F02-8757-BFA154333224}">
+    <comment ref="B171" authorId="0" shapeId="0" xr:uid="{0DA79498-1FEB-4F02-8757-BFA154333224}">
       <text>
         <r>
           <rPr>
@@ -548,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B174" authorId="0" shapeId="0" xr:uid="{2F247AF0-AF98-4C13-9E14-48814449B92D}">
+    <comment ref="B175" authorId="0" shapeId="0" xr:uid="{2F247AF0-AF98-4C13-9E14-48814449B92D}">
       <text>
         <r>
           <rPr>
@@ -572,7 +597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B183" authorId="0" shapeId="0" xr:uid="{0B07F9B3-96E6-4CDB-BAE2-EC45F100717B}">
+    <comment ref="B184" authorId="0" shapeId="0" xr:uid="{0B07F9B3-96E6-4CDB-BAE2-EC45F100717B}">
       <text>
         <r>
           <rPr>
@@ -598,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B189" authorId="0" shapeId="0" xr:uid="{F351140A-479F-46FF-A19E-296731A80068}">
+    <comment ref="B190" authorId="0" shapeId="0" xr:uid="{F351140A-479F-46FF-A19E-296731A80068}">
       <text>
         <r>
           <rPr>
@@ -622,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B192" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
+    <comment ref="B193" authorId="0" shapeId="0" xr:uid="{5E1F0E98-D9F9-457A-A4FD-7E84E567F4B7}">
       <text>
         <r>
           <rPr>
@@ -647,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B194" authorId="0" shapeId="0" xr:uid="{25B125FC-428C-4981-940C-C1CF146DEA8C}">
+    <comment ref="B195" authorId="0" shapeId="0" xr:uid="{25B125FC-428C-4981-940C-C1CF146DEA8C}">
       <text>
         <r>
           <rPr>
@@ -672,7 +697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B196" authorId="0" shapeId="0" xr:uid="{801B4DBE-EB50-4478-BC81-850427BBA5EA}">
+    <comment ref="B197" authorId="0" shapeId="0" xr:uid="{801B4DBE-EB50-4478-BC81-850427BBA5EA}">
       <text>
         <r>
           <rPr>
@@ -696,7 +721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B200" authorId="0" shapeId="0" xr:uid="{F9BA9DB8-A53C-4151-9774-9F2D2A981FE9}">
+    <comment ref="B201" authorId="0" shapeId="0" xr:uid="{F9BA9DB8-A53C-4151-9774-9F2D2A981FE9}">
       <text>
         <r>
           <rPr>
@@ -721,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B207" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
+    <comment ref="B208" authorId="0" shapeId="0" xr:uid="{118AA131-0600-4CC8-A0E6-85839F5D0F5E}">
       <text>
         <r>
           <rPr>
@@ -745,7 +770,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B217" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
+    <comment ref="B218" authorId="0" shapeId="0" xr:uid="{BFCC6AF8-78F6-4350-BF7A-D5BAB45E7705}">
       <text>
         <r>
           <rPr>
@@ -770,7 +795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B219" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
+    <comment ref="B220" authorId="0" shapeId="0" xr:uid="{6C9CCFE4-3D38-4E2B-8B4C-E180FBABAAF6}">
       <text>
         <r>
           <rPr>
@@ -802,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B224" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
+    <comment ref="B225" authorId="0" shapeId="0" xr:uid="{C68A2387-5A37-4834-B566-9001CB4CED5A}">
       <text>
         <r>
           <rPr>
@@ -826,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B245" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
+    <comment ref="B246" authorId="0" shapeId="0" xr:uid="{8F806839-E8C2-402A-A57F-28FFD2DA0608}">
       <text>
         <r>
           <rPr>
@@ -1991,7 +2016,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3890" uniqueCount="1665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3893" uniqueCount="1667">
   <si>
     <t>#</t>
   </si>
@@ -21779,12 +21804,124 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>String, stack.DP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public int LongestValidParentheses(string s) {
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Step1: Only store "invalid" indicies, cancel all valid parentheses
+	//Step2: From back of string and stack's top.. find the length of valid parentheses string... is it distance between 2 indicies. Return the max length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	Stack&lt;int&gt; stack = new Stack&lt;int&gt;();
+	int longest = 0, i = 0, groupMax = 0;        
+	while(i &lt; s.Length)
+	{
+		if(s[i] == '(') stack.Push(i);
+		else //')'
+		{
+			if(stack.Any() &amp;&amp; s[stack.Peek()] == '(') //if paired cancel it
+				stack.Pop();
+			else
+				stack.Push(i);
+		}
+		i ++;
+	}
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Now we have stack with all "invalid" indicies ONLY
+	//if no item is there.. then whole string is valid.
+	//else, strings between indicies are valid paranthesis.. find their len and return the maximum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+	if(!stack.Any())
+		return s.Length;
+	else
+	{
+		int validGroupLength = 0;
+		int r = s.Length - 1;
+		while (stack.Any())
+		{
+			if (r - stack.Peek() &gt; 0)
+			{
+				validGroupLength = r - stack.Peek();
+				longest = Math.Max(longest, validGroupLength);
+			}
+			r = stack.Peek() - 1;
+			stack.Pop();
+		}
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//didnt reach start of string... i.e a valid group is exisit between r and 0
+		</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if (r != 0)
+		{
+			validGroupLength = r + 1;
+			longest = Math.Max(longest, validGroupLength);
+		}
+	}
+	return longest;
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="83">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -22374,6 +22511,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -22731,7 +22876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -23161,6 +23306,15 @@
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -23170,13 +23324,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="17" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23184,7 +23335,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="224">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -24684,6 +24835,70 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="7"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="5"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor theme="7"/>
           <bgColor theme="7"/>
         </patternFill>
@@ -24922,8 +25137,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="215"/>
-      <tableStyleElement type="headerRow" dxfId="214"/>
+      <tableStyleElement type="wholeTable" dxfId="223"/>
+      <tableStyleElement type="headerRow" dxfId="222"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -24943,13 +25158,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3848100</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>195389</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>31967</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24993,13 +25208,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -40254,10 +40469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -40890,7 +41105,7 @@
       <c r="A32" s="95">
         <v>20</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="185" t="s">
         <v>224</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -40907,71 +41122,72 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="95">
-        <v>22</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>262</v>
-      </c>
+      <c r="A33" s="54">
+        <v>32</v>
+      </c>
+      <c r="B33" s="209" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="55"/>
       <c r="D33" s="32" t="s">
-        <v>1313</v>
+        <v>1665</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" s="34" t="s">
         <v>1316</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>1363</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="96">
-        <v>31</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>156</v>
+      <c r="A34" s="95">
+        <v>22</v>
+      </c>
+      <c r="B34" s="210" t="s">
+        <v>262</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>126</v>
+        <v>1313</v>
       </c>
       <c r="E34" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>1005</v>
+        <v>1316</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>1314</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="96">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" s="58" t="s">
-        <v>334</v>
+        <v>156</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>1317</v>
+        <v>126</v>
       </c>
       <c r="E35" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>1316</v>
+        <v>1005</v>
       </c>
       <c r="G35" s="81" t="s">
-        <v>1359</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="96">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="58" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="D36" s="32" t="s">
         <v>1317</v>
@@ -40980,81 +41196,81 @@
         <v>7</v>
       </c>
       <c r="F36" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G36" s="81" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="96">
+        <v>34</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G36" s="81" t="s">
+      <c r="G37" s="81" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="95">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="95">
         <v>35</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B38" s="61" t="s">
         <v>1049</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D38" s="32" t="s">
         <v>1318</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G37" s="81" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="96">
-        <v>38</v>
-      </c>
-      <c r="B38" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="E38" s="34" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>1216</v>
+        <v>1005</v>
       </c>
       <c r="G38" s="81" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="96">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="58" t="s">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>1240</v>
+        <v>138</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="96">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="58" t="s">
-        <v>479</v>
+        <v>359</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>1324</v>
+        <v>1240</v>
       </c>
       <c r="E40" s="34" t="s">
         <v>7</v>
@@ -41063,310 +41279,310 @@
         <v>1316</v>
       </c>
       <c r="G40" s="81" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="96">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B41" s="58" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>126</v>
+        <v>1324</v>
       </c>
       <c r="E41" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G41" s="81" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="96">
+        <v>48</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G41" s="81" t="s">
+      <c r="G42" s="81" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="97">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="97">
         <v>45</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B43" s="61" t="s">
         <v>817</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D43" s="32" t="s">
         <v>1326</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1">
-      <c r="A43" s="96">
-        <v>41</v>
-      </c>
-      <c r="B43" s="206" t="s">
-        <v>443</v>
-      </c>
-      <c r="D43" s="165" t="s">
-        <v>1581</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G43" s="81" t="s">
-        <v>1605</v>
-      </c>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="96">
+        <v>41</v>
+      </c>
+      <c r="B44" s="203" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" s="165" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G44" s="81" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="96">
         <v>49</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B45" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D45" s="32" t="s">
         <v>1229</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G44" s="81" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="98">
-        <v>54</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>126</v>
       </c>
       <c r="E45" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="34" t="s">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="G45" s="81" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46" s="98">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F46" s="34" t="s">
-        <v>1214</v>
+        <v>1316</v>
       </c>
       <c r="G46" s="81" t="s">
-        <v>1463</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47" s="98">
+        <v>53</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G47" s="81" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
+      <c r="A48" s="98">
         <v>1749</v>
       </c>
-      <c r="B47" s="61" t="s">
+      <c r="B48" s="61" t="s">
         <v>1464</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="117" t="s">
+      <c r="C48" s="55"/>
+      <c r="D48" s="117" t="s">
         <v>126</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G47" s="81" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="97">
-        <v>55</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="D48" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="34" t="s">
-        <v>1216</v>
+        <v>1316</v>
       </c>
       <c r="G48" s="81" t="s">
-        <v>1329</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
-      <c r="A49" s="99">
-        <v>57</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>231</v>
+      <c r="A49" s="97">
+        <v>55</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>460</v>
       </c>
       <c r="D49" s="32" t="s">
-        <v>1330</v>
+        <v>217</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G49" s="81" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
+      <c r="A50" s="99">
+        <v>57</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G49" s="81" t="s">
+      <c r="G50" s="81" t="s">
         <v>1332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
-      <c r="A50" s="98">
-        <v>58</v>
-      </c>
-      <c r="B50" s="61" t="s">
-        <v>986</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="98">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>819</v>
+        <v>986</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G51" s="81" t="s">
-        <v>1335</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="98">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>434</v>
+        <v>819</v>
       </c>
       <c r="D52" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E52" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G52" s="81" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="A53" s="98">
+        <v>66</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F53" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G52" s="81" t="s">
+      <c r="G53" s="81" t="s">
         <v>1336</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1">
-      <c r="A53" s="99">
+    <row r="54" spans="1:7" ht="15" customHeight="1">
+      <c r="A54" s="99">
         <v>68</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B54" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D54" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E54" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="81" t="s">
+      <c r="F54" s="34"/>
+      <c r="G54" s="81" t="s">
         <v>1337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1">
-      <c r="A54" s="96">
-        <v>71</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G54" s="81" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55" s="96">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="D55" s="32" t="s">
-        <v>126</v>
+        <v>1239</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>1216</v>
+        <v>1316</v>
       </c>
       <c r="G55" s="81" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1">
       <c r="A56" s="96">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D56" s="32" t="s">
-        <v>1317</v>
+        <v>126</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>7</v>
@@ -41375,135 +41591,135 @@
         <v>1216</v>
       </c>
       <c r="G56" s="81" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1">
       <c r="A57" s="96">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B57" s="58" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>1341</v>
+        <v>1317</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>1291</v>
+        <v>1216</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1">
       <c r="A58" s="96">
+        <v>75</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G58" s="81" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="A59" s="96">
         <v>76</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B59" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D59" s="32" t="s">
         <v>1230</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E59" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F59" s="34" t="s">
         <v>1005</v>
       </c>
-      <c r="G58" s="84" t="s">
+      <c r="G59" s="84" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" customHeight="1">
-      <c r="A59" s="95">
+    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="A60" s="95">
         <v>81</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B60" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D60" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E60" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F60" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G59" s="81" t="s">
+      <c r="G60" s="81" t="s">
         <v>1370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="15" customHeight="1">
-      <c r="A60" s="92">
-        <v>85</v>
-      </c>
-      <c r="B60" s="61" t="s">
-        <v>780</v>
-      </c>
-      <c r="D60" s="32" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="34" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G60" s="81" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15" customHeight="1">
       <c r="A61" s="92">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>431</v>
+        <v>780</v>
       </c>
       <c r="D61" s="32" t="s">
-        <v>1240</v>
+        <v>1343</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>1291</v>
       </c>
       <c r="G61" s="81" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15" customHeight="1">
       <c r="A62" s="92">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>715</v>
+        <v>431</v>
       </c>
       <c r="D62" s="32" t="s">
-        <v>126</v>
+        <v>1240</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>1214</v>
+        <v>1291</v>
       </c>
       <c r="G62" s="81" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1">
       <c r="A63" s="92">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>833</v>
+        <v>715</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>126</v>
@@ -41512,139 +41728,139 @@
         <v>3</v>
       </c>
       <c r="F63" s="34" t="s">
-        <v>1291</v>
+        <v>1214</v>
       </c>
       <c r="G63" s="81" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="92">
+        <v>119</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>833</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G64" s="81" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="92">
         <v>128</v>
       </c>
-      <c r="B64" s="61" t="s">
+      <c r="B65" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D65" s="32" t="s">
         <v>1348</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E65" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F65" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G64" s="81" t="s">
+      <c r="G65" s="81" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-    </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
-      <c r="A66" s="92">
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1">
+      <c r="A67" s="92">
         <v>125</v>
       </c>
-      <c r="B66" s="61" t="s">
+      <c r="B67" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D67" s="32" t="s">
         <v>1352</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E67" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="34" t="s">
+      <c r="F67" s="34" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1">
-      <c r="A67" s="32">
+    <row r="68" spans="1:7" ht="15" customHeight="1">
+      <c r="A68" s="32">
         <v>680</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B68" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D68" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E68" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F68" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G67" s="81" t="s">
+      <c r="G68" s="81" t="s">
         <v>1354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" customHeight="1">
-      <c r="A69" s="92">
-        <v>134</v>
-      </c>
-      <c r="B69" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>1355</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G69" s="81" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
       <c r="A70" s="92">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" s="61" t="s">
-        <v>1059</v>
+        <v>319</v>
       </c>
       <c r="D70" s="32" t="s">
-        <v>1326</v>
+        <v>1355</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="34" t="s">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="G70" s="81" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="A71" s="92">
+        <v>135</v>
+      </c>
+      <c r="B71" s="61" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D71" s="32" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E71" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G71" s="81" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" customHeight="1">
+      <c r="A72" s="92">
         <v>151</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B72" s="61" t="s">
         <v>137</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G71" s="81" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" customHeight="1">
-      <c r="A72" s="30">
-        <v>153</v>
-      </c>
-      <c r="B72" s="61" t="s">
-        <v>410</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>126</v>
@@ -41653,24 +41869,24 @@
         <v>7</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="G72" s="81" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
-      <c r="A73" s="32">
-        <v>154</v>
-      </c>
-      <c r="B73" s="58" t="s">
-        <v>503</v>
+      <c r="A73" s="30">
+        <v>153</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>410</v>
       </c>
       <c r="D73" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F73" s="34" t="s">
         <v>1316</v>
@@ -41680,180 +41896,180 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
-      <c r="A74" s="30">
-        <v>157</v>
-      </c>
-      <c r="B74" s="61" t="s">
-        <v>241</v>
+      <c r="A74" s="32">
+        <v>154</v>
+      </c>
+      <c r="B74" s="58" t="s">
+        <v>503</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F74" s="34" t="s">
         <v>1316</v>
       </c>
       <c r="G74" s="81" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
-      <c r="A75" s="100">
-        <v>158</v>
+      <c r="A75" s="30">
+        <v>157</v>
       </c>
       <c r="B75" s="61" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D75" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
+      <c r="E75" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G75" s="81" t="s">
+        <v>1371</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
-      <c r="A76" s="30">
-        <v>159</v>
+      <c r="A76" s="100">
+        <v>158</v>
       </c>
       <c r="B76" s="61" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="D76" s="32" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G76" s="81" t="s">
-        <v>1373</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="30">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="D77" s="32" t="s">
-        <v>138</v>
+        <v>1372</v>
       </c>
       <c r="E77" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G77" s="90" t="s">
-        <v>1374</v>
+        <v>1216</v>
+      </c>
+      <c r="G77" s="81" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1">
       <c r="A78" s="30">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B78" s="61" t="s">
-        <v>560</v>
+        <v>312</v>
       </c>
       <c r="D78" s="32" t="s">
-        <v>1377</v>
+        <v>138</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F78" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G78" s="81" t="s">
-        <v>1375</v>
+        <v>1291</v>
+      </c>
+      <c r="G78" s="90" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1">
       <c r="A79" s="30">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>761</v>
+        <v>560</v>
       </c>
       <c r="D79" s="32" t="s">
-        <v>138</v>
+        <v>1377</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F79" s="34" t="s">
         <v>1316</v>
       </c>
       <c r="G79" s="81" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" customHeight="1">
+      <c r="A80" s="30">
+        <v>165</v>
+      </c>
+      <c r="B80" s="61" t="s">
+        <v>761</v>
+      </c>
+      <c r="D80" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G80" s="81" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15" customHeight="1">
-      <c r="A80" s="92">
+    <row r="81" spans="1:7" ht="15" customHeight="1">
+      <c r="A81" s="92">
         <v>167</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="B81" s="61" t="s">
         <v>1017</v>
       </c>
-      <c r="D80" s="32" t="s">
+      <c r="D81" s="32" t="s">
         <v>1317</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E81" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="34" t="s">
+      <c r="F81" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G80" s="81" t="s">
+      <c r="G81" s="81" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" customHeight="1">
-      <c r="A81" s="101">
+    <row r="82" spans="1:7" ht="15" customHeight="1">
+      <c r="A82" s="101">
         <v>168</v>
       </c>
-      <c r="B81" s="61" t="s">
+      <c r="B82" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="D81" s="32" t="s">
+      <c r="D82" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-    </row>
-    <row r="82" spans="1:7" ht="15" customHeight="1">
-      <c r="A82" s="92">
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" customHeight="1">
+      <c r="A83" s="92">
         <v>189</v>
       </c>
-      <c r="B82" s="61" t="s">
+      <c r="B83" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="D82" s="32" t="s">
+      <c r="D83" s="32" t="s">
         <v>126</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G82" s="81" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" customHeight="1">
-      <c r="A83" s="30">
-        <v>208</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>138</v>
       </c>
       <c r="E83" s="34" t="s">
         <v>7</v>
@@ -41862,316 +42078,316 @@
         <v>1214</v>
       </c>
       <c r="G83" s="81" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1">
       <c r="A84" s="30">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>1385</v>
+        <v>138</v>
       </c>
       <c r="E84" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="34" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G84" s="81" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1">
       <c r="A85" s="30">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B85" s="61" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="E85" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="34" t="s">
-        <v>1316</v>
+        <v>1216</v>
       </c>
       <c r="G85" s="81" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1">
       <c r="A86" s="30">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B86" s="61" t="s">
-        <v>714</v>
+        <v>197</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>126</v>
+        <v>1393</v>
       </c>
       <c r="E86" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="34" t="s">
-        <v>1216</v>
+        <v>1316</v>
       </c>
       <c r="G86" s="81" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" customHeight="1">
-      <c r="A87" s="92">
-        <v>217</v>
+      <c r="A87" s="30">
+        <v>216</v>
       </c>
       <c r="B87" s="61" t="s">
-        <v>1054</v>
+        <v>714</v>
       </c>
       <c r="D87" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E87" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G87" s="81" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" customHeight="1">
+      <c r="A88" s="92">
+        <v>217</v>
+      </c>
+      <c r="B88" s="61" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D88" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F87" s="34" t="s">
+      <c r="F88" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G87" s="81" t="s">
+      <c r="G88" s="81" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" customHeight="1">
-      <c r="A88" s="103">
+    <row r="89" spans="1:7" ht="15" customHeight="1">
+      <c r="A89" s="103">
         <v>218</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="B89" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D89" s="32" t="s">
         <v>1239</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E89" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F88" s="34"/>
-    </row>
-    <row r="90" spans="1:7" ht="15" customHeight="1">
-      <c r="A90" s="30">
+      <c r="F89" s="34"/>
+    </row>
+    <row r="91" spans="1:7" ht="15" customHeight="1">
+      <c r="A91" s="30">
         <v>227</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B91" s="61" t="s">
         <v>291</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G90" s="81" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" customHeight="1">
-      <c r="A91" s="32">
-        <v>228</v>
-      </c>
-      <c r="B91" s="58" t="s">
-        <v>545</v>
       </c>
       <c r="D91" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F91" s="34" t="s">
         <v>1316</v>
       </c>
       <c r="G91" s="81" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1">
+      <c r="A92" s="32">
+        <v>228</v>
+      </c>
+      <c r="B92" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="D92" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G92" s="81" t="s">
         <v>1419</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1">
-      <c r="A92" s="92">
-        <v>238</v>
-      </c>
-      <c r="B92" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="D92" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="34" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G92" s="81" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1">
       <c r="A93" s="92">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B93" s="61" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D93" s="32" t="s">
-        <v>126</v>
+        <v>456</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F93" s="34" t="s">
         <v>1216</v>
       </c>
       <c r="G93" s="81" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1">
       <c r="A94" s="92">
+        <v>239</v>
+      </c>
+      <c r="B94" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G94" s="81" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" customHeight="1">
+      <c r="A95" s="92">
         <v>240</v>
       </c>
-      <c r="B94" s="61" t="s">
+      <c r="B95" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="D94" s="32" t="s">
+      <c r="D95" s="32" t="s">
         <v>1241</v>
       </c>
-      <c r="E94" s="34" t="s">
+      <c r="E95" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F95" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G94" s="81" t="s">
+      <c r="G95" s="81" t="s">
         <v>1551</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="15" customHeight="1">
-      <c r="A95" s="30">
+    <row r="96" spans="1:7" ht="15" customHeight="1">
+      <c r="A96" s="30">
         <v>242</v>
       </c>
-      <c r="B95" s="61" t="s">
+      <c r="B96" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="D95" s="32" t="s">
+      <c r="D96" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E96" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F95" s="34" t="s">
+      <c r="F96" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G95" s="81" t="s">
+      <c r="G96" s="81" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="F96" s="34"/>
-    </row>
-    <row r="97" spans="1:7" ht="15" customHeight="1">
-      <c r="A97" s="177">
+    <row r="97" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="F97" s="34"/>
+    </row>
+    <row r="98" spans="1:7" ht="15" customHeight="1">
+      <c r="A98" s="177">
         <v>243</v>
       </c>
-      <c r="B97" s="178" t="s">
+      <c r="B98" s="178" t="s">
         <v>831</v>
       </c>
-      <c r="D97" s="32" t="s">
+      <c r="D98" s="32" t="s">
         <v>1610</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E98" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="34" t="s">
+      <c r="F98" s="34" t="s">
         <v>1214</v>
-      </c>
-      <c r="G97" s="81" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15" customHeight="1">
-      <c r="A98" s="179">
-        <v>245</v>
-      </c>
-      <c r="B98" s="181" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D98" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" s="34" t="s">
-        <v>1316</v>
       </c>
       <c r="G98" s="81" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A99" s="180">
-        <v>244</v>
-      </c>
-      <c r="B99" s="182" t="s">
-        <v>1622</v>
+    <row r="99" spans="1:7" ht="15" customHeight="1">
+      <c r="A99" s="179">
+        <v>245</v>
+      </c>
+      <c r="B99" s="181" t="s">
+        <v>1618</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>1623</v>
+        <v>126</v>
       </c>
       <c r="E99" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F99" s="34" t="s">
-        <v>1214</v>
+        <v>1316</v>
       </c>
       <c r="G99" s="81" t="s">
-        <v>1624</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" customHeight="1">
-      <c r="A100" s="116">
-        <v>266</v>
-      </c>
-      <c r="B100" s="176" t="s">
-        <v>387</v>
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A100" s="180">
+        <v>244</v>
+      </c>
+      <c r="B100" s="182" t="s">
+        <v>1622</v>
       </c>
       <c r="D100" s="32" t="s">
-        <v>1242</v>
+        <v>1623</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F100" s="34" t="s">
         <v>1214</v>
       </c>
       <c r="G100" s="81" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1">
-      <c r="A101" s="102">
-        <v>268</v>
-      </c>
-      <c r="B101" s="61" t="s">
-        <v>466</v>
+      <c r="A101" s="116">
+        <v>266</v>
+      </c>
+      <c r="B101" s="176" t="s">
+        <v>387</v>
       </c>
       <c r="D101" s="32" t="s">
-        <v>126</v>
+        <v>1242</v>
       </c>
       <c r="E101" s="34" t="s">
         <v>3</v>
@@ -42180,38 +42396,38 @@
         <v>1214</v>
       </c>
       <c r="G101" s="81" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15" customHeight="1">
+      <c r="A102" s="102">
+        <v>268</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G102" s="81" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15" customHeight="1">
-      <c r="A102" s="101">
+    <row r="103" spans="1:7" ht="15" customHeight="1">
+      <c r="A103" s="101">
         <v>271</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B103" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D103" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F102" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G102" s="81" t="s">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="15" customHeight="1">
-      <c r="A103" s="116">
-        <v>277</v>
-      </c>
-      <c r="B103" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="E103" s="34" t="s">
         <v>7</v>
@@ -42220,413 +42436,420 @@
         <v>1316</v>
       </c>
       <c r="G103" s="81" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" customHeight="1">
+      <c r="A104" s="116">
+        <v>277</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D104" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G104" s="81" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15" customHeight="1">
-      <c r="A104" s="101">
-        <v>278</v>
-      </c>
-      <c r="B104" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1">
       <c r="A105" s="101">
-        <v>279</v>
-      </c>
-      <c r="B105" s="89" t="s">
-        <v>769</v>
+        <v>278</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="E105" s="34"/>
       <c r="F105" s="34"/>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1">
       <c r="A106" s="101">
-        <v>280</v>
-      </c>
-      <c r="B106" s="61" t="s">
-        <v>376</v>
-      </c>
-      <c r="D106" s="32" t="s">
-        <v>182</v>
+        <v>279</v>
+      </c>
+      <c r="B106" s="89" t="s">
+        <v>769</v>
       </c>
       <c r="E106" s="34"/>
       <c r="F106" s="34"/>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1">
       <c r="A107" s="101">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B107" s="61" t="s">
-        <v>147</v>
+        <v>376</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>1254</v>
+        <v>182</v>
       </c>
       <c r="E107" s="34"/>
       <c r="F107" s="34"/>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1">
-      <c r="A108" s="37">
+      <c r="A108" s="101">
+        <v>283</v>
+      </c>
+      <c r="B108" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D108" s="32" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E108" s="34"/>
+      <c r="F108" s="34"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" customHeight="1">
+      <c r="A109" s="37">
         <v>287</v>
       </c>
-      <c r="B108" s="207" t="s">
+      <c r="B109" s="204" t="s">
         <v>499</v>
       </c>
-      <c r="C108" s="32"/>
-      <c r="D108" s="35" t="s">
+      <c r="C109" s="32"/>
+      <c r="D109" s="35" t="s">
         <v>709</v>
       </c>
-      <c r="E108" s="34" t="s">
+      <c r="E109" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="34" t="s">
+      <c r="F109" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G108" s="81" t="s">
+      <c r="G109" s="81" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15" customHeight="1">
-      <c r="A109" s="102">
+    <row r="110" spans="1:7" ht="15" customHeight="1">
+      <c r="A110" s="102">
         <v>290</v>
       </c>
-      <c r="B109" s="61" t="s">
+      <c r="B110" s="61" t="s">
         <v>1061</v>
       </c>
-      <c r="D109" s="32" t="s">
+      <c r="D110" s="32" t="s">
         <v>182</v>
-      </c>
-      <c r="E109" s="34"/>
-      <c r="F109" s="34"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" customHeight="1">
-      <c r="A110" s="30">
-        <v>296</v>
-      </c>
-      <c r="B110" s="61" t="s">
-        <v>708</v>
       </c>
       <c r="E110" s="34"/>
       <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1">
       <c r="A111" s="30">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B111" s="61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>121</v>
+        <v>708</v>
       </c>
       <c r="E111" s="34"/>
       <c r="F111" s="34"/>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1">
       <c r="A112" s="30">
-        <v>833</v>
+        <v>295</v>
       </c>
       <c r="B112" s="61" t="s">
-        <v>740</v>
+        <v>208</v>
       </c>
       <c r="D112" s="32" t="s">
-        <v>1252</v>
+        <v>121</v>
       </c>
       <c r="E112" s="34"/>
       <c r="F112" s="34"/>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1">
       <c r="A113" s="30">
-        <v>311</v>
+        <v>833</v>
       </c>
       <c r="B113" s="61" t="s">
-        <v>366</v>
+        <v>740</v>
       </c>
       <c r="D113" s="32" t="s">
-        <v>182</v>
+        <v>1252</v>
       </c>
       <c r="E113" s="34"/>
       <c r="F113" s="34"/>
-      <c r="G113" s="81" t="s">
-        <v>1269</v>
-      </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1">
       <c r="A114" s="30">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B114" s="61" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="D114" s="32" t="s">
-        <v>1253</v>
+        <v>182</v>
       </c>
       <c r="E114" s="34"/>
       <c r="F114" s="34"/>
+      <c r="G114" s="81" t="s">
+        <v>1269</v>
+      </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1">
-      <c r="A115" s="102">
-        <v>325</v>
-      </c>
-      <c r="B115" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C115" s="79"/>
+      <c r="A115" s="30">
+        <v>316</v>
+      </c>
+      <c r="B115" s="61" t="s">
+        <v>120</v>
+      </c>
       <c r="D115" s="32" t="s">
-        <v>243</v>
+        <v>1253</v>
       </c>
       <c r="E115" s="34"/>
       <c r="F115" s="34"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1">
-      <c r="A116" s="92">
-        <v>327</v>
-      </c>
-      <c r="B116" s="61" t="s">
-        <v>1153</v>
-      </c>
+      <c r="A116" s="102">
+        <v>325</v>
+      </c>
+      <c r="B116" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C116" s="79"/>
       <c r="D116" s="32" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E116" s="34"/>
       <c r="F116" s="34"/>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1">
-      <c r="A117" s="30">
-        <v>312</v>
+      <c r="A117" s="92">
+        <v>327</v>
       </c>
       <c r="B117" s="61" t="s">
-        <v>788</v>
+        <v>1153</v>
       </c>
       <c r="D117" s="32" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="E117" s="34"/>
       <c r="F117" s="34"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1">
-      <c r="A118" s="188">
+      <c r="A118" s="30">
+        <v>312</v>
+      </c>
+      <c r="B118" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="D118" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+    </row>
+    <row r="119" spans="1:7" ht="15" customHeight="1">
+      <c r="A119" s="188">
         <v>336</v>
       </c>
-      <c r="B118" s="189" t="s">
+      <c r="B119" s="189" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="190"/>
-      <c r="D118" s="191" t="s">
+      <c r="C119" s="190"/>
+      <c r="D119" s="191" t="s">
         <v>126</v>
       </c>
-      <c r="E118" s="34" t="s">
+      <c r="E119" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F118" s="34" t="s">
+      <c r="F119" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G118" s="81" t="s">
+      <c r="G119" s="81" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" customHeight="1">
-      <c r="A119" s="92">
-        <v>340</v>
-      </c>
-      <c r="B119" s="61" t="s">
-        <v>378</v>
-      </c>
-      <c r="D119" s="32" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1">
       <c r="A120" s="92">
+        <v>340</v>
+      </c>
+      <c r="B120" s="61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" s="32" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E120" s="34"/>
+      <c r="F120" s="34"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" customHeight="1">
+      <c r="A121" s="92">
         <v>334</v>
       </c>
-      <c r="B120" s="82" t="s">
+      <c r="B121" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="D120" s="32" t="s">
+      <c r="D121" s="32" t="s">
         <v>1256</v>
       </c>
-      <c r="E120" s="34" t="s">
+      <c r="E121" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F120" s="34" t="s">
+      <c r="F121" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G120" s="81" t="s">
+      <c r="G121" s="81" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" customHeight="1">
-      <c r="A121" s="30">
-        <v>347</v>
-      </c>
-      <c r="B121" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1">
       <c r="A122" s="30">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B122" s="61" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="E122" s="34"/>
       <c r="F122" s="34"/>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1">
       <c r="A123" s="30">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B123" s="61" t="s">
-        <v>419</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>418</v>
+        <v>207</v>
       </c>
       <c r="E123" s="34"/>
       <c r="F123" s="34"/>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1">
       <c r="A124" s="30">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B124" s="61" t="s">
-        <v>488</v>
+        <v>419</v>
       </c>
       <c r="D124" s="32" t="s">
-        <v>1259</v>
+        <v>418</v>
       </c>
       <c r="E124" s="34"/>
       <c r="F124" s="34"/>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1">
       <c r="A125" s="30">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B125" s="61" t="s">
-        <v>596</v>
+        <v>488</v>
       </c>
       <c r="D125" s="32" t="s">
-        <v>418</v>
+        <v>1259</v>
       </c>
       <c r="E125" s="34"/>
       <c r="F125" s="34"/>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1">
       <c r="A126" s="30">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B126" s="61" t="s">
-        <v>832</v>
+        <v>596</v>
       </c>
       <c r="D126" s="32" t="s">
-        <v>1263</v>
+        <v>418</v>
       </c>
       <c r="E126" s="34"/>
       <c r="F126" s="34"/>
-      <c r="G126" s="32" t="s">
-        <v>1264</v>
-      </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1">
       <c r="A127" s="30">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B127" s="61" t="s">
-        <v>417</v>
+        <v>832</v>
+      </c>
+      <c r="D127" s="32" t="s">
+        <v>1263</v>
       </c>
       <c r="E127" s="34"/>
       <c r="F127" s="34"/>
+      <c r="G127" s="32" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1">
+      <c r="A128" s="30">
+        <v>358</v>
+      </c>
       <c r="B128" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+    </row>
+    <row r="129" spans="1:8" ht="15" customHeight="1">
+      <c r="B129" s="61" t="s">
         <v>1262</v>
       </c>
-      <c r="D128" s="32" t="s">
+      <c r="D129" s="32" t="s">
         <v>1268</v>
       </c>
-      <c r="E128" s="34" t="s">
+      <c r="E129" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="34" t="s">
+      <c r="F129" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G128" s="81" t="s">
+      <c r="G129" s="81" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1">
-      <c r="A129" s="92">
+    <row r="130" spans="1:8" ht="15" customHeight="1">
+      <c r="A130" s="92">
         <v>367</v>
       </c>
-      <c r="B129" s="61" t="s">
+      <c r="B130" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="D129" s="32" t="s">
+      <c r="D130" s="32" t="s">
         <v>159</v>
-      </c>
-      <c r="E129" s="34"/>
-      <c r="F129" s="34"/>
-    </row>
-    <row r="130" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="A130" s="32">
-        <v>373</v>
-      </c>
-      <c r="B130" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="D130" s="32" t="s">
-        <v>521</v>
       </c>
       <c r="E130" s="34"/>
       <c r="F130" s="34"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="34"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1">
-      <c r="A131" s="92">
-        <v>378</v>
+    </row>
+    <row r="131" spans="1:8" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="A131" s="32">
+        <v>373</v>
       </c>
       <c r="B131" s="61" t="s">
-        <v>183</v>
+        <v>520</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>184</v>
+        <v>521</v>
       </c>
       <c r="E131" s="34"/>
       <c r="F131" s="34"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="34"/>
     </row>
     <row r="132" spans="1:8" ht="15" customHeight="1">
-      <c r="A132" s="32">
-        <v>380</v>
+      <c r="A132" s="92">
+        <v>378</v>
       </c>
       <c r="B132" s="61" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D132" s="32" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E132" s="34"/>
       <c r="F132" s="34"/>
     </row>
     <row r="133" spans="1:8" ht="15" customHeight="1">
-      <c r="A133" s="92">
-        <v>381</v>
+      <c r="A133" s="32">
+        <v>380</v>
       </c>
       <c r="B133" s="61" t="s">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="D133" s="32" t="s">
         <v>212</v>
@@ -42635,478 +42858,471 @@
       <c r="F133" s="34"/>
     </row>
     <row r="134" spans="1:8" ht="15" customHeight="1">
-      <c r="A134" s="32">
-        <v>383</v>
+      <c r="A134" s="92">
+        <v>381</v>
       </c>
       <c r="B134" s="61" t="s">
-        <v>1058</v>
+        <v>300</v>
       </c>
       <c r="D134" s="32" t="s">
-        <v>138</v>
+        <v>212</v>
       </c>
       <c r="E134" s="34"/>
       <c r="F134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="15" customHeight="1">
-      <c r="A135" s="92">
-        <v>384</v>
+      <c r="A135" s="32">
+        <v>383</v>
       </c>
       <c r="B135" s="61" t="s">
-        <v>264</v>
+        <v>1058</v>
+      </c>
+      <c r="D135" s="32" t="s">
+        <v>138</v>
       </c>
       <c r="E135" s="34"/>
       <c r="F135" s="34"/>
     </row>
     <row r="136" spans="1:8" ht="15" customHeight="1">
-      <c r="A136" s="32">
-        <v>387</v>
+      <c r="A136" s="92">
+        <v>384</v>
       </c>
       <c r="B136" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="D136" s="32" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="E136" s="34"/>
       <c r="F136" s="34"/>
     </row>
     <row r="137" spans="1:8" ht="15" customHeight="1">
-      <c r="A137" s="92">
-        <v>388</v>
+      <c r="A137" s="32">
+        <v>387</v>
       </c>
       <c r="B137" s="61" t="s">
-        <v>502</v>
+        <v>304</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>155</v>
       </c>
       <c r="E137" s="34"/>
       <c r="F137" s="34"/>
     </row>
     <row r="138" spans="1:8" ht="15" customHeight="1">
-      <c r="A138" s="32">
-        <v>389</v>
+      <c r="A138" s="92">
+        <v>388</v>
       </c>
       <c r="B138" s="61" t="s">
-        <v>815</v>
-      </c>
-      <c r="D138" s="32" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="E138" s="34"/>
       <c r="F138" s="34"/>
     </row>
     <row r="139" spans="1:8" ht="15" customHeight="1">
-      <c r="A139" s="92">
-        <v>392</v>
+      <c r="A139" s="32">
+        <v>389</v>
       </c>
       <c r="B139" s="61" t="s">
-        <v>178</v>
+        <v>815</v>
       </c>
       <c r="D139" s="32" t="s">
-        <v>1399</v>
+        <v>516</v>
       </c>
       <c r="E139" s="34"/>
       <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:8" ht="15" customHeight="1">
-      <c r="A140" s="32">
-        <v>393</v>
+      <c r="A140" s="92">
+        <v>392</v>
       </c>
       <c r="B140" s="61" t="s">
-        <v>767</v>
+        <v>178</v>
       </c>
       <c r="D140" s="32" t="s">
-        <v>230</v>
+        <v>1399</v>
       </c>
       <c r="E140" s="34"/>
       <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:8" ht="15" customHeight="1">
-      <c r="A141" s="92">
-        <v>394</v>
+      <c r="A141" s="32">
+        <v>393</v>
       </c>
       <c r="B141" s="61" t="s">
-        <v>405</v>
+        <v>767</v>
       </c>
       <c r="D141" s="32" t="s">
-        <v>1400</v>
+        <v>230</v>
       </c>
       <c r="E141" s="34"/>
       <c r="F141" s="34"/>
     </row>
     <row r="142" spans="1:8" ht="15" customHeight="1">
-      <c r="A142" s="32">
-        <v>395</v>
+      <c r="A142" s="92">
+        <v>394</v>
       </c>
       <c r="B142" s="61" t="s">
-        <v>166</v>
+        <v>405</v>
       </c>
       <c r="D142" s="32" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E142" s="34"/>
       <c r="F142" s="34"/>
     </row>
     <row r="143" spans="1:8" ht="15" customHeight="1">
-      <c r="A143" s="92">
-        <v>402</v>
+      <c r="A143" s="32">
+        <v>395</v>
       </c>
       <c r="B143" s="61" t="s">
-        <v>538</v>
+        <v>166</v>
       </c>
       <c r="D143" s="32" t="s">
-        <v>533</v>
+        <v>1401</v>
       </c>
       <c r="E143" s="34"/>
       <c r="F143" s="34"/>
     </row>
     <row r="144" spans="1:8" ht="15" customHeight="1">
-      <c r="A144" s="32">
-        <v>405</v>
+      <c r="A144" s="92">
+        <v>402</v>
       </c>
       <c r="B144" s="61" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>230</v>
+        <v>533</v>
       </c>
       <c r="E144" s="34"/>
       <c r="F144" s="34"/>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1">
-      <c r="A145" s="92">
-        <v>406</v>
+      <c r="A145" s="32">
+        <v>405</v>
       </c>
       <c r="B145" s="61" t="s">
-        <v>671</v>
+        <v>497</v>
       </c>
       <c r="D145" s="32" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="E145" s="34"/>
       <c r="F145" s="34"/>
     </row>
     <row r="146" spans="1:7" ht="15" customHeight="1">
       <c r="A146" s="92">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B146" s="61" t="s">
-        <v>306</v>
+        <v>671</v>
       </c>
       <c r="D146" s="32" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="E146" s="34"/>
       <c r="F146" s="34"/>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1">
-      <c r="A147" s="32">
-        <v>409</v>
+      <c r="A147" s="92">
+        <v>408</v>
       </c>
       <c r="B147" s="61" t="s">
-        <v>826</v>
+        <v>306</v>
       </c>
       <c r="D147" s="32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G147" s="81" t="s">
-        <v>1634</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1">
       <c r="A148" s="32">
+        <v>409</v>
+      </c>
+      <c r="B148" s="61" t="s">
+        <v>826</v>
+      </c>
+      <c r="D148" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F148" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G148" s="81" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="15" customHeight="1">
+      <c r="A149" s="32">
         <v>412</v>
       </c>
-      <c r="B148" s="61" t="s">
+      <c r="B149" s="61" t="s">
         <v>1038</v>
-      </c>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-    </row>
-    <row r="149" spans="1:7" ht="15" customHeight="1">
-      <c r="A149" s="92">
-        <v>413</v>
-      </c>
-      <c r="B149" s="61" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D149" s="32" t="s">
-        <v>1404</v>
       </c>
       <c r="E149" s="34"/>
       <c r="F149" s="34"/>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1">
-      <c r="A150" s="32">
-        <v>414</v>
+      <c r="A150" s="92">
+        <v>413</v>
       </c>
       <c r="B150" s="61" t="s">
-        <v>496</v>
+        <v>1043</v>
       </c>
       <c r="D150" s="32" t="s">
-        <v>126</v>
+        <v>1404</v>
       </c>
       <c r="E150" s="34"/>
       <c r="F150" s="34"/>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1">
-      <c r="A151" s="92">
-        <v>415</v>
+      <c r="A151" s="32">
+        <v>414</v>
       </c>
       <c r="B151" s="61" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="D151" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E151" s="34"/>
       <c r="F151" s="34"/>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1">
+      <c r="A152" s="92">
+        <v>415</v>
+      </c>
+      <c r="B152" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="D152" s="32" t="s">
+        <v>138</v>
+      </c>
       <c r="E152" s="34"/>
       <c r="F152" s="34"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1">
-      <c r="A153" s="92">
-        <v>419</v>
-      </c>
-      <c r="B153" s="61" t="s">
-        <v>409</v>
-      </c>
       <c r="E153" s="34"/>
       <c r="F153" s="34"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1">
-      <c r="A154" s="32">
-        <v>420</v>
+      <c r="A154" s="92">
+        <v>419</v>
       </c>
       <c r="B154" s="61" t="s">
-        <v>486</v>
+        <v>409</v>
       </c>
       <c r="E154" s="34"/>
       <c r="F154" s="34"/>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1">
-      <c r="A155" s="92">
-        <v>421</v>
+      <c r="A155" s="32">
+        <v>420</v>
       </c>
       <c r="B155" s="61" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D155" s="32" t="s">
-        <v>1405</v>
+        <v>486</v>
       </c>
       <c r="E155" s="34"/>
       <c r="F155" s="34"/>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1">
-      <c r="A156" s="201">
+      <c r="A156" s="92">
+        <v>421</v>
+      </c>
+      <c r="B156" s="61" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D156" s="32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E156" s="34"/>
+      <c r="F156" s="34"/>
+    </row>
+    <row r="157" spans="1:7" ht="15" customHeight="1">
+      <c r="A157" s="201">
         <v>423</v>
       </c>
-      <c r="B156" s="26" t="s">
+      <c r="B157" s="26" t="s">
         <v>1656</v>
       </c>
-      <c r="D156" s="32" t="s">
+      <c r="D157" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E157" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F157" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G156" s="81" t="s">
+      <c r="G157" s="81" t="s">
         <v>1657</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" customHeight="1">
-      <c r="A157" s="32">
+    <row r="158" spans="1:7" ht="15" customHeight="1">
+      <c r="A158" s="32">
         <v>424</v>
       </c>
-      <c r="B157" s="61" t="s">
+      <c r="B158" s="61" t="s">
         <v>658</v>
       </c>
-      <c r="D157" s="32" t="s">
+      <c r="D158" s="32" t="s">
         <v>1406</v>
-      </c>
-      <c r="E157" s="34"/>
-      <c r="F157" s="34"/>
-    </row>
-    <row r="158" spans="1:7" ht="15" customHeight="1">
-      <c r="A158" s="92">
-        <v>426</v>
-      </c>
-      <c r="B158" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="D158" s="32" t="s">
-        <v>1407</v>
       </c>
       <c r="E158" s="34"/>
       <c r="F158" s="34"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1">
-      <c r="A159" s="32">
-        <v>433</v>
+      <c r="A159" s="92">
+        <v>426</v>
       </c>
       <c r="B159" s="61" t="s">
-        <v>1014</v>
+        <v>411</v>
+      </c>
+      <c r="D159" s="32" t="s">
+        <v>1407</v>
       </c>
       <c r="E159" s="34"/>
       <c r="F159" s="34"/>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1">
-      <c r="A160" s="92">
-        <v>435</v>
+      <c r="A160" s="32">
+        <v>433</v>
       </c>
       <c r="B160" s="61" t="s">
-        <v>370</v>
-      </c>
-      <c r="D160" s="32" t="s">
-        <v>320</v>
+        <v>1014</v>
       </c>
       <c r="E160" s="34"/>
       <c r="F160" s="34"/>
     </row>
     <row r="161" spans="1:8" ht="15" customHeight="1">
+      <c r="A161" s="92">
+        <v>435</v>
+      </c>
+      <c r="B161" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E161" s="34"/>
       <c r="F161" s="34"/>
     </row>
     <row r="162" spans="1:8" ht="15" customHeight="1">
-      <c r="A162" s="92">
+      <c r="F162" s="34"/>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1">
+      <c r="A163" s="92">
         <v>442</v>
       </c>
-      <c r="B162" s="208" t="s">
+      <c r="B163" s="205" t="s">
         <v>481</v>
       </c>
-      <c r="D162" s="165" t="s">
+      <c r="D163" s="165" t="s">
         <v>1581</v>
       </c>
-      <c r="E162" s="34" t="s">
+      <c r="E163" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="34" t="s">
+      <c r="F163" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G162" s="81" t="s">
+      <c r="G163" s="81" t="s">
         <v>1580</v>
       </c>
-      <c r="H162" s="203" t="s">
+      <c r="H163" s="206" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1">
-      <c r="A163" s="32">
+    <row r="164" spans="1:8" ht="15" customHeight="1">
+      <c r="A164" s="32">
         <v>443</v>
       </c>
-      <c r="B163" s="61" t="s">
+      <c r="B164" s="61" t="s">
         <v>393</v>
-      </c>
-      <c r="D163" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E163" s="34"/>
-      <c r="F163" s="34"/>
-      <c r="H163" s="203"/>
-    </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1">
-      <c r="A164" s="92">
-        <v>446</v>
-      </c>
-      <c r="B164" s="61" t="s">
-        <v>961</v>
       </c>
       <c r="D164" s="32" t="s">
         <v>138</v>
       </c>
       <c r="E164" s="34"/>
       <c r="F164" s="34"/>
-      <c r="H164" s="203"/>
+      <c r="H164" s="206"/>
     </row>
     <row r="165" spans="1:8" ht="15" customHeight="1">
-      <c r="A165" s="32">
+      <c r="A165" s="92">
+        <v>446</v>
+      </c>
+      <c r="B165" s="61" t="s">
+        <v>961</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+      <c r="H165" s="206"/>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1">
+      <c r="A166" s="32">
         <v>448</v>
       </c>
-      <c r="B165" s="208" t="s">
+      <c r="B166" s="205" t="s">
         <v>1009</v>
       </c>
-      <c r="D165" s="165" t="s">
+      <c r="D166" s="165" t="s">
         <v>1581</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="E166" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="34" t="s">
+      <c r="F166" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G165" s="81" t="s">
+      <c r="G166" s="81" t="s">
         <v>1579</v>
       </c>
-      <c r="H165" s="203"/>
-    </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1">
-      <c r="B166" s="61"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="34"/>
-      <c r="H166" s="203"/>
+      <c r="H166" s="206"/>
     </row>
     <row r="167" spans="1:8" ht="15" customHeight="1">
-      <c r="A167" s="32">
+      <c r="B167" s="61"/>
+      <c r="E167" s="34"/>
+      <c r="F167" s="34"/>
+      <c r="H167" s="206"/>
+    </row>
+    <row r="168" spans="1:8" ht="15" customHeight="1">
+      <c r="A168" s="32">
         <v>524</v>
       </c>
-      <c r="B167" s="61" t="s">
+      <c r="B168" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="D167" s="32" t="s">
+      <c r="D168" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="E168" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F167" s="34" t="s">
+      <c r="F168" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G167" s="81" t="s">
+      <c r="G168" s="81" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B168" s="64"/>
-      <c r="E168" s="34"/>
-      <c r="F168" s="34"/>
-      <c r="G168" s="81"/>
-    </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1">
-      <c r="A169" s="32">
+    <row r="169" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="B169" s="64"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="81"/>
+    </row>
+    <row r="170" spans="1:8" ht="15" customHeight="1">
+      <c r="A170" s="32">
         <v>567</v>
       </c>
-      <c r="B169" s="193" t="s">
+      <c r="B170" s="193" t="s">
         <v>202</v>
       </c>
-      <c r="C169" s="22"/>
-      <c r="D169" s="32" t="s">
-        <v>1637</v>
-      </c>
-      <c r="E169" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G169" s="81" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1" thickBot="1">
-      <c r="A170" s="32">
-        <v>438</v>
-      </c>
-      <c r="B170" s="192" t="s">
-        <v>273</v>
-      </c>
+      <c r="C170" s="22"/>
       <c r="D170" s="32" t="s">
         <v>1637</v>
       </c>
@@ -43117,97 +43333,112 @@
         <v>1316</v>
       </c>
       <c r="G170" s="81" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A171" s="32">
+        <v>438</v>
+      </c>
+      <c r="B171" s="192" t="s">
+        <v>273</v>
+      </c>
+      <c r="D171" s="32" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G171" s="81" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1">
-      <c r="B171" s="194"/>
-      <c r="E171" s="34"/>
-      <c r="F171" s="34"/>
-      <c r="G171" s="81"/>
-    </row>
     <row r="172" spans="1:8" ht="15" customHeight="1">
-      <c r="A172" s="25">
+      <c r="B172" s="194"/>
+      <c r="E172" s="34"/>
+      <c r="F172" s="34"/>
+      <c r="G172" s="81"/>
+    </row>
+    <row r="173" spans="1:8" ht="15" customHeight="1">
+      <c r="A173" s="25">
         <v>451</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B173" s="26" t="s">
         <v>1010</v>
       </c>
-      <c r="D172" s="27" t="s">
+      <c r="D173" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E173" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F172" s="34" t="s">
+      <c r="F173" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G172" s="81" t="s">
+      <c r="G173" s="81" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1">
-      <c r="A173" s="4"/>
-      <c r="B173" s="26"/>
-      <c r="D173" s="150"/>
-      <c r="E173" s="34"/>
-      <c r="F173" s="34"/>
-      <c r="G173" s="81"/>
-    </row>
     <row r="174" spans="1:8" ht="15" customHeight="1">
-      <c r="A174" s="32">
+      <c r="A174" s="4"/>
+      <c r="B174" s="26"/>
+      <c r="D174" s="150"/>
+      <c r="E174" s="34"/>
+      <c r="F174" s="34"/>
+      <c r="G174" s="81"/>
+    </row>
+    <row r="175" spans="1:8" ht="15" customHeight="1">
+      <c r="A175" s="32">
         <v>581</v>
       </c>
-      <c r="B174" s="61" t="s">
+      <c r="B175" s="61" t="s">
         <v>837</v>
       </c>
-      <c r="C174" s="59" t="s">
+      <c r="C175" s="59" t="s">
         <v>1554</v>
       </c>
-      <c r="D174" s="32" t="s">
+      <c r="D175" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="E175" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F174" s="34" t="s">
+      <c r="F175" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G174" s="81" t="s">
+      <c r="G175" s="81" t="s">
         <v>1553</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1">
-      <c r="B175" s="61"/>
-      <c r="C175" s="59"/>
-      <c r="E175" s="34"/>
-      <c r="F175" s="34"/>
-      <c r="G175" s="81"/>
-    </row>
     <row r="176" spans="1:8" ht="15" customHeight="1">
-      <c r="A176" s="32">
+      <c r="B176" s="61"/>
+      <c r="C176" s="59"/>
+      <c r="E176" s="34"/>
+      <c r="F176" s="34"/>
+      <c r="G176" s="81"/>
+    </row>
+    <row r="177" spans="1:7" ht="15" customHeight="1">
+      <c r="A177" s="32">
         <v>594</v>
       </c>
-      <c r="B176" s="61" t="s">
+      <c r="B177" s="61" t="s">
         <v>1449</v>
       </c>
-      <c r="D176" s="32" t="s">
+      <c r="D177" s="32" t="s">
         <v>1450</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="E177" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F176" s="34" t="s">
+      <c r="F177" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G176" s="81" t="s">
+      <c r="G177" s="81" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="15" customHeight="1">
-      <c r="B177" s="61"/>
-      <c r="E177" s="34"/>
-      <c r="F177" s="34"/>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1">
       <c r="B178" s="61"/>
@@ -43220,645 +43451,644 @@
       <c r="F179" s="34"/>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1">
-      <c r="A180" s="32">
+      <c r="B180" s="61"/>
+      <c r="E180" s="34"/>
+      <c r="F180" s="34"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" customHeight="1">
+      <c r="A181" s="32">
         <v>621</v>
       </c>
-      <c r="B180" s="61" t="s">
+      <c r="B181" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="D180" s="27" t="s">
+      <c r="D181" s="27" t="s">
         <v>1480</v>
       </c>
-      <c r="E180" s="34" t="s">
+      <c r="E181" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F180" s="34" t="s">
+      <c r="F181" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G180" s="81" t="s">
+      <c r="G181" s="81" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="15" customHeight="1">
-      <c r="B181" s="61"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-    </row>
     <row r="182" spans="1:7" ht="15" customHeight="1">
-      <c r="A182" s="25">
+      <c r="B182" s="61"/>
+      <c r="E182" s="34"/>
+      <c r="F182" s="34"/>
+    </row>
+    <row r="183" spans="1:7" ht="15" customHeight="1">
+      <c r="A183" s="25">
         <v>643</v>
       </c>
-      <c r="B182" s="26" t="s">
+      <c r="B183" s="26" t="s">
         <v>1020</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C183" s="22" t="s">
         <v>1225</v>
       </c>
-      <c r="D182" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E182" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G182" s="81" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="15" customHeight="1">
-      <c r="A183" s="4">
-        <v>644</v>
-      </c>
-      <c r="B183" s="142" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C183" s="22"/>
       <c r="D183" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E183" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G183" s="81" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15" customHeight="1">
+      <c r="A184" s="4">
+        <v>644</v>
+      </c>
+      <c r="B184" s="142" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C184" s="22"/>
+      <c r="D184" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E184" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F183" s="34" t="s">
+      <c r="F184" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G183" s="81" t="s">
+      <c r="G184" s="81" t="s">
         <v>1557</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="15" customHeight="1">
-      <c r="A184" s="4"/>
-      <c r="B184" s="142"/>
-      <c r="C184" s="22"/>
-      <c r="E184" s="34"/>
-      <c r="F184" s="34"/>
-      <c r="G184" s="81"/>
-    </row>
     <row r="185" spans="1:7" ht="15" customHeight="1">
-      <c r="A185" s="25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="142"/>
+      <c r="C185" s="22"/>
+      <c r="E185" s="34"/>
+      <c r="F185" s="34"/>
+      <c r="G185" s="81"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" customHeight="1">
+      <c r="A186" s="25">
         <v>763</v>
       </c>
-      <c r="B185" s="26" t="s">
+      <c r="B186" s="26" t="s">
         <v>1012</v>
       </c>
-      <c r="D185" s="27" t="s">
+      <c r="D186" s="27" t="s">
         <v>1013</v>
       </c>
-      <c r="E185" s="34" t="s">
+      <c r="E186" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F185" s="34" t="s">
+      <c r="F186" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G185" s="81" t="s">
+      <c r="G186" s="81" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" customHeight="1">
-      <c r="A186" s="4"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="150"/>
-      <c r="D186" s="151"/>
-      <c r="E186" s="34"/>
-      <c r="F186" s="34"/>
-    </row>
     <row r="187" spans="1:7" ht="15" customHeight="1">
-      <c r="A187" s="32">
+      <c r="A187" s="4"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="150"/>
+      <c r="D187" s="151"/>
+      <c r="E187" s="34"/>
+      <c r="F187" s="34"/>
+    </row>
+    <row r="188" spans="1:7" ht="15" customHeight="1">
+      <c r="A188" s="32">
         <v>750</v>
       </c>
-      <c r="B187" s="61" t="s">
+      <c r="B188" s="61" t="s">
         <v>1425</v>
       </c>
-      <c r="C187" s="54" t="s">
+      <c r="C188" s="54" t="s">
         <v>1217</v>
       </c>
-      <c r="D187" s="32" t="s">
+      <c r="D188" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E187" s="34" t="s">
+      <c r="E188" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F187" s="34" t="s">
+      <c r="F188" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G187" s="81" t="s">
+      <c r="G188" s="81" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="15" customHeight="1">
-      <c r="B188" s="61"/>
-      <c r="E188" s="34"/>
-      <c r="F188" s="34"/>
-      <c r="G188" s="81"/>
-    </row>
     <row r="189" spans="1:7" ht="15" customHeight="1">
-      <c r="A189" s="152">
+      <c r="B189" s="61"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="81"/>
+    </row>
+    <row r="190" spans="1:7" ht="15" customHeight="1">
+      <c r="A190" s="152">
         <v>820</v>
       </c>
-      <c r="B189" s="61" t="s">
+      <c r="B190" s="61" t="s">
         <v>1574</v>
       </c>
-      <c r="D189" s="32" t="s">
+      <c r="D190" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E189" s="34" t="s">
+      <c r="E190" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F189" s="34" t="s">
+      <c r="F190" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G189" s="81" t="s">
+      <c r="G190" s="81" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" customHeight="1">
-      <c r="A190" s="152"/>
-      <c r="B190" s="64"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="34"/>
-      <c r="G190" s="81"/>
-    </row>
     <row r="191" spans="1:7" ht="15" customHeight="1">
-      <c r="A191" s="54">
+      <c r="A191" s="152"/>
+      <c r="B191" s="64"/>
+      <c r="E191" s="34"/>
+      <c r="F191" s="34"/>
+      <c r="G191" s="81"/>
+    </row>
+    <row r="192" spans="1:7" ht="15" customHeight="1">
+      <c r="A192" s="54">
         <v>856</v>
       </c>
-      <c r="B191" s="142" t="s">
+      <c r="B192" s="142" t="s">
         <v>867</v>
       </c>
-      <c r="C191" s="54" t="s">
+      <c r="C192" s="54" t="s">
         <v>1554</v>
       </c>
-      <c r="D191" s="32" t="s">
+      <c r="D192" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E191" s="34" t="s">
+      <c r="E192" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F191" s="34" t="s">
+      <c r="F192" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G191" s="81" t="s">
+      <c r="G192" s="81" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="15" customHeight="1">
-      <c r="A192" s="92">
+    <row r="193" spans="1:7" ht="15" customHeight="1">
+      <c r="A193" s="92">
         <v>857</v>
       </c>
-      <c r="B192" s="118" t="s">
+      <c r="B193" s="118" t="s">
         <v>790</v>
       </c>
-      <c r="D192" s="32" t="s">
+      <c r="D193" s="32" t="s">
         <v>1391</v>
       </c>
-      <c r="E192" s="34"/>
-      <c r="F192" s="34"/>
-      <c r="G192" s="81" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="15" customHeight="1">
-      <c r="A193" s="199"/>
-      <c r="B193" s="200"/>
       <c r="E193" s="34"/>
       <c r="F193" s="34"/>
-      <c r="G193" s="81"/>
+      <c r="G193" s="81" t="s">
+        <v>1392</v>
+      </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1">
-      <c r="A194">
+      <c r="A194" s="199"/>
+      <c r="B194" s="200"/>
+      <c r="E194" s="34"/>
+      <c r="F194" s="34"/>
+      <c r="G194" s="81"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" customHeight="1">
+      <c r="A195">
         <v>870</v>
       </c>
-      <c r="B194" s="9" t="s">
+      <c r="B195" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C195" s="22" t="s">
         <v>1217</v>
       </c>
-      <c r="D194" s="16" t="s">
+      <c r="D195" s="16" t="s">
         <v>1653</v>
       </c>
-      <c r="E194" s="34" t="s">
+      <c r="E195" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F194" s="34" t="s">
+      <c r="F195" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G194" s="81" t="s">
+      <c r="G195" s="81" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="15" customHeight="1">
-      <c r="A195"/>
-      <c r="B195" s="198"/>
-      <c r="C195" s="22"/>
-      <c r="D195" s="16"/>
-      <c r="E195" s="16"/>
-      <c r="F195" s="34"/>
-    </row>
     <row r="196" spans="1:7" ht="15" customHeight="1">
-      <c r="A196" s="32">
+      <c r="A196"/>
+      <c r="B196" s="198"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="34"/>
+    </row>
+    <row r="197" spans="1:7" ht="15" customHeight="1">
+      <c r="A197" s="32">
         <v>1024</v>
       </c>
-      <c r="B196" s="148" t="s">
+      <c r="B197" s="148" t="s">
         <v>1567</v>
       </c>
-      <c r="C196" s="54" t="s">
+      <c r="C197" s="54" t="s">
         <v>1554</v>
       </c>
-      <c r="D196" s="32" t="s">
+      <c r="D197" s="32" t="s">
         <v>1568</v>
       </c>
-      <c r="E196" s="34" t="s">
+      <c r="E197" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F196" s="34" t="s">
+      <c r="F197" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G196" s="149" t="s">
+      <c r="G197" s="149" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="15" customHeight="1">
-      <c r="B197" s="148"/>
-      <c r="E197" s="34"/>
-      <c r="F197" s="34"/>
-      <c r="G197" s="81"/>
-    </row>
     <row r="198" spans="1:7" ht="15" customHeight="1">
-      <c r="A198" s="25">
+      <c r="B198" s="148"/>
+      <c r="E198" s="34"/>
+      <c r="F198" s="34"/>
+      <c r="G198" s="81"/>
+    </row>
+    <row r="199" spans="1:7" ht="15" customHeight="1">
+      <c r="A199" s="25">
         <v>916</v>
       </c>
-      <c r="B198" s="26" t="s">
+      <c r="B199" s="26" t="s">
         <v>1147</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C199" s="22" t="s">
         <v>1225</v>
       </c>
-      <c r="D198" s="32" t="s">
+      <c r="D199" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E198" s="34" t="s">
+      <c r="E199" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F198" s="34" t="s">
+      <c r="F199" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G198" s="81" t="s">
+      <c r="G199" s="81" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15" customHeight="1">
-      <c r="A199" s="4"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="22"/>
-      <c r="E199" s="34"/>
-      <c r="F199" s="34"/>
-      <c r="G199" s="81"/>
-    </row>
     <row r="200" spans="1:7" ht="15" customHeight="1">
-      <c r="A200">
+      <c r="A200" s="4"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="22"/>
+      <c r="E200" s="34"/>
+      <c r="F200" s="34"/>
+      <c r="G200" s="81"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" customHeight="1">
+      <c r="A201">
         <v>936</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B201" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C201" s="22" t="s">
         <v>1217</v>
       </c>
-      <c r="D200" s="32" t="s">
+      <c r="D201" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E200" s="34" t="s">
+      <c r="E201" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="34" t="s">
+      <c r="F201" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G200" s="81" t="s">
+      <c r="G201" s="81" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="15" customHeight="1">
-      <c r="A201"/>
-      <c r="B201" s="198"/>
-      <c r="C201" s="22"/>
-      <c r="E201" s="34"/>
-      <c r="F201" s="34"/>
-    </row>
     <row r="202" spans="1:7" ht="15" customHeight="1">
-      <c r="A202" s="25">
+      <c r="A202"/>
+      <c r="B202" s="198"/>
+      <c r="C202" s="22"/>
+      <c r="E202" s="34"/>
+      <c r="F202" s="34"/>
+    </row>
+    <row r="203" spans="1:7" ht="15" customHeight="1">
+      <c r="A203" s="25">
         <v>946</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="B203" s="26" t="s">
         <v>896</v>
       </c>
-      <c r="C202" s="22"/>
-      <c r="D202" s="32" t="s">
+      <c r="C203" s="22"/>
+      <c r="D203" s="32" t="s">
         <v>1558</v>
       </c>
-      <c r="E202" s="34" t="s">
+      <c r="E203" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F202" s="34" t="s">
+      <c r="F203" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G202" s="81" t="s">
+      <c r="G203" s="81" t="s">
         <v>1559</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="15" customHeight="1">
-      <c r="A203" s="4"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="22"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-    </row>
     <row r="204" spans="1:7" ht="15" customHeight="1">
-      <c r="A204" s="32">
+      <c r="A204" s="4"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="22"/>
+      <c r="E204" s="34"/>
+      <c r="F204" s="34"/>
+    </row>
+    <row r="205" spans="1:7" ht="15" customHeight="1">
+      <c r="A205" s="32">
         <v>1249</v>
       </c>
-      <c r="B204" s="61" t="s">
+      <c r="B205" s="61" t="s">
         <v>606</v>
       </c>
-      <c r="C204" s="27" t="s">
+      <c r="C205" s="27" t="s">
         <v>1537</v>
       </c>
-      <c r="D204" s="32" t="s">
+      <c r="D205" s="32" t="s">
         <v>1237</v>
       </c>
-      <c r="E204" s="34" t="s">
+      <c r="E205" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F204" s="34" t="s">
+      <c r="F205" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G204" s="81" t="s">
+      <c r="G205" s="81" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="15" customHeight="1">
-      <c r="A205" s="92"/>
-      <c r="B205" s="61"/>
-      <c r="E205" s="34"/>
-      <c r="F205" s="34"/>
-    </row>
     <row r="206" spans="1:7" ht="15" customHeight="1">
-      <c r="A206" s="54"/>
-      <c r="D206" s="54"/>
+      <c r="A206" s="92"/>
+      <c r="B206" s="61"/>
       <c r="E206" s="34"/>
       <c r="F206" s="34"/>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1">
-      <c r="A207" s="92">
+      <c r="A207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="34"/>
+      <c r="F207" s="34"/>
+    </row>
+    <row r="208" spans="1:7" ht="15" customHeight="1">
+      <c r="A208" s="92">
         <v>1326</v>
       </c>
-      <c r="B207" s="148" t="s">
+      <c r="B208" s="148" t="s">
         <v>958</v>
       </c>
-      <c r="C207" s="54" t="s">
+      <c r="C208" s="54" t="s">
         <v>1564</v>
       </c>
-      <c r="D207" s="32" t="s">
+      <c r="D208" s="32" t="s">
         <v>1565</v>
       </c>
-      <c r="E207" s="34" t="s">
+      <c r="E208" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F207" s="34" t="s">
+      <c r="F208" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G207" s="81" t="s">
+      <c r="G208" s="81" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="15" customHeight="1">
-      <c r="A208" s="54"/>
-      <c r="D208" s="54"/>
-      <c r="G208" s="54"/>
-    </row>
     <row r="209" spans="1:7" ht="15" customHeight="1">
-      <c r="B209" s="61"/>
-      <c r="E209" s="34"/>
-      <c r="F209" s="34"/>
+      <c r="A209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="G209" s="54"/>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1">
-      <c r="A210" s="92">
-        <v>1329</v>
-      </c>
-      <c r="B210" s="61" t="s">
-        <v>692</v>
-      </c>
-      <c r="D210" s="32" t="s">
-        <v>119</v>
-      </c>
+      <c r="B210" s="61"/>
       <c r="E210" s="34"/>
       <c r="F210" s="34"/>
-      <c r="G210" s="81" t="s">
-        <v>1380</v>
-      </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1">
-      <c r="B211" s="61"/>
+      <c r="A211" s="92">
+        <v>1329</v>
+      </c>
+      <c r="B211" s="61" t="s">
+        <v>692</v>
+      </c>
+      <c r="D211" s="32" t="s">
+        <v>119</v>
+      </c>
       <c r="E211" s="34"/>
       <c r="F211" s="34"/>
+      <c r="G211" s="81" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1">
-      <c r="A212" s="92"/>
       <c r="B212" s="61"/>
       <c r="E212" s="34"/>
       <c r="F212" s="34"/>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1">
-      <c r="A213" s="92">
+      <c r="A213" s="92"/>
+      <c r="B213" s="61"/>
+      <c r="E213" s="34"/>
+      <c r="F213" s="34"/>
+    </row>
+    <row r="214" spans="1:7" ht="15" customHeight="1">
+      <c r="A214" s="92">
         <v>1353</v>
       </c>
-      <c r="B213" s="61" t="s">
+      <c r="B214" s="61" t="s">
         <v>1151</v>
       </c>
-      <c r="D213" s="32" t="s">
+      <c r="D214" s="32" t="s">
         <v>1468</v>
       </c>
-      <c r="E213" s="34" t="s">
+      <c r="E214" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F213" s="34" t="s">
+      <c r="F214" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G213" s="81" t="s">
+      <c r="G214" s="81" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="15" customHeight="1">
-      <c r="A214" s="92"/>
-      <c r="B214" s="61"/>
-      <c r="E214" s="34"/>
-      <c r="F214" s="34"/>
-    </row>
     <row r="215" spans="1:7" ht="15" customHeight="1">
+      <c r="A215" s="92"/>
       <c r="B215" s="61"/>
       <c r="E215" s="34"/>
       <c r="F215" s="34"/>
     </row>
-    <row r="217" spans="1:7" ht="15" customHeight="1">
-      <c r="A217" s="32">
+    <row r="216" spans="1:7" ht="15" customHeight="1">
+      <c r="B216" s="61"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+    </row>
+    <row r="218" spans="1:7" ht="15" customHeight="1">
+      <c r="A218" s="32">
         <v>1383</v>
       </c>
-      <c r="B217" s="118" t="s">
+      <c r="B218" s="118" t="s">
         <v>1389</v>
       </c>
-      <c r="D217" s="32" t="s">
+      <c r="D218" s="32" t="s">
         <v>1390</v>
       </c>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="81" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="15" customHeight="1">
-      <c r="A218" s="92"/>
-      <c r="B218" s="61"/>
       <c r="E218" s="34"/>
       <c r="F218" s="34"/>
+      <c r="G218" s="81" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="219" spans="1:7" ht="15" customHeight="1">
-      <c r="A219">
+      <c r="A219" s="92"/>
+      <c r="B219" s="61"/>
+      <c r="E219" s="34"/>
+      <c r="F219" s="34"/>
+    </row>
+    <row r="220" spans="1:7" ht="15" customHeight="1">
+      <c r="A220">
         <v>1498</v>
       </c>
-      <c r="B219" s="9" t="s">
+      <c r="B220" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="D219" s="22" t="s">
+      <c r="D220" s="22" t="s">
         <v>1650</v>
       </c>
-      <c r="E219" s="34" t="s">
+      <c r="E220" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F219" s="34" t="s">
+      <c r="F220" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G219" s="81" t="s">
+      <c r="G220" s="81" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="15" customHeight="1">
-      <c r="A220" s="92"/>
-      <c r="B220" s="61"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="34"/>
-    </row>
     <row r="221" spans="1:7" ht="15" customHeight="1">
-      <c r="A221" s="32">
+      <c r="A221" s="92"/>
+      <c r="B221" s="61"/>
+      <c r="E221" s="34"/>
+      <c r="F221" s="34"/>
+    </row>
+    <row r="222" spans="1:7" ht="15" customHeight="1">
+      <c r="A222" s="32">
         <v>1631</v>
       </c>
-      <c r="B221" s="61" t="s">
+      <c r="B222" s="61" t="s">
         <v>993</v>
       </c>
-      <c r="C221" s="54" t="s">
+      <c r="C222" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D221" s="32" t="s">
+      <c r="D222" s="32" t="s">
         <v>1398</v>
       </c>
-      <c r="E221" s="34" t="s">
+      <c r="E222" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F221" s="34" t="s">
+      <c r="F222" s="34" t="s">
         <v>1291</v>
       </c>
-      <c r="G221" s="81" t="s">
+      <c r="G222" s="81" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="15" customHeight="1">
-      <c r="A222" s="92"/>
-      <c r="B222" s="61"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="34"/>
-    </row>
     <row r="223" spans="1:7" ht="15" customHeight="1">
-      <c r="A223" s="32">
-        <v>1658</v>
-      </c>
-      <c r="B223" s="61" t="s">
-        <v>997</v>
-      </c>
+      <c r="A223" s="92"/>
+      <c r="B223" s="61"/>
       <c r="E223" s="34"/>
       <c r="F223" s="34"/>
     </row>
     <row r="224" spans="1:7" ht="15" customHeight="1">
-      <c r="A224" s="92">
-        <v>1673</v>
+      <c r="A224" s="32">
+        <v>1658</v>
       </c>
       <c r="B224" s="61" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C224" s="54" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D224" s="32" t="s">
-        <v>1365</v>
+        <v>997</v>
       </c>
       <c r="E224" s="34"/>
       <c r="F224" s="34"/>
-      <c r="G224" s="81" t="s">
-        <v>1364</v>
-      </c>
     </row>
     <row r="225" spans="1:7" ht="15" customHeight="1">
-      <c r="A225" s="32">
-        <v>1657</v>
+      <c r="A225" s="92">
+        <v>1673</v>
       </c>
       <c r="B225" s="61" t="s">
-        <v>1369</v>
+        <v>1360</v>
+      </c>
+      <c r="C225" s="54" t="s">
+        <v>1361</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>1326</v>
+        <v>1365</v>
       </c>
       <c r="E225" s="34"/>
       <c r="F225" s="34"/>
       <c r="G225" s="81" t="s">
-        <v>1458</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15" customHeight="1">
-      <c r="B226" s="61"/>
+      <c r="A226" s="32">
+        <v>1657</v>
+      </c>
+      <c r="B226" s="61" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D226" s="32" t="s">
+        <v>1326</v>
+      </c>
       <c r="E226" s="34"/>
       <c r="F226" s="34"/>
-      <c r="G226" s="81"/>
+      <c r="G226" s="81" t="s">
+        <v>1458</v>
+      </c>
     </row>
     <row r="227" spans="1:7" ht="15" customHeight="1">
       <c r="B227" s="61"/>
       <c r="E227" s="34"/>
       <c r="F227" s="34"/>
+      <c r="G227" s="81"/>
     </row>
     <row r="228" spans="1:7" ht="15" customHeight="1">
-      <c r="A228" s="115">
+      <c r="B228" s="61"/>
+      <c r="E228" s="34"/>
+      <c r="F228" s="34"/>
+    </row>
+    <row r="229" spans="1:7" ht="15" customHeight="1">
+      <c r="A229" s="115">
         <v>1675</v>
       </c>
-      <c r="B228" s="61" t="s">
+      <c r="B229" s="61" t="s">
         <v>1427</v>
       </c>
-      <c r="D228" s="32" t="s">
+      <c r="D229" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E228" s="34" t="s">
+      <c r="E229" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F228" s="34" t="s">
+      <c r="F229" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G228" s="81" t="s">
+      <c r="G229" s="81" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="15" customHeight="1">
-      <c r="A229" s="115"/>
-      <c r="B229" s="61"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
     </row>
     <row r="230" spans="1:7" ht="15" customHeight="1">
       <c r="A230" s="115"/>
@@ -43873,775 +44103,776 @@
       <c r="F231" s="34"/>
     </row>
     <row r="232" spans="1:7" ht="15" customHeight="1">
-      <c r="A232" s="115">
-        <v>1742</v>
-      </c>
-      <c r="B232" s="61" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D232" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E232" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F232" s="34" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G232" s="81" t="s">
-        <v>1433</v>
-      </c>
+      <c r="A232" s="115"/>
+      <c r="B232" s="61"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="34"/>
     </row>
     <row r="233" spans="1:7" ht="15" customHeight="1">
       <c r="A233" s="115">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B233" s="61" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D233" s="32" t="s">
         <v>126</v>
       </c>
       <c r="E233" s="34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F233" s="34" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="G233" s="81" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15" customHeight="1">
       <c r="A234" s="115">
-        <v>1750</v>
+        <v>1743</v>
       </c>
       <c r="B234" s="61" t="s">
-        <v>1466</v>
+        <v>1434</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E234" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F234" s="34" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G234" s="81" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="15" customHeight="1">
+      <c r="A235" s="115">
+        <v>1750</v>
+      </c>
+      <c r="B235" s="61" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D235" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E235" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="34" t="s">
         <v>1214</v>
       </c>
-      <c r="G234" s="81" t="s">
+      <c r="G235" s="81" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="15" customHeight="1">
-      <c r="A235" s="115"/>
-      <c r="B235" s="61"/>
-      <c r="E235" s="34"/>
-      <c r="F235" s="34"/>
-    </row>
     <row r="236" spans="1:7" ht="15" customHeight="1">
-      <c r="A236" s="115">
-        <v>1751</v>
-      </c>
-      <c r="B236" s="82" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E236" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F236" s="34" t="s">
-        <v>1005</v>
-      </c>
+      <c r="A236" s="115"/>
+      <c r="B236" s="61"/>
+      <c r="E236" s="34"/>
+      <c r="F236" s="34"/>
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1">
       <c r="A237" s="115">
-        <v>1752</v>
-      </c>
-      <c r="B237" s="61" t="s">
-        <v>1469</v>
+        <v>1751</v>
+      </c>
+      <c r="B237" s="82" t="s">
+        <v>1472</v>
       </c>
       <c r="E237" s="34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F237" s="34" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G237" s="81" t="s">
-        <v>1470</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15" customHeight="1">
       <c r="A238" s="115">
+        <v>1752</v>
+      </c>
+      <c r="B238" s="61" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E238" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="34" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G238" s="81" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="15" customHeight="1">
+      <c r="A239" s="115">
         <v>1755</v>
       </c>
-      <c r="B238" s="61" t="s">
+      <c r="B239" s="61" t="s">
         <v>1473</v>
       </c>
-      <c r="E238" s="34" t="s">
+      <c r="E239" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F238" s="34" t="s">
+      <c r="F239" s="34" t="s">
         <v>1216</v>
       </c>
-      <c r="G238" s="81" t="s">
+      <c r="G239" s="81" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="15" customHeight="1">
-      <c r="A239" s="92"/>
-      <c r="B239" s="61"/>
-      <c r="E239" s="34"/>
-      <c r="F239" s="34"/>
-    </row>
     <row r="240" spans="1:7" ht="15" customHeight="1">
-      <c r="A240" s="32">
+      <c r="A240" s="92"/>
+      <c r="B240" s="61"/>
+      <c r="E240" s="34"/>
+      <c r="F240" s="34"/>
+    </row>
+    <row r="241" spans="1:7" ht="15" customHeight="1">
+      <c r="A241" s="32">
         <v>1770</v>
       </c>
-      <c r="B240" s="142" t="s">
+      <c r="B241" s="142" t="s">
         <v>1547</v>
       </c>
-      <c r="D240" s="32" t="s">
+      <c r="D241" s="32" t="s">
         <v>1548</v>
       </c>
-      <c r="E240" s="34" t="s">
+      <c r="E241" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F240" s="34" t="s">
+      <c r="F241" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G240" s="81" t="s">
+      <c r="G241" s="81" t="s">
         <v>1549</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="15" customHeight="1">
-      <c r="A241" s="92"/>
-      <c r="B241" s="61"/>
-      <c r="E241" s="34"/>
-      <c r="F241" s="34"/>
-    </row>
     <row r="242" spans="1:7" ht="15" customHeight="1">
-      <c r="A242" s="32">
+      <c r="A242" s="92"/>
+      <c r="B242" s="61"/>
+      <c r="E242" s="34"/>
+      <c r="F242" s="34"/>
+    </row>
+    <row r="243" spans="1:7" ht="15" customHeight="1">
+      <c r="A243" s="32">
         <v>1774</v>
       </c>
-      <c r="B242" s="142" t="s">
+      <c r="B243" s="142" t="s">
         <v>1576</v>
       </c>
-      <c r="D242" s="32" t="s">
+      <c r="D243" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E242" s="34" t="s">
+      <c r="E243" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F242" s="34" t="s">
+      <c r="F243" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G242" s="81" t="s">
+      <c r="G243" s="81" t="s">
         <v>1577</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="15" customHeight="1">
-      <c r="A243" s="92"/>
-      <c r="B243" s="61"/>
-      <c r="E243" s="34"/>
-      <c r="F243" s="34"/>
-    </row>
     <row r="244" spans="1:7" ht="15" customHeight="1">
+      <c r="A244" s="92"/>
       <c r="B244" s="61"/>
       <c r="E244" s="34"/>
       <c r="F244" s="34"/>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1">
-      <c r="A245" s="92">
+      <c r="B245" s="61"/>
+      <c r="E245" s="34"/>
+      <c r="F245" s="34"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" customHeight="1">
+      <c r="A246" s="92">
         <v>5704</v>
       </c>
-      <c r="B245" s="173" t="s">
+      <c r="B246" s="173" t="s">
         <v>1611</v>
       </c>
-      <c r="D245" s="32" t="s">
+      <c r="D246" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="E245" s="34" t="s">
+      <c r="E246" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F245" s="34" t="s">
+      <c r="F246" s="34" t="s">
         <v>1316</v>
       </c>
-      <c r="G245" s="81" t="s">
+      <c r="G246" s="81" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="15" customHeight="1">
-      <c r="B246" s="172"/>
-      <c r="E246" s="34"/>
-      <c r="F246" s="34"/>
-    </row>
     <row r="247" spans="1:7" ht="15" customHeight="1">
-      <c r="A247" s="92"/>
-      <c r="B247" s="61"/>
+      <c r="B247" s="172"/>
       <c r="E247" s="34"/>
       <c r="F247" s="34"/>
     </row>
     <row r="248" spans="1:7" ht="15" customHeight="1">
+      <c r="A248" s="92"/>
       <c r="B248" s="61"/>
       <c r="E248" s="34"/>
       <c r="F248" s="34"/>
     </row>
     <row r="249" spans="1:7" ht="15" customHeight="1">
-      <c r="A249" s="92"/>
       <c r="B249" s="61"/>
       <c r="E249" s="34"/>
       <c r="F249" s="34"/>
     </row>
     <row r="250" spans="1:7" ht="15" customHeight="1">
+      <c r="A250" s="92"/>
       <c r="B250" s="61"/>
       <c r="E250" s="34"/>
       <c r="F250" s="34"/>
     </row>
     <row r="251" spans="1:7" ht="15" customHeight="1">
-      <c r="A251" s="92"/>
       <c r="B251" s="61"/>
       <c r="E251" s="34"/>
       <c r="F251" s="34"/>
     </row>
     <row r="252" spans="1:7" ht="15" customHeight="1">
+      <c r="A252" s="92"/>
       <c r="B252" s="61"/>
       <c r="E252" s="34"/>
       <c r="F252" s="34"/>
     </row>
     <row r="253" spans="1:7" ht="15" customHeight="1">
-      <c r="A253" s="92"/>
       <c r="B253" s="61"/>
       <c r="E253" s="34"/>
       <c r="F253" s="34"/>
     </row>
     <row r="254" spans="1:7" ht="15" customHeight="1">
+      <c r="A254" s="92"/>
       <c r="B254" s="61"/>
       <c r="E254" s="34"/>
       <c r="F254" s="34"/>
     </row>
     <row r="255" spans="1:7" ht="15" customHeight="1">
-      <c r="A255" s="92"/>
       <c r="B255" s="61"/>
       <c r="E255" s="34"/>
       <c r="F255" s="34"/>
     </row>
     <row r="256" spans="1:7" ht="15" customHeight="1">
+      <c r="A256" s="92"/>
       <c r="B256" s="61"/>
       <c r="E256" s="34"/>
       <c r="F256" s="34"/>
     </row>
     <row r="257" spans="1:6" ht="15" customHeight="1">
-      <c r="A257" s="92"/>
       <c r="B257" s="61"/>
       <c r="E257" s="34"/>
       <c r="F257" s="34"/>
     </row>
     <row r="258" spans="1:6" ht="15" customHeight="1">
+      <c r="A258" s="92"/>
       <c r="B258" s="61"/>
       <c r="E258" s="34"/>
       <c r="F258" s="34"/>
     </row>
     <row r="259" spans="1:6" ht="15" customHeight="1">
-      <c r="A259" s="92"/>
       <c r="B259" s="61"/>
       <c r="E259" s="34"/>
       <c r="F259" s="34"/>
     </row>
     <row r="260" spans="1:6" ht="15" customHeight="1">
+      <c r="A260" s="92"/>
       <c r="B260" s="61"/>
       <c r="E260" s="34"/>
       <c r="F260" s="34"/>
     </row>
     <row r="261" spans="1:6" ht="15" customHeight="1">
-      <c r="A261" s="92"/>
       <c r="B261" s="61"/>
       <c r="E261" s="34"/>
       <c r="F261" s="34"/>
     </row>
     <row r="262" spans="1:6" ht="15" customHeight="1">
+      <c r="A262" s="92"/>
       <c r="B262" s="61"/>
       <c r="E262" s="34"/>
       <c r="F262" s="34"/>
     </row>
     <row r="263" spans="1:6" ht="15" customHeight="1">
-      <c r="A263" s="92"/>
       <c r="B263" s="61"/>
       <c r="E263" s="34"/>
       <c r="F263" s="34"/>
     </row>
     <row r="264" spans="1:6" ht="15" customHeight="1">
+      <c r="A264" s="92"/>
       <c r="B264" s="61"/>
       <c r="E264" s="34"/>
       <c r="F264" s="34"/>
     </row>
     <row r="265" spans="1:6" ht="15" customHeight="1">
-      <c r="A265" s="92"/>
       <c r="B265" s="61"/>
       <c r="E265" s="34"/>
       <c r="F265" s="34"/>
     </row>
     <row r="266" spans="1:6" ht="15" customHeight="1">
+      <c r="A266" s="92"/>
       <c r="B266" s="61"/>
       <c r="E266" s="34"/>
       <c r="F266" s="34"/>
     </row>
     <row r="267" spans="1:6" ht="15" customHeight="1">
-      <c r="A267" s="92"/>
       <c r="B267" s="61"/>
       <c r="E267" s="34"/>
       <c r="F267" s="34"/>
     </row>
     <row r="268" spans="1:6" ht="15" customHeight="1">
+      <c r="A268" s="92"/>
       <c r="B268" s="61"/>
       <c r="E268" s="34"/>
       <c r="F268" s="34"/>
     </row>
     <row r="269" spans="1:6" ht="15" customHeight="1">
-      <c r="A269" s="92"/>
       <c r="B269" s="61"/>
       <c r="E269" s="34"/>
       <c r="F269" s="34"/>
     </row>
     <row r="270" spans="1:6" ht="15" customHeight="1">
+      <c r="A270" s="92"/>
       <c r="B270" s="61"/>
       <c r="E270" s="34"/>
       <c r="F270" s="34"/>
     </row>
     <row r="271" spans="1:6" ht="15" customHeight="1">
-      <c r="A271" s="92"/>
       <c r="B271" s="61"/>
       <c r="E271" s="34"/>
       <c r="F271" s="34"/>
     </row>
     <row r="272" spans="1:6" ht="15" customHeight="1">
+      <c r="A272" s="92"/>
       <c r="B272" s="61"/>
       <c r="E272" s="34"/>
       <c r="F272" s="34"/>
     </row>
     <row r="273" spans="1:6" ht="15" customHeight="1">
-      <c r="A273" s="92"/>
       <c r="B273" s="61"/>
       <c r="E273" s="34"/>
       <c r="F273" s="34"/>
     </row>
     <row r="274" spans="1:6" ht="15" customHeight="1">
+      <c r="A274" s="92"/>
       <c r="B274" s="61"/>
       <c r="E274" s="34"/>
       <c r="F274" s="34"/>
     </row>
     <row r="275" spans="1:6" ht="15" customHeight="1">
-      <c r="A275" s="92"/>
       <c r="B275" s="61"/>
       <c r="E275" s="34"/>
       <c r="F275" s="34"/>
     </row>
     <row r="276" spans="1:6" ht="15" customHeight="1">
+      <c r="A276" s="92"/>
       <c r="B276" s="61"/>
       <c r="E276" s="34"/>
       <c r="F276" s="34"/>
     </row>
     <row r="277" spans="1:6" ht="15" customHeight="1">
-      <c r="A277" s="92"/>
       <c r="B277" s="61"/>
       <c r="E277" s="34"/>
       <c r="F277" s="34"/>
     </row>
     <row r="278" spans="1:6" ht="15" customHeight="1">
+      <c r="A278" s="92"/>
       <c r="B278" s="61"/>
       <c r="E278" s="34"/>
       <c r="F278" s="34"/>
     </row>
     <row r="279" spans="1:6" ht="15" customHeight="1">
-      <c r="A279" s="92"/>
       <c r="B279" s="61"/>
       <c r="E279" s="34"/>
       <c r="F279" s="34"/>
     </row>
     <row r="280" spans="1:6" ht="15" customHeight="1">
+      <c r="A280" s="92"/>
       <c r="B280" s="61"/>
       <c r="E280" s="34"/>
       <c r="F280" s="34"/>
     </row>
     <row r="281" spans="1:6" ht="15" customHeight="1">
-      <c r="A281" s="92"/>
       <c r="B281" s="61"/>
       <c r="E281" s="34"/>
       <c r="F281" s="34"/>
     </row>
     <row r="282" spans="1:6" ht="15" customHeight="1">
+      <c r="A282" s="92"/>
       <c r="B282" s="61"/>
       <c r="E282" s="34"/>
       <c r="F282" s="34"/>
     </row>
     <row r="283" spans="1:6" ht="15" customHeight="1">
-      <c r="A283" s="92"/>
       <c r="B283" s="61"/>
       <c r="E283" s="34"/>
       <c r="F283" s="34"/>
     </row>
     <row r="284" spans="1:6" ht="15" customHeight="1">
+      <c r="A284" s="92"/>
       <c r="B284" s="61"/>
       <c r="E284" s="34"/>
       <c r="F284" s="34"/>
     </row>
     <row r="285" spans="1:6" ht="15" customHeight="1">
-      <c r="A285" s="92"/>
       <c r="B285" s="61"/>
       <c r="E285" s="34"/>
       <c r="F285" s="34"/>
     </row>
     <row r="286" spans="1:6" ht="15" customHeight="1">
+      <c r="A286" s="92"/>
       <c r="B286" s="61"/>
       <c r="E286" s="34"/>
       <c r="F286" s="34"/>
     </row>
     <row r="287" spans="1:6" ht="15" customHeight="1">
-      <c r="A287" s="92"/>
       <c r="B287" s="61"/>
       <c r="E287" s="34"/>
       <c r="F287" s="34"/>
     </row>
     <row r="288" spans="1:6" ht="15" customHeight="1">
+      <c r="A288" s="92"/>
       <c r="B288" s="61"/>
       <c r="E288" s="34"/>
       <c r="F288" s="34"/>
     </row>
     <row r="289" spans="1:6" ht="15" customHeight="1">
-      <c r="A289" s="92"/>
       <c r="B289" s="61"/>
       <c r="E289" s="34"/>
       <c r="F289" s="34"/>
     </row>
     <row r="290" spans="1:6" ht="15" customHeight="1">
+      <c r="A290" s="92"/>
       <c r="B290" s="61"/>
       <c r="E290" s="34"/>
       <c r="F290" s="34"/>
     </row>
     <row r="291" spans="1:6" ht="15" customHeight="1">
-      <c r="A291" s="92"/>
       <c r="B291" s="61"/>
       <c r="E291" s="34"/>
       <c r="F291" s="34"/>
     </row>
     <row r="292" spans="1:6" ht="15" customHeight="1">
+      <c r="A292" s="92"/>
       <c r="B292" s="61"/>
       <c r="E292" s="34"/>
       <c r="F292" s="34"/>
     </row>
     <row r="293" spans="1:6" ht="15" customHeight="1">
-      <c r="A293" s="92"/>
       <c r="B293" s="61"/>
       <c r="E293" s="34"/>
       <c r="F293" s="34"/>
     </row>
     <row r="294" spans="1:6" ht="15" customHeight="1">
+      <c r="A294" s="92"/>
       <c r="B294" s="61"/>
       <c r="E294" s="34"/>
       <c r="F294" s="34"/>
     </row>
     <row r="295" spans="1:6" ht="15" customHeight="1">
-      <c r="A295" s="92"/>
       <c r="B295" s="61"/>
       <c r="E295" s="34"/>
       <c r="F295" s="34"/>
     </row>
     <row r="296" spans="1:6" ht="15" customHeight="1">
+      <c r="A296" s="92"/>
       <c r="B296" s="61"/>
       <c r="E296" s="34"/>
       <c r="F296" s="34"/>
     </row>
     <row r="297" spans="1:6" ht="15" customHeight="1">
-      <c r="A297" s="92"/>
       <c r="B297" s="61"/>
       <c r="E297" s="34"/>
       <c r="F297" s="34"/>
     </row>
     <row r="298" spans="1:6" ht="15" customHeight="1">
+      <c r="A298" s="92"/>
       <c r="B298" s="61"/>
       <c r="E298" s="34"/>
       <c r="F298" s="34"/>
     </row>
     <row r="299" spans="1:6" ht="15" customHeight="1">
-      <c r="A299" s="92"/>
       <c r="B299" s="61"/>
       <c r="E299" s="34"/>
       <c r="F299" s="34"/>
     </row>
     <row r="300" spans="1:6" ht="15" customHeight="1">
+      <c r="A300" s="92"/>
       <c r="B300" s="61"/>
       <c r="E300" s="34"/>
       <c r="F300" s="34"/>
     </row>
     <row r="301" spans="1:6" ht="15" customHeight="1">
-      <c r="A301" s="92"/>
       <c r="B301" s="61"/>
       <c r="E301" s="34"/>
       <c r="F301" s="34"/>
     </row>
     <row r="302" spans="1:6" ht="15" customHeight="1">
+      <c r="A302" s="92"/>
       <c r="B302" s="61"/>
       <c r="E302" s="34"/>
       <c r="F302" s="34"/>
     </row>
     <row r="303" spans="1:6" ht="15" customHeight="1">
-      <c r="A303" s="92"/>
       <c r="B303" s="61"/>
       <c r="E303" s="34"/>
       <c r="F303" s="34"/>
     </row>
     <row r="304" spans="1:6" ht="15" customHeight="1">
+      <c r="A304" s="92"/>
       <c r="B304" s="61"/>
       <c r="E304" s="34"/>
       <c r="F304" s="34"/>
     </row>
     <row r="305" spans="1:6" ht="15" customHeight="1">
-      <c r="A305" s="92"/>
       <c r="B305" s="61"/>
       <c r="E305" s="34"/>
       <c r="F305" s="34"/>
     </row>
     <row r="306" spans="1:6" ht="15" customHeight="1">
+      <c r="A306" s="92"/>
       <c r="B306" s="61"/>
       <c r="E306" s="34"/>
       <c r="F306" s="34"/>
     </row>
     <row r="307" spans="1:6" ht="15" customHeight="1">
-      <c r="A307" s="92"/>
       <c r="B307" s="61"/>
       <c r="E307" s="34"/>
       <c r="F307" s="34"/>
     </row>
     <row r="308" spans="1:6" ht="15" customHeight="1">
+      <c r="A308" s="92"/>
       <c r="B308" s="61"/>
       <c r="E308" s="34"/>
       <c r="F308" s="34"/>
     </row>
     <row r="309" spans="1:6" ht="15" customHeight="1">
-      <c r="A309" s="92"/>
       <c r="B309" s="61"/>
       <c r="E309" s="34"/>
       <c r="F309" s="34"/>
     </row>
     <row r="310" spans="1:6" ht="15" customHeight="1">
+      <c r="A310" s="92"/>
       <c r="B310" s="61"/>
       <c r="E310" s="34"/>
       <c r="F310" s="34"/>
     </row>
     <row r="311" spans="1:6" ht="15" customHeight="1">
-      <c r="A311" s="92"/>
       <c r="B311" s="61"/>
       <c r="E311" s="34"/>
       <c r="F311" s="34"/>
     </row>
     <row r="312" spans="1:6" ht="15" customHeight="1">
+      <c r="A312" s="92"/>
       <c r="B312" s="61"/>
       <c r="E312" s="34"/>
       <c r="F312" s="34"/>
     </row>
     <row r="313" spans="1:6" ht="15" customHeight="1">
-      <c r="A313" s="92"/>
       <c r="B313" s="61"/>
       <c r="E313" s="34"/>
       <c r="F313" s="34"/>
     </row>
     <row r="314" spans="1:6" ht="15" customHeight="1">
+      <c r="A314" s="92"/>
       <c r="B314" s="61"/>
       <c r="E314" s="34"/>
       <c r="F314" s="34"/>
     </row>
     <row r="315" spans="1:6" ht="15" customHeight="1">
-      <c r="A315" s="92"/>
       <c r="B315" s="61"/>
       <c r="E315" s="34"/>
       <c r="F315" s="34"/>
     </row>
     <row r="316" spans="1:6" ht="15" customHeight="1">
+      <c r="A316" s="92"/>
       <c r="B316" s="61"/>
       <c r="E316" s="34"/>
       <c r="F316" s="34"/>
     </row>
     <row r="317" spans="1:6" ht="15" customHeight="1">
-      <c r="A317" s="92"/>
       <c r="B317" s="61"/>
       <c r="E317" s="34"/>
       <c r="F317" s="34"/>
     </row>
     <row r="318" spans="1:6" ht="15" customHeight="1">
+      <c r="A318" s="92"/>
       <c r="B318" s="61"/>
       <c r="E318" s="34"/>
       <c r="F318" s="34"/>
     </row>
     <row r="319" spans="1:6" ht="15" customHeight="1">
-      <c r="A319" s="92"/>
       <c r="B319" s="61"/>
       <c r="E319" s="34"/>
       <c r="F319" s="34"/>
     </row>
     <row r="320" spans="1:6" ht="15" customHeight="1">
+      <c r="A320" s="92"/>
       <c r="B320" s="61"/>
       <c r="E320" s="34"/>
       <c r="F320" s="34"/>
     </row>
     <row r="321" spans="1:6" ht="15" customHeight="1">
-      <c r="A321" s="92"/>
       <c r="B321" s="61"/>
       <c r="E321" s="34"/>
       <c r="F321" s="34"/>
     </row>
     <row r="322" spans="1:6" ht="15" customHeight="1">
+      <c r="A322" s="92"/>
       <c r="B322" s="61"/>
       <c r="E322" s="34"/>
       <c r="F322" s="34"/>
     </row>
     <row r="323" spans="1:6" ht="15" customHeight="1">
-      <c r="A323" s="92"/>
       <c r="B323" s="61"/>
       <c r="E323" s="34"/>
       <c r="F323" s="34"/>
     </row>
     <row r="324" spans="1:6" ht="15" customHeight="1">
+      <c r="A324" s="92"/>
       <c r="B324" s="61"/>
       <c r="E324" s="34"/>
       <c r="F324" s="34"/>
     </row>
     <row r="325" spans="1:6" ht="15" customHeight="1">
-      <c r="A325" s="92"/>
       <c r="B325" s="61"/>
       <c r="E325" s="34"/>
       <c r="F325" s="34"/>
     </row>
     <row r="326" spans="1:6" ht="15" customHeight="1">
+      <c r="A326" s="92"/>
       <c r="B326" s="61"/>
       <c r="E326" s="34"/>
       <c r="F326" s="34"/>
     </row>
     <row r="327" spans="1:6" ht="15" customHeight="1">
-      <c r="A327" s="92"/>
       <c r="B327" s="61"/>
       <c r="E327" s="34"/>
       <c r="F327" s="34"/>
     </row>
     <row r="328" spans="1:6" ht="15" customHeight="1">
+      <c r="A328" s="92"/>
       <c r="B328" s="61"/>
       <c r="E328" s="34"/>
       <c r="F328" s="34"/>
     </row>
     <row r="329" spans="1:6" ht="15" customHeight="1">
-      <c r="A329" s="92"/>
       <c r="B329" s="61"/>
       <c r="E329" s="34"/>
       <c r="F329" s="34"/>
     </row>
     <row r="330" spans="1:6" ht="15" customHeight="1">
+      <c r="A330" s="92"/>
       <c r="B330" s="61"/>
       <c r="E330" s="34"/>
       <c r="F330" s="34"/>
     </row>
     <row r="331" spans="1:6" ht="15" customHeight="1">
-      <c r="A331" s="92"/>
       <c r="B331" s="61"/>
       <c r="E331" s="34"/>
       <c r="F331" s="34"/>
     </row>
     <row r="332" spans="1:6" ht="15" customHeight="1">
+      <c r="A332" s="92"/>
       <c r="B332" s="61"/>
       <c r="E332" s="34"/>
       <c r="F332" s="34"/>
     </row>
     <row r="333" spans="1:6" ht="15" customHeight="1">
-      <c r="A333" s="92"/>
       <c r="B333" s="61"/>
       <c r="E333" s="34"/>
       <c r="F333" s="34"/>
     </row>
     <row r="334" spans="1:6" ht="15" customHeight="1">
+      <c r="A334" s="92"/>
       <c r="B334" s="61"/>
       <c r="E334" s="34"/>
       <c r="F334" s="34"/>
     </row>
     <row r="335" spans="1:6" ht="15" customHeight="1">
-      <c r="A335" s="92"/>
       <c r="B335" s="61"/>
       <c r="E335" s="34"/>
       <c r="F335" s="34"/>
     </row>
     <row r="336" spans="1:6" ht="15" customHeight="1">
+      <c r="A336" s="92"/>
       <c r="B336" s="61"/>
       <c r="E336" s="34"/>
       <c r="F336" s="34"/>
     </row>
     <row r="337" spans="1:6" ht="15" customHeight="1">
-      <c r="A337" s="92"/>
       <c r="B337" s="61"/>
       <c r="E337" s="34"/>
       <c r="F337" s="34"/>
     </row>
     <row r="338" spans="1:6" ht="15" customHeight="1">
+      <c r="A338" s="92"/>
       <c r="B338" s="61"/>
       <c r="E338" s="34"/>
       <c r="F338" s="34"/>
     </row>
     <row r="339" spans="1:6" ht="15" customHeight="1">
-      <c r="A339" s="92"/>
       <c r="B339" s="61"/>
       <c r="E339" s="34"/>
       <c r="F339" s="34"/>
     </row>
     <row r="340" spans="1:6" ht="15" customHeight="1">
+      <c r="A340" s="92"/>
       <c r="B340" s="61"/>
       <c r="E340" s="34"/>
       <c r="F340" s="34"/>
     </row>
     <row r="341" spans="1:6" ht="15" customHeight="1">
-      <c r="A341" s="92"/>
       <c r="B341" s="61"/>
       <c r="E341" s="34"/>
       <c r="F341" s="34"/>
     </row>
     <row r="342" spans="1:6" ht="15" customHeight="1">
+      <c r="A342" s="92"/>
       <c r="B342" s="61"/>
       <c r="E342" s="34"/>
       <c r="F342" s="34"/>
     </row>
     <row r="343" spans="1:6" ht="15" customHeight="1">
-      <c r="A343" s="92"/>
       <c r="B343" s="61"/>
       <c r="E343" s="34"/>
       <c r="F343" s="34"/>
     </row>
     <row r="344" spans="1:6" ht="15" customHeight="1">
+      <c r="A344" s="92"/>
       <c r="B344" s="61"/>
       <c r="E344" s="34"/>
       <c r="F344" s="34"/>
     </row>
     <row r="345" spans="1:6" ht="15" customHeight="1">
-      <c r="A345" s="92"/>
       <c r="B345" s="61"/>
       <c r="E345" s="34"/>
       <c r="F345" s="34"/>
     </row>
     <row r="346" spans="1:6" ht="15" customHeight="1">
+      <c r="A346" s="92"/>
       <c r="B346" s="61"/>
       <c r="E346" s="34"/>
       <c r="F346" s="34"/>
     </row>
     <row r="347" spans="1:6" ht="15" customHeight="1">
-      <c r="A347" s="92"/>
       <c r="B347" s="61"/>
       <c r="E347" s="34"/>
       <c r="F347" s="34"/>
     </row>
     <row r="348" spans="1:6" ht="15" customHeight="1">
+      <c r="A348" s="92"/>
       <c r="B348" s="61"/>
       <c r="E348" s="34"/>
       <c r="F348" s="34"/>
     </row>
     <row r="349" spans="1:6" ht="15" customHeight="1">
-      <c r="A349" s="92"/>
       <c r="B349" s="61"/>
       <c r="E349" s="34"/>
       <c r="F349" s="34"/>
     </row>
     <row r="350" spans="1:6" ht="15" customHeight="1">
+      <c r="A350" s="92"/>
       <c r="B350" s="61"/>
       <c r="E350" s="34"/>
       <c r="F350" s="34"/>
@@ -44857,6 +45088,7 @@
       <c r="F392" s="34"/>
     </row>
     <row r="393" spans="2:6" ht="15" customHeight="1">
+      <c r="B393" s="61"/>
       <c r="E393" s="34"/>
       <c r="F393" s="34"/>
     </row>
@@ -44904,190 +45136,234 @@
       <c r="E404" s="34"/>
       <c r="F404" s="34"/>
     </row>
+    <row r="405" spans="5:6" ht="15" customHeight="1">
+      <c r="E405" s="34"/>
+      <c r="F405" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H162:H166"/>
+    <mergeCell ref="H163:H167"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
-    <cfRule type="containsText" dxfId="213" priority="49" operator="containsText" text="Hard">
+  <conditionalFormatting sqref="E2:E8 E10:E32 E218:E405 E210:E216 E70:E89 E91:E96 E98:E108 E163:E194 E197:E208 E110:E161 E34:E68">
+    <cfRule type="containsText" dxfId="221" priority="57" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
-    <cfRule type="containsText" dxfId="212" priority="50" operator="containsText" text="Medium">
+  <conditionalFormatting sqref="E2:E8 E10:E32 E218:E405 E210:E216 E70:E89 E91:E96 E98:E108 E163:E194 E197:E208 E110:E161 E34:E68">
+    <cfRule type="containsText" dxfId="220" priority="58" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E8 E10:E67 E217:E404 E209:E215 E69:E88 E90:E95 E97:E107 E162:E193 E196:E207 E109:E160">
-    <cfRule type="containsText" dxfId="211" priority="51" operator="containsText" text="Easy">
+  <conditionalFormatting sqref="E2:E8 E10:E32 E218:E405 E210:E216 E70:E89 E91:E96 E98:E108 E163:E194 E197:E208 E110:E161 E34:E68">
+    <cfRule type="containsText" dxfId="219" priority="59" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
-    <cfRule type="notContainsBlanks" dxfId="210" priority="44">
+  <conditionalFormatting sqref="F2:F8 F10:F32 F218:F405 F210:F216 F70:F89 F91:F108 F110:F208 F34:F68">
+    <cfRule type="notContainsBlanks" dxfId="218" priority="52">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
-    <cfRule type="containsText" dxfId="209" priority="45" operator="containsText" text="Revisit Later">
+  <conditionalFormatting sqref="F2:F8 F10:F32 F218:F405 F210:F216 F70:F89 F91:F108 F110:F208 F34:F68">
+    <cfRule type="containsText" dxfId="217" priority="53" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
-    <cfRule type="containsText" dxfId="208" priority="46" operator="containsText" text="Practice Later">
+  <conditionalFormatting sqref="F2:F8 F10:F32 F218:F405 F210:F216 F70:F89 F91:F108 F110:F208 F34:F68">
+    <cfRule type="containsText" dxfId="216" priority="54" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
-    <cfRule type="containsText" dxfId="207" priority="47" operator="containsText" text="Good To Go">
+  <conditionalFormatting sqref="F2:F8 F10:F32 F218:F405 F210:F216 F70:F89 F91:F108 F110:F208 F34:F68">
+    <cfRule type="containsText" dxfId="215" priority="55" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F8 F10:F67 F217:F404 F209:F215 F69:F88 F90:F107 F109:F207">
-    <cfRule type="containsText" dxfId="206" priority="48" operator="containsText" text="Needs Review">
+  <conditionalFormatting sqref="F2:F8 F10:F32 F218:F405 F210:F216 F70:F89 F91:F108 F110:F208 F34:F68">
+    <cfRule type="containsText" dxfId="214" priority="56" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G130">
-    <cfRule type="containsText" dxfId="205" priority="33" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(G130))))</formula>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="containsText" dxfId="213" priority="41" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(G131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G130">
-    <cfRule type="containsText" dxfId="204" priority="34" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(G130))))</formula>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="containsText" dxfId="212" priority="42" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(G131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G130">
-    <cfRule type="containsText" dxfId="203" priority="35" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(G130))))</formula>
+  <conditionalFormatting sqref="G131">
+    <cfRule type="containsText" dxfId="211" priority="43" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(G131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="notContainsBlanks" dxfId="202" priority="28">
-      <formula>LEN(TRIM(H130))&gt;0</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="notContainsBlanks" dxfId="210" priority="36">
+      <formula>LEN(TRIM(H131))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="201" priority="29" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H130))))</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="209" priority="37" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(H131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="200" priority="30" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H130))))</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="208" priority="38" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(H131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="199" priority="31" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H130))))</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="207" priority="39" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(H131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H130">
-    <cfRule type="containsText" dxfId="198" priority="32" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H130))))</formula>
+  <conditionalFormatting sqref="H131">
+    <cfRule type="containsText" dxfId="206" priority="40" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(H131))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D194:D195">
-    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(D194))))</formula>
+  <conditionalFormatting sqref="D195:D196">
+    <cfRule type="containsText" dxfId="205" priority="25" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(D195))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D194:D195">
-    <cfRule type="containsText" dxfId="196" priority="18" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(D194))))</formula>
+  <conditionalFormatting sqref="D195:D196">
+    <cfRule type="containsText" dxfId="204" priority="26" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(D195))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D194:D195">
-    <cfRule type="containsText" dxfId="195" priority="19" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(D194))))</formula>
+  <conditionalFormatting sqref="D195:D196">
+    <cfRule type="containsText" dxfId="203" priority="27" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(D195))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="notContainsBlanks" dxfId="202" priority="20">
+      <formula>LEN(TRIM(E196))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="containsText" dxfId="201" priority="21" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(E196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="containsText" dxfId="200" priority="22" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(E196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="containsText" dxfId="199" priority="23" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(E196))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E196">
+    <cfRule type="containsText" dxfId="198" priority="24" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(E196))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="notContainsBlanks" dxfId="194" priority="12">
-      <formula>LEN(TRIM(E195))&gt;0</formula>
+    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="containsText" dxfId="193" priority="13" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(E195))))</formula>
+    <cfRule type="containsText" dxfId="196" priority="18" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E195))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E195">
-    <cfRule type="containsText" dxfId="192" priority="14" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(E195))))</formula>
+    <cfRule type="containsText" dxfId="195" priority="19" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E195))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="containsText" dxfId="191" priority="15" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(E195))))</formula>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="containsText" dxfId="194" priority="14" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E195">
-    <cfRule type="containsText" dxfId="190" priority="16" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(E195))))</formula>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="containsText" dxfId="193" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(E194))))</formula>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="containsText" dxfId="192" priority="16" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="188" priority="10" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E194))))</formula>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="notContainsBlanks" dxfId="191" priority="9">
+      <formula>LEN(TRIM(F109))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E194">
-    <cfRule type="containsText" dxfId="187" priority="11" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(E194))))</formula>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" dxfId="190" priority="10" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH(("Hard"),(E108))))</formula>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" dxfId="189" priority="11" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH(("Medium"),(E108))))</formula>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" dxfId="188" priority="12" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="containsText" dxfId="184" priority="8" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH(("Easy"),(E108))))</formula>
+  <conditionalFormatting sqref="F109">
+    <cfRule type="containsText" dxfId="187" priority="13" operator="containsText" text="Needs Review">
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F109))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="notContainsBlanks" dxfId="183" priority="1">
-      <formula>LEN(TRIM(F108))&gt;0</formula>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="containsText" dxfId="186" priority="6" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH(("Hard"),(E33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="Revisit Later">
-      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F108))))</formula>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="containsText" dxfId="185" priority="7" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH(("Medium"),(E33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="Practice Later">
-      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F108))))</formula>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="containsText" dxfId="184" priority="8" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH(("Easy"),(E33))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
-    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="Good To Go">
-      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F108))))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="notContainsBlanks" dxfId="183" priority="1">
+      <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108">
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="182" priority="2" operator="containsText" text="Revisit Later">
+      <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="181" priority="3" operator="containsText" text="Practice Later">
+      <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="180" priority="4" operator="containsText" text="Good To Go">
+      <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F33))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
     <cfRule type="containsText" dxfId="179" priority="5" operator="containsText" text="Needs Review">
-      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F108))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F33))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H130 F217:F404 F209:F215 F10:F67 F69:F88 E195 F90:F207" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F8 H131 F218:F405 F210:F216 F91:F208 F70:F89 E196 F10:F68" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G130 E217:E404 E209:E215 E10:E67 E69:E88 E90:E95 D194:D195 E162:E194 E196:E207 E97:E160" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E8 G131 E218:E405 E210:E216 E98:E161 E70:E89 E91:E96 D195:D196 E163:E195 E197:E208 E10:E68" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
   </dataValidations>
@@ -45113,188 +45389,189 @@
     <hyperlink ref="B28" r:id="rId19" tooltip="Remove Duplicates from Sorted Array" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
     <hyperlink ref="B30" r:id="rId20" tooltip="Implement strStr()" display="https://leetcode.com/problems/implement-strstr" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
     <hyperlink ref="B31" r:id="rId21" tooltip="Substring with Concatenation of All Words" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="B33" r:id="rId22" tooltip="Generate Parentheses" display="https://leetcode.com/problems/generate-parentheses" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B34" r:id="rId23" tooltip="Next Permutation" display="https://leetcode.com/problems/next-permutation" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="B36" r:id="rId24" tooltip="Find First and Last Position of Element in Sorted Array" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B35" r:id="rId25" tooltip="Search in Rotated Sorted Array" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="B37" r:id="rId26" tooltip="Search Insert Position" display="https://leetcode.com/problems/search-insert-position" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B38" r:id="rId27" tooltip="Count and Say" display="https://leetcode.com/problems/count-and-say" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="B39" r:id="rId28" tooltip="Combination Sum" display="https://leetcode.com/problems/combination-sum" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B40" r:id="rId29" tooltip="Combination Sum II" display="https://leetcode.com/problems/combination-sum-ii" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="B41" r:id="rId30" tooltip="Rotate Image" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B42" r:id="rId31" tooltip="Jump Game II" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="B43" r:id="rId32" tooltip="First Missing Positive" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B44" r:id="rId33" tooltip="Group Anagrams" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="B45" r:id="rId34" tooltip="Spiral Matrix" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B49" r:id="rId35" tooltip="Insert Interval" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="B51" r:id="rId36" tooltip="Spiral Matrix II" display="https://leetcode.com/problems/spiral-matrix-ii" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="B50" r:id="rId37" tooltip="Length of Last Word" display="https://leetcode.com/problems/length-of-last-word" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B52" r:id="rId38" tooltip="Plus One" display="https://leetcode.com/problems/plus-one" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="B53" r:id="rId39" tooltip="Text Justification" display="https://leetcode.com/problems/text-justification" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B58" r:id="rId40" tooltip="Minimum Window Substring" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="B57" r:id="rId41" tooltip="Sort Colors" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B56" r:id="rId42" tooltip="Search a 2D Matrix" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="B55" r:id="rId43" tooltip="Set Matrix Zeroes" display="https://leetcode.com/problems/set-matrix-zeroes" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B54" r:id="rId44" tooltip="Simplify Path" display="https://leetcode.com/problems/simplify-path" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="B60" r:id="rId45" tooltip="Maximal Rectangle" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="B59" r:id="rId46" tooltip="Search in Rotated Sorted Array II" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="B61" r:id="rId47" tooltip="Subsets II" display="https://leetcode.com/problems/subsets-ii" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="B62" r:id="rId48" tooltip="Pascal's Triangle" display="https://leetcode.com/problems/pascals-triangle" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="B63" r:id="rId49" tooltip="Pascal's Triangle II" display="https://leetcode.com/problems/pascals-triangle-ii" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="B64" r:id="rId50" tooltip="Longest Consecutive Sequence" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="B66" r:id="rId51" tooltip="Valid Palindrome" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="B69" r:id="rId52" tooltip="Gas Station" display="https://leetcode.com/problems/gas-station" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="B70" r:id="rId53" tooltip="Candy" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="B71" r:id="rId54" tooltip="Reverse Words in a String" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="B72" r:id="rId55" tooltip="Find Minimum in Rotated Sorted Array" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="B73" r:id="rId56" tooltip="Find Minimum in Rotated Sorted Array II" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="B75" r:id="rId57" tooltip="Read N Characters Given Read4 II - Call multiple times" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="B74" r:id="rId58" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="B76" r:id="rId59" tooltip="Longest Substring with At Most Two Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="B77" r:id="rId60" tooltip="Find Peak Element" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="B78" r:id="rId61" tooltip="Missing Ranges" display="https://leetcode.com/problems/missing-ranges" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B79" r:id="rId62" tooltip="Compare Version Numbers" display="https://leetcode.com/problems/compare-version-numbers" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B80" r:id="rId63" tooltip="Two Sum II - Input array is sorted" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="B81" r:id="rId64" tooltip="Excel Sheet Column Title" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="B82" r:id="rId65" tooltip="Rotate Array" display="https://leetcode.com/problems/rotate-array" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
-    <hyperlink ref="B83" r:id="rId66" tooltip="Implement Trie (Prefix Tree)" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
-    <hyperlink ref="B84" r:id="rId67" tooltip="Minimum Size Subarray Sum" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
-    <hyperlink ref="B85" r:id="rId68" tooltip="Kth Largest Element in an Array" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
-    <hyperlink ref="B86" r:id="rId69" tooltip="Combination Sum III" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
-    <hyperlink ref="B88" r:id="rId70" tooltip="The Skyline Problem" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
-    <hyperlink ref="B87" r:id="rId71" tooltip="Contains Duplicate" display="https://leetcode.com/problems/contains-duplicate" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
-    <hyperlink ref="B90" r:id="rId72" tooltip="Basic Calculator II" display="https://leetcode.com/problems/basic-calculator-ii" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
-    <hyperlink ref="B91" r:id="rId73" tooltip="Summary Ranges" display="https://leetcode.com/problems/summary-ranges" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
-    <hyperlink ref="B92" r:id="rId74" tooltip="Product of Array Except Self" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
-    <hyperlink ref="B93" r:id="rId75" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
-    <hyperlink ref="B94" r:id="rId76" tooltip="Search a 2D Matrix II" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
-    <hyperlink ref="B95" r:id="rId77" tooltip="Valid Anagram" display="https://leetcode.com/problems/valid-anagram" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
-    <hyperlink ref="B97" r:id="rId78" tooltip="Shortest Word Distance" display="https://leetcode.com/problems/shortest-word-distance" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
-    <hyperlink ref="B100" r:id="rId79" tooltip="Palindrome Permutation" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
-    <hyperlink ref="B101" r:id="rId80" tooltip="Missing Number" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
-    <hyperlink ref="B102" r:id="rId81" tooltip="Encode and Decode Strings" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
-    <hyperlink ref="B106" r:id="rId82" tooltip="Wiggle Sort" display="https://leetcode.com/problems/wiggle-sort" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
-    <hyperlink ref="B105" r:id="rId83" tooltip="Perfect Squares" display="https://leetcode.com/problems/perfect-squares" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
-    <hyperlink ref="B104" r:id="rId84" tooltip="First Bad Version" display="https://leetcode.com/problems/first-bad-version" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
-    <hyperlink ref="B103" r:id="rId85" tooltip="Find the Celebrity" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
-    <hyperlink ref="B107" r:id="rId86" tooltip="Move Zeroes" display="https://leetcode.com/problems/move-zeroes" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
-    <hyperlink ref="B109" r:id="rId87" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
-    <hyperlink ref="B110" r:id="rId88" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
-    <hyperlink ref="B111" r:id="rId89" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
-    <hyperlink ref="B112" r:id="rId90" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
-    <hyperlink ref="B113" r:id="rId91" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
-    <hyperlink ref="B114" r:id="rId92" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
-    <hyperlink ref="B115" r:id="rId93" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
-    <hyperlink ref="B116" r:id="rId94" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
-    <hyperlink ref="B117" r:id="rId95" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
-    <hyperlink ref="B118" r:id="rId96" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
-    <hyperlink ref="B119" r:id="rId97" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
-    <hyperlink ref="B120" r:id="rId98" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
-    <hyperlink ref="B121" r:id="rId99" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
-    <hyperlink ref="B122" r:id="rId100" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
-    <hyperlink ref="B123" r:id="rId101" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
-    <hyperlink ref="B124" r:id="rId102" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
-    <hyperlink ref="B125" r:id="rId103" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
-    <hyperlink ref="B126" r:id="rId104" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
-    <hyperlink ref="B127" r:id="rId105" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
-    <hyperlink ref="B128" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
-    <hyperlink ref="B223" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="B34" r:id="rId22" tooltip="Generate Parentheses" display="https://leetcode.com/problems/generate-parentheses" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="B35" r:id="rId23" tooltip="Next Permutation" display="https://leetcode.com/problems/next-permutation" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B37" r:id="rId24" tooltip="Find First and Last Position of Element in Sorted Array" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="B36" r:id="rId25" tooltip="Search in Rotated Sorted Array" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B38" r:id="rId26" tooltip="Search Insert Position" display="https://leetcode.com/problems/search-insert-position" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="B39" r:id="rId27" tooltip="Count and Say" display="https://leetcode.com/problems/count-and-say" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B40" r:id="rId28" tooltip="Combination Sum" display="https://leetcode.com/problems/combination-sum" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="B41" r:id="rId29" tooltip="Combination Sum II" display="https://leetcode.com/problems/combination-sum-ii" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B42" r:id="rId30" tooltip="Rotate Image" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="B43" r:id="rId31" tooltip="Jump Game II" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B44" r:id="rId32" tooltip="First Missing Positive" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="B45" r:id="rId33" tooltip="Group Anagrams" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B46" r:id="rId34" tooltip="Spiral Matrix" display="https://leetcode.com/problems/spiral-matrix" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="B50" r:id="rId35" tooltip="Insert Interval" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B52" r:id="rId36" tooltip="Spiral Matrix II" display="https://leetcode.com/problems/spiral-matrix-ii" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B51" r:id="rId37" tooltip="Length of Last Word" display="https://leetcode.com/problems/length-of-last-word" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="B53" r:id="rId38" tooltip="Plus One" display="https://leetcode.com/problems/plus-one" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B54" r:id="rId39" tooltip="Text Justification" display="https://leetcode.com/problems/text-justification" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="B59" r:id="rId40" tooltip="Minimum Window Substring" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B58" r:id="rId41" tooltip="Sort Colors" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="B57" r:id="rId42" tooltip="Search a 2D Matrix" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B56" r:id="rId43" tooltip="Set Matrix Zeroes" display="https://leetcode.com/problems/set-matrix-zeroes" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="B55" r:id="rId44" tooltip="Simplify Path" display="https://leetcode.com/problems/simplify-path" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B61" r:id="rId45" tooltip="Maximal Rectangle" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B60" r:id="rId46" tooltip="Search in Rotated Sorted Array II" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B62" r:id="rId47" tooltip="Subsets II" display="https://leetcode.com/problems/subsets-ii" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="B63" r:id="rId48" tooltip="Pascal's Triangle" display="https://leetcode.com/problems/pascals-triangle" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B64" r:id="rId49" tooltip="Pascal's Triangle II" display="https://leetcode.com/problems/pascals-triangle-ii" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="B65" r:id="rId50" tooltip="Longest Consecutive Sequence" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B67" r:id="rId51" tooltip="Valid Palindrome" display="https://leetcode.com/problems/valid-palindrome" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B70" r:id="rId52" tooltip="Gas Station" display="https://leetcode.com/problems/gas-station" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="B71" r:id="rId53" tooltip="Candy" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B72" r:id="rId54" tooltip="Reverse Words in a String" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="B73" r:id="rId55" tooltip="Find Minimum in Rotated Sorted Array" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B74" r:id="rId56" tooltip="Find Minimum in Rotated Sorted Array II" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="B76" r:id="rId57" tooltip="Read N Characters Given Read4 II - Call multiple times" display="https://leetcode.com/problems/read-n-characters-given-read4-ii-call-multiple-times" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B75" r:id="rId58" tooltip="Read N Characters Given Read4" display="https://leetcode.com/problems/read-n-characters-given-read4" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="B77" r:id="rId59" tooltip="Longest Substring with At Most Two Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B78" r:id="rId60" tooltip="Find Peak Element" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="B79" r:id="rId61" tooltip="Missing Ranges" display="https://leetcode.com/problems/missing-ranges" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B80" r:id="rId62" tooltip="Compare Version Numbers" display="https://leetcode.com/problems/compare-version-numbers" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B81" r:id="rId63" tooltip="Two Sum II - Input array is sorted" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="B82" r:id="rId64" tooltip="Excel Sheet Column Title" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B83" r:id="rId65" tooltip="Rotate Array" display="https://leetcode.com/problems/rotate-array" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B84" r:id="rId66" tooltip="Implement Trie (Prefix Tree)" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B85" r:id="rId67" tooltip="Minimum Size Subarray Sum" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="B86" r:id="rId68" tooltip="Kth Largest Element in an Array" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="B87" r:id="rId69" tooltip="Combination Sum III" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B89" r:id="rId70" tooltip="The Skyline Problem" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="B88" r:id="rId71" tooltip="Contains Duplicate" display="https://leetcode.com/problems/contains-duplicate" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B91" r:id="rId72" tooltip="Basic Calculator II" display="https://leetcode.com/problems/basic-calculator-ii" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="B92" r:id="rId73" tooltip="Summary Ranges" display="https://leetcode.com/problems/summary-ranges" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B93" r:id="rId74" tooltip="Product of Array Except Self" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="B94" r:id="rId75" tooltip="Sliding Window Maximum" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B95" r:id="rId76" tooltip="Search a 2D Matrix II" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="B96" r:id="rId77" tooltip="Valid Anagram" display="https://leetcode.com/problems/valid-anagram" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B98" r:id="rId78" tooltip="Shortest Word Distance" display="https://leetcode.com/problems/shortest-word-distance" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B101" r:id="rId79" tooltip="Palindrome Permutation" display="https://leetcode.com/problems/palindrome-permutation" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="B102" r:id="rId80" tooltip="Missing Number" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B103" r:id="rId81" tooltip="Encode and Decode Strings" display="https://leetcode.com/problems/encode-and-decode-strings" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="B107" r:id="rId82" tooltip="Wiggle Sort" display="https://leetcode.com/problems/wiggle-sort" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="B106" r:id="rId83" tooltip="Perfect Squares" display="https://leetcode.com/problems/perfect-squares" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="B105" r:id="rId84" tooltip="First Bad Version" display="https://leetcode.com/problems/first-bad-version" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId85" tooltip="Find the Celebrity" display="https://leetcode.com/problems/find-the-celebrity" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="B108" r:id="rId86" tooltip="Move Zeroes" display="https://leetcode.com/problems/move-zeroes" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="B110" r:id="rId87" tooltip="Word Pattern" display="https://leetcode.com/problems/word-pattern" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="B111" r:id="rId88" tooltip="Best Meeting Point" display="https://leetcode.com/problems/best-meeting-point" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="B112" r:id="rId89" tooltip="Find Median from Data Stream" display="https://leetcode.com/problems/find-median-from-data-stream" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="B113" r:id="rId90" tooltip="Find And Replace in String" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="B114" r:id="rId91" tooltip="Sparse Matrix Multiplication" display="https://leetcode.com/problems/sparse-matrix-multiplication" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="B115" r:id="rId92" tooltip="Remove Duplicate Letters" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="B116" r:id="rId93" tooltip="Maximum Size Subarray Sum Equals k" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="B117" r:id="rId94" tooltip="Count of Range Sum" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="B118" r:id="rId95" tooltip="Burst Balloons" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="B119" r:id="rId96" tooltip="Palindrome Pairs" display="https://leetcode.com/problems/palindrome-pairs" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="B120" r:id="rId97" tooltip="Longest Substring with At Most K Distinct Characters" display="https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="B121" r:id="rId98" tooltip="Increasing Triplet Subsequence" display="https://leetcode.com/problems/increasing-triplet-subsequence" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="B122" r:id="rId99" tooltip="Top K Frequent Elements" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="B123" r:id="rId100" tooltip="Intersection of Two Arrays" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="B124" r:id="rId101" tooltip="Reverse String" display="https://leetcode.com/problems/reverse-string" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="B125" r:id="rId102" tooltip="Reverse Vowels of a String" display="https://leetcode.com/problems/reverse-vowels-of-a-string" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="B126" r:id="rId103" tooltip="Data Stream as Disjoint Intervals" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="B127" r:id="rId104" tooltip="Line Reflection" display="https://leetcode.com/problems/line-reflection" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="B128" r:id="rId105" tooltip="Rearrange String k Distance Apart" display="https://leetcode.com/problems/rearrange-string-k-distance-apart" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="B129" r:id="rId106" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="B224" r:id="rId107" tooltip="Minimum Operations to Reduce X to Zero" display="https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
     <hyperlink ref="G23" r:id="rId108" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
-    <hyperlink ref="B67" r:id="rId109" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
-    <hyperlink ref="D67" r:id="rId110" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
-    <hyperlink ref="B224" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
-    <hyperlink ref="B225" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
-    <hyperlink ref="B210" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
-    <hyperlink ref="B129" r:id="rId114" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
-    <hyperlink ref="B131" r:id="rId115" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
-    <hyperlink ref="B130" r:id="rId116" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
-    <hyperlink ref="B132" r:id="rId117" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
-    <hyperlink ref="B217" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
-    <hyperlink ref="B192" r:id="rId119" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
-    <hyperlink ref="B221" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
-    <hyperlink ref="B133" r:id="rId121" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
-    <hyperlink ref="B135" r:id="rId122" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
-    <hyperlink ref="B136" r:id="rId123" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
-    <hyperlink ref="B137" r:id="rId124" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
-    <hyperlink ref="B138" r:id="rId125" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
-    <hyperlink ref="B134" r:id="rId126" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
-    <hyperlink ref="B140" r:id="rId127" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
-    <hyperlink ref="B141" r:id="rId128" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
-    <hyperlink ref="B139" r:id="rId129" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
-    <hyperlink ref="B142" r:id="rId130" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
-    <hyperlink ref="B146" r:id="rId131" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
-    <hyperlink ref="D146" r:id="rId132" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
-    <hyperlink ref="B144" r:id="rId133" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
-    <hyperlink ref="D144" r:id="rId134" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
-    <hyperlink ref="B145" r:id="rId135" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
-    <hyperlink ref="D145" r:id="rId136" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
-    <hyperlink ref="B147" r:id="rId137" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
-    <hyperlink ref="B143" r:id="rId138" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
-    <hyperlink ref="B151" r:id="rId139" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
-    <hyperlink ref="D151" r:id="rId140" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
-    <hyperlink ref="B153" r:id="rId141" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
-    <hyperlink ref="B154" r:id="rId142" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
-    <hyperlink ref="B150" r:id="rId143" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
-    <hyperlink ref="D150" r:id="rId144" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
-    <hyperlink ref="B148" r:id="rId145" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
-    <hyperlink ref="B149" r:id="rId146" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
-    <hyperlink ref="B158" r:id="rId147" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
-    <hyperlink ref="B157" r:id="rId148" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
-    <hyperlink ref="B155" r:id="rId149" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
-    <hyperlink ref="B170" r:id="rId150" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
-    <hyperlink ref="B160" r:id="rId151" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
-    <hyperlink ref="D160" r:id="rId152" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
-    <hyperlink ref="B159" r:id="rId153" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
-    <hyperlink ref="B163" r:id="rId154" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
-    <hyperlink ref="D163" r:id="rId155" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
-    <hyperlink ref="B162" r:id="rId156" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
-    <hyperlink ref="D162" r:id="rId157" tooltip="Array" display="Array - Cycle Sort" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
-    <hyperlink ref="B165" r:id="rId158" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B164" r:id="rId159" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
-    <hyperlink ref="B187" r:id="rId160" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
-    <hyperlink ref="B228" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
-    <hyperlink ref="B232" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
-    <hyperlink ref="B233" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
-    <hyperlink ref="B176" r:id="rId164" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
-    <hyperlink ref="B46" r:id="rId165" tooltip="Maximum Subarray" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="B48" r:id="rId166" tooltip="Jump Game" display="https://leetcode.com/problems/jump-game" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B47" r:id="rId167" xr:uid="{DFB65389-C1B1-4C39-9147-A098CAA5A5B4}"/>
-    <hyperlink ref="B234" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
-    <hyperlink ref="B213" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
-    <hyperlink ref="B237" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
-    <hyperlink ref="B236" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
-    <hyperlink ref="B238" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
-    <hyperlink ref="B180" r:id="rId173" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
-    <hyperlink ref="B204" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
-    <hyperlink ref="B167" r:id="rId175" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
-    <hyperlink ref="B240" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
-    <hyperlink ref="B191" r:id="rId177" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
-    <hyperlink ref="B174" r:id="rId178" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
-    <hyperlink ref="B182" r:id="rId179" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
-    <hyperlink ref="B183" r:id="rId180" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
-    <hyperlink ref="B202" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
-    <hyperlink ref="B207" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
-    <hyperlink ref="B196" r:id="rId183" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
-    <hyperlink ref="B185" r:id="rId184" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
-    <hyperlink ref="B242" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
-    <hyperlink ref="D165" r:id="rId186" tooltip="Array" display="Array - Cycle Sort" xr:uid="{EC859E2B-D057-4073-B6B6-56C581737270}"/>
-    <hyperlink ref="D43" r:id="rId187" tooltip="Array" display="Array - Cycle Sort" xr:uid="{BB4333F9-0415-4B35-BDCA-391F8221A435}"/>
-    <hyperlink ref="B245" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
-    <hyperlink ref="B98" r:id="rId189" xr:uid="{18634FC0-6758-4823-8652-EE3AB41D1753}"/>
-    <hyperlink ref="B99" r:id="rId190" xr:uid="{E0674819-E9CA-4C82-9425-251748605BDB}"/>
-    <hyperlink ref="B169" r:id="rId191" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
-    <hyperlink ref="B172" r:id="rId192" tooltip="Sort Characters By Frequency" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
+    <hyperlink ref="B68" r:id="rId109" tooltip="Valid Palindrome II" display="https://leetcode.com/problems/valid-palindrome-ii" xr:uid="{00000000-0004-0000-0900-00000E000000}"/>
+    <hyperlink ref="D68" r:id="rId110" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00000F000000}"/>
+    <hyperlink ref="B225" r:id="rId111" xr:uid="{BACEB93C-F5DE-4E16-A7C1-172B2C1E334A}"/>
+    <hyperlink ref="B226" r:id="rId112" display=" Determine if Two Strings Are Close" xr:uid="{A96DCEEC-C632-46E5-9137-3E8552F9A331}"/>
+    <hyperlink ref="B211" r:id="rId113" tooltip="Sort the Matrix Diagonally" display="https://leetcode.com/problems/sort-the-matrix-diagonally" xr:uid="{206E88F7-0168-4E3A-ACC2-0CBAE18BCB31}"/>
+    <hyperlink ref="B130" r:id="rId114" tooltip="Valid Perfect Square" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{FF7D7F12-BCD8-4023-BA50-5BC2988091D4}"/>
+    <hyperlink ref="B132" r:id="rId115" tooltip="Kth Smallest Element in a Sorted Matrix" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0A00-000038010000}"/>
+    <hyperlink ref="B131" r:id="rId116" tooltip="Find K Pairs with Smallest Sums" display="https://leetcode.com/problems/find-k-pairs-with-smallest-sums" xr:uid="{00000000-0004-0000-0A00-000036010000}"/>
+    <hyperlink ref="B133" r:id="rId117" tooltip="Insert Delete GetRandom O(1)" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0A00-00003A010000}"/>
+    <hyperlink ref="B218" r:id="rId118" xr:uid="{EFB12585-99AB-4B98-A84D-A057AB537EF2}"/>
+    <hyperlink ref="B193" r:id="rId119" tooltip="Minimum Cost to Hire K Workers" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B222" r:id="rId120" tooltip="Path With Minimum Effort" display="https://leetcode.com/problems/path-with-minimum-effort" xr:uid="{0BBAC3A0-88EF-495E-AD7C-0239E6228A71}"/>
+    <hyperlink ref="B134" r:id="rId121" tooltip="Insert Delete GetRandom O(1) - Duplicates allowed" display="https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed" xr:uid="{00000000-0004-0000-0900-00001F000000}"/>
+    <hyperlink ref="B136" r:id="rId122" tooltip="Shuffle an Array" display="https://leetcode.com/problems/shuffle-an-array" xr:uid="{00000000-0004-0000-0900-000015000000}"/>
+    <hyperlink ref="B137" r:id="rId123" tooltip="First Unique Character in a String" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0900-000020000000}"/>
+    <hyperlink ref="B138" r:id="rId124" tooltip="Longest Absolute File Path" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0900-000083000000}"/>
+    <hyperlink ref="B139" r:id="rId125" tooltip="Find the Difference" display="https://leetcode.com/problems/find-the-difference" xr:uid="{2E8B33A4-F616-46BA-85A7-2FE5383684F2}"/>
+    <hyperlink ref="B135" r:id="rId126" tooltip="Ransom Note" display="https://leetcode.com/problems/ransom-note" xr:uid="{58B08EBF-1525-42FD-BA4E-91F61F2637E3}"/>
+    <hyperlink ref="B141" r:id="rId127" tooltip="UTF-8 Validation" display="https://leetcode.com/problems/utf-8-validation" xr:uid="{00000000-0004-0000-0A00-000041010000}"/>
+    <hyperlink ref="B142" r:id="rId128" tooltip="Decode String" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0900-00004D000000}"/>
+    <hyperlink ref="B140" r:id="rId129" tooltip="Is Subsequence" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0900-000005000000}"/>
+    <hyperlink ref="B143" r:id="rId130" tooltip="Longest Substring with At Least K Repeating Characters" display="https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters" xr:uid="{00000000-0004-0000-0900-000003000000}"/>
+    <hyperlink ref="B147" r:id="rId131" tooltip="Valid Word Abbreviation" display="https://leetcode.com/problems/valid-word-abbreviation" xr:uid="{00000000-0004-0000-0900-000021000000}"/>
+    <hyperlink ref="D147" r:id="rId132" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000022000000}"/>
+    <hyperlink ref="B145" r:id="rId133" tooltip="Convert a Number to Hexadecimal" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal" xr:uid="{00000000-0004-0000-0900-00007B000000}"/>
+    <hyperlink ref="D145" r:id="rId134" tooltip="Bit Manipulation" display="https://leetcode.com/tag/bit-manipulation" xr:uid="{00000000-0004-0000-0900-00007C000000}"/>
+    <hyperlink ref="B146" r:id="rId135" tooltip="Queue Reconstruction by Height" display="https://leetcode.com/problems/queue-reconstruction-by-height" xr:uid="{00000000-0004-0000-0900-000030010000}"/>
+    <hyperlink ref="D146" r:id="rId136" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000031010000}"/>
+    <hyperlink ref="B148" r:id="rId137" tooltip="Longest Palindrome" display="https://leetcode.com/problems/longest-palindrome" xr:uid="{00000000-0004-0000-0A00-000048010000}"/>
+    <hyperlink ref="B144" r:id="rId138" tooltip="Remove K Digits" display="https://leetcode.com/problems/remove-k-digits" xr:uid="{00000000-0004-0000-0900-0000A5000000}"/>
+    <hyperlink ref="B152" r:id="rId139" tooltip="Add Strings" display="https://leetcode.com/problems/add-strings" xr:uid="{00000000-0004-0000-0900-00002C000000}"/>
+    <hyperlink ref="D152" r:id="rId140" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-00002D000000}"/>
+    <hyperlink ref="B154" r:id="rId141" tooltip="Battleships in a Board" display="https://leetcode.com/problems/battleships-in-a-board" xr:uid="{00000000-0004-0000-0900-000052000000}"/>
+    <hyperlink ref="B155" r:id="rId142" tooltip="Strong Password Checker" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0900-000076000000}"/>
+    <hyperlink ref="B151" r:id="rId143" tooltip="Third Maximum Number" display="https://leetcode.com/problems/third-maximum-number" xr:uid="{00000000-0004-0000-0900-000079000000}"/>
+    <hyperlink ref="D151" r:id="rId144" tooltip="Array" display="https://leetcode.com/tag/array" xr:uid="{00000000-0004-0000-0900-00007A000000}"/>
+    <hyperlink ref="B149" r:id="rId145" tooltip="Fizz Buzz" display="https://leetcode.com/problems/fizz-buzz" xr:uid="{00000000-0004-0000-0B00-00003E000000}"/>
+    <hyperlink ref="B150" r:id="rId146" tooltip="Arithmetic Slices" display="https://leetcode.com/problems/arithmetic-slices" xr:uid="{00000000-0004-0000-0B00-00004A000000}"/>
+    <hyperlink ref="B159" r:id="rId147" tooltip="Convert Binary Search Tree to Sorted Doubly Linked List" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0900-000053000000}"/>
+    <hyperlink ref="B158" r:id="rId148" tooltip="Longest Repeating Character Replacement" display="https://leetcode.com/problems/longest-repeating-character-replacement" xr:uid="{00000000-0004-0000-0900-000020010000}"/>
+    <hyperlink ref="B156" r:id="rId149" tooltip="Maximum XOR of Two Numbers in an Array" display="https://leetcode.com/problems/maximum-xor-of-two-numbers-in-an-array" xr:uid="{00000000-0004-0000-0B00-00009F000000}"/>
+    <hyperlink ref="B171" r:id="rId150" tooltip="Find All Anagrams in a String" display="https://leetcode.com/problems/find-all-anagrams-in-a-string" xr:uid="{00000000-0004-0000-0900-000018000000}"/>
+    <hyperlink ref="B161" r:id="rId151" tooltip="Non-overlapping Intervals" display="https://leetcode.com/problems/non-overlapping-intervals" xr:uid="{00000000-0004-0000-0900-000036000000}"/>
+    <hyperlink ref="D161" r:id="rId152" tooltip="Greedy" display="https://leetcode.com/tag/greedy" xr:uid="{00000000-0004-0000-0900-000037000000}"/>
+    <hyperlink ref="B160" r:id="rId153" tooltip="Minimum Genetic Mutation" display="https://leetcode.com/problems/minimum-genetic-mutation" xr:uid="{00000000-0004-0000-0B00-000009000000}"/>
+    <hyperlink ref="B164" r:id="rId154" tooltip="String Compression" display="https://leetcode.com/problems/string-compression" xr:uid="{00000000-0004-0000-0900-000046000000}"/>
+    <hyperlink ref="D164" r:id="rId155" tooltip="String" display="https://leetcode.com/tag/string" xr:uid="{00000000-0004-0000-0900-000047000000}"/>
+    <hyperlink ref="B163" r:id="rId156" tooltip="Find All Duplicates in an Array" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0900-000072000000}"/>
+    <hyperlink ref="D163" r:id="rId157" tooltip="Array" display="Array - Cycle Sort" xr:uid="{00000000-0004-0000-0900-000073000000}"/>
+    <hyperlink ref="B166" r:id="rId158" tooltip="Find All Numbers Disappeared in an Array" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
+    <hyperlink ref="B165" r:id="rId159" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-00000E010000}"/>
+    <hyperlink ref="B188" r:id="rId160" xr:uid="{AE48C72D-45A0-4982-B8FC-2537EA14ED5E}"/>
+    <hyperlink ref="B229" r:id="rId161" xr:uid="{171A50CB-172B-4A6C-9CE2-D352891C819A}"/>
+    <hyperlink ref="B233" r:id="rId162" xr:uid="{909CA8CA-ED3B-4830-8C14-B5EFAA27754C}"/>
+    <hyperlink ref="B234" r:id="rId163" xr:uid="{BDDB29C4-992A-495F-A230-3AE8A6233862}"/>
+    <hyperlink ref="B177" r:id="rId164" xr:uid="{63C8CFA5-0546-4115-A10C-25EB2157EE1E}"/>
+    <hyperlink ref="B47" r:id="rId165" tooltip="Maximum Subarray" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="B49" r:id="rId166" tooltip="Jump Game" display="https://leetcode.com/problems/jump-game" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="B48" r:id="rId167" xr:uid="{DFB65389-C1B1-4C39-9147-A098CAA5A5B4}"/>
+    <hyperlink ref="B235" r:id="rId168" xr:uid="{913FC0C6-D7E0-4790-B06C-1F8EB53F2663}"/>
+    <hyperlink ref="B214" r:id="rId169" tooltip="Maximum Number of Events That Can Be Attended" display="https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended" xr:uid="{3705FBCF-3DC9-435A-B1F1-D55E58750C36}"/>
+    <hyperlink ref="B238" r:id="rId170" xr:uid="{7C124EB4-FCB8-40F6-9016-2772B6DB8182}"/>
+    <hyperlink ref="B237" r:id="rId171" xr:uid="{C7D3710F-0B26-492F-AD9B-411507A19323}"/>
+    <hyperlink ref="B239" r:id="rId172" xr:uid="{A9ABD322-A6E2-4FB0-85BF-17BD635F8E6D}"/>
+    <hyperlink ref="B181" r:id="rId173" tooltip="Task Scheduler" display="https://leetcode.com/problems/task-scheduler" xr:uid="{F52BBBBD-9E86-460E-9134-7E96E092C639}"/>
+    <hyperlink ref="B205" r:id="rId174" tooltip="Minimum Remove to Make Valid Parentheses" display="https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses" xr:uid="{00000000-0004-0000-0B00-00001B010000}"/>
+    <hyperlink ref="B168" r:id="rId175" display=" Longest Word in Dictionary through Deleting" xr:uid="{F748044C-A600-4905-85BF-CE97FBC7566D}"/>
+    <hyperlink ref="B241" r:id="rId176" xr:uid="{CCA695F7-F17E-42F6-BCBD-9F09E3ED35D4}"/>
+    <hyperlink ref="B192" r:id="rId177" xr:uid="{F08EFA73-787B-46CE-8655-7B35683831CD}"/>
+    <hyperlink ref="B175" r:id="rId178" tooltip="Shortest Unsorted Continuous Subarray" display="https://leetcode.com/problems/shortest-unsorted-continuous-subarray" xr:uid="{00000000-0004-0000-0A00-00007E010000}"/>
+    <hyperlink ref="B183" r:id="rId179" tooltip="Maximum Average Subarray I" display="https://leetcode.com/problems/maximum-average-subarray-i" xr:uid="{00000000-0004-0000-0B00-000015000000}"/>
+    <hyperlink ref="B184" r:id="rId180" xr:uid="{71CE0183-3483-4EDE-B9E1-704846467E00}"/>
+    <hyperlink ref="B203" r:id="rId181" tooltip="Validate Stack Sequences" display="https://leetcode.com/problems/validate-stack-sequences" xr:uid="{00000000-0004-0000-0B00-00009E000000}"/>
+    <hyperlink ref="B208" r:id="rId182" xr:uid="{AB558246-E896-4936-B93E-052A1A61B912}"/>
+    <hyperlink ref="B197" r:id="rId183" xr:uid="{E04EF034-14BA-4FC9-B95E-411C5C43E9D9}"/>
+    <hyperlink ref="B186" r:id="rId184" tooltip="Partition Labels" display="https://leetcode.com/problems/partition-labels" xr:uid="{00000000-0004-0000-0B00-000008000000}"/>
+    <hyperlink ref="B243" r:id="rId185" xr:uid="{5194CA1A-D801-4282-AE99-888FC604BD84}"/>
+    <hyperlink ref="D166" r:id="rId186" tooltip="Array" display="Array - Cycle Sort" xr:uid="{EC859E2B-D057-4073-B6B6-56C581737270}"/>
+    <hyperlink ref="D44" r:id="rId187" tooltip="Array" display="Array - Cycle Sort" xr:uid="{BB4333F9-0415-4B35-BDCA-391F8221A435}"/>
+    <hyperlink ref="B246" r:id="rId188" xr:uid="{D5875D2B-4D62-42CA-8F18-4B771483B439}"/>
+    <hyperlink ref="B99" r:id="rId189" xr:uid="{18634FC0-6758-4823-8652-EE3AB41D1753}"/>
+    <hyperlink ref="B100" r:id="rId190" xr:uid="{E0674819-E9CA-4C82-9425-251748605BDB}"/>
+    <hyperlink ref="B170" r:id="rId191" tooltip="Permutation in String" display="https://leetcode.com/problems/permutation-in-string" xr:uid="{00000000-0004-0000-0900-000008000000}"/>
+    <hyperlink ref="B173" r:id="rId192" tooltip="Sort Characters By Frequency" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
     <hyperlink ref="B18" r:id="rId193" xr:uid="{4E883AB7-6682-4E69-AFAA-9423B445CB67}"/>
-    <hyperlink ref="B219" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
-    <hyperlink ref="B194" r:id="rId195" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
-    <hyperlink ref="B198" r:id="rId196" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
-    <hyperlink ref="B156" r:id="rId197" xr:uid="{0099B707-15B6-4A46-A50F-7BF0C5238231}"/>
-    <hyperlink ref="B108" r:id="rId198" tooltip="Find the Duplicate Number" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B220" r:id="rId194" tooltip="Number of Subsequences That Satisfy the Given Sum Condition" display="https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition" xr:uid="{00000000-0004-0000-0900-00003E010000}"/>
+    <hyperlink ref="B195" r:id="rId195" tooltip="Advantage Shuffle" display="https://leetcode.com/problems/advantage-shuffle" xr:uid="{00000000-0004-0000-0900-00002F010000}"/>
+    <hyperlink ref="B199" r:id="rId196" tooltip="Word Subsets" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0B00-000033010000}"/>
+    <hyperlink ref="B157" r:id="rId197" xr:uid="{0099B707-15B6-4A46-A50F-7BF0C5238231}"/>
+    <hyperlink ref="B109" r:id="rId198" tooltip="Find the Duplicate Number" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="B33" r:id="rId199" tooltip="Longest Valid Parentheses" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId199"/>
-  <drawing r:id="rId200"/>
-  <legacyDrawing r:id="rId201"/>
+  <pageSetup orientation="portrait" r:id="rId200"/>
+  <drawing r:id="rId201"/>
+  <legacyDrawing r:id="rId202"/>
 </worksheet>
 </file>
 
@@ -48675,69 +48952,69 @@
       <c r="B33" t="s">
         <v>1526</v>
       </c>
-      <c r="E33" s="204" t="s">
+      <c r="E33" s="207" t="s">
         <v>1533</v>
       </c>
-      <c r="F33" s="205"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="205"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="208"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>1527</v>
       </c>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="208"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>1528</v>
       </c>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="208"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="208"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>1529</v>
       </c>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="208"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="208"/>
+      <c r="I36" s="208"/>
+      <c r="J36" s="208"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>1530</v>
       </c>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="208"/>
+      <c r="J37" s="208"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>1527</v>
       </c>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
@@ -50932,8 +51209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A5:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -51033,19 +51310,6 @@
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1">
-      <c r="A13" s="54">
-        <v>32</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-    </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14" s="54">
         <v>44</v>
@@ -52427,42 +52691,42 @@
       <c r="B127" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E18 E20:E56">
+  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E12 E20:E56 E14:E18">
     <cfRule type="containsText" dxfId="79" priority="46" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH(("Hard"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E18 E20:E56">
+  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E12 E20:E56 E14:E18">
     <cfRule type="containsText" dxfId="78" priority="47" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH(("Medium"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E18 E20:E56">
+  <conditionalFormatting sqref="E58:E68 E70:E84 E86:E91 E93:E96 E103:E108 E110:E123 E98:E101 E10:E12 E20:E56 E14:E18">
     <cfRule type="containsText" dxfId="77" priority="48" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH(("Easy"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F18 F20:F56">
+  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F12 F20:F56 F14:F18">
     <cfRule type="notContainsBlanks" dxfId="76" priority="41">
       <formula>LEN(TRIM(F10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F18 F20:F56">
+  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F12 F20:F56 F14:F18">
     <cfRule type="containsText" dxfId="75" priority="42" operator="containsText" text="Revisit Later">
       <formula>NOT(ISERROR(SEARCH(("Revisit Later"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F18 F20:F56">
+  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F12 F20:F56 F14:F18">
     <cfRule type="containsText" dxfId="74" priority="43" operator="containsText" text="Practice Later">
       <formula>NOT(ISERROR(SEARCH(("Practice Later"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F18 F20:F56">
+  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F12 F20:F56 F14:F18">
     <cfRule type="containsText" dxfId="73" priority="44" operator="containsText" text="Good To Go">
       <formula>NOT(ISERROR(SEARCH(("Good To Go"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F18 F20:F56">
+  <conditionalFormatting sqref="F58:F68 F70:F84 F86:F91 F93:F96 F103:F108 F110:F123 F98:F101 F10:F12 F20:F56 F14:F18">
     <cfRule type="containsText" dxfId="72" priority="45" operator="containsText" text="Needs Review">
       <formula>NOT(ISERROR(SEARCH(("Needs Review"),(F10))))</formula>
     </cfRule>
@@ -52668,10 +52932,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E110:E123 E58:E108 E10:E18 E20:E56" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E110:E123 E58:E108 E20:E56 E10:E12 E14:E18" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"Easy,Medium,Hard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F110:F123 F58:F108 F10:F18 F20:F56" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F110:F123 F58:F108 F20:F56 F10:F12 F14:F18" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>"Good to Go,Needs Review,Revisit Later,Did Not Understand,Memorize,Practice Later"</formula1>
     </dataValidation>
   </dataValidations>
@@ -52681,78 +52945,77 @@
     <hyperlink ref="B105" r:id="rId3" tooltip="Minimum Difficulty of a Job Schedule" display="https://leetcode.com/problems/minimum-difficulty-of-a-job-schedule" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
     <hyperlink ref="B12" r:id="rId4" tooltip="Regular Expression Matching" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
     <hyperlink ref="B84" r:id="rId5" tooltip="Longest Palindromic Substring" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="B13" r:id="rId6" tooltip="Longest Valid Parentheses" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId7" tooltip="Wildcard Matching" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="B16" r:id="rId8" tooltip="Unique Paths II" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="B15" r:id="rId9" tooltip="Unique Paths" display="https://leetcode.com/problems/unique-paths" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
-    <hyperlink ref="B17" r:id="rId10" tooltip="Minimum Path Sum" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
-    <hyperlink ref="B18" r:id="rId11" tooltip="Climbing Stairs" display="https://leetcode.com/problems/climbing-stairs" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
-    <hyperlink ref="B93" r:id="rId12" tooltip="Edit Distance" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
-    <hyperlink ref="B22" r:id="rId13" tooltip="Interleaving String" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
-    <hyperlink ref="B21" r:id="rId14" tooltip="Unique Binary Search Trees" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId15" tooltip="Unique Binary Search Trees II" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
-    <hyperlink ref="B23" r:id="rId16" tooltip="Decode Ways" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
-    <hyperlink ref="B25" r:id="rId17" tooltip="Triangle" display="https://leetcode.com/problems/triangle" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
-    <hyperlink ref="B24" r:id="rId18" tooltip="Distinct Subsequences" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
-    <hyperlink ref="B31" r:id="rId19" tooltip="Best Time to Buy and Sell Stock III" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
-    <hyperlink ref="B95" r:id="rId20" tooltip="Palindrome Partitioning" display="https://leetcode.com/problems/palindrome-partitioning" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
-    <hyperlink ref="B96" r:id="rId21" tooltip="Palindrome Partitioning II" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
-    <hyperlink ref="B36" r:id="rId22" tooltip="Word Break" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
-    <hyperlink ref="B37" r:id="rId23" tooltip="Word Break II" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
-    <hyperlink ref="B38" r:id="rId24" tooltip="Maximum Product Subarray" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
-    <hyperlink ref="B32" r:id="rId25" tooltip="Best Time to Buy and Sell Stock IV" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
-    <hyperlink ref="B41" r:id="rId26" tooltip="Reverse Bits" display="https://leetcode.com/problems/reverse-bits" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
-    <hyperlink ref="B42" r:id="rId27" tooltip="House Robber" display="https://leetcode.com/problems/house-robber" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
-    <hyperlink ref="B43" r:id="rId28" tooltip="House Robber II" display="https://leetcode.com/problems/house-robber-ii" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
-    <hyperlink ref="B44" r:id="rId29" tooltip="Contains Duplicate II" display="https://leetcode.com/problems/contains-duplicate-ii" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
-    <hyperlink ref="B45" r:id="rId30" tooltip="Paint House" display="https://leetcode.com/problems/paint-house" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
-    <hyperlink ref="B46" r:id="rId31" tooltip="H-Index" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
-    <hyperlink ref="B47" r:id="rId32" tooltip="Paint Fence" display="https://leetcode.com/problems/paint-fence" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
-    <hyperlink ref="B48" r:id="rId33" tooltip="Longest Increasing Subsequence" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
-    <hyperlink ref="B50" r:id="rId34" tooltip="Bulls and Cows" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
-    <hyperlink ref="B49" r:id="rId35" tooltip="Binary Tree Longest Consecutive Sequence" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
-    <hyperlink ref="B52" r:id="rId36" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
-    <hyperlink ref="B51" r:id="rId37" tooltip="Largest Rectangle in Histogram" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
-    <hyperlink ref="B54" r:id="rId38" tooltip="Range Sum Query 2D - Immutable" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
-    <hyperlink ref="D54" r:id="rId39" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
-    <hyperlink ref="B53" r:id="rId40" tooltip="Range Sum Query - Immutable" display="https://leetcode.com/problems/range-sum-query-immutable" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
-    <hyperlink ref="D53" r:id="rId41" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
-    <hyperlink ref="B30" r:id="rId42" tooltip="Best Time to Buy and Sell Stock with Cooldown" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
-    <hyperlink ref="B56" r:id="rId43" tooltip="Binary Tree Vertical Order Traversal" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
-    <hyperlink ref="B58" r:id="rId44" tooltip="Coin Change" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
-    <hyperlink ref="B59" r:id="rId45" tooltip="House Robber III" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
-    <hyperlink ref="B60" r:id="rId46" tooltip="Counting Bits" display="https://leetcode.com/problems/counting-bits" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
-    <hyperlink ref="B61" r:id="rId47" tooltip="Integer Break" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
-    <hyperlink ref="B62" r:id="rId48" tooltip="Android Unlock Patterns" display="https://leetcode.com/problems/android-unlock-patterns" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
-    <hyperlink ref="B63" r:id="rId49" tooltip="Russian Doll Envelopes" display="https://leetcode.com/problems/russian-doll-envelopes" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
-    <hyperlink ref="B94" r:id="rId50" tooltip="One Edit Distance" display="https://leetcode.com/problems/one-edit-distance" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B64" r:id="rId51" tooltip="Bomb Enemy" display="https://leetcode.com/problems/bomb-enemy" xr:uid="{00000000-0004-0000-0B00-0000BA000000}"/>
-    <hyperlink ref="B65" r:id="rId52" tooltip="Max Sum of Rectangle No Larger Than K" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k" xr:uid="{00000000-0004-0000-0A00-000033010000}"/>
-    <hyperlink ref="B66" r:id="rId53" tooltip="Largest Divisible Subset" display="https://leetcode.com/problems/largest-divisible-subset" xr:uid="{DF2DCD38-612C-4859-8C0D-B2706408CD58}"/>
-    <hyperlink ref="B67" r:id="rId54" tooltip="Guess Number Higher or Lower II" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii" xr:uid="{00000000-0004-0000-0A00-000037010000}"/>
-    <hyperlink ref="B68" r:id="rId55" tooltip="Frog Jump" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0A00-000045010000}"/>
-    <hyperlink ref="B71" r:id="rId56" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0900-000061000000}"/>
-    <hyperlink ref="B72" r:id="rId57" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-000059010000}"/>
-    <hyperlink ref="B98" r:id="rId58" xr:uid="{BE3FB932-0FC8-43E6-8636-B6A5F6EEFFE9}"/>
-    <hyperlink ref="B69" r:id="rId59" tooltip="Split Array Largest Sum" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0900-000075000000}"/>
-    <hyperlink ref="B83" r:id="rId60" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0B00-000034000000}"/>
-    <hyperlink ref="C85" r:id="rId61" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
-    <hyperlink ref="B85" r:id="rId62" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
-    <hyperlink ref="B86" r:id="rId63" xr:uid="{6861A7A4-CA75-48FC-AFF4-1F63D206B659}"/>
-    <hyperlink ref="B87" r:id="rId64" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
-    <hyperlink ref="B88" r:id="rId65" xr:uid="{4F80B710-7B3A-4D02-A28A-63CA139E9B80}"/>
-    <hyperlink ref="B89" r:id="rId66" display="Min Deletions to Make Palindrome" xr:uid="{0BBB8CA8-1F63-499D-BBE8-16943ECC4A96}"/>
-    <hyperlink ref="B103" r:id="rId67" xr:uid="{CE23B343-EBE2-41DB-95C7-EA402C8FAADB}"/>
-    <hyperlink ref="B92" r:id="rId68" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
-    <hyperlink ref="B97" r:id="rId69" tooltip="Shortest Palindrome" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
-    <hyperlink ref="B29" r:id="rId70" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
-    <hyperlink ref="B28" r:id="rId71" tooltip="Best Time to Buy and Sell Stock II" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="A80" r:id="rId72" xr:uid="{03C2ADBD-F883-4731-84FF-AC5C883E91B4}"/>
-    <hyperlink ref="B81" r:id="rId73" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
+    <hyperlink ref="B14" r:id="rId6" tooltip="Wildcard Matching" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="B16" r:id="rId7" tooltip="Unique Paths II" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId8" tooltip="Unique Paths" display="https://leetcode.com/problems/unique-paths" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId9" tooltip="Minimum Path Sum" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId10" tooltip="Climbing Stairs" display="https://leetcode.com/problems/climbing-stairs" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="B93" r:id="rId11" tooltip="Edit Distance" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="B22" r:id="rId12" tooltip="Interleaving String" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId13" tooltip="Unique Binary Search Trees" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="B20" r:id="rId14" tooltip="Unique Binary Search Trees II" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId15" tooltip="Decode Ways" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="B25" r:id="rId16" tooltip="Triangle" display="https://leetcode.com/problems/triangle" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId17" tooltip="Distinct Subsequences" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="B31" r:id="rId18" tooltip="Best Time to Buy and Sell Stock III" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="B95" r:id="rId19" tooltip="Palindrome Partitioning" display="https://leetcode.com/problems/palindrome-partitioning" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="B96" r:id="rId20" tooltip="Palindrome Partitioning II" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="B36" r:id="rId21" tooltip="Word Break" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="B37" r:id="rId22" tooltip="Word Break II" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="B38" r:id="rId23" tooltip="Maximum Product Subarray" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId24" tooltip="Best Time to Buy and Sell Stock IV" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="B41" r:id="rId25" tooltip="Reverse Bits" display="https://leetcode.com/problems/reverse-bits" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="B42" r:id="rId26" tooltip="House Robber" display="https://leetcode.com/problems/house-robber" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="B43" r:id="rId27" tooltip="House Robber II" display="https://leetcode.com/problems/house-robber-ii" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="B44" r:id="rId28" tooltip="Contains Duplicate II" display="https://leetcode.com/problems/contains-duplicate-ii" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="B45" r:id="rId29" tooltip="Paint House" display="https://leetcode.com/problems/paint-house" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="B46" r:id="rId30" tooltip="H-Index" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="B47" r:id="rId31" tooltip="Paint Fence" display="https://leetcode.com/problems/paint-fence" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="B48" r:id="rId32" tooltip="Longest Increasing Subsequence" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="B50" r:id="rId33" tooltip="Bulls and Cows" display="https://leetcode.com/problems/bulls-and-cows" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
+    <hyperlink ref="B49" r:id="rId34" tooltip="Binary Tree Longest Consecutive Sequence" display="https://leetcode.com/problems/binary-tree-longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
+    <hyperlink ref="B52" r:id="rId35" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
+    <hyperlink ref="B51" r:id="rId36" tooltip="Largest Rectangle in Histogram" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
+    <hyperlink ref="B54" r:id="rId37" tooltip="Range Sum Query 2D - Immutable" display="https://leetcode.com/problems/range-sum-query-2d-immutable" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="D54" r:id="rId38" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
+    <hyperlink ref="B53" r:id="rId39" tooltip="Range Sum Query - Immutable" display="https://leetcode.com/problems/range-sum-query-immutable" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
+    <hyperlink ref="D53" r:id="rId40" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
+    <hyperlink ref="B30" r:id="rId41" tooltip="Best Time to Buy and Sell Stock with Cooldown" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
+    <hyperlink ref="B56" r:id="rId42" tooltip="Binary Tree Vertical Order Traversal" display="https://leetcode.com/problems/binary-tree-vertical-order-traversal" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
+    <hyperlink ref="B58" r:id="rId43" tooltip="Coin Change" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
+    <hyperlink ref="B59" r:id="rId44" tooltip="House Robber III" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId45" tooltip="Counting Bits" display="https://leetcode.com/problems/counting-bits" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId46" tooltip="Integer Break" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId47" tooltip="Android Unlock Patterns" display="https://leetcode.com/problems/android-unlock-patterns" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId48" tooltip="Russian Doll Envelopes" display="https://leetcode.com/problems/russian-doll-envelopes" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
+    <hyperlink ref="B94" r:id="rId49" tooltip="One Edit Distance" display="https://leetcode.com/problems/one-edit-distance" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B64" r:id="rId50" tooltip="Bomb Enemy" display="https://leetcode.com/problems/bomb-enemy" xr:uid="{00000000-0004-0000-0B00-0000BA000000}"/>
+    <hyperlink ref="B65" r:id="rId51" tooltip="Max Sum of Rectangle No Larger Than K" display="https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k" xr:uid="{00000000-0004-0000-0A00-000033010000}"/>
+    <hyperlink ref="B66" r:id="rId52" tooltip="Largest Divisible Subset" display="https://leetcode.com/problems/largest-divisible-subset" xr:uid="{DF2DCD38-612C-4859-8C0D-B2706408CD58}"/>
+    <hyperlink ref="B67" r:id="rId53" tooltip="Guess Number Higher or Lower II" display="https://leetcode.com/problems/guess-number-higher-or-lower-ii" xr:uid="{00000000-0004-0000-0A00-000037010000}"/>
+    <hyperlink ref="B68" r:id="rId54" tooltip="Frog Jump" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0A00-000045010000}"/>
+    <hyperlink ref="B71" r:id="rId55" tooltip="Partition Equal Subset Sum" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0900-000061000000}"/>
+    <hyperlink ref="B72" r:id="rId56" tooltip="Arithmetic Slices II - Subsequence" display="https://leetcode.com/problems/arithmetic-slices-ii-subsequence" xr:uid="{00000000-0004-0000-0A00-000059010000}"/>
+    <hyperlink ref="B98" r:id="rId57" xr:uid="{BE3FB932-0FC8-43E6-8636-B6A5F6EEFFE9}"/>
+    <hyperlink ref="B69" r:id="rId58" tooltip="Split Array Largest Sum" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0900-000075000000}"/>
+    <hyperlink ref="B83" r:id="rId59" tooltip="Palindromic Substrings" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0B00-000034000000}"/>
+    <hyperlink ref="C85" r:id="rId60" tooltip="Dynamic Programming" display="https://leetcode.com/tag/dynamic-programming" xr:uid="{00000000-0004-0000-0900-000071000000}"/>
+    <hyperlink ref="B85" r:id="rId61" tooltip="Longest Palindromic Subsequence" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0900-000070000000}"/>
+    <hyperlink ref="B86" r:id="rId62" xr:uid="{6861A7A4-CA75-48FC-AFF4-1F63D206B659}"/>
+    <hyperlink ref="B87" r:id="rId63" tooltip="Shortest Common Supersequence " display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0B00-000073010000}"/>
+    <hyperlink ref="B88" r:id="rId64" xr:uid="{4F80B710-7B3A-4D02-A28A-63CA139E9B80}"/>
+    <hyperlink ref="B89" r:id="rId65" display="Min Deletions to Make Palindrome" xr:uid="{0BBB8CA8-1F63-499D-BBE8-16943ECC4A96}"/>
+    <hyperlink ref="B103" r:id="rId66" xr:uid="{CE23B343-EBE2-41DB-95C7-EA402C8FAADB}"/>
+    <hyperlink ref="B92" r:id="rId67" tooltip="Valid Palindrome III" display="https://leetcode.com/problems/valid-palindrome-iii" xr:uid="{00000000-0004-0000-0900-0000D3000000}"/>
+    <hyperlink ref="B97" r:id="rId68" tooltip="Shortest Palindrome" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="B29" r:id="rId69" tooltip="Best Time to Buy and Sell Stock with Transaction Fee" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0B00-0000C0000000}"/>
+    <hyperlink ref="B28" r:id="rId70" tooltip="Best Time to Buy and Sell Stock II" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A80" r:id="rId71" xr:uid="{03C2ADBD-F883-4731-84FF-AC5C883E91B4}"/>
+    <hyperlink ref="B81" r:id="rId72" tooltip="Longest Common Subsequence" display="https://leetcode.com/problems/longest-common-subsequence" xr:uid="{00000000-0004-0000-0B00-000003010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId74"/>
-  <legacyDrawing r:id="rId75"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId73"/>
+  <legacyDrawing r:id="rId74"/>
 </worksheet>
 </file>
 
